--- a/new_universe.xlsx
+++ b/new_universe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-1080" yWindow="-84" windowWidth="22932" windowHeight="9768" tabRatio="435"/>
+    <workbookView xWindow="-1080" yWindow="-84" windowWidth="22932" windowHeight="9768" tabRatio="435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="8" r:id="rId1"/>
@@ -1427,247 +1427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-S</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-S
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-S</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-S
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-S
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W13" authorId="0">
+    <comment ref="J11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1695,59 +1455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F14" authorId="0">
+    <comment ref="K11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1773,7 +1481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I14" authorId="0">
+    <comment ref="M11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1800,114 +1508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-S
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-S
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B15" authorId="0">
+    <comment ref="S11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1933,113 +1534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-S</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-S
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J16" authorId="0">
+    <comment ref="H12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2067,7 +1562,34 @@
         </r>
       </text>
     </comment>
-    <comment ref="R16" authorId="0">
+    <comment ref="S12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+E
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2094,7 +1616,60 @@
         </r>
       </text>
     </comment>
-    <comment ref="S16" authorId="0">
+    <comment ref="H13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+E
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+E</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2121,7 +1696,34 @@
         </r>
       </text>
     </comment>
-    <comment ref="M17" authorId="0">
+    <comment ref="V13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+E
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2149,7 +1751,85 @@
         </r>
       </text>
     </comment>
-    <comment ref="O17" authorId="0">
+    <comment ref="B14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+E</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+E</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+S</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2176,34 +1856,61 @@
         </r>
       </text>
     </comment>
-    <comment ref="T17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E
-S</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U17" authorId="0">
+    <comment ref="N14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+S
+E</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+S
+E</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2230,7 +1937,165 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0">
+    <comment ref="T14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+E</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+S</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+S</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+S
+E</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+E
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+E</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2258,7 +2123,61 @@
         </r>
       </text>
     </comment>
-    <comment ref="O18" authorId="0">
+    <comment ref="R16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+S
+E</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+S
+E</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2285,168 +2204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-S
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-S
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-S
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C20" authorId="0">
+    <comment ref="M17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2474,7 +2232,88 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0">
+    <comment ref="O17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+S
+E</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+E
+S</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+E
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2502,7 +2341,61 @@
         </r>
       </text>
     </comment>
-    <comment ref="H20" authorId="0">
+    <comment ref="O18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+E
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+E
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2525,6 +2418,140 @@
           </rPr>
           <t xml:space="preserve">
 S</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+S
+E</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+S
+E</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+E
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+S
+E</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+E</t>
         </r>
       </text>
     </comment>
@@ -2635,34 +2662,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G21" authorId="0">
+    <comment ref="V20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -6149,7 +6149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="404">
   <si>
     <t>y\x</t>
   </si>
@@ -7181,6 +7181,186 @@
   </si>
   <si>
     <t>Paranid Prime Cluster</t>
+  </si>
+  <si>
+    <t>Number of empty spaces</t>
+  </si>
+  <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>8,10</t>
+  </si>
+  <si>
+    <t>7,10</t>
+  </si>
+  <si>
+    <t>2,13</t>
+  </si>
+  <si>
+    <t>6,10</t>
+  </si>
+  <si>
+    <t>2,14</t>
+  </si>
+  <si>
+    <t>5,10</t>
+  </si>
+  <si>
+    <t>2,15</t>
+  </si>
+  <si>
+    <t>Kingdom End Cluster</t>
+  </si>
+  <si>
+    <t>6,11</t>
+  </si>
+  <si>
+    <t>10,4</t>
+  </si>
+  <si>
+    <t>5,12</t>
+  </si>
+  <si>
+    <t>9,5</t>
+  </si>
+  <si>
+    <t>6,12</t>
+  </si>
+  <si>
+    <t>10,5</t>
+  </si>
+  <si>
+    <t>7,12</t>
+  </si>
+  <si>
+    <t>11,5</t>
+  </si>
+  <si>
+    <t>5,13</t>
+  </si>
+  <si>
+    <t>9,8</t>
+  </si>
+  <si>
+    <t>5,14</t>
+  </si>
+  <si>
+    <t>9,9</t>
+  </si>
+  <si>
+    <t>Profit Center Alpha Cluster</t>
+  </si>
+  <si>
+    <t>8,11</t>
+  </si>
+  <si>
+    <t>11,4</t>
+  </si>
+  <si>
+    <t>8,12</t>
+  </si>
+  <si>
+    <t>0,7</t>
+  </si>
+  <si>
+    <t>9,11</t>
+  </si>
+  <si>
+    <t>14,2</t>
+  </si>
+  <si>
+    <t>9,12</t>
+  </si>
+  <si>
+    <t>11,6</t>
+  </si>
+  <si>
+    <t>Sector count</t>
+  </si>
+  <si>
+    <t>Unknown Sector Kappa</t>
+  </si>
+  <si>
+    <t>12,5</t>
+  </si>
+  <si>
+    <t>8,16</t>
+  </si>
+  <si>
+    <t>13,4</t>
+  </si>
+  <si>
+    <t>4,0</t>
+  </si>
+  <si>
+    <t>14,4</t>
+  </si>
+  <si>
+    <t>5,0</t>
+  </si>
+  <si>
+    <t>13,5</t>
+  </si>
+  <si>
+    <t>4,1</t>
+  </si>
+  <si>
+    <t>14,5</t>
+  </si>
+  <si>
+    <t>5,1</t>
+  </si>
+  <si>
+    <t>13,6</t>
+  </si>
+  <si>
+    <t>4,2</t>
+  </si>
+  <si>
+    <t>14,6</t>
+  </si>
+  <si>
+    <t>5,2</t>
+  </si>
+  <si>
+    <t>14,3</t>
+  </si>
+  <si>
+    <t>Unknown Sector Gamma</t>
+  </si>
+  <si>
+    <t>15,3</t>
+  </si>
+  <si>
+    <t>6,8</t>
+  </si>
+  <si>
+    <t>16,2</t>
+  </si>
+  <si>
+    <t>19,7</t>
+  </si>
+  <si>
+    <t>17,2</t>
+  </si>
+  <si>
+    <t>20,7</t>
+  </si>
+  <si>
+    <t>16,3</t>
+  </si>
+  <si>
+    <t>19,8</t>
+  </si>
+  <si>
+    <t>17,3</t>
+  </si>
+  <si>
+    <t>11,7</t>
   </si>
 </sst>
 </file>
@@ -7457,7 +7637,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7526,23 +7706,14 @@
     <xf numFmtId="49" fontId="7" fillId="9" borderId="2" xfId="7" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="3" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7555,6 +7726,27 @@
     <xf numFmtId="49" fontId="8" fillId="9" borderId="2" xfId="7" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="3" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="2" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="12" borderId="2" xfId="5" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="2" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="3">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="4" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7564,13 +7756,25 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="3" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="8" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="12" borderId="2" xfId="5">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="2" xfId="4" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="12" borderId="2" xfId="5" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7884,8 +8088,11 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" thickTop="1" thickBottom="1"/>
@@ -8056,13 +8263,13 @@
       <c r="I4" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="M4" s="40" t="s">
+      <c r="M4" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="N4" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="O4" s="40" t="s">
+      <c r="O4" s="34" t="s">
         <v>139</v>
       </c>
       <c r="P4" s="7" t="s">
@@ -8091,10 +8298,10 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="28" t="s">
         <v>175</v>
       </c>
       <c r="E5" s="21" t="s">
@@ -8109,19 +8316,19 @@
       <c r="H5" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="M5" s="40" t="s">
+      <c r="M5" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="40" t="s">
+      <c r="N5" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="40" t="s">
+      <c r="O5" s="34" t="s">
         <v>47</v>
       </c>
       <c r="P5" s="7" t="s">
@@ -8153,10 +8360,10 @@
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="28" t="s">
         <v>71</v>
       </c>
       <c r="E6" s="21" t="s">
@@ -8171,22 +8378,22 @@
       <c r="H6" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="L6" s="40" t="s">
+      <c r="L6" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="M6" s="40" t="s">
+      <c r="M6" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="N6" s="40" t="s">
+      <c r="N6" s="34" t="s">
         <v>141</v>
       </c>
       <c r="O6" s="10" t="s">
@@ -8221,13 +8428,13 @@
       <c r="B7" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="28" t="s">
         <v>75</v>
       </c>
       <c r="F7" s="17" t="s">
@@ -8236,25 +8443,25 @@
       <c r="G7" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="L7" s="34" t="s">
+      <c r="L7" s="31" t="s">
         <v>164</v>
       </c>
       <c r="M7" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="29" t="s">
         <v>145</v>
       </c>
       <c r="O7" s="10" t="s">
@@ -8280,34 +8487,34 @@
       <c r="B8" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="L8" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="34" t="s">
+      <c r="M8" s="31" t="s">
         <v>62</v>
       </c>
       <c r="N8" s="20" t="s">
@@ -8336,34 +8543,34 @@
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="K9" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="33" t="s">
+      <c r="L9" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="33" t="s">
+      <c r="M9" s="30" t="s">
         <v>51</v>
       </c>
       <c r="N9" s="20" t="s">
@@ -8386,22 +8593,22 @@
       <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="K10" s="33" t="s">
+      <c r="K10" s="30" t="s">
         <v>42</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -8445,8 +8652,17 @@
       <c r="E11" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="25" t="s">
         <v>161</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>189</v>
@@ -8492,14 +8708,29 @@
       <c r="E12" s="17" t="s">
         <v>310</v>
       </c>
+      <c r="F12" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>2</v>
+      </c>
       <c r="K12" s="2" t="s">
         <v>188</v>
       </c>
       <c r="L12" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="M12" s="22" t="s">
         <v>307</v>
-      </c>
-      <c r="M12" s="22" t="s">
-        <v>308</v>
       </c>
       <c r="N12" s="21" t="s">
         <v>297</v>
@@ -8542,16 +8773,19 @@
       <c r="F13" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="G13" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="H13" s="45" t="s">
         <v>90</v>
       </c>
       <c r="I13" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="45" t="s">
         <v>170</v>
       </c>
       <c r="M13" s="21" t="s">
@@ -8604,19 +8838,19 @@
       <c r="F14" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="45" t="s">
         <v>94</v>
       </c>
       <c r="M14" s="1" t="s">
@@ -8628,7 +8862,7 @@
       <c r="O14" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="42" t="s">
         <v>321</v>
       </c>
       <c r="Q14" s="17" t="s">
@@ -8672,7 +8906,7 @@
       <c r="F15" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="45" t="s">
         <v>107</v>
       </c>
       <c r="H15" s="20" t="s">
@@ -8696,7 +8930,7 @@
       <c r="O15" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="P15" s="42" t="s">
         <v>322</v>
       </c>
       <c r="Q15" s="17" t="s">
@@ -8725,10 +8959,13 @@
       <c r="D16" s="11" t="s">
         <v>118</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="F16" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="45" t="s">
         <v>109</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -8768,13 +9005,22 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="42" customHeight="1" thickTop="1" thickBot="1">
+    <row r="17" spans="1:22" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="A17" s="6">
         <v>15</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>119</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="H17" s="3" t="s">
         <v>120</v>
       </c>
@@ -8802,6 +9048,9 @@
       <c r="R17" s="8" t="s">
         <v>104</v>
       </c>
+      <c r="S17" s="21" t="s">
+        <v>299</v>
+      </c>
       <c r="T17" s="5" t="s">
         <v>65</v>
       </c>
@@ -8809,27 +9058,21 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="42" customHeight="1" thickTop="1" thickBot="1">
+    <row r="18" spans="1:22" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>272</v>
-      </c>
       <c r="D18" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>2</v>
+      <c r="E18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>4</v>
@@ -8843,6 +9086,12 @@
       <c r="K18" s="10" t="s">
         <v>67</v>
       </c>
+      <c r="L18" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>171</v>
+      </c>
       <c r="N18" s="9" t="s">
         <v>80</v>
       </c>
@@ -8867,34 +9116,19 @@
       <c r="U18" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="V18" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="W18" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="42" customHeight="1" thickTop="1" thickBot="1">
+    </row>
+    <row r="19" spans="1:22" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>79</v>
+      <c r="E19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="I19" s="18" t="s">
         <v>260</v>
@@ -8926,34 +9160,22 @@
       <c r="T19" s="10" t="s">
         <v>200</v>
       </c>
+      <c r="U19" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="V19" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="W19" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="42" customHeight="1" thickTop="1" thickBot="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="G20" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>186</v>
+        <v>83</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>262</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>156</v>
@@ -8988,23 +9210,20 @@
       <c r="S20" s="10" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" ht="42" customHeight="1" thickTop="1" thickBot="1">
+      <c r="T20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>262</v>
-      </c>
       <c r="I21" s="8" t="s">
         <v>157</v>
       </c>
@@ -9032,113 +9251,27 @@
       <c r="T21" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A22" s="6">
-        <v>20</v>
-      </c>
-      <c r="K22" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A23" s="6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" s="15" customFormat="1" ht="42" customHeight="1" thickTop="1" thickBot="1"/>
-    <row r="27" spans="1:23" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="E27" s="8"/>
-      <c r="F27" s="13">
-        <f>COUNTCCOLOR(B2:Y23,E27)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="E28" s="9"/>
-      <c r="F28" s="13">
-        <f>COUNTCCOLOR(B2:Y23,E28)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="E29" s="10"/>
-      <c r="F29" s="13">
-        <f>COUNTCCOLOR(B2:Y23,E29)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="E30" s="5"/>
-      <c r="F30" s="13">
-        <f>COUNTCCOLOR(B2:Y23,E30)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="E31" s="1"/>
-      <c r="F31" s="13">
-        <f>COUNTCCOLOR(B2:Y23,E31)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="E32" s="4"/>
-      <c r="F32" s="13">
-        <f>COUNTCCOLOR(B2:Y23,E32)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="E33" s="2"/>
-      <c r="F33" s="13">
-        <f>COUNTCCOLOR(B2:Y23,E33)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="E34" s="11"/>
-      <c r="F34" s="13">
-        <f>COUNTCCOLOR(B2:Y23,E34)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="E35" s="12"/>
-      <c r="F35" s="13">
-        <f>COUNTCCOLOR(B2:Y23,E35)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="E36" s="7"/>
-      <c r="F36" s="13">
-        <f>COUNTCCOLOR(B2:Y23,E36)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="5:6" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="E37" s="3"/>
-      <c r="F37" s="13">
-        <f>COUNTCCOLOR(B2:Y23,E37)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="5:6" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="F38" s="14">
-        <f>SUM(F27:F37)</f>
+    </row>
+    <row r="22" spans="1:22" s="15" customFormat="1" ht="42" customHeight="1" thickTop="1" thickBot="1"/>
+    <row r="23" spans="1:22" ht="42" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B23" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C23" s="6">
+        <f>COUNTA(B2:Y21)</f>
         <v>324</v>
       </c>
     </row>
+    <row r="24" spans="1:22" ht="42" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B24" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C24" s="6">
+        <f>COUNTBLANK(B2:Y21)</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" ht="42" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9153,7 +9286,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" thickTop="1" thickBottom="1"/>
@@ -10093,85 +10226,85 @@
     </row>
     <row r="24" spans="1:20" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="B24" s="8"/>
-      <c r="C24" s="13">
-        <f>COUNTCCOLOR(B2:Y22,B24)</f>
-        <v>37</v>
+      <c r="C24" s="13" t="e">
+        <f ca="1">COUNTCCOLOR(B2:Y22,B24)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="B25" s="9"/>
-      <c r="C25" s="13">
-        <f>COUNTCCOLOR(B2:Y22,B25)</f>
-        <v>31</v>
+      <c r="C25" s="13" t="e">
+        <f ca="1">COUNTCCOLOR(B2:Y22,B25)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="B26" s="10"/>
-      <c r="C26" s="13">
-        <f>COUNTCCOLOR(B2:Y22,B26)</f>
-        <v>33</v>
+      <c r="C26" s="13" t="e">
+        <f ca="1">COUNTCCOLOR(B2:Y22,B26)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="B27" s="5"/>
-      <c r="C27" s="13">
-        <f>COUNTCCOLOR(B2:Y22,B27)</f>
-        <v>32</v>
+      <c r="C27" s="13" t="e">
+        <f ca="1">COUNTCCOLOR(B2:Y22,B27)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="B28" s="1"/>
-      <c r="C28" s="13">
-        <f>COUNTCCOLOR(B2:Y22,B28)</f>
-        <v>35</v>
+      <c r="C28" s="13" t="e">
+        <f ca="1">COUNTCCOLOR(B2:Y22,B28)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="B29" s="4"/>
-      <c r="C29" s="13">
-        <f>COUNTCCOLOR(B2:Y22,B29)</f>
-        <v>25</v>
+      <c r="C29" s="13" t="e">
+        <f ca="1">COUNTCCOLOR(B2:Y22,B29)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="B30" s="2"/>
-      <c r="C30" s="13">
-        <f>COUNTCCOLOR(B2:Y22,B30)</f>
-        <v>11</v>
+      <c r="C30" s="13" t="e">
+        <f ca="1">COUNTCCOLOR(B2:Y22,B30)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="B31" s="11"/>
-      <c r="C31" s="13">
-        <f>COUNTCCOLOR(B2:Y22,B31)</f>
-        <v>23</v>
+      <c r="C31" s="13" t="e">
+        <f ca="1">COUNTCCOLOR(B2:Y22,B31)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="B32" s="12"/>
-      <c r="C32" s="13">
-        <f>COUNTCCOLOR(B2:Y22,B32)</f>
-        <v>3</v>
+      <c r="C32" s="13" t="e">
+        <f ca="1">COUNTCCOLOR(B2:Y22,B32)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="B33" s="7"/>
-      <c r="C33" s="13">
-        <f>COUNTCCOLOR(B2:Y22,B33)</f>
-        <v>3</v>
+      <c r="C33" s="13" t="e">
+        <f ca="1">COUNTCCOLOR(B2:Y22,B33)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="B34" s="3"/>
-      <c r="C34" s="13">
-        <f>COUNTCCOLOR(B2:Y22,B34)</f>
-        <v>16</v>
+      <c r="C34" s="13" t="e">
+        <f ca="1">COUNTCCOLOR(B2:Y22,B34)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C35" s="14">
-        <f>SUM(C24:C34)</f>
-        <v>249</v>
+      <c r="C35" s="14" t="e">
+        <f ca="1">SUM(C24:C34)</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -10184,11 +10317,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J508"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10204,17 +10337,17 @@
     <row r="1" spans="1:10">
       <c r="A1">
         <f>COUNTA(D3:D600)</f>
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="B1">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C1" t="s">
         <v>336</v>
       </c>
-      <c r="D1" s="29">
+      <c r="D1" s="27">
         <f>A1/B1</f>
-        <v>0.16257668711656442</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1">
@@ -10247,10 +10380,10 @@
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="43">
         <v>1.3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="43">
         <v>7.7</v>
       </c>
       <c r="D3" t="s">
@@ -10265,19 +10398,19 @@
       <c r="H3" t="s">
         <v>327</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="37" t="s">
         <v>332</v>
       </c>
-      <c r="J3" s="24"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="43">
         <v>0.3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="43">
         <v>6.7</v>
       </c>
       <c r="D4" t="s">
@@ -10292,17 +10425,17 @@
       <c r="H4" t="s">
         <v>327</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="43">
         <v>0.2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="43">
         <v>6.6</v>
       </c>
       <c r="D5" t="s">
@@ -10317,17 +10450,17 @@
       <c r="H5" t="s">
         <v>327</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="43">
         <v>1.2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="43">
         <v>7.6</v>
       </c>
       <c r="D6" t="s">
@@ -10342,17 +10475,17 @@
       <c r="H6" t="s">
         <v>327</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
     </row>
     <row r="7" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="43">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="43">
         <v>8.6</v>
       </c>
       <c r="D7" t="s">
@@ -10367,17 +10500,17 @@
       <c r="H7" t="s">
         <v>327</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="43">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="43">
         <v>8.6999999999999993</v>
       </c>
       <c r="D8" t="s">
@@ -10392,17 +10525,17 @@
       <c r="H8" t="s">
         <v>327</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
     </row>
     <row r="9" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" t="s">
         <v>147</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="43">
         <v>12.6</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="43">
         <v>8.8000000000000007</v>
       </c>
       <c r="D9" t="s">
@@ -10417,17 +10550,17 @@
       <c r="H9" t="s">
         <v>327</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
     </row>
     <row r="10" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" t="s">
         <v>163</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="43">
         <v>18.7</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="43">
         <v>7.8</v>
       </c>
       <c r="D10" t="s">
@@ -10442,17 +10575,17 @@
       <c r="H10" t="s">
         <v>327</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" t="s">
         <v>162</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="43">
         <v>17.7</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="43">
         <v>6.8</v>
       </c>
       <c r="D11" t="s">
@@ -10467,17 +10600,17 @@
       <c r="H11" t="s">
         <v>327</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" t="s">
         <v>160</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="43">
         <v>16.7</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="43">
         <v>5.8</v>
       </c>
       <c r="D12" t="s">
@@ -10492,17 +10625,17 @@
       <c r="H12" t="s">
         <v>327</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" t="s">
         <v>161</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="43">
         <v>16.8</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="43">
         <v>5.9</v>
       </c>
       <c r="D13" t="s">
@@ -10517,18 +10650,21 @@
       <c r="H13" t="s">
         <v>327</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-    </row>
-    <row r="14" spans="1:10" s="25" customFormat="1" ht="15.6" thickTop="1" thickBot="1"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+    </row>
+    <row r="14" spans="1:10" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+    </row>
     <row r="15" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" t="s">
         <v>110</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="43">
         <v>8.9</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="43">
         <v>5.6</v>
       </c>
       <c r="D15" t="s">
@@ -10543,19 +10679,19 @@
       <c r="H15" t="s">
         <v>327</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="38" t="s">
         <v>335</v>
       </c>
-      <c r="J15" s="27"/>
+      <c r="J15" s="38"/>
     </row>
     <row r="16" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" t="s">
         <v>181</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="43">
         <v>18.3</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="43">
         <v>5.7</v>
       </c>
       <c r="D16" t="s">
@@ -10570,17 +10706,17 @@
       <c r="H16" t="s">
         <v>327</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
     </row>
     <row r="17" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" t="s">
         <v>182</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="43">
         <v>17.3</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="43">
         <v>4.7</v>
       </c>
       <c r="D17" t="s">
@@ -10595,17 +10731,17 @@
       <c r="H17" t="s">
         <v>327</v>
       </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
     </row>
     <row r="18" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A18" t="s">
         <v>111</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="43">
         <v>7.9</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="43">
         <v>4.5999999999999996</v>
       </c>
       <c r="D18" t="s">
@@ -10620,17 +10756,17 @@
       <c r="H18" t="s">
         <v>327</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
     </row>
     <row r="19" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" t="s">
         <v>183</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="43">
         <v>18.2</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="43">
         <v>3.7</v>
       </c>
       <c r="D19" t="s">
@@ -10645,17 +10781,17 @@
       <c r="H19" t="s">
         <v>327</v>
       </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
     </row>
     <row r="20" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" t="s">
         <v>334</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="43">
         <v>18.100000000000001</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="43">
         <v>3.6</v>
       </c>
       <c r="D20" t="s">
@@ -10670,17 +10806,17 @@
       <c r="H20" t="s">
         <v>327</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" t="s">
         <v>114</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="43">
         <v>5.8</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="43">
         <v>2.6</v>
       </c>
       <c r="D21" t="s">
@@ -10695,17 +10831,17 @@
       <c r="H21" t="s">
         <v>327</v>
       </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
     </row>
     <row r="22" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" t="s">
         <v>115</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="43">
         <v>5.9</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="43">
         <v>2.7</v>
       </c>
       <c r="D22" t="s">
@@ -10720,17 +10856,17 @@
       <c r="H22" t="s">
         <v>327</v>
       </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
     </row>
     <row r="23" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" t="s">
         <v>116</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="43">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="43">
         <v>2.8</v>
       </c>
       <c r="D23" t="s">
@@ -10745,18 +10881,21 @@
       <c r="H23" t="s">
         <v>327</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-    </row>
-    <row r="24" spans="1:10" s="25" customFormat="1" ht="15.6" thickTop="1" thickBot="1"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+    </row>
+    <row r="24" spans="1:10" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+    </row>
     <row r="25" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" t="s">
         <v>75</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="43">
         <v>5.12</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="43">
         <v>3.5</v>
       </c>
       <c r="D25" t="s">
@@ -10771,19 +10910,19 @@
       <c r="H25" t="s">
         <v>327</v>
       </c>
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="J25" s="30"/>
+      <c r="J25" s="35"/>
     </row>
     <row r="26" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" t="s">
         <v>74</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="43">
         <v>4.12</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="43">
         <v>2.5</v>
       </c>
       <c r="D26" t="s">
@@ -10798,17 +10937,17 @@
       <c r="H26" t="s">
         <v>327</v>
       </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" t="s">
         <v>73</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="43">
         <v>3.12</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="43">
         <v>1.5</v>
       </c>
       <c r="D27" t="s">
@@ -10823,17 +10962,17 @@
       <c r="H27" t="s">
         <v>327</v>
       </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
     </row>
     <row r="28" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" t="s">
         <v>71</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="43">
         <v>4.1100000000000003</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="43">
         <v>2.4</v>
       </c>
       <c r="D28" t="s">
@@ -10848,17 +10987,17 @@
       <c r="H28" t="s">
         <v>327</v>
       </c>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
     </row>
     <row r="29" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" t="s">
         <v>175</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="43">
         <v>18.399999999999999</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="43">
         <v>2.2999999999999998</v>
       </c>
       <c r="D29" t="s">
@@ -10873,17 +11012,17 @@
       <c r="H29" t="s">
         <v>327</v>
       </c>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
     </row>
     <row r="30" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" t="s">
         <v>14</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="43">
         <v>6.1</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="43">
         <v>1.3</v>
       </c>
       <c r="D30" t="s">
@@ -10898,17 +11037,17 @@
       <c r="H30" t="s">
         <v>327</v>
       </c>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
     </row>
     <row r="31" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" t="s">
         <v>337</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="43">
         <v>10.9</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="43">
         <v>1.4</v>
       </c>
       <c r="D31" t="s">
@@ -10923,18 +11062,21 @@
       <c r="H31" t="s">
         <v>327</v>
       </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-    </row>
-    <row r="32" spans="1:10" s="25" customFormat="1" ht="15.6" thickTop="1" thickBot="1"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+    </row>
+    <row r="32" spans="1:10" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+    </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" thickTop="1">
       <c r="A33" t="s">
         <v>41</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="43">
         <v>3.5</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="43">
         <v>9.6</v>
       </c>
       <c r="D33" t="s">
@@ -10949,19 +11091,19 @@
       <c r="H33" t="s">
         <v>327</v>
       </c>
-      <c r="I33" s="35" t="s">
+      <c r="I33" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="J33" s="35"/>
+      <c r="J33" s="39"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>49</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="43">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="43">
         <v>9.6999999999999993</v>
       </c>
       <c r="D34" t="s">
@@ -10976,17 +11118,17 @@
       <c r="H34" t="s">
         <v>327</v>
       </c>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>42</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="43">
         <v>4.5</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="43">
         <v>9.8000000000000007</v>
       </c>
       <c r="D35" t="s">
@@ -11001,17 +11143,17 @@
       <c r="H35" t="s">
         <v>327</v>
       </c>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>339</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="43">
         <v>5.6</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="43">
         <v>10.7</v>
       </c>
       <c r="D36" t="s">
@@ -11026,17 +11168,17 @@
       <c r="H36" t="s">
         <v>327</v>
       </c>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>51</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="43">
         <v>6.6</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="43">
         <v>11.7</v>
       </c>
       <c r="D37" t="s">
@@ -11051,17 +11193,17 @@
       <c r="H37" t="s">
         <v>327</v>
       </c>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>61</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="43">
         <v>4.7</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="43">
         <v>10.6</v>
       </c>
       <c r="D38" t="s">
@@ -11076,17 +11218,17 @@
       <c r="H38" t="s">
         <v>327</v>
       </c>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>62</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="43">
         <v>5.7</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="43">
         <v>11.6</v>
       </c>
       <c r="D39" t="s">
@@ -11101,17 +11243,17 @@
       <c r="H39" t="s">
         <v>327</v>
       </c>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>341</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="43">
         <v>3.3</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="43">
         <v>6.5</v>
       </c>
       <c r="D40" t="s">
@@ -11126,17 +11268,17 @@
       <c r="H40" t="s">
         <v>327</v>
       </c>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>27</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="43">
         <v>4.3</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="43">
         <v>7.5</v>
       </c>
       <c r="D41" t="s">
@@ -11151,17 +11293,17 @@
       <c r="H41" t="s">
         <v>327</v>
       </c>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>35</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="43">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="43">
         <v>8.5</v>
       </c>
       <c r="D42" t="s">
@@ -11176,21 +11318,23 @@
       <c r="H42" t="s">
         <v>327</v>
       </c>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-    </row>
-    <row r="43" spans="1:10" s="25" customFormat="1" ht="15" thickBot="1">
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+    </row>
+    <row r="43" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1">
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A44" t="s">
         <v>210</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="43">
         <v>15.16</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="43">
         <v>9.4</v>
       </c>
       <c r="D44" t="s">
@@ -11205,19 +11349,19 @@
       <c r="H44" t="s">
         <v>327</v>
       </c>
-      <c r="I44" s="30" t="s">
+      <c r="I44" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="J44" s="30"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" t="s">
         <v>209</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="43">
         <v>15.15</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="43">
         <v>9.5</v>
       </c>
       <c r="D45" t="s">
@@ -11232,17 +11376,17 @@
       <c r="H45" t="s">
         <v>327</v>
       </c>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
     </row>
     <row r="46" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" t="s">
         <v>211</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="43">
         <v>14.15</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="43">
         <v>8.4</v>
       </c>
       <c r="D46" t="s">
@@ -11257,17 +11401,17 @@
       <c r="H46" t="s">
         <v>327</v>
       </c>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
     </row>
     <row r="47" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" t="s">
         <v>165</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="43">
         <v>16.5</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="43">
         <v>7.4</v>
       </c>
       <c r="D47" t="s">
@@ -11282,17 +11426,17 @@
       <c r="H47" t="s">
         <v>327</v>
       </c>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
     </row>
     <row r="48" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" t="s">
         <v>166</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="43">
         <v>16.399999999999999</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="43">
         <v>7.3</v>
       </c>
       <c r="D48" t="s">
@@ -11307,17 +11451,17 @@
       <c r="H48" t="s">
         <v>327</v>
       </c>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
     </row>
     <row r="49" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" t="s">
         <v>174</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="43">
         <v>17.399999999999999</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="43">
         <v>8.3000000000000007</v>
       </c>
       <c r="D49" t="s">
@@ -11332,18 +11476,21 @@
       <c r="H49" t="s">
         <v>327</v>
       </c>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-    </row>
-    <row r="50" spans="1:10" s="25" customFormat="1" ht="15.6" thickTop="1" thickBot="1"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+    </row>
+    <row r="50" spans="1:10" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+    </row>
     <row r="51" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A51" t="s">
         <v>164</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="43">
         <v>15.5</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="43">
         <v>10.5</v>
       </c>
       <c r="D51" t="s">
@@ -11358,19 +11505,19 @@
       <c r="H51" t="s">
         <v>327</v>
       </c>
-      <c r="I51" s="39" t="s">
+      <c r="I51" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="J51" s="39"/>
+      <c r="J51" s="36"/>
     </row>
     <row r="52" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A52" t="s">
         <v>144</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="43">
         <v>7.16</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="43">
         <v>10.4</v>
       </c>
       <c r="D52" t="s">
@@ -11385,17 +11532,17 @@
       <c r="H52" t="s">
         <v>327</v>
       </c>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
     </row>
     <row r="53" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A53" t="s">
         <v>140</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="43">
         <v>7.15</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="43">
         <v>11.4</v>
       </c>
       <c r="D53" t="s">
@@ -11410,17 +11557,17 @@
       <c r="H53" t="s">
         <v>327</v>
       </c>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
     </row>
     <row r="54" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A54" t="s">
         <v>141</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="43">
         <v>8.15</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="43">
         <v>12.4</v>
       </c>
       <c r="D54" t="s">
@@ -11435,17 +11582,17 @@
       <c r="H54" t="s">
         <v>327</v>
       </c>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
     </row>
     <row r="55" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A55" t="s">
         <v>45</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="43">
         <v>0.6</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="43">
         <v>11.3</v>
       </c>
       <c r="D55" t="s">
@@ -11460,17 +11607,17 @@
       <c r="H55" t="s">
         <v>327</v>
       </c>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
     </row>
     <row r="56" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A56" t="s">
         <v>46</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="43">
         <v>1.6</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="43">
         <v>12.3</v>
       </c>
       <c r="D56" t="s">
@@ -11485,17 +11632,17 @@
       <c r="H56" t="s">
         <v>327</v>
       </c>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
     </row>
     <row r="57" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A57" t="s">
         <v>47</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="43">
         <v>2.6</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="43">
         <v>13.3</v>
       </c>
       <c r="D57" t="s">
@@ -11510,17 +11657,17 @@
       <c r="H57" t="s">
         <v>327</v>
       </c>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
     </row>
     <row r="58" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A58" t="s">
         <v>134</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="43">
         <v>7.14</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="43">
         <v>11.2</v>
       </c>
       <c r="D58" t="s">
@@ -11535,17 +11682,17 @@
       <c r="H58" t="s">
         <v>327</v>
       </c>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
     </row>
     <row r="59" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A59" t="s">
         <v>135</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="43">
         <v>8.14</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="43">
         <v>12.2</v>
       </c>
       <c r="D59" t="s">
@@ -11560,17 +11707,17 @@
       <c r="H59" t="s">
         <v>327</v>
       </c>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
     </row>
     <row r="60" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A60" t="s">
         <v>139</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="43">
         <v>12.14</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="43">
         <v>13.2</v>
       </c>
       <c r="D60" t="s">
@@ -11585,12 +11732,2220 @@
       <c r="H60" t="s">
         <v>327</v>
       </c>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-    </row>
-    <row r="61" spans="1:10" s="25" customFormat="1" ht="15" thickTop="1"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+    </row>
+    <row r="61" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A61" t="s">
+        <v>377</v>
+      </c>
+      <c r="B61" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="D61" t="s">
+        <v>327</v>
+      </c>
+      <c r="F61" t="s">
+        <v>327</v>
+      </c>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+    </row>
+    <row r="62" spans="1:10" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="C63" s="43">
+        <v>8.9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>327</v>
+      </c>
+      <c r="F63" t="s">
+        <v>327</v>
+      </c>
+      <c r="H63" t="s">
+        <v>327</v>
+      </c>
+      <c r="I63" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="J63" s="38"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>346</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="D64" t="s">
+        <v>327</v>
+      </c>
+      <c r="F64" t="s">
+        <v>327</v>
+      </c>
+      <c r="H64" t="s">
+        <v>327</v>
+      </c>
+      <c r="I64" s="38"/>
+      <c r="J64" s="38"/>
+    </row>
+    <row r="65" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="D65" t="s">
+        <v>327</v>
+      </c>
+      <c r="F65" t="s">
+        <v>327</v>
+      </c>
+      <c r="H65" t="s">
+        <v>327</v>
+      </c>
+      <c r="I65" s="38"/>
+      <c r="J65" s="38"/>
+    </row>
+    <row r="66" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A66" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="43" t="s">
+        <v>351</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="D66" t="s">
+        <v>327</v>
+      </c>
+      <c r="F66" t="s">
+        <v>327</v>
+      </c>
+      <c r="H66" t="s">
+        <v>327</v>
+      </c>
+      <c r="I66" s="38"/>
+      <c r="J66" s="38"/>
+    </row>
+    <row r="67" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="D67" t="s">
+        <v>327</v>
+      </c>
+      <c r="F67" t="s">
+        <v>327</v>
+      </c>
+      <c r="H67" t="s">
+        <v>327</v>
+      </c>
+      <c r="I67" s="38"/>
+      <c r="J67" s="38"/>
+    </row>
+    <row r="68" spans="1:10" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
+    </row>
+    <row r="69" spans="1:10" ht="15" customHeight="1" thickTop="1">
+      <c r="A69" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="D69" t="s">
+        <v>327</v>
+      </c>
+      <c r="F69" t="s">
+        <v>327</v>
+      </c>
+      <c r="H69" t="s">
+        <v>327</v>
+      </c>
+      <c r="I69" s="46" t="s">
+        <v>367</v>
+      </c>
+      <c r="J69" s="46"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="D70" t="s">
+        <v>327</v>
+      </c>
+      <c r="F70" t="s">
+        <v>327</v>
+      </c>
+      <c r="H70" t="s">
+        <v>327</v>
+      </c>
+      <c r="I70" s="47"/>
+      <c r="J70" s="47"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="C71" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="D71" t="s">
+        <v>327</v>
+      </c>
+      <c r="F71" t="s">
+        <v>327</v>
+      </c>
+      <c r="H71" t="s">
+        <v>327</v>
+      </c>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="D72" t="s">
+        <v>327</v>
+      </c>
+      <c r="F72" t="s">
+        <v>327</v>
+      </c>
+      <c r="H72" t="s">
+        <v>327</v>
+      </c>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" s="43" t="s">
+        <v>364</v>
+      </c>
+      <c r="C73" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="D73" t="s">
+        <v>327</v>
+      </c>
+      <c r="F73" t="s">
+        <v>327</v>
+      </c>
+      <c r="H73" t="s">
+        <v>327</v>
+      </c>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="C74" s="43" t="s">
+        <v>365</v>
+      </c>
+      <c r="D74" t="s">
+        <v>327</v>
+      </c>
+      <c r="F74" t="s">
+        <v>327</v>
+      </c>
+      <c r="H74" t="s">
+        <v>327</v>
+      </c>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
+        <v>237</v>
+      </c>
+      <c r="B75" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="D75" t="s">
+        <v>327</v>
+      </c>
+      <c r="F75" t="s">
+        <v>327</v>
+      </c>
+      <c r="H75" t="s">
+        <v>327</v>
+      </c>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="C76" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="D76" t="s">
+        <v>327</v>
+      </c>
+      <c r="F76" t="s">
+        <v>327</v>
+      </c>
+      <c r="H76" t="s">
+        <v>327</v>
+      </c>
+      <c r="I76" s="47"/>
+      <c r="J76" s="47"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" t="s">
+        <v>170</v>
+      </c>
+      <c r="B77" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="C77" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="D77" t="s">
+        <v>327</v>
+      </c>
+      <c r="F77" t="s">
+        <v>327</v>
+      </c>
+      <c r="H77" t="s">
+        <v>327</v>
+      </c>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="C78" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="D78" t="s">
+        <v>327</v>
+      </c>
+      <c r="F78" t="s">
+        <v>327</v>
+      </c>
+      <c r="H78" t="s">
+        <v>327</v>
+      </c>
+      <c r="I78" s="48"/>
+      <c r="J78" s="48"/>
+    </row>
+    <row r="79" spans="1:10" s="24" customFormat="1">
+      <c r="B79" s="44"/>
+      <c r="C79" s="44"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="43" t="s">
+        <v>381</v>
+      </c>
+      <c r="C80" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="D80" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="C81" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D81" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="C82" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D82" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="C83" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D83" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="C84" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="D84" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="C85" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="D85" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>264</v>
+      </c>
+      <c r="B86" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="C86" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="D86" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="C87" s="43" t="s">
+        <v>392</v>
+      </c>
+      <c r="D87" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>393</v>
+      </c>
+      <c r="B88" s="43" t="s">
+        <v>395</v>
+      </c>
+      <c r="C88" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="D88" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>180</v>
+      </c>
+      <c r="B89" s="43" t="s">
+        <v>397</v>
+      </c>
+      <c r="C89" s="43" t="s">
+        <v>396</v>
+      </c>
+      <c r="D89" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>193</v>
+      </c>
+      <c r="B90" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="C90" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="D90" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>194</v>
+      </c>
+      <c r="B91" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="C91" s="43" t="s">
+        <v>400</v>
+      </c>
+      <c r="D91" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="C92" s="43" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="B93" s="43"/>
+      <c r="C93" s="43"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="B96" s="43"/>
+      <c r="C96" s="43"/>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" s="43"/>
+      <c r="C97" s="43"/>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" s="43"/>
+      <c r="C98" s="43"/>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" s="43"/>
+      <c r="C99" s="43"/>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" s="43"/>
+      <c r="C101" s="43"/>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="B102" s="43"/>
+      <c r="C102" s="43"/>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" s="43"/>
+      <c r="C103" s="43"/>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105" s="43"/>
+      <c r="C105" s="43"/>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106" s="43"/>
+      <c r="C106" s="43"/>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107" s="43"/>
+      <c r="C107" s="43"/>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="B108" s="43"/>
+      <c r="C108" s="43"/>
+    </row>
+    <row r="109" spans="2:3">
+      <c r="B109" s="43"/>
+      <c r="C109" s="43"/>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="B110" s="43"/>
+      <c r="C110" s="43"/>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111" s="43"/>
+      <c r="C111" s="43"/>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112" s="43"/>
+      <c r="C112" s="43"/>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113" s="43"/>
+      <c r="C113" s="43"/>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114" s="43"/>
+      <c r="C114" s="43"/>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="B115" s="43"/>
+      <c r="C115" s="43"/>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="B116" s="43"/>
+      <c r="C116" s="43"/>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="B117" s="43"/>
+      <c r="C117" s="43"/>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="B118" s="43"/>
+      <c r="C118" s="43"/>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119" s="43"/>
+      <c r="C119" s="43"/>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="B120" s="43"/>
+      <c r="C120" s="43"/>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="B121" s="43"/>
+      <c r="C121" s="43"/>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122" s="43"/>
+      <c r="C122" s="43"/>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="B123" s="43"/>
+      <c r="C123" s="43"/>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="B124" s="43"/>
+      <c r="C124" s="43"/>
+    </row>
+    <row r="125" spans="2:3">
+      <c r="B125" s="43"/>
+      <c r="C125" s="43"/>
+    </row>
+    <row r="126" spans="2:3">
+      <c r="B126" s="43"/>
+      <c r="C126" s="43"/>
+    </row>
+    <row r="127" spans="2:3">
+      <c r="B127" s="43"/>
+      <c r="C127" s="43"/>
+    </row>
+    <row r="128" spans="2:3">
+      <c r="B128" s="43"/>
+      <c r="C128" s="43"/>
+    </row>
+    <row r="129" spans="2:3">
+      <c r="B129" s="43"/>
+      <c r="C129" s="43"/>
+    </row>
+    <row r="130" spans="2:3">
+      <c r="B130" s="43"/>
+      <c r="C130" s="43"/>
+    </row>
+    <row r="131" spans="2:3">
+      <c r="B131" s="43"/>
+      <c r="C131" s="43"/>
+    </row>
+    <row r="132" spans="2:3">
+      <c r="B132" s="43"/>
+      <c r="C132" s="43"/>
+    </row>
+    <row r="133" spans="2:3">
+      <c r="B133" s="43"/>
+      <c r="C133" s="43"/>
+    </row>
+    <row r="134" spans="2:3">
+      <c r="B134" s="43"/>
+      <c r="C134" s="43"/>
+    </row>
+    <row r="135" spans="2:3">
+      <c r="B135" s="43"/>
+      <c r="C135" s="43"/>
+    </row>
+    <row r="136" spans="2:3">
+      <c r="B136" s="43"/>
+      <c r="C136" s="43"/>
+    </row>
+    <row r="137" spans="2:3">
+      <c r="B137" s="43"/>
+      <c r="C137" s="43"/>
+    </row>
+    <row r="138" spans="2:3">
+      <c r="B138" s="43"/>
+      <c r="C138" s="43"/>
+    </row>
+    <row r="139" spans="2:3">
+      <c r="B139" s="43"/>
+      <c r="C139" s="43"/>
+    </row>
+    <row r="140" spans="2:3">
+      <c r="B140" s="43"/>
+      <c r="C140" s="43"/>
+    </row>
+    <row r="141" spans="2:3">
+      <c r="B141" s="43"/>
+      <c r="C141" s="43"/>
+    </row>
+    <row r="142" spans="2:3">
+      <c r="B142" s="43"/>
+      <c r="C142" s="43"/>
+    </row>
+    <row r="143" spans="2:3">
+      <c r="B143" s="43"/>
+      <c r="C143" s="43"/>
+    </row>
+    <row r="144" spans="2:3">
+      <c r="B144" s="43"/>
+      <c r="C144" s="43"/>
+    </row>
+    <row r="145" spans="2:3">
+      <c r="B145" s="43"/>
+      <c r="C145" s="43"/>
+    </row>
+    <row r="146" spans="2:3">
+      <c r="B146" s="43"/>
+      <c r="C146" s="43"/>
+    </row>
+    <row r="147" spans="2:3">
+      <c r="B147" s="43"/>
+      <c r="C147" s="43"/>
+    </row>
+    <row r="148" spans="2:3">
+      <c r="B148" s="43"/>
+      <c r="C148" s="43"/>
+    </row>
+    <row r="149" spans="2:3">
+      <c r="B149" s="43"/>
+      <c r="C149" s="43"/>
+    </row>
+    <row r="150" spans="2:3">
+      <c r="B150" s="43"/>
+      <c r="C150" s="43"/>
+    </row>
+    <row r="151" spans="2:3">
+      <c r="B151" s="43"/>
+      <c r="C151" s="43"/>
+    </row>
+    <row r="152" spans="2:3">
+      <c r="B152" s="43"/>
+      <c r="C152" s="43"/>
+    </row>
+    <row r="153" spans="2:3">
+      <c r="B153" s="43"/>
+      <c r="C153" s="43"/>
+    </row>
+    <row r="154" spans="2:3">
+      <c r="B154" s="43"/>
+      <c r="C154" s="43"/>
+    </row>
+    <row r="155" spans="2:3">
+      <c r="B155" s="43"/>
+      <c r="C155" s="43"/>
+    </row>
+    <row r="156" spans="2:3">
+      <c r="B156" s="43"/>
+      <c r="C156" s="43"/>
+    </row>
+    <row r="157" spans="2:3">
+      <c r="B157" s="43"/>
+      <c r="C157" s="43"/>
+    </row>
+    <row r="158" spans="2:3">
+      <c r="B158" s="43"/>
+      <c r="C158" s="43"/>
+    </row>
+    <row r="159" spans="2:3">
+      <c r="B159" s="43"/>
+      <c r="C159" s="43"/>
+    </row>
+    <row r="160" spans="2:3">
+      <c r="B160" s="43"/>
+      <c r="C160" s="43"/>
+    </row>
+    <row r="161" spans="2:3">
+      <c r="B161" s="43"/>
+      <c r="C161" s="43"/>
+    </row>
+    <row r="162" spans="2:3">
+      <c r="B162" s="43"/>
+      <c r="C162" s="43"/>
+    </row>
+    <row r="163" spans="2:3">
+      <c r="B163" s="43"/>
+      <c r="C163" s="43"/>
+    </row>
+    <row r="164" spans="2:3">
+      <c r="B164" s="43"/>
+      <c r="C164" s="43"/>
+    </row>
+    <row r="165" spans="2:3">
+      <c r="B165" s="43"/>
+      <c r="C165" s="43"/>
+    </row>
+    <row r="166" spans="2:3">
+      <c r="B166" s="43"/>
+      <c r="C166" s="43"/>
+    </row>
+    <row r="167" spans="2:3">
+      <c r="B167" s="43"/>
+      <c r="C167" s="43"/>
+    </row>
+    <row r="168" spans="2:3">
+      <c r="B168" s="43"/>
+      <c r="C168" s="43"/>
+    </row>
+    <row r="169" spans="2:3">
+      <c r="B169" s="43"/>
+      <c r="C169" s="43"/>
+    </row>
+    <row r="170" spans="2:3">
+      <c r="B170" s="43"/>
+      <c r="C170" s="43"/>
+    </row>
+    <row r="171" spans="2:3">
+      <c r="B171" s="43"/>
+      <c r="C171" s="43"/>
+    </row>
+    <row r="172" spans="2:3">
+      <c r="B172" s="43"/>
+      <c r="C172" s="43"/>
+    </row>
+    <row r="173" spans="2:3">
+      <c r="B173" s="43"/>
+      <c r="C173" s="43"/>
+    </row>
+    <row r="174" spans="2:3">
+      <c r="B174" s="43"/>
+      <c r="C174" s="43"/>
+    </row>
+    <row r="175" spans="2:3">
+      <c r="B175" s="43"/>
+      <c r="C175" s="43"/>
+    </row>
+    <row r="176" spans="2:3">
+      <c r="B176" s="43"/>
+      <c r="C176" s="43"/>
+    </row>
+    <row r="177" spans="2:3">
+      <c r="B177" s="43"/>
+      <c r="C177" s="43"/>
+    </row>
+    <row r="178" spans="2:3">
+      <c r="B178" s="43"/>
+      <c r="C178" s="43"/>
+    </row>
+    <row r="179" spans="2:3">
+      <c r="B179" s="43"/>
+      <c r="C179" s="43"/>
+    </row>
+    <row r="180" spans="2:3">
+      <c r="B180" s="43"/>
+      <c r="C180" s="43"/>
+    </row>
+    <row r="181" spans="2:3">
+      <c r="B181" s="43"/>
+      <c r="C181" s="43"/>
+    </row>
+    <row r="182" spans="2:3">
+      <c r="B182" s="43"/>
+      <c r="C182" s="43"/>
+    </row>
+    <row r="183" spans="2:3">
+      <c r="B183" s="43"/>
+      <c r="C183" s="43"/>
+    </row>
+    <row r="184" spans="2:3">
+      <c r="B184" s="43"/>
+      <c r="C184" s="43"/>
+    </row>
+    <row r="185" spans="2:3">
+      <c r="B185" s="43"/>
+      <c r="C185" s="43"/>
+    </row>
+    <row r="186" spans="2:3">
+      <c r="B186" s="43"/>
+      <c r="C186" s="43"/>
+    </row>
+    <row r="187" spans="2:3">
+      <c r="B187" s="43"/>
+      <c r="C187" s="43"/>
+    </row>
+    <row r="188" spans="2:3">
+      <c r="B188" s="43"/>
+      <c r="C188" s="43"/>
+    </row>
+    <row r="189" spans="2:3">
+      <c r="B189" s="43"/>
+      <c r="C189" s="43"/>
+    </row>
+    <row r="190" spans="2:3">
+      <c r="B190" s="43"/>
+      <c r="C190" s="43"/>
+    </row>
+    <row r="191" spans="2:3">
+      <c r="B191" s="43"/>
+      <c r="C191" s="43"/>
+    </row>
+    <row r="192" spans="2:3">
+      <c r="B192" s="43"/>
+      <c r="C192" s="43"/>
+    </row>
+    <row r="193" spans="2:3">
+      <c r="B193" s="43"/>
+      <c r="C193" s="43"/>
+    </row>
+    <row r="194" spans="2:3">
+      <c r="B194" s="43"/>
+      <c r="C194" s="43"/>
+    </row>
+    <row r="195" spans="2:3">
+      <c r="B195" s="43"/>
+      <c r="C195" s="43"/>
+    </row>
+    <row r="196" spans="2:3">
+      <c r="B196" s="43"/>
+      <c r="C196" s="43"/>
+    </row>
+    <row r="197" spans="2:3">
+      <c r="B197" s="43"/>
+      <c r="C197" s="43"/>
+    </row>
+    <row r="198" spans="2:3">
+      <c r="B198" s="43"/>
+      <c r="C198" s="43"/>
+    </row>
+    <row r="199" spans="2:3">
+      <c r="B199" s="43"/>
+      <c r="C199" s="43"/>
+    </row>
+    <row r="200" spans="2:3">
+      <c r="B200" s="43"/>
+      <c r="C200" s="43"/>
+    </row>
+    <row r="201" spans="2:3">
+      <c r="B201" s="43"/>
+      <c r="C201" s="43"/>
+    </row>
+    <row r="202" spans="2:3">
+      <c r="B202" s="43"/>
+      <c r="C202" s="43"/>
+    </row>
+    <row r="203" spans="2:3">
+      <c r="B203" s="43"/>
+      <c r="C203" s="43"/>
+    </row>
+    <row r="204" spans="2:3">
+      <c r="B204" s="43"/>
+      <c r="C204" s="43"/>
+    </row>
+    <row r="205" spans="2:3">
+      <c r="B205" s="43"/>
+      <c r="C205" s="43"/>
+    </row>
+    <row r="206" spans="2:3">
+      <c r="B206" s="43"/>
+      <c r="C206" s="43"/>
+    </row>
+    <row r="207" spans="2:3">
+      <c r="B207" s="43"/>
+      <c r="C207" s="43"/>
+    </row>
+    <row r="208" spans="2:3">
+      <c r="B208" s="43"/>
+      <c r="C208" s="43"/>
+    </row>
+    <row r="209" spans="2:3">
+      <c r="B209" s="43"/>
+      <c r="C209" s="43"/>
+    </row>
+    <row r="210" spans="2:3">
+      <c r="B210" s="43"/>
+      <c r="C210" s="43"/>
+    </row>
+    <row r="211" spans="2:3">
+      <c r="B211" s="43"/>
+      <c r="C211" s="43"/>
+    </row>
+    <row r="212" spans="2:3">
+      <c r="B212" s="43"/>
+      <c r="C212" s="43"/>
+    </row>
+    <row r="213" spans="2:3">
+      <c r="B213" s="43"/>
+      <c r="C213" s="43"/>
+    </row>
+    <row r="214" spans="2:3">
+      <c r="B214" s="43"/>
+      <c r="C214" s="43"/>
+    </row>
+    <row r="215" spans="2:3">
+      <c r="B215" s="43"/>
+      <c r="C215" s="43"/>
+    </row>
+    <row r="216" spans="2:3">
+      <c r="B216" s="43"/>
+      <c r="C216" s="43"/>
+    </row>
+    <row r="217" spans="2:3">
+      <c r="B217" s="43"/>
+      <c r="C217" s="43"/>
+    </row>
+    <row r="218" spans="2:3">
+      <c r="B218" s="43"/>
+      <c r="C218" s="43"/>
+    </row>
+    <row r="219" spans="2:3">
+      <c r="B219" s="43"/>
+      <c r="C219" s="43"/>
+    </row>
+    <row r="220" spans="2:3">
+      <c r="B220" s="43"/>
+      <c r="C220" s="43"/>
+    </row>
+    <row r="221" spans="2:3">
+      <c r="B221" s="43"/>
+      <c r="C221" s="43"/>
+    </row>
+    <row r="222" spans="2:3">
+      <c r="B222" s="43"/>
+      <c r="C222" s="43"/>
+    </row>
+    <row r="223" spans="2:3">
+      <c r="B223" s="43"/>
+      <c r="C223" s="43"/>
+    </row>
+    <row r="224" spans="2:3">
+      <c r="B224" s="43"/>
+      <c r="C224" s="43"/>
+    </row>
+    <row r="225" spans="2:3">
+      <c r="B225" s="43"/>
+      <c r="C225" s="43"/>
+    </row>
+    <row r="226" spans="2:3">
+      <c r="B226" s="43"/>
+      <c r="C226" s="43"/>
+    </row>
+    <row r="227" spans="2:3">
+      <c r="B227" s="43"/>
+      <c r="C227" s="43"/>
+    </row>
+    <row r="228" spans="2:3">
+      <c r="B228" s="43"/>
+      <c r="C228" s="43"/>
+    </row>
+    <row r="229" spans="2:3">
+      <c r="B229" s="43"/>
+      <c r="C229" s="43"/>
+    </row>
+    <row r="230" spans="2:3">
+      <c r="B230" s="43"/>
+      <c r="C230" s="43"/>
+    </row>
+    <row r="231" spans="2:3">
+      <c r="B231" s="43"/>
+      <c r="C231" s="43"/>
+    </row>
+    <row r="232" spans="2:3">
+      <c r="B232" s="43"/>
+      <c r="C232" s="43"/>
+    </row>
+    <row r="233" spans="2:3">
+      <c r="B233" s="43"/>
+      <c r="C233" s="43"/>
+    </row>
+    <row r="234" spans="2:3">
+      <c r="B234" s="43"/>
+      <c r="C234" s="43"/>
+    </row>
+    <row r="235" spans="2:3">
+      <c r="B235" s="43"/>
+      <c r="C235" s="43"/>
+    </row>
+    <row r="236" spans="2:3">
+      <c r="B236" s="43"/>
+      <c r="C236" s="43"/>
+    </row>
+    <row r="237" spans="2:3">
+      <c r="B237" s="43"/>
+      <c r="C237" s="43"/>
+    </row>
+    <row r="238" spans="2:3">
+      <c r="B238" s="43"/>
+      <c r="C238" s="43"/>
+    </row>
+    <row r="239" spans="2:3">
+      <c r="B239" s="43"/>
+      <c r="C239" s="43"/>
+    </row>
+    <row r="240" spans="2:3">
+      <c r="B240" s="43"/>
+      <c r="C240" s="43"/>
+    </row>
+    <row r="241" spans="2:3">
+      <c r="B241" s="43"/>
+      <c r="C241" s="43"/>
+    </row>
+    <row r="242" spans="2:3">
+      <c r="B242" s="43"/>
+      <c r="C242" s="43"/>
+    </row>
+    <row r="243" spans="2:3">
+      <c r="B243" s="43"/>
+      <c r="C243" s="43"/>
+    </row>
+    <row r="244" spans="2:3">
+      <c r="B244" s="43"/>
+      <c r="C244" s="43"/>
+    </row>
+    <row r="245" spans="2:3">
+      <c r="B245" s="43"/>
+      <c r="C245" s="43"/>
+    </row>
+    <row r="246" spans="2:3">
+      <c r="B246" s="43"/>
+      <c r="C246" s="43"/>
+    </row>
+    <row r="247" spans="2:3">
+      <c r="B247" s="43"/>
+      <c r="C247" s="43"/>
+    </row>
+    <row r="248" spans="2:3">
+      <c r="B248" s="43"/>
+      <c r="C248" s="43"/>
+    </row>
+    <row r="249" spans="2:3">
+      <c r="B249" s="43"/>
+      <c r="C249" s="43"/>
+    </row>
+    <row r="250" spans="2:3">
+      <c r="B250" s="43"/>
+      <c r="C250" s="43"/>
+    </row>
+    <row r="251" spans="2:3">
+      <c r="B251" s="43"/>
+      <c r="C251" s="43"/>
+    </row>
+    <row r="252" spans="2:3">
+      <c r="B252" s="43"/>
+      <c r="C252" s="43"/>
+    </row>
+    <row r="253" spans="2:3">
+      <c r="B253" s="43"/>
+      <c r="C253" s="43"/>
+    </row>
+    <row r="254" spans="2:3">
+      <c r="B254" s="43"/>
+      <c r="C254" s="43"/>
+    </row>
+    <row r="255" spans="2:3">
+      <c r="B255" s="43"/>
+      <c r="C255" s="43"/>
+    </row>
+    <row r="256" spans="2:3">
+      <c r="B256" s="43"/>
+      <c r="C256" s="43"/>
+    </row>
+    <row r="257" spans="2:3">
+      <c r="B257" s="43"/>
+      <c r="C257" s="43"/>
+    </row>
+    <row r="258" spans="2:3">
+      <c r="B258" s="43"/>
+      <c r="C258" s="43"/>
+    </row>
+    <row r="259" spans="2:3">
+      <c r="B259" s="43"/>
+      <c r="C259" s="43"/>
+    </row>
+    <row r="260" spans="2:3">
+      <c r="B260" s="43"/>
+      <c r="C260" s="43"/>
+    </row>
+    <row r="261" spans="2:3">
+      <c r="B261" s="43"/>
+      <c r="C261" s="43"/>
+    </row>
+    <row r="262" spans="2:3">
+      <c r="B262" s="43"/>
+      <c r="C262" s="43"/>
+    </row>
+    <row r="263" spans="2:3">
+      <c r="B263" s="43"/>
+      <c r="C263" s="43"/>
+    </row>
+    <row r="264" spans="2:3">
+      <c r="B264" s="43"/>
+      <c r="C264" s="43"/>
+    </row>
+    <row r="265" spans="2:3">
+      <c r="B265" s="43"/>
+      <c r="C265" s="43"/>
+    </row>
+    <row r="266" spans="2:3">
+      <c r="B266" s="43"/>
+      <c r="C266" s="43"/>
+    </row>
+    <row r="267" spans="2:3">
+      <c r="B267" s="43"/>
+      <c r="C267" s="43"/>
+    </row>
+    <row r="268" spans="2:3">
+      <c r="B268" s="43"/>
+      <c r="C268" s="43"/>
+    </row>
+    <row r="269" spans="2:3">
+      <c r="B269" s="43"/>
+      <c r="C269" s="43"/>
+    </row>
+    <row r="270" spans="2:3">
+      <c r="B270" s="43"/>
+      <c r="C270" s="43"/>
+    </row>
+    <row r="271" spans="2:3">
+      <c r="B271" s="43"/>
+      <c r="C271" s="43"/>
+    </row>
+    <row r="272" spans="2:3">
+      <c r="B272" s="43"/>
+      <c r="C272" s="43"/>
+    </row>
+    <row r="273" spans="2:3">
+      <c r="B273" s="43"/>
+      <c r="C273" s="43"/>
+    </row>
+    <row r="274" spans="2:3">
+      <c r="B274" s="43"/>
+      <c r="C274" s="43"/>
+    </row>
+    <row r="275" spans="2:3">
+      <c r="B275" s="43"/>
+      <c r="C275" s="43"/>
+    </row>
+    <row r="276" spans="2:3">
+      <c r="B276" s="43"/>
+      <c r="C276" s="43"/>
+    </row>
+    <row r="277" spans="2:3">
+      <c r="B277" s="43"/>
+      <c r="C277" s="43"/>
+    </row>
+    <row r="278" spans="2:3">
+      <c r="B278" s="43"/>
+      <c r="C278" s="43"/>
+    </row>
+    <row r="279" spans="2:3">
+      <c r="B279" s="43"/>
+      <c r="C279" s="43"/>
+    </row>
+    <row r="280" spans="2:3">
+      <c r="B280" s="43"/>
+      <c r="C280" s="43"/>
+    </row>
+    <row r="281" spans="2:3">
+      <c r="B281" s="43"/>
+      <c r="C281" s="43"/>
+    </row>
+    <row r="282" spans="2:3">
+      <c r="B282" s="43"/>
+      <c r="C282" s="43"/>
+    </row>
+    <row r="283" spans="2:3">
+      <c r="B283" s="43"/>
+      <c r="C283" s="43"/>
+    </row>
+    <row r="284" spans="2:3">
+      <c r="B284" s="43"/>
+      <c r="C284" s="43"/>
+    </row>
+    <row r="285" spans="2:3">
+      <c r="B285" s="43"/>
+      <c r="C285" s="43"/>
+    </row>
+    <row r="286" spans="2:3">
+      <c r="B286" s="43"/>
+      <c r="C286" s="43"/>
+    </row>
+    <row r="287" spans="2:3">
+      <c r="B287" s="43"/>
+      <c r="C287" s="43"/>
+    </row>
+    <row r="288" spans="2:3">
+      <c r="B288" s="43"/>
+      <c r="C288" s="43"/>
+    </row>
+    <row r="289" spans="2:3">
+      <c r="B289" s="43"/>
+      <c r="C289" s="43"/>
+    </row>
+    <row r="290" spans="2:3">
+      <c r="B290" s="43"/>
+      <c r="C290" s="43"/>
+    </row>
+    <row r="291" spans="2:3">
+      <c r="B291" s="43"/>
+      <c r="C291" s="43"/>
+    </row>
+    <row r="292" spans="2:3">
+      <c r="B292" s="43"/>
+      <c r="C292" s="43"/>
+    </row>
+    <row r="293" spans="2:3">
+      <c r="B293" s="43"/>
+      <c r="C293" s="43"/>
+    </row>
+    <row r="294" spans="2:3">
+      <c r="B294" s="43"/>
+      <c r="C294" s="43"/>
+    </row>
+    <row r="295" spans="2:3">
+      <c r="B295" s="43"/>
+      <c r="C295" s="43"/>
+    </row>
+    <row r="296" spans="2:3">
+      <c r="B296" s="43"/>
+      <c r="C296" s="43"/>
+    </row>
+    <row r="297" spans="2:3">
+      <c r="B297" s="43"/>
+      <c r="C297" s="43"/>
+    </row>
+    <row r="298" spans="2:3">
+      <c r="B298" s="43"/>
+      <c r="C298" s="43"/>
+    </row>
+    <row r="299" spans="2:3">
+      <c r="B299" s="43"/>
+      <c r="C299" s="43"/>
+    </row>
+    <row r="300" spans="2:3">
+      <c r="B300" s="43"/>
+      <c r="C300" s="43"/>
+    </row>
+    <row r="301" spans="2:3">
+      <c r="B301" s="43"/>
+      <c r="C301" s="43"/>
+    </row>
+    <row r="302" spans="2:3">
+      <c r="B302" s="43"/>
+      <c r="C302" s="43"/>
+    </row>
+    <row r="303" spans="2:3">
+      <c r="B303" s="43"/>
+      <c r="C303" s="43"/>
+    </row>
+    <row r="304" spans="2:3">
+      <c r="B304" s="43"/>
+      <c r="C304" s="43"/>
+    </row>
+    <row r="305" spans="2:3">
+      <c r="B305" s="43"/>
+      <c r="C305" s="43"/>
+    </row>
+    <row r="306" spans="2:3">
+      <c r="B306" s="43"/>
+      <c r="C306" s="43"/>
+    </row>
+    <row r="307" spans="2:3">
+      <c r="B307" s="43"/>
+      <c r="C307" s="43"/>
+    </row>
+    <row r="308" spans="2:3">
+      <c r="B308" s="43"/>
+      <c r="C308" s="43"/>
+    </row>
+    <row r="309" spans="2:3">
+      <c r="B309" s="43"/>
+      <c r="C309" s="43"/>
+    </row>
+    <row r="310" spans="2:3">
+      <c r="B310" s="43"/>
+      <c r="C310" s="43"/>
+    </row>
+    <row r="311" spans="2:3">
+      <c r="B311" s="43"/>
+      <c r="C311" s="43"/>
+    </row>
+    <row r="312" spans="2:3">
+      <c r="B312" s="43"/>
+      <c r="C312" s="43"/>
+    </row>
+    <row r="313" spans="2:3">
+      <c r="B313" s="43"/>
+      <c r="C313" s="43"/>
+    </row>
+    <row r="314" spans="2:3">
+      <c r="B314" s="43"/>
+      <c r="C314" s="43"/>
+    </row>
+    <row r="315" spans="2:3">
+      <c r="B315" s="43"/>
+      <c r="C315" s="43"/>
+    </row>
+    <row r="316" spans="2:3">
+      <c r="B316" s="43"/>
+      <c r="C316" s="43"/>
+    </row>
+    <row r="317" spans="2:3">
+      <c r="B317" s="43"/>
+      <c r="C317" s="43"/>
+    </row>
+    <row r="318" spans="2:3">
+      <c r="B318" s="43"/>
+      <c r="C318" s="43"/>
+    </row>
+    <row r="319" spans="2:3">
+      <c r="B319" s="43"/>
+      <c r="C319" s="43"/>
+    </row>
+    <row r="320" spans="2:3">
+      <c r="B320" s="43"/>
+      <c r="C320" s="43"/>
+    </row>
+    <row r="321" spans="2:3">
+      <c r="B321" s="43"/>
+      <c r="C321" s="43"/>
+    </row>
+    <row r="322" spans="2:3">
+      <c r="B322" s="43"/>
+      <c r="C322" s="43"/>
+    </row>
+    <row r="323" spans="2:3">
+      <c r="B323" s="43"/>
+      <c r="C323" s="43"/>
+    </row>
+    <row r="324" spans="2:3">
+      <c r="B324" s="43"/>
+      <c r="C324" s="43"/>
+    </row>
+    <row r="325" spans="2:3">
+      <c r="B325" s="43"/>
+      <c r="C325" s="43"/>
+    </row>
+    <row r="326" spans="2:3">
+      <c r="B326" s="43"/>
+      <c r="C326" s="43"/>
+    </row>
+    <row r="327" spans="2:3">
+      <c r="B327" s="43"/>
+      <c r="C327" s="43"/>
+    </row>
+    <row r="328" spans="2:3">
+      <c r="B328" s="43"/>
+      <c r="C328" s="43"/>
+    </row>
+    <row r="329" spans="2:3">
+      <c r="B329" s="43"/>
+      <c r="C329" s="43"/>
+    </row>
+    <row r="330" spans="2:3">
+      <c r="B330" s="43"/>
+      <c r="C330" s="43"/>
+    </row>
+    <row r="331" spans="2:3">
+      <c r="B331" s="43"/>
+      <c r="C331" s="43"/>
+    </row>
+    <row r="332" spans="2:3">
+      <c r="B332" s="43"/>
+      <c r="C332" s="43"/>
+    </row>
+    <row r="333" spans="2:3">
+      <c r="B333" s="43"/>
+      <c r="C333" s="43"/>
+    </row>
+    <row r="334" spans="2:3">
+      <c r="B334" s="43"/>
+      <c r="C334" s="43"/>
+    </row>
+    <row r="335" spans="2:3">
+      <c r="B335" s="43"/>
+      <c r="C335" s="43"/>
+    </row>
+    <row r="336" spans="2:3">
+      <c r="B336" s="43"/>
+      <c r="C336" s="43"/>
+    </row>
+    <row r="337" spans="2:3">
+      <c r="B337" s="43"/>
+      <c r="C337" s="43"/>
+    </row>
+    <row r="338" spans="2:3">
+      <c r="B338" s="43"/>
+      <c r="C338" s="43"/>
+    </row>
+    <row r="339" spans="2:3">
+      <c r="B339" s="43"/>
+      <c r="C339" s="43"/>
+    </row>
+    <row r="340" spans="2:3">
+      <c r="B340" s="43"/>
+      <c r="C340" s="43"/>
+    </row>
+    <row r="341" spans="2:3">
+      <c r="B341" s="43"/>
+      <c r="C341" s="43"/>
+    </row>
+    <row r="342" spans="2:3">
+      <c r="B342" s="43"/>
+      <c r="C342" s="43"/>
+    </row>
+    <row r="343" spans="2:3">
+      <c r="B343" s="43"/>
+      <c r="C343" s="43"/>
+    </row>
+    <row r="344" spans="2:3">
+      <c r="B344" s="43"/>
+      <c r="C344" s="43"/>
+    </row>
+    <row r="345" spans="2:3">
+      <c r="B345" s="43"/>
+      <c r="C345" s="43"/>
+    </row>
+    <row r="346" spans="2:3">
+      <c r="B346" s="43"/>
+      <c r="C346" s="43"/>
+    </row>
+    <row r="347" spans="2:3">
+      <c r="B347" s="43"/>
+      <c r="C347" s="43"/>
+    </row>
+    <row r="348" spans="2:3">
+      <c r="B348" s="43"/>
+      <c r="C348" s="43"/>
+    </row>
+    <row r="349" spans="2:3">
+      <c r="B349" s="43"/>
+      <c r="C349" s="43"/>
+    </row>
+    <row r="350" spans="2:3">
+      <c r="B350" s="43"/>
+      <c r="C350" s="43"/>
+    </row>
+    <row r="351" spans="2:3">
+      <c r="B351" s="43"/>
+      <c r="C351" s="43"/>
+    </row>
+    <row r="352" spans="2:3">
+      <c r="B352" s="43"/>
+      <c r="C352" s="43"/>
+    </row>
+    <row r="353" spans="2:3">
+      <c r="B353" s="43"/>
+      <c r="C353" s="43"/>
+    </row>
+    <row r="354" spans="2:3">
+      <c r="B354" s="43"/>
+      <c r="C354" s="43"/>
+    </row>
+    <row r="355" spans="2:3">
+      <c r="B355" s="43"/>
+      <c r="C355" s="43"/>
+    </row>
+    <row r="356" spans="2:3">
+      <c r="B356" s="43"/>
+      <c r="C356" s="43"/>
+    </row>
+    <row r="357" spans="2:3">
+      <c r="B357" s="43"/>
+      <c r="C357" s="43"/>
+    </row>
+    <row r="358" spans="2:3">
+      <c r="B358" s="43"/>
+      <c r="C358" s="43"/>
+    </row>
+    <row r="359" spans="2:3">
+      <c r="B359" s="43"/>
+      <c r="C359" s="43"/>
+    </row>
+    <row r="360" spans="2:3">
+      <c r="B360" s="43"/>
+      <c r="C360" s="43"/>
+    </row>
+    <row r="361" spans="2:3">
+      <c r="B361" s="43"/>
+      <c r="C361" s="43"/>
+    </row>
+    <row r="362" spans="2:3">
+      <c r="B362" s="43"/>
+      <c r="C362" s="43"/>
+    </row>
+    <row r="363" spans="2:3">
+      <c r="B363" s="43"/>
+      <c r="C363" s="43"/>
+    </row>
+    <row r="364" spans="2:3">
+      <c r="B364" s="43"/>
+      <c r="C364" s="43"/>
+    </row>
+    <row r="365" spans="2:3">
+      <c r="B365" s="43"/>
+      <c r="C365" s="43"/>
+    </row>
+    <row r="366" spans="2:3">
+      <c r="B366" s="43"/>
+      <c r="C366" s="43"/>
+    </row>
+    <row r="367" spans="2:3">
+      <c r="B367" s="43"/>
+      <c r="C367" s="43"/>
+    </row>
+    <row r="368" spans="2:3">
+      <c r="B368" s="43"/>
+      <c r="C368" s="43"/>
+    </row>
+    <row r="369" spans="2:3">
+      <c r="B369" s="43"/>
+      <c r="C369" s="43"/>
+    </row>
+    <row r="370" spans="2:3">
+      <c r="B370" s="43"/>
+      <c r="C370" s="43"/>
+    </row>
+    <row r="371" spans="2:3">
+      <c r="B371" s="43"/>
+      <c r="C371" s="43"/>
+    </row>
+    <row r="372" spans="2:3">
+      <c r="B372" s="43"/>
+      <c r="C372" s="43"/>
+    </row>
+    <row r="373" spans="2:3">
+      <c r="B373" s="43"/>
+      <c r="C373" s="43"/>
+    </row>
+    <row r="374" spans="2:3">
+      <c r="B374" s="43"/>
+      <c r="C374" s="43"/>
+    </row>
+    <row r="375" spans="2:3">
+      <c r="B375" s="43"/>
+      <c r="C375" s="43"/>
+    </row>
+    <row r="376" spans="2:3">
+      <c r="B376" s="43"/>
+      <c r="C376" s="43"/>
+    </row>
+    <row r="377" spans="2:3">
+      <c r="B377" s="43"/>
+      <c r="C377" s="43"/>
+    </row>
+    <row r="378" spans="2:3">
+      <c r="B378" s="43"/>
+      <c r="C378" s="43"/>
+    </row>
+    <row r="379" spans="2:3">
+      <c r="B379" s="43"/>
+      <c r="C379" s="43"/>
+    </row>
+    <row r="380" spans="2:3">
+      <c r="B380" s="43"/>
+      <c r="C380" s="43"/>
+    </row>
+    <row r="381" spans="2:3">
+      <c r="B381" s="43"/>
+      <c r="C381" s="43"/>
+    </row>
+    <row r="382" spans="2:3">
+      <c r="B382" s="43"/>
+      <c r="C382" s="43"/>
+    </row>
+    <row r="383" spans="2:3">
+      <c r="B383" s="43"/>
+      <c r="C383" s="43"/>
+    </row>
+    <row r="384" spans="2:3">
+      <c r="B384" s="43"/>
+      <c r="C384" s="43"/>
+    </row>
+    <row r="385" spans="2:3">
+      <c r="B385" s="43"/>
+      <c r="C385" s="43"/>
+    </row>
+    <row r="386" spans="2:3">
+      <c r="B386" s="43"/>
+      <c r="C386" s="43"/>
+    </row>
+    <row r="387" spans="2:3">
+      <c r="B387" s="43"/>
+      <c r="C387" s="43"/>
+    </row>
+    <row r="388" spans="2:3">
+      <c r="B388" s="43"/>
+      <c r="C388" s="43"/>
+    </row>
+    <row r="389" spans="2:3">
+      <c r="B389" s="43"/>
+      <c r="C389" s="43"/>
+    </row>
+    <row r="390" spans="2:3">
+      <c r="B390" s="43"/>
+      <c r="C390" s="43"/>
+    </row>
+    <row r="391" spans="2:3">
+      <c r="B391" s="43"/>
+      <c r="C391" s="43"/>
+    </row>
+    <row r="392" spans="2:3">
+      <c r="B392" s="43"/>
+      <c r="C392" s="43"/>
+    </row>
+    <row r="393" spans="2:3">
+      <c r="B393" s="43"/>
+      <c r="C393" s="43"/>
+    </row>
+    <row r="394" spans="2:3">
+      <c r="B394" s="43"/>
+      <c r="C394" s="43"/>
+    </row>
+    <row r="395" spans="2:3">
+      <c r="B395" s="43"/>
+      <c r="C395" s="43"/>
+    </row>
+    <row r="396" spans="2:3">
+      <c r="B396" s="43"/>
+      <c r="C396" s="43"/>
+    </row>
+    <row r="397" spans="2:3">
+      <c r="B397" s="43"/>
+      <c r="C397" s="43"/>
+    </row>
+    <row r="398" spans="2:3">
+      <c r="B398" s="43"/>
+      <c r="C398" s="43"/>
+    </row>
+    <row r="399" spans="2:3">
+      <c r="B399" s="43"/>
+      <c r="C399" s="43"/>
+    </row>
+    <row r="400" spans="2:3">
+      <c r="B400" s="43"/>
+      <c r="C400" s="43"/>
+    </row>
+    <row r="401" spans="2:3">
+      <c r="B401" s="43"/>
+      <c r="C401" s="43"/>
+    </row>
+    <row r="402" spans="2:3">
+      <c r="B402" s="43"/>
+      <c r="C402" s="43"/>
+    </row>
+    <row r="403" spans="2:3">
+      <c r="B403" s="43"/>
+      <c r="C403" s="43"/>
+    </row>
+    <row r="404" spans="2:3">
+      <c r="B404" s="43"/>
+      <c r="C404" s="43"/>
+    </row>
+    <row r="405" spans="2:3">
+      <c r="B405" s="43"/>
+      <c r="C405" s="43"/>
+    </row>
+    <row r="406" spans="2:3">
+      <c r="B406" s="43"/>
+      <c r="C406" s="43"/>
+    </row>
+    <row r="407" spans="2:3">
+      <c r="B407" s="43"/>
+      <c r="C407" s="43"/>
+    </row>
+    <row r="408" spans="2:3">
+      <c r="B408" s="43"/>
+      <c r="C408" s="43"/>
+    </row>
+    <row r="409" spans="2:3">
+      <c r="B409" s="43"/>
+      <c r="C409" s="43"/>
+    </row>
+    <row r="410" spans="2:3">
+      <c r="B410" s="43"/>
+      <c r="C410" s="43"/>
+    </row>
+    <row r="411" spans="2:3">
+      <c r="B411" s="43"/>
+      <c r="C411" s="43"/>
+    </row>
+    <row r="412" spans="2:3">
+      <c r="B412" s="43"/>
+      <c r="C412" s="43"/>
+    </row>
+    <row r="413" spans="2:3">
+      <c r="B413" s="43"/>
+      <c r="C413" s="43"/>
+    </row>
+    <row r="414" spans="2:3">
+      <c r="B414" s="43"/>
+      <c r="C414" s="43"/>
+    </row>
+    <row r="415" spans="2:3">
+      <c r="B415" s="43"/>
+      <c r="C415" s="43"/>
+    </row>
+    <row r="416" spans="2:3">
+      <c r="B416" s="43"/>
+      <c r="C416" s="43"/>
+    </row>
+    <row r="417" spans="2:3">
+      <c r="B417" s="43"/>
+      <c r="C417" s="43"/>
+    </row>
+    <row r="418" spans="2:3">
+      <c r="B418" s="43"/>
+      <c r="C418" s="43"/>
+    </row>
+    <row r="419" spans="2:3">
+      <c r="B419" s="43"/>
+      <c r="C419" s="43"/>
+    </row>
+    <row r="420" spans="2:3">
+      <c r="B420" s="43"/>
+      <c r="C420" s="43"/>
+    </row>
+    <row r="421" spans="2:3">
+      <c r="B421" s="43"/>
+      <c r="C421" s="43"/>
+    </row>
+    <row r="422" spans="2:3">
+      <c r="B422" s="43"/>
+      <c r="C422" s="43"/>
+    </row>
+    <row r="423" spans="2:3">
+      <c r="B423" s="43"/>
+      <c r="C423" s="43"/>
+    </row>
+    <row r="424" spans="2:3">
+      <c r="B424" s="43"/>
+      <c r="C424" s="43"/>
+    </row>
+    <row r="425" spans="2:3">
+      <c r="B425" s="43"/>
+      <c r="C425" s="43"/>
+    </row>
+    <row r="426" spans="2:3">
+      <c r="B426" s="43"/>
+      <c r="C426" s="43"/>
+    </row>
+    <row r="427" spans="2:3">
+      <c r="B427" s="43"/>
+      <c r="C427" s="43"/>
+    </row>
+    <row r="428" spans="2:3">
+      <c r="B428" s="43"/>
+      <c r="C428" s="43"/>
+    </row>
+    <row r="429" spans="2:3">
+      <c r="B429" s="43"/>
+      <c r="C429" s="43"/>
+    </row>
+    <row r="430" spans="2:3">
+      <c r="B430" s="43"/>
+      <c r="C430" s="43"/>
+    </row>
+    <row r="431" spans="2:3">
+      <c r="B431" s="43"/>
+      <c r="C431" s="43"/>
+    </row>
+    <row r="432" spans="2:3">
+      <c r="B432" s="43"/>
+      <c r="C432" s="43"/>
+    </row>
+    <row r="433" spans="2:3">
+      <c r="B433" s="43"/>
+      <c r="C433" s="43"/>
+    </row>
+    <row r="434" spans="2:3">
+      <c r="B434" s="43"/>
+      <c r="C434" s="43"/>
+    </row>
+    <row r="435" spans="2:3">
+      <c r="B435" s="43"/>
+      <c r="C435" s="43"/>
+    </row>
+    <row r="436" spans="2:3">
+      <c r="B436" s="43"/>
+      <c r="C436" s="43"/>
+    </row>
+    <row r="437" spans="2:3">
+      <c r="B437" s="43"/>
+      <c r="C437" s="43"/>
+    </row>
+    <row r="438" spans="2:3">
+      <c r="B438" s="43"/>
+      <c r="C438" s="43"/>
+    </row>
+    <row r="439" spans="2:3">
+      <c r="B439" s="43"/>
+      <c r="C439" s="43"/>
+    </row>
+    <row r="440" spans="2:3">
+      <c r="B440" s="43"/>
+      <c r="C440" s="43"/>
+    </row>
+    <row r="441" spans="2:3">
+      <c r="B441" s="43"/>
+      <c r="C441" s="43"/>
+    </row>
+    <row r="442" spans="2:3">
+      <c r="B442" s="43"/>
+      <c r="C442" s="43"/>
+    </row>
+    <row r="443" spans="2:3">
+      <c r="B443" s="43"/>
+      <c r="C443" s="43"/>
+    </row>
+    <row r="444" spans="2:3">
+      <c r="B444" s="43"/>
+      <c r="C444" s="43"/>
+    </row>
+    <row r="445" spans="2:3">
+      <c r="B445" s="43"/>
+      <c r="C445" s="43"/>
+    </row>
+    <row r="446" spans="2:3">
+      <c r="B446" s="43"/>
+      <c r="C446" s="43"/>
+    </row>
+    <row r="447" spans="2:3">
+      <c r="B447" s="43"/>
+      <c r="C447" s="43"/>
+    </row>
+    <row r="448" spans="2:3">
+      <c r="B448" s="43"/>
+      <c r="C448" s="43"/>
+    </row>
+    <row r="449" spans="2:3">
+      <c r="B449" s="43"/>
+      <c r="C449" s="43"/>
+    </row>
+    <row r="450" spans="2:3">
+      <c r="B450" s="43"/>
+      <c r="C450" s="43"/>
+    </row>
+    <row r="451" spans="2:3">
+      <c r="B451" s="43"/>
+      <c r="C451" s="43"/>
+    </row>
+    <row r="452" spans="2:3">
+      <c r="B452" s="43"/>
+      <c r="C452" s="43"/>
+    </row>
+    <row r="453" spans="2:3">
+      <c r="B453" s="43"/>
+      <c r="C453" s="43"/>
+    </row>
+    <row r="454" spans="2:3">
+      <c r="B454" s="43"/>
+      <c r="C454" s="43"/>
+    </row>
+    <row r="455" spans="2:3">
+      <c r="B455" s="43"/>
+      <c r="C455" s="43"/>
+    </row>
+    <row r="456" spans="2:3">
+      <c r="B456" s="43"/>
+      <c r="C456" s="43"/>
+    </row>
+    <row r="457" spans="2:3">
+      <c r="B457" s="43"/>
+      <c r="C457" s="43"/>
+    </row>
+    <row r="458" spans="2:3">
+      <c r="B458" s="43"/>
+      <c r="C458" s="43"/>
+    </row>
+    <row r="459" spans="2:3">
+      <c r="B459" s="43"/>
+      <c r="C459" s="43"/>
+    </row>
+    <row r="460" spans="2:3">
+      <c r="B460" s="43"/>
+      <c r="C460" s="43"/>
+    </row>
+    <row r="461" spans="2:3">
+      <c r="B461" s="43"/>
+      <c r="C461" s="43"/>
+    </row>
+    <row r="462" spans="2:3">
+      <c r="B462" s="43"/>
+      <c r="C462" s="43"/>
+    </row>
+    <row r="463" spans="2:3">
+      <c r="B463" s="43"/>
+      <c r="C463" s="43"/>
+    </row>
+    <row r="464" spans="2:3">
+      <c r="B464" s="43"/>
+      <c r="C464" s="43"/>
+    </row>
+    <row r="465" spans="2:3">
+      <c r="B465" s="43"/>
+      <c r="C465" s="43"/>
+    </row>
+    <row r="466" spans="2:3">
+      <c r="B466" s="43"/>
+      <c r="C466" s="43"/>
+    </row>
+    <row r="467" spans="2:3">
+      <c r="B467" s="43"/>
+      <c r="C467" s="43"/>
+    </row>
+    <row r="468" spans="2:3">
+      <c r="B468" s="43"/>
+      <c r="C468" s="43"/>
+    </row>
+    <row r="469" spans="2:3">
+      <c r="B469" s="43"/>
+      <c r="C469" s="43"/>
+    </row>
+    <row r="470" spans="2:3">
+      <c r="B470" s="43"/>
+      <c r="C470" s="43"/>
+    </row>
+    <row r="471" spans="2:3">
+      <c r="B471" s="43"/>
+      <c r="C471" s="43"/>
+    </row>
+    <row r="472" spans="2:3">
+      <c r="B472" s="43"/>
+      <c r="C472" s="43"/>
+    </row>
+    <row r="473" spans="2:3">
+      <c r="B473" s="43"/>
+      <c r="C473" s="43"/>
+    </row>
+    <row r="474" spans="2:3">
+      <c r="B474" s="43"/>
+      <c r="C474" s="43"/>
+    </row>
+    <row r="475" spans="2:3">
+      <c r="B475" s="43"/>
+      <c r="C475" s="43"/>
+    </row>
+    <row r="476" spans="2:3">
+      <c r="B476" s="43"/>
+      <c r="C476" s="43"/>
+    </row>
+    <row r="477" spans="2:3">
+      <c r="B477" s="43"/>
+      <c r="C477" s="43"/>
+    </row>
+    <row r="478" spans="2:3">
+      <c r="B478" s="43"/>
+      <c r="C478" s="43"/>
+    </row>
+    <row r="479" spans="2:3">
+      <c r="B479" s="43"/>
+      <c r="C479" s="43"/>
+    </row>
+    <row r="480" spans="2:3">
+      <c r="B480" s="43"/>
+      <c r="C480" s="43"/>
+    </row>
+    <row r="481" spans="2:3">
+      <c r="B481" s="43"/>
+      <c r="C481" s="43"/>
+    </row>
+    <row r="482" spans="2:3">
+      <c r="B482" s="43"/>
+      <c r="C482" s="43"/>
+    </row>
+    <row r="483" spans="2:3">
+      <c r="B483" s="43"/>
+      <c r="C483" s="43"/>
+    </row>
+    <row r="484" spans="2:3">
+      <c r="B484" s="43"/>
+      <c r="C484" s="43"/>
+    </row>
+    <row r="485" spans="2:3">
+      <c r="B485" s="43"/>
+      <c r="C485" s="43"/>
+    </row>
+    <row r="486" spans="2:3">
+      <c r="B486" s="43"/>
+      <c r="C486" s="43"/>
+    </row>
+    <row r="487" spans="2:3">
+      <c r="B487" s="43"/>
+      <c r="C487" s="43"/>
+    </row>
+    <row r="488" spans="2:3">
+      <c r="B488" s="43"/>
+      <c r="C488" s="43"/>
+    </row>
+    <row r="489" spans="2:3">
+      <c r="B489" s="43"/>
+      <c r="C489" s="43"/>
+    </row>
+    <row r="490" spans="2:3">
+      <c r="B490" s="43"/>
+      <c r="C490" s="43"/>
+    </row>
+    <row r="491" spans="2:3">
+      <c r="B491" s="43"/>
+      <c r="C491" s="43"/>
+    </row>
+    <row r="492" spans="2:3">
+      <c r="B492" s="43"/>
+      <c r="C492" s="43"/>
+    </row>
+    <row r="493" spans="2:3">
+      <c r="B493" s="43"/>
+      <c r="C493" s="43"/>
+    </row>
+    <row r="494" spans="2:3">
+      <c r="B494" s="43"/>
+      <c r="C494" s="43"/>
+    </row>
+    <row r="495" spans="2:3">
+      <c r="B495" s="43"/>
+      <c r="C495" s="43"/>
+    </row>
+    <row r="496" spans="2:3">
+      <c r="B496" s="43"/>
+      <c r="C496" s="43"/>
+    </row>
+    <row r="497" spans="2:3">
+      <c r="B497" s="43"/>
+      <c r="C497" s="43"/>
+    </row>
+    <row r="498" spans="2:3">
+      <c r="B498" s="43"/>
+      <c r="C498" s="43"/>
+    </row>
+    <row r="499" spans="2:3">
+      <c r="B499" s="43"/>
+      <c r="C499" s="43"/>
+    </row>
+    <row r="500" spans="2:3">
+      <c r="B500" s="43"/>
+      <c r="C500" s="43"/>
+    </row>
+    <row r="501" spans="2:3">
+      <c r="B501" s="43"/>
+      <c r="C501" s="43"/>
+    </row>
+    <row r="502" spans="2:3">
+      <c r="B502" s="43"/>
+      <c r="C502" s="43"/>
+    </row>
+    <row r="503" spans="2:3">
+      <c r="B503" s="43"/>
+      <c r="C503" s="43"/>
+    </row>
+    <row r="504" spans="2:3">
+      <c r="B504" s="43"/>
+      <c r="C504" s="43"/>
+    </row>
+    <row r="505" spans="2:3">
+      <c r="B505" s="43"/>
+      <c r="C505" s="43"/>
+    </row>
+    <row r="506" spans="2:3">
+      <c r="B506" s="43"/>
+      <c r="C506" s="43"/>
+    </row>
+    <row r="507" spans="2:3">
+      <c r="B507" s="43"/>
+      <c r="C507" s="43"/>
+    </row>
+    <row r="508" spans="2:3">
+      <c r="C508" s="43"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="I63:J67"/>
+    <mergeCell ref="I69:J78"/>
     <mergeCell ref="I44:J49"/>
     <mergeCell ref="I51:J60"/>
     <mergeCell ref="I3:J13"/>
@@ -11600,6 +13955,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B63:B64" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/new_universe.xlsx
+++ b/new_universe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-1080" yWindow="-84" windowWidth="22932" windowHeight="9768" tabRatio="435" activeTab="2"/>
+    <workbookView xWindow="-1080" yWindow="-84" windowWidth="22932" windowHeight="9768" tabRatio="435"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="8" r:id="rId1"/>
@@ -1696,34 +1696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W13" authorId="0">
+    <comment ref="U13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1960,6 +1933,33 @@
           </rPr>
           <t xml:space="preserve">
 E</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+E
+</t>
         </r>
       </text>
     </comment>
@@ -6149,7 +6149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="454">
   <si>
     <t>y\x</t>
   </si>
@@ -7361,13 +7361,188 @@
   </si>
   <si>
     <t>11,7</t>
+  </si>
+  <si>
+    <t>16,1</t>
+  </si>
+  <si>
+    <t>9,15</t>
+  </si>
+  <si>
+    <t>17,1</t>
+  </si>
+  <si>
+    <t>10,15</t>
+  </si>
+  <si>
+    <t>18,2</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>Seizewell Cluster</t>
+  </si>
+  <si>
+    <t>10,8</t>
+  </si>
+  <si>
+    <t>1,11</t>
+  </si>
+  <si>
+    <t>11,8</t>
+  </si>
+  <si>
+    <t>2,11</t>
+  </si>
+  <si>
+    <t>11,9</t>
+  </si>
+  <si>
+    <t>2,12</t>
+  </si>
+  <si>
+    <t>12,8</t>
+  </si>
+  <si>
+    <t>7,2</t>
+  </si>
+  <si>
+    <t>12,9</t>
+  </si>
+  <si>
+    <t>7,3</t>
+  </si>
+  <si>
+    <t>13,9</t>
+  </si>
+  <si>
+    <t>8,3</t>
+  </si>
+  <si>
+    <t>Family Pride Cluster</t>
+  </si>
+  <si>
+    <t>18,3</t>
+  </si>
+  <si>
+    <t>3,6</t>
+  </si>
+  <si>
+    <t>18,4</t>
+  </si>
+  <si>
+    <t>3,7</t>
+  </si>
+  <si>
+    <t>18,5</t>
+  </si>
+  <si>
+    <t>3,8</t>
+  </si>
+  <si>
+    <t>17,5</t>
+  </si>
+  <si>
+    <t>11,14</t>
+  </si>
+  <si>
+    <t>Duke's Citadel Cluster</t>
+  </si>
+  <si>
+    <t>17,4</t>
+  </si>
+  <si>
+    <r>
+      <t>Unknown Sector</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Beta</t>
+    </r>
+  </si>
+  <si>
+    <t>9,7</t>
+  </si>
+  <si>
+    <t>17,6</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>18,6</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>19,6</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>17,7</t>
+  </si>
+  <si>
+    <t>0,4</t>
+  </si>
+  <si>
+    <t>18,7</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>17,8</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>18,8</t>
+  </si>
+  <si>
+    <t>Home of Light Cluster</t>
+  </si>
+  <si>
+    <t>Rhy's Clouds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7447,6 +7622,15 @@
       <b/>
       <sz val="9"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -7533,7 +7717,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -7589,6 +7773,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
@@ -7637,7 +7883,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7729,16 +7975,10 @@
     <xf numFmtId="49" fontId="1" fillId="13" borderId="3" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="12" borderId="2" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="12" borderId="2" xfId="5" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="12" borderId="2" xfId="5">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="2">
@@ -7768,6 +8008,9 @@
     <xf numFmtId="49" fontId="8" fillId="5" borderId="2" xfId="4" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7775,6 +8018,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="11" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="2" xfId="9" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8088,11 +8370,11 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="L10:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" thickTop="1" thickBottom="1"/>
@@ -8193,6 +8475,9 @@
       <c r="G2" s="4" t="s">
         <v>228</v>
       </c>
+      <c r="K2" s="19" t="s">
+        <v>275</v>
+      </c>
       <c r="R2" s="21" t="s">
         <v>294</v>
       </c>
@@ -8231,10 +8516,13 @@
       <c r="I3" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="K3" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="R3" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="33" t="s">
         <v>143</v>
       </c>
       <c r="W3" s="10" t="s">
@@ -8248,9 +8536,6 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>292</v>
-      </c>
       <c r="F4" s="4" t="s">
         <v>226</v>
       </c>
@@ -8263,25 +8548,29 @@
       <c r="I4" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="K4" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="M4" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="Q4" s="59"/>
+      <c r="R4" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="25" t="s">
         <v>34</v>
       </c>
       <c r="U4" s="8" t="s">
@@ -8304,9 +8593,6 @@
       <c r="D5" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>291</v>
-      </c>
       <c r="F5" s="4" t="s">
         <v>217</v>
       </c>
@@ -8322,28 +8608,28 @@
       <c r="J5" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="M5" s="34" t="s">
+      <c r="M5" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="34" t="s">
+      <c r="N5" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="34" t="s">
+      <c r="O5" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S5" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="33" t="s">
         <v>48</v>
       </c>
       <c r="U5" s="9" t="s">
@@ -8366,9 +8652,6 @@
       <c r="D6" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>290</v>
-      </c>
       <c r="F6" s="4" t="s">
         <v>223</v>
       </c>
@@ -8387,32 +8670,35 @@
       <c r="K6" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="L6" s="34" t="s">
+      <c r="L6" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="M6" s="34" t="s">
+      <c r="M6" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="N6" s="34" t="s">
+      <c r="N6" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="Q6" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="R6" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="S6" s="20" t="s">
+      <c r="R6" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="S6" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="T6" s="33" t="s">
         <v>54</v>
+      </c>
+      <c r="U6" s="21" t="s">
+        <v>292</v>
       </c>
       <c r="V6" s="5" t="s">
         <v>246</v>
@@ -8464,20 +8750,23 @@
       <c r="N7" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="S7" s="5" t="s">
+      <c r="R7" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="S7" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="T7" s="33" t="s">
         <v>60</v>
+      </c>
+      <c r="U7" s="21" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="42" customHeight="1" thickTop="1" thickBot="1">
@@ -8520,22 +8809,19 @@
       <c r="N8" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="P8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="S8" s="8" t="s">
+      <c r="S8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="8" t="s">
+      <c r="T8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="U8" s="8" t="s">
+      <c r="U8" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -8579,13 +8865,13 @@
       <c r="O9" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="S9" s="8" t="s">
+      <c r="S9" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="8" t="s">
+      <c r="T9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="U9" s="8" t="s">
+      <c r="U9" s="25" t="s">
         <v>33</v>
       </c>
     </row>
@@ -8611,13 +8897,13 @@
       <c r="K10" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="28" t="s">
         <v>22</v>
       </c>
       <c r="O10" s="22" t="s">
@@ -8626,13 +8912,13 @@
       <c r="P10" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="S10" s="8" t="s">
+      <c r="S10" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="T10" s="8" t="s">
+      <c r="T10" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="8" t="s">
+      <c r="U10" s="25" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8670,13 +8956,13 @@
       <c r="L11" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="1" t="s">
+      <c r="N11" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="O11" s="28" t="s">
         <v>87</v>
       </c>
       <c r="P11" s="17" t="s">
@@ -8750,10 +9036,7 @@
       <c r="T12" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="W12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8776,7 +9059,7 @@
       <c r="G13" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="H13" s="45" t="s">
+      <c r="H13" s="43" t="s">
         <v>90</v>
       </c>
       <c r="I13" s="20" t="s">
@@ -8785,7 +9068,7 @@
       <c r="J13" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="K13" s="45" t="s">
+      <c r="K13" s="43" t="s">
         <v>170</v>
       </c>
       <c r="M13" s="21" t="s">
@@ -8812,14 +9095,14 @@
       <c r="T13" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="U13" s="22" t="s">
+      <c r="U13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="V13" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="W13" s="22" t="s">
         <v>303</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="42" customHeight="1" thickTop="1" thickBot="1">
@@ -8838,19 +9121,19 @@
       <c r="F14" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="45" t="s">
+      <c r="H14" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="45" t="s">
+      <c r="I14" s="43" t="s">
         <v>93</v>
       </c>
       <c r="J14" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="45" t="s">
+      <c r="K14" s="43" t="s">
         <v>94</v>
       </c>
       <c r="M14" s="1" t="s">
@@ -8862,7 +9145,7 @@
       <c r="O14" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="P14" s="42" t="s">
+      <c r="P14" s="40" t="s">
         <v>321</v>
       </c>
       <c r="Q14" s="17" t="s">
@@ -8877,14 +9160,14 @@
       <c r="T14" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="U14" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="V14" s="22" t="s">
+      <c r="U14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W14" s="22" t="s">
         <v>301</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="42" customHeight="1" thickTop="1" thickBot="1">
@@ -8906,7 +9189,7 @@
       <c r="F15" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="43" t="s">
         <v>107</v>
       </c>
       <c r="H15" s="20" t="s">
@@ -8930,7 +9213,7 @@
       <c r="O15" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="P15" s="42" t="s">
+      <c r="P15" s="40" t="s">
         <v>322</v>
       </c>
       <c r="Q15" s="17" t="s">
@@ -8942,13 +9225,13 @@
       <c r="S15" s="8" t="s">
         <v>101</v>
       </c>
+      <c r="T15" s="11" t="s">
+        <v>197</v>
+      </c>
       <c r="U15" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V15" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="W15" s="11" t="s">
         <v>195</v>
       </c>
     </row>
@@ -8965,7 +9248,7 @@
       <c r="F16" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="43" t="s">
         <v>109</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -9001,7 +9284,7 @@
       <c r="S16" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="V16" s="11" t="s">
+      <c r="U16" s="11" t="s">
         <v>198</v>
       </c>
     </row>
@@ -9285,8 +9568,8 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" thickTop="1" thickBottom="1"/>
@@ -10317,11 +10600,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J508"/>
+  <dimension ref="A1:J509"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K111" sqref="K111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10336,8 +10619,8 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1">
-        <f>COUNTA(D3:D600)</f>
-        <v>81</v>
+        <f>COUNTA(D3:D601)</f>
+        <v>105</v>
       </c>
       <c r="B1">
         <v>324</v>
@@ -10347,7 +10630,7 @@
       </c>
       <c r="D1" s="27">
         <f>A1/B1</f>
-        <v>0.25</v>
+        <v>0.32407407407407407</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1">
@@ -10380,10 +10663,10 @@
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="41">
         <v>1.3</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="41">
         <v>7.7</v>
       </c>
       <c r="D3" t="s">
@@ -10398,19 +10681,19 @@
       <c r="H3" t="s">
         <v>327</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="J3" s="37"/>
+      <c r="J3" s="35"/>
     </row>
     <row r="4" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="41">
         <v>0.3</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="41">
         <v>6.7</v>
       </c>
       <c r="D4" t="s">
@@ -10425,17 +10708,17 @@
       <c r="H4" t="s">
         <v>327</v>
       </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
     </row>
     <row r="5" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="41">
         <v>0.2</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="41">
         <v>6.6</v>
       </c>
       <c r="D5" t="s">
@@ -10450,17 +10733,17 @@
       <c r="H5" t="s">
         <v>327</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
     </row>
     <row r="6" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="41">
         <v>1.2</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="41">
         <v>7.6</v>
       </c>
       <c r="D6" t="s">
@@ -10475,17 +10758,17 @@
       <c r="H6" t="s">
         <v>327</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
     </row>
     <row r="7" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="41">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="41">
         <v>8.6</v>
       </c>
       <c r="D7" t="s">
@@ -10500,17 +10783,17 @@
       <c r="H7" t="s">
         <v>327</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="41">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="41">
         <v>8.6999999999999993</v>
       </c>
       <c r="D8" t="s">
@@ -10525,17 +10808,17 @@
       <c r="H8" t="s">
         <v>327</v>
       </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
     </row>
     <row r="9" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="41">
         <v>12.6</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="41">
         <v>8.8000000000000007</v>
       </c>
       <c r="D9" t="s">
@@ -10550,17 +10833,17 @@
       <c r="H9" t="s">
         <v>327</v>
       </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
     </row>
     <row r="10" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="41">
         <v>18.7</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="41">
         <v>7.8</v>
       </c>
       <c r="D10" t="s">
@@ -10575,17 +10858,17 @@
       <c r="H10" t="s">
         <v>327</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="41">
         <v>17.7</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="41">
         <v>6.8</v>
       </c>
       <c r="D11" t="s">
@@ -10600,17 +10883,17 @@
       <c r="H11" t="s">
         <v>327</v>
       </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" t="s">
         <v>160</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="41">
         <v>16.7</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="41">
         <v>5.8</v>
       </c>
       <c r="D12" t="s">
@@ -10625,17 +10908,17 @@
       <c r="H12" t="s">
         <v>327</v>
       </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" t="s">
         <v>161</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="41">
         <v>16.8</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="41">
         <v>5.9</v>
       </c>
       <c r="D13" t="s">
@@ -10650,21 +10933,21 @@
       <c r="H13" t="s">
         <v>327</v>
       </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
     </row>
     <row r="14" spans="1:10" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
     </row>
     <row r="15" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="41">
         <v>8.9</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="41">
         <v>5.6</v>
       </c>
       <c r="D15" t="s">
@@ -10679,19 +10962,19 @@
       <c r="H15" t="s">
         <v>327</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="36" t="s">
         <v>335</v>
       </c>
-      <c r="J15" s="38"/>
+      <c r="J15" s="36"/>
     </row>
     <row r="16" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" t="s">
         <v>181</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="41">
         <v>18.3</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="41">
         <v>5.7</v>
       </c>
       <c r="D16" t="s">
@@ -10706,17 +10989,17 @@
       <c r="H16" t="s">
         <v>327</v>
       </c>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
     </row>
     <row r="17" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="41">
         <v>17.3</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="41">
         <v>4.7</v>
       </c>
       <c r="D17" t="s">
@@ -10731,17 +11014,17 @@
       <c r="H17" t="s">
         <v>327</v>
       </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
     </row>
     <row r="18" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A18" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18" s="41">
         <v>7.9</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="41">
         <v>4.5999999999999996</v>
       </c>
       <c r="D18" t="s">
@@ -10756,17 +11039,17 @@
       <c r="H18" t="s">
         <v>327</v>
       </c>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
     </row>
     <row r="19" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" t="s">
         <v>183</v>
       </c>
-      <c r="B19" s="43">
+      <c r="B19" s="41">
         <v>18.2</v>
       </c>
-      <c r="C19" s="43">
+      <c r="C19" s="41">
         <v>3.7</v>
       </c>
       <c r="D19" t="s">
@@ -10781,17 +11064,17 @@
       <c r="H19" t="s">
         <v>327</v>
       </c>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
     </row>
     <row r="20" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" t="s">
         <v>334</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="41">
         <v>18.100000000000001</v>
       </c>
-      <c r="C20" s="43">
+      <c r="C20" s="41">
         <v>3.6</v>
       </c>
       <c r="D20" t="s">
@@ -10806,17 +11089,17 @@
       <c r="H20" t="s">
         <v>327</v>
       </c>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
     </row>
     <row r="21" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="43">
+      <c r="B21" s="41">
         <v>5.8</v>
       </c>
-      <c r="C21" s="43">
+      <c r="C21" s="41">
         <v>2.6</v>
       </c>
       <c r="D21" t="s">
@@ -10831,17 +11114,17 @@
       <c r="H21" t="s">
         <v>327</v>
       </c>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
     </row>
     <row r="22" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="43">
+      <c r="B22" s="41">
         <v>5.9</v>
       </c>
-      <c r="C22" s="43">
+      <c r="C22" s="41">
         <v>2.7</v>
       </c>
       <c r="D22" t="s">
@@ -10856,17 +11139,17 @@
       <c r="H22" t="s">
         <v>327</v>
       </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
     </row>
     <row r="23" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="43">
+      <c r="B23" s="41">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C23" s="43">
+      <c r="C23" s="41">
         <v>2.8</v>
       </c>
       <c r="D23" t="s">
@@ -10881,21 +11164,21 @@
       <c r="H23" t="s">
         <v>327</v>
       </c>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
     </row>
     <row r="24" spans="1:10" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
     </row>
     <row r="25" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="43">
+      <c r="B25" s="41">
         <v>5.12</v>
       </c>
-      <c r="C25" s="43">
+      <c r="C25" s="41">
         <v>3.5</v>
       </c>
       <c r="D25" t="s">
@@ -10910,19 +11193,19 @@
       <c r="H25" t="s">
         <v>327</v>
       </c>
-      <c r="I25" s="35" t="s">
+      <c r="I25" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="J25" s="35"/>
+      <c r="J25" s="34"/>
     </row>
     <row r="26" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="43">
+      <c r="B26" s="41">
         <v>4.12</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C26" s="41">
         <v>2.5</v>
       </c>
       <c r="D26" t="s">
@@ -10937,17 +11220,17 @@
       <c r="H26" t="s">
         <v>327</v>
       </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
     </row>
     <row r="27" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="43">
+      <c r="B27" s="41">
         <v>3.12</v>
       </c>
-      <c r="C27" s="43">
+      <c r="C27" s="41">
         <v>1.5</v>
       </c>
       <c r="D27" t="s">
@@ -10962,17 +11245,17 @@
       <c r="H27" t="s">
         <v>327</v>
       </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
     </row>
     <row r="28" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="43">
+      <c r="B28" s="41">
         <v>4.1100000000000003</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28" s="41">
         <v>2.4</v>
       </c>
       <c r="D28" t="s">
@@ -10987,17 +11270,17 @@
       <c r="H28" t="s">
         <v>327</v>
       </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
     </row>
     <row r="29" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" t="s">
         <v>175</v>
       </c>
-      <c r="B29" s="43">
+      <c r="B29" s="41">
         <v>18.399999999999999</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29" s="41">
         <v>2.2999999999999998</v>
       </c>
       <c r="D29" t="s">
@@ -11012,17 +11295,17 @@
       <c r="H29" t="s">
         <v>327</v>
       </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
     </row>
     <row r="30" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="41">
         <v>6.1</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="41">
         <v>1.3</v>
       </c>
       <c r="D30" t="s">
@@ -11037,17 +11320,17 @@
       <c r="H30" t="s">
         <v>327</v>
       </c>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
     </row>
     <row r="31" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" t="s">
         <v>337</v>
       </c>
-      <c r="B31" s="43">
+      <c r="B31" s="41">
         <v>10.9</v>
       </c>
-      <c r="C31" s="43">
+      <c r="C31" s="41">
         <v>1.4</v>
       </c>
       <c r="D31" t="s">
@@ -11062,21 +11345,21 @@
       <c r="H31" t="s">
         <v>327</v>
       </c>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
     </row>
     <row r="32" spans="1:10" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" thickTop="1">
       <c r="A33" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="43">
+      <c r="B33" s="41">
         <v>3.5</v>
       </c>
-      <c r="C33" s="43">
+      <c r="C33" s="41">
         <v>9.6</v>
       </c>
       <c r="D33" t="s">
@@ -11091,19 +11374,19 @@
       <c r="H33" t="s">
         <v>327</v>
       </c>
-      <c r="I33" s="39" t="s">
+      <c r="I33" s="37" t="s">
         <v>340</v>
       </c>
-      <c r="J33" s="39"/>
+      <c r="J33" s="37"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="41">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C34" s="43">
+      <c r="C34" s="41">
         <v>9.6999999999999993</v>
       </c>
       <c r="D34" t="s">
@@ -11118,17 +11401,17 @@
       <c r="H34" t="s">
         <v>327</v>
       </c>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="43">
+      <c r="B35" s="41">
         <v>4.5</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C35" s="41">
         <v>9.8000000000000007</v>
       </c>
       <c r="D35" t="s">
@@ -11143,17 +11426,17 @@
       <c r="H35" t="s">
         <v>327</v>
       </c>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>339</v>
       </c>
-      <c r="B36" s="43">
+      <c r="B36" s="41">
         <v>5.6</v>
       </c>
-      <c r="C36" s="43">
+      <c r="C36" s="41">
         <v>10.7</v>
       </c>
       <c r="D36" t="s">
@@ -11168,17 +11451,17 @@
       <c r="H36" t="s">
         <v>327</v>
       </c>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="43">
+      <c r="B37" s="41">
         <v>6.6</v>
       </c>
-      <c r="C37" s="43">
+      <c r="C37" s="41">
         <v>11.7</v>
       </c>
       <c r="D37" t="s">
@@ -11193,17 +11476,17 @@
       <c r="H37" t="s">
         <v>327</v>
       </c>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="43">
+      <c r="B38" s="41">
         <v>4.7</v>
       </c>
-      <c r="C38" s="43">
+      <c r="C38" s="41">
         <v>10.6</v>
       </c>
       <c r="D38" t="s">
@@ -11218,17 +11501,17 @@
       <c r="H38" t="s">
         <v>327</v>
       </c>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="43">
+      <c r="B39" s="41">
         <v>5.7</v>
       </c>
-      <c r="C39" s="43">
+      <c r="C39" s="41">
         <v>11.6</v>
       </c>
       <c r="D39" t="s">
@@ -11243,17 +11526,17 @@
       <c r="H39" t="s">
         <v>327</v>
       </c>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>341</v>
       </c>
-      <c r="B40" s="43">
+      <c r="B40" s="41">
         <v>3.3</v>
       </c>
-      <c r="C40" s="43">
+      <c r="C40" s="41">
         <v>6.5</v>
       </c>
       <c r="D40" t="s">
@@ -11268,17 +11551,17 @@
       <c r="H40" t="s">
         <v>327</v>
       </c>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="43">
+      <c r="B41" s="41">
         <v>4.3</v>
       </c>
-      <c r="C41" s="43">
+      <c r="C41" s="41">
         <v>7.5</v>
       </c>
       <c r="D41" t="s">
@@ -11293,17 +11576,17 @@
       <c r="H41" t="s">
         <v>327</v>
       </c>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="43">
+      <c r="B42" s="41">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C42" s="43">
+      <c r="C42" s="41">
         <v>8.5</v>
       </c>
       <c r="D42" t="s">
@@ -11318,12 +11601,12 @@
       <c r="H42" t="s">
         <v>327</v>
       </c>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
     </row>
     <row r="43" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1">
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
     </row>
@@ -11331,10 +11614,10 @@
       <c r="A44" t="s">
         <v>210</v>
       </c>
-      <c r="B44" s="43">
+      <c r="B44" s="41">
         <v>15.16</v>
       </c>
-      <c r="C44" s="43">
+      <c r="C44" s="41">
         <v>9.4</v>
       </c>
       <c r="D44" t="s">
@@ -11349,19 +11632,19 @@
       <c r="H44" t="s">
         <v>327</v>
       </c>
-      <c r="I44" s="35" t="s">
+      <c r="I44" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="J44" s="35"/>
+      <c r="J44" s="34"/>
     </row>
     <row r="45" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" t="s">
         <v>209</v>
       </c>
-      <c r="B45" s="43">
+      <c r="B45" s="41">
         <v>15.15</v>
       </c>
-      <c r="C45" s="43">
+      <c r="C45" s="41">
         <v>9.5</v>
       </c>
       <c r="D45" t="s">
@@ -11376,17 +11659,17 @@
       <c r="H45" t="s">
         <v>327</v>
       </c>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
     </row>
     <row r="46" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" t="s">
         <v>211</v>
       </c>
-      <c r="B46" s="43">
+      <c r="B46" s="41">
         <v>14.15</v>
       </c>
-      <c r="C46" s="43">
+      <c r="C46" s="41">
         <v>8.4</v>
       </c>
       <c r="D46" t="s">
@@ -11401,17 +11684,17 @@
       <c r="H46" t="s">
         <v>327</v>
       </c>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
     </row>
     <row r="47" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" t="s">
         <v>165</v>
       </c>
-      <c r="B47" s="43">
+      <c r="B47" s="41">
         <v>16.5</v>
       </c>
-      <c r="C47" s="43">
+      <c r="C47" s="41">
         <v>7.4</v>
       </c>
       <c r="D47" t="s">
@@ -11426,17 +11709,17 @@
       <c r="H47" t="s">
         <v>327</v>
       </c>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
     </row>
     <row r="48" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" t="s">
         <v>166</v>
       </c>
-      <c r="B48" s="43">
+      <c r="B48" s="41">
         <v>16.399999999999999</v>
       </c>
-      <c r="C48" s="43">
+      <c r="C48" s="41">
         <v>7.3</v>
       </c>
       <c r="D48" t="s">
@@ -11451,17 +11734,17 @@
       <c r="H48" t="s">
         <v>327</v>
       </c>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
     </row>
     <row r="49" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" t="s">
         <v>174</v>
       </c>
-      <c r="B49" s="43">
+      <c r="B49" s="41">
         <v>17.399999999999999</v>
       </c>
-      <c r="C49" s="43">
+      <c r="C49" s="41">
         <v>8.3000000000000007</v>
       </c>
       <c r="D49" t="s">
@@ -11476,21 +11759,21 @@
       <c r="H49" t="s">
         <v>327</v>
       </c>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
     </row>
     <row r="50" spans="1:10" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B50" s="44"/>
-      <c r="C50" s="44"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+    </row>
+    <row r="51" spans="1:10" ht="15" customHeight="1" thickTop="1">
       <c r="A51" t="s">
         <v>164</v>
       </c>
-      <c r="B51" s="43">
+      <c r="B51" s="41">
         <v>15.5</v>
       </c>
-      <c r="C51" s="43">
+      <c r="C51" s="41">
         <v>10.5</v>
       </c>
       <c r="D51" t="s">
@@ -11505,19 +11788,19 @@
       <c r="H51" t="s">
         <v>327</v>
       </c>
-      <c r="I51" s="36" t="s">
+      <c r="I51" s="48" t="s">
         <v>343</v>
       </c>
-      <c r="J51" s="36"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="J51" s="49"/>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>144</v>
       </c>
-      <c r="B52" s="43">
+      <c r="B52" s="41">
         <v>7.16</v>
       </c>
-      <c r="C52" s="43">
+      <c r="C52" s="41">
         <v>10.4</v>
       </c>
       <c r="D52" t="s">
@@ -11532,17 +11815,17 @@
       <c r="H52" t="s">
         <v>327</v>
       </c>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="I52" s="50"/>
+      <c r="J52" s="51"/>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>140</v>
       </c>
-      <c r="B53" s="43">
+      <c r="B53" s="41">
         <v>7.15</v>
       </c>
-      <c r="C53" s="43">
+      <c r="C53" s="41">
         <v>11.4</v>
       </c>
       <c r="D53" t="s">
@@ -11557,17 +11840,17 @@
       <c r="H53" t="s">
         <v>327</v>
       </c>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-    </row>
-    <row r="54" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="I53" s="50"/>
+      <c r="J53" s="51"/>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>141</v>
       </c>
-      <c r="B54" s="43">
+      <c r="B54" s="41">
         <v>8.15</v>
       </c>
-      <c r="C54" s="43">
+      <c r="C54" s="41">
         <v>12.4</v>
       </c>
       <c r="D54" t="s">
@@ -11582,17 +11865,17 @@
       <c r="H54" t="s">
         <v>327</v>
       </c>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="I54" s="50"/>
+      <c r="J54" s="51"/>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>45</v>
       </c>
-      <c r="B55" s="43">
+      <c r="B55" s="41">
         <v>0.6</v>
       </c>
-      <c r="C55" s="43">
+      <c r="C55" s="41">
         <v>11.3</v>
       </c>
       <c r="D55" t="s">
@@ -11607,17 +11890,17 @@
       <c r="H55" t="s">
         <v>327</v>
       </c>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="I55" s="50"/>
+      <c r="J55" s="51"/>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="43">
+      <c r="B56" s="41">
         <v>1.6</v>
       </c>
-      <c r="C56" s="43">
+      <c r="C56" s="41">
         <v>12.3</v>
       </c>
       <c r="D56" t="s">
@@ -11632,17 +11915,17 @@
       <c r="H56" t="s">
         <v>327</v>
       </c>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="I56" s="50"/>
+      <c r="J56" s="51"/>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="43">
+      <c r="B57" s="41">
         <v>2.6</v>
       </c>
-      <c r="C57" s="43">
+      <c r="C57" s="41">
         <v>13.3</v>
       </c>
       <c r="D57" t="s">
@@ -11657,17 +11940,17 @@
       <c r="H57" t="s">
         <v>327</v>
       </c>
-      <c r="I57" s="36"/>
-      <c r="J57" s="36"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="I57" s="50"/>
+      <c r="J57" s="51"/>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>134</v>
       </c>
-      <c r="B58" s="43">
+      <c r="B58" s="41">
         <v>7.14</v>
       </c>
-      <c r="C58" s="43">
+      <c r="C58" s="41">
         <v>11.2</v>
       </c>
       <c r="D58" t="s">
@@ -11682,17 +11965,17 @@
       <c r="H58" t="s">
         <v>327</v>
       </c>
-      <c r="I58" s="36"/>
-      <c r="J58" s="36"/>
-    </row>
-    <row r="59" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="I58" s="50"/>
+      <c r="J58" s="51"/>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>135</v>
       </c>
-      <c r="B59" s="43">
+      <c r="B59" s="41">
         <v>8.14</v>
       </c>
-      <c r="C59" s="43">
+      <c r="C59" s="41">
         <v>12.2</v>
       </c>
       <c r="D59" t="s">
@@ -11707,17 +11990,17 @@
       <c r="H59" t="s">
         <v>327</v>
       </c>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-    </row>
-    <row r="60" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="I59" s="50"/>
+      <c r="J59" s="51"/>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>139</v>
       </c>
-      <c r="B60" s="43">
+      <c r="B60" s="41">
         <v>12.14</v>
       </c>
-      <c r="C60" s="43">
+      <c r="C60" s="41">
         <v>13.2</v>
       </c>
       <c r="D60" t="s">
@@ -11732,17 +12015,17 @@
       <c r="H60" t="s">
         <v>327</v>
       </c>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="I60" s="50"/>
+      <c r="J60" s="51"/>
+    </row>
+    <row r="61" spans="1:10" ht="15" thickBot="1">
       <c r="A61" t="s">
         <v>377</v>
       </c>
-      <c r="B61" s="43" t="s">
+      <c r="B61" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="C61" s="43" t="s">
+      <c r="C61" s="41" t="s">
         <v>378</v>
       </c>
       <c r="D61" t="s">
@@ -11751,21 +12034,21 @@
       <c r="F61" t="s">
         <v>327</v>
       </c>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="53"/>
     </row>
     <row r="62" spans="1:10" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B62" s="44"/>
-      <c r="C62" s="44"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
     </row>
     <row r="63" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="C63" s="43">
+      <c r="C63" s="41">
         <v>8.9</v>
       </c>
       <c r="D63" t="s">
@@ -11777,19 +12060,19 @@
       <c r="H63" t="s">
         <v>327</v>
       </c>
-      <c r="I63" s="38" t="s">
+      <c r="I63" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="J63" s="38"/>
+      <c r="J63" s="36"/>
     </row>
     <row r="64" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="41" t="s">
         <v>346</v>
       </c>
-      <c r="C64" s="43" t="s">
+      <c r="C64" s="41" t="s">
         <v>347</v>
       </c>
       <c r="D64" t="s">
@@ -11801,17 +12084,17 @@
       <c r="H64" t="s">
         <v>327</v>
       </c>
-      <c r="I64" s="38"/>
-      <c r="J64" s="38"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
     </row>
     <row r="65" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="41" t="s">
         <v>349</v>
       </c>
-      <c r="C65" s="43" t="s">
+      <c r="C65" s="41" t="s">
         <v>348</v>
       </c>
       <c r="D65" t="s">
@@ -11823,17 +12106,17 @@
       <c r="H65" t="s">
         <v>327</v>
       </c>
-      <c r="I65" s="38"/>
-      <c r="J65" s="38"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
     </row>
     <row r="66" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" t="s">
         <v>81</v>
       </c>
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="41" t="s">
         <v>351</v>
       </c>
-      <c r="C66" s="43" t="s">
+      <c r="C66" s="41" t="s">
         <v>350</v>
       </c>
       <c r="D66" t="s">
@@ -11845,17 +12128,17 @@
       <c r="H66" t="s">
         <v>327</v>
       </c>
-      <c r="I66" s="38"/>
-      <c r="J66" s="38"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
     </row>
     <row r="67" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" t="s">
         <v>82</v>
       </c>
-      <c r="B67" s="43" t="s">
+      <c r="B67" s="41" t="s">
         <v>353</v>
       </c>
-      <c r="C67" s="43" t="s">
+      <c r="C67" s="41" t="s">
         <v>352</v>
       </c>
       <c r="D67" t="s">
@@ -11867,21 +12150,21 @@
       <c r="H67" t="s">
         <v>327</v>
       </c>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
     </row>
     <row r="68" spans="1:10" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B68" s="44"/>
-      <c r="C68" s="44"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
     </row>
     <row r="69" spans="1:10" ht="15" customHeight="1" thickTop="1">
       <c r="A69" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="43" t="s">
+      <c r="B69" s="41" t="s">
         <v>356</v>
       </c>
-      <c r="C69" s="43" t="s">
+      <c r="C69" s="41" t="s">
         <v>355</v>
       </c>
       <c r="D69" t="s">
@@ -11893,19 +12176,19 @@
       <c r="H69" t="s">
         <v>327</v>
       </c>
-      <c r="I69" s="46" t="s">
+      <c r="I69" s="45" t="s">
         <v>367</v>
       </c>
-      <c r="J69" s="46"/>
+      <c r="J69" s="45"/>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="43" t="s">
+      <c r="B70" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="C70" s="43" t="s">
+      <c r="C70" s="41" t="s">
         <v>357</v>
       </c>
       <c r="D70" t="s">
@@ -11917,17 +12200,17 @@
       <c r="H70" t="s">
         <v>327</v>
       </c>
-      <c r="I70" s="47"/>
-      <c r="J70" s="47"/>
+      <c r="I70" s="46"/>
+      <c r="J70" s="46"/>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>91</v>
       </c>
-      <c r="B71" s="43" t="s">
+      <c r="B71" s="41" t="s">
         <v>360</v>
       </c>
-      <c r="C71" s="43" t="s">
+      <c r="C71" s="41" t="s">
         <v>359</v>
       </c>
       <c r="D71" t="s">
@@ -11939,17 +12222,17 @@
       <c r="H71" t="s">
         <v>327</v>
       </c>
-      <c r="I71" s="47"/>
-      <c r="J71" s="47"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="46"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="43" t="s">
+      <c r="B72" s="41" t="s">
         <v>362</v>
       </c>
-      <c r="C72" s="43" t="s">
+      <c r="C72" s="41" t="s">
         <v>361</v>
       </c>
       <c r="D72" t="s">
@@ -11961,17 +12244,17 @@
       <c r="H72" t="s">
         <v>327</v>
       </c>
-      <c r="I72" s="47"/>
-      <c r="J72" s="47"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="46"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>107</v>
       </c>
-      <c r="B73" s="43" t="s">
+      <c r="B73" s="41" t="s">
         <v>364</v>
       </c>
-      <c r="C73" s="43" t="s">
+      <c r="C73" s="41" t="s">
         <v>363</v>
       </c>
       <c r="D73" t="s">
@@ -11983,17 +12266,17 @@
       <c r="H73" t="s">
         <v>327</v>
       </c>
-      <c r="I73" s="47"/>
-      <c r="J73" s="47"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="46"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>109</v>
       </c>
-      <c r="B74" s="43" t="s">
+      <c r="B74" s="41" t="s">
         <v>366</v>
       </c>
-      <c r="C74" s="43" t="s">
+      <c r="C74" s="41" t="s">
         <v>365</v>
       </c>
       <c r="D74" t="s">
@@ -12005,17 +12288,17 @@
       <c r="H74" t="s">
         <v>327</v>
       </c>
-      <c r="I74" s="47"/>
-      <c r="J74" s="47"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="46"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>237</v>
       </c>
-      <c r="B75" s="43" t="s">
+      <c r="B75" s="41" t="s">
         <v>369</v>
       </c>
-      <c r="C75" s="43" t="s">
+      <c r="C75" s="41" t="s">
         <v>368</v>
       </c>
       <c r="D75" t="s">
@@ -12027,17 +12310,17 @@
       <c r="H75" t="s">
         <v>327</v>
       </c>
-      <c r="I75" s="47"/>
-      <c r="J75" s="47"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="46"/>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>55</v>
       </c>
-      <c r="B76" s="43" t="s">
+      <c r="B76" s="41" t="s">
         <v>371</v>
       </c>
-      <c r="C76" s="43" t="s">
+      <c r="C76" s="41" t="s">
         <v>370</v>
       </c>
       <c r="D76" t="s">
@@ -12049,17 +12332,17 @@
       <c r="H76" t="s">
         <v>327</v>
       </c>
-      <c r="I76" s="47"/>
-      <c r="J76" s="47"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="46"/>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>170</v>
       </c>
-      <c r="B77" s="43" t="s">
+      <c r="B77" s="41" t="s">
         <v>373</v>
       </c>
-      <c r="C77" s="43" t="s">
+      <c r="C77" s="41" t="s">
         <v>372</v>
       </c>
       <c r="D77" t="s">
@@ -12071,17 +12354,17 @@
       <c r="H77" t="s">
         <v>327</v>
       </c>
-      <c r="I77" s="47"/>
-      <c r="J77" s="47"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="46"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>94</v>
       </c>
-      <c r="B78" s="43" t="s">
+      <c r="B78" s="41" t="s">
         <v>375</v>
       </c>
-      <c r="C78" s="43" t="s">
+      <c r="C78" s="41" t="s">
         <v>374</v>
       </c>
       <c r="D78" t="s">
@@ -12093,1861 +12376,2398 @@
       <c r="H78" t="s">
         <v>327</v>
       </c>
-      <c r="I78" s="48"/>
-      <c r="J78" s="48"/>
-    </row>
-    <row r="79" spans="1:10" s="24" customFormat="1">
-      <c r="B79" s="44"/>
-      <c r="C79" s="44"/>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="I78" s="47"/>
+      <c r="J78" s="47"/>
+    </row>
+    <row r="79" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1">
+      <c r="B79" s="42"/>
+      <c r="C79" s="42"/>
+    </row>
+    <row r="80" spans="1:10" ht="15" thickTop="1">
       <c r="A80" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="43" t="s">
+      <c r="B80" s="41" t="s">
         <v>381</v>
       </c>
-      <c r="C80" s="43" t="s">
+      <c r="C80" s="41" t="s">
         <v>380</v>
       </c>
       <c r="D80" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="F80" t="s">
+        <v>327</v>
+      </c>
+      <c r="H80" t="s">
+        <v>327</v>
+      </c>
+      <c r="I80" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="J80" s="54"/>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>6</v>
       </c>
-      <c r="B81" s="43" t="s">
+      <c r="B81" s="41" t="s">
         <v>383</v>
       </c>
-      <c r="C81" s="43" t="s">
+      <c r="C81" s="41" t="s">
         <v>382</v>
       </c>
       <c r="D81" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="F81" t="s">
+        <v>327</v>
+      </c>
+      <c r="H81" t="s">
+        <v>327</v>
+      </c>
+      <c r="I81" s="55"/>
+      <c r="J81" s="56"/>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="43" t="s">
+      <c r="B82" s="41" t="s">
         <v>385</v>
       </c>
-      <c r="C82" s="43" t="s">
+      <c r="C82" s="41" t="s">
         <v>384</v>
       </c>
       <c r="D82" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="F82" t="s">
+        <v>327</v>
+      </c>
+      <c r="H82" t="s">
+        <v>327</v>
+      </c>
+      <c r="I82" s="55"/>
+      <c r="J82" s="56"/>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>13</v>
       </c>
-      <c r="B83" s="43" t="s">
+      <c r="B83" s="41" t="s">
         <v>387</v>
       </c>
-      <c r="C83" s="43" t="s">
+      <c r="C83" s="41" t="s">
         <v>386</v>
       </c>
       <c r="D83" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="F83" t="s">
+        <v>327</v>
+      </c>
+      <c r="H83" t="s">
+        <v>327</v>
+      </c>
+      <c r="I83" s="55"/>
+      <c r="J83" s="56"/>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>19</v>
       </c>
-      <c r="B84" s="43" t="s">
+      <c r="B84" s="41" t="s">
         <v>389</v>
       </c>
-      <c r="C84" s="43" t="s">
+      <c r="C84" s="41" t="s">
         <v>388</v>
       </c>
       <c r="D84" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="F84" t="s">
+        <v>327</v>
+      </c>
+      <c r="H84" t="s">
+        <v>327</v>
+      </c>
+      <c r="I84" s="55"/>
+      <c r="J84" s="56"/>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>20</v>
       </c>
-      <c r="B85" s="43" t="s">
+      <c r="B85" s="41" t="s">
         <v>391</v>
       </c>
-      <c r="C85" s="43" t="s">
+      <c r="C85" s="41" t="s">
         <v>390</v>
       </c>
       <c r="D85" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="F85" t="s">
+        <v>327</v>
+      </c>
+      <c r="H85" t="s">
+        <v>327</v>
+      </c>
+      <c r="I85" s="55"/>
+      <c r="J85" s="56"/>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>264</v>
       </c>
-      <c r="B86" s="43" t="s">
+      <c r="B86" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="C86" s="43" t="s">
+      <c r="C86" s="41" t="s">
         <v>373</v>
       </c>
       <c r="D86" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="F86" t="s">
+        <v>327</v>
+      </c>
+      <c r="H86" t="s">
+        <v>327</v>
+      </c>
+      <c r="I86" s="55"/>
+      <c r="J86" s="56"/>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>154</v>
       </c>
-      <c r="B87" s="43" t="s">
+      <c r="B87" s="41" t="s">
         <v>386</v>
       </c>
-      <c r="C87" s="43" t="s">
+      <c r="C87" s="41" t="s">
         <v>392</v>
       </c>
       <c r="D87" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="F87" t="s">
+        <v>327</v>
+      </c>
+      <c r="H87" t="s">
+        <v>327</v>
+      </c>
+      <c r="I87" s="55"/>
+      <c r="J87" s="56"/>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>393</v>
       </c>
-      <c r="B88" s="43" t="s">
+      <c r="B88" s="41" t="s">
         <v>395</v>
       </c>
-      <c r="C88" s="43" t="s">
+      <c r="C88" s="41" t="s">
         <v>394</v>
       </c>
       <c r="D88" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="F88" t="s">
+        <v>327</v>
+      </c>
+      <c r="H88" t="s">
+        <v>327</v>
+      </c>
+      <c r="I88" s="55"/>
+      <c r="J88" s="56"/>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>180</v>
       </c>
-      <c r="B89" s="43" t="s">
+      <c r="B89" s="41" t="s">
         <v>397</v>
       </c>
-      <c r="C89" s="43" t="s">
+      <c r="C89" s="41" t="s">
         <v>396</v>
       </c>
       <c r="D89" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="F89" t="s">
+        <v>327</v>
+      </c>
+      <c r="H89" t="s">
+        <v>327</v>
+      </c>
+      <c r="I89" s="55"/>
+      <c r="J89" s="56"/>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>193</v>
       </c>
-      <c r="B90" s="43" t="s">
+      <c r="B90" s="41" t="s">
         <v>399</v>
       </c>
-      <c r="C90" s="43" t="s">
+      <c r="C90" s="41" t="s">
         <v>398</v>
       </c>
       <c r="D90" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="F90" t="s">
+        <v>327</v>
+      </c>
+      <c r="H90" t="s">
+        <v>327</v>
+      </c>
+      <c r="I90" s="55"/>
+      <c r="J90" s="56"/>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
         <v>194</v>
       </c>
-      <c r="B91" s="43" t="s">
+      <c r="B91" s="41" t="s">
         <v>401</v>
       </c>
-      <c r="C91" s="43" t="s">
+      <c r="C91" s="41" t="s">
         <v>400</v>
       </c>
       <c r="D91" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="F91" t="s">
+        <v>327</v>
+      </c>
+      <c r="H91" t="s">
+        <v>327</v>
+      </c>
+      <c r="I91" s="55"/>
+      <c r="J91" s="56"/>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>95</v>
       </c>
-      <c r="B92" s="43" t="s">
+      <c r="B92" s="41" t="s">
         <v>403</v>
       </c>
-      <c r="C92" s="43" t="s">
+      <c r="C92" s="41" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="B93" s="43"/>
-      <c r="C93" s="43"/>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="B94" s="43"/>
-      <c r="C94" s="43"/>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="B95" s="43"/>
-      <c r="C95" s="43"/>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="B96" s="43"/>
-      <c r="C96" s="43"/>
-    </row>
-    <row r="97" spans="2:3">
-      <c r="B97" s="43"/>
-      <c r="C97" s="43"/>
-    </row>
-    <row r="98" spans="2:3">
-      <c r="B98" s="43"/>
-      <c r="C98" s="43"/>
-    </row>
-    <row r="99" spans="2:3">
-      <c r="B99" s="43"/>
-      <c r="C99" s="43"/>
-    </row>
-    <row r="100" spans="2:3">
-      <c r="B100" s="43"/>
-      <c r="C100" s="43"/>
-    </row>
-    <row r="101" spans="2:3">
-      <c r="B101" s="43"/>
-      <c r="C101" s="43"/>
-    </row>
-    <row r="102" spans="2:3">
-      <c r="B102" s="43"/>
-      <c r="C102" s="43"/>
-    </row>
-    <row r="103" spans="2:3">
-      <c r="B103" s="43"/>
-      <c r="C103" s="43"/>
-    </row>
-    <row r="104" spans="2:3">
-      <c r="B104" s="43"/>
-      <c r="C104" s="43"/>
-    </row>
-    <row r="105" spans="2:3">
-      <c r="B105" s="43"/>
-      <c r="C105" s="43"/>
-    </row>
-    <row r="106" spans="2:3">
-      <c r="B106" s="43"/>
-      <c r="C106" s="43"/>
-    </row>
-    <row r="107" spans="2:3">
-      <c r="B107" s="43"/>
-      <c r="C107" s="43"/>
-    </row>
-    <row r="108" spans="2:3">
-      <c r="B108" s="43"/>
-      <c r="C108" s="43"/>
-    </row>
-    <row r="109" spans="2:3">
-      <c r="B109" s="43"/>
-      <c r="C109" s="43"/>
-    </row>
-    <row r="110" spans="2:3">
-      <c r="B110" s="43"/>
-      <c r="C110" s="43"/>
-    </row>
-    <row r="111" spans="2:3">
-      <c r="B111" s="43"/>
-      <c r="C111" s="43"/>
-    </row>
-    <row r="112" spans="2:3">
-      <c r="B112" s="43"/>
-      <c r="C112" s="43"/>
-    </row>
-    <row r="113" spans="2:3">
-      <c r="B113" s="43"/>
-      <c r="C113" s="43"/>
-    </row>
-    <row r="114" spans="2:3">
-      <c r="B114" s="43"/>
-      <c r="C114" s="43"/>
-    </row>
-    <row r="115" spans="2:3">
-      <c r="B115" s="43"/>
-      <c r="C115" s="43"/>
-    </row>
-    <row r="116" spans="2:3">
-      <c r="B116" s="43"/>
-      <c r="C116" s="43"/>
-    </row>
-    <row r="117" spans="2:3">
-      <c r="B117" s="43"/>
-      <c r="C117" s="43"/>
-    </row>
-    <row r="118" spans="2:3">
-      <c r="B118" s="43"/>
-      <c r="C118" s="43"/>
-    </row>
-    <row r="119" spans="2:3">
-      <c r="B119" s="43"/>
-      <c r="C119" s="43"/>
-    </row>
-    <row r="120" spans="2:3">
-      <c r="B120" s="43"/>
-      <c r="C120" s="43"/>
-    </row>
-    <row r="121" spans="2:3">
-      <c r="B121" s="43"/>
-      <c r="C121" s="43"/>
-    </row>
-    <row r="122" spans="2:3">
-      <c r="B122" s="43"/>
-      <c r="C122" s="43"/>
-    </row>
-    <row r="123" spans="2:3">
-      <c r="B123" s="43"/>
-      <c r="C123" s="43"/>
-    </row>
-    <row r="124" spans="2:3">
-      <c r="B124" s="43"/>
-      <c r="C124" s="43"/>
-    </row>
-    <row r="125" spans="2:3">
-      <c r="B125" s="43"/>
-      <c r="C125" s="43"/>
-    </row>
-    <row r="126" spans="2:3">
-      <c r="B126" s="43"/>
-      <c r="C126" s="43"/>
-    </row>
-    <row r="127" spans="2:3">
-      <c r="B127" s="43"/>
-      <c r="C127" s="43"/>
-    </row>
-    <row r="128" spans="2:3">
-      <c r="B128" s="43"/>
-      <c r="C128" s="43"/>
+      <c r="D92" t="s">
+        <v>327</v>
+      </c>
+      <c r="F92" t="s">
+        <v>327</v>
+      </c>
+      <c r="H92" t="s">
+        <v>327</v>
+      </c>
+      <c r="I92" s="55"/>
+      <c r="J92" s="56"/>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" t="s">
+        <v>142</v>
+      </c>
+      <c r="B93" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="C93" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="D93" t="s">
+        <v>327</v>
+      </c>
+      <c r="F93" t="s">
+        <v>327</v>
+      </c>
+      <c r="H93" t="s">
+        <v>327</v>
+      </c>
+      <c r="I93" s="55"/>
+      <c r="J93" s="56"/>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" t="s">
+        <v>143</v>
+      </c>
+      <c r="B94" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="C94" s="41" t="s">
+        <v>406</v>
+      </c>
+      <c r="D94" t="s">
+        <v>327</v>
+      </c>
+      <c r="F94" t="s">
+        <v>327</v>
+      </c>
+      <c r="H94" t="s">
+        <v>327</v>
+      </c>
+      <c r="I94" s="55"/>
+      <c r="J94" s="56"/>
+    </row>
+    <row r="95" spans="1:10" ht="15" thickBot="1">
+      <c r="A95" t="s">
+        <v>34</v>
+      </c>
+      <c r="B95" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="C95" s="41" t="s">
+        <v>408</v>
+      </c>
+      <c r="D95" t="s">
+        <v>327</v>
+      </c>
+      <c r="F95" t="s">
+        <v>327</v>
+      </c>
+      <c r="H95" t="s">
+        <v>327</v>
+      </c>
+      <c r="I95" s="57"/>
+      <c r="J95" s="58"/>
+    </row>
+    <row r="96" spans="1:10" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B96" s="42"/>
+      <c r="C96" s="42"/>
+    </row>
+    <row r="97" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A97" t="s">
+        <v>69</v>
+      </c>
+      <c r="B97" s="41" t="s">
+        <v>412</v>
+      </c>
+      <c r="C97" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="D97" t="s">
+        <v>327</v>
+      </c>
+      <c r="F97" t="s">
+        <v>327</v>
+      </c>
+      <c r="H97" t="s">
+        <v>327</v>
+      </c>
+      <c r="I97" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="J97" s="34"/>
+    </row>
+    <row r="98" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A98" t="s">
+        <v>70</v>
+      </c>
+      <c r="B98" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="C98" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="D98" t="s">
+        <v>327</v>
+      </c>
+      <c r="F98" t="s">
+        <v>327</v>
+      </c>
+      <c r="H98" t="s">
+        <v>327</v>
+      </c>
+      <c r="I98" s="34"/>
+      <c r="J98" s="34"/>
+    </row>
+    <row r="99" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A99" t="s">
+        <v>72</v>
+      </c>
+      <c r="B99" s="41" t="s">
+        <v>416</v>
+      </c>
+      <c r="C99" s="41" t="s">
+        <v>415</v>
+      </c>
+      <c r="D99" t="s">
+        <v>327</v>
+      </c>
+      <c r="F99" t="s">
+        <v>327</v>
+      </c>
+      <c r="H99" t="s">
+        <v>327</v>
+      </c>
+      <c r="I99" s="34"/>
+      <c r="J99" s="34"/>
+    </row>
+    <row r="100" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A100" t="s">
+        <v>22</v>
+      </c>
+      <c r="B100" s="41" t="s">
+        <v>418</v>
+      </c>
+      <c r="C100" s="41" t="s">
+        <v>417</v>
+      </c>
+      <c r="D100" t="s">
+        <v>327</v>
+      </c>
+      <c r="F100" t="s">
+        <v>327</v>
+      </c>
+      <c r="H100" t="s">
+        <v>327</v>
+      </c>
+      <c r="I100" s="34"/>
+      <c r="J100" s="34"/>
+    </row>
+    <row r="101" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A101" t="s">
+        <v>453</v>
+      </c>
+      <c r="B101" s="41" t="s">
+        <v>420</v>
+      </c>
+      <c r="C101" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="D101" t="s">
+        <v>327</v>
+      </c>
+      <c r="F101" t="s">
+        <v>327</v>
+      </c>
+      <c r="H101" t="s">
+        <v>327</v>
+      </c>
+      <c r="I101" s="34"/>
+      <c r="J101" s="34"/>
+    </row>
+    <row r="102" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A102" t="s">
+        <v>87</v>
+      </c>
+      <c r="B102" s="41" t="s">
+        <v>422</v>
+      </c>
+      <c r="C102" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="D102" t="s">
+        <v>327</v>
+      </c>
+      <c r="F102" t="s">
+        <v>327</v>
+      </c>
+      <c r="H102" t="s">
+        <v>327</v>
+      </c>
+      <c r="I102" s="34"/>
+      <c r="J102" s="34"/>
+    </row>
+    <row r="103" spans="1:10" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B103" s="42"/>
+      <c r="C103" s="42"/>
+    </row>
+    <row r="104" spans="1:10" ht="15" thickTop="1">
+      <c r="A104" t="s">
+        <v>48</v>
+      </c>
+      <c r="B104" s="41" t="s">
+        <v>425</v>
+      </c>
+      <c r="C104" s="41" t="s">
+        <v>424</v>
+      </c>
+      <c r="D104" t="s">
+        <v>327</v>
+      </c>
+      <c r="F104" t="s">
+        <v>327</v>
+      </c>
+      <c r="H104" t="s">
+        <v>327</v>
+      </c>
+      <c r="I104" s="48" t="s">
+        <v>432</v>
+      </c>
+      <c r="J104" s="49"/>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" t="s">
+        <v>54</v>
+      </c>
+      <c r="B105" s="41" t="s">
+        <v>427</v>
+      </c>
+      <c r="C105" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="D105" t="s">
+        <v>327</v>
+      </c>
+      <c r="F105" t="s">
+        <v>327</v>
+      </c>
+      <c r="H105" t="s">
+        <v>327</v>
+      </c>
+      <c r="I105" s="50"/>
+      <c r="J105" s="51"/>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" t="s">
+        <v>60</v>
+      </c>
+      <c r="B106" s="41" t="s">
+        <v>429</v>
+      </c>
+      <c r="C106" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="D106" t="s">
+        <v>327</v>
+      </c>
+      <c r="F106" t="s">
+        <v>327</v>
+      </c>
+      <c r="H106" t="s">
+        <v>327</v>
+      </c>
+      <c r="I106" s="50"/>
+      <c r="J106" s="51"/>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" t="s">
+        <v>434</v>
+      </c>
+      <c r="B107" s="41" t="s">
+        <v>435</v>
+      </c>
+      <c r="C107" s="41" t="s">
+        <v>433</v>
+      </c>
+      <c r="D107" t="s">
+        <v>327</v>
+      </c>
+      <c r="F107" t="s">
+        <v>327</v>
+      </c>
+      <c r="H107" t="s">
+        <v>327</v>
+      </c>
+      <c r="I107" s="50"/>
+      <c r="J107" s="51"/>
+    </row>
+    <row r="108" spans="1:10" ht="15" thickBot="1">
+      <c r="A108" t="s">
+        <v>138</v>
+      </c>
+      <c r="B108" s="41" t="s">
+        <v>431</v>
+      </c>
+      <c r="C108" s="41" t="s">
+        <v>430</v>
+      </c>
+      <c r="D108" t="s">
+        <v>327</v>
+      </c>
+      <c r="F108" t="s">
+        <v>327</v>
+      </c>
+      <c r="H108" t="s">
+        <v>327</v>
+      </c>
+      <c r="I108" s="52"/>
+      <c r="J108" s="53"/>
+    </row>
+    <row r="109" spans="1:10" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B109" s="42"/>
+      <c r="C109" s="42"/>
+    </row>
+    <row r="110" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="41" t="s">
+        <v>437</v>
+      </c>
+      <c r="C110" s="41" t="s">
+        <v>436</v>
+      </c>
+      <c r="D110" t="s">
+        <v>327</v>
+      </c>
+      <c r="F110" t="s">
+        <v>327</v>
+      </c>
+      <c r="H110" t="s">
+        <v>327</v>
+      </c>
+      <c r="I110" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="J110" s="35"/>
+    </row>
+    <row r="111" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="41" t="s">
+        <v>439</v>
+      </c>
+      <c r="C111" s="41" t="s">
+        <v>438</v>
+      </c>
+      <c r="D111" t="s">
+        <v>327</v>
+      </c>
+      <c r="F111" t="s">
+        <v>327</v>
+      </c>
+      <c r="H111" t="s">
+        <v>327</v>
+      </c>
+      <c r="I111" s="35"/>
+      <c r="J111" s="35"/>
+    </row>
+    <row r="112" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" s="41" t="s">
+        <v>441</v>
+      </c>
+      <c r="C112" s="41" t="s">
+        <v>440</v>
+      </c>
+      <c r="D112" t="s">
+        <v>327</v>
+      </c>
+      <c r="F112" t="s">
+        <v>327</v>
+      </c>
+      <c r="H112" t="s">
+        <v>327</v>
+      </c>
+      <c r="I112" s="35"/>
+      <c r="J112" s="35"/>
+    </row>
+    <row r="113" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A113" t="s">
+        <v>31</v>
+      </c>
+      <c r="B113" s="41" t="s">
+        <v>443</v>
+      </c>
+      <c r="C113" s="41" t="s">
+        <v>442</v>
+      </c>
+      <c r="D113" t="s">
+        <v>327</v>
+      </c>
+      <c r="F113" t="s">
+        <v>327</v>
+      </c>
+      <c r="H113" t="s">
+        <v>327</v>
+      </c>
+      <c r="I113" s="35"/>
+      <c r="J113" s="35"/>
+    </row>
+    <row r="114" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A114" t="s">
+        <v>32</v>
+      </c>
+      <c r="B114" s="41" t="s">
+        <v>445</v>
+      </c>
+      <c r="C114" s="41" t="s">
+        <v>444</v>
+      </c>
+      <c r="D114" t="s">
+        <v>327</v>
+      </c>
+      <c r="F114" t="s">
+        <v>327</v>
+      </c>
+      <c r="H114" t="s">
+        <v>327</v>
+      </c>
+      <c r="I114" s="35"/>
+      <c r="J114" s="35"/>
+    </row>
+    <row r="115" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A115" t="s">
+        <v>33</v>
+      </c>
+      <c r="B115" s="41" t="s">
+        <v>446</v>
+      </c>
+      <c r="C115" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="D115" t="s">
+        <v>327</v>
+      </c>
+      <c r="F115" t="s">
+        <v>327</v>
+      </c>
+      <c r="H115" t="s">
+        <v>327</v>
+      </c>
+      <c r="I115" s="35"/>
+      <c r="J115" s="35"/>
+    </row>
+    <row r="116" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A116" t="s">
+        <v>38</v>
+      </c>
+      <c r="B116" s="41" t="s">
+        <v>448</v>
+      </c>
+      <c r="C116" s="41" t="s">
+        <v>447</v>
+      </c>
+      <c r="D116" t="s">
+        <v>327</v>
+      </c>
+      <c r="F116" t="s">
+        <v>327</v>
+      </c>
+      <c r="H116" t="s">
+        <v>327</v>
+      </c>
+      <c r="I116" s="35"/>
+      <c r="J116" s="35"/>
+    </row>
+    <row r="117" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A117" t="s">
+        <v>39</v>
+      </c>
+      <c r="B117" s="41" t="s">
+        <v>449</v>
+      </c>
+      <c r="C117" s="41" t="s">
+        <v>451</v>
+      </c>
+      <c r="D117" t="s">
+        <v>327</v>
+      </c>
+      <c r="F117" t="s">
+        <v>327</v>
+      </c>
+      <c r="H117" t="s">
+        <v>327</v>
+      </c>
+      <c r="I117" s="35"/>
+      <c r="J117" s="35"/>
+    </row>
+    <row r="118" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A118" t="s">
+        <v>40</v>
+      </c>
+      <c r="B118" s="41" t="s">
+        <v>450</v>
+      </c>
+      <c r="C118" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="D118" t="s">
+        <v>327</v>
+      </c>
+      <c r="F118" t="s">
+        <v>327</v>
+      </c>
+      <c r="H118" t="s">
+        <v>327</v>
+      </c>
+      <c r="I118" s="35"/>
+      <c r="J118" s="35"/>
+    </row>
+    <row r="119" spans="1:10" s="24" customFormat="1" ht="15" thickTop="1">
+      <c r="B119" s="42"/>
+      <c r="C119" s="42"/>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="B120" s="41"/>
+      <c r="C120" s="41"/>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="B121" s="41"/>
+      <c r="C121" s="41"/>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="B122" s="41"/>
+      <c r="C122" s="41"/>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="B123" s="41"/>
+      <c r="C123" s="41"/>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="B124" s="41"/>
+      <c r="C124" s="41"/>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="B125" s="41"/>
+      <c r="C125" s="41"/>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="B126" s="41"/>
+      <c r="C126" s="41"/>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="B127" s="41"/>
+      <c r="C127" s="41"/>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="B128" s="41"/>
+      <c r="C128" s="41"/>
     </row>
     <row r="129" spans="2:3">
-      <c r="B129" s="43"/>
-      <c r="C129" s="43"/>
+      <c r="B129" s="41"/>
+      <c r="C129" s="41"/>
     </row>
     <row r="130" spans="2:3">
-      <c r="B130" s="43"/>
-      <c r="C130" s="43"/>
+      <c r="B130" s="41"/>
+      <c r="C130" s="41"/>
     </row>
     <row r="131" spans="2:3">
-      <c r="B131" s="43"/>
-      <c r="C131" s="43"/>
+      <c r="B131" s="41"/>
+      <c r="C131" s="41"/>
     </row>
     <row r="132" spans="2:3">
-      <c r="B132" s="43"/>
-      <c r="C132" s="43"/>
+      <c r="B132" s="41"/>
+      <c r="C132" s="41"/>
     </row>
     <row r="133" spans="2:3">
-      <c r="B133" s="43"/>
-      <c r="C133" s="43"/>
+      <c r="B133" s="41"/>
+      <c r="C133" s="41"/>
     </row>
     <row r="134" spans="2:3">
-      <c r="B134" s="43"/>
-      <c r="C134" s="43"/>
+      <c r="B134" s="41"/>
+      <c r="C134" s="41"/>
     </row>
     <row r="135" spans="2:3">
-      <c r="B135" s="43"/>
-      <c r="C135" s="43"/>
+      <c r="B135" s="41"/>
+      <c r="C135" s="41"/>
     </row>
     <row r="136" spans="2:3">
-      <c r="B136" s="43"/>
-      <c r="C136" s="43"/>
+      <c r="B136" s="41"/>
+      <c r="C136" s="41"/>
     </row>
     <row r="137" spans="2:3">
-      <c r="B137" s="43"/>
-      <c r="C137" s="43"/>
+      <c r="B137" s="41"/>
+      <c r="C137" s="41"/>
     </row>
     <row r="138" spans="2:3">
-      <c r="B138" s="43"/>
-      <c r="C138" s="43"/>
+      <c r="B138" s="41"/>
+      <c r="C138" s="41"/>
     </row>
     <row r="139" spans="2:3">
-      <c r="B139" s="43"/>
-      <c r="C139" s="43"/>
+      <c r="B139" s="41"/>
+      <c r="C139" s="41"/>
     </row>
     <row r="140" spans="2:3">
-      <c r="B140" s="43"/>
-      <c r="C140" s="43"/>
+      <c r="B140" s="41"/>
+      <c r="C140" s="41"/>
     </row>
     <row r="141" spans="2:3">
-      <c r="B141" s="43"/>
-      <c r="C141" s="43"/>
+      <c r="B141" s="41"/>
+      <c r="C141" s="41"/>
     </row>
     <row r="142" spans="2:3">
-      <c r="B142" s="43"/>
-      <c r="C142" s="43"/>
+      <c r="B142" s="41"/>
+      <c r="C142" s="41"/>
     </row>
     <row r="143" spans="2:3">
-      <c r="B143" s="43"/>
-      <c r="C143" s="43"/>
+      <c r="B143" s="41"/>
+      <c r="C143" s="41"/>
     </row>
     <row r="144" spans="2:3">
-      <c r="B144" s="43"/>
-      <c r="C144" s="43"/>
+      <c r="B144" s="41"/>
+      <c r="C144" s="41"/>
     </row>
     <row r="145" spans="2:3">
-      <c r="B145" s="43"/>
-      <c r="C145" s="43"/>
+      <c r="B145" s="41"/>
+      <c r="C145" s="41"/>
     </row>
     <row r="146" spans="2:3">
-      <c r="B146" s="43"/>
-      <c r="C146" s="43"/>
+      <c r="B146" s="41"/>
+      <c r="C146" s="41"/>
     </row>
     <row r="147" spans="2:3">
-      <c r="B147" s="43"/>
-      <c r="C147" s="43"/>
+      <c r="B147" s="41"/>
+      <c r="C147" s="41"/>
     </row>
     <row r="148" spans="2:3">
-      <c r="B148" s="43"/>
-      <c r="C148" s="43"/>
+      <c r="B148" s="41"/>
+      <c r="C148" s="41"/>
     </row>
     <row r="149" spans="2:3">
-      <c r="B149" s="43"/>
-      <c r="C149" s="43"/>
+      <c r="B149" s="41"/>
+      <c r="C149" s="41"/>
     </row>
     <row r="150" spans="2:3">
-      <c r="B150" s="43"/>
-      <c r="C150" s="43"/>
+      <c r="B150" s="41"/>
+      <c r="C150" s="41"/>
     </row>
     <row r="151" spans="2:3">
-      <c r="B151" s="43"/>
-      <c r="C151" s="43"/>
+      <c r="B151" s="41"/>
+      <c r="C151" s="41"/>
     </row>
     <row r="152" spans="2:3">
-      <c r="B152" s="43"/>
-      <c r="C152" s="43"/>
+      <c r="B152" s="41"/>
+      <c r="C152" s="41"/>
     </row>
     <row r="153" spans="2:3">
-      <c r="B153" s="43"/>
-      <c r="C153" s="43"/>
+      <c r="B153" s="41"/>
+      <c r="C153" s="41"/>
     </row>
     <row r="154" spans="2:3">
-      <c r="B154" s="43"/>
-      <c r="C154" s="43"/>
+      <c r="B154" s="41"/>
+      <c r="C154" s="41"/>
     </row>
     <row r="155" spans="2:3">
-      <c r="B155" s="43"/>
-      <c r="C155" s="43"/>
+      <c r="B155" s="41"/>
+      <c r="C155" s="41"/>
     </row>
     <row r="156" spans="2:3">
-      <c r="B156" s="43"/>
-      <c r="C156" s="43"/>
+      <c r="B156" s="41"/>
+      <c r="C156" s="41"/>
     </row>
     <row r="157" spans="2:3">
-      <c r="B157" s="43"/>
-      <c r="C157" s="43"/>
+      <c r="B157" s="41"/>
+      <c r="C157" s="41"/>
     </row>
     <row r="158" spans="2:3">
-      <c r="B158" s="43"/>
-      <c r="C158" s="43"/>
+      <c r="B158" s="41"/>
+      <c r="C158" s="41"/>
     </row>
     <row r="159" spans="2:3">
-      <c r="B159" s="43"/>
-      <c r="C159" s="43"/>
+      <c r="B159" s="41"/>
+      <c r="C159" s="41"/>
     </row>
     <row r="160" spans="2:3">
-      <c r="B160" s="43"/>
-      <c r="C160" s="43"/>
+      <c r="B160" s="41"/>
+      <c r="C160" s="41"/>
     </row>
     <row r="161" spans="2:3">
-      <c r="B161" s="43"/>
-      <c r="C161" s="43"/>
+      <c r="B161" s="41"/>
+      <c r="C161" s="41"/>
     </row>
     <row r="162" spans="2:3">
-      <c r="B162" s="43"/>
-      <c r="C162" s="43"/>
+      <c r="B162" s="41"/>
+      <c r="C162" s="41"/>
     </row>
     <row r="163" spans="2:3">
-      <c r="B163" s="43"/>
-      <c r="C163" s="43"/>
+      <c r="B163" s="41"/>
+      <c r="C163" s="41"/>
     </row>
     <row r="164" spans="2:3">
-      <c r="B164" s="43"/>
-      <c r="C164" s="43"/>
+      <c r="B164" s="41"/>
+      <c r="C164" s="41"/>
     </row>
     <row r="165" spans="2:3">
-      <c r="B165" s="43"/>
-      <c r="C165" s="43"/>
+      <c r="B165" s="41"/>
+      <c r="C165" s="41"/>
     </row>
     <row r="166" spans="2:3">
-      <c r="B166" s="43"/>
-      <c r="C166" s="43"/>
+      <c r="B166" s="41"/>
+      <c r="C166" s="41"/>
     </row>
     <row r="167" spans="2:3">
-      <c r="B167" s="43"/>
-      <c r="C167" s="43"/>
+      <c r="B167" s="41"/>
+      <c r="C167" s="41"/>
     </row>
     <row r="168" spans="2:3">
-      <c r="B168" s="43"/>
-      <c r="C168" s="43"/>
+      <c r="B168" s="41"/>
+      <c r="C168" s="41"/>
     </row>
     <row r="169" spans="2:3">
-      <c r="B169" s="43"/>
-      <c r="C169" s="43"/>
+      <c r="B169" s="41"/>
+      <c r="C169" s="41"/>
     </row>
     <row r="170" spans="2:3">
-      <c r="B170" s="43"/>
-      <c r="C170" s="43"/>
+      <c r="B170" s="41"/>
+      <c r="C170" s="41"/>
     </row>
     <row r="171" spans="2:3">
-      <c r="B171" s="43"/>
-      <c r="C171" s="43"/>
+      <c r="B171" s="41"/>
+      <c r="C171" s="41"/>
     </row>
     <row r="172" spans="2:3">
-      <c r="B172" s="43"/>
-      <c r="C172" s="43"/>
+      <c r="B172" s="41"/>
+      <c r="C172" s="41"/>
     </row>
     <row r="173" spans="2:3">
-      <c r="B173" s="43"/>
-      <c r="C173" s="43"/>
+      <c r="B173" s="41"/>
+      <c r="C173" s="41"/>
     </row>
     <row r="174" spans="2:3">
-      <c r="B174" s="43"/>
-      <c r="C174" s="43"/>
+      <c r="B174" s="41"/>
+      <c r="C174" s="41"/>
     </row>
     <row r="175" spans="2:3">
-      <c r="B175" s="43"/>
-      <c r="C175" s="43"/>
+      <c r="B175" s="41"/>
+      <c r="C175" s="41"/>
     </row>
     <row r="176" spans="2:3">
-      <c r="B176" s="43"/>
-      <c r="C176" s="43"/>
+      <c r="B176" s="41"/>
+      <c r="C176" s="41"/>
     </row>
     <row r="177" spans="2:3">
-      <c r="B177" s="43"/>
-      <c r="C177" s="43"/>
+      <c r="B177" s="41"/>
+      <c r="C177" s="41"/>
     </row>
     <row r="178" spans="2:3">
-      <c r="B178" s="43"/>
-      <c r="C178" s="43"/>
+      <c r="B178" s="41"/>
+      <c r="C178" s="41"/>
     </row>
     <row r="179" spans="2:3">
-      <c r="B179" s="43"/>
-      <c r="C179" s="43"/>
+      <c r="B179" s="41"/>
+      <c r="C179" s="41"/>
     </row>
     <row r="180" spans="2:3">
-      <c r="B180" s="43"/>
-      <c r="C180" s="43"/>
+      <c r="B180" s="41"/>
+      <c r="C180" s="41"/>
     </row>
     <row r="181" spans="2:3">
-      <c r="B181" s="43"/>
-      <c r="C181" s="43"/>
+      <c r="B181" s="41"/>
+      <c r="C181" s="41"/>
     </row>
     <row r="182" spans="2:3">
-      <c r="B182" s="43"/>
-      <c r="C182" s="43"/>
+      <c r="B182" s="41"/>
+      <c r="C182" s="41"/>
     </row>
     <row r="183" spans="2:3">
-      <c r="B183" s="43"/>
-      <c r="C183" s="43"/>
+      <c r="B183" s="41"/>
+      <c r="C183" s="41"/>
     </row>
     <row r="184" spans="2:3">
-      <c r="B184" s="43"/>
-      <c r="C184" s="43"/>
+      <c r="B184" s="41"/>
+      <c r="C184" s="41"/>
     </row>
     <row r="185" spans="2:3">
-      <c r="B185" s="43"/>
-      <c r="C185" s="43"/>
+      <c r="B185" s="41"/>
+      <c r="C185" s="41"/>
     </row>
     <row r="186" spans="2:3">
-      <c r="B186" s="43"/>
-      <c r="C186" s="43"/>
+      <c r="B186" s="41"/>
+      <c r="C186" s="41"/>
     </row>
     <row r="187" spans="2:3">
-      <c r="B187" s="43"/>
-      <c r="C187" s="43"/>
+      <c r="B187" s="41"/>
+      <c r="C187" s="41"/>
     </row>
     <row r="188" spans="2:3">
-      <c r="B188" s="43"/>
-      <c r="C188" s="43"/>
+      <c r="B188" s="41"/>
+      <c r="C188" s="41"/>
     </row>
     <row r="189" spans="2:3">
-      <c r="B189" s="43"/>
-      <c r="C189" s="43"/>
+      <c r="B189" s="41"/>
+      <c r="C189" s="41"/>
     </row>
     <row r="190" spans="2:3">
-      <c r="B190" s="43"/>
-      <c r="C190" s="43"/>
+      <c r="B190" s="41"/>
+      <c r="C190" s="41"/>
     </row>
     <row r="191" spans="2:3">
-      <c r="B191" s="43"/>
-      <c r="C191" s="43"/>
+      <c r="B191" s="41"/>
+      <c r="C191" s="41"/>
     </row>
     <row r="192" spans="2:3">
-      <c r="B192" s="43"/>
-      <c r="C192" s="43"/>
+      <c r="B192" s="41"/>
+      <c r="C192" s="41"/>
     </row>
     <row r="193" spans="2:3">
-      <c r="B193" s="43"/>
-      <c r="C193" s="43"/>
+      <c r="B193" s="41"/>
+      <c r="C193" s="41"/>
     </row>
     <row r="194" spans="2:3">
-      <c r="B194" s="43"/>
-      <c r="C194" s="43"/>
+      <c r="B194" s="41"/>
+      <c r="C194" s="41"/>
     </row>
     <row r="195" spans="2:3">
-      <c r="B195" s="43"/>
-      <c r="C195" s="43"/>
+      <c r="B195" s="41"/>
+      <c r="C195" s="41"/>
     </row>
     <row r="196" spans="2:3">
-      <c r="B196" s="43"/>
-      <c r="C196" s="43"/>
+      <c r="B196" s="41"/>
+      <c r="C196" s="41"/>
     </row>
     <row r="197" spans="2:3">
-      <c r="B197" s="43"/>
-      <c r="C197" s="43"/>
+      <c r="B197" s="41"/>
+      <c r="C197" s="41"/>
     </row>
     <row r="198" spans="2:3">
-      <c r="B198" s="43"/>
-      <c r="C198" s="43"/>
+      <c r="B198" s="41"/>
+      <c r="C198" s="41"/>
     </row>
     <row r="199" spans="2:3">
-      <c r="B199" s="43"/>
-      <c r="C199" s="43"/>
+      <c r="B199" s="41"/>
+      <c r="C199" s="41"/>
     </row>
     <row r="200" spans="2:3">
-      <c r="B200" s="43"/>
-      <c r="C200" s="43"/>
+      <c r="B200" s="41"/>
+      <c r="C200" s="41"/>
     </row>
     <row r="201" spans="2:3">
-      <c r="B201" s="43"/>
-      <c r="C201" s="43"/>
+      <c r="B201" s="41"/>
+      <c r="C201" s="41"/>
     </row>
     <row r="202" spans="2:3">
-      <c r="B202" s="43"/>
-      <c r="C202" s="43"/>
+      <c r="B202" s="41"/>
+      <c r="C202" s="41"/>
     </row>
     <row r="203" spans="2:3">
-      <c r="B203" s="43"/>
-      <c r="C203" s="43"/>
+      <c r="B203" s="41"/>
+      <c r="C203" s="41"/>
     </row>
     <row r="204" spans="2:3">
-      <c r="B204" s="43"/>
-      <c r="C204" s="43"/>
+      <c r="B204" s="41"/>
+      <c r="C204" s="41"/>
     </row>
     <row r="205" spans="2:3">
-      <c r="B205" s="43"/>
-      <c r="C205" s="43"/>
+      <c r="B205" s="41"/>
+      <c r="C205" s="41"/>
     </row>
     <row r="206" spans="2:3">
-      <c r="B206" s="43"/>
-      <c r="C206" s="43"/>
+      <c r="B206" s="41"/>
+      <c r="C206" s="41"/>
     </row>
     <row r="207" spans="2:3">
-      <c r="B207" s="43"/>
-      <c r="C207" s="43"/>
+      <c r="B207" s="41"/>
+      <c r="C207" s="41"/>
     </row>
     <row r="208" spans="2:3">
-      <c r="B208" s="43"/>
-      <c r="C208" s="43"/>
+      <c r="B208" s="41"/>
+      <c r="C208" s="41"/>
     </row>
     <row r="209" spans="2:3">
-      <c r="B209" s="43"/>
-      <c r="C209" s="43"/>
+      <c r="B209" s="41"/>
+      <c r="C209" s="41"/>
     </row>
     <row r="210" spans="2:3">
-      <c r="B210" s="43"/>
-      <c r="C210" s="43"/>
+      <c r="B210" s="41"/>
+      <c r="C210" s="41"/>
     </row>
     <row r="211" spans="2:3">
-      <c r="B211" s="43"/>
-      <c r="C211" s="43"/>
+      <c r="B211" s="41"/>
+      <c r="C211" s="41"/>
     </row>
     <row r="212" spans="2:3">
-      <c r="B212" s="43"/>
-      <c r="C212" s="43"/>
+      <c r="B212" s="41"/>
+      <c r="C212" s="41"/>
     </row>
     <row r="213" spans="2:3">
-      <c r="B213" s="43"/>
-      <c r="C213" s="43"/>
+      <c r="B213" s="41"/>
+      <c r="C213" s="41"/>
     </row>
     <row r="214" spans="2:3">
-      <c r="B214" s="43"/>
-      <c r="C214" s="43"/>
+      <c r="B214" s="41"/>
+      <c r="C214" s="41"/>
     </row>
     <row r="215" spans="2:3">
-      <c r="B215" s="43"/>
-      <c r="C215" s="43"/>
+      <c r="B215" s="41"/>
+      <c r="C215" s="41"/>
     </row>
     <row r="216" spans="2:3">
-      <c r="B216" s="43"/>
-      <c r="C216" s="43"/>
+      <c r="B216" s="41"/>
+      <c r="C216" s="41"/>
     </row>
     <row r="217" spans="2:3">
-      <c r="B217" s="43"/>
-      <c r="C217" s="43"/>
+      <c r="B217" s="41"/>
+      <c r="C217" s="41"/>
     </row>
     <row r="218" spans="2:3">
-      <c r="B218" s="43"/>
-      <c r="C218" s="43"/>
+      <c r="B218" s="41"/>
+      <c r="C218" s="41"/>
     </row>
     <row r="219" spans="2:3">
-      <c r="B219" s="43"/>
-      <c r="C219" s="43"/>
+      <c r="B219" s="41"/>
+      <c r="C219" s="41"/>
     </row>
     <row r="220" spans="2:3">
-      <c r="B220" s="43"/>
-      <c r="C220" s="43"/>
+      <c r="B220" s="41"/>
+      <c r="C220" s="41"/>
     </row>
     <row r="221" spans="2:3">
-      <c r="B221" s="43"/>
-      <c r="C221" s="43"/>
+      <c r="B221" s="41"/>
+      <c r="C221" s="41"/>
     </row>
     <row r="222" spans="2:3">
-      <c r="B222" s="43"/>
-      <c r="C222" s="43"/>
+      <c r="B222" s="41"/>
+      <c r="C222" s="41"/>
     </row>
     <row r="223" spans="2:3">
-      <c r="B223" s="43"/>
-      <c r="C223" s="43"/>
+      <c r="B223" s="41"/>
+      <c r="C223" s="41"/>
     </row>
     <row r="224" spans="2:3">
-      <c r="B224" s="43"/>
-      <c r="C224" s="43"/>
+      <c r="B224" s="41"/>
+      <c r="C224" s="41"/>
     </row>
     <row r="225" spans="2:3">
-      <c r="B225" s="43"/>
-      <c r="C225" s="43"/>
+      <c r="B225" s="41"/>
+      <c r="C225" s="41"/>
     </row>
     <row r="226" spans="2:3">
-      <c r="B226" s="43"/>
-      <c r="C226" s="43"/>
+      <c r="B226" s="41"/>
+      <c r="C226" s="41"/>
     </row>
     <row r="227" spans="2:3">
-      <c r="B227" s="43"/>
-      <c r="C227" s="43"/>
+      <c r="B227" s="41"/>
+      <c r="C227" s="41"/>
     </row>
     <row r="228" spans="2:3">
-      <c r="B228" s="43"/>
-      <c r="C228" s="43"/>
+      <c r="B228" s="41"/>
+      <c r="C228" s="41"/>
     </row>
     <row r="229" spans="2:3">
-      <c r="B229" s="43"/>
-      <c r="C229" s="43"/>
+      <c r="B229" s="41"/>
+      <c r="C229" s="41"/>
     </row>
     <row r="230" spans="2:3">
-      <c r="B230" s="43"/>
-      <c r="C230" s="43"/>
+      <c r="B230" s="41"/>
+      <c r="C230" s="41"/>
     </row>
     <row r="231" spans="2:3">
-      <c r="B231" s="43"/>
-      <c r="C231" s="43"/>
+      <c r="B231" s="41"/>
+      <c r="C231" s="41"/>
     </row>
     <row r="232" spans="2:3">
-      <c r="B232" s="43"/>
-      <c r="C232" s="43"/>
+      <c r="B232" s="41"/>
+      <c r="C232" s="41"/>
     </row>
     <row r="233" spans="2:3">
-      <c r="B233" s="43"/>
-      <c r="C233" s="43"/>
+      <c r="B233" s="41"/>
+      <c r="C233" s="41"/>
     </row>
     <row r="234" spans="2:3">
-      <c r="B234" s="43"/>
-      <c r="C234" s="43"/>
+      <c r="B234" s="41"/>
+      <c r="C234" s="41"/>
     </row>
     <row r="235" spans="2:3">
-      <c r="B235" s="43"/>
-      <c r="C235" s="43"/>
+      <c r="B235" s="41"/>
+      <c r="C235" s="41"/>
     </row>
     <row r="236" spans="2:3">
-      <c r="B236" s="43"/>
-      <c r="C236" s="43"/>
+      <c r="B236" s="41"/>
+      <c r="C236" s="41"/>
     </row>
     <row r="237" spans="2:3">
-      <c r="B237" s="43"/>
-      <c r="C237" s="43"/>
+      <c r="B237" s="41"/>
+      <c r="C237" s="41"/>
     </row>
     <row r="238" spans="2:3">
-      <c r="B238" s="43"/>
-      <c r="C238" s="43"/>
+      <c r="B238" s="41"/>
+      <c r="C238" s="41"/>
     </row>
     <row r="239" spans="2:3">
-      <c r="B239" s="43"/>
-      <c r="C239" s="43"/>
+      <c r="B239" s="41"/>
+      <c r="C239" s="41"/>
     </row>
     <row r="240" spans="2:3">
-      <c r="B240" s="43"/>
-      <c r="C240" s="43"/>
+      <c r="B240" s="41"/>
+      <c r="C240" s="41"/>
     </row>
     <row r="241" spans="2:3">
-      <c r="B241" s="43"/>
-      <c r="C241" s="43"/>
+      <c r="B241" s="41"/>
+      <c r="C241" s="41"/>
     </row>
     <row r="242" spans="2:3">
-      <c r="B242" s="43"/>
-      <c r="C242" s="43"/>
+      <c r="B242" s="41"/>
+      <c r="C242" s="41"/>
     </row>
     <row r="243" spans="2:3">
-      <c r="B243" s="43"/>
-      <c r="C243" s="43"/>
+      <c r="B243" s="41"/>
+      <c r="C243" s="41"/>
     </row>
     <row r="244" spans="2:3">
-      <c r="B244" s="43"/>
-      <c r="C244" s="43"/>
+      <c r="B244" s="41"/>
+      <c r="C244" s="41"/>
     </row>
     <row r="245" spans="2:3">
-      <c r="B245" s="43"/>
-      <c r="C245" s="43"/>
+      <c r="B245" s="41"/>
+      <c r="C245" s="41"/>
     </row>
     <row r="246" spans="2:3">
-      <c r="B246" s="43"/>
-      <c r="C246" s="43"/>
+      <c r="B246" s="41"/>
+      <c r="C246" s="41"/>
     </row>
     <row r="247" spans="2:3">
-      <c r="B247" s="43"/>
-      <c r="C247" s="43"/>
+      <c r="B247" s="41"/>
+      <c r="C247" s="41"/>
     </row>
     <row r="248" spans="2:3">
-      <c r="B248" s="43"/>
-      <c r="C248" s="43"/>
+      <c r="B248" s="41"/>
+      <c r="C248" s="41"/>
     </row>
     <row r="249" spans="2:3">
-      <c r="B249" s="43"/>
-      <c r="C249" s="43"/>
+      <c r="B249" s="41"/>
+      <c r="C249" s="41"/>
     </row>
     <row r="250" spans="2:3">
-      <c r="B250" s="43"/>
-      <c r="C250" s="43"/>
+      <c r="B250" s="41"/>
+      <c r="C250" s="41"/>
     </row>
     <row r="251" spans="2:3">
-      <c r="B251" s="43"/>
-      <c r="C251" s="43"/>
+      <c r="B251" s="41"/>
+      <c r="C251" s="41"/>
     </row>
     <row r="252" spans="2:3">
-      <c r="B252" s="43"/>
-      <c r="C252" s="43"/>
+      <c r="B252" s="41"/>
+      <c r="C252" s="41"/>
     </row>
     <row r="253" spans="2:3">
-      <c r="B253" s="43"/>
-      <c r="C253" s="43"/>
+      <c r="B253" s="41"/>
+      <c r="C253" s="41"/>
     </row>
     <row r="254" spans="2:3">
-      <c r="B254" s="43"/>
-      <c r="C254" s="43"/>
+      <c r="B254" s="41"/>
+      <c r="C254" s="41"/>
     </row>
     <row r="255" spans="2:3">
-      <c r="B255" s="43"/>
-      <c r="C255" s="43"/>
+      <c r="B255" s="41"/>
+      <c r="C255" s="41"/>
     </row>
     <row r="256" spans="2:3">
-      <c r="B256" s="43"/>
-      <c r="C256" s="43"/>
+      <c r="B256" s="41"/>
+      <c r="C256" s="41"/>
     </row>
     <row r="257" spans="2:3">
-      <c r="B257" s="43"/>
-      <c r="C257" s="43"/>
+      <c r="B257" s="41"/>
+      <c r="C257" s="41"/>
     </row>
     <row r="258" spans="2:3">
-      <c r="B258" s="43"/>
-      <c r="C258" s="43"/>
+      <c r="B258" s="41"/>
+      <c r="C258" s="41"/>
     </row>
     <row r="259" spans="2:3">
-      <c r="B259" s="43"/>
-      <c r="C259" s="43"/>
+      <c r="B259" s="41"/>
+      <c r="C259" s="41"/>
     </row>
     <row r="260" spans="2:3">
-      <c r="B260" s="43"/>
-      <c r="C260" s="43"/>
+      <c r="B260" s="41"/>
+      <c r="C260" s="41"/>
     </row>
     <row r="261" spans="2:3">
-      <c r="B261" s="43"/>
-      <c r="C261" s="43"/>
+      <c r="B261" s="41"/>
+      <c r="C261" s="41"/>
     </row>
     <row r="262" spans="2:3">
-      <c r="B262" s="43"/>
-      <c r="C262" s="43"/>
+      <c r="B262" s="41"/>
+      <c r="C262" s="41"/>
     </row>
     <row r="263" spans="2:3">
-      <c r="B263" s="43"/>
-      <c r="C263" s="43"/>
+      <c r="B263" s="41"/>
+      <c r="C263" s="41"/>
     </row>
     <row r="264" spans="2:3">
-      <c r="B264" s="43"/>
-      <c r="C264" s="43"/>
+      <c r="B264" s="41"/>
+      <c r="C264" s="41"/>
     </row>
     <row r="265" spans="2:3">
-      <c r="B265" s="43"/>
-      <c r="C265" s="43"/>
+      <c r="B265" s="41"/>
+      <c r="C265" s="41"/>
     </row>
     <row r="266" spans="2:3">
-      <c r="B266" s="43"/>
-      <c r="C266" s="43"/>
+      <c r="B266" s="41"/>
+      <c r="C266" s="41"/>
     </row>
     <row r="267" spans="2:3">
-      <c r="B267" s="43"/>
-      <c r="C267" s="43"/>
+      <c r="B267" s="41"/>
+      <c r="C267" s="41"/>
     </row>
     <row r="268" spans="2:3">
-      <c r="B268" s="43"/>
-      <c r="C268" s="43"/>
+      <c r="B268" s="41"/>
+      <c r="C268" s="41"/>
     </row>
     <row r="269" spans="2:3">
-      <c r="B269" s="43"/>
-      <c r="C269" s="43"/>
+      <c r="B269" s="41"/>
+      <c r="C269" s="41"/>
     </row>
     <row r="270" spans="2:3">
-      <c r="B270" s="43"/>
-      <c r="C270" s="43"/>
+      <c r="B270" s="41"/>
+      <c r="C270" s="41"/>
     </row>
     <row r="271" spans="2:3">
-      <c r="B271" s="43"/>
-      <c r="C271" s="43"/>
+      <c r="B271" s="41"/>
+      <c r="C271" s="41"/>
     </row>
     <row r="272" spans="2:3">
-      <c r="B272" s="43"/>
-      <c r="C272" s="43"/>
+      <c r="B272" s="41"/>
+      <c r="C272" s="41"/>
     </row>
     <row r="273" spans="2:3">
-      <c r="B273" s="43"/>
-      <c r="C273" s="43"/>
+      <c r="B273" s="41"/>
+      <c r="C273" s="41"/>
     </row>
     <row r="274" spans="2:3">
-      <c r="B274" s="43"/>
-      <c r="C274" s="43"/>
+      <c r="B274" s="41"/>
+      <c r="C274" s="41"/>
     </row>
     <row r="275" spans="2:3">
-      <c r="B275" s="43"/>
-      <c r="C275" s="43"/>
+      <c r="B275" s="41"/>
+      <c r="C275" s="41"/>
     </row>
     <row r="276" spans="2:3">
-      <c r="B276" s="43"/>
-      <c r="C276" s="43"/>
+      <c r="B276" s="41"/>
+      <c r="C276" s="41"/>
     </row>
     <row r="277" spans="2:3">
-      <c r="B277" s="43"/>
-      <c r="C277" s="43"/>
+      <c r="B277" s="41"/>
+      <c r="C277" s="41"/>
     </row>
     <row r="278" spans="2:3">
-      <c r="B278" s="43"/>
-      <c r="C278" s="43"/>
+      <c r="B278" s="41"/>
+      <c r="C278" s="41"/>
     </row>
     <row r="279" spans="2:3">
-      <c r="B279" s="43"/>
-      <c r="C279" s="43"/>
+      <c r="B279" s="41"/>
+      <c r="C279" s="41"/>
     </row>
     <row r="280" spans="2:3">
-      <c r="B280" s="43"/>
-      <c r="C280" s="43"/>
+      <c r="B280" s="41"/>
+      <c r="C280" s="41"/>
     </row>
     <row r="281" spans="2:3">
-      <c r="B281" s="43"/>
-      <c r="C281" s="43"/>
+      <c r="B281" s="41"/>
+      <c r="C281" s="41"/>
     </row>
     <row r="282" spans="2:3">
-      <c r="B282" s="43"/>
-      <c r="C282" s="43"/>
+      <c r="B282" s="41"/>
+      <c r="C282" s="41"/>
     </row>
     <row r="283" spans="2:3">
-      <c r="B283" s="43"/>
-      <c r="C283" s="43"/>
+      <c r="B283" s="41"/>
+      <c r="C283" s="41"/>
     </row>
     <row r="284" spans="2:3">
-      <c r="B284" s="43"/>
-      <c r="C284" s="43"/>
+      <c r="B284" s="41"/>
+      <c r="C284" s="41"/>
     </row>
     <row r="285" spans="2:3">
-      <c r="B285" s="43"/>
-      <c r="C285" s="43"/>
+      <c r="B285" s="41"/>
+      <c r="C285" s="41"/>
     </row>
     <row r="286" spans="2:3">
-      <c r="B286" s="43"/>
-      <c r="C286" s="43"/>
+      <c r="B286" s="41"/>
+      <c r="C286" s="41"/>
     </row>
     <row r="287" spans="2:3">
-      <c r="B287" s="43"/>
-      <c r="C287" s="43"/>
+      <c r="B287" s="41"/>
+      <c r="C287" s="41"/>
     </row>
     <row r="288" spans="2:3">
-      <c r="B288" s="43"/>
-      <c r="C288" s="43"/>
+      <c r="B288" s="41"/>
+      <c r="C288" s="41"/>
     </row>
     <row r="289" spans="2:3">
-      <c r="B289" s="43"/>
-      <c r="C289" s="43"/>
+      <c r="B289" s="41"/>
+      <c r="C289" s="41"/>
     </row>
     <row r="290" spans="2:3">
-      <c r="B290" s="43"/>
-      <c r="C290" s="43"/>
+      <c r="B290" s="41"/>
+      <c r="C290" s="41"/>
     </row>
     <row r="291" spans="2:3">
-      <c r="B291" s="43"/>
-      <c r="C291" s="43"/>
+      <c r="B291" s="41"/>
+      <c r="C291" s="41"/>
     </row>
     <row r="292" spans="2:3">
-      <c r="B292" s="43"/>
-      <c r="C292" s="43"/>
+      <c r="B292" s="41"/>
+      <c r="C292" s="41"/>
     </row>
     <row r="293" spans="2:3">
-      <c r="B293" s="43"/>
-      <c r="C293" s="43"/>
+      <c r="B293" s="41"/>
+      <c r="C293" s="41"/>
     </row>
     <row r="294" spans="2:3">
-      <c r="B294" s="43"/>
-      <c r="C294" s="43"/>
+      <c r="B294" s="41"/>
+      <c r="C294" s="41"/>
     </row>
     <row r="295" spans="2:3">
-      <c r="B295" s="43"/>
-      <c r="C295" s="43"/>
+      <c r="B295" s="41"/>
+      <c r="C295" s="41"/>
     </row>
     <row r="296" spans="2:3">
-      <c r="B296" s="43"/>
-      <c r="C296" s="43"/>
+      <c r="B296" s="41"/>
+      <c r="C296" s="41"/>
     </row>
     <row r="297" spans="2:3">
-      <c r="B297" s="43"/>
-      <c r="C297" s="43"/>
+      <c r="B297" s="41"/>
+      <c r="C297" s="41"/>
     </row>
     <row r="298" spans="2:3">
-      <c r="B298" s="43"/>
-      <c r="C298" s="43"/>
+      <c r="B298" s="41"/>
+      <c r="C298" s="41"/>
     </row>
     <row r="299" spans="2:3">
-      <c r="B299" s="43"/>
-      <c r="C299" s="43"/>
+      <c r="B299" s="41"/>
+      <c r="C299" s="41"/>
     </row>
     <row r="300" spans="2:3">
-      <c r="B300" s="43"/>
-      <c r="C300" s="43"/>
+      <c r="B300" s="41"/>
+      <c r="C300" s="41"/>
     </row>
     <row r="301" spans="2:3">
-      <c r="B301" s="43"/>
-      <c r="C301" s="43"/>
+      <c r="B301" s="41"/>
+      <c r="C301" s="41"/>
     </row>
     <row r="302" spans="2:3">
-      <c r="B302" s="43"/>
-      <c r="C302" s="43"/>
+      <c r="B302" s="41"/>
+      <c r="C302" s="41"/>
     </row>
     <row r="303" spans="2:3">
-      <c r="B303" s="43"/>
-      <c r="C303" s="43"/>
+      <c r="B303" s="41"/>
+      <c r="C303" s="41"/>
     </row>
     <row r="304" spans="2:3">
-      <c r="B304" s="43"/>
-      <c r="C304" s="43"/>
+      <c r="B304" s="41"/>
+      <c r="C304" s="41"/>
     </row>
     <row r="305" spans="2:3">
-      <c r="B305" s="43"/>
-      <c r="C305" s="43"/>
+      <c r="B305" s="41"/>
+      <c r="C305" s="41"/>
     </row>
     <row r="306" spans="2:3">
-      <c r="B306" s="43"/>
-      <c r="C306" s="43"/>
+      <c r="B306" s="41"/>
+      <c r="C306" s="41"/>
     </row>
     <row r="307" spans="2:3">
-      <c r="B307" s="43"/>
-      <c r="C307" s="43"/>
+      <c r="B307" s="41"/>
+      <c r="C307" s="41"/>
     </row>
     <row r="308" spans="2:3">
-      <c r="B308" s="43"/>
-      <c r="C308" s="43"/>
+      <c r="B308" s="41"/>
+      <c r="C308" s="41"/>
     </row>
     <row r="309" spans="2:3">
-      <c r="B309" s="43"/>
-      <c r="C309" s="43"/>
+      <c r="B309" s="41"/>
+      <c r="C309" s="41"/>
     </row>
     <row r="310" spans="2:3">
-      <c r="B310" s="43"/>
-      <c r="C310" s="43"/>
+      <c r="B310" s="41"/>
+      <c r="C310" s="41"/>
     </row>
     <row r="311" spans="2:3">
-      <c r="B311" s="43"/>
-      <c r="C311" s="43"/>
+      <c r="B311" s="41"/>
+      <c r="C311" s="41"/>
     </row>
     <row r="312" spans="2:3">
-      <c r="B312" s="43"/>
-      <c r="C312" s="43"/>
+      <c r="B312" s="41"/>
+      <c r="C312" s="41"/>
     </row>
     <row r="313" spans="2:3">
-      <c r="B313" s="43"/>
-      <c r="C313" s="43"/>
+      <c r="B313" s="41"/>
+      <c r="C313" s="41"/>
     </row>
     <row r="314" spans="2:3">
-      <c r="B314" s="43"/>
-      <c r="C314" s="43"/>
+      <c r="B314" s="41"/>
+      <c r="C314" s="41"/>
     </row>
     <row r="315" spans="2:3">
-      <c r="B315" s="43"/>
-      <c r="C315" s="43"/>
+      <c r="B315" s="41"/>
+      <c r="C315" s="41"/>
     </row>
     <row r="316" spans="2:3">
-      <c r="B316" s="43"/>
-      <c r="C316" s="43"/>
+      <c r="B316" s="41"/>
+      <c r="C316" s="41"/>
     </row>
     <row r="317" spans="2:3">
-      <c r="B317" s="43"/>
-      <c r="C317" s="43"/>
+      <c r="B317" s="41"/>
+      <c r="C317" s="41"/>
     </row>
     <row r="318" spans="2:3">
-      <c r="B318" s="43"/>
-      <c r="C318" s="43"/>
+      <c r="B318" s="41"/>
+      <c r="C318" s="41"/>
     </row>
     <row r="319" spans="2:3">
-      <c r="B319" s="43"/>
-      <c r="C319" s="43"/>
+      <c r="B319" s="41"/>
+      <c r="C319" s="41"/>
     </row>
     <row r="320" spans="2:3">
-      <c r="B320" s="43"/>
-      <c r="C320" s="43"/>
+      <c r="B320" s="41"/>
+      <c r="C320" s="41"/>
     </row>
     <row r="321" spans="2:3">
-      <c r="B321" s="43"/>
-      <c r="C321" s="43"/>
+      <c r="B321" s="41"/>
+      <c r="C321" s="41"/>
     </row>
     <row r="322" spans="2:3">
-      <c r="B322" s="43"/>
-      <c r="C322" s="43"/>
+      <c r="B322" s="41"/>
+      <c r="C322" s="41"/>
     </row>
     <row r="323" spans="2:3">
-      <c r="B323" s="43"/>
-      <c r="C323" s="43"/>
+      <c r="B323" s="41"/>
+      <c r="C323" s="41"/>
     </row>
     <row r="324" spans="2:3">
-      <c r="B324" s="43"/>
-      <c r="C324" s="43"/>
+      <c r="B324" s="41"/>
+      <c r="C324" s="41"/>
     </row>
     <row r="325" spans="2:3">
-      <c r="B325" s="43"/>
-      <c r="C325" s="43"/>
+      <c r="B325" s="41"/>
+      <c r="C325" s="41"/>
     </row>
     <row r="326" spans="2:3">
-      <c r="B326" s="43"/>
-      <c r="C326" s="43"/>
+      <c r="B326" s="41"/>
+      <c r="C326" s="41"/>
     </row>
     <row r="327" spans="2:3">
-      <c r="B327" s="43"/>
-      <c r="C327" s="43"/>
+      <c r="B327" s="41"/>
+      <c r="C327" s="41"/>
     </row>
     <row r="328" spans="2:3">
-      <c r="B328" s="43"/>
-      <c r="C328" s="43"/>
+      <c r="B328" s="41"/>
+      <c r="C328" s="41"/>
     </row>
     <row r="329" spans="2:3">
-      <c r="B329" s="43"/>
-      <c r="C329" s="43"/>
+      <c r="B329" s="41"/>
+      <c r="C329" s="41"/>
     </row>
     <row r="330" spans="2:3">
-      <c r="B330" s="43"/>
-      <c r="C330" s="43"/>
+      <c r="B330" s="41"/>
+      <c r="C330" s="41"/>
     </row>
     <row r="331" spans="2:3">
-      <c r="B331" s="43"/>
-      <c r="C331" s="43"/>
+      <c r="B331" s="41"/>
+      <c r="C331" s="41"/>
     </row>
     <row r="332" spans="2:3">
-      <c r="B332" s="43"/>
-      <c r="C332" s="43"/>
+      <c r="B332" s="41"/>
+      <c r="C332" s="41"/>
     </row>
     <row r="333" spans="2:3">
-      <c r="B333" s="43"/>
-      <c r="C333" s="43"/>
+      <c r="B333" s="41"/>
+      <c r="C333" s="41"/>
     </row>
     <row r="334" spans="2:3">
-      <c r="B334" s="43"/>
-      <c r="C334" s="43"/>
+      <c r="B334" s="41"/>
+      <c r="C334" s="41"/>
     </row>
     <row r="335" spans="2:3">
-      <c r="B335" s="43"/>
-      <c r="C335" s="43"/>
+      <c r="B335" s="41"/>
+      <c r="C335" s="41"/>
     </row>
     <row r="336" spans="2:3">
-      <c r="B336" s="43"/>
-      <c r="C336" s="43"/>
+      <c r="B336" s="41"/>
+      <c r="C336" s="41"/>
     </row>
     <row r="337" spans="2:3">
-      <c r="B337" s="43"/>
-      <c r="C337" s="43"/>
+      <c r="B337" s="41"/>
+      <c r="C337" s="41"/>
     </row>
     <row r="338" spans="2:3">
-      <c r="B338" s="43"/>
-      <c r="C338" s="43"/>
+      <c r="B338" s="41"/>
+      <c r="C338" s="41"/>
     </row>
     <row r="339" spans="2:3">
-      <c r="B339" s="43"/>
-      <c r="C339" s="43"/>
+      <c r="B339" s="41"/>
+      <c r="C339" s="41"/>
     </row>
     <row r="340" spans="2:3">
-      <c r="B340" s="43"/>
-      <c r="C340" s="43"/>
+      <c r="B340" s="41"/>
+      <c r="C340" s="41"/>
     </row>
     <row r="341" spans="2:3">
-      <c r="B341" s="43"/>
-      <c r="C341" s="43"/>
+      <c r="B341" s="41"/>
+      <c r="C341" s="41"/>
     </row>
     <row r="342" spans="2:3">
-      <c r="B342" s="43"/>
-      <c r="C342" s="43"/>
+      <c r="B342" s="41"/>
+      <c r="C342" s="41"/>
     </row>
     <row r="343" spans="2:3">
-      <c r="B343" s="43"/>
-      <c r="C343" s="43"/>
+      <c r="B343" s="41"/>
+      <c r="C343" s="41"/>
     </row>
     <row r="344" spans="2:3">
-      <c r="B344" s="43"/>
-      <c r="C344" s="43"/>
+      <c r="B344" s="41"/>
+      <c r="C344" s="41"/>
     </row>
     <row r="345" spans="2:3">
-      <c r="B345" s="43"/>
-      <c r="C345" s="43"/>
+      <c r="B345" s="41"/>
+      <c r="C345" s="41"/>
     </row>
     <row r="346" spans="2:3">
-      <c r="B346" s="43"/>
-      <c r="C346" s="43"/>
+      <c r="B346" s="41"/>
+      <c r="C346" s="41"/>
     </row>
     <row r="347" spans="2:3">
-      <c r="B347" s="43"/>
-      <c r="C347" s="43"/>
+      <c r="B347" s="41"/>
+      <c r="C347" s="41"/>
     </row>
     <row r="348" spans="2:3">
-      <c r="B348" s="43"/>
-      <c r="C348" s="43"/>
+      <c r="B348" s="41"/>
+      <c r="C348" s="41"/>
     </row>
     <row r="349" spans="2:3">
-      <c r="B349" s="43"/>
-      <c r="C349" s="43"/>
+      <c r="B349" s="41"/>
+      <c r="C349" s="41"/>
     </row>
     <row r="350" spans="2:3">
-      <c r="B350" s="43"/>
-      <c r="C350" s="43"/>
+      <c r="B350" s="41"/>
+      <c r="C350" s="41"/>
     </row>
     <row r="351" spans="2:3">
-      <c r="B351" s="43"/>
-      <c r="C351" s="43"/>
+      <c r="B351" s="41"/>
+      <c r="C351" s="41"/>
     </row>
     <row r="352" spans="2:3">
-      <c r="B352" s="43"/>
-      <c r="C352" s="43"/>
+      <c r="B352" s="41"/>
+      <c r="C352" s="41"/>
     </row>
     <row r="353" spans="2:3">
-      <c r="B353" s="43"/>
-      <c r="C353" s="43"/>
+      <c r="B353" s="41"/>
+      <c r="C353" s="41"/>
     </row>
     <row r="354" spans="2:3">
-      <c r="B354" s="43"/>
-      <c r="C354" s="43"/>
+      <c r="B354" s="41"/>
+      <c r="C354" s="41"/>
     </row>
     <row r="355" spans="2:3">
-      <c r="B355" s="43"/>
-      <c r="C355" s="43"/>
+      <c r="B355" s="41"/>
+      <c r="C355" s="41"/>
     </row>
     <row r="356" spans="2:3">
-      <c r="B356" s="43"/>
-      <c r="C356" s="43"/>
+      <c r="B356" s="41"/>
+      <c r="C356" s="41"/>
     </row>
     <row r="357" spans="2:3">
-      <c r="B357" s="43"/>
-      <c r="C357" s="43"/>
+      <c r="B357" s="41"/>
+      <c r="C357" s="41"/>
     </row>
     <row r="358" spans="2:3">
-      <c r="B358" s="43"/>
-      <c r="C358" s="43"/>
+      <c r="B358" s="41"/>
+      <c r="C358" s="41"/>
     </row>
     <row r="359" spans="2:3">
-      <c r="B359" s="43"/>
-      <c r="C359" s="43"/>
+      <c r="B359" s="41"/>
+      <c r="C359" s="41"/>
     </row>
     <row r="360" spans="2:3">
-      <c r="B360" s="43"/>
-      <c r="C360" s="43"/>
+      <c r="B360" s="41"/>
+      <c r="C360" s="41"/>
     </row>
     <row r="361" spans="2:3">
-      <c r="B361" s="43"/>
-      <c r="C361" s="43"/>
+      <c r="B361" s="41"/>
+      <c r="C361" s="41"/>
     </row>
     <row r="362" spans="2:3">
-      <c r="B362" s="43"/>
-      <c r="C362" s="43"/>
+      <c r="B362" s="41"/>
+      <c r="C362" s="41"/>
     </row>
     <row r="363" spans="2:3">
-      <c r="B363" s="43"/>
-      <c r="C363" s="43"/>
+      <c r="B363" s="41"/>
+      <c r="C363" s="41"/>
     </row>
     <row r="364" spans="2:3">
-      <c r="B364" s="43"/>
-      <c r="C364" s="43"/>
+      <c r="B364" s="41"/>
+      <c r="C364" s="41"/>
     </row>
     <row r="365" spans="2:3">
-      <c r="B365" s="43"/>
-      <c r="C365" s="43"/>
+      <c r="B365" s="41"/>
+      <c r="C365" s="41"/>
     </row>
     <row r="366" spans="2:3">
-      <c r="B366" s="43"/>
-      <c r="C366" s="43"/>
+      <c r="B366" s="41"/>
+      <c r="C366" s="41"/>
     </row>
     <row r="367" spans="2:3">
-      <c r="B367" s="43"/>
-      <c r="C367" s="43"/>
+      <c r="B367" s="41"/>
+      <c r="C367" s="41"/>
     </row>
     <row r="368" spans="2:3">
-      <c r="B368" s="43"/>
-      <c r="C368" s="43"/>
+      <c r="B368" s="41"/>
+      <c r="C368" s="41"/>
     </row>
     <row r="369" spans="2:3">
-      <c r="B369" s="43"/>
-      <c r="C369" s="43"/>
+      <c r="B369" s="41"/>
+      <c r="C369" s="41"/>
     </row>
     <row r="370" spans="2:3">
-      <c r="B370" s="43"/>
-      <c r="C370" s="43"/>
+      <c r="B370" s="41"/>
+      <c r="C370" s="41"/>
     </row>
     <row r="371" spans="2:3">
-      <c r="B371" s="43"/>
-      <c r="C371" s="43"/>
+      <c r="B371" s="41"/>
+      <c r="C371" s="41"/>
     </row>
     <row r="372" spans="2:3">
-      <c r="B372" s="43"/>
-      <c r="C372" s="43"/>
+      <c r="B372" s="41"/>
+      <c r="C372" s="41"/>
     </row>
     <row r="373" spans="2:3">
-      <c r="B373" s="43"/>
-      <c r="C373" s="43"/>
+      <c r="B373" s="41"/>
+      <c r="C373" s="41"/>
     </row>
     <row r="374" spans="2:3">
-      <c r="B374" s="43"/>
-      <c r="C374" s="43"/>
+      <c r="B374" s="41"/>
+      <c r="C374" s="41"/>
     </row>
     <row r="375" spans="2:3">
-      <c r="B375" s="43"/>
-      <c r="C375" s="43"/>
+      <c r="B375" s="41"/>
+      <c r="C375" s="41"/>
     </row>
     <row r="376" spans="2:3">
-      <c r="B376" s="43"/>
-      <c r="C376" s="43"/>
+      <c r="B376" s="41"/>
+      <c r="C376" s="41"/>
     </row>
     <row r="377" spans="2:3">
-      <c r="B377" s="43"/>
-      <c r="C377" s="43"/>
+      <c r="B377" s="41"/>
+      <c r="C377" s="41"/>
     </row>
     <row r="378" spans="2:3">
-      <c r="B378" s="43"/>
-      <c r="C378" s="43"/>
+      <c r="B378" s="41"/>
+      <c r="C378" s="41"/>
     </row>
     <row r="379" spans="2:3">
-      <c r="B379" s="43"/>
-      <c r="C379" s="43"/>
+      <c r="B379" s="41"/>
+      <c r="C379" s="41"/>
     </row>
     <row r="380" spans="2:3">
-      <c r="B380" s="43"/>
-      <c r="C380" s="43"/>
+      <c r="B380" s="41"/>
+      <c r="C380" s="41"/>
     </row>
     <row r="381" spans="2:3">
-      <c r="B381" s="43"/>
-      <c r="C381" s="43"/>
+      <c r="B381" s="41"/>
+      <c r="C381" s="41"/>
     </row>
     <row r="382" spans="2:3">
-      <c r="B382" s="43"/>
-      <c r="C382" s="43"/>
+      <c r="B382" s="41"/>
+      <c r="C382" s="41"/>
     </row>
     <row r="383" spans="2:3">
-      <c r="B383" s="43"/>
-      <c r="C383" s="43"/>
+      <c r="B383" s="41"/>
+      <c r="C383" s="41"/>
     </row>
     <row r="384" spans="2:3">
-      <c r="B384" s="43"/>
-      <c r="C384" s="43"/>
+      <c r="B384" s="41"/>
+      <c r="C384" s="41"/>
     </row>
     <row r="385" spans="2:3">
-      <c r="B385" s="43"/>
-      <c r="C385" s="43"/>
+      <c r="B385" s="41"/>
+      <c r="C385" s="41"/>
     </row>
     <row r="386" spans="2:3">
-      <c r="B386" s="43"/>
-      <c r="C386" s="43"/>
+      <c r="B386" s="41"/>
+      <c r="C386" s="41"/>
     </row>
     <row r="387" spans="2:3">
-      <c r="B387" s="43"/>
-      <c r="C387" s="43"/>
+      <c r="B387" s="41"/>
+      <c r="C387" s="41"/>
     </row>
     <row r="388" spans="2:3">
-      <c r="B388" s="43"/>
-      <c r="C388" s="43"/>
+      <c r="B388" s="41"/>
+      <c r="C388" s="41"/>
     </row>
     <row r="389" spans="2:3">
-      <c r="B389" s="43"/>
-      <c r="C389" s="43"/>
+      <c r="B389" s="41"/>
+      <c r="C389" s="41"/>
     </row>
     <row r="390" spans="2:3">
-      <c r="B390" s="43"/>
-      <c r="C390" s="43"/>
+      <c r="B390" s="41"/>
+      <c r="C390" s="41"/>
     </row>
     <row r="391" spans="2:3">
-      <c r="B391" s="43"/>
-      <c r="C391" s="43"/>
+      <c r="B391" s="41"/>
+      <c r="C391" s="41"/>
     </row>
     <row r="392" spans="2:3">
-      <c r="B392" s="43"/>
-      <c r="C392" s="43"/>
+      <c r="B392" s="41"/>
+      <c r="C392" s="41"/>
     </row>
     <row r="393" spans="2:3">
-      <c r="B393" s="43"/>
-      <c r="C393" s="43"/>
+      <c r="B393" s="41"/>
+      <c r="C393" s="41"/>
     </row>
     <row r="394" spans="2:3">
-      <c r="B394" s="43"/>
-      <c r="C394" s="43"/>
+      <c r="B394" s="41"/>
+      <c r="C394" s="41"/>
     </row>
     <row r="395" spans="2:3">
-      <c r="B395" s="43"/>
-      <c r="C395" s="43"/>
+      <c r="B395" s="41"/>
+      <c r="C395" s="41"/>
     </row>
     <row r="396" spans="2:3">
-      <c r="B396" s="43"/>
-      <c r="C396" s="43"/>
+      <c r="B396" s="41"/>
+      <c r="C396" s="41"/>
     </row>
     <row r="397" spans="2:3">
-      <c r="B397" s="43"/>
-      <c r="C397" s="43"/>
+      <c r="B397" s="41"/>
+      <c r="C397" s="41"/>
     </row>
     <row r="398" spans="2:3">
-      <c r="B398" s="43"/>
-      <c r="C398" s="43"/>
+      <c r="B398" s="41"/>
+      <c r="C398" s="41"/>
     </row>
     <row r="399" spans="2:3">
-      <c r="B399" s="43"/>
-      <c r="C399" s="43"/>
+      <c r="B399" s="41"/>
+      <c r="C399" s="41"/>
     </row>
     <row r="400" spans="2:3">
-      <c r="B400" s="43"/>
-      <c r="C400" s="43"/>
+      <c r="B400" s="41"/>
+      <c r="C400" s="41"/>
     </row>
     <row r="401" spans="2:3">
-      <c r="B401" s="43"/>
-      <c r="C401" s="43"/>
+      <c r="B401" s="41"/>
+      <c r="C401" s="41"/>
     </row>
     <row r="402" spans="2:3">
-      <c r="B402" s="43"/>
-      <c r="C402" s="43"/>
+      <c r="B402" s="41"/>
+      <c r="C402" s="41"/>
     </row>
     <row r="403" spans="2:3">
-      <c r="B403" s="43"/>
-      <c r="C403" s="43"/>
+      <c r="B403" s="41"/>
+      <c r="C403" s="41"/>
     </row>
     <row r="404" spans="2:3">
-      <c r="B404" s="43"/>
-      <c r="C404" s="43"/>
+      <c r="B404" s="41"/>
+      <c r="C404" s="41"/>
     </row>
     <row r="405" spans="2:3">
-      <c r="B405" s="43"/>
-      <c r="C405" s="43"/>
+      <c r="B405" s="41"/>
+      <c r="C405" s="41"/>
     </row>
     <row r="406" spans="2:3">
-      <c r="B406" s="43"/>
-      <c r="C406" s="43"/>
+      <c r="B406" s="41"/>
+      <c r="C406" s="41"/>
     </row>
     <row r="407" spans="2:3">
-      <c r="B407" s="43"/>
-      <c r="C407" s="43"/>
+      <c r="B407" s="41"/>
+      <c r="C407" s="41"/>
     </row>
     <row r="408" spans="2:3">
-      <c r="B408" s="43"/>
-      <c r="C408" s="43"/>
+      <c r="B408" s="41"/>
+      <c r="C408" s="41"/>
     </row>
     <row r="409" spans="2:3">
-      <c r="B409" s="43"/>
-      <c r="C409" s="43"/>
+      <c r="B409" s="41"/>
+      <c r="C409" s="41"/>
     </row>
     <row r="410" spans="2:3">
-      <c r="B410" s="43"/>
-      <c r="C410" s="43"/>
+      <c r="B410" s="41"/>
+      <c r="C410" s="41"/>
     </row>
     <row r="411" spans="2:3">
-      <c r="B411" s="43"/>
-      <c r="C411" s="43"/>
+      <c r="B411" s="41"/>
+      <c r="C411" s="41"/>
     </row>
     <row r="412" spans="2:3">
-      <c r="B412" s="43"/>
-      <c r="C412" s="43"/>
+      <c r="B412" s="41"/>
+      <c r="C412" s="41"/>
     </row>
     <row r="413" spans="2:3">
-      <c r="B413" s="43"/>
-      <c r="C413" s="43"/>
+      <c r="B413" s="41"/>
+      <c r="C413" s="41"/>
     </row>
     <row r="414" spans="2:3">
-      <c r="B414" s="43"/>
-      <c r="C414" s="43"/>
+      <c r="B414" s="41"/>
+      <c r="C414" s="41"/>
     </row>
     <row r="415" spans="2:3">
-      <c r="B415" s="43"/>
-      <c r="C415" s="43"/>
+      <c r="B415" s="41"/>
+      <c r="C415" s="41"/>
     </row>
     <row r="416" spans="2:3">
-      <c r="B416" s="43"/>
-      <c r="C416" s="43"/>
+      <c r="B416" s="41"/>
+      <c r="C416" s="41"/>
     </row>
     <row r="417" spans="2:3">
-      <c r="B417" s="43"/>
-      <c r="C417" s="43"/>
+      <c r="B417" s="41"/>
+      <c r="C417" s="41"/>
     </row>
     <row r="418" spans="2:3">
-      <c r="B418" s="43"/>
-      <c r="C418" s="43"/>
+      <c r="B418" s="41"/>
+      <c r="C418" s="41"/>
     </row>
     <row r="419" spans="2:3">
-      <c r="B419" s="43"/>
-      <c r="C419" s="43"/>
+      <c r="B419" s="41"/>
+      <c r="C419" s="41"/>
     </row>
     <row r="420" spans="2:3">
-      <c r="B420" s="43"/>
-      <c r="C420" s="43"/>
+      <c r="B420" s="41"/>
+      <c r="C420" s="41"/>
     </row>
     <row r="421" spans="2:3">
-      <c r="B421" s="43"/>
-      <c r="C421" s="43"/>
+      <c r="B421" s="41"/>
+      <c r="C421" s="41"/>
     </row>
     <row r="422" spans="2:3">
-      <c r="B422" s="43"/>
-      <c r="C422" s="43"/>
+      <c r="B422" s="41"/>
+      <c r="C422" s="41"/>
     </row>
     <row r="423" spans="2:3">
-      <c r="B423" s="43"/>
-      <c r="C423" s="43"/>
+      <c r="B423" s="41"/>
+      <c r="C423" s="41"/>
     </row>
     <row r="424" spans="2:3">
-      <c r="B424" s="43"/>
-      <c r="C424" s="43"/>
+      <c r="B424" s="41"/>
+      <c r="C424" s="41"/>
     </row>
     <row r="425" spans="2:3">
-      <c r="B425" s="43"/>
-      <c r="C425" s="43"/>
+      <c r="B425" s="41"/>
+      <c r="C425" s="41"/>
     </row>
     <row r="426" spans="2:3">
-      <c r="B426" s="43"/>
-      <c r="C426" s="43"/>
+      <c r="B426" s="41"/>
+      <c r="C426" s="41"/>
     </row>
     <row r="427" spans="2:3">
-      <c r="B427" s="43"/>
-      <c r="C427" s="43"/>
+      <c r="B427" s="41"/>
+      <c r="C427" s="41"/>
     </row>
     <row r="428" spans="2:3">
-      <c r="B428" s="43"/>
-      <c r="C428" s="43"/>
+      <c r="B428" s="41"/>
+      <c r="C428" s="41"/>
     </row>
     <row r="429" spans="2:3">
-      <c r="B429" s="43"/>
-      <c r="C429" s="43"/>
+      <c r="B429" s="41"/>
+      <c r="C429" s="41"/>
     </row>
     <row r="430" spans="2:3">
-      <c r="B430" s="43"/>
-      <c r="C430" s="43"/>
+      <c r="B430" s="41"/>
+      <c r="C430" s="41"/>
     </row>
     <row r="431" spans="2:3">
-      <c r="B431" s="43"/>
-      <c r="C431" s="43"/>
+      <c r="B431" s="41"/>
+      <c r="C431" s="41"/>
     </row>
     <row r="432" spans="2:3">
-      <c r="B432" s="43"/>
-      <c r="C432" s="43"/>
+      <c r="B432" s="41"/>
+      <c r="C432" s="41"/>
     </row>
     <row r="433" spans="2:3">
-      <c r="B433" s="43"/>
-      <c r="C433" s="43"/>
+      <c r="B433" s="41"/>
+      <c r="C433" s="41"/>
     </row>
     <row r="434" spans="2:3">
-      <c r="B434" s="43"/>
-      <c r="C434" s="43"/>
+      <c r="B434" s="41"/>
+      <c r="C434" s="41"/>
     </row>
     <row r="435" spans="2:3">
-      <c r="B435" s="43"/>
-      <c r="C435" s="43"/>
+      <c r="B435" s="41"/>
+      <c r="C435" s="41"/>
     </row>
     <row r="436" spans="2:3">
-      <c r="B436" s="43"/>
-      <c r="C436" s="43"/>
+      <c r="B436" s="41"/>
+      <c r="C436" s="41"/>
     </row>
     <row r="437" spans="2:3">
-      <c r="B437" s="43"/>
-      <c r="C437" s="43"/>
+      <c r="B437" s="41"/>
+      <c r="C437" s="41"/>
     </row>
     <row r="438" spans="2:3">
-      <c r="B438" s="43"/>
-      <c r="C438" s="43"/>
+      <c r="B438" s="41"/>
+      <c r="C438" s="41"/>
     </row>
     <row r="439" spans="2:3">
-      <c r="B439" s="43"/>
-      <c r="C439" s="43"/>
+      <c r="B439" s="41"/>
+      <c r="C439" s="41"/>
     </row>
     <row r="440" spans="2:3">
-      <c r="B440" s="43"/>
-      <c r="C440" s="43"/>
+      <c r="B440" s="41"/>
+      <c r="C440" s="41"/>
     </row>
     <row r="441" spans="2:3">
-      <c r="B441" s="43"/>
-      <c r="C441" s="43"/>
+      <c r="B441" s="41"/>
+      <c r="C441" s="41"/>
     </row>
     <row r="442" spans="2:3">
-      <c r="B442" s="43"/>
-      <c r="C442" s="43"/>
+      <c r="B442" s="41"/>
+      <c r="C442" s="41"/>
     </row>
     <row r="443" spans="2:3">
-      <c r="B443" s="43"/>
-      <c r="C443" s="43"/>
+      <c r="B443" s="41"/>
+      <c r="C443" s="41"/>
     </row>
     <row r="444" spans="2:3">
-      <c r="B444" s="43"/>
-      <c r="C444" s="43"/>
+      <c r="B444" s="41"/>
+      <c r="C444" s="41"/>
     </row>
     <row r="445" spans="2:3">
-      <c r="B445" s="43"/>
-      <c r="C445" s="43"/>
+      <c r="B445" s="41"/>
+      <c r="C445" s="41"/>
     </row>
     <row r="446" spans="2:3">
-      <c r="B446" s="43"/>
-      <c r="C446" s="43"/>
+      <c r="B446" s="41"/>
+      <c r="C446" s="41"/>
     </row>
     <row r="447" spans="2:3">
-      <c r="B447" s="43"/>
-      <c r="C447" s="43"/>
+      <c r="B447" s="41"/>
+      <c r="C447" s="41"/>
     </row>
     <row r="448" spans="2:3">
-      <c r="B448" s="43"/>
-      <c r="C448" s="43"/>
+      <c r="B448" s="41"/>
+      <c r="C448" s="41"/>
     </row>
     <row r="449" spans="2:3">
-      <c r="B449" s="43"/>
-      <c r="C449" s="43"/>
+      <c r="B449" s="41"/>
+      <c r="C449" s="41"/>
     </row>
     <row r="450" spans="2:3">
-      <c r="B450" s="43"/>
-      <c r="C450" s="43"/>
+      <c r="B450" s="41"/>
+      <c r="C450" s="41"/>
     </row>
     <row r="451" spans="2:3">
-      <c r="B451" s="43"/>
-      <c r="C451" s="43"/>
+      <c r="B451" s="41"/>
+      <c r="C451" s="41"/>
     </row>
     <row r="452" spans="2:3">
-      <c r="B452" s="43"/>
-      <c r="C452" s="43"/>
+      <c r="B452" s="41"/>
+      <c r="C452" s="41"/>
     </row>
     <row r="453" spans="2:3">
-      <c r="B453" s="43"/>
-      <c r="C453" s="43"/>
+      <c r="B453" s="41"/>
+      <c r="C453" s="41"/>
     </row>
     <row r="454" spans="2:3">
-      <c r="B454" s="43"/>
-      <c r="C454" s="43"/>
+      <c r="B454" s="41"/>
+      <c r="C454" s="41"/>
     </row>
     <row r="455" spans="2:3">
-      <c r="B455" s="43"/>
-      <c r="C455" s="43"/>
+      <c r="B455" s="41"/>
+      <c r="C455" s="41"/>
     </row>
     <row r="456" spans="2:3">
-      <c r="B456" s="43"/>
-      <c r="C456" s="43"/>
+      <c r="B456" s="41"/>
+      <c r="C456" s="41"/>
     </row>
     <row r="457" spans="2:3">
-      <c r="B457" s="43"/>
-      <c r="C457" s="43"/>
+      <c r="B457" s="41"/>
+      <c r="C457" s="41"/>
     </row>
     <row r="458" spans="2:3">
-      <c r="B458" s="43"/>
-      <c r="C458" s="43"/>
+      <c r="B458" s="41"/>
+      <c r="C458" s="41"/>
     </row>
     <row r="459" spans="2:3">
-      <c r="B459" s="43"/>
-      <c r="C459" s="43"/>
+      <c r="B459" s="41"/>
+      <c r="C459" s="41"/>
     </row>
     <row r="460" spans="2:3">
-      <c r="B460" s="43"/>
-      <c r="C460" s="43"/>
+      <c r="B460" s="41"/>
+      <c r="C460" s="41"/>
     </row>
     <row r="461" spans="2:3">
-      <c r="B461" s="43"/>
-      <c r="C461" s="43"/>
+      <c r="B461" s="41"/>
+      <c r="C461" s="41"/>
     </row>
     <row r="462" spans="2:3">
-      <c r="B462" s="43"/>
-      <c r="C462" s="43"/>
+      <c r="B462" s="41"/>
+      <c r="C462" s="41"/>
     </row>
     <row r="463" spans="2:3">
-      <c r="B463" s="43"/>
-      <c r="C463" s="43"/>
+      <c r="B463" s="41"/>
+      <c r="C463" s="41"/>
     </row>
     <row r="464" spans="2:3">
-      <c r="B464" s="43"/>
-      <c r="C464" s="43"/>
+      <c r="B464" s="41"/>
+      <c r="C464" s="41"/>
     </row>
     <row r="465" spans="2:3">
-      <c r="B465" s="43"/>
-      <c r="C465" s="43"/>
+      <c r="B465" s="41"/>
+      <c r="C465" s="41"/>
     </row>
     <row r="466" spans="2:3">
-      <c r="B466" s="43"/>
-      <c r="C466" s="43"/>
+      <c r="B466" s="41"/>
+      <c r="C466" s="41"/>
     </row>
     <row r="467" spans="2:3">
-      <c r="B467" s="43"/>
-      <c r="C467" s="43"/>
+      <c r="B467" s="41"/>
+      <c r="C467" s="41"/>
     </row>
     <row r="468" spans="2:3">
-      <c r="B468" s="43"/>
-      <c r="C468" s="43"/>
+      <c r="B468" s="41"/>
+      <c r="C468" s="41"/>
     </row>
     <row r="469" spans="2:3">
-      <c r="B469" s="43"/>
-      <c r="C469" s="43"/>
+      <c r="B469" s="41"/>
+      <c r="C469" s="41"/>
     </row>
     <row r="470" spans="2:3">
-      <c r="B470" s="43"/>
-      <c r="C470" s="43"/>
+      <c r="B470" s="41"/>
+      <c r="C470" s="41"/>
     </row>
     <row r="471" spans="2:3">
-      <c r="B471" s="43"/>
-      <c r="C471" s="43"/>
+      <c r="B471" s="41"/>
+      <c r="C471" s="41"/>
     </row>
     <row r="472" spans="2:3">
-      <c r="B472" s="43"/>
-      <c r="C472" s="43"/>
+      <c r="B472" s="41"/>
+      <c r="C472" s="41"/>
     </row>
     <row r="473" spans="2:3">
-      <c r="B473" s="43"/>
-      <c r="C473" s="43"/>
+      <c r="B473" s="41"/>
+      <c r="C473" s="41"/>
     </row>
     <row r="474" spans="2:3">
-      <c r="B474" s="43"/>
-      <c r="C474" s="43"/>
+      <c r="B474" s="41"/>
+      <c r="C474" s="41"/>
     </row>
     <row r="475" spans="2:3">
-      <c r="B475" s="43"/>
-      <c r="C475" s="43"/>
+      <c r="B475" s="41"/>
+      <c r="C475" s="41"/>
     </row>
     <row r="476" spans="2:3">
-      <c r="B476" s="43"/>
-      <c r="C476" s="43"/>
+      <c r="B476" s="41"/>
+      <c r="C476" s="41"/>
     </row>
     <row r="477" spans="2:3">
-      <c r="B477" s="43"/>
-      <c r="C477" s="43"/>
+      <c r="B477" s="41"/>
+      <c r="C477" s="41"/>
     </row>
     <row r="478" spans="2:3">
-      <c r="B478" s="43"/>
-      <c r="C478" s="43"/>
+      <c r="B478" s="41"/>
+      <c r="C478" s="41"/>
     </row>
     <row r="479" spans="2:3">
-      <c r="B479" s="43"/>
-      <c r="C479" s="43"/>
+      <c r="B479" s="41"/>
+      <c r="C479" s="41"/>
     </row>
     <row r="480" spans="2:3">
-      <c r="B480" s="43"/>
-      <c r="C480" s="43"/>
+      <c r="B480" s="41"/>
+      <c r="C480" s="41"/>
     </row>
     <row r="481" spans="2:3">
-      <c r="B481" s="43"/>
-      <c r="C481" s="43"/>
+      <c r="B481" s="41"/>
+      <c r="C481" s="41"/>
     </row>
     <row r="482" spans="2:3">
-      <c r="B482" s="43"/>
-      <c r="C482" s="43"/>
+      <c r="B482" s="41"/>
+      <c r="C482" s="41"/>
     </row>
     <row r="483" spans="2:3">
-      <c r="B483" s="43"/>
-      <c r="C483" s="43"/>
+      <c r="B483" s="41"/>
+      <c r="C483" s="41"/>
     </row>
     <row r="484" spans="2:3">
-      <c r="B484" s="43"/>
-      <c r="C484" s="43"/>
+      <c r="B484" s="41"/>
+      <c r="C484" s="41"/>
     </row>
     <row r="485" spans="2:3">
-      <c r="B485" s="43"/>
-      <c r="C485" s="43"/>
+      <c r="B485" s="41"/>
+      <c r="C485" s="41"/>
     </row>
     <row r="486" spans="2:3">
-      <c r="B486" s="43"/>
-      <c r="C486" s="43"/>
+      <c r="B486" s="41"/>
+      <c r="C486" s="41"/>
     </row>
     <row r="487" spans="2:3">
-      <c r="B487" s="43"/>
-      <c r="C487" s="43"/>
+      <c r="B487" s="41"/>
+      <c r="C487" s="41"/>
     </row>
     <row r="488" spans="2:3">
-      <c r="B488" s="43"/>
-      <c r="C488" s="43"/>
+      <c r="B488" s="41"/>
+      <c r="C488" s="41"/>
     </row>
     <row r="489" spans="2:3">
-      <c r="B489" s="43"/>
-      <c r="C489" s="43"/>
+      <c r="B489" s="41"/>
+      <c r="C489" s="41"/>
     </row>
     <row r="490" spans="2:3">
-      <c r="B490" s="43"/>
-      <c r="C490" s="43"/>
+      <c r="B490" s="41"/>
+      <c r="C490" s="41"/>
     </row>
     <row r="491" spans="2:3">
-      <c r="B491" s="43"/>
-      <c r="C491" s="43"/>
+      <c r="B491" s="41"/>
+      <c r="C491" s="41"/>
     </row>
     <row r="492" spans="2:3">
-      <c r="B492" s="43"/>
-      <c r="C492" s="43"/>
+      <c r="B492" s="41"/>
+      <c r="C492" s="41"/>
     </row>
     <row r="493" spans="2:3">
-      <c r="B493" s="43"/>
-      <c r="C493" s="43"/>
+      <c r="B493" s="41"/>
+      <c r="C493" s="41"/>
     </row>
     <row r="494" spans="2:3">
-      <c r="B494" s="43"/>
-      <c r="C494" s="43"/>
+      <c r="B494" s="41"/>
+      <c r="C494" s="41"/>
     </row>
     <row r="495" spans="2:3">
-      <c r="B495" s="43"/>
-      <c r="C495" s="43"/>
+      <c r="B495" s="41"/>
+      <c r="C495" s="41"/>
     </row>
     <row r="496" spans="2:3">
-      <c r="B496" s="43"/>
-      <c r="C496" s="43"/>
+      <c r="B496" s="41"/>
+      <c r="C496" s="41"/>
     </row>
     <row r="497" spans="2:3">
-      <c r="B497" s="43"/>
-      <c r="C497" s="43"/>
+      <c r="B497" s="41"/>
+      <c r="C497" s="41"/>
     </row>
     <row r="498" spans="2:3">
-      <c r="B498" s="43"/>
-      <c r="C498" s="43"/>
+      <c r="B498" s="41"/>
+      <c r="C498" s="41"/>
     </row>
     <row r="499" spans="2:3">
-      <c r="B499" s="43"/>
-      <c r="C499" s="43"/>
+      <c r="B499" s="41"/>
+      <c r="C499" s="41"/>
     </row>
     <row r="500" spans="2:3">
-      <c r="B500" s="43"/>
-      <c r="C500" s="43"/>
+      <c r="B500" s="41"/>
+      <c r="C500" s="41"/>
     </row>
     <row r="501" spans="2:3">
-      <c r="B501" s="43"/>
-      <c r="C501" s="43"/>
+      <c r="B501" s="41"/>
+      <c r="C501" s="41"/>
     </row>
     <row r="502" spans="2:3">
-      <c r="B502" s="43"/>
-      <c r="C502" s="43"/>
+      <c r="B502" s="41"/>
+      <c r="C502" s="41"/>
     </row>
     <row r="503" spans="2:3">
-      <c r="B503" s="43"/>
-      <c r="C503" s="43"/>
+      <c r="B503" s="41"/>
+      <c r="C503" s="41"/>
     </row>
     <row r="504" spans="2:3">
-      <c r="B504" s="43"/>
-      <c r="C504" s="43"/>
+      <c r="B504" s="41"/>
+      <c r="C504" s="41"/>
     </row>
     <row r="505" spans="2:3">
-      <c r="B505" s="43"/>
-      <c r="C505" s="43"/>
+      <c r="B505" s="41"/>
+      <c r="C505" s="41"/>
     </row>
     <row r="506" spans="2:3">
-      <c r="B506" s="43"/>
-      <c r="C506" s="43"/>
+      <c r="B506" s="41"/>
+      <c r="C506" s="41"/>
     </row>
     <row r="507" spans="2:3">
-      <c r="B507" s="43"/>
-      <c r="C507" s="43"/>
+      <c r="B507" s="41"/>
+      <c r="C507" s="41"/>
     </row>
     <row r="508" spans="2:3">
-      <c r="C508" s="43"/>
+      <c r="B508" s="41"/>
+      <c r="C508" s="41"/>
+    </row>
+    <row r="509" spans="2:3">
+      <c r="C509" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="I97:J102"/>
+    <mergeCell ref="I104:J108"/>
+    <mergeCell ref="I110:J118"/>
     <mergeCell ref="I63:J67"/>
     <mergeCell ref="I69:J78"/>
+    <mergeCell ref="I51:J61"/>
+    <mergeCell ref="I80:J95"/>
     <mergeCell ref="I44:J49"/>
-    <mergeCell ref="I51:J60"/>
     <mergeCell ref="I3:J13"/>
     <mergeCell ref="I15:J23"/>
     <mergeCell ref="I25:J31"/>

--- a/new_universe.xlsx
+++ b/new_universe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-1080" yWindow="-84" windowWidth="22932" windowHeight="9768" tabRatio="435"/>
+    <workbookView xWindow="-1080" yWindow="-84" windowWidth="17496" windowHeight="9768" tabRatio="435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="8" r:id="rId1"/>
@@ -365,6 +365,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="G5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+S</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I5" authorId="0">
       <text>
         <r>
@@ -631,32 +657,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-S</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="H6" authorId="0">
       <text>
         <r>
@@ -1266,6 +1266,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="V9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+S</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I10" authorId="0">
       <text>
         <r>
@@ -1508,32 +1534,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="S11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-S</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="H12" authorId="0">
       <text>
         <r>
@@ -1562,7 +1562,34 @@
         </r>
       </text>
     </comment>
-    <comment ref="S12" authorId="0">
+    <comment ref="C13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+S
+E</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1589,34 +1616,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-S
+    <comment ref="K13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
 E</t>
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="0">
+    <comment ref="S13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1640,32 +1666,6 @@
           <t xml:space="preserve">
 E
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E</t>
         </r>
       </text>
     </comment>
@@ -6149,7 +6149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="519">
   <si>
     <t>y\x</t>
   </si>
@@ -7003,9 +7003,6 @@
     <t>Mining Core</t>
   </si>
   <si>
-    <t>Traders Road</t>
-  </si>
-  <si>
     <t>Traders Peace</t>
   </si>
   <si>
@@ -7102,9 +7099,6 @@
     <t>Atlantia</t>
   </si>
   <si>
-    <t>Xenon Sector 502</t>
-  </si>
-  <si>
     <t>Xenon Sector 138</t>
   </si>
   <si>
@@ -7139,9 +7133,6 @@
   </si>
   <si>
     <t>Game Check</t>
-  </si>
-  <si>
-    <t>New Gates</t>
   </si>
   <si>
     <t>Name set</t>
@@ -7536,6 +7527,210 @@
   </si>
   <si>
     <t>Rhy's Clouds</t>
+  </si>
+  <si>
+    <t>10,16</t>
+  </si>
+  <si>
+    <t>16,10</t>
+  </si>
+  <si>
+    <t>2,9</t>
+  </si>
+  <si>
+    <t>17,10</t>
+  </si>
+  <si>
+    <t>1,8</t>
+  </si>
+  <si>
+    <t>17,11</t>
+  </si>
+  <si>
+    <t>18,10</t>
+  </si>
+  <si>
+    <t>18,11</t>
+  </si>
+  <si>
+    <t>7,11</t>
+  </si>
+  <si>
+    <t>16,12</t>
+  </si>
+  <si>
+    <t>2,7</t>
+  </si>
+  <si>
+    <t>17,12</t>
+  </si>
+  <si>
+    <t>1,7</t>
+  </si>
+  <si>
+    <t>Third Redemption Cluster</t>
+  </si>
+  <si>
+    <t>19,10</t>
+  </si>
+  <si>
+    <t>9,2</t>
+  </si>
+  <si>
+    <t>19,11</t>
+  </si>
+  <si>
+    <t>9,3</t>
+  </si>
+  <si>
+    <t>19,12</t>
+  </si>
+  <si>
+    <t>9,4</t>
+  </si>
+  <si>
+    <t>20,12</t>
+  </si>
+  <si>
+    <t>6,0</t>
+  </si>
+  <si>
+    <t>18,13</t>
+  </si>
+  <si>
+    <t>19,13</t>
+  </si>
+  <si>
+    <t>20,13</t>
+  </si>
+  <si>
+    <t>17,9</t>
+  </si>
+  <si>
+    <t>18,9</t>
+  </si>
+  <si>
+    <t>19,9</t>
+  </si>
+  <si>
+    <t>19,14</t>
+  </si>
+  <si>
+    <t>Family Whi/Maelstrom Cluster</t>
+  </si>
+  <si>
+    <t>1,9</t>
+  </si>
+  <si>
+    <t>18,12</t>
+  </si>
+  <si>
+    <t>Xenon Sector 137</t>
+  </si>
+  <si>
+    <t>16,13</t>
+  </si>
+  <si>
+    <t>7,6</t>
+  </si>
+  <si>
+    <t>Fields of Nividium</t>
+  </si>
+  <si>
+    <t>17,13</t>
+  </si>
+  <si>
+    <t>8,6</t>
+  </si>
+  <si>
+    <t>16,14</t>
+  </si>
+  <si>
+    <t>7,7</t>
+  </si>
+  <si>
+    <t>17,14</t>
+  </si>
+  <si>
+    <t>8,7</t>
+  </si>
+  <si>
+    <t>16,15</t>
+  </si>
+  <si>
+    <t>7,8</t>
+  </si>
+  <si>
+    <t>16,16</t>
+  </si>
+  <si>
+    <t>15,16</t>
+  </si>
+  <si>
+    <t>Light of Heart Cluster</t>
+  </si>
+  <si>
+    <t>14,16</t>
+  </si>
+  <si>
+    <t>16,17</t>
+  </si>
+  <si>
+    <t>5,3</t>
+  </si>
+  <si>
+    <t>Sanctity of Corruption</t>
+  </si>
+  <si>
+    <t>17,17</t>
+  </si>
+  <si>
+    <t>18,17</t>
+  </si>
+  <si>
+    <t>18,16</t>
+  </si>
+  <si>
+    <t>16,18</t>
+  </si>
+  <si>
+    <t>5,4</t>
+  </si>
+  <si>
+    <t>17,18</t>
+  </si>
+  <si>
+    <t>10,7</t>
+  </si>
+  <si>
+    <t>16,19</t>
+  </si>
+  <si>
+    <t>5,5</t>
+  </si>
+  <si>
+    <t>17,19</t>
+  </si>
+  <si>
+    <t>18,18</t>
+  </si>
+  <si>
+    <t>10,6</t>
+  </si>
+  <si>
+    <t>Y Beta</t>
+  </si>
+  <si>
+    <t>Y Alpha</t>
+  </si>
+  <si>
+    <t>18,19</t>
+  </si>
+  <si>
+    <t>9,6</t>
+  </si>
+  <si>
+    <t>Ianamus Zura Cluster</t>
   </si>
 </sst>
 </file>
@@ -7883,7 +8078,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7978,22 +8173,7 @@
     <xf numFmtId="49" fontId="9" fillId="12" borderId="2" xfId="5" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="3">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="4" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="8" applyFont="1">
@@ -8008,16 +8188,11 @@
     <xf numFmtId="49" fontId="8" fillId="5" borderId="2" xfId="4" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="2" xfId="9" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="12" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
@@ -8038,6 +8213,39 @@
     <xf numFmtId="49" fontId="1" fillId="12" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="3">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8053,10 +8261,28 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="11" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="2" xfId="9" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="4" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="4">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8370,11 +8596,11 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="L10:N10"/>
+      <selection pane="bottomRight" activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" thickTop="1" thickBottom="1"/>
@@ -8475,14 +8701,11 @@
       <c r="G2" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="K2" s="19" t="s">
-        <v>275</v>
-      </c>
       <c r="R2" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="S2" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>238</v>
@@ -8516,9 +8739,6 @@
       <c r="I3" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="K3" s="19" t="s">
-        <v>276</v>
-      </c>
       <c r="R3" s="33" t="s">
         <v>142</v>
       </c>
@@ -8548,9 +8768,6 @@
       <c r="I4" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="K4" s="19" t="s">
-        <v>277</v>
-      </c>
       <c r="M4" s="33" t="s">
         <v>134</v>
       </c>
@@ -8560,14 +8777,13 @@
       <c r="O4" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="43" t="s">
+      <c r="R4" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="S4" s="43" t="s">
+      <c r="S4" s="38" t="s">
         <v>193</v>
       </c>
       <c r="T4" s="25" t="s">
@@ -8597,7 +8813,7 @@
         <v>217</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>213</v>
@@ -8617,13 +8833,13 @@
       <c r="O5" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="P5" s="60" t="s">
+      <c r="P5" s="39" t="s">
         <v>154</v>
       </c>
       <c r="Q5" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="R5" s="43" t="s">
+      <c r="R5" s="38" t="s">
         <v>194</v>
       </c>
       <c r="S5" s="31" t="s">
@@ -8656,7 +8872,7 @@
         <v>223</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>218</v>
@@ -8679,17 +8895,17 @@
       <c r="N6" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="O6" s="43" t="s">
+      <c r="O6" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="43" t="s">
+      <c r="P6" s="38" t="s">
         <v>6</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R6" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="S6" s="29" t="s">
         <v>99</v>
@@ -8698,7 +8914,7 @@
         <v>54</v>
       </c>
       <c r="U6" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="V6" s="5" t="s">
         <v>246</v>
@@ -8712,7 +8928,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>317</v>
+        <v>483</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>73</v>
@@ -8745,19 +8961,19 @@
         <v>164</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N7" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="O7" s="43" t="s">
+      <c r="O7" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="43" t="s">
+      <c r="P7" s="38" t="s">
         <v>13</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S7" s="33" t="s">
         <v>138</v>
@@ -8766,7 +8982,7 @@
         <v>60</v>
       </c>
       <c r="U7" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="42" customHeight="1" thickTop="1" thickBot="1">
@@ -8774,7 +8990,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>114</v>
@@ -8807,12 +9023,12 @@
         <v>62</v>
       </c>
       <c r="N8" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="O8" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="O8" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="43" t="s">
+      <c r="P8" s="38" t="s">
         <v>20</v>
       </c>
       <c r="S8" s="25" t="s">
@@ -8860,10 +9076,10 @@
         <v>51</v>
       </c>
       <c r="N9" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S9" s="25" t="s">
         <v>31</v>
@@ -8873,6 +9089,9 @@
       </c>
       <c r="U9" s="25" t="s">
         <v>33</v>
+      </c>
+      <c r="V9" s="30" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="42" customHeight="1" thickTop="1" thickBot="1">
@@ -8910,7 +9129,7 @@
         <v>250</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="S10" s="25" t="s">
         <v>38</v>
@@ -8933,7 +9152,7 @@
         <v>234</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>251</v>
@@ -8954,13 +9173,13 @@
         <v>189</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M11" s="28" t="s">
         <v>72</v>
       </c>
       <c r="N11" s="28" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="O11" s="28" t="s">
         <v>87</v>
@@ -8971,11 +9190,17 @@
       <c r="Q11" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="S11" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="T11" s="11" t="s">
+      <c r="S11" s="30" t="s">
         <v>84</v>
+      </c>
+      <c r="T11" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="U11" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="V11" s="19" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="42" customHeight="1" thickTop="1" thickBot="1">
@@ -8989,10 +9214,10 @@
         <v>235</v>
       </c>
       <c r="D12" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>309</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>310</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>274</v>
@@ -9013,13 +9238,13 @@
         <v>188</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P12" s="17" t="s">
         <v>256</v>
@@ -9027,16 +9252,16 @@
       <c r="Q12" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="R12" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="S12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="T12" s="5" t="s">
+      <c r="S12" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="T12" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="U12" s="28" t="s">
         <v>86</v>
       </c>
     </row>
@@ -9059,7 +9284,7 @@
       <c r="G13" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="38" t="s">
         <v>90</v>
       </c>
       <c r="I13" s="20" t="s">
@@ -9068,17 +9293,17 @@
       <c r="J13" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="K13" s="43" t="s">
+      <c r="K13" s="38" t="s">
         <v>170</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P13" s="17" t="s">
         <v>257</v>
@@ -9089,20 +9314,20 @@
       <c r="R13" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="S13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="T13" s="5" t="s">
+      <c r="S13" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="T13" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="U13" s="28" t="s">
         <v>88</v>
       </c>
       <c r="V13" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="W13" s="22" t="s">
         <v>302</v>
-      </c>
-      <c r="W13" s="22" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="42" customHeight="1" thickTop="1" thickBot="1">
@@ -9121,19 +9346,19 @@
       <c r="F14" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="38" t="s">
         <v>93</v>
       </c>
       <c r="J14" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="43" t="s">
+      <c r="K14" s="38" t="s">
         <v>94</v>
       </c>
       <c r="M14" s="1" t="s">
@@ -9145,29 +9370,29 @@
       <c r="O14" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="P14" s="40" t="s">
-        <v>321</v>
+      <c r="P14" s="35" t="s">
+        <v>319</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="R14" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="R14" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="S14" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="T14" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="U14" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="V14" s="28" t="s">
         <v>7</v>
       </c>
       <c r="W14" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="42" customHeight="1" thickTop="1" thickBot="1">
@@ -9189,7 +9414,7 @@
       <c r="F15" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="38" t="s">
         <v>107</v>
       </c>
       <c r="H15" s="20" t="s">
@@ -9202,7 +9427,7 @@
         <v>56</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>169</v>
@@ -9213,25 +9438,25 @@
       <c r="O15" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="P15" s="40" t="s">
-        <v>322</v>
+      <c r="P15" s="35" t="s">
+        <v>320</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="R15" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="R15" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="S15" s="8" t="s">
+      <c r="S15" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="T15" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="U15" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="V15" s="11" t="s">
+      <c r="V15" s="30" t="s">
         <v>195</v>
       </c>
     </row>
@@ -9248,7 +9473,7 @@
       <c r="F16" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="38" t="s">
         <v>109</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -9261,30 +9486,30 @@
         <v>57</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="P16" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="R16" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="R16" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="S16" s="8" t="s">
+      <c r="S16" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="U16" s="11" t="s">
+      <c r="U16" s="30" t="s">
         <v>198</v>
       </c>
     </row>
@@ -9311,7 +9536,7 @@
         <v>58</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L17" s="19" t="s">
         <v>279</v>
@@ -9328,11 +9553,11 @@
       <c r="Q17" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="R17" s="8" t="s">
+      <c r="R17" s="34" t="s">
         <v>104</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="T17" s="5" t="s">
         <v>65</v>
@@ -9384,7 +9609,7 @@
       <c r="P18" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="Q18" s="8" t="s">
+      <c r="Q18" s="34" t="s">
         <v>185</v>
       </c>
       <c r="R18" s="7" t="s">
@@ -9438,7 +9663,7 @@
         <v>28</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="T19" s="10" t="s">
         <v>200</v>
@@ -9511,10 +9736,10 @@
         <v>157</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>284</v>
+        <v>486</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>173</v>
@@ -9538,7 +9763,7 @@
     <row r="22" spans="1:22" s="15" customFormat="1" ht="42" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="23" spans="1:22" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="B23" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C23" s="6">
         <f>COUNTA(B2:Y21)</f>
@@ -9547,7 +9772,7 @@
     </row>
     <row r="24" spans="1:22" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="B24" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C24" s="6">
         <f>COUNTBLANK(B2:Y21)</f>
@@ -9568,8 +9793,10 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" thickTop="1" thickBottom="1"/>
@@ -10191,7 +10418,7 @@
       <c r="H10" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="34" t="s">
         <v>104</v>
       </c>
       <c r="J10" s="3" t="s">
@@ -10600,11 +10827,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J509"/>
+  <dimension ref="A1:I513"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K111" sqref="K111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H149" sqref="H149:I158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10612,4166 +10839,4571 @@
     <col min="1" max="1" width="26.6640625" customWidth="1"/>
     <col min="3" max="3" width="9.109375" customWidth="1"/>
     <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
-    <col min="6" max="7" width="17.21875" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="5" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1">
-        <f>COUNTA(D3:D601)</f>
-        <v>105</v>
+        <f>COUNTA(D3:D605)</f>
+        <v>141</v>
       </c>
       <c r="B1">
         <v>324</v>
       </c>
       <c r="C1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D1" s="27">
         <f>A1/B1</f>
-        <v>0.32407407407407407</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1">
+        <v>0.43518518518518517</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1">
       <c r="A2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" t="s">
         <v>324</v>
       </c>
-      <c r="B2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>326</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>328</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>330</v>
       </c>
-      <c r="F2" t="s">
-        <v>331</v>
-      </c>
       <c r="G2" t="s">
-        <v>333</v>
-      </c>
-      <c r="H2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="36">
         <v>1.3</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="36">
         <v>7.7</v>
       </c>
       <c r="D3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E3" t="s">
-        <v>327</v>
-      </c>
-      <c r="F3" t="s">
-        <v>327</v>
-      </c>
-      <c r="H3" t="s">
-        <v>327</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="J3" s="35"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G3" t="s">
+        <v>325</v>
+      </c>
+      <c r="H3" s="64" t="s">
+        <v>329</v>
+      </c>
+      <c r="I3" s="64"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="36">
         <v>0.3</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="36">
         <v>6.7</v>
       </c>
       <c r="D4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E4" t="s">
-        <v>327</v>
-      </c>
-      <c r="F4" t="s">
-        <v>327</v>
-      </c>
-      <c r="H4" t="s">
-        <v>327</v>
-      </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="36">
         <v>0.2</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="36">
         <v>6.6</v>
       </c>
       <c r="D5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E5" t="s">
-        <v>327</v>
-      </c>
-      <c r="F5" t="s">
-        <v>327</v>
-      </c>
-      <c r="H5" t="s">
-        <v>327</v>
-      </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="36">
         <v>1.2</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="36">
         <v>7.6</v>
       </c>
       <c r="D6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E6" t="s">
-        <v>327</v>
-      </c>
-      <c r="F6" t="s">
-        <v>327</v>
-      </c>
-      <c r="H6" t="s">
-        <v>327</v>
-      </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="36">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="36">
         <v>8.6</v>
       </c>
       <c r="D7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E7" t="s">
-        <v>327</v>
-      </c>
-      <c r="F7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H7" t="s">
-        <v>327</v>
-      </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="36">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="36">
         <v>8.6999999999999993</v>
       </c>
       <c r="D8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F8" t="s">
-        <v>327</v>
-      </c>
-      <c r="H8" t="s">
-        <v>327</v>
-      </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="36">
         <v>12.6</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="36">
         <v>8.8000000000000007</v>
       </c>
       <c r="D9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E9" t="s">
-        <v>327</v>
-      </c>
-      <c r="F9" t="s">
-        <v>327</v>
-      </c>
-      <c r="H9" t="s">
-        <v>327</v>
-      </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G9" t="s">
+        <v>325</v>
+      </c>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="36">
         <v>18.7</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="36">
         <v>7.8</v>
       </c>
       <c r="D10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E10" t="s">
-        <v>327</v>
-      </c>
-      <c r="F10" t="s">
-        <v>327</v>
-      </c>
-      <c r="H10" t="s">
-        <v>327</v>
-      </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G10" t="s">
+        <v>325</v>
+      </c>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="36">
         <v>17.7</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="36">
         <v>6.8</v>
       </c>
       <c r="D11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E11" t="s">
-        <v>327</v>
-      </c>
-      <c r="F11" t="s">
-        <v>327</v>
-      </c>
-      <c r="H11" t="s">
-        <v>327</v>
-      </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G11" t="s">
+        <v>325</v>
+      </c>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" t="s">
         <v>160</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="36">
         <v>16.7</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="36">
         <v>5.8</v>
       </c>
       <c r="D12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E12" t="s">
-        <v>327</v>
-      </c>
-      <c r="F12" t="s">
-        <v>327</v>
-      </c>
-      <c r="H12" t="s">
-        <v>327</v>
-      </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G12" t="s">
+        <v>325</v>
+      </c>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" t="s">
         <v>161</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="36">
         <v>16.8</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="36">
         <v>5.9</v>
       </c>
       <c r="D13" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E13" t="s">
-        <v>327</v>
-      </c>
-      <c r="F13" t="s">
-        <v>327</v>
-      </c>
-      <c r="H13" t="s">
-        <v>327</v>
-      </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-    </row>
-    <row r="14" spans="1:10" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G13" t="s">
+        <v>325</v>
+      </c>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+    </row>
+    <row r="14" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="36">
         <v>8.9</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="36">
         <v>5.6</v>
       </c>
       <c r="D15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E15" t="s">
-        <v>327</v>
-      </c>
-      <c r="F15" t="s">
-        <v>327</v>
-      </c>
-      <c r="H15" t="s">
-        <v>327</v>
-      </c>
-      <c r="I15" s="36" t="s">
-        <v>335</v>
-      </c>
-      <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G15" t="s">
+        <v>325</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>332</v>
+      </c>
+      <c r="I15" s="54"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" t="s">
         <v>181</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="36">
         <v>18.3</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="36">
         <v>5.7</v>
       </c>
       <c r="D16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E16" t="s">
-        <v>327</v>
-      </c>
-      <c r="F16" t="s">
-        <v>327</v>
-      </c>
-      <c r="H16" t="s">
-        <v>327</v>
-      </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G16" t="s">
+        <v>325</v>
+      </c>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="36">
         <v>17.3</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="36">
         <v>4.7</v>
       </c>
       <c r="D17" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E17" t="s">
-        <v>327</v>
-      </c>
-      <c r="F17" t="s">
-        <v>327</v>
-      </c>
-      <c r="H17" t="s">
-        <v>327</v>
-      </c>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G17" t="s">
+        <v>325</v>
+      </c>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A18" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="36">
         <v>7.9</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="36">
         <v>4.5999999999999996</v>
       </c>
       <c r="D18" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E18" t="s">
-        <v>327</v>
-      </c>
-      <c r="F18" t="s">
-        <v>327</v>
-      </c>
-      <c r="H18" t="s">
-        <v>327</v>
-      </c>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G18" t="s">
+        <v>325</v>
+      </c>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" t="s">
         <v>183</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="36">
         <v>18.2</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="36">
         <v>3.7</v>
       </c>
       <c r="D19" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E19" t="s">
-        <v>327</v>
-      </c>
-      <c r="F19" t="s">
-        <v>327</v>
-      </c>
-      <c r="H19" t="s">
-        <v>327</v>
-      </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G19" t="s">
+        <v>325</v>
+      </c>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" t="s">
-        <v>334</v>
-      </c>
-      <c r="B20" s="41">
+        <v>331</v>
+      </c>
+      <c r="B20" s="36">
         <v>18.100000000000001</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="36">
         <v>3.6</v>
       </c>
       <c r="D20" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E20" t="s">
-        <v>327</v>
-      </c>
-      <c r="F20" t="s">
-        <v>327</v>
-      </c>
-      <c r="H20" t="s">
-        <v>327</v>
-      </c>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G20" t="s">
+        <v>325</v>
+      </c>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="36">
         <v>5.8</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="36">
         <v>2.6</v>
       </c>
       <c r="D21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E21" t="s">
-        <v>327</v>
-      </c>
-      <c r="F21" t="s">
-        <v>327</v>
-      </c>
-      <c r="H21" t="s">
-        <v>327</v>
-      </c>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G21" t="s">
+        <v>325</v>
+      </c>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22" s="36">
         <v>5.9</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="36">
         <v>2.7</v>
       </c>
       <c r="D22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E22" t="s">
-        <v>327</v>
-      </c>
-      <c r="F22" t="s">
-        <v>327</v>
-      </c>
-      <c r="H22" t="s">
-        <v>327</v>
-      </c>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G22" t="s">
+        <v>325</v>
+      </c>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="36">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23" s="36">
         <v>2.8</v>
       </c>
       <c r="D23" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E23" t="s">
-        <v>327</v>
-      </c>
-      <c r="F23" t="s">
-        <v>327</v>
-      </c>
-      <c r="H23" t="s">
-        <v>327</v>
-      </c>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-    </row>
-    <row r="24" spans="1:10" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G23" t="s">
+        <v>325</v>
+      </c>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+    </row>
+    <row r="24" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B25" s="36">
         <v>5.12</v>
       </c>
-      <c r="C25" s="41">
+      <c r="C25" s="36">
         <v>3.5</v>
       </c>
       <c r="D25" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E25" t="s">
-        <v>327</v>
-      </c>
-      <c r="F25" t="s">
-        <v>327</v>
-      </c>
-      <c r="H25" t="s">
-        <v>327</v>
-      </c>
-      <c r="I25" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="J25" s="34"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G25" t="s">
+        <v>325</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="I25" s="41"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="41">
+      <c r="B26" s="36">
         <v>4.12</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26" s="36">
         <v>2.5</v>
       </c>
       <c r="D26" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E26" t="s">
-        <v>327</v>
-      </c>
-      <c r="F26" t="s">
-        <v>327</v>
-      </c>
-      <c r="H26" t="s">
-        <v>327</v>
-      </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="41">
+      <c r="B27" s="36">
         <v>3.12</v>
       </c>
-      <c r="C27" s="41">
+      <c r="C27" s="36">
         <v>1.5</v>
       </c>
       <c r="D27" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E27" t="s">
-        <v>327</v>
-      </c>
-      <c r="F27" t="s">
-        <v>327</v>
-      </c>
-      <c r="H27" t="s">
-        <v>327</v>
-      </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G27" t="s">
+        <v>325</v>
+      </c>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="41">
+      <c r="B28" s="36">
         <v>4.1100000000000003</v>
       </c>
-      <c r="C28" s="41">
+      <c r="C28" s="36">
         <v>2.4</v>
       </c>
       <c r="D28" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E28" t="s">
-        <v>327</v>
-      </c>
-      <c r="F28" t="s">
-        <v>327</v>
-      </c>
-      <c r="H28" t="s">
-        <v>327</v>
-      </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G28" t="s">
+        <v>325</v>
+      </c>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" t="s">
         <v>175</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="36">
         <v>18.399999999999999</v>
       </c>
-      <c r="C29" s="41">
+      <c r="C29" s="36">
         <v>2.2999999999999998</v>
       </c>
       <c r="D29" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E29" t="s">
-        <v>327</v>
-      </c>
-      <c r="F29" t="s">
-        <v>327</v>
-      </c>
-      <c r="H29" t="s">
-        <v>327</v>
-      </c>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G29" t="s">
+        <v>325</v>
+      </c>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="36">
         <v>6.1</v>
       </c>
-      <c r="C30" s="41">
+      <c r="C30" s="36">
         <v>1.3</v>
       </c>
       <c r="D30" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E30" t="s">
-        <v>327</v>
-      </c>
-      <c r="F30" t="s">
-        <v>327</v>
-      </c>
-      <c r="H30" t="s">
-        <v>327</v>
-      </c>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G30" t="s">
+        <v>325</v>
+      </c>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" t="s">
-        <v>337</v>
-      </c>
-      <c r="B31" s="41">
+        <v>334</v>
+      </c>
+      <c r="B31" s="36">
         <v>10.9</v>
       </c>
-      <c r="C31" s="41">
+      <c r="C31" s="36">
         <v>1.4</v>
       </c>
       <c r="D31" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E31" t="s">
-        <v>327</v>
-      </c>
-      <c r="F31" t="s">
-        <v>327</v>
-      </c>
-      <c r="H31" t="s">
-        <v>327</v>
-      </c>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-    </row>
-    <row r="32" spans="1:10" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-    </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" thickTop="1">
+        <v>325</v>
+      </c>
+      <c r="G31" t="s">
+        <v>325</v>
+      </c>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+    </row>
+    <row r="32" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" thickTop="1">
       <c r="A33" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="36">
         <v>3.5</v>
       </c>
-      <c r="C33" s="41">
+      <c r="C33" s="36">
         <v>9.6</v>
       </c>
       <c r="D33" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E33" t="s">
-        <v>327</v>
-      </c>
-      <c r="F33" t="s">
-        <v>327</v>
-      </c>
-      <c r="H33" t="s">
-        <v>327</v>
-      </c>
-      <c r="I33" s="37" t="s">
-        <v>340</v>
-      </c>
-      <c r="J33" s="37"/>
-    </row>
-    <row r="34" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="G33" t="s">
+        <v>325</v>
+      </c>
+      <c r="H33" s="65" t="s">
+        <v>337</v>
+      </c>
+      <c r="I33" s="65"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="41">
+      <c r="B34" s="36">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C34" s="41">
+      <c r="C34" s="36">
         <v>9.6999999999999993</v>
       </c>
       <c r="D34" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E34" t="s">
-        <v>327</v>
-      </c>
-      <c r="F34" t="s">
-        <v>327</v>
-      </c>
-      <c r="H34" t="s">
-        <v>327</v>
-      </c>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-    </row>
-    <row r="35" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="G34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="41">
+      <c r="B35" s="36">
         <v>4.5</v>
       </c>
-      <c r="C35" s="41">
+      <c r="C35" s="36">
         <v>9.8000000000000007</v>
       </c>
       <c r="D35" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E35" t="s">
-        <v>327</v>
-      </c>
-      <c r="F35" t="s">
-        <v>327</v>
-      </c>
-      <c r="H35" t="s">
-        <v>327</v>
-      </c>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-    </row>
-    <row r="36" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="G35" t="s">
+        <v>325</v>
+      </c>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>339</v>
-      </c>
-      <c r="B36" s="41">
+        <v>336</v>
+      </c>
+      <c r="B36" s="36">
         <v>5.6</v>
       </c>
-      <c r="C36" s="41">
+      <c r="C36" s="36">
         <v>10.7</v>
       </c>
       <c r="D36" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E36" t="s">
-        <v>327</v>
-      </c>
-      <c r="F36" t="s">
-        <v>327</v>
-      </c>
-      <c r="H36" t="s">
-        <v>327</v>
-      </c>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-    </row>
-    <row r="37" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="G36" t="s">
+        <v>325</v>
+      </c>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="41">
+      <c r="B37" s="36">
         <v>6.6</v>
       </c>
-      <c r="C37" s="41">
+      <c r="C37" s="36">
         <v>11.7</v>
       </c>
       <c r="D37" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E37" t="s">
-        <v>327</v>
-      </c>
-      <c r="F37" t="s">
-        <v>327</v>
-      </c>
-      <c r="H37" t="s">
-        <v>327</v>
-      </c>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-    </row>
-    <row r="38" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="G37" t="s">
+        <v>325</v>
+      </c>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="41">
+      <c r="B38" s="36">
         <v>4.7</v>
       </c>
-      <c r="C38" s="41">
+      <c r="C38" s="36">
         <v>10.6</v>
       </c>
       <c r="D38" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E38" t="s">
-        <v>327</v>
-      </c>
-      <c r="F38" t="s">
-        <v>327</v>
-      </c>
-      <c r="H38" t="s">
-        <v>327</v>
-      </c>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-    </row>
-    <row r="39" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="G38" t="s">
+        <v>325</v>
+      </c>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="41">
+      <c r="B39" s="36">
         <v>5.7</v>
       </c>
-      <c r="C39" s="41">
+      <c r="C39" s="36">
         <v>11.6</v>
       </c>
       <c r="D39" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E39" t="s">
-        <v>327</v>
-      </c>
-      <c r="F39" t="s">
-        <v>327</v>
-      </c>
-      <c r="H39" t="s">
-        <v>327</v>
-      </c>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-    </row>
-    <row r="40" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="G39" t="s">
+        <v>325</v>
+      </c>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>341</v>
-      </c>
-      <c r="B40" s="41">
+        <v>338</v>
+      </c>
+      <c r="B40" s="36">
         <v>3.3</v>
       </c>
-      <c r="C40" s="41">
+      <c r="C40" s="36">
         <v>6.5</v>
       </c>
       <c r="D40" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E40" t="s">
-        <v>327</v>
-      </c>
-      <c r="F40" t="s">
-        <v>327</v>
-      </c>
-      <c r="H40" t="s">
-        <v>327</v>
-      </c>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-    </row>
-    <row r="41" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="G40" t="s">
+        <v>325</v>
+      </c>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="41">
+      <c r="B41" s="36">
         <v>4.3</v>
       </c>
-      <c r="C41" s="41">
+      <c r="C41" s="36">
         <v>7.5</v>
       </c>
       <c r="D41" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E41" t="s">
-        <v>327</v>
-      </c>
-      <c r="F41" t="s">
-        <v>327</v>
-      </c>
-      <c r="H41" t="s">
-        <v>327</v>
-      </c>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-    </row>
-    <row r="42" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="G41" t="s">
+        <v>325</v>
+      </c>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="41">
+      <c r="B42" s="36">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C42" s="41">
+      <c r="C42" s="36">
         <v>8.5</v>
       </c>
       <c r="D42" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E42" t="s">
-        <v>327</v>
-      </c>
-      <c r="F42" t="s">
-        <v>327</v>
-      </c>
-      <c r="H42" t="s">
-        <v>327</v>
-      </c>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-    </row>
-    <row r="43" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1">
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
+        <v>325</v>
+      </c>
+      <c r="G42" t="s">
+        <v>325</v>
+      </c>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+    </row>
+    <row r="43" spans="1:9" s="24" customFormat="1" ht="15" thickBot="1">
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="H43" s="32"/>
       <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+    </row>
+    <row r="44" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A44" t="s">
         <v>210</v>
       </c>
-      <c r="B44" s="41">
+      <c r="B44" s="36">
         <v>15.16</v>
       </c>
-      <c r="C44" s="41">
+      <c r="C44" s="36">
         <v>9.4</v>
       </c>
       <c r="D44" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E44" t="s">
-        <v>327</v>
-      </c>
-      <c r="F44" t="s">
-        <v>327</v>
-      </c>
-      <c r="H44" t="s">
-        <v>327</v>
-      </c>
-      <c r="I44" s="34" t="s">
-        <v>342</v>
-      </c>
-      <c r="J44" s="34"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G44" t="s">
+        <v>325</v>
+      </c>
+      <c r="H44" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="I44" s="41"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" t="s">
         <v>209</v>
       </c>
-      <c r="B45" s="41">
+      <c r="B45" s="36">
         <v>15.15</v>
       </c>
-      <c r="C45" s="41">
+      <c r="C45" s="36">
         <v>9.5</v>
       </c>
       <c r="D45" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E45" t="s">
-        <v>327</v>
-      </c>
-      <c r="F45" t="s">
-        <v>327</v>
-      </c>
-      <c r="H45" t="s">
-        <v>327</v>
-      </c>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G45" t="s">
+        <v>325</v>
+      </c>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" t="s">
         <v>211</v>
       </c>
-      <c r="B46" s="41">
+      <c r="B46" s="36">
         <v>14.15</v>
       </c>
-      <c r="C46" s="41">
+      <c r="C46" s="36">
         <v>8.4</v>
       </c>
       <c r="D46" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E46" t="s">
-        <v>327</v>
-      </c>
-      <c r="F46" t="s">
-        <v>327</v>
-      </c>
-      <c r="H46" t="s">
-        <v>327</v>
-      </c>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G46" t="s">
+        <v>325</v>
+      </c>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" t="s">
         <v>165</v>
       </c>
-      <c r="B47" s="41">
+      <c r="B47" s="36">
         <v>16.5</v>
       </c>
-      <c r="C47" s="41">
+      <c r="C47" s="36">
         <v>7.4</v>
       </c>
       <c r="D47" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E47" t="s">
-        <v>327</v>
-      </c>
-      <c r="F47" t="s">
-        <v>327</v>
-      </c>
-      <c r="H47" t="s">
-        <v>327</v>
-      </c>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G47" t="s">
+        <v>325</v>
+      </c>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" t="s">
         <v>166</v>
       </c>
-      <c r="B48" s="41">
+      <c r="B48" s="36">
         <v>16.399999999999999</v>
       </c>
-      <c r="C48" s="41">
+      <c r="C48" s="36">
         <v>7.3</v>
       </c>
       <c r="D48" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E48" t="s">
-        <v>327</v>
-      </c>
-      <c r="F48" t="s">
-        <v>327</v>
-      </c>
-      <c r="H48" t="s">
-        <v>327</v>
-      </c>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G48" t="s">
+        <v>325</v>
+      </c>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" t="s">
         <v>174</v>
       </c>
-      <c r="B49" s="41">
+      <c r="B49" s="36">
         <v>17.399999999999999</v>
       </c>
-      <c r="C49" s="41">
+      <c r="C49" s="36">
         <v>8.3000000000000007</v>
       </c>
       <c r="D49" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E49" t="s">
-        <v>327</v>
-      </c>
-      <c r="F49" t="s">
-        <v>327</v>
-      </c>
-      <c r="H49" t="s">
-        <v>327</v>
-      </c>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-    </row>
-    <row r="50" spans="1:10" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-    </row>
-    <row r="51" spans="1:10" ht="15" customHeight="1" thickTop="1">
+        <v>325</v>
+      </c>
+      <c r="G49" t="s">
+        <v>325</v>
+      </c>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+    </row>
+    <row r="50" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+    </row>
+    <row r="51" spans="1:9" ht="15" customHeight="1" thickTop="1">
       <c r="A51" t="s">
         <v>164</v>
       </c>
-      <c r="B51" s="41">
+      <c r="B51" s="36">
         <v>15.5</v>
       </c>
-      <c r="C51" s="41">
+      <c r="C51" s="36">
         <v>10.5</v>
       </c>
       <c r="D51" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E51" t="s">
-        <v>327</v>
-      </c>
-      <c r="F51" t="s">
-        <v>327</v>
-      </c>
-      <c r="H51" t="s">
-        <v>327</v>
-      </c>
-      <c r="I51" s="48" t="s">
-        <v>343</v>
-      </c>
-      <c r="J51" s="49"/>
-    </row>
-    <row r="52" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="G51" t="s">
+        <v>325</v>
+      </c>
+      <c r="H51" s="42" t="s">
+        <v>340</v>
+      </c>
+      <c r="I51" s="43"/>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>144</v>
       </c>
-      <c r="B52" s="41">
+      <c r="B52" s="36">
         <v>7.16</v>
       </c>
-      <c r="C52" s="41">
+      <c r="C52" s="36">
         <v>10.4</v>
       </c>
       <c r="D52" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E52" t="s">
-        <v>327</v>
-      </c>
-      <c r="F52" t="s">
-        <v>327</v>
-      </c>
-      <c r="H52" t="s">
-        <v>327</v>
-      </c>
-      <c r="I52" s="50"/>
-      <c r="J52" s="51"/>
-    </row>
-    <row r="53" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="G52" t="s">
+        <v>325</v>
+      </c>
+      <c r="H52" s="44"/>
+      <c r="I52" s="45"/>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>140</v>
       </c>
-      <c r="B53" s="41">
+      <c r="B53" s="36">
         <v>7.15</v>
       </c>
-      <c r="C53" s="41">
+      <c r="C53" s="36">
         <v>11.4</v>
       </c>
       <c r="D53" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E53" t="s">
-        <v>327</v>
-      </c>
-      <c r="F53" t="s">
-        <v>327</v>
-      </c>
-      <c r="H53" t="s">
-        <v>327</v>
-      </c>
-      <c r="I53" s="50"/>
-      <c r="J53" s="51"/>
-    </row>
-    <row r="54" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="G53" t="s">
+        <v>325</v>
+      </c>
+      <c r="H53" s="44"/>
+      <c r="I53" s="45"/>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>141</v>
       </c>
-      <c r="B54" s="41">
+      <c r="B54" s="36">
         <v>8.15</v>
       </c>
-      <c r="C54" s="41">
+      <c r="C54" s="36">
         <v>12.4</v>
       </c>
       <c r="D54" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E54" t="s">
-        <v>327</v>
-      </c>
-      <c r="F54" t="s">
-        <v>327</v>
-      </c>
-      <c r="H54" t="s">
-        <v>327</v>
-      </c>
-      <c r="I54" s="50"/>
-      <c r="J54" s="51"/>
-    </row>
-    <row r="55" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="G54" t="s">
+        <v>325</v>
+      </c>
+      <c r="H54" s="44"/>
+      <c r="I54" s="45"/>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>45</v>
       </c>
-      <c r="B55" s="41">
+      <c r="B55" s="36">
         <v>0.6</v>
       </c>
-      <c r="C55" s="41">
+      <c r="C55" s="36">
         <v>11.3</v>
       </c>
       <c r="D55" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E55" t="s">
-        <v>327</v>
-      </c>
-      <c r="F55" t="s">
-        <v>327</v>
-      </c>
-      <c r="H55" t="s">
-        <v>327</v>
-      </c>
-      <c r="I55" s="50"/>
-      <c r="J55" s="51"/>
-    </row>
-    <row r="56" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="G55" t="s">
+        <v>325</v>
+      </c>
+      <c r="H55" s="44"/>
+      <c r="I55" s="45"/>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="41">
+      <c r="B56" s="36">
         <v>1.6</v>
       </c>
-      <c r="C56" s="41">
+      <c r="C56" s="36">
         <v>12.3</v>
       </c>
       <c r="D56" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E56" t="s">
-        <v>327</v>
-      </c>
-      <c r="F56" t="s">
-        <v>327</v>
-      </c>
-      <c r="H56" t="s">
-        <v>327</v>
-      </c>
-      <c r="I56" s="50"/>
-      <c r="J56" s="51"/>
-    </row>
-    <row r="57" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="G56" t="s">
+        <v>325</v>
+      </c>
+      <c r="H56" s="44"/>
+      <c r="I56" s="45"/>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="41">
+      <c r="B57" s="36">
         <v>2.6</v>
       </c>
-      <c r="C57" s="41">
+      <c r="C57" s="36">
         <v>13.3</v>
       </c>
       <c r="D57" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E57" t="s">
-        <v>327</v>
-      </c>
-      <c r="F57" t="s">
-        <v>327</v>
-      </c>
-      <c r="H57" t="s">
-        <v>327</v>
-      </c>
-      <c r="I57" s="50"/>
-      <c r="J57" s="51"/>
-    </row>
-    <row r="58" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="G57" t="s">
+        <v>325</v>
+      </c>
+      <c r="H57" s="44"/>
+      <c r="I57" s="45"/>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>134</v>
       </c>
-      <c r="B58" s="41">
+      <c r="B58" s="36">
         <v>7.14</v>
       </c>
-      <c r="C58" s="41">
+      <c r="C58" s="36">
         <v>11.2</v>
       </c>
       <c r="D58" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E58" t="s">
-        <v>327</v>
-      </c>
-      <c r="F58" t="s">
-        <v>327</v>
-      </c>
-      <c r="H58" t="s">
-        <v>327</v>
-      </c>
-      <c r="I58" s="50"/>
-      <c r="J58" s="51"/>
-    </row>
-    <row r="59" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="G58" t="s">
+        <v>325</v>
+      </c>
+      <c r="H58" s="44"/>
+      <c r="I58" s="45"/>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>135</v>
       </c>
-      <c r="B59" s="41">
+      <c r="B59" s="36">
         <v>8.14</v>
       </c>
-      <c r="C59" s="41">
+      <c r="C59" s="36">
         <v>12.2</v>
       </c>
       <c r="D59" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E59" t="s">
-        <v>327</v>
-      </c>
-      <c r="F59" t="s">
-        <v>327</v>
-      </c>
-      <c r="H59" t="s">
-        <v>327</v>
-      </c>
-      <c r="I59" s="50"/>
-      <c r="J59" s="51"/>
-    </row>
-    <row r="60" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="G59" t="s">
+        <v>325</v>
+      </c>
+      <c r="H59" s="44"/>
+      <c r="I59" s="45"/>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>139</v>
       </c>
-      <c r="B60" s="41">
+      <c r="B60" s="36">
         <v>12.14</v>
       </c>
-      <c r="C60" s="41">
+      <c r="C60" s="36">
         <v>13.2</v>
       </c>
       <c r="D60" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E60" t="s">
-        <v>327</v>
-      </c>
-      <c r="F60" t="s">
-        <v>327</v>
-      </c>
-      <c r="H60" t="s">
-        <v>327</v>
-      </c>
-      <c r="I60" s="50"/>
-      <c r="J60" s="51"/>
-    </row>
-    <row r="61" spans="1:10" ht="15" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="G60" t="s">
+        <v>325</v>
+      </c>
+      <c r="H60" s="44"/>
+      <c r="I60" s="45"/>
+    </row>
+    <row r="61" spans="1:9" ht="15" thickBot="1">
       <c r="A61" t="s">
-        <v>377</v>
-      </c>
-      <c r="B61" s="41" t="s">
-        <v>379</v>
-      </c>
-      <c r="C61" s="41" t="s">
-        <v>378</v>
+        <v>374</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>375</v>
       </c>
       <c r="D61" t="s">
-        <v>327</v>
-      </c>
-      <c r="F61" t="s">
-        <v>327</v>
-      </c>
-      <c r="I61" s="52"/>
-      <c r="J61" s="53"/>
-    </row>
-    <row r="62" spans="1:10" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="E61" t="s">
+        <v>325</v>
+      </c>
+      <c r="H61" s="46"/>
+      <c r="I61" s="47"/>
+    </row>
+    <row r="62" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+    </row>
+    <row r="63" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="41" t="s">
-        <v>345</v>
-      </c>
-      <c r="C63" s="41">
+      <c r="B63" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="C63" s="36">
         <v>8.9</v>
       </c>
       <c r="D63" t="s">
-        <v>327</v>
-      </c>
-      <c r="F63" t="s">
-        <v>327</v>
-      </c>
-      <c r="H63" t="s">
-        <v>327</v>
-      </c>
-      <c r="I63" s="36" t="s">
-        <v>354</v>
-      </c>
-      <c r="J63" s="36"/>
-    </row>
-    <row r="64" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="E63" t="s">
+        <v>325</v>
+      </c>
+      <c r="G63" t="s">
+        <v>325</v>
+      </c>
+      <c r="H63" s="54" t="s">
+        <v>351</v>
+      </c>
+      <c r="I63" s="54"/>
+    </row>
+    <row r="64" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="41" t="s">
-        <v>346</v>
-      </c>
-      <c r="C64" s="41" t="s">
-        <v>347</v>
+      <c r="B64" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="C64" s="36" t="s">
+        <v>344</v>
       </c>
       <c r="D64" t="s">
-        <v>327</v>
-      </c>
-      <c r="F64" t="s">
-        <v>327</v>
-      </c>
-      <c r="H64" t="s">
-        <v>327</v>
-      </c>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-    </row>
-    <row r="65" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="E64" t="s">
+        <v>325</v>
+      </c>
+      <c r="G64" t="s">
+        <v>325</v>
+      </c>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+    </row>
+    <row r="65" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="41" t="s">
-        <v>349</v>
-      </c>
-      <c r="C65" s="41" t="s">
-        <v>348</v>
+      <c r="B65" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>345</v>
       </c>
       <c r="D65" t="s">
-        <v>327</v>
-      </c>
-      <c r="F65" t="s">
-        <v>327</v>
-      </c>
-      <c r="H65" t="s">
-        <v>327</v>
-      </c>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-    </row>
-    <row r="66" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="E65" t="s">
+        <v>325</v>
+      </c>
+      <c r="G65" t="s">
+        <v>325</v>
+      </c>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
+    </row>
+    <row r="66" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" t="s">
         <v>81</v>
       </c>
-      <c r="B66" s="41" t="s">
-        <v>351</v>
-      </c>
-      <c r="C66" s="41" t="s">
-        <v>350</v>
+      <c r="B66" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="C66" s="36" t="s">
+        <v>347</v>
       </c>
       <c r="D66" t="s">
-        <v>327</v>
-      </c>
-      <c r="F66" t="s">
-        <v>327</v>
-      </c>
-      <c r="H66" t="s">
-        <v>327</v>
-      </c>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
-    </row>
-    <row r="67" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="E66" t="s">
+        <v>325</v>
+      </c>
+      <c r="G66" t="s">
+        <v>325</v>
+      </c>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+    </row>
+    <row r="67" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" t="s">
         <v>82</v>
       </c>
-      <c r="B67" s="41" t="s">
-        <v>353</v>
-      </c>
-      <c r="C67" s="41" t="s">
-        <v>352</v>
+      <c r="B67" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="C67" s="36" t="s">
+        <v>349</v>
       </c>
       <c r="D67" t="s">
-        <v>327</v>
-      </c>
-      <c r="F67" t="s">
-        <v>327</v>
-      </c>
-      <c r="H67" t="s">
-        <v>327</v>
-      </c>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-    </row>
-    <row r="68" spans="1:10" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B68" s="42"/>
-      <c r="C68" s="42"/>
-    </row>
-    <row r="69" spans="1:10" ht="15" customHeight="1" thickTop="1">
+        <v>325</v>
+      </c>
+      <c r="E67" t="s">
+        <v>325</v>
+      </c>
+      <c r="G67" t="s">
+        <v>325</v>
+      </c>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+    </row>
+    <row r="68" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
+    </row>
+    <row r="69" spans="1:9" ht="15" customHeight="1" thickTop="1">
       <c r="A69" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="41" t="s">
-        <v>356</v>
-      </c>
-      <c r="C69" s="41" t="s">
-        <v>355</v>
+      <c r="B69" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>352</v>
       </c>
       <c r="D69" t="s">
-        <v>327</v>
-      </c>
-      <c r="F69" t="s">
-        <v>327</v>
-      </c>
-      <c r="H69" t="s">
-        <v>327</v>
-      </c>
-      <c r="I69" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="J69" s="45"/>
-    </row>
-    <row r="70" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="E69" t="s">
+        <v>325</v>
+      </c>
+      <c r="G69" t="s">
+        <v>325</v>
+      </c>
+      <c r="H69" s="55" t="s">
+        <v>364</v>
+      </c>
+      <c r="I69" s="55"/>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="41" t="s">
-        <v>358</v>
-      </c>
-      <c r="C70" s="41" t="s">
-        <v>357</v>
+      <c r="B70" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="C70" s="36" t="s">
+        <v>354</v>
       </c>
       <c r="D70" t="s">
-        <v>327</v>
-      </c>
-      <c r="F70" t="s">
-        <v>327</v>
-      </c>
-      <c r="H70" t="s">
-        <v>327</v>
-      </c>
-      <c r="I70" s="46"/>
-      <c r="J70" s="46"/>
-    </row>
-    <row r="71" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="E70" t="s">
+        <v>325</v>
+      </c>
+      <c r="G70" t="s">
+        <v>325</v>
+      </c>
+      <c r="H70" s="56"/>
+      <c r="I70" s="56"/>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>91</v>
       </c>
-      <c r="B71" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="C71" s="41" t="s">
-        <v>359</v>
+      <c r="B71" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>356</v>
       </c>
       <c r="D71" t="s">
-        <v>327</v>
-      </c>
-      <c r="F71" t="s">
-        <v>327</v>
-      </c>
-      <c r="H71" t="s">
-        <v>327</v>
-      </c>
-      <c r="I71" s="46"/>
-      <c r="J71" s="46"/>
-    </row>
-    <row r="72" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="E71" t="s">
+        <v>325</v>
+      </c>
+      <c r="G71" t="s">
+        <v>325</v>
+      </c>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="41" t="s">
-        <v>362</v>
-      </c>
-      <c r="C72" s="41" t="s">
-        <v>361</v>
+      <c r="B72" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>358</v>
       </c>
       <c r="D72" t="s">
-        <v>327</v>
-      </c>
-      <c r="F72" t="s">
-        <v>327</v>
-      </c>
-      <c r="H72" t="s">
-        <v>327</v>
-      </c>
-      <c r="I72" s="46"/>
-      <c r="J72" s="46"/>
-    </row>
-    <row r="73" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="E72" t="s">
+        <v>325</v>
+      </c>
+      <c r="G72" t="s">
+        <v>325</v>
+      </c>
+      <c r="H72" s="56"/>
+      <c r="I72" s="56"/>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>107</v>
       </c>
-      <c r="B73" s="41" t="s">
-        <v>364</v>
-      </c>
-      <c r="C73" s="41" t="s">
-        <v>363</v>
+      <c r="B73" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>360</v>
       </c>
       <c r="D73" t="s">
-        <v>327</v>
-      </c>
-      <c r="F73" t="s">
-        <v>327</v>
-      </c>
-      <c r="H73" t="s">
-        <v>327</v>
-      </c>
-      <c r="I73" s="46"/>
-      <c r="J73" s="46"/>
-    </row>
-    <row r="74" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="E73" t="s">
+        <v>325</v>
+      </c>
+      <c r="G73" t="s">
+        <v>325</v>
+      </c>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>109</v>
       </c>
-      <c r="B74" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="C74" s="41" t="s">
-        <v>365</v>
+      <c r="B74" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="C74" s="36" t="s">
+        <v>362</v>
       </c>
       <c r="D74" t="s">
-        <v>327</v>
-      </c>
-      <c r="F74" t="s">
-        <v>327</v>
-      </c>
-      <c r="H74" t="s">
-        <v>327</v>
-      </c>
-      <c r="I74" s="46"/>
-      <c r="J74" s="46"/>
-    </row>
-    <row r="75" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="E74" t="s">
+        <v>325</v>
+      </c>
+      <c r="G74" t="s">
+        <v>325</v>
+      </c>
+      <c r="H74" s="56"/>
+      <c r="I74" s="56"/>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>237</v>
       </c>
-      <c r="B75" s="41" t="s">
-        <v>369</v>
-      </c>
-      <c r="C75" s="41" t="s">
-        <v>368</v>
+      <c r="B75" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="C75" s="36" t="s">
+        <v>365</v>
       </c>
       <c r="D75" t="s">
-        <v>327</v>
-      </c>
-      <c r="F75" t="s">
-        <v>327</v>
-      </c>
-      <c r="H75" t="s">
-        <v>327</v>
-      </c>
-      <c r="I75" s="46"/>
-      <c r="J75" s="46"/>
-    </row>
-    <row r="76" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="E75" t="s">
+        <v>325</v>
+      </c>
+      <c r="G75" t="s">
+        <v>325</v>
+      </c>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>55</v>
       </c>
-      <c r="B76" s="41" t="s">
-        <v>371</v>
-      </c>
-      <c r="C76" s="41" t="s">
-        <v>370</v>
+      <c r="B76" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="C76" s="36" t="s">
+        <v>367</v>
       </c>
       <c r="D76" t="s">
-        <v>327</v>
-      </c>
-      <c r="F76" t="s">
-        <v>327</v>
-      </c>
-      <c r="H76" t="s">
-        <v>327</v>
-      </c>
-      <c r="I76" s="46"/>
-      <c r="J76" s="46"/>
-    </row>
-    <row r="77" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="E76" t="s">
+        <v>325</v>
+      </c>
+      <c r="G76" t="s">
+        <v>325</v>
+      </c>
+      <c r="H76" s="56"/>
+      <c r="I76" s="56"/>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>170</v>
       </c>
-      <c r="B77" s="41" t="s">
-        <v>373</v>
-      </c>
-      <c r="C77" s="41" t="s">
-        <v>372</v>
+      <c r="B77" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="C77" s="36" t="s">
+        <v>369</v>
       </c>
       <c r="D77" t="s">
-        <v>327</v>
-      </c>
-      <c r="F77" t="s">
-        <v>327</v>
-      </c>
-      <c r="H77" t="s">
-        <v>327</v>
-      </c>
-      <c r="I77" s="46"/>
-      <c r="J77" s="46"/>
-    </row>
-    <row r="78" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="E77" t="s">
+        <v>325</v>
+      </c>
+      <c r="G77" t="s">
+        <v>325</v>
+      </c>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>94</v>
       </c>
-      <c r="B78" s="41" t="s">
-        <v>375</v>
-      </c>
-      <c r="C78" s="41" t="s">
-        <v>374</v>
+      <c r="B78" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="C78" s="36" t="s">
+        <v>371</v>
       </c>
       <c r="D78" t="s">
-        <v>327</v>
-      </c>
-      <c r="F78" t="s">
-        <v>327</v>
-      </c>
-      <c r="H78" t="s">
-        <v>327</v>
-      </c>
-      <c r="I78" s="47"/>
-      <c r="J78" s="47"/>
-    </row>
-    <row r="79" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1">
-      <c r="B79" s="42"/>
-      <c r="C79" s="42"/>
-    </row>
-    <row r="80" spans="1:10" ht="15" thickTop="1">
+        <v>325</v>
+      </c>
+      <c r="E78" t="s">
+        <v>325</v>
+      </c>
+      <c r="G78" t="s">
+        <v>325</v>
+      </c>
+      <c r="H78" s="57"/>
+      <c r="I78" s="57"/>
+    </row>
+    <row r="79" spans="1:9" s="24" customFormat="1" ht="15" thickBot="1">
+      <c r="B79" s="37"/>
+      <c r="C79" s="37"/>
+    </row>
+    <row r="80" spans="1:9" ht="15" thickTop="1">
       <c r="A80" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="41" t="s">
-        <v>381</v>
-      </c>
-      <c r="C80" s="41" t="s">
-        <v>380</v>
+      <c r="B80" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="C80" s="36" t="s">
+        <v>377</v>
       </c>
       <c r="D80" t="s">
-        <v>327</v>
-      </c>
-      <c r="F80" t="s">
-        <v>327</v>
-      </c>
-      <c r="H80" t="s">
-        <v>327</v>
-      </c>
-      <c r="I80" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="J80" s="54"/>
-    </row>
-    <row r="81" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="E80" t="s">
+        <v>325</v>
+      </c>
+      <c r="G80" t="s">
+        <v>325</v>
+      </c>
+      <c r="H80" s="58" t="s">
+        <v>407</v>
+      </c>
+      <c r="I80" s="59"/>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>6</v>
       </c>
-      <c r="B81" s="41" t="s">
-        <v>383</v>
-      </c>
-      <c r="C81" s="41" t="s">
-        <v>382</v>
+      <c r="B81" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="C81" s="36" t="s">
+        <v>379</v>
       </c>
       <c r="D81" t="s">
-        <v>327</v>
-      </c>
-      <c r="F81" t="s">
-        <v>327</v>
-      </c>
-      <c r="H81" t="s">
-        <v>327</v>
-      </c>
-      <c r="I81" s="55"/>
-      <c r="J81" s="56"/>
-    </row>
-    <row r="82" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="E81" t="s">
+        <v>325</v>
+      </c>
+      <c r="G81" t="s">
+        <v>325</v>
+      </c>
+      <c r="H81" s="60"/>
+      <c r="I81" s="61"/>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="41" t="s">
-        <v>385</v>
-      </c>
-      <c r="C82" s="41" t="s">
-        <v>384</v>
+      <c r="B82" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="C82" s="36" t="s">
+        <v>381</v>
       </c>
       <c r="D82" t="s">
-        <v>327</v>
-      </c>
-      <c r="F82" t="s">
-        <v>327</v>
-      </c>
-      <c r="H82" t="s">
-        <v>327</v>
-      </c>
-      <c r="I82" s="55"/>
-      <c r="J82" s="56"/>
-    </row>
-    <row r="83" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="E82" t="s">
+        <v>325</v>
+      </c>
+      <c r="G82" t="s">
+        <v>325</v>
+      </c>
+      <c r="H82" s="60"/>
+      <c r="I82" s="61"/>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>13</v>
       </c>
-      <c r="B83" s="41" t="s">
-        <v>387</v>
-      </c>
-      <c r="C83" s="41" t="s">
-        <v>386</v>
+      <c r="B83" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="C83" s="36" t="s">
+        <v>383</v>
       </c>
       <c r="D83" t="s">
-        <v>327</v>
-      </c>
-      <c r="F83" t="s">
-        <v>327</v>
-      </c>
-      <c r="H83" t="s">
-        <v>327</v>
-      </c>
-      <c r="I83" s="55"/>
-      <c r="J83" s="56"/>
-    </row>
-    <row r="84" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="E83" t="s">
+        <v>325</v>
+      </c>
+      <c r="G83" t="s">
+        <v>325</v>
+      </c>
+      <c r="H83" s="60"/>
+      <c r="I83" s="61"/>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>19</v>
       </c>
-      <c r="B84" s="41" t="s">
-        <v>389</v>
-      </c>
-      <c r="C84" s="41" t="s">
-        <v>388</v>
+      <c r="B84" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="C84" s="36" t="s">
+        <v>385</v>
       </c>
       <c r="D84" t="s">
-        <v>327</v>
-      </c>
-      <c r="F84" t="s">
-        <v>327</v>
-      </c>
-      <c r="H84" t="s">
-        <v>327</v>
-      </c>
-      <c r="I84" s="55"/>
-      <c r="J84" s="56"/>
-    </row>
-    <row r="85" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="E84" t="s">
+        <v>325</v>
+      </c>
+      <c r="G84" t="s">
+        <v>325</v>
+      </c>
+      <c r="H84" s="60"/>
+      <c r="I84" s="61"/>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>20</v>
       </c>
-      <c r="B85" s="41" t="s">
-        <v>391</v>
-      </c>
-      <c r="C85" s="41" t="s">
-        <v>390</v>
+      <c r="B85" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="C85" s="36" t="s">
+        <v>387</v>
       </c>
       <c r="D85" t="s">
-        <v>327</v>
-      </c>
-      <c r="F85" t="s">
-        <v>327</v>
-      </c>
-      <c r="H85" t="s">
-        <v>327</v>
-      </c>
-      <c r="I85" s="55"/>
-      <c r="J85" s="56"/>
-    </row>
-    <row r="86" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="E85" t="s">
+        <v>325</v>
+      </c>
+      <c r="G85" t="s">
+        <v>325</v>
+      </c>
+      <c r="H85" s="60"/>
+      <c r="I85" s="61"/>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>264</v>
       </c>
-      <c r="B86" s="41" t="s">
-        <v>382</v>
-      </c>
-      <c r="C86" s="41" t="s">
-        <v>373</v>
+      <c r="B86" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="C86" s="36" t="s">
+        <v>370</v>
       </c>
       <c r="D86" t="s">
-        <v>327</v>
-      </c>
-      <c r="F86" t="s">
-        <v>327</v>
-      </c>
-      <c r="H86" t="s">
-        <v>327</v>
-      </c>
-      <c r="I86" s="55"/>
-      <c r="J86" s="56"/>
-    </row>
-    <row r="87" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="E86" t="s">
+        <v>325</v>
+      </c>
+      <c r="G86" t="s">
+        <v>325</v>
+      </c>
+      <c r="H86" s="60"/>
+      <c r="I86" s="61"/>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>154</v>
       </c>
-      <c r="B87" s="41" t="s">
-        <v>386</v>
-      </c>
-      <c r="C87" s="41" t="s">
+      <c r="B87" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="C87" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="D87" t="s">
+        <v>325</v>
+      </c>
+      <c r="E87" t="s">
+        <v>325</v>
+      </c>
+      <c r="G87" t="s">
+        <v>325</v>
+      </c>
+      <c r="H87" s="60"/>
+      <c r="I87" s="61"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>390</v>
+      </c>
+      <c r="B88" s="36" t="s">
         <v>392</v>
       </c>
-      <c r="D87" t="s">
-        <v>327</v>
-      </c>
-      <c r="F87" t="s">
-        <v>327</v>
-      </c>
-      <c r="H87" t="s">
-        <v>327</v>
-      </c>
-      <c r="I87" s="55"/>
-      <c r="J87" s="56"/>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="A88" t="s">
-        <v>393</v>
-      </c>
-      <c r="B88" s="41" t="s">
-        <v>395</v>
-      </c>
-      <c r="C88" s="41" t="s">
-        <v>394</v>
+      <c r="C88" s="36" t="s">
+        <v>391</v>
       </c>
       <c r="D88" t="s">
-        <v>327</v>
-      </c>
-      <c r="F88" t="s">
-        <v>327</v>
-      </c>
-      <c r="H88" t="s">
-        <v>327</v>
-      </c>
-      <c r="I88" s="55"/>
-      <c r="J88" s="56"/>
-    </row>
-    <row r="89" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="E88" t="s">
+        <v>325</v>
+      </c>
+      <c r="G88" t="s">
+        <v>325</v>
+      </c>
+      <c r="H88" s="60"/>
+      <c r="I88" s="61"/>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>180</v>
       </c>
-      <c r="B89" s="41" t="s">
-        <v>397</v>
-      </c>
-      <c r="C89" s="41" t="s">
-        <v>396</v>
+      <c r="B89" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="C89" s="36" t="s">
+        <v>393</v>
       </c>
       <c r="D89" t="s">
-        <v>327</v>
-      </c>
-      <c r="F89" t="s">
-        <v>327</v>
-      </c>
-      <c r="H89" t="s">
-        <v>327</v>
-      </c>
-      <c r="I89" s="55"/>
-      <c r="J89" s="56"/>
-    </row>
-    <row r="90" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="E89" t="s">
+        <v>325</v>
+      </c>
+      <c r="G89" t="s">
+        <v>325</v>
+      </c>
+      <c r="H89" s="60"/>
+      <c r="I89" s="61"/>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>193</v>
       </c>
-      <c r="B90" s="41" t="s">
-        <v>399</v>
-      </c>
-      <c r="C90" s="41" t="s">
-        <v>398</v>
+      <c r="B90" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="C90" s="36" t="s">
+        <v>395</v>
       </c>
       <c r="D90" t="s">
-        <v>327</v>
-      </c>
-      <c r="F90" t="s">
-        <v>327</v>
-      </c>
-      <c r="H90" t="s">
-        <v>327</v>
-      </c>
-      <c r="I90" s="55"/>
-      <c r="J90" s="56"/>
-    </row>
-    <row r="91" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="E90" t="s">
+        <v>325</v>
+      </c>
+      <c r="G90" t="s">
+        <v>325</v>
+      </c>
+      <c r="H90" s="60"/>
+      <c r="I90" s="61"/>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>194</v>
       </c>
-      <c r="B91" s="41" t="s">
-        <v>401</v>
-      </c>
-      <c r="C91" s="41" t="s">
-        <v>400</v>
+      <c r="B91" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="C91" s="36" t="s">
+        <v>397</v>
       </c>
       <c r="D91" t="s">
-        <v>327</v>
-      </c>
-      <c r="F91" t="s">
-        <v>327</v>
-      </c>
-      <c r="H91" t="s">
-        <v>327</v>
-      </c>
-      <c r="I91" s="55"/>
-      <c r="J91" s="56"/>
-    </row>
-    <row r="92" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="E91" t="s">
+        <v>325</v>
+      </c>
+      <c r="G91" t="s">
+        <v>325</v>
+      </c>
+      <c r="H91" s="60"/>
+      <c r="I91" s="61"/>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>95</v>
       </c>
-      <c r="B92" s="41" t="s">
-        <v>403</v>
-      </c>
-      <c r="C92" s="41" t="s">
-        <v>402</v>
+      <c r="B92" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="C92" s="36" t="s">
+        <v>399</v>
       </c>
       <c r="D92" t="s">
-        <v>327</v>
-      </c>
-      <c r="F92" t="s">
-        <v>327</v>
-      </c>
-      <c r="H92" t="s">
-        <v>327</v>
-      </c>
-      <c r="I92" s="55"/>
-      <c r="J92" s="56"/>
-    </row>
-    <row r="93" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="E92" t="s">
+        <v>325</v>
+      </c>
+      <c r="G92" t="s">
+        <v>325</v>
+      </c>
+      <c r="H92" s="60"/>
+      <c r="I92" s="61"/>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>142</v>
       </c>
-      <c r="B93" s="41" t="s">
-        <v>405</v>
-      </c>
-      <c r="C93" s="41" t="s">
-        <v>404</v>
+      <c r="B93" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="C93" s="36" t="s">
+        <v>401</v>
       </c>
       <c r="D93" t="s">
-        <v>327</v>
-      </c>
-      <c r="F93" t="s">
-        <v>327</v>
-      </c>
-      <c r="H93" t="s">
-        <v>327</v>
-      </c>
-      <c r="I93" s="55"/>
-      <c r="J93" s="56"/>
-    </row>
-    <row r="94" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="E93" t="s">
+        <v>325</v>
+      </c>
+      <c r="G93" t="s">
+        <v>325</v>
+      </c>
+      <c r="H93" s="60"/>
+      <c r="I93" s="61"/>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>143</v>
       </c>
-      <c r="B94" s="41" t="s">
-        <v>407</v>
-      </c>
-      <c r="C94" s="41" t="s">
-        <v>406</v>
+      <c r="B94" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="C94" s="36" t="s">
+        <v>403</v>
       </c>
       <c r="D94" t="s">
-        <v>327</v>
-      </c>
-      <c r="F94" t="s">
-        <v>327</v>
-      </c>
-      <c r="H94" t="s">
-        <v>327</v>
-      </c>
-      <c r="I94" s="55"/>
-      <c r="J94" s="56"/>
-    </row>
-    <row r="95" spans="1:10" ht="15" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="E94" t="s">
+        <v>325</v>
+      </c>
+      <c r="G94" t="s">
+        <v>325</v>
+      </c>
+      <c r="H94" s="60"/>
+      <c r="I94" s="61"/>
+    </row>
+    <row r="95" spans="1:9" ht="15" thickBot="1">
       <c r="A95" t="s">
         <v>34</v>
       </c>
-      <c r="B95" s="41" t="s">
-        <v>409</v>
-      </c>
-      <c r="C95" s="41" t="s">
-        <v>408</v>
+      <c r="B95" s="36" t="s">
+        <v>406</v>
+      </c>
+      <c r="C95" s="36" t="s">
+        <v>405</v>
       </c>
       <c r="D95" t="s">
-        <v>327</v>
-      </c>
-      <c r="F95" t="s">
-        <v>327</v>
-      </c>
-      <c r="H95" t="s">
-        <v>327</v>
-      </c>
-      <c r="I95" s="57"/>
-      <c r="J95" s="58"/>
-    </row>
-    <row r="96" spans="1:10" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B96" s="42"/>
-      <c r="C96" s="42"/>
-    </row>
-    <row r="97" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="E95" t="s">
+        <v>325</v>
+      </c>
+      <c r="G95" t="s">
+        <v>325</v>
+      </c>
+      <c r="H95" s="62"/>
+      <c r="I95" s="63"/>
+    </row>
+    <row r="96" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B96" s="37"/>
+      <c r="C96" s="37"/>
+    </row>
+    <row r="97" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A97" t="s">
         <v>69</v>
       </c>
-      <c r="B97" s="41" t="s">
-        <v>412</v>
-      </c>
-      <c r="C97" s="41" t="s">
-        <v>411</v>
+      <c r="B97" s="36" t="s">
+        <v>409</v>
+      </c>
+      <c r="C97" s="36" t="s">
+        <v>408</v>
       </c>
       <c r="D97" t="s">
-        <v>327</v>
-      </c>
-      <c r="F97" t="s">
-        <v>327</v>
-      </c>
-      <c r="H97" t="s">
-        <v>327</v>
-      </c>
-      <c r="I97" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="J97" s="34"/>
-    </row>
-    <row r="98" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="E97" t="s">
+        <v>325</v>
+      </c>
+      <c r="G97" t="s">
+        <v>325</v>
+      </c>
+      <c r="H97" s="41" t="s">
+        <v>420</v>
+      </c>
+      <c r="I97" s="41"/>
+    </row>
+    <row r="98" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A98" t="s">
         <v>70</v>
       </c>
-      <c r="B98" s="41" t="s">
-        <v>414</v>
-      </c>
-      <c r="C98" s="41" t="s">
-        <v>413</v>
+      <c r="B98" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="C98" s="36" t="s">
+        <v>410</v>
       </c>
       <c r="D98" t="s">
-        <v>327</v>
-      </c>
-      <c r="F98" t="s">
-        <v>327</v>
-      </c>
-      <c r="H98" t="s">
-        <v>327</v>
-      </c>
-      <c r="I98" s="34"/>
-      <c r="J98" s="34"/>
-    </row>
-    <row r="99" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="E98" t="s">
+        <v>325</v>
+      </c>
+      <c r="G98" t="s">
+        <v>325</v>
+      </c>
+      <c r="H98" s="41"/>
+      <c r="I98" s="41"/>
+    </row>
+    <row r="99" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A99" t="s">
         <v>72</v>
       </c>
-      <c r="B99" s="41" t="s">
-        <v>416</v>
-      </c>
-      <c r="C99" s="41" t="s">
-        <v>415</v>
+      <c r="B99" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="C99" s="36" t="s">
+        <v>412</v>
       </c>
       <c r="D99" t="s">
-        <v>327</v>
-      </c>
-      <c r="F99" t="s">
-        <v>327</v>
-      </c>
-      <c r="H99" t="s">
-        <v>327</v>
-      </c>
-      <c r="I99" s="34"/>
-      <c r="J99" s="34"/>
-    </row>
-    <row r="100" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="E99" t="s">
+        <v>325</v>
+      </c>
+      <c r="G99" t="s">
+        <v>325</v>
+      </c>
+      <c r="H99" s="41"/>
+      <c r="I99" s="41"/>
+    </row>
+    <row r="100" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A100" t="s">
         <v>22</v>
       </c>
-      <c r="B100" s="41" t="s">
-        <v>418</v>
-      </c>
-      <c r="C100" s="41" t="s">
+      <c r="B100" s="36" t="s">
+        <v>415</v>
+      </c>
+      <c r="C100" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="D100" t="s">
+        <v>325</v>
+      </c>
+      <c r="E100" t="s">
+        <v>325</v>
+      </c>
+      <c r="G100" t="s">
+        <v>325</v>
+      </c>
+      <c r="H100" s="41"/>
+      <c r="I100" s="41"/>
+    </row>
+    <row r="101" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A101" t="s">
+        <v>450</v>
+      </c>
+      <c r="B101" s="36" t="s">
         <v>417</v>
       </c>
-      <c r="D100" t="s">
-        <v>327</v>
-      </c>
-      <c r="F100" t="s">
-        <v>327</v>
-      </c>
-      <c r="H100" t="s">
-        <v>327</v>
-      </c>
-      <c r="I100" s="34"/>
-      <c r="J100" s="34"/>
-    </row>
-    <row r="101" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A101" t="s">
-        <v>453</v>
-      </c>
-      <c r="B101" s="41" t="s">
-        <v>420</v>
-      </c>
-      <c r="C101" s="41" t="s">
-        <v>419</v>
+      <c r="C101" s="36" t="s">
+        <v>416</v>
       </c>
       <c r="D101" t="s">
-        <v>327</v>
-      </c>
-      <c r="F101" t="s">
-        <v>327</v>
-      </c>
-      <c r="H101" t="s">
-        <v>327</v>
-      </c>
-      <c r="I101" s="34"/>
-      <c r="J101" s="34"/>
-    </row>
-    <row r="102" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="E101" t="s">
+        <v>325</v>
+      </c>
+      <c r="G101" t="s">
+        <v>325</v>
+      </c>
+      <c r="H101" s="41"/>
+      <c r="I101" s="41"/>
+    </row>
+    <row r="102" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A102" t="s">
         <v>87</v>
       </c>
-      <c r="B102" s="41" t="s">
-        <v>422</v>
-      </c>
-      <c r="C102" s="41" t="s">
-        <v>421</v>
+      <c r="B102" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="C102" s="36" t="s">
+        <v>418</v>
       </c>
       <c r="D102" t="s">
-        <v>327</v>
-      </c>
-      <c r="F102" t="s">
-        <v>327</v>
-      </c>
-      <c r="H102" t="s">
-        <v>327</v>
-      </c>
-      <c r="I102" s="34"/>
-      <c r="J102" s="34"/>
-    </row>
-    <row r="103" spans="1:10" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B103" s="42"/>
-      <c r="C103" s="42"/>
-    </row>
-    <row r="104" spans="1:10" ht="15" thickTop="1">
+        <v>325</v>
+      </c>
+      <c r="E102" t="s">
+        <v>325</v>
+      </c>
+      <c r="G102" t="s">
+        <v>325</v>
+      </c>
+      <c r="H102" s="41"/>
+      <c r="I102" s="41"/>
+    </row>
+    <row r="103" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B103" s="37"/>
+      <c r="C103" s="37"/>
+    </row>
+    <row r="104" spans="1:9" ht="15" thickTop="1">
       <c r="A104" t="s">
         <v>48</v>
       </c>
-      <c r="B104" s="41" t="s">
-        <v>425</v>
-      </c>
-      <c r="C104" s="41" t="s">
-        <v>424</v>
+      <c r="B104" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="C104" s="36" t="s">
+        <v>421</v>
       </c>
       <c r="D104" t="s">
-        <v>327</v>
-      </c>
-      <c r="F104" t="s">
-        <v>327</v>
-      </c>
-      <c r="H104" t="s">
-        <v>327</v>
-      </c>
-      <c r="I104" s="48" t="s">
-        <v>432</v>
-      </c>
-      <c r="J104" s="49"/>
-    </row>
-    <row r="105" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="E104" t="s">
+        <v>325</v>
+      </c>
+      <c r="G104" t="s">
+        <v>325</v>
+      </c>
+      <c r="H104" s="42" t="s">
+        <v>429</v>
+      </c>
+      <c r="I104" s="43"/>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>54</v>
       </c>
-      <c r="B105" s="41" t="s">
-        <v>427</v>
-      </c>
-      <c r="C105" s="41" t="s">
-        <v>426</v>
+      <c r="B105" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="C105" s="36" t="s">
+        <v>423</v>
       </c>
       <c r="D105" t="s">
-        <v>327</v>
-      </c>
-      <c r="F105" t="s">
-        <v>327</v>
-      </c>
-      <c r="H105" t="s">
-        <v>327</v>
-      </c>
-      <c r="I105" s="50"/>
-      <c r="J105" s="51"/>
-    </row>
-    <row r="106" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="E105" t="s">
+        <v>325</v>
+      </c>
+      <c r="G105" t="s">
+        <v>325</v>
+      </c>
+      <c r="H105" s="44"/>
+      <c r="I105" s="45"/>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>60</v>
       </c>
-      <c r="B106" s="41" t="s">
-        <v>429</v>
-      </c>
-      <c r="C106" s="41" t="s">
-        <v>428</v>
+      <c r="B106" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="C106" s="36" t="s">
+        <v>425</v>
       </c>
       <c r="D106" t="s">
-        <v>327</v>
-      </c>
-      <c r="F106" t="s">
-        <v>327</v>
-      </c>
-      <c r="H106" t="s">
-        <v>327</v>
-      </c>
-      <c r="I106" s="50"/>
-      <c r="J106" s="51"/>
-    </row>
-    <row r="107" spans="1:10">
+        <v>325</v>
+      </c>
+      <c r="E106" t="s">
+        <v>325</v>
+      </c>
+      <c r="G106" t="s">
+        <v>325</v>
+      </c>
+      <c r="H106" s="44"/>
+      <c r="I106" s="45"/>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>434</v>
-      </c>
-      <c r="B107" s="41" t="s">
-        <v>435</v>
-      </c>
-      <c r="C107" s="41" t="s">
-        <v>433</v>
+        <v>431</v>
+      </c>
+      <c r="B107" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="C107" s="36" t="s">
+        <v>430</v>
       </c>
       <c r="D107" t="s">
-        <v>327</v>
-      </c>
-      <c r="F107" t="s">
-        <v>327</v>
-      </c>
-      <c r="H107" t="s">
-        <v>327</v>
-      </c>
-      <c r="I107" s="50"/>
-      <c r="J107" s="51"/>
-    </row>
-    <row r="108" spans="1:10" ht="15" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="E107" t="s">
+        <v>325</v>
+      </c>
+      <c r="G107" t="s">
+        <v>325</v>
+      </c>
+      <c r="H107" s="44"/>
+      <c r="I107" s="45"/>
+    </row>
+    <row r="108" spans="1:9" ht="15" thickBot="1">
       <c r="A108" t="s">
         <v>138</v>
       </c>
-      <c r="B108" s="41" t="s">
-        <v>431</v>
-      </c>
-      <c r="C108" s="41" t="s">
-        <v>430</v>
+      <c r="B108" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="C108" s="36" t="s">
+        <v>427</v>
       </c>
       <c r="D108" t="s">
-        <v>327</v>
-      </c>
-      <c r="F108" t="s">
-        <v>327</v>
-      </c>
-      <c r="H108" t="s">
-        <v>327</v>
-      </c>
-      <c r="I108" s="52"/>
-      <c r="J108" s="53"/>
-    </row>
-    <row r="109" spans="1:10" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B109" s="42"/>
-      <c r="C109" s="42"/>
-    </row>
-    <row r="110" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="E108" t="s">
+        <v>325</v>
+      </c>
+      <c r="G108" t="s">
+        <v>325</v>
+      </c>
+      <c r="H108" s="46"/>
+      <c r="I108" s="47"/>
+    </row>
+    <row r="109" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B109" s="37"/>
+      <c r="C109" s="37"/>
+    </row>
+    <row r="110" spans="1:9" ht="15" customHeight="1" thickTop="1">
       <c r="A110" t="s">
         <v>8</v>
       </c>
-      <c r="B110" s="41" t="s">
-        <v>437</v>
-      </c>
-      <c r="C110" s="41" t="s">
-        <v>436</v>
+      <c r="B110" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="C110" s="36" t="s">
+        <v>433</v>
       </c>
       <c r="D110" t="s">
-        <v>327</v>
-      </c>
-      <c r="F110" t="s">
-        <v>327</v>
-      </c>
-      <c r="H110" t="s">
-        <v>327</v>
-      </c>
-      <c r="I110" s="35" t="s">
-        <v>452</v>
-      </c>
-      <c r="J110" s="35"/>
-    </row>
-    <row r="111" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="E110" t="s">
+        <v>325</v>
+      </c>
+      <c r="G110" t="s">
+        <v>325</v>
+      </c>
+      <c r="H110" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="I110" s="49"/>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>9</v>
       </c>
-      <c r="B111" s="41" t="s">
-        <v>439</v>
-      </c>
-      <c r="C111" s="41" t="s">
-        <v>438</v>
+      <c r="B111" s="36" t="s">
+        <v>436</v>
+      </c>
+      <c r="C111" s="36" t="s">
+        <v>435</v>
       </c>
       <c r="D111" t="s">
-        <v>327</v>
-      </c>
-      <c r="F111" t="s">
-        <v>327</v>
-      </c>
-      <c r="H111" t="s">
-        <v>327</v>
-      </c>
-      <c r="I111" s="35"/>
-      <c r="J111" s="35"/>
-    </row>
-    <row r="112" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="E111" t="s">
+        <v>325</v>
+      </c>
+      <c r="G111" t="s">
+        <v>325</v>
+      </c>
+      <c r="H111" s="50"/>
+      <c r="I111" s="51"/>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>10</v>
       </c>
-      <c r="B112" s="41" t="s">
-        <v>441</v>
-      </c>
-      <c r="C112" s="41" t="s">
-        <v>440</v>
+      <c r="B112" s="36" t="s">
+        <v>438</v>
+      </c>
+      <c r="C112" s="36" t="s">
+        <v>437</v>
       </c>
       <c r="D112" t="s">
-        <v>327</v>
-      </c>
-      <c r="F112" t="s">
-        <v>327</v>
-      </c>
-      <c r="H112" t="s">
-        <v>327</v>
-      </c>
-      <c r="I112" s="35"/>
-      <c r="J112" s="35"/>
-    </row>
-    <row r="113" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="E112" t="s">
+        <v>325</v>
+      </c>
+      <c r="G112" t="s">
+        <v>325</v>
+      </c>
+      <c r="H112" s="50"/>
+      <c r="I112" s="51"/>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>31</v>
       </c>
-      <c r="B113" s="41" t="s">
-        <v>443</v>
-      </c>
-      <c r="C113" s="41" t="s">
-        <v>442</v>
+      <c r="B113" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="C113" s="36" t="s">
+        <v>439</v>
       </c>
       <c r="D113" t="s">
-        <v>327</v>
-      </c>
-      <c r="F113" t="s">
-        <v>327</v>
-      </c>
-      <c r="H113" t="s">
-        <v>327</v>
-      </c>
-      <c r="I113" s="35"/>
-      <c r="J113" s="35"/>
-    </row>
-    <row r="114" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="E113" t="s">
+        <v>325</v>
+      </c>
+      <c r="G113" t="s">
+        <v>325</v>
+      </c>
+      <c r="H113" s="50"/>
+      <c r="I113" s="51"/>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>32</v>
       </c>
-      <c r="B114" s="41" t="s">
-        <v>445</v>
-      </c>
-      <c r="C114" s="41" t="s">
-        <v>444</v>
+      <c r="B114" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="C114" s="36" t="s">
+        <v>441</v>
       </c>
       <c r="D114" t="s">
-        <v>327</v>
-      </c>
-      <c r="F114" t="s">
-        <v>327</v>
-      </c>
-      <c r="H114" t="s">
-        <v>327</v>
-      </c>
-      <c r="I114" s="35"/>
-      <c r="J114" s="35"/>
-    </row>
-    <row r="115" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="E114" t="s">
+        <v>325</v>
+      </c>
+      <c r="G114" t="s">
+        <v>325</v>
+      </c>
+      <c r="H114" s="50"/>
+      <c r="I114" s="51"/>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>33</v>
       </c>
-      <c r="B115" s="41" t="s">
-        <v>446</v>
-      </c>
-      <c r="C115" s="41" t="s">
-        <v>397</v>
+      <c r="B115" s="36" t="s">
+        <v>443</v>
+      </c>
+      <c r="C115" s="36" t="s">
+        <v>394</v>
       </c>
       <c r="D115" t="s">
-        <v>327</v>
-      </c>
-      <c r="F115" t="s">
-        <v>327</v>
-      </c>
-      <c r="H115" t="s">
-        <v>327</v>
-      </c>
-      <c r="I115" s="35"/>
-      <c r="J115" s="35"/>
-    </row>
-    <row r="116" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="E115" t="s">
+        <v>325</v>
+      </c>
+      <c r="G115" t="s">
+        <v>325</v>
+      </c>
+      <c r="H115" s="50"/>
+      <c r="I115" s="51"/>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>38</v>
       </c>
-      <c r="B116" s="41" t="s">
-        <v>448</v>
-      </c>
-      <c r="C116" s="41" t="s">
-        <v>447</v>
+      <c r="B116" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="C116" s="36" t="s">
+        <v>444</v>
       </c>
       <c r="D116" t="s">
-        <v>327</v>
-      </c>
-      <c r="F116" t="s">
-        <v>327</v>
-      </c>
-      <c r="H116" t="s">
-        <v>327</v>
-      </c>
-      <c r="I116" s="35"/>
-      <c r="J116" s="35"/>
-    </row>
-    <row r="117" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="E116" t="s">
+        <v>325</v>
+      </c>
+      <c r="G116" t="s">
+        <v>325</v>
+      </c>
+      <c r="H116" s="50"/>
+      <c r="I116" s="51"/>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>39</v>
       </c>
-      <c r="B117" s="41" t="s">
-        <v>449</v>
-      </c>
-      <c r="C117" s="41" t="s">
-        <v>451</v>
+      <c r="B117" s="36" t="s">
+        <v>446</v>
+      </c>
+      <c r="C117" s="36" t="s">
+        <v>448</v>
       </c>
       <c r="D117" t="s">
-        <v>327</v>
-      </c>
-      <c r="F117" t="s">
-        <v>327</v>
-      </c>
-      <c r="H117" t="s">
-        <v>327</v>
-      </c>
-      <c r="I117" s="35"/>
-      <c r="J117" s="35"/>
-    </row>
-    <row r="118" spans="1:10" ht="15.6" thickTop="1" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="E117" t="s">
+        <v>325</v>
+      </c>
+      <c r="G117" t="s">
+        <v>325</v>
+      </c>
+      <c r="H117" s="50"/>
+      <c r="I117" s="51"/>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>40</v>
       </c>
-      <c r="B118" s="41" t="s">
-        <v>450</v>
-      </c>
-      <c r="C118" s="41" t="s">
-        <v>401</v>
+      <c r="B118" s="36" t="s">
+        <v>447</v>
+      </c>
+      <c r="C118" s="36" t="s">
+        <v>398</v>
       </c>
       <c r="D118" t="s">
-        <v>327</v>
-      </c>
-      <c r="F118" t="s">
-        <v>327</v>
-      </c>
-      <c r="H118" t="s">
-        <v>327</v>
-      </c>
-      <c r="I118" s="35"/>
-      <c r="J118" s="35"/>
-    </row>
-    <row r="119" spans="1:10" s="24" customFormat="1" ht="15" thickTop="1">
-      <c r="B119" s="42"/>
-      <c r="C119" s="42"/>
-    </row>
-    <row r="120" spans="1:10">
-      <c r="B120" s="41"/>
-      <c r="C120" s="41"/>
-    </row>
-    <row r="121" spans="1:10">
-      <c r="B121" s="41"/>
-      <c r="C121" s="41"/>
-    </row>
-    <row r="122" spans="1:10">
-      <c r="B122" s="41"/>
-      <c r="C122" s="41"/>
-    </row>
-    <row r="123" spans="1:10">
-      <c r="B123" s="41"/>
-      <c r="C123" s="41"/>
-    </row>
-    <row r="124" spans="1:10">
-      <c r="B124" s="41"/>
-      <c r="C124" s="41"/>
-    </row>
-    <row r="125" spans="1:10">
-      <c r="B125" s="41"/>
-      <c r="C125" s="41"/>
-    </row>
-    <row r="126" spans="1:10">
-      <c r="B126" s="41"/>
-      <c r="C126" s="41"/>
-    </row>
-    <row r="127" spans="1:10">
-      <c r="B127" s="41"/>
-      <c r="C127" s="41"/>
-    </row>
-    <row r="128" spans="1:10">
-      <c r="B128" s="41"/>
-      <c r="C128" s="41"/>
-    </row>
-    <row r="129" spans="2:3">
-      <c r="B129" s="41"/>
-      <c r="C129" s="41"/>
-    </row>
-    <row r="130" spans="2:3">
-      <c r="B130" s="41"/>
-      <c r="C130" s="41"/>
-    </row>
-    <row r="131" spans="2:3">
-      <c r="B131" s="41"/>
-      <c r="C131" s="41"/>
-    </row>
-    <row r="132" spans="2:3">
-      <c r="B132" s="41"/>
-      <c r="C132" s="41"/>
-    </row>
-    <row r="133" spans="2:3">
-      <c r="B133" s="41"/>
-      <c r="C133" s="41"/>
-    </row>
-    <row r="134" spans="2:3">
-      <c r="B134" s="41"/>
-      <c r="C134" s="41"/>
-    </row>
-    <row r="135" spans="2:3">
-      <c r="B135" s="41"/>
-      <c r="C135" s="41"/>
-    </row>
-    <row r="136" spans="2:3">
-      <c r="B136" s="41"/>
-      <c r="C136" s="41"/>
-    </row>
-    <row r="137" spans="2:3">
-      <c r="B137" s="41"/>
-      <c r="C137" s="41"/>
-    </row>
-    <row r="138" spans="2:3">
-      <c r="B138" s="41"/>
-      <c r="C138" s="41"/>
-    </row>
-    <row r="139" spans="2:3">
-      <c r="B139" s="41"/>
-      <c r="C139" s="41"/>
-    </row>
-    <row r="140" spans="2:3">
-      <c r="B140" s="41"/>
-      <c r="C140" s="41"/>
-    </row>
-    <row r="141" spans="2:3">
-      <c r="B141" s="41"/>
-      <c r="C141" s="41"/>
-    </row>
-    <row r="142" spans="2:3">
-      <c r="B142" s="41"/>
-      <c r="C142" s="41"/>
-    </row>
-    <row r="143" spans="2:3">
-      <c r="B143" s="41"/>
-      <c r="C143" s="41"/>
-    </row>
-    <row r="144" spans="2:3">
-      <c r="B144" s="41"/>
-      <c r="C144" s="41"/>
-    </row>
-    <row r="145" spans="2:3">
-      <c r="B145" s="41"/>
-      <c r="C145" s="41"/>
-    </row>
-    <row r="146" spans="2:3">
-      <c r="B146" s="41"/>
-      <c r="C146" s="41"/>
-    </row>
-    <row r="147" spans="2:3">
-      <c r="B147" s="41"/>
-      <c r="C147" s="41"/>
-    </row>
-    <row r="148" spans="2:3">
-      <c r="B148" s="41"/>
-      <c r="C148" s="41"/>
-    </row>
-    <row r="149" spans="2:3">
-      <c r="B149" s="41"/>
-      <c r="C149" s="41"/>
-    </row>
-    <row r="150" spans="2:3">
-      <c r="B150" s="41"/>
-      <c r="C150" s="41"/>
-    </row>
-    <row r="151" spans="2:3">
-      <c r="B151" s="41"/>
-      <c r="C151" s="41"/>
-    </row>
-    <row r="152" spans="2:3">
-      <c r="B152" s="41"/>
-      <c r="C152" s="41"/>
-    </row>
-    <row r="153" spans="2:3">
-      <c r="B153" s="41"/>
-      <c r="C153" s="41"/>
-    </row>
-    <row r="154" spans="2:3">
-      <c r="B154" s="41"/>
-      <c r="C154" s="41"/>
-    </row>
-    <row r="155" spans="2:3">
-      <c r="B155" s="41"/>
-      <c r="C155" s="41"/>
-    </row>
-    <row r="156" spans="2:3">
-      <c r="B156" s="41"/>
-      <c r="C156" s="41"/>
-    </row>
-    <row r="157" spans="2:3">
-      <c r="B157" s="41"/>
-      <c r="C157" s="41"/>
-    </row>
-    <row r="158" spans="2:3">
-      <c r="B158" s="41"/>
-      <c r="C158" s="41"/>
-    </row>
-    <row r="159" spans="2:3">
-      <c r="B159" s="41"/>
-      <c r="C159" s="41"/>
-    </row>
-    <row r="160" spans="2:3">
-      <c r="B160" s="41"/>
-      <c r="C160" s="41"/>
+        <v>325</v>
+      </c>
+      <c r="E118" t="s">
+        <v>325</v>
+      </c>
+      <c r="G118" t="s">
+        <v>325</v>
+      </c>
+      <c r="H118" s="50"/>
+      <c r="I118" s="51"/>
+    </row>
+    <row r="119" spans="1:9" ht="15" thickBot="1">
+      <c r="A119" t="s">
+        <v>146</v>
+      </c>
+      <c r="B119" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="C119" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="D119" t="s">
+        <v>325</v>
+      </c>
+      <c r="E119" t="s">
+        <v>325</v>
+      </c>
+      <c r="G119" t="s">
+        <v>325</v>
+      </c>
+      <c r="H119" s="52"/>
+      <c r="I119" s="53"/>
+    </row>
+    <row r="120" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B120" s="37"/>
+      <c r="C120" s="37"/>
+    </row>
+    <row r="121" spans="1:9" ht="15" customHeight="1" thickTop="1">
+      <c r="A121" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B121">
+        <v>2.16</v>
+      </c>
+      <c r="C121">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D121" t="s">
+        <v>325</v>
+      </c>
+      <c r="E121" t="s">
+        <v>325</v>
+      </c>
+      <c r="G121" t="s">
+        <v>325</v>
+      </c>
+      <c r="H121" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="I121" s="43"/>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>64</v>
+      </c>
+      <c r="B122" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="C122" s="36" t="s">
+        <v>452</v>
+      </c>
+      <c r="D122" t="s">
+        <v>325</v>
+      </c>
+      <c r="E122" t="s">
+        <v>325</v>
+      </c>
+      <c r="G122" t="s">
+        <v>325</v>
+      </c>
+      <c r="H122" s="44"/>
+      <c r="I122" s="45"/>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>63</v>
+      </c>
+      <c r="B123" s="36" t="s">
+        <v>481</v>
+      </c>
+      <c r="C123" s="36" t="s">
+        <v>454</v>
+      </c>
+      <c r="D123" t="s">
+        <v>325</v>
+      </c>
+      <c r="E123" t="s">
+        <v>325</v>
+      </c>
+      <c r="G123" t="s">
+        <v>325</v>
+      </c>
+      <c r="H123" s="44"/>
+      <c r="I123" s="45"/>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>59</v>
+      </c>
+      <c r="B124" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="C124" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="D124" t="s">
+        <v>325</v>
+      </c>
+      <c r="E124" t="s">
+        <v>325</v>
+      </c>
+      <c r="G124" t="s">
+        <v>325</v>
+      </c>
+      <c r="H124" s="44"/>
+      <c r="I124" s="45"/>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="C125" s="36" t="s">
+        <v>457</v>
+      </c>
+      <c r="D125" t="s">
+        <v>325</v>
+      </c>
+      <c r="E125" t="s">
+        <v>325</v>
+      </c>
+      <c r="G125" t="s">
+        <v>325</v>
+      </c>
+      <c r="H125" s="44"/>
+      <c r="I125" s="45"/>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" s="36" t="s">
+        <v>459</v>
+      </c>
+      <c r="C126" s="36" t="s">
+        <v>458</v>
+      </c>
+      <c r="D126" t="s">
+        <v>325</v>
+      </c>
+      <c r="E126" t="s">
+        <v>325</v>
+      </c>
+      <c r="G126" t="s">
+        <v>325</v>
+      </c>
+      <c r="H126" s="44"/>
+      <c r="I126" s="45"/>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" t="s">
+        <v>53</v>
+      </c>
+      <c r="B127" s="36" t="s">
+        <v>461</v>
+      </c>
+      <c r="C127" s="36" t="s">
+        <v>460</v>
+      </c>
+      <c r="D127" t="s">
+        <v>325</v>
+      </c>
+      <c r="E127" t="s">
+        <v>325</v>
+      </c>
+      <c r="G127" t="s">
+        <v>325</v>
+      </c>
+      <c r="H127" s="44"/>
+      <c r="I127" s="45"/>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
+        <v>52</v>
+      </c>
+      <c r="B128" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="C128" s="36" t="s">
+        <v>462</v>
+      </c>
+      <c r="D128" t="s">
+        <v>325</v>
+      </c>
+      <c r="E128" t="s">
+        <v>325</v>
+      </c>
+      <c r="G128" t="s">
+        <v>325</v>
+      </c>
+      <c r="H128" s="44"/>
+      <c r="I128" s="45"/>
+    </row>
+    <row r="129" spans="1:9" ht="15" thickBot="1">
+      <c r="A129" t="s">
+        <v>126</v>
+      </c>
+      <c r="B129" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="C129" s="36" t="s">
+        <v>482</v>
+      </c>
+      <c r="D129" t="s">
+        <v>325</v>
+      </c>
+      <c r="E129" t="s">
+        <v>325</v>
+      </c>
+      <c r="G129" t="s">
+        <v>325</v>
+      </c>
+      <c r="H129" s="46"/>
+      <c r="I129" s="47"/>
+    </row>
+    <row r="130" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B130" s="37"/>
+      <c r="C130" s="37"/>
+    </row>
+    <row r="131" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A131" t="s">
+        <v>86</v>
+      </c>
+      <c r="B131" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="C131" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="D131" t="s">
+        <v>325</v>
+      </c>
+      <c r="E131" t="s">
+        <v>325</v>
+      </c>
+      <c r="G131" t="s">
+        <v>325</v>
+      </c>
+      <c r="H131" s="41" t="s">
+        <v>480</v>
+      </c>
+      <c r="I131" s="41"/>
+    </row>
+    <row r="132" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A132" t="s">
+        <v>88</v>
+      </c>
+      <c r="B132" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="C132" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="D132" t="s">
+        <v>325</v>
+      </c>
+      <c r="E132" t="s">
+        <v>325</v>
+      </c>
+      <c r="G132" t="s">
+        <v>325</v>
+      </c>
+      <c r="H132" s="41"/>
+      <c r="I132" s="41"/>
+    </row>
+    <row r="133" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A133" t="s">
+        <v>89</v>
+      </c>
+      <c r="B133" s="36" t="s">
+        <v>470</v>
+      </c>
+      <c r="C133" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="D133" t="s">
+        <v>325</v>
+      </c>
+      <c r="E133" t="s">
+        <v>325</v>
+      </c>
+      <c r="G133" t="s">
+        <v>325</v>
+      </c>
+      <c r="H133" s="41"/>
+      <c r="I133" s="41"/>
+    </row>
+    <row r="134" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A134" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" s="36" t="s">
+        <v>472</v>
+      </c>
+      <c r="C134" s="36" t="s">
+        <v>471</v>
+      </c>
+      <c r="D134" t="s">
+        <v>325</v>
+      </c>
+      <c r="E134" t="s">
+        <v>325</v>
+      </c>
+      <c r="G134" t="s">
+        <v>325</v>
+      </c>
+      <c r="H134" s="41"/>
+      <c r="I134" s="41"/>
+    </row>
+    <row r="135" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A135" t="s">
+        <v>197</v>
+      </c>
+      <c r="B135" s="36" t="s">
+        <v>476</v>
+      </c>
+      <c r="C135" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="D135" t="s">
+        <v>325</v>
+      </c>
+      <c r="E135" t="s">
+        <v>325</v>
+      </c>
+      <c r="G135" t="s">
+        <v>325</v>
+      </c>
+      <c r="H135" s="41"/>
+      <c r="I135" s="41"/>
+    </row>
+    <row r="136" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A136" t="s">
+        <v>196</v>
+      </c>
+      <c r="B136" s="36" t="s">
+        <v>477</v>
+      </c>
+      <c r="C136" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="D136" t="s">
+        <v>325</v>
+      </c>
+      <c r="E136" t="s">
+        <v>325</v>
+      </c>
+      <c r="G136" t="s">
+        <v>325</v>
+      </c>
+      <c r="H136" s="41"/>
+      <c r="I136" s="41"/>
+    </row>
+    <row r="137" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A137" t="s">
+        <v>195</v>
+      </c>
+      <c r="B137" s="36" t="s">
+        <v>478</v>
+      </c>
+      <c r="C137" s="36" t="s">
+        <v>475</v>
+      </c>
+      <c r="D137" t="s">
+        <v>325</v>
+      </c>
+      <c r="E137" t="s">
+        <v>325</v>
+      </c>
+      <c r="G137" t="s">
+        <v>325</v>
+      </c>
+      <c r="H137" s="41"/>
+      <c r="I137" s="41"/>
+    </row>
+    <row r="138" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A138" t="s">
+        <v>198</v>
+      </c>
+      <c r="B138" s="36" t="s">
+        <v>457</v>
+      </c>
+      <c r="C138" s="36" t="s">
+        <v>479</v>
+      </c>
+      <c r="D138" t="s">
+        <v>325</v>
+      </c>
+      <c r="E138" t="s">
+        <v>325</v>
+      </c>
+      <c r="G138" t="s">
+        <v>325</v>
+      </c>
+      <c r="H138" s="41"/>
+      <c r="I138" s="41"/>
+    </row>
+    <row r="139" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B139" s="37"/>
+      <c r="C139" s="37"/>
+    </row>
+    <row r="140" spans="1:9" ht="15" customHeight="1" thickTop="1">
+      <c r="A140" t="s">
+        <v>102</v>
+      </c>
+      <c r="B140" s="36" t="s">
+        <v>485</v>
+      </c>
+      <c r="C140" s="36" t="s">
+        <v>484</v>
+      </c>
+      <c r="D140" t="s">
+        <v>325</v>
+      </c>
+      <c r="H140" s="68" t="s">
+        <v>497</v>
+      </c>
+      <c r="I140" s="68"/>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
+        <v>101</v>
+      </c>
+      <c r="B141" s="36" t="s">
+        <v>488</v>
+      </c>
+      <c r="C141" s="36" t="s">
+        <v>487</v>
+      </c>
+      <c r="D141" t="s">
+        <v>325</v>
+      </c>
+      <c r="H141" s="69"/>
+      <c r="I141" s="69"/>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
+        <v>103</v>
+      </c>
+      <c r="B142" s="36" t="s">
+        <v>490</v>
+      </c>
+      <c r="C142" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="D142" t="s">
+        <v>325</v>
+      </c>
+      <c r="H142" s="69"/>
+      <c r="I142" s="69"/>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" t="s">
+        <v>100</v>
+      </c>
+      <c r="B143" s="36" t="s">
+        <v>492</v>
+      </c>
+      <c r="C143" s="36" t="s">
+        <v>491</v>
+      </c>
+      <c r="D143" t="s">
+        <v>325</v>
+      </c>
+      <c r="H143" s="69"/>
+      <c r="I143" s="69"/>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B144" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="C144" s="36" t="s">
+        <v>493</v>
+      </c>
+      <c r="D144" t="s">
+        <v>325</v>
+      </c>
+      <c r="H144" s="69"/>
+      <c r="I144" s="69"/>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>127</v>
+      </c>
+      <c r="B145" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="C145" s="36" t="s">
+        <v>495</v>
+      </c>
+      <c r="D145" t="s">
+        <v>325</v>
+      </c>
+      <c r="H145" s="69"/>
+      <c r="I145" s="69"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" t="s">
+        <v>185</v>
+      </c>
+      <c r="B146" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="C146" s="36" t="s">
+        <v>496</v>
+      </c>
+      <c r="D146" t="s">
+        <v>325</v>
+      </c>
+      <c r="H146" s="69"/>
+      <c r="I146" s="69"/>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C147" s="36" t="s">
+        <v>498</v>
+      </c>
+      <c r="D147" t="s">
+        <v>325</v>
+      </c>
+      <c r="H147" s="70"/>
+      <c r="I147" s="70"/>
+    </row>
+    <row r="148" spans="1:9" s="24" customFormat="1" ht="15" thickBot="1">
+      <c r="B148" s="37"/>
+      <c r="C148" s="37"/>
+    </row>
+    <row r="149" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A149" t="s">
+        <v>28</v>
+      </c>
+      <c r="B149" s="36" t="s">
+        <v>500</v>
+      </c>
+      <c r="C149" s="36" t="s">
+        <v>499</v>
+      </c>
+      <c r="D149" t="s">
+        <v>325</v>
+      </c>
+      <c r="H149" s="71" t="s">
+        <v>518</v>
+      </c>
+      <c r="I149" s="71"/>
+    </row>
+    <row r="150" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A150" t="s">
+        <v>501</v>
+      </c>
+      <c r="B150" s="36" t="s">
+        <v>487</v>
+      </c>
+      <c r="C150" s="36" t="s">
+        <v>502</v>
+      </c>
+      <c r="D150" t="s">
+        <v>325</v>
+      </c>
+      <c r="H150" s="71"/>
+      <c r="I150" s="71"/>
+    </row>
+    <row r="151" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A151" t="s">
+        <v>200</v>
+      </c>
+      <c r="B151" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="C151" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="D151" t="s">
+        <v>325</v>
+      </c>
+      <c r="H151" s="71"/>
+      <c r="I151" s="71"/>
+    </row>
+    <row r="152" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A152" t="s">
+        <v>199</v>
+      </c>
+      <c r="B152" s="36" t="s">
+        <v>482</v>
+      </c>
+      <c r="C152" s="36" t="s">
+        <v>504</v>
+      </c>
+      <c r="D152" t="s">
+        <v>325</v>
+      </c>
+      <c r="H152" s="71"/>
+      <c r="I152" s="71"/>
+    </row>
+    <row r="153" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A153" t="s">
+        <v>36</v>
+      </c>
+      <c r="B153" s="36" t="s">
+        <v>506</v>
+      </c>
+      <c r="C153" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="D153" t="s">
+        <v>325</v>
+      </c>
+      <c r="H153" s="71"/>
+      <c r="I153" s="71"/>
+    </row>
+    <row r="154" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A154" t="s">
+        <v>96</v>
+      </c>
+      <c r="B154" s="36" t="s">
+        <v>508</v>
+      </c>
+      <c r="C154" s="36" t="s">
+        <v>507</v>
+      </c>
+      <c r="D154" t="s">
+        <v>325</v>
+      </c>
+      <c r="H154" s="71"/>
+      <c r="I154" s="71"/>
+    </row>
+    <row r="155" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A155" t="s">
+        <v>43</v>
+      </c>
+      <c r="B155" s="36" t="s">
+        <v>510</v>
+      </c>
+      <c r="C155" s="36" t="s">
+        <v>509</v>
+      </c>
+      <c r="D155" t="s">
+        <v>325</v>
+      </c>
+      <c r="H155" s="71"/>
+      <c r="I155" s="71"/>
+    </row>
+    <row r="156" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A156" t="s">
+        <v>105</v>
+      </c>
+      <c r="B156" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="C156" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="D156" t="s">
+        <v>325</v>
+      </c>
+      <c r="H156" s="71"/>
+      <c r="I156" s="71"/>
+    </row>
+    <row r="157" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A157" t="s">
+        <v>514</v>
+      </c>
+      <c r="B157" s="36" t="s">
+        <v>513</v>
+      </c>
+      <c r="C157" s="36" t="s">
+        <v>512</v>
+      </c>
+      <c r="D157" t="s">
+        <v>325</v>
+      </c>
+      <c r="H157" s="71"/>
+      <c r="I157" s="71"/>
+    </row>
+    <row r="158" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A158" t="s">
+        <v>515</v>
+      </c>
+      <c r="B158" s="36" t="s">
+        <v>517</v>
+      </c>
+      <c r="C158" s="36" t="s">
+        <v>516</v>
+      </c>
+      <c r="D158" t="s">
+        <v>325</v>
+      </c>
+      <c r="H158" s="71"/>
+      <c r="I158" s="71"/>
+    </row>
+    <row r="159" spans="1:9" s="24" customFormat="1" ht="15" thickTop="1">
+      <c r="B159" s="37"/>
+      <c r="C159" s="37"/>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="B160" s="36"/>
+      <c r="C160" s="36"/>
     </row>
     <row r="161" spans="2:3">
-      <c r="B161" s="41"/>
-      <c r="C161" s="41"/>
+      <c r="B161" s="36"/>
+      <c r="C161" s="36"/>
     </row>
     <row r="162" spans="2:3">
-      <c r="B162" s="41"/>
-      <c r="C162" s="41"/>
+      <c r="B162" s="36"/>
+      <c r="C162" s="36"/>
     </row>
     <row r="163" spans="2:3">
-      <c r="B163" s="41"/>
-      <c r="C163" s="41"/>
+      <c r="B163" s="36"/>
+      <c r="C163" s="36"/>
     </row>
     <row r="164" spans="2:3">
-      <c r="B164" s="41"/>
-      <c r="C164" s="41"/>
+      <c r="B164" s="36"/>
+      <c r="C164" s="36"/>
     </row>
     <row r="165" spans="2:3">
-      <c r="B165" s="41"/>
-      <c r="C165" s="41"/>
+      <c r="B165" s="36"/>
+      <c r="C165" s="36"/>
     </row>
     <row r="166" spans="2:3">
-      <c r="B166" s="41"/>
-      <c r="C166" s="41"/>
+      <c r="B166" s="36"/>
+      <c r="C166" s="36"/>
     </row>
     <row r="167" spans="2:3">
-      <c r="B167" s="41"/>
-      <c r="C167" s="41"/>
+      <c r="B167" s="36"/>
+      <c r="C167" s="36"/>
     </row>
     <row r="168" spans="2:3">
-      <c r="B168" s="41"/>
-      <c r="C168" s="41"/>
+      <c r="B168" s="36"/>
+      <c r="C168" s="36"/>
     </row>
     <row r="169" spans="2:3">
-      <c r="B169" s="41"/>
-      <c r="C169" s="41"/>
+      <c r="B169" s="36"/>
+      <c r="C169" s="36"/>
     </row>
     <row r="170" spans="2:3">
-      <c r="B170" s="41"/>
-      <c r="C170" s="41"/>
+      <c r="B170" s="36"/>
+      <c r="C170" s="36"/>
     </row>
     <row r="171" spans="2:3">
-      <c r="B171" s="41"/>
-      <c r="C171" s="41"/>
+      <c r="B171" s="36"/>
+      <c r="C171" s="36"/>
     </row>
     <row r="172" spans="2:3">
-      <c r="B172" s="41"/>
-      <c r="C172" s="41"/>
+      <c r="B172" s="36"/>
+      <c r="C172" s="36"/>
     </row>
     <row r="173" spans="2:3">
-      <c r="B173" s="41"/>
-      <c r="C173" s="41"/>
+      <c r="B173" s="36"/>
+      <c r="C173" s="36"/>
     </row>
     <row r="174" spans="2:3">
-      <c r="B174" s="41"/>
-      <c r="C174" s="41"/>
+      <c r="B174" s="36"/>
+      <c r="C174" s="36"/>
     </row>
     <row r="175" spans="2:3">
-      <c r="B175" s="41"/>
-      <c r="C175" s="41"/>
+      <c r="B175" s="36"/>
+      <c r="C175" s="36"/>
     </row>
     <row r="176" spans="2:3">
-      <c r="B176" s="41"/>
-      <c r="C176" s="41"/>
+      <c r="B176" s="36"/>
+      <c r="C176" s="36"/>
     </row>
     <row r="177" spans="2:3">
-      <c r="B177" s="41"/>
-      <c r="C177" s="41"/>
+      <c r="B177" s="36"/>
+      <c r="C177" s="36"/>
     </row>
     <row r="178" spans="2:3">
-      <c r="B178" s="41"/>
-      <c r="C178" s="41"/>
+      <c r="B178" s="36"/>
+      <c r="C178" s="36"/>
     </row>
     <row r="179" spans="2:3">
-      <c r="B179" s="41"/>
-      <c r="C179" s="41"/>
+      <c r="B179" s="36"/>
+      <c r="C179" s="36"/>
     </row>
     <row r="180" spans="2:3">
-      <c r="B180" s="41"/>
-      <c r="C180" s="41"/>
+      <c r="B180" s="36"/>
+      <c r="C180" s="36"/>
     </row>
     <row r="181" spans="2:3">
-      <c r="B181" s="41"/>
-      <c r="C181" s="41"/>
+      <c r="B181" s="36"/>
+      <c r="C181" s="36"/>
     </row>
     <row r="182" spans="2:3">
-      <c r="B182" s="41"/>
-      <c r="C182" s="41"/>
+      <c r="B182" s="36"/>
+      <c r="C182" s="36"/>
     </row>
     <row r="183" spans="2:3">
-      <c r="B183" s="41"/>
-      <c r="C183" s="41"/>
+      <c r="B183" s="36"/>
+      <c r="C183" s="36"/>
     </row>
     <row r="184" spans="2:3">
-      <c r="B184" s="41"/>
-      <c r="C184" s="41"/>
+      <c r="B184" s="36"/>
+      <c r="C184" s="36"/>
     </row>
     <row r="185" spans="2:3">
-      <c r="B185" s="41"/>
-      <c r="C185" s="41"/>
+      <c r="B185" s="36"/>
+      <c r="C185" s="36"/>
     </row>
     <row r="186" spans="2:3">
-      <c r="B186" s="41"/>
-      <c r="C186" s="41"/>
+      <c r="B186" s="36"/>
+      <c r="C186" s="36"/>
     </row>
     <row r="187" spans="2:3">
-      <c r="B187" s="41"/>
-      <c r="C187" s="41"/>
+      <c r="B187" s="36"/>
+      <c r="C187" s="36"/>
     </row>
     <row r="188" spans="2:3">
-      <c r="B188" s="41"/>
-      <c r="C188" s="41"/>
+      <c r="B188" s="36"/>
+      <c r="C188" s="36"/>
     </row>
     <row r="189" spans="2:3">
-      <c r="B189" s="41"/>
-      <c r="C189" s="41"/>
+      <c r="B189" s="36"/>
+      <c r="C189" s="36"/>
     </row>
     <row r="190" spans="2:3">
-      <c r="B190" s="41"/>
-      <c r="C190" s="41"/>
+      <c r="B190" s="36"/>
+      <c r="C190" s="36"/>
     </row>
     <row r="191" spans="2:3">
-      <c r="B191" s="41"/>
-      <c r="C191" s="41"/>
+      <c r="B191" s="36"/>
+      <c r="C191" s="36"/>
     </row>
     <row r="192" spans="2:3">
-      <c r="B192" s="41"/>
-      <c r="C192" s="41"/>
+      <c r="B192" s="36"/>
+      <c r="C192" s="36"/>
     </row>
     <row r="193" spans="2:3">
-      <c r="B193" s="41"/>
-      <c r="C193" s="41"/>
+      <c r="B193" s="36"/>
+      <c r="C193" s="36"/>
     </row>
     <row r="194" spans="2:3">
-      <c r="B194" s="41"/>
-      <c r="C194" s="41"/>
+      <c r="B194" s="36"/>
+      <c r="C194" s="36"/>
     </row>
     <row r="195" spans="2:3">
-      <c r="B195" s="41"/>
-      <c r="C195" s="41"/>
+      <c r="B195" s="36"/>
+      <c r="C195" s="36"/>
     </row>
     <row r="196" spans="2:3">
-      <c r="B196" s="41"/>
-      <c r="C196" s="41"/>
+      <c r="B196" s="36"/>
+      <c r="C196" s="36"/>
     </row>
     <row r="197" spans="2:3">
-      <c r="B197" s="41"/>
-      <c r="C197" s="41"/>
+      <c r="B197" s="36"/>
+      <c r="C197" s="36"/>
     </row>
     <row r="198" spans="2:3">
-      <c r="B198" s="41"/>
-      <c r="C198" s="41"/>
+      <c r="B198" s="36"/>
+      <c r="C198" s="36"/>
     </row>
     <row r="199" spans="2:3">
-      <c r="B199" s="41"/>
-      <c r="C199" s="41"/>
+      <c r="B199" s="36"/>
+      <c r="C199" s="36"/>
     </row>
     <row r="200" spans="2:3">
-      <c r="B200" s="41"/>
-      <c r="C200" s="41"/>
+      <c r="B200" s="36"/>
+      <c r="C200" s="36"/>
     </row>
     <row r="201" spans="2:3">
-      <c r="B201" s="41"/>
-      <c r="C201" s="41"/>
+      <c r="B201" s="36"/>
+      <c r="C201" s="36"/>
     </row>
     <row r="202" spans="2:3">
-      <c r="B202" s="41"/>
-      <c r="C202" s="41"/>
+      <c r="B202" s="36"/>
+      <c r="C202" s="36"/>
     </row>
     <row r="203" spans="2:3">
-      <c r="B203" s="41"/>
-      <c r="C203" s="41"/>
+      <c r="B203" s="36"/>
+      <c r="C203" s="36"/>
     </row>
     <row r="204" spans="2:3">
-      <c r="B204" s="41"/>
-      <c r="C204" s="41"/>
+      <c r="B204" s="36"/>
+      <c r="C204" s="36"/>
     </row>
     <row r="205" spans="2:3">
-      <c r="B205" s="41"/>
-      <c r="C205" s="41"/>
+      <c r="B205" s="36"/>
+      <c r="C205" s="36"/>
     </row>
     <row r="206" spans="2:3">
-      <c r="B206" s="41"/>
-      <c r="C206" s="41"/>
+      <c r="B206" s="36"/>
+      <c r="C206" s="36"/>
     </row>
     <row r="207" spans="2:3">
-      <c r="B207" s="41"/>
-      <c r="C207" s="41"/>
+      <c r="B207" s="36"/>
+      <c r="C207" s="36"/>
     </row>
     <row r="208" spans="2:3">
-      <c r="B208" s="41"/>
-      <c r="C208" s="41"/>
+      <c r="B208" s="36"/>
+      <c r="C208" s="36"/>
     </row>
     <row r="209" spans="2:3">
-      <c r="B209" s="41"/>
-      <c r="C209" s="41"/>
+      <c r="B209" s="36"/>
+      <c r="C209" s="36"/>
     </row>
     <row r="210" spans="2:3">
-      <c r="B210" s="41"/>
-      <c r="C210" s="41"/>
+      <c r="B210" s="36"/>
+      <c r="C210" s="36"/>
     </row>
     <row r="211" spans="2:3">
-      <c r="B211" s="41"/>
-      <c r="C211" s="41"/>
+      <c r="B211" s="36"/>
+      <c r="C211" s="36"/>
     </row>
     <row r="212" spans="2:3">
-      <c r="B212" s="41"/>
-      <c r="C212" s="41"/>
+      <c r="B212" s="36"/>
+      <c r="C212" s="36"/>
     </row>
     <row r="213" spans="2:3">
-      <c r="B213" s="41"/>
-      <c r="C213" s="41"/>
+      <c r="B213" s="36"/>
+      <c r="C213" s="36"/>
     </row>
     <row r="214" spans="2:3">
-      <c r="B214" s="41"/>
-      <c r="C214" s="41"/>
+      <c r="B214" s="36"/>
+      <c r="C214" s="36"/>
     </row>
     <row r="215" spans="2:3">
-      <c r="B215" s="41"/>
-      <c r="C215" s="41"/>
+      <c r="B215" s="36"/>
+      <c r="C215" s="36"/>
     </row>
     <row r="216" spans="2:3">
-      <c r="B216" s="41"/>
-      <c r="C216" s="41"/>
+      <c r="B216" s="36"/>
+      <c r="C216" s="36"/>
     </row>
     <row r="217" spans="2:3">
-      <c r="B217" s="41"/>
-      <c r="C217" s="41"/>
+      <c r="B217" s="36"/>
+      <c r="C217" s="36"/>
     </row>
     <row r="218" spans="2:3">
-      <c r="B218" s="41"/>
-      <c r="C218" s="41"/>
+      <c r="B218" s="36"/>
+      <c r="C218" s="36"/>
     </row>
     <row r="219" spans="2:3">
-      <c r="B219" s="41"/>
-      <c r="C219" s="41"/>
+      <c r="B219" s="36"/>
+      <c r="C219" s="36"/>
     </row>
     <row r="220" spans="2:3">
-      <c r="B220" s="41"/>
-      <c r="C220" s="41"/>
+      <c r="B220" s="36"/>
+      <c r="C220" s="36"/>
     </row>
     <row r="221" spans="2:3">
-      <c r="B221" s="41"/>
-      <c r="C221" s="41"/>
+      <c r="B221" s="36"/>
+      <c r="C221" s="36"/>
     </row>
     <row r="222" spans="2:3">
-      <c r="B222" s="41"/>
-      <c r="C222" s="41"/>
+      <c r="B222" s="36"/>
+      <c r="C222" s="36"/>
     </row>
     <row r="223" spans="2:3">
-      <c r="B223" s="41"/>
-      <c r="C223" s="41"/>
+      <c r="B223" s="36"/>
+      <c r="C223" s="36"/>
     </row>
     <row r="224" spans="2:3">
-      <c r="B224" s="41"/>
-      <c r="C224" s="41"/>
+      <c r="B224" s="36"/>
+      <c r="C224" s="36"/>
     </row>
     <row r="225" spans="2:3">
-      <c r="B225" s="41"/>
-      <c r="C225" s="41"/>
+      <c r="B225" s="36"/>
+      <c r="C225" s="36"/>
     </row>
     <row r="226" spans="2:3">
-      <c r="B226" s="41"/>
-      <c r="C226" s="41"/>
+      <c r="B226" s="36"/>
+      <c r="C226" s="36"/>
     </row>
     <row r="227" spans="2:3">
-      <c r="B227" s="41"/>
-      <c r="C227" s="41"/>
+      <c r="B227" s="36"/>
+      <c r="C227" s="36"/>
     </row>
     <row r="228" spans="2:3">
-      <c r="B228" s="41"/>
-      <c r="C228" s="41"/>
+      <c r="B228" s="36"/>
+      <c r="C228" s="36"/>
     </row>
     <row r="229" spans="2:3">
-      <c r="B229" s="41"/>
-      <c r="C229" s="41"/>
+      <c r="B229" s="36"/>
+      <c r="C229" s="36"/>
     </row>
     <row r="230" spans="2:3">
-      <c r="B230" s="41"/>
-      <c r="C230" s="41"/>
+      <c r="B230" s="36"/>
+      <c r="C230" s="36"/>
     </row>
     <row r="231" spans="2:3">
-      <c r="B231" s="41"/>
-      <c r="C231" s="41"/>
+      <c r="B231" s="36"/>
+      <c r="C231" s="36"/>
     </row>
     <row r="232" spans="2:3">
-      <c r="B232" s="41"/>
-      <c r="C232" s="41"/>
+      <c r="B232" s="36"/>
+      <c r="C232" s="36"/>
     </row>
     <row r="233" spans="2:3">
-      <c r="B233" s="41"/>
-      <c r="C233" s="41"/>
+      <c r="B233" s="36"/>
+      <c r="C233" s="36"/>
     </row>
     <row r="234" spans="2:3">
-      <c r="B234" s="41"/>
-      <c r="C234" s="41"/>
+      <c r="B234" s="36"/>
+      <c r="C234" s="36"/>
     </row>
     <row r="235" spans="2:3">
-      <c r="B235" s="41"/>
-      <c r="C235" s="41"/>
+      <c r="B235" s="36"/>
+      <c r="C235" s="36"/>
     </row>
     <row r="236" spans="2:3">
-      <c r="B236" s="41"/>
-      <c r="C236" s="41"/>
+      <c r="B236" s="36"/>
+      <c r="C236" s="36"/>
     </row>
     <row r="237" spans="2:3">
-      <c r="B237" s="41"/>
-      <c r="C237" s="41"/>
+      <c r="B237" s="36"/>
+      <c r="C237" s="36"/>
     </row>
     <row r="238" spans="2:3">
-      <c r="B238" s="41"/>
-      <c r="C238" s="41"/>
+      <c r="B238" s="36"/>
+      <c r="C238" s="36"/>
     </row>
     <row r="239" spans="2:3">
-      <c r="B239" s="41"/>
-      <c r="C239" s="41"/>
+      <c r="B239" s="36"/>
+      <c r="C239" s="36"/>
     </row>
     <row r="240" spans="2:3">
-      <c r="B240" s="41"/>
-      <c r="C240" s="41"/>
+      <c r="B240" s="36"/>
+      <c r="C240" s="36"/>
     </row>
     <row r="241" spans="2:3">
-      <c r="B241" s="41"/>
-      <c r="C241" s="41"/>
+      <c r="B241" s="36"/>
+      <c r="C241" s="36"/>
     </row>
     <row r="242" spans="2:3">
-      <c r="B242" s="41"/>
-      <c r="C242" s="41"/>
+      <c r="B242" s="36"/>
+      <c r="C242" s="36"/>
     </row>
     <row r="243" spans="2:3">
-      <c r="B243" s="41"/>
-      <c r="C243" s="41"/>
+      <c r="B243" s="36"/>
+      <c r="C243" s="36"/>
     </row>
     <row r="244" spans="2:3">
-      <c r="B244" s="41"/>
-      <c r="C244" s="41"/>
+      <c r="B244" s="36"/>
+      <c r="C244" s="36"/>
     </row>
     <row r="245" spans="2:3">
-      <c r="B245" s="41"/>
-      <c r="C245" s="41"/>
+      <c r="B245" s="36"/>
+      <c r="C245" s="36"/>
     </row>
     <row r="246" spans="2:3">
-      <c r="B246" s="41"/>
-      <c r="C246" s="41"/>
+      <c r="B246" s="36"/>
+      <c r="C246" s="36"/>
     </row>
     <row r="247" spans="2:3">
-      <c r="B247" s="41"/>
-      <c r="C247" s="41"/>
+      <c r="B247" s="36"/>
+      <c r="C247" s="36"/>
     </row>
     <row r="248" spans="2:3">
-      <c r="B248" s="41"/>
-      <c r="C248" s="41"/>
+      <c r="B248" s="36"/>
+      <c r="C248" s="36"/>
     </row>
     <row r="249" spans="2:3">
-      <c r="B249" s="41"/>
-      <c r="C249" s="41"/>
+      <c r="B249" s="36"/>
+      <c r="C249" s="36"/>
     </row>
     <row r="250" spans="2:3">
-      <c r="B250" s="41"/>
-      <c r="C250" s="41"/>
+      <c r="B250" s="36"/>
+      <c r="C250" s="36"/>
     </row>
     <row r="251" spans="2:3">
-      <c r="B251" s="41"/>
-      <c r="C251" s="41"/>
+      <c r="B251" s="36"/>
+      <c r="C251" s="36"/>
     </row>
     <row r="252" spans="2:3">
-      <c r="B252" s="41"/>
-      <c r="C252" s="41"/>
+      <c r="B252" s="36"/>
+      <c r="C252" s="36"/>
     </row>
     <row r="253" spans="2:3">
-      <c r="B253" s="41"/>
-      <c r="C253" s="41"/>
+      <c r="B253" s="36"/>
+      <c r="C253" s="36"/>
     </row>
     <row r="254" spans="2:3">
-      <c r="B254" s="41"/>
-      <c r="C254" s="41"/>
+      <c r="B254" s="36"/>
+      <c r="C254" s="36"/>
     </row>
     <row r="255" spans="2:3">
-      <c r="B255" s="41"/>
-      <c r="C255" s="41"/>
+      <c r="B255" s="36"/>
+      <c r="C255" s="36"/>
     </row>
     <row r="256" spans="2:3">
-      <c r="B256" s="41"/>
-      <c r="C256" s="41"/>
+      <c r="B256" s="36"/>
+      <c r="C256" s="36"/>
     </row>
     <row r="257" spans="2:3">
-      <c r="B257" s="41"/>
-      <c r="C257" s="41"/>
+      <c r="B257" s="36"/>
+      <c r="C257" s="36"/>
     </row>
     <row r="258" spans="2:3">
-      <c r="B258" s="41"/>
-      <c r="C258" s="41"/>
+      <c r="B258" s="36"/>
+      <c r="C258" s="36"/>
     </row>
     <row r="259" spans="2:3">
-      <c r="B259" s="41"/>
-      <c r="C259" s="41"/>
+      <c r="B259" s="36"/>
+      <c r="C259" s="36"/>
     </row>
     <row r="260" spans="2:3">
-      <c r="B260" s="41"/>
-      <c r="C260" s="41"/>
+      <c r="B260" s="36"/>
+      <c r="C260" s="36"/>
     </row>
     <row r="261" spans="2:3">
-      <c r="B261" s="41"/>
-      <c r="C261" s="41"/>
+      <c r="B261" s="36"/>
+      <c r="C261" s="36"/>
     </row>
     <row r="262" spans="2:3">
-      <c r="B262" s="41"/>
-      <c r="C262" s="41"/>
+      <c r="B262" s="36"/>
+      <c r="C262" s="36"/>
     </row>
     <row r="263" spans="2:3">
-      <c r="B263" s="41"/>
-      <c r="C263" s="41"/>
+      <c r="B263" s="36"/>
+      <c r="C263" s="36"/>
     </row>
     <row r="264" spans="2:3">
-      <c r="B264" s="41"/>
-      <c r="C264" s="41"/>
+      <c r="B264" s="36"/>
+      <c r="C264" s="36"/>
     </row>
     <row r="265" spans="2:3">
-      <c r="B265" s="41"/>
-      <c r="C265" s="41"/>
+      <c r="B265" s="36"/>
+      <c r="C265" s="36"/>
     </row>
     <row r="266" spans="2:3">
-      <c r="B266" s="41"/>
-      <c r="C266" s="41"/>
+      <c r="B266" s="36"/>
+      <c r="C266" s="36"/>
     </row>
     <row r="267" spans="2:3">
-      <c r="B267" s="41"/>
-      <c r="C267" s="41"/>
+      <c r="B267" s="36"/>
+      <c r="C267" s="36"/>
     </row>
     <row r="268" spans="2:3">
-      <c r="B268" s="41"/>
-      <c r="C268" s="41"/>
+      <c r="B268" s="36"/>
+      <c r="C268" s="36"/>
     </row>
     <row r="269" spans="2:3">
-      <c r="B269" s="41"/>
-      <c r="C269" s="41"/>
+      <c r="B269" s="36"/>
+      <c r="C269" s="36"/>
     </row>
     <row r="270" spans="2:3">
-      <c r="B270" s="41"/>
-      <c r="C270" s="41"/>
+      <c r="B270" s="36"/>
+      <c r="C270" s="36"/>
     </row>
     <row r="271" spans="2:3">
-      <c r="B271" s="41"/>
-      <c r="C271" s="41"/>
+      <c r="B271" s="36"/>
+      <c r="C271" s="36"/>
     </row>
     <row r="272" spans="2:3">
-      <c r="B272" s="41"/>
-      <c r="C272" s="41"/>
+      <c r="B272" s="36"/>
+      <c r="C272" s="36"/>
     </row>
     <row r="273" spans="2:3">
-      <c r="B273" s="41"/>
-      <c r="C273" s="41"/>
+      <c r="B273" s="36"/>
+      <c r="C273" s="36"/>
     </row>
     <row r="274" spans="2:3">
-      <c r="B274" s="41"/>
-      <c r="C274" s="41"/>
+      <c r="B274" s="36"/>
+      <c r="C274" s="36"/>
     </row>
     <row r="275" spans="2:3">
-      <c r="B275" s="41"/>
-      <c r="C275" s="41"/>
+      <c r="B275" s="36"/>
+      <c r="C275" s="36"/>
     </row>
     <row r="276" spans="2:3">
-      <c r="B276" s="41"/>
-      <c r="C276" s="41"/>
+      <c r="B276" s="36"/>
+      <c r="C276" s="36"/>
     </row>
     <row r="277" spans="2:3">
-      <c r="B277" s="41"/>
-      <c r="C277" s="41"/>
+      <c r="B277" s="36"/>
+      <c r="C277" s="36"/>
     </row>
     <row r="278" spans="2:3">
-      <c r="B278" s="41"/>
-      <c r="C278" s="41"/>
+      <c r="B278" s="36"/>
+      <c r="C278" s="36"/>
     </row>
     <row r="279" spans="2:3">
-      <c r="B279" s="41"/>
-      <c r="C279" s="41"/>
+      <c r="B279" s="36"/>
+      <c r="C279" s="36"/>
     </row>
     <row r="280" spans="2:3">
-      <c r="B280" s="41"/>
-      <c r="C280" s="41"/>
+      <c r="B280" s="36"/>
+      <c r="C280" s="36"/>
     </row>
     <row r="281" spans="2:3">
-      <c r="B281" s="41"/>
-      <c r="C281" s="41"/>
+      <c r="B281" s="36"/>
+      <c r="C281" s="36"/>
     </row>
     <row r="282" spans="2:3">
-      <c r="B282" s="41"/>
-      <c r="C282" s="41"/>
+      <c r="B282" s="36"/>
+      <c r="C282" s="36"/>
     </row>
     <row r="283" spans="2:3">
-      <c r="B283" s="41"/>
-      <c r="C283" s="41"/>
+      <c r="B283" s="36"/>
+      <c r="C283" s="36"/>
     </row>
     <row r="284" spans="2:3">
-      <c r="B284" s="41"/>
-      <c r="C284" s="41"/>
+      <c r="B284" s="36"/>
+      <c r="C284" s="36"/>
     </row>
     <row r="285" spans="2:3">
-      <c r="B285" s="41"/>
-      <c r="C285" s="41"/>
+      <c r="B285" s="36"/>
+      <c r="C285" s="36"/>
     </row>
     <row r="286" spans="2:3">
-      <c r="B286" s="41"/>
-      <c r="C286" s="41"/>
+      <c r="B286" s="36"/>
+      <c r="C286" s="36"/>
     </row>
     <row r="287" spans="2:3">
-      <c r="B287" s="41"/>
-      <c r="C287" s="41"/>
+      <c r="B287" s="36"/>
+      <c r="C287" s="36"/>
     </row>
     <row r="288" spans="2:3">
-      <c r="B288" s="41"/>
-      <c r="C288" s="41"/>
+      <c r="B288" s="36"/>
+      <c r="C288" s="36"/>
     </row>
     <row r="289" spans="2:3">
-      <c r="B289" s="41"/>
-      <c r="C289" s="41"/>
+      <c r="B289" s="36"/>
+      <c r="C289" s="36"/>
     </row>
     <row r="290" spans="2:3">
-      <c r="B290" s="41"/>
-      <c r="C290" s="41"/>
+      <c r="B290" s="36"/>
+      <c r="C290" s="36"/>
     </row>
     <row r="291" spans="2:3">
-      <c r="B291" s="41"/>
-      <c r="C291" s="41"/>
+      <c r="B291" s="36"/>
+      <c r="C291" s="36"/>
     </row>
     <row r="292" spans="2:3">
-      <c r="B292" s="41"/>
-      <c r="C292" s="41"/>
+      <c r="B292" s="36"/>
+      <c r="C292" s="36"/>
     </row>
     <row r="293" spans="2:3">
-      <c r="B293" s="41"/>
-      <c r="C293" s="41"/>
+      <c r="B293" s="36"/>
+      <c r="C293" s="36"/>
     </row>
     <row r="294" spans="2:3">
-      <c r="B294" s="41"/>
-      <c r="C294" s="41"/>
+      <c r="B294" s="36"/>
+      <c r="C294" s="36"/>
     </row>
     <row r="295" spans="2:3">
-      <c r="B295" s="41"/>
-      <c r="C295" s="41"/>
+      <c r="B295" s="36"/>
+      <c r="C295" s="36"/>
     </row>
     <row r="296" spans="2:3">
-      <c r="B296" s="41"/>
-      <c r="C296" s="41"/>
+      <c r="B296" s="36"/>
+      <c r="C296" s="36"/>
     </row>
     <row r="297" spans="2:3">
-      <c r="B297" s="41"/>
-      <c r="C297" s="41"/>
+      <c r="B297" s="36"/>
+      <c r="C297" s="36"/>
     </row>
     <row r="298" spans="2:3">
-      <c r="B298" s="41"/>
-      <c r="C298" s="41"/>
+      <c r="B298" s="36"/>
+      <c r="C298" s="36"/>
     </row>
     <row r="299" spans="2:3">
-      <c r="B299" s="41"/>
-      <c r="C299" s="41"/>
+      <c r="B299" s="36"/>
+      <c r="C299" s="36"/>
     </row>
     <row r="300" spans="2:3">
-      <c r="B300" s="41"/>
-      <c r="C300" s="41"/>
+      <c r="B300" s="36"/>
+      <c r="C300" s="36"/>
     </row>
     <row r="301" spans="2:3">
-      <c r="B301" s="41"/>
-      <c r="C301" s="41"/>
+      <c r="B301" s="36"/>
+      <c r="C301" s="36"/>
     </row>
     <row r="302" spans="2:3">
-      <c r="B302" s="41"/>
-      <c r="C302" s="41"/>
+      <c r="B302" s="36"/>
+      <c r="C302" s="36"/>
     </row>
     <row r="303" spans="2:3">
-      <c r="B303" s="41"/>
-      <c r="C303" s="41"/>
+      <c r="B303" s="36"/>
+      <c r="C303" s="36"/>
     </row>
     <row r="304" spans="2:3">
-      <c r="B304" s="41"/>
-      <c r="C304" s="41"/>
+      <c r="B304" s="36"/>
+      <c r="C304" s="36"/>
     </row>
     <row r="305" spans="2:3">
-      <c r="B305" s="41"/>
-      <c r="C305" s="41"/>
+      <c r="B305" s="36"/>
+      <c r="C305" s="36"/>
     </row>
     <row r="306" spans="2:3">
-      <c r="B306" s="41"/>
-      <c r="C306" s="41"/>
+      <c r="B306" s="36"/>
+      <c r="C306" s="36"/>
     </row>
     <row r="307" spans="2:3">
-      <c r="B307" s="41"/>
-      <c r="C307" s="41"/>
+      <c r="B307" s="36"/>
+      <c r="C307" s="36"/>
     </row>
     <row r="308" spans="2:3">
-      <c r="B308" s="41"/>
-      <c r="C308" s="41"/>
+      <c r="B308" s="36"/>
+      <c r="C308" s="36"/>
     </row>
     <row r="309" spans="2:3">
-      <c r="B309" s="41"/>
-      <c r="C309" s="41"/>
+      <c r="B309" s="36"/>
+      <c r="C309" s="36"/>
     </row>
     <row r="310" spans="2:3">
-      <c r="B310" s="41"/>
-      <c r="C310" s="41"/>
+      <c r="B310" s="36"/>
+      <c r="C310" s="36"/>
     </row>
     <row r="311" spans="2:3">
-      <c r="B311" s="41"/>
-      <c r="C311" s="41"/>
+      <c r="B311" s="36"/>
+      <c r="C311" s="36"/>
     </row>
     <row r="312" spans="2:3">
-      <c r="B312" s="41"/>
-      <c r="C312" s="41"/>
+      <c r="B312" s="36"/>
+      <c r="C312" s="36"/>
     </row>
     <row r="313" spans="2:3">
-      <c r="B313" s="41"/>
-      <c r="C313" s="41"/>
+      <c r="B313" s="36"/>
+      <c r="C313" s="36"/>
     </row>
     <row r="314" spans="2:3">
-      <c r="B314" s="41"/>
-      <c r="C314" s="41"/>
+      <c r="B314" s="36"/>
+      <c r="C314" s="36"/>
     </row>
     <row r="315" spans="2:3">
-      <c r="B315" s="41"/>
-      <c r="C315" s="41"/>
+      <c r="B315" s="36"/>
+      <c r="C315" s="36"/>
     </row>
     <row r="316" spans="2:3">
-      <c r="B316" s="41"/>
-      <c r="C316" s="41"/>
+      <c r="B316" s="36"/>
+      <c r="C316" s="36"/>
     </row>
     <row r="317" spans="2:3">
-      <c r="B317" s="41"/>
-      <c r="C317" s="41"/>
+      <c r="B317" s="36"/>
+      <c r="C317" s="36"/>
     </row>
     <row r="318" spans="2:3">
-      <c r="B318" s="41"/>
-      <c r="C318" s="41"/>
+      <c r="B318" s="36"/>
+      <c r="C318" s="36"/>
     </row>
     <row r="319" spans="2:3">
-      <c r="B319" s="41"/>
-      <c r="C319" s="41"/>
+      <c r="B319" s="36"/>
+      <c r="C319" s="36"/>
     </row>
     <row r="320" spans="2:3">
-      <c r="B320" s="41"/>
-      <c r="C320" s="41"/>
+      <c r="B320" s="36"/>
+      <c r="C320" s="36"/>
     </row>
     <row r="321" spans="2:3">
-      <c r="B321" s="41"/>
-      <c r="C321" s="41"/>
+      <c r="B321" s="36"/>
+      <c r="C321" s="36"/>
     </row>
     <row r="322" spans="2:3">
-      <c r="B322" s="41"/>
-      <c r="C322" s="41"/>
+      <c r="B322" s="36"/>
+      <c r="C322" s="36"/>
     </row>
     <row r="323" spans="2:3">
-      <c r="B323" s="41"/>
-      <c r="C323" s="41"/>
+      <c r="B323" s="36"/>
+      <c r="C323" s="36"/>
     </row>
     <row r="324" spans="2:3">
-      <c r="B324" s="41"/>
-      <c r="C324" s="41"/>
+      <c r="B324" s="36"/>
+      <c r="C324" s="36"/>
     </row>
     <row r="325" spans="2:3">
-      <c r="B325" s="41"/>
-      <c r="C325" s="41"/>
+      <c r="B325" s="36"/>
+      <c r="C325" s="36"/>
     </row>
     <row r="326" spans="2:3">
-      <c r="B326" s="41"/>
-      <c r="C326" s="41"/>
+      <c r="B326" s="36"/>
+      <c r="C326" s="36"/>
     </row>
     <row r="327" spans="2:3">
-      <c r="B327" s="41"/>
-      <c r="C327" s="41"/>
+      <c r="B327" s="36"/>
+      <c r="C327" s="36"/>
     </row>
     <row r="328" spans="2:3">
-      <c r="B328" s="41"/>
-      <c r="C328" s="41"/>
+      <c r="B328" s="36"/>
+      <c r="C328" s="36"/>
     </row>
     <row r="329" spans="2:3">
-      <c r="B329" s="41"/>
-      <c r="C329" s="41"/>
+      <c r="B329" s="36"/>
+      <c r="C329" s="36"/>
     </row>
     <row r="330" spans="2:3">
-      <c r="B330" s="41"/>
-      <c r="C330" s="41"/>
+      <c r="B330" s="36"/>
+      <c r="C330" s="36"/>
     </row>
     <row r="331" spans="2:3">
-      <c r="B331" s="41"/>
-      <c r="C331" s="41"/>
+      <c r="B331" s="36"/>
+      <c r="C331" s="36"/>
     </row>
     <row r="332" spans="2:3">
-      <c r="B332" s="41"/>
-      <c r="C332" s="41"/>
+      <c r="B332" s="36"/>
+      <c r="C332" s="36"/>
     </row>
     <row r="333" spans="2:3">
-      <c r="B333" s="41"/>
-      <c r="C333" s="41"/>
+      <c r="B333" s="36"/>
+      <c r="C333" s="36"/>
     </row>
     <row r="334" spans="2:3">
-      <c r="B334" s="41"/>
-      <c r="C334" s="41"/>
+      <c r="B334" s="36"/>
+      <c r="C334" s="36"/>
     </row>
     <row r="335" spans="2:3">
-      <c r="B335" s="41"/>
-      <c r="C335" s="41"/>
+      <c r="B335" s="36"/>
+      <c r="C335" s="36"/>
     </row>
     <row r="336" spans="2:3">
-      <c r="B336" s="41"/>
-      <c r="C336" s="41"/>
+      <c r="B336" s="36"/>
+      <c r="C336" s="36"/>
     </row>
     <row r="337" spans="2:3">
-      <c r="B337" s="41"/>
-      <c r="C337" s="41"/>
+      <c r="B337" s="36"/>
+      <c r="C337" s="36"/>
     </row>
     <row r="338" spans="2:3">
-      <c r="B338" s="41"/>
-      <c r="C338" s="41"/>
+      <c r="B338" s="36"/>
+      <c r="C338" s="36"/>
     </row>
     <row r="339" spans="2:3">
-      <c r="B339" s="41"/>
-      <c r="C339" s="41"/>
+      <c r="B339" s="36"/>
+      <c r="C339" s="36"/>
     </row>
     <row r="340" spans="2:3">
-      <c r="B340" s="41"/>
-      <c r="C340" s="41"/>
+      <c r="B340" s="36"/>
+      <c r="C340" s="36"/>
     </row>
     <row r="341" spans="2:3">
-      <c r="B341" s="41"/>
-      <c r="C341" s="41"/>
+      <c r="B341" s="36"/>
+      <c r="C341" s="36"/>
     </row>
     <row r="342" spans="2:3">
-      <c r="B342" s="41"/>
-      <c r="C342" s="41"/>
+      <c r="B342" s="36"/>
+      <c r="C342" s="36"/>
     </row>
     <row r="343" spans="2:3">
-      <c r="B343" s="41"/>
-      <c r="C343" s="41"/>
+      <c r="B343" s="36"/>
+      <c r="C343" s="36"/>
     </row>
     <row r="344" spans="2:3">
-      <c r="B344" s="41"/>
-      <c r="C344" s="41"/>
+      <c r="B344" s="36"/>
+      <c r="C344" s="36"/>
     </row>
     <row r="345" spans="2:3">
-      <c r="B345" s="41"/>
-      <c r="C345" s="41"/>
+      <c r="B345" s="36"/>
+      <c r="C345" s="36"/>
     </row>
     <row r="346" spans="2:3">
-      <c r="B346" s="41"/>
-      <c r="C346" s="41"/>
+      <c r="B346" s="36"/>
+      <c r="C346" s="36"/>
     </row>
     <row r="347" spans="2:3">
-      <c r="B347" s="41"/>
-      <c r="C347" s="41"/>
+      <c r="B347" s="36"/>
+      <c r="C347" s="36"/>
     </row>
     <row r="348" spans="2:3">
-      <c r="B348" s="41"/>
-      <c r="C348" s="41"/>
+      <c r="B348" s="36"/>
+      <c r="C348" s="36"/>
     </row>
     <row r="349" spans="2:3">
-      <c r="B349" s="41"/>
-      <c r="C349" s="41"/>
+      <c r="B349" s="36"/>
+      <c r="C349" s="36"/>
     </row>
     <row r="350" spans="2:3">
-      <c r="B350" s="41"/>
-      <c r="C350" s="41"/>
+      <c r="B350" s="36"/>
+      <c r="C350" s="36"/>
     </row>
     <row r="351" spans="2:3">
-      <c r="B351" s="41"/>
-      <c r="C351" s="41"/>
+      <c r="B351" s="36"/>
+      <c r="C351" s="36"/>
     </row>
     <row r="352" spans="2:3">
-      <c r="B352" s="41"/>
-      <c r="C352" s="41"/>
+      <c r="B352" s="36"/>
+      <c r="C352" s="36"/>
     </row>
     <row r="353" spans="2:3">
-      <c r="B353" s="41"/>
-      <c r="C353" s="41"/>
+      <c r="B353" s="36"/>
+      <c r="C353" s="36"/>
     </row>
     <row r="354" spans="2:3">
-      <c r="B354" s="41"/>
-      <c r="C354" s="41"/>
+      <c r="B354" s="36"/>
+      <c r="C354" s="36"/>
     </row>
     <row r="355" spans="2:3">
-      <c r="B355" s="41"/>
-      <c r="C355" s="41"/>
+      <c r="B355" s="36"/>
+      <c r="C355" s="36"/>
     </row>
     <row r="356" spans="2:3">
-      <c r="B356" s="41"/>
-      <c r="C356" s="41"/>
+      <c r="B356" s="36"/>
+      <c r="C356" s="36"/>
     </row>
     <row r="357" spans="2:3">
-      <c r="B357" s="41"/>
-      <c r="C357" s="41"/>
+      <c r="B357" s="36"/>
+      <c r="C357" s="36"/>
     </row>
     <row r="358" spans="2:3">
-      <c r="B358" s="41"/>
-      <c r="C358" s="41"/>
+      <c r="B358" s="36"/>
+      <c r="C358" s="36"/>
     </row>
     <row r="359" spans="2:3">
-      <c r="B359" s="41"/>
-      <c r="C359" s="41"/>
+      <c r="B359" s="36"/>
+      <c r="C359" s="36"/>
     </row>
     <row r="360" spans="2:3">
-      <c r="B360" s="41"/>
-      <c r="C360" s="41"/>
+      <c r="B360" s="36"/>
+      <c r="C360" s="36"/>
     </row>
     <row r="361" spans="2:3">
-      <c r="B361" s="41"/>
-      <c r="C361" s="41"/>
+      <c r="B361" s="36"/>
+      <c r="C361" s="36"/>
     </row>
     <row r="362" spans="2:3">
-      <c r="B362" s="41"/>
-      <c r="C362" s="41"/>
+      <c r="B362" s="36"/>
+      <c r="C362" s="36"/>
     </row>
     <row r="363" spans="2:3">
-      <c r="B363" s="41"/>
-      <c r="C363" s="41"/>
+      <c r="B363" s="36"/>
+      <c r="C363" s="36"/>
     </row>
     <row r="364" spans="2:3">
-      <c r="B364" s="41"/>
-      <c r="C364" s="41"/>
+      <c r="B364" s="36"/>
+      <c r="C364" s="36"/>
     </row>
     <row r="365" spans="2:3">
-      <c r="B365" s="41"/>
-      <c r="C365" s="41"/>
+      <c r="B365" s="36"/>
+      <c r="C365" s="36"/>
     </row>
     <row r="366" spans="2:3">
-      <c r="B366" s="41"/>
-      <c r="C366" s="41"/>
+      <c r="B366" s="36"/>
+      <c r="C366" s="36"/>
     </row>
     <row r="367" spans="2:3">
-      <c r="B367" s="41"/>
-      <c r="C367" s="41"/>
+      <c r="B367" s="36"/>
+      <c r="C367" s="36"/>
     </row>
     <row r="368" spans="2:3">
-      <c r="B368" s="41"/>
-      <c r="C368" s="41"/>
+      <c r="B368" s="36"/>
+      <c r="C368" s="36"/>
     </row>
     <row r="369" spans="2:3">
-      <c r="B369" s="41"/>
-      <c r="C369" s="41"/>
+      <c r="B369" s="36"/>
+      <c r="C369" s="36"/>
     </row>
     <row r="370" spans="2:3">
-      <c r="B370" s="41"/>
-      <c r="C370" s="41"/>
+      <c r="B370" s="36"/>
+      <c r="C370" s="36"/>
     </row>
     <row r="371" spans="2:3">
-      <c r="B371" s="41"/>
-      <c r="C371" s="41"/>
+      <c r="B371" s="36"/>
+      <c r="C371" s="36"/>
     </row>
     <row r="372" spans="2:3">
-      <c r="B372" s="41"/>
-      <c r="C372" s="41"/>
+      <c r="B372" s="36"/>
+      <c r="C372" s="36"/>
     </row>
     <row r="373" spans="2:3">
-      <c r="B373" s="41"/>
-      <c r="C373" s="41"/>
+      <c r="B373" s="36"/>
+      <c r="C373" s="36"/>
     </row>
     <row r="374" spans="2:3">
-      <c r="B374" s="41"/>
-      <c r="C374" s="41"/>
+      <c r="B374" s="36"/>
+      <c r="C374" s="36"/>
     </row>
     <row r="375" spans="2:3">
-      <c r="B375" s="41"/>
-      <c r="C375" s="41"/>
+      <c r="B375" s="36"/>
+      <c r="C375" s="36"/>
     </row>
     <row r="376" spans="2:3">
-      <c r="B376" s="41"/>
-      <c r="C376" s="41"/>
+      <c r="B376" s="36"/>
+      <c r="C376" s="36"/>
     </row>
     <row r="377" spans="2:3">
-      <c r="B377" s="41"/>
-      <c r="C377" s="41"/>
+      <c r="B377" s="36"/>
+      <c r="C377" s="36"/>
     </row>
     <row r="378" spans="2:3">
-      <c r="B378" s="41"/>
-      <c r="C378" s="41"/>
+      <c r="B378" s="36"/>
+      <c r="C378" s="36"/>
     </row>
     <row r="379" spans="2:3">
-      <c r="B379" s="41"/>
-      <c r="C379" s="41"/>
+      <c r="B379" s="36"/>
+      <c r="C379" s="36"/>
     </row>
     <row r="380" spans="2:3">
-      <c r="B380" s="41"/>
-      <c r="C380" s="41"/>
+      <c r="B380" s="36"/>
+      <c r="C380" s="36"/>
     </row>
     <row r="381" spans="2:3">
-      <c r="B381" s="41"/>
-      <c r="C381" s="41"/>
+      <c r="B381" s="36"/>
+      <c r="C381" s="36"/>
     </row>
     <row r="382" spans="2:3">
-      <c r="B382" s="41"/>
-      <c r="C382" s="41"/>
+      <c r="B382" s="36"/>
+      <c r="C382" s="36"/>
     </row>
     <row r="383" spans="2:3">
-      <c r="B383" s="41"/>
-      <c r="C383" s="41"/>
+      <c r="B383" s="36"/>
+      <c r="C383" s="36"/>
     </row>
     <row r="384" spans="2:3">
-      <c r="B384" s="41"/>
-      <c r="C384" s="41"/>
+      <c r="B384" s="36"/>
+      <c r="C384" s="36"/>
     </row>
     <row r="385" spans="2:3">
-      <c r="B385" s="41"/>
-      <c r="C385" s="41"/>
+      <c r="B385" s="36"/>
+      <c r="C385" s="36"/>
     </row>
     <row r="386" spans="2:3">
-      <c r="B386" s="41"/>
-      <c r="C386" s="41"/>
+      <c r="B386" s="36"/>
+      <c r="C386" s="36"/>
     </row>
     <row r="387" spans="2:3">
-      <c r="B387" s="41"/>
-      <c r="C387" s="41"/>
+      <c r="B387" s="36"/>
+      <c r="C387" s="36"/>
     </row>
     <row r="388" spans="2:3">
-      <c r="B388" s="41"/>
-      <c r="C388" s="41"/>
+      <c r="B388" s="36"/>
+      <c r="C388" s="36"/>
     </row>
     <row r="389" spans="2:3">
-      <c r="B389" s="41"/>
-      <c r="C389" s="41"/>
+      <c r="B389" s="36"/>
+      <c r="C389" s="36"/>
     </row>
     <row r="390" spans="2:3">
-      <c r="B390" s="41"/>
-      <c r="C390" s="41"/>
+      <c r="B390" s="36"/>
+      <c r="C390" s="36"/>
     </row>
     <row r="391" spans="2:3">
-      <c r="B391" s="41"/>
-      <c r="C391" s="41"/>
+      <c r="B391" s="36"/>
+      <c r="C391" s="36"/>
     </row>
     <row r="392" spans="2:3">
-      <c r="B392" s="41"/>
-      <c r="C392" s="41"/>
+      <c r="B392" s="36"/>
+      <c r="C392" s="36"/>
     </row>
     <row r="393" spans="2:3">
-      <c r="B393" s="41"/>
-      <c r="C393" s="41"/>
+      <c r="B393" s="36"/>
+      <c r="C393" s="36"/>
     </row>
     <row r="394" spans="2:3">
-      <c r="B394" s="41"/>
-      <c r="C394" s="41"/>
+      <c r="B394" s="36"/>
+      <c r="C394" s="36"/>
     </row>
     <row r="395" spans="2:3">
-      <c r="B395" s="41"/>
-      <c r="C395" s="41"/>
+      <c r="B395" s="36"/>
+      <c r="C395" s="36"/>
     </row>
     <row r="396" spans="2:3">
-      <c r="B396" s="41"/>
-      <c r="C396" s="41"/>
+      <c r="B396" s="36"/>
+      <c r="C396" s="36"/>
     </row>
     <row r="397" spans="2:3">
-      <c r="B397" s="41"/>
-      <c r="C397" s="41"/>
+      <c r="B397" s="36"/>
+      <c r="C397" s="36"/>
     </row>
     <row r="398" spans="2:3">
-      <c r="B398" s="41"/>
-      <c r="C398" s="41"/>
+      <c r="B398" s="36"/>
+      <c r="C398" s="36"/>
     </row>
     <row r="399" spans="2:3">
-      <c r="B399" s="41"/>
-      <c r="C399" s="41"/>
+      <c r="B399" s="36"/>
+      <c r="C399" s="36"/>
     </row>
     <row r="400" spans="2:3">
-      <c r="B400" s="41"/>
-      <c r="C400" s="41"/>
+      <c r="B400" s="36"/>
+      <c r="C400" s="36"/>
     </row>
     <row r="401" spans="2:3">
-      <c r="B401" s="41"/>
-      <c r="C401" s="41"/>
+      <c r="B401" s="36"/>
+      <c r="C401" s="36"/>
     </row>
     <row r="402" spans="2:3">
-      <c r="B402" s="41"/>
-      <c r="C402" s="41"/>
+      <c r="B402" s="36"/>
+      <c r="C402" s="36"/>
     </row>
     <row r="403" spans="2:3">
-      <c r="B403" s="41"/>
-      <c r="C403" s="41"/>
+      <c r="B403" s="36"/>
+      <c r="C403" s="36"/>
     </row>
     <row r="404" spans="2:3">
-      <c r="B404" s="41"/>
-      <c r="C404" s="41"/>
+      <c r="B404" s="36"/>
+      <c r="C404" s="36"/>
     </row>
     <row r="405" spans="2:3">
-      <c r="B405" s="41"/>
-      <c r="C405" s="41"/>
+      <c r="B405" s="36"/>
+      <c r="C405" s="36"/>
     </row>
     <row r="406" spans="2:3">
-      <c r="B406" s="41"/>
-      <c r="C406" s="41"/>
+      <c r="B406" s="36"/>
+      <c r="C406" s="36"/>
     </row>
     <row r="407" spans="2:3">
-      <c r="B407" s="41"/>
-      <c r="C407" s="41"/>
+      <c r="B407" s="36"/>
+      <c r="C407" s="36"/>
     </row>
     <row r="408" spans="2:3">
-      <c r="B408" s="41"/>
-      <c r="C408" s="41"/>
+      <c r="B408" s="36"/>
+      <c r="C408" s="36"/>
     </row>
     <row r="409" spans="2:3">
-      <c r="B409" s="41"/>
-      <c r="C409" s="41"/>
+      <c r="B409" s="36"/>
+      <c r="C409" s="36"/>
     </row>
     <row r="410" spans="2:3">
-      <c r="B410" s="41"/>
-      <c r="C410" s="41"/>
+      <c r="B410" s="36"/>
+      <c r="C410" s="36"/>
     </row>
     <row r="411" spans="2:3">
-      <c r="B411" s="41"/>
-      <c r="C411" s="41"/>
+      <c r="B411" s="36"/>
+      <c r="C411" s="36"/>
     </row>
     <row r="412" spans="2:3">
-      <c r="B412" s="41"/>
-      <c r="C412" s="41"/>
+      <c r="B412" s="36"/>
+      <c r="C412" s="36"/>
     </row>
     <row r="413" spans="2:3">
-      <c r="B413" s="41"/>
-      <c r="C413" s="41"/>
+      <c r="B413" s="36"/>
+      <c r="C413" s="36"/>
     </row>
     <row r="414" spans="2:3">
-      <c r="B414" s="41"/>
-      <c r="C414" s="41"/>
+      <c r="B414" s="36"/>
+      <c r="C414" s="36"/>
     </row>
     <row r="415" spans="2:3">
-      <c r="B415" s="41"/>
-      <c r="C415" s="41"/>
+      <c r="B415" s="36"/>
+      <c r="C415" s="36"/>
     </row>
     <row r="416" spans="2:3">
-      <c r="B416" s="41"/>
-      <c r="C416" s="41"/>
+      <c r="B416" s="36"/>
+      <c r="C416" s="36"/>
     </row>
     <row r="417" spans="2:3">
-      <c r="B417" s="41"/>
-      <c r="C417" s="41"/>
+      <c r="B417" s="36"/>
+      <c r="C417" s="36"/>
     </row>
     <row r="418" spans="2:3">
-      <c r="B418" s="41"/>
-      <c r="C418" s="41"/>
+      <c r="B418" s="36"/>
+      <c r="C418" s="36"/>
     </row>
     <row r="419" spans="2:3">
-      <c r="B419" s="41"/>
-      <c r="C419" s="41"/>
+      <c r="B419" s="36"/>
+      <c r="C419" s="36"/>
     </row>
     <row r="420" spans="2:3">
-      <c r="B420" s="41"/>
-      <c r="C420" s="41"/>
+      <c r="B420" s="36"/>
+      <c r="C420" s="36"/>
     </row>
     <row r="421" spans="2:3">
-      <c r="B421" s="41"/>
-      <c r="C421" s="41"/>
+      <c r="B421" s="36"/>
+      <c r="C421" s="36"/>
     </row>
     <row r="422" spans="2:3">
-      <c r="B422" s="41"/>
-      <c r="C422" s="41"/>
+      <c r="B422" s="36"/>
+      <c r="C422" s="36"/>
     </row>
     <row r="423" spans="2:3">
-      <c r="B423" s="41"/>
-      <c r="C423" s="41"/>
+      <c r="B423" s="36"/>
+      <c r="C423" s="36"/>
     </row>
     <row r="424" spans="2:3">
-      <c r="B424" s="41"/>
-      <c r="C424" s="41"/>
+      <c r="B424" s="36"/>
+      <c r="C424" s="36"/>
     </row>
     <row r="425" spans="2:3">
-      <c r="B425" s="41"/>
-      <c r="C425" s="41"/>
+      <c r="B425" s="36"/>
+      <c r="C425" s="36"/>
     </row>
     <row r="426" spans="2:3">
-      <c r="B426" s="41"/>
-      <c r="C426" s="41"/>
+      <c r="B426" s="36"/>
+      <c r="C426" s="36"/>
     </row>
     <row r="427" spans="2:3">
-      <c r="B427" s="41"/>
-      <c r="C427" s="41"/>
+      <c r="B427" s="36"/>
+      <c r="C427" s="36"/>
     </row>
     <row r="428" spans="2:3">
-      <c r="B428" s="41"/>
-      <c r="C428" s="41"/>
+      <c r="B428" s="36"/>
+      <c r="C428" s="36"/>
     </row>
     <row r="429" spans="2:3">
-      <c r="B429" s="41"/>
-      <c r="C429" s="41"/>
+      <c r="B429" s="36"/>
+      <c r="C429" s="36"/>
     </row>
     <row r="430" spans="2:3">
-      <c r="B430" s="41"/>
-      <c r="C430" s="41"/>
+      <c r="B430" s="36"/>
+      <c r="C430" s="36"/>
     </row>
     <row r="431" spans="2:3">
-      <c r="B431" s="41"/>
-      <c r="C431" s="41"/>
+      <c r="B431" s="36"/>
+      <c r="C431" s="36"/>
     </row>
     <row r="432" spans="2:3">
-      <c r="B432" s="41"/>
-      <c r="C432" s="41"/>
+      <c r="B432" s="36"/>
+      <c r="C432" s="36"/>
     </row>
     <row r="433" spans="2:3">
-      <c r="B433" s="41"/>
-      <c r="C433" s="41"/>
+      <c r="B433" s="36"/>
+      <c r="C433" s="36"/>
     </row>
     <row r="434" spans="2:3">
-      <c r="B434" s="41"/>
-      <c r="C434" s="41"/>
+      <c r="B434" s="36"/>
+      <c r="C434" s="36"/>
     </row>
     <row r="435" spans="2:3">
-      <c r="B435" s="41"/>
-      <c r="C435" s="41"/>
+      <c r="B435" s="36"/>
+      <c r="C435" s="36"/>
     </row>
     <row r="436" spans="2:3">
-      <c r="B436" s="41"/>
-      <c r="C436" s="41"/>
+      <c r="B436" s="36"/>
+      <c r="C436" s="36"/>
     </row>
     <row r="437" spans="2:3">
-      <c r="B437" s="41"/>
-      <c r="C437" s="41"/>
+      <c r="B437" s="36"/>
+      <c r="C437" s="36"/>
     </row>
     <row r="438" spans="2:3">
-      <c r="B438" s="41"/>
-      <c r="C438" s="41"/>
+      <c r="B438" s="36"/>
+      <c r="C438" s="36"/>
     </row>
     <row r="439" spans="2:3">
-      <c r="B439" s="41"/>
-      <c r="C439" s="41"/>
+      <c r="B439" s="36"/>
+      <c r="C439" s="36"/>
     </row>
     <row r="440" spans="2:3">
-      <c r="B440" s="41"/>
-      <c r="C440" s="41"/>
+      <c r="B440" s="36"/>
+      <c r="C440" s="36"/>
     </row>
     <row r="441" spans="2:3">
-      <c r="B441" s="41"/>
-      <c r="C441" s="41"/>
+      <c r="B441" s="36"/>
+      <c r="C441" s="36"/>
     </row>
     <row r="442" spans="2:3">
-      <c r="B442" s="41"/>
-      <c r="C442" s="41"/>
+      <c r="B442" s="36"/>
+      <c r="C442" s="36"/>
     </row>
     <row r="443" spans="2:3">
-      <c r="B443" s="41"/>
-      <c r="C443" s="41"/>
+      <c r="B443" s="36"/>
+      <c r="C443" s="36"/>
     </row>
     <row r="444" spans="2:3">
-      <c r="B444" s="41"/>
-      <c r="C444" s="41"/>
+      <c r="B444" s="36"/>
+      <c r="C444" s="36"/>
     </row>
     <row r="445" spans="2:3">
-      <c r="B445" s="41"/>
-      <c r="C445" s="41"/>
+      <c r="B445" s="36"/>
+      <c r="C445" s="36"/>
     </row>
     <row r="446" spans="2:3">
-      <c r="B446" s="41"/>
-      <c r="C446" s="41"/>
+      <c r="B446" s="36"/>
+      <c r="C446" s="36"/>
     </row>
     <row r="447" spans="2:3">
-      <c r="B447" s="41"/>
-      <c r="C447" s="41"/>
+      <c r="B447" s="36"/>
+      <c r="C447" s="36"/>
     </row>
     <row r="448" spans="2:3">
-      <c r="B448" s="41"/>
-      <c r="C448" s="41"/>
+      <c r="B448" s="36"/>
+      <c r="C448" s="36"/>
     </row>
     <row r="449" spans="2:3">
-      <c r="B449" s="41"/>
-      <c r="C449" s="41"/>
+      <c r="B449" s="36"/>
+      <c r="C449" s="36"/>
     </row>
     <row r="450" spans="2:3">
-      <c r="B450" s="41"/>
-      <c r="C450" s="41"/>
+      <c r="B450" s="36"/>
+      <c r="C450" s="36"/>
     </row>
     <row r="451" spans="2:3">
-      <c r="B451" s="41"/>
-      <c r="C451" s="41"/>
+      <c r="B451" s="36"/>
+      <c r="C451" s="36"/>
     </row>
     <row r="452" spans="2:3">
-      <c r="B452" s="41"/>
-      <c r="C452" s="41"/>
+      <c r="B452" s="36"/>
+      <c r="C452" s="36"/>
     </row>
     <row r="453" spans="2:3">
-      <c r="B453" s="41"/>
-      <c r="C453" s="41"/>
+      <c r="B453" s="36"/>
+      <c r="C453" s="36"/>
     </row>
     <row r="454" spans="2:3">
-      <c r="B454" s="41"/>
-      <c r="C454" s="41"/>
+      <c r="B454" s="36"/>
+      <c r="C454" s="36"/>
     </row>
     <row r="455" spans="2:3">
-      <c r="B455" s="41"/>
-      <c r="C455" s="41"/>
+      <c r="B455" s="36"/>
+      <c r="C455" s="36"/>
     </row>
     <row r="456" spans="2:3">
-      <c r="B456" s="41"/>
-      <c r="C456" s="41"/>
+      <c r="B456" s="36"/>
+      <c r="C456" s="36"/>
     </row>
     <row r="457" spans="2:3">
-      <c r="B457" s="41"/>
-      <c r="C457" s="41"/>
+      <c r="B457" s="36"/>
+      <c r="C457" s="36"/>
     </row>
     <row r="458" spans="2:3">
-      <c r="B458" s="41"/>
-      <c r="C458" s="41"/>
+      <c r="B458" s="36"/>
+      <c r="C458" s="36"/>
     </row>
     <row r="459" spans="2:3">
-      <c r="B459" s="41"/>
-      <c r="C459" s="41"/>
+      <c r="B459" s="36"/>
+      <c r="C459" s="36"/>
     </row>
     <row r="460" spans="2:3">
-      <c r="B460" s="41"/>
-      <c r="C460" s="41"/>
+      <c r="B460" s="36"/>
+      <c r="C460" s="36"/>
     </row>
     <row r="461" spans="2:3">
-      <c r="B461" s="41"/>
-      <c r="C461" s="41"/>
+      <c r="B461" s="36"/>
+      <c r="C461" s="36"/>
     </row>
     <row r="462" spans="2:3">
-      <c r="B462" s="41"/>
-      <c r="C462" s="41"/>
+      <c r="B462" s="36"/>
+      <c r="C462" s="36"/>
     </row>
     <row r="463" spans="2:3">
-      <c r="B463" s="41"/>
-      <c r="C463" s="41"/>
+      <c r="B463" s="36"/>
+      <c r="C463" s="36"/>
     </row>
     <row r="464" spans="2:3">
-      <c r="B464" s="41"/>
-      <c r="C464" s="41"/>
+      <c r="B464" s="36"/>
+      <c r="C464" s="36"/>
     </row>
     <row r="465" spans="2:3">
-      <c r="B465" s="41"/>
-      <c r="C465" s="41"/>
+      <c r="B465" s="36"/>
+      <c r="C465" s="36"/>
     </row>
     <row r="466" spans="2:3">
-      <c r="B466" s="41"/>
-      <c r="C466" s="41"/>
+      <c r="B466" s="36"/>
+      <c r="C466" s="36"/>
     </row>
     <row r="467" spans="2:3">
-      <c r="B467" s="41"/>
-      <c r="C467" s="41"/>
+      <c r="B467" s="36"/>
+      <c r="C467" s="36"/>
     </row>
     <row r="468" spans="2:3">
-      <c r="B468" s="41"/>
-      <c r="C468" s="41"/>
+      <c r="B468" s="36"/>
+      <c r="C468" s="36"/>
     </row>
     <row r="469" spans="2:3">
-      <c r="B469" s="41"/>
-      <c r="C469" s="41"/>
+      <c r="B469" s="36"/>
+      <c r="C469" s="36"/>
     </row>
     <row r="470" spans="2:3">
-      <c r="B470" s="41"/>
-      <c r="C470" s="41"/>
+      <c r="B470" s="36"/>
+      <c r="C470" s="36"/>
     </row>
     <row r="471" spans="2:3">
-      <c r="B471" s="41"/>
-      <c r="C471" s="41"/>
+      <c r="B471" s="36"/>
+      <c r="C471" s="36"/>
     </row>
     <row r="472" spans="2:3">
-      <c r="B472" s="41"/>
-      <c r="C472" s="41"/>
+      <c r="B472" s="36"/>
+      <c r="C472" s="36"/>
     </row>
     <row r="473" spans="2:3">
-      <c r="B473" s="41"/>
-      <c r="C473" s="41"/>
+      <c r="B473" s="36"/>
+      <c r="C473" s="36"/>
     </row>
     <row r="474" spans="2:3">
-      <c r="B474" s="41"/>
-      <c r="C474" s="41"/>
+      <c r="B474" s="36"/>
+      <c r="C474" s="36"/>
     </row>
     <row r="475" spans="2:3">
-      <c r="B475" s="41"/>
-      <c r="C475" s="41"/>
+      <c r="B475" s="36"/>
+      <c r="C475" s="36"/>
     </row>
     <row r="476" spans="2:3">
-      <c r="B476" s="41"/>
-      <c r="C476" s="41"/>
+      <c r="B476" s="36"/>
+      <c r="C476" s="36"/>
     </row>
     <row r="477" spans="2:3">
-      <c r="B477" s="41"/>
-      <c r="C477" s="41"/>
+      <c r="B477" s="36"/>
+      <c r="C477" s="36"/>
     </row>
     <row r="478" spans="2:3">
-      <c r="B478" s="41"/>
-      <c r="C478" s="41"/>
+      <c r="B478" s="36"/>
+      <c r="C478" s="36"/>
     </row>
     <row r="479" spans="2:3">
-      <c r="B479" s="41"/>
-      <c r="C479" s="41"/>
+      <c r="B479" s="36"/>
+      <c r="C479" s="36"/>
     </row>
     <row r="480" spans="2:3">
-      <c r="B480" s="41"/>
-      <c r="C480" s="41"/>
+      <c r="B480" s="36"/>
+      <c r="C480" s="36"/>
     </row>
     <row r="481" spans="2:3">
-      <c r="B481" s="41"/>
-      <c r="C481" s="41"/>
+      <c r="B481" s="36"/>
+      <c r="C481" s="36"/>
     </row>
     <row r="482" spans="2:3">
-      <c r="B482" s="41"/>
-      <c r="C482" s="41"/>
+      <c r="B482" s="36"/>
+      <c r="C482" s="36"/>
     </row>
     <row r="483" spans="2:3">
-      <c r="B483" s="41"/>
-      <c r="C483" s="41"/>
+      <c r="B483" s="36"/>
+      <c r="C483" s="36"/>
     </row>
     <row r="484" spans="2:3">
-      <c r="B484" s="41"/>
-      <c r="C484" s="41"/>
+      <c r="B484" s="36"/>
+      <c r="C484" s="36"/>
     </row>
     <row r="485" spans="2:3">
-      <c r="B485" s="41"/>
-      <c r="C485" s="41"/>
+      <c r="B485" s="36"/>
+      <c r="C485" s="36"/>
     </row>
     <row r="486" spans="2:3">
-      <c r="B486" s="41"/>
-      <c r="C486" s="41"/>
+      <c r="B486" s="36"/>
+      <c r="C486" s="36"/>
     </row>
     <row r="487" spans="2:3">
-      <c r="B487" s="41"/>
-      <c r="C487" s="41"/>
+      <c r="B487" s="36"/>
+      <c r="C487" s="36"/>
     </row>
     <row r="488" spans="2:3">
-      <c r="B488" s="41"/>
-      <c r="C488" s="41"/>
+      <c r="B488" s="36"/>
+      <c r="C488" s="36"/>
     </row>
     <row r="489" spans="2:3">
-      <c r="B489" s="41"/>
-      <c r="C489" s="41"/>
+      <c r="B489" s="36"/>
+      <c r="C489" s="36"/>
     </row>
     <row r="490" spans="2:3">
-      <c r="B490" s="41"/>
-      <c r="C490" s="41"/>
+      <c r="B490" s="36"/>
+      <c r="C490" s="36"/>
     </row>
     <row r="491" spans="2:3">
-      <c r="B491" s="41"/>
-      <c r="C491" s="41"/>
+      <c r="B491" s="36"/>
+      <c r="C491" s="36"/>
     </row>
     <row r="492" spans="2:3">
-      <c r="B492" s="41"/>
-      <c r="C492" s="41"/>
+      <c r="B492" s="36"/>
+      <c r="C492" s="36"/>
     </row>
     <row r="493" spans="2:3">
-      <c r="B493" s="41"/>
-      <c r="C493" s="41"/>
+      <c r="B493" s="36"/>
+      <c r="C493" s="36"/>
     </row>
     <row r="494" spans="2:3">
-      <c r="B494" s="41"/>
-      <c r="C494" s="41"/>
+      <c r="B494" s="36"/>
+      <c r="C494" s="36"/>
     </row>
     <row r="495" spans="2:3">
-      <c r="B495" s="41"/>
-      <c r="C495" s="41"/>
+      <c r="B495" s="36"/>
+      <c r="C495" s="36"/>
     </row>
     <row r="496" spans="2:3">
-      <c r="B496" s="41"/>
-      <c r="C496" s="41"/>
+      <c r="B496" s="36"/>
+      <c r="C496" s="36"/>
     </row>
     <row r="497" spans="2:3">
-      <c r="B497" s="41"/>
-      <c r="C497" s="41"/>
+      <c r="B497" s="36"/>
+      <c r="C497" s="36"/>
     </row>
     <row r="498" spans="2:3">
-      <c r="B498" s="41"/>
-      <c r="C498" s="41"/>
+      <c r="B498" s="36"/>
+      <c r="C498" s="36"/>
     </row>
     <row r="499" spans="2:3">
-      <c r="B499" s="41"/>
-      <c r="C499" s="41"/>
+      <c r="B499" s="36"/>
+      <c r="C499" s="36"/>
     </row>
     <row r="500" spans="2:3">
-      <c r="B500" s="41"/>
-      <c r="C500" s="41"/>
+      <c r="B500" s="36"/>
+      <c r="C500" s="36"/>
     </row>
     <row r="501" spans="2:3">
-      <c r="B501" s="41"/>
-      <c r="C501" s="41"/>
+      <c r="B501" s="36"/>
+      <c r="C501" s="36"/>
     </row>
     <row r="502" spans="2:3">
-      <c r="B502" s="41"/>
-      <c r="C502" s="41"/>
+      <c r="B502" s="36"/>
+      <c r="C502" s="36"/>
     </row>
     <row r="503" spans="2:3">
-      <c r="B503" s="41"/>
-      <c r="C503" s="41"/>
+      <c r="B503" s="36"/>
+      <c r="C503" s="36"/>
     </row>
     <row r="504" spans="2:3">
-      <c r="B504" s="41"/>
-      <c r="C504" s="41"/>
+      <c r="B504" s="36"/>
+      <c r="C504" s="36"/>
     </row>
     <row r="505" spans="2:3">
-      <c r="B505" s="41"/>
-      <c r="C505" s="41"/>
+      <c r="B505" s="36"/>
+      <c r="C505" s="36"/>
     </row>
     <row r="506" spans="2:3">
-      <c r="B506" s="41"/>
-      <c r="C506" s="41"/>
+      <c r="B506" s="36"/>
+      <c r="C506" s="36"/>
     </row>
     <row r="507" spans="2:3">
-      <c r="B507" s="41"/>
-      <c r="C507" s="41"/>
+      <c r="B507" s="36"/>
+      <c r="C507" s="36"/>
     </row>
     <row r="508" spans="2:3">
-      <c r="B508" s="41"/>
-      <c r="C508" s="41"/>
+      <c r="B508" s="36"/>
+      <c r="C508" s="36"/>
     </row>
     <row r="509" spans="2:3">
-      <c r="C509" s="41"/>
+      <c r="B509" s="36"/>
+      <c r="C509" s="36"/>
+    </row>
+    <row r="510" spans="2:3">
+      <c r="B510" s="36"/>
+      <c r="C510" s="36"/>
+    </row>
+    <row r="511" spans="2:3">
+      <c r="B511" s="36"/>
+      <c r="C511" s="36"/>
+    </row>
+    <row r="512" spans="2:3">
+      <c r="B512" s="36"/>
+      <c r="C512" s="36"/>
+    </row>
+    <row r="513" spans="3:3">
+      <c r="C513" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="I97:J102"/>
-    <mergeCell ref="I104:J108"/>
-    <mergeCell ref="I110:J118"/>
-    <mergeCell ref="I63:J67"/>
-    <mergeCell ref="I69:J78"/>
-    <mergeCell ref="I51:J61"/>
-    <mergeCell ref="I80:J95"/>
-    <mergeCell ref="I44:J49"/>
-    <mergeCell ref="I3:J13"/>
-    <mergeCell ref="I15:J23"/>
-    <mergeCell ref="I25:J31"/>
-    <mergeCell ref="I33:J42"/>
+  <mergeCells count="16">
+    <mergeCell ref="H149:I158"/>
+    <mergeCell ref="H3:I13"/>
+    <mergeCell ref="H15:I23"/>
+    <mergeCell ref="H25:I31"/>
+    <mergeCell ref="H33:I42"/>
+    <mergeCell ref="H140:I147"/>
+    <mergeCell ref="H63:I67"/>
+    <mergeCell ref="H69:I78"/>
+    <mergeCell ref="H51:I61"/>
+    <mergeCell ref="H80:I95"/>
+    <mergeCell ref="H44:I49"/>
+    <mergeCell ref="H131:I138"/>
+    <mergeCell ref="H121:I129"/>
+    <mergeCell ref="H97:I102"/>
+    <mergeCell ref="H104:I108"/>
+    <mergeCell ref="H110:I119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/new_universe.xlsx
+++ b/new_universe.xlsx
@@ -1829,7 +1829,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N14" authorId="0">
+    <comment ref="M14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1856,7 +1856,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O14" authorId="0">
+    <comment ref="N14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2015,7 +2015,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M15" authorId="0">
+    <comment ref="L15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2042,7 +2042,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O15" authorId="0">
+    <comment ref="N15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2341,6 +2341,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="L18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+E</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="O18" authorId="0">
       <text>
         <r>
@@ -2663,32 +2689,6 @@
       </text>
     </comment>
     <comment ref="V20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -6149,7 +6149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="567">
   <si>
     <t>y\x</t>
   </si>
@@ -7688,6 +7688,9 @@
     <t>18,17</t>
   </si>
   <si>
+    <t>18,15</t>
+  </si>
+  <si>
     <t>18,16</t>
   </si>
   <si>
@@ -7731,6 +7734,147 @@
   </si>
   <si>
     <t>Ianamus Zura Cluster</t>
+  </si>
+  <si>
+    <t>3,9</t>
+  </si>
+  <si>
+    <t>19,15</t>
+  </si>
+  <si>
+    <t>4,9</t>
+  </si>
+  <si>
+    <t>19,16</t>
+  </si>
+  <si>
+    <t>8,13</t>
+  </si>
+  <si>
+    <t>19,17</t>
+  </si>
+  <si>
+    <t>9,13</t>
+  </si>
+  <si>
+    <t>20,17</t>
+  </si>
+  <si>
+    <t>10,13</t>
+  </si>
+  <si>
+    <t>19,18</t>
+  </si>
+  <si>
+    <t>9,14</t>
+  </si>
+  <si>
+    <t>20,18</t>
+  </si>
+  <si>
+    <t>10,14</t>
+  </si>
+  <si>
+    <t>Trinity Sanctum Cluster</t>
+  </si>
+  <si>
+    <t>Teladi Loss</t>
+  </si>
+  <si>
+    <t>Hunter's Island</t>
+  </si>
+  <si>
+    <t>0,8</t>
+  </si>
+  <si>
+    <t>8,14</t>
+  </si>
+  <si>
+    <t>0,9</t>
+  </si>
+  <si>
+    <t>0,10</t>
+  </si>
+  <si>
+    <t>8,15</t>
+  </si>
+  <si>
+    <t>Yaki Cluster</t>
+  </si>
+  <si>
+    <t>11,15</t>
+  </si>
+  <si>
+    <t>0,13</t>
+  </si>
+  <si>
+    <t>12,15</t>
+  </si>
+  <si>
+    <t>1,13</t>
+  </si>
+  <si>
+    <t>13,15</t>
+  </si>
+  <si>
+    <t>6,9</t>
+  </si>
+  <si>
+    <t>12,16</t>
+  </si>
+  <si>
+    <t>1,14</t>
+  </si>
+  <si>
+    <t>13,16</t>
+  </si>
+  <si>
+    <t>3,1</t>
+  </si>
+  <si>
+    <t>13,17</t>
+  </si>
+  <si>
+    <t>3,2</t>
+  </si>
+  <si>
+    <t>13,18</t>
+  </si>
+  <si>
+    <t>14,7</t>
+  </si>
+  <si>
+    <t>13,19</t>
+  </si>
+  <si>
+    <t>14,8</t>
+  </si>
+  <si>
+    <t>Depths of Silence Cluster</t>
+  </si>
+  <si>
+    <t>10,12</t>
+  </si>
+  <si>
+    <t>11,12</t>
+  </si>
+  <si>
+    <t>12,12</t>
+  </si>
+  <si>
+    <t>11,13</t>
+  </si>
+  <si>
+    <t>12,13</t>
+  </si>
+  <si>
+    <t>19,5</t>
+  </si>
+  <si>
+    <t>20,5</t>
+  </si>
+  <si>
+    <t>Zyarth's Dominion Cluster</t>
   </si>
 </sst>
 </file>
@@ -8078,7 +8222,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8174,6 +8318,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="8" applyFont="1">
@@ -8283,6 +8430,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="4">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="2" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="11" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="11" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="2" xfId="10" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="2" xfId="12" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="2" xfId="12">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="2" xfId="12" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8597,10 +8783,10 @@
   <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T21" sqref="T21"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="O14:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" thickTop="1" thickBottom="1"/>
@@ -8777,13 +8963,13 @@
       <c r="O4" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P4" s="40" t="s">
         <v>264</v>
       </c>
-      <c r="R4" s="38" t="s">
+      <c r="R4" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="S4" s="38" t="s">
+      <c r="S4" s="39" t="s">
         <v>193</v>
       </c>
       <c r="T4" s="25" t="s">
@@ -8833,13 +9019,13 @@
       <c r="O5" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="40" t="s">
         <v>154</v>
       </c>
       <c r="Q5" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="R5" s="38" t="s">
+      <c r="R5" s="39" t="s">
         <v>194</v>
       </c>
       <c r="S5" s="31" t="s">
@@ -8895,10 +9081,10 @@
       <c r="N6" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="O6" s="38" t="s">
+      <c r="O6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="38" t="s">
+      <c r="P6" s="39" t="s">
         <v>6</v>
       </c>
       <c r="Q6" s="20" t="s">
@@ -8966,10 +9152,10 @@
       <c r="N7" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="O7" s="38" t="s">
+      <c r="O7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="38" t="s">
+      <c r="P7" s="39" t="s">
         <v>13</v>
       </c>
       <c r="R7" s="21" t="s">
@@ -9025,10 +9211,10 @@
       <c r="N8" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="O8" s="38" t="s">
+      <c r="O8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="38" t="s">
+      <c r="P8" s="39" t="s">
         <v>20</v>
       </c>
       <c r="S8" s="25" t="s">
@@ -9284,7 +9470,7 @@
       <c r="G13" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="H13" s="38" t="s">
+      <c r="H13" s="39" t="s">
         <v>90</v>
       </c>
       <c r="I13" s="20" t="s">
@@ -9293,7 +9479,7 @@
       <c r="J13" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="K13" s="38" t="s">
+      <c r="K13" s="39" t="s">
         <v>170</v>
       </c>
       <c r="M13" s="21" t="s">
@@ -9343,34 +9529,37 @@
       <c r="D14" s="9" t="s">
         <v>205</v>
       </c>
+      <c r="E14" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="F14" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="H14" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I14" s="39" t="s">
         <v>93</v>
       </c>
       <c r="J14" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="38" t="s">
+      <c r="K14" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="L14" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="M14" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="N14" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="P14" s="35" t="s">
+      <c r="P14" s="36" t="s">
         <v>319</v>
       </c>
       <c r="Q14" s="17" t="s">
@@ -9414,7 +9603,7 @@
       <c r="F15" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="39" t="s">
         <v>107</v>
       </c>
       <c r="H15" s="20" t="s">
@@ -9423,31 +9612,31 @@
       <c r="I15" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="85" t="s">
         <v>56</v>
       </c>
       <c r="K15" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="L15" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="M15" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="N15" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="P15" s="35" t="s">
+      <c r="P15" s="36" t="s">
         <v>320</v>
       </c>
       <c r="Q15" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="R15" s="34" t="s">
+      <c r="R15" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="S15" s="34" t="s">
+      <c r="S15" s="25" t="s">
         <v>101</v>
       </c>
       <c r="T15" s="30" t="s">
@@ -9473,16 +9662,16 @@
       <c r="F16" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="39" t="s">
         <v>109</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J16" s="12" t="s">
+      <c r="I16" s="77" t="s">
+        <v>534</v>
+      </c>
+      <c r="J16" s="85" t="s">
         <v>57</v>
       </c>
       <c r="K16" s="17" t="s">
@@ -9491,22 +9680,19 @@
       <c r="L16" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="76" t="s">
         <v>321</v>
       </c>
-      <c r="N16" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="76" t="s">
         <v>321</v>
       </c>
       <c r="P16" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="R16" s="34" t="s">
+      <c r="R16" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="S16" s="34" t="s">
+      <c r="S16" s="25" t="s">
         <v>100</v>
       </c>
       <c r="U16" s="30" t="s">
@@ -9532,7 +9718,10 @@
       <c r="H17" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="I17" s="77" t="s">
+        <v>535</v>
+      </c>
+      <c r="J17" s="85" t="s">
         <v>58</v>
       </c>
       <c r="K17" s="17" t="s">
@@ -9541,30 +9730,31 @@
       <c r="L17" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="M17" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="N17" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="O17" s="9" t="s">
+      <c r="O17" s="26" t="s">
         <v>112</v>
       </c>
       <c r="Q17" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="R17" s="34" t="s">
+      <c r="R17" s="25" t="s">
         <v>104</v>
       </c>
       <c r="S17" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="T17" s="5" t="s">
+      <c r="T17" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="U17" s="5" t="s">
+      <c r="U17" s="33" t="s">
         <v>66</v>
       </c>
+      <c r="V17" s="75"/>
     </row>
     <row r="18" spans="1:22" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="A18" s="6">
@@ -9595,35 +9785,34 @@
         <v>67</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="N18" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="M18" s="74"/>
+      <c r="N18" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="O18" s="9" t="s">
+      <c r="O18" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="P18" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="Q18" s="34" t="s">
+      <c r="Q18" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="R18" s="7" t="s">
+      <c r="R18" s="40" t="s">
         <v>127</v>
       </c>
       <c r="S18" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="T18" s="10" t="s">
+      <c r="T18" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="U18" s="5" t="s">
+      <c r="U18" s="33" t="s">
         <v>131</v>
       </c>
+      <c r="V18" s="75"/>
     </row>
     <row r="19" spans="1:22" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="A19" s="6">
@@ -9647,10 +9836,16 @@
       <c r="K19" s="10" t="s">
         <v>68</v>
       </c>
+      <c r="L19" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>171</v>
+      </c>
       <c r="N19" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="O19" s="9" t="s">
+      <c r="O19" s="26" t="s">
         <v>18</v>
       </c>
       <c r="P19" s="18" t="s">
@@ -9659,19 +9854,19 @@
       <c r="Q19" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="R19" s="10" t="s">
+      <c r="R19" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="S19" s="10" t="s">
+      <c r="S19" s="39" t="s">
         <v>501</v>
       </c>
-      <c r="T19" s="10" t="s">
+      <c r="T19" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="U19" s="5" t="s">
+      <c r="U19" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="V19" s="5" t="s">
+      <c r="V19" s="33" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9703,7 +9898,7 @@
       <c r="N20" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="O20" s="25" t="s">
         <v>158</v>
       </c>
       <c r="P20" s="18" t="s">
@@ -9712,19 +9907,19 @@
       <c r="Q20" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="R20" s="10" t="s">
+      <c r="R20" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="S20" s="10" t="s">
+      <c r="S20" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="T20" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="U20" s="5" t="s">
+      <c r="U20" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="V20" s="5" t="s">
+      <c r="V20" s="33" t="s">
         <v>137</v>
       </c>
     </row>
@@ -9741,22 +9936,19 @@
       <c r="K21" s="20" t="s">
         <v>486</v>
       </c>
-      <c r="L21" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="O21" s="8" t="s">
+      <c r="O21" s="25" t="s">
         <v>159</v>
       </c>
       <c r="Q21" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="R21" s="10" t="s">
+      <c r="R21" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="S21" s="10" t="s">
+      <c r="S21" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="T21" s="29" t="s">
         <v>98</v>
       </c>
     </row>
@@ -9767,7 +9959,7 @@
       </c>
       <c r="C23" s="6">
         <f>COUNTA(B2:Y21)</f>
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="42" customHeight="1" thickTop="1" thickBot="1">
@@ -9776,7 +9968,7 @@
       </c>
       <c r="C24" s="6">
         <f>COUNTBLANK(B2:Y21)</f>
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" ht="42" customHeight="1"/>
@@ -9793,10 +9985,10 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" thickTop="1" thickBottom="1"/>
@@ -10468,7 +10660,7 @@
       <c r="G11" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="35" t="s">
         <v>112</v>
       </c>
       <c r="I11" s="9" t="s">
@@ -10830,8 +11022,8 @@
   <dimension ref="A1:I513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H149" sqref="H149:I158"/>
+      <pane ySplit="2" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10846,7 +11038,7 @@
     <row r="1" spans="1:9">
       <c r="A1">
         <f>COUNTA(D3:D605)</f>
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="B1">
         <v>324</v>
@@ -10856,7 +11048,7 @@
       </c>
       <c r="D1" s="27">
         <f>A1/B1</f>
-        <v>0.43518518518518517</v>
+        <v>0.5092592592592593</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1">
@@ -10886,10 +11078,10 @@
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="37">
         <v>1.3</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="37">
         <v>7.7</v>
       </c>
       <c r="D3" t="s">
@@ -10901,19 +11093,19 @@
       <c r="G3" t="s">
         <v>325</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="65" t="s">
         <v>329</v>
       </c>
-      <c r="I3" s="64"/>
+      <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="37">
         <v>0.3</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="37">
         <v>6.7</v>
       </c>
       <c r="D4" t="s">
@@ -10925,17 +11117,17 @@
       <c r="G4" t="s">
         <v>325</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="37">
         <v>0.2</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="37">
         <v>6.6</v>
       </c>
       <c r="D5" t="s">
@@ -10947,17 +11139,17 @@
       <c r="G5" t="s">
         <v>325</v>
       </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="37">
         <v>1.2</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="37">
         <v>7.6</v>
       </c>
       <c r="D6" t="s">
@@ -10969,17 +11161,17 @@
       <c r="G6" t="s">
         <v>325</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="37">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="37">
         <v>8.6</v>
       </c>
       <c r="D7" t="s">
@@ -10991,17 +11183,17 @@
       <c r="G7" t="s">
         <v>325</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
     </row>
     <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="37">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="37">
         <v>8.6999999999999993</v>
       </c>
       <c r="D8" t="s">
@@ -11013,17 +11205,17 @@
       <c r="G8" t="s">
         <v>325</v>
       </c>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="37">
         <v>12.6</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="37">
         <v>8.8000000000000007</v>
       </c>
       <c r="D9" t="s">
@@ -11035,17 +11227,17 @@
       <c r="G9" t="s">
         <v>325</v>
       </c>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
     </row>
     <row r="10" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="37">
         <v>18.7</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="37">
         <v>7.8</v>
       </c>
       <c r="D10" t="s">
@@ -11057,17 +11249,17 @@
       <c r="G10" t="s">
         <v>325</v>
       </c>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
     </row>
     <row r="11" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="37">
         <v>17.7</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="37">
         <v>6.8</v>
       </c>
       <c r="D11" t="s">
@@ -11079,17 +11271,17 @@
       <c r="G11" t="s">
         <v>325</v>
       </c>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" t="s">
         <v>160</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="37">
         <v>16.7</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="37">
         <v>5.8</v>
       </c>
       <c r="D12" t="s">
@@ -11101,17 +11293,17 @@
       <c r="G12" t="s">
         <v>325</v>
       </c>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
     </row>
     <row r="13" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" t="s">
         <v>161</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="37">
         <v>16.8</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="37">
         <v>5.9</v>
       </c>
       <c r="D13" t="s">
@@ -11123,21 +11315,21 @@
       <c r="G13" t="s">
         <v>325</v>
       </c>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
     </row>
     <row r="14" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
     </row>
     <row r="15" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="37">
         <v>8.9</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="37">
         <v>5.6</v>
       </c>
       <c r="D15" t="s">
@@ -11149,19 +11341,19 @@
       <c r="G15" t="s">
         <v>325</v>
       </c>
-      <c r="H15" s="54" t="s">
+      <c r="H15" s="55" t="s">
         <v>332</v>
       </c>
-      <c r="I15" s="54"/>
+      <c r="I15" s="55"/>
     </row>
     <row r="16" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" t="s">
         <v>181</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="37">
         <v>18.3</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="37">
         <v>5.7</v>
       </c>
       <c r="D16" t="s">
@@ -11173,17 +11365,17 @@
       <c r="G16" t="s">
         <v>325</v>
       </c>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
     </row>
     <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="37">
         <v>17.3</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="37">
         <v>4.7</v>
       </c>
       <c r="D17" t="s">
@@ -11195,17 +11387,17 @@
       <c r="G17" t="s">
         <v>325</v>
       </c>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
     </row>
     <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A18" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="37">
         <v>7.9</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="37">
         <v>4.5999999999999996</v>
       </c>
       <c r="D18" t="s">
@@ -11217,17 +11409,17 @@
       <c r="G18" t="s">
         <v>325</v>
       </c>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
     </row>
     <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" t="s">
         <v>183</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="37">
         <v>18.2</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="37">
         <v>3.7</v>
       </c>
       <c r="D19" t="s">
@@ -11239,17 +11431,17 @@
       <c r="G19" t="s">
         <v>325</v>
       </c>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
     </row>
     <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" t="s">
         <v>331</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="37">
         <v>18.100000000000001</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="37">
         <v>3.6</v>
       </c>
       <c r="D20" t="s">
@@ -11261,17 +11453,17 @@
       <c r="G20" t="s">
         <v>325</v>
       </c>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
     </row>
     <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="37">
         <v>5.8</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="37">
         <v>2.6</v>
       </c>
       <c r="D21" t="s">
@@ -11283,17 +11475,17 @@
       <c r="G21" t="s">
         <v>325</v>
       </c>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="37">
         <v>5.9</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="37">
         <v>2.7</v>
       </c>
       <c r="D22" t="s">
@@ -11305,17 +11497,17 @@
       <c r="G22" t="s">
         <v>325</v>
       </c>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
     </row>
     <row r="23" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="37">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="37">
         <v>2.8</v>
       </c>
       <c r="D23" t="s">
@@ -11327,21 +11519,21 @@
       <c r="G23" t="s">
         <v>325</v>
       </c>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
     </row>
     <row r="24" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
     </row>
     <row r="25" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="37">
         <v>5.12</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="37">
         <v>3.5</v>
       </c>
       <c r="D25" t="s">
@@ -11353,19 +11545,19 @@
       <c r="G25" t="s">
         <v>325</v>
       </c>
-      <c r="H25" s="41" t="s">
+      <c r="H25" s="42" t="s">
         <v>335</v>
       </c>
-      <c r="I25" s="41"/>
+      <c r="I25" s="42"/>
     </row>
     <row r="26" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="37">
         <v>4.12</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="37">
         <v>2.5</v>
       </c>
       <c r="D26" t="s">
@@ -11377,17 +11569,17 @@
       <c r="G26" t="s">
         <v>325</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
     </row>
     <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="37">
         <v>3.12</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="37">
         <v>1.5</v>
       </c>
       <c r="D27" t="s">
@@ -11399,17 +11591,17 @@
       <c r="G27" t="s">
         <v>325</v>
       </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
     </row>
     <row r="28" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B28" s="37">
         <v>4.1100000000000003</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="37">
         <v>2.4</v>
       </c>
       <c r="D28" t="s">
@@ -11421,17 +11613,17 @@
       <c r="G28" t="s">
         <v>325</v>
       </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
     </row>
     <row r="29" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" t="s">
         <v>175</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B29" s="37">
         <v>18.399999999999999</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="37">
         <v>2.2999999999999998</v>
       </c>
       <c r="D29" t="s">
@@ -11443,17 +11635,17 @@
       <c r="G29" t="s">
         <v>325</v>
       </c>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
     </row>
     <row r="30" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B30" s="37">
         <v>6.1</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="37">
         <v>1.3</v>
       </c>
       <c r="D30" t="s">
@@ -11465,17 +11657,17 @@
       <c r="G30" t="s">
         <v>325</v>
       </c>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
     </row>
     <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" t="s">
         <v>334</v>
       </c>
-      <c r="B31" s="36">
+      <c r="B31" s="37">
         <v>10.9</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="37">
         <v>1.4</v>
       </c>
       <c r="D31" t="s">
@@ -11487,21 +11679,21 @@
       <c r="G31" t="s">
         <v>325</v>
       </c>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
     </row>
     <row r="32" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" thickTop="1">
       <c r="A33" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="36">
+      <c r="B33" s="37">
         <v>3.5</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="37">
         <v>9.6</v>
       </c>
       <c r="D33" t="s">
@@ -11513,19 +11705,19 @@
       <c r="G33" t="s">
         <v>325</v>
       </c>
-      <c r="H33" s="65" t="s">
+      <c r="H33" s="66" t="s">
         <v>337</v>
       </c>
-      <c r="I33" s="65"/>
+      <c r="I33" s="66"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="36">
+      <c r="B34" s="37">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="37">
         <v>9.6999999999999993</v>
       </c>
       <c r="D34" t="s">
@@ -11537,17 +11729,17 @@
       <c r="G34" t="s">
         <v>325</v>
       </c>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="36">
+      <c r="B35" s="37">
         <v>4.5</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="37">
         <v>9.8000000000000007</v>
       </c>
       <c r="D35" t="s">
@@ -11559,17 +11751,17 @@
       <c r="G35" t="s">
         <v>325</v>
       </c>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>336</v>
       </c>
-      <c r="B36" s="36">
+      <c r="B36" s="37">
         <v>5.6</v>
       </c>
-      <c r="C36" s="36">
+      <c r="C36" s="37">
         <v>10.7</v>
       </c>
       <c r="D36" t="s">
@@ -11581,17 +11773,17 @@
       <c r="G36" t="s">
         <v>325</v>
       </c>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="36">
+      <c r="B37" s="37">
         <v>6.6</v>
       </c>
-      <c r="C37" s="36">
+      <c r="C37" s="37">
         <v>11.7</v>
       </c>
       <c r="D37" t="s">
@@ -11603,17 +11795,17 @@
       <c r="G37" t="s">
         <v>325</v>
       </c>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="36">
+      <c r="B38" s="37">
         <v>4.7</v>
       </c>
-      <c r="C38" s="36">
+      <c r="C38" s="37">
         <v>10.6</v>
       </c>
       <c r="D38" t="s">
@@ -11625,17 +11817,17 @@
       <c r="G38" t="s">
         <v>325</v>
       </c>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="36">
+      <c r="B39" s="37">
         <v>5.7</v>
       </c>
-      <c r="C39" s="36">
+      <c r="C39" s="37">
         <v>11.6</v>
       </c>
       <c r="D39" t="s">
@@ -11647,17 +11839,17 @@
       <c r="G39" t="s">
         <v>325</v>
       </c>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>338</v>
       </c>
-      <c r="B40" s="36">
+      <c r="B40" s="37">
         <v>3.3</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="37">
         <v>6.5</v>
       </c>
       <c r="D40" t="s">
@@ -11669,17 +11861,17 @@
       <c r="G40" t="s">
         <v>325</v>
       </c>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="36">
+      <c r="B41" s="37">
         <v>4.3</v>
       </c>
-      <c r="C41" s="36">
+      <c r="C41" s="37">
         <v>7.5</v>
       </c>
       <c r="D41" t="s">
@@ -11691,17 +11883,17 @@
       <c r="G41" t="s">
         <v>325</v>
       </c>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="36">
+      <c r="B42" s="37">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C42" s="36">
+      <c r="C42" s="37">
         <v>8.5</v>
       </c>
       <c r="D42" t="s">
@@ -11713,12 +11905,12 @@
       <c r="G42" t="s">
         <v>325</v>
       </c>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
     </row>
     <row r="43" spans="1:9" s="24" customFormat="1" ht="15" thickBot="1">
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
       <c r="H43" s="32"/>
       <c r="I43" s="32"/>
     </row>
@@ -11726,10 +11918,10 @@
       <c r="A44" t="s">
         <v>210</v>
       </c>
-      <c r="B44" s="36">
+      <c r="B44" s="37">
         <v>15.16</v>
       </c>
-      <c r="C44" s="36">
+      <c r="C44" s="37">
         <v>9.4</v>
       </c>
       <c r="D44" t="s">
@@ -11741,19 +11933,19 @@
       <c r="G44" t="s">
         <v>325</v>
       </c>
-      <c r="H44" s="41" t="s">
+      <c r="H44" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="I44" s="41"/>
+      <c r="I44" s="42"/>
     </row>
     <row r="45" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" t="s">
         <v>209</v>
       </c>
-      <c r="B45" s="36">
+      <c r="B45" s="37">
         <v>15.15</v>
       </c>
-      <c r="C45" s="36">
+      <c r="C45" s="37">
         <v>9.5</v>
       </c>
       <c r="D45" t="s">
@@ -11765,17 +11957,17 @@
       <c r="G45" t="s">
         <v>325</v>
       </c>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
     </row>
     <row r="46" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" t="s">
         <v>211</v>
       </c>
-      <c r="B46" s="36">
+      <c r="B46" s="37">
         <v>14.15</v>
       </c>
-      <c r="C46" s="36">
+      <c r="C46" s="37">
         <v>8.4</v>
       </c>
       <c r="D46" t="s">
@@ -11787,17 +11979,17 @@
       <c r="G46" t="s">
         <v>325</v>
       </c>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
     </row>
     <row r="47" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" t="s">
         <v>165</v>
       </c>
-      <c r="B47" s="36">
+      <c r="B47" s="37">
         <v>16.5</v>
       </c>
-      <c r="C47" s="36">
+      <c r="C47" s="37">
         <v>7.4</v>
       </c>
       <c r="D47" t="s">
@@ -11809,17 +12001,17 @@
       <c r="G47" t="s">
         <v>325</v>
       </c>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
     </row>
     <row r="48" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" t="s">
         <v>166</v>
       </c>
-      <c r="B48" s="36">
+      <c r="B48" s="37">
         <v>16.399999999999999</v>
       </c>
-      <c r="C48" s="36">
+      <c r="C48" s="37">
         <v>7.3</v>
       </c>
       <c r="D48" t="s">
@@ -11831,17 +12023,17 @@
       <c r="G48" t="s">
         <v>325</v>
       </c>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
     </row>
     <row r="49" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" t="s">
         <v>174</v>
       </c>
-      <c r="B49" s="36">
+      <c r="B49" s="37">
         <v>17.399999999999999</v>
       </c>
-      <c r="C49" s="36">
+      <c r="C49" s="37">
         <v>8.3000000000000007</v>
       </c>
       <c r="D49" t="s">
@@ -11853,21 +12045,21 @@
       <c r="G49" t="s">
         <v>325</v>
       </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
     </row>
     <row r="50" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
     </row>
     <row r="51" spans="1:9" ht="15" customHeight="1" thickTop="1">
       <c r="A51" t="s">
         <v>164</v>
       </c>
-      <c r="B51" s="36">
+      <c r="B51" s="37">
         <v>15.5</v>
       </c>
-      <c r="C51" s="36">
+      <c r="C51" s="37">
         <v>10.5</v>
       </c>
       <c r="D51" t="s">
@@ -11879,19 +12071,19 @@
       <c r="G51" t="s">
         <v>325</v>
       </c>
-      <c r="H51" s="42" t="s">
+      <c r="H51" s="43" t="s">
         <v>340</v>
       </c>
-      <c r="I51" s="43"/>
+      <c r="I51" s="44"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>144</v>
       </c>
-      <c r="B52" s="36">
+      <c r="B52" s="37">
         <v>7.16</v>
       </c>
-      <c r="C52" s="36">
+      <c r="C52" s="37">
         <v>10.4</v>
       </c>
       <c r="D52" t="s">
@@ -11903,17 +12095,17 @@
       <c r="G52" t="s">
         <v>325</v>
       </c>
-      <c r="H52" s="44"/>
-      <c r="I52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="46"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>140</v>
       </c>
-      <c r="B53" s="36">
+      <c r="B53" s="37">
         <v>7.15</v>
       </c>
-      <c r="C53" s="36">
+      <c r="C53" s="37">
         <v>11.4</v>
       </c>
       <c r="D53" t="s">
@@ -11925,17 +12117,17 @@
       <c r="G53" t="s">
         <v>325</v>
       </c>
-      <c r="H53" s="44"/>
-      <c r="I53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="46"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>141</v>
       </c>
-      <c r="B54" s="36">
+      <c r="B54" s="37">
         <v>8.15</v>
       </c>
-      <c r="C54" s="36">
+      <c r="C54" s="37">
         <v>12.4</v>
       </c>
       <c r="D54" t="s">
@@ -11947,17 +12139,17 @@
       <c r="G54" t="s">
         <v>325</v>
       </c>
-      <c r="H54" s="44"/>
-      <c r="I54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="46"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>45</v>
       </c>
-      <c r="B55" s="36">
+      <c r="B55" s="37">
         <v>0.6</v>
       </c>
-      <c r="C55" s="36">
+      <c r="C55" s="37">
         <v>11.3</v>
       </c>
       <c r="D55" t="s">
@@ -11969,17 +12161,17 @@
       <c r="G55" t="s">
         <v>325</v>
       </c>
-      <c r="H55" s="44"/>
-      <c r="I55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="46"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="36">
+      <c r="B56" s="37">
         <v>1.6</v>
       </c>
-      <c r="C56" s="36">
+      <c r="C56" s="37">
         <v>12.3</v>
       </c>
       <c r="D56" t="s">
@@ -11991,17 +12183,17 @@
       <c r="G56" t="s">
         <v>325</v>
       </c>
-      <c r="H56" s="44"/>
-      <c r="I56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="46"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="36">
+      <c r="B57" s="37">
         <v>2.6</v>
       </c>
-      <c r="C57" s="36">
+      <c r="C57" s="37">
         <v>13.3</v>
       </c>
       <c r="D57" t="s">
@@ -12013,17 +12205,17 @@
       <c r="G57" t="s">
         <v>325</v>
       </c>
-      <c r="H57" s="44"/>
-      <c r="I57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="46"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>134</v>
       </c>
-      <c r="B58" s="36">
+      <c r="B58" s="37">
         <v>7.14</v>
       </c>
-      <c r="C58" s="36">
+      <c r="C58" s="37">
         <v>11.2</v>
       </c>
       <c r="D58" t="s">
@@ -12035,17 +12227,17 @@
       <c r="G58" t="s">
         <v>325</v>
       </c>
-      <c r="H58" s="44"/>
-      <c r="I58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="46"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>135</v>
       </c>
-      <c r="B59" s="36">
+      <c r="B59" s="37">
         <v>8.14</v>
       </c>
-      <c r="C59" s="36">
+      <c r="C59" s="37">
         <v>12.2</v>
       </c>
       <c r="D59" t="s">
@@ -12057,17 +12249,17 @@
       <c r="G59" t="s">
         <v>325</v>
       </c>
-      <c r="H59" s="44"/>
-      <c r="I59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="46"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>139</v>
       </c>
-      <c r="B60" s="36">
+      <c r="B60" s="37">
         <v>12.14</v>
       </c>
-      <c r="C60" s="36">
+      <c r="C60" s="37">
         <v>13.2</v>
       </c>
       <c r="D60" t="s">
@@ -12079,17 +12271,17 @@
       <c r="G60" t="s">
         <v>325</v>
       </c>
-      <c r="H60" s="44"/>
-      <c r="I60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="46"/>
     </row>
     <row r="61" spans="1:9" ht="15" thickBot="1">
       <c r="A61" t="s">
         <v>374</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="C61" s="36" t="s">
+      <c r="C61" s="37" t="s">
         <v>375</v>
       </c>
       <c r="D61" t="s">
@@ -12098,21 +12290,21 @@
       <c r="E61" t="s">
         <v>325</v>
       </c>
-      <c r="H61" s="46"/>
-      <c r="I61" s="47"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="48"/>
     </row>
     <row r="62" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
     </row>
     <row r="63" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A63" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="37" t="s">
         <v>342</v>
       </c>
-      <c r="C63" s="36">
+      <c r="C63" s="37">
         <v>8.9</v>
       </c>
       <c r="D63" t="s">
@@ -12124,19 +12316,19 @@
       <c r="G63" t="s">
         <v>325</v>
       </c>
-      <c r="H63" s="54" t="s">
+      <c r="H63" s="55" t="s">
         <v>351</v>
       </c>
-      <c r="I63" s="54"/>
+      <c r="I63" s="55"/>
     </row>
     <row r="64" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="36" t="s">
+      <c r="B64" s="37" t="s">
         <v>343</v>
       </c>
-      <c r="C64" s="36" t="s">
+      <c r="C64" s="37" t="s">
         <v>344</v>
       </c>
       <c r="D64" t="s">
@@ -12148,17 +12340,17 @@
       <c r="G64" t="s">
         <v>325</v>
       </c>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="55"/>
     </row>
     <row r="65" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="C65" s="36" t="s">
+      <c r="C65" s="37" t="s">
         <v>345</v>
       </c>
       <c r="D65" t="s">
@@ -12170,17 +12362,17 @@
       <c r="G65" t="s">
         <v>325</v>
       </c>
-      <c r="H65" s="54"/>
-      <c r="I65" s="54"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="55"/>
     </row>
     <row r="66" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" t="s">
         <v>81</v>
       </c>
-      <c r="B66" s="36" t="s">
+      <c r="B66" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="37" t="s">
         <v>347</v>
       </c>
       <c r="D66" t="s">
@@ -12192,17 +12384,17 @@
       <c r="G66" t="s">
         <v>325</v>
       </c>
-      <c r="H66" s="54"/>
-      <c r="I66" s="54"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="55"/>
     </row>
     <row r="67" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" t="s">
         <v>82</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="37" t="s">
         <v>350</v>
       </c>
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="37" t="s">
         <v>349</v>
       </c>
       <c r="D67" t="s">
@@ -12214,21 +12406,21 @@
       <c r="G67" t="s">
         <v>325</v>
       </c>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
+      <c r="H67" s="55"/>
+      <c r="I67" s="55"/>
     </row>
     <row r="68" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B68" s="37"/>
-      <c r="C68" s="37"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
     </row>
     <row r="69" spans="1:9" ht="15" customHeight="1" thickTop="1">
       <c r="A69" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="37" t="s">
         <v>353</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="37" t="s">
         <v>352</v>
       </c>
       <c r="D69" t="s">
@@ -12240,19 +12432,19 @@
       <c r="G69" t="s">
         <v>325</v>
       </c>
-      <c r="H69" s="55" t="s">
+      <c r="H69" s="56" t="s">
         <v>364</v>
       </c>
-      <c r="I69" s="55"/>
+      <c r="I69" s="56"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="36" t="s">
+      <c r="B70" s="37" t="s">
         <v>355</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="37" t="s">
         <v>354</v>
       </c>
       <c r="D70" t="s">
@@ -12264,17 +12456,17 @@
       <c r="G70" t="s">
         <v>325</v>
       </c>
-      <c r="H70" s="56"/>
-      <c r="I70" s="56"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="57"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>91</v>
       </c>
-      <c r="B71" s="36" t="s">
+      <c r="B71" s="37" t="s">
         <v>357</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="37" t="s">
         <v>356</v>
       </c>
       <c r="D71" t="s">
@@ -12286,17 +12478,17 @@
       <c r="G71" t="s">
         <v>325</v>
       </c>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="57"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="36" t="s">
+      <c r="B72" s="37" t="s">
         <v>359</v>
       </c>
-      <c r="C72" s="36" t="s">
+      <c r="C72" s="37" t="s">
         <v>358</v>
       </c>
       <c r="D72" t="s">
@@ -12308,17 +12500,17 @@
       <c r="G72" t="s">
         <v>325</v>
       </c>
-      <c r="H72" s="56"/>
-      <c r="I72" s="56"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="57"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>107</v>
       </c>
-      <c r="B73" s="36" t="s">
+      <c r="B73" s="37" t="s">
         <v>361</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C73" s="37" t="s">
         <v>360</v>
       </c>
       <c r="D73" t="s">
@@ -12330,17 +12522,17 @@
       <c r="G73" t="s">
         <v>325</v>
       </c>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="57"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>109</v>
       </c>
-      <c r="B74" s="36" t="s">
+      <c r="B74" s="37" t="s">
         <v>363</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="37" t="s">
         <v>362</v>
       </c>
       <c r="D74" t="s">
@@ -12352,17 +12544,17 @@
       <c r="G74" t="s">
         <v>325</v>
       </c>
-      <c r="H74" s="56"/>
-      <c r="I74" s="56"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="57"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>237</v>
       </c>
-      <c r="B75" s="36" t="s">
+      <c r="B75" s="37" t="s">
         <v>366</v>
       </c>
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="37" t="s">
         <v>365</v>
       </c>
       <c r="D75" t="s">
@@ -12374,17 +12566,17 @@
       <c r="G75" t="s">
         <v>325</v>
       </c>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="57"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>55</v>
       </c>
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="37" t="s">
         <v>368</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="37" t="s">
         <v>367</v>
       </c>
       <c r="D76" t="s">
@@ -12396,17 +12588,17 @@
       <c r="G76" t="s">
         <v>325</v>
       </c>
-      <c r="H76" s="56"/>
-      <c r="I76" s="56"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="57"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>170</v>
       </c>
-      <c r="B77" s="36" t="s">
+      <c r="B77" s="37" t="s">
         <v>370</v>
       </c>
-      <c r="C77" s="36" t="s">
+      <c r="C77" s="37" t="s">
         <v>369</v>
       </c>
       <c r="D77" t="s">
@@ -12418,17 +12610,17 @@
       <c r="G77" t="s">
         <v>325</v>
       </c>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="57"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>94</v>
       </c>
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="C78" s="36" t="s">
+      <c r="C78" s="37" t="s">
         <v>371</v>
       </c>
       <c r="D78" t="s">
@@ -12440,21 +12632,21 @@
       <c r="G78" t="s">
         <v>325</v>
       </c>
-      <c r="H78" s="57"/>
-      <c r="I78" s="57"/>
+      <c r="H78" s="58"/>
+      <c r="I78" s="58"/>
     </row>
     <row r="79" spans="1:9" s="24" customFormat="1" ht="15" thickBot="1">
-      <c r="B79" s="37"/>
-      <c r="C79" s="37"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="38"/>
     </row>
     <row r="80" spans="1:9" ht="15" thickTop="1">
       <c r="A80" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="36" t="s">
+      <c r="B80" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="C80" s="36" t="s">
+      <c r="C80" s="37" t="s">
         <v>377</v>
       </c>
       <c r="D80" t="s">
@@ -12466,19 +12658,19 @@
       <c r="G80" t="s">
         <v>325</v>
       </c>
-      <c r="H80" s="58" t="s">
+      <c r="H80" s="59" t="s">
         <v>407</v>
       </c>
-      <c r="I80" s="59"/>
+      <c r="I80" s="60"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>6</v>
       </c>
-      <c r="B81" s="36" t="s">
+      <c r="B81" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="C81" s="36" t="s">
+      <c r="C81" s="37" t="s">
         <v>379</v>
       </c>
       <c r="D81" t="s">
@@ -12490,17 +12682,17 @@
       <c r="G81" t="s">
         <v>325</v>
       </c>
-      <c r="H81" s="60"/>
-      <c r="I81" s="61"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="62"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="36" t="s">
+      <c r="B82" s="37" t="s">
         <v>382</v>
       </c>
-      <c r="C82" s="36" t="s">
+      <c r="C82" s="37" t="s">
         <v>381</v>
       </c>
       <c r="D82" t="s">
@@ -12512,17 +12704,17 @@
       <c r="G82" t="s">
         <v>325</v>
       </c>
-      <c r="H82" s="60"/>
-      <c r="I82" s="61"/>
+      <c r="H82" s="61"/>
+      <c r="I82" s="62"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>13</v>
       </c>
-      <c r="B83" s="36" t="s">
+      <c r="B83" s="37" t="s">
         <v>384</v>
       </c>
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="37" t="s">
         <v>383</v>
       </c>
       <c r="D83" t="s">
@@ -12534,17 +12726,17 @@
       <c r="G83" t="s">
         <v>325</v>
       </c>
-      <c r="H83" s="60"/>
-      <c r="I83" s="61"/>
+      <c r="H83" s="61"/>
+      <c r="I83" s="62"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>19</v>
       </c>
-      <c r="B84" s="36" t="s">
+      <c r="B84" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="37" t="s">
         <v>385</v>
       </c>
       <c r="D84" t="s">
@@ -12556,17 +12748,17 @@
       <c r="G84" t="s">
         <v>325</v>
       </c>
-      <c r="H84" s="60"/>
-      <c r="I84" s="61"/>
+      <c r="H84" s="61"/>
+      <c r="I84" s="62"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>20</v>
       </c>
-      <c r="B85" s="36" t="s">
+      <c r="B85" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="37" t="s">
         <v>387</v>
       </c>
       <c r="D85" t="s">
@@ -12578,17 +12770,17 @@
       <c r="G85" t="s">
         <v>325</v>
       </c>
-      <c r="H85" s="60"/>
-      <c r="I85" s="61"/>
+      <c r="H85" s="61"/>
+      <c r="I85" s="62"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>264</v>
       </c>
-      <c r="B86" s="36" t="s">
+      <c r="B86" s="37" t="s">
         <v>379</v>
       </c>
-      <c r="C86" s="36" t="s">
+      <c r="C86" s="37" t="s">
         <v>370</v>
       </c>
       <c r="D86" t="s">
@@ -12600,17 +12792,17 @@
       <c r="G86" t="s">
         <v>325</v>
       </c>
-      <c r="H86" s="60"/>
-      <c r="I86" s="61"/>
+      <c r="H86" s="61"/>
+      <c r="I86" s="62"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>154</v>
       </c>
-      <c r="B87" s="36" t="s">
+      <c r="B87" s="37" t="s">
         <v>383</v>
       </c>
-      <c r="C87" s="36" t="s">
+      <c r="C87" s="37" t="s">
         <v>389</v>
       </c>
       <c r="D87" t="s">
@@ -12622,17 +12814,17 @@
       <c r="G87" t="s">
         <v>325</v>
       </c>
-      <c r="H87" s="60"/>
-      <c r="I87" s="61"/>
+      <c r="H87" s="61"/>
+      <c r="I87" s="62"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>390</v>
       </c>
-      <c r="B88" s="36" t="s">
+      <c r="B88" s="37" t="s">
         <v>392</v>
       </c>
-      <c r="C88" s="36" t="s">
+      <c r="C88" s="37" t="s">
         <v>391</v>
       </c>
       <c r="D88" t="s">
@@ -12644,17 +12836,17 @@
       <c r="G88" t="s">
         <v>325</v>
       </c>
-      <c r="H88" s="60"/>
-      <c r="I88" s="61"/>
+      <c r="H88" s="61"/>
+      <c r="I88" s="62"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>180</v>
       </c>
-      <c r="B89" s="36" t="s">
+      <c r="B89" s="37" t="s">
         <v>394</v>
       </c>
-      <c r="C89" s="36" t="s">
+      <c r="C89" s="37" t="s">
         <v>393</v>
       </c>
       <c r="D89" t="s">
@@ -12666,17 +12858,17 @@
       <c r="G89" t="s">
         <v>325</v>
       </c>
-      <c r="H89" s="60"/>
-      <c r="I89" s="61"/>
+      <c r="H89" s="61"/>
+      <c r="I89" s="62"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>193</v>
       </c>
-      <c r="B90" s="36" t="s">
+      <c r="B90" s="37" t="s">
         <v>396</v>
       </c>
-      <c r="C90" s="36" t="s">
+      <c r="C90" s="37" t="s">
         <v>395</v>
       </c>
       <c r="D90" t="s">
@@ -12688,17 +12880,17 @@
       <c r="G90" t="s">
         <v>325</v>
       </c>
-      <c r="H90" s="60"/>
-      <c r="I90" s="61"/>
+      <c r="H90" s="61"/>
+      <c r="I90" s="62"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>194</v>
       </c>
-      <c r="B91" s="36" t="s">
+      <c r="B91" s="37" t="s">
         <v>398</v>
       </c>
-      <c r="C91" s="36" t="s">
+      <c r="C91" s="37" t="s">
         <v>397</v>
       </c>
       <c r="D91" t="s">
@@ -12710,17 +12902,17 @@
       <c r="G91" t="s">
         <v>325</v>
       </c>
-      <c r="H91" s="60"/>
-      <c r="I91" s="61"/>
+      <c r="H91" s="61"/>
+      <c r="I91" s="62"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>95</v>
       </c>
-      <c r="B92" s="36" t="s">
+      <c r="B92" s="37" t="s">
         <v>400</v>
       </c>
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="37" t="s">
         <v>399</v>
       </c>
       <c r="D92" t="s">
@@ -12732,17 +12924,17 @@
       <c r="G92" t="s">
         <v>325</v>
       </c>
-      <c r="H92" s="60"/>
-      <c r="I92" s="61"/>
+      <c r="H92" s="61"/>
+      <c r="I92" s="62"/>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>142</v>
       </c>
-      <c r="B93" s="36" t="s">
+      <c r="B93" s="37" t="s">
         <v>402</v>
       </c>
-      <c r="C93" s="36" t="s">
+      <c r="C93" s="37" t="s">
         <v>401</v>
       </c>
       <c r="D93" t="s">
@@ -12754,17 +12946,17 @@
       <c r="G93" t="s">
         <v>325</v>
       </c>
-      <c r="H93" s="60"/>
-      <c r="I93" s="61"/>
+      <c r="H93" s="61"/>
+      <c r="I93" s="62"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>143</v>
       </c>
-      <c r="B94" s="36" t="s">
+      <c r="B94" s="37" t="s">
         <v>404</v>
       </c>
-      <c r="C94" s="36" t="s">
+      <c r="C94" s="37" t="s">
         <v>403</v>
       </c>
       <c r="D94" t="s">
@@ -12776,17 +12968,17 @@
       <c r="G94" t="s">
         <v>325</v>
       </c>
-      <c r="H94" s="60"/>
-      <c r="I94" s="61"/>
+      <c r="H94" s="61"/>
+      <c r="I94" s="62"/>
     </row>
     <row r="95" spans="1:9" ht="15" thickBot="1">
       <c r="A95" t="s">
         <v>34</v>
       </c>
-      <c r="B95" s="36" t="s">
+      <c r="B95" s="37" t="s">
         <v>406</v>
       </c>
-      <c r="C95" s="36" t="s">
+      <c r="C95" s="37" t="s">
         <v>405</v>
       </c>
       <c r="D95" t="s">
@@ -12798,21 +12990,21 @@
       <c r="G95" t="s">
         <v>325</v>
       </c>
-      <c r="H95" s="62"/>
-      <c r="I95" s="63"/>
+      <c r="H95" s="63"/>
+      <c r="I95" s="64"/>
     </row>
     <row r="96" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B96" s="37"/>
-      <c r="C96" s="37"/>
+      <c r="B96" s="38"/>
+      <c r="C96" s="38"/>
     </row>
     <row r="97" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A97" t="s">
         <v>69</v>
       </c>
-      <c r="B97" s="36" t="s">
+      <c r="B97" s="37" t="s">
         <v>409</v>
       </c>
-      <c r="C97" s="36" t="s">
+      <c r="C97" s="37" t="s">
         <v>408</v>
       </c>
       <c r="D97" t="s">
@@ -12824,19 +13016,19 @@
       <c r="G97" t="s">
         <v>325</v>
       </c>
-      <c r="H97" s="41" t="s">
+      <c r="H97" s="42" t="s">
         <v>420</v>
       </c>
-      <c r="I97" s="41"/>
+      <c r="I97" s="42"/>
     </row>
     <row r="98" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A98" t="s">
         <v>70</v>
       </c>
-      <c r="B98" s="36" t="s">
+      <c r="B98" s="37" t="s">
         <v>411</v>
       </c>
-      <c r="C98" s="36" t="s">
+      <c r="C98" s="37" t="s">
         <v>410</v>
       </c>
       <c r="D98" t="s">
@@ -12848,17 +13040,17 @@
       <c r="G98" t="s">
         <v>325</v>
       </c>
-      <c r="H98" s="41"/>
-      <c r="I98" s="41"/>
+      <c r="H98" s="42"/>
+      <c r="I98" s="42"/>
     </row>
     <row r="99" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A99" t="s">
         <v>72</v>
       </c>
-      <c r="B99" s="36" t="s">
+      <c r="B99" s="37" t="s">
         <v>413</v>
       </c>
-      <c r="C99" s="36" t="s">
+      <c r="C99" s="37" t="s">
         <v>412</v>
       </c>
       <c r="D99" t="s">
@@ -12870,17 +13062,17 @@
       <c r="G99" t="s">
         <v>325</v>
       </c>
-      <c r="H99" s="41"/>
-      <c r="I99" s="41"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="42"/>
     </row>
     <row r="100" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A100" t="s">
         <v>22</v>
       </c>
-      <c r="B100" s="36" t="s">
+      <c r="B100" s="37" t="s">
         <v>415</v>
       </c>
-      <c r="C100" s="36" t="s">
+      <c r="C100" s="37" t="s">
         <v>414</v>
       </c>
       <c r="D100" t="s">
@@ -12892,17 +13084,17 @@
       <c r="G100" t="s">
         <v>325</v>
       </c>
-      <c r="H100" s="41"/>
-      <c r="I100" s="41"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="42"/>
     </row>
     <row r="101" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A101" t="s">
         <v>450</v>
       </c>
-      <c r="B101" s="36" t="s">
+      <c r="B101" s="37" t="s">
         <v>417</v>
       </c>
-      <c r="C101" s="36" t="s">
+      <c r="C101" s="37" t="s">
         <v>416</v>
       </c>
       <c r="D101" t="s">
@@ -12914,17 +13106,17 @@
       <c r="G101" t="s">
         <v>325</v>
       </c>
-      <c r="H101" s="41"/>
-      <c r="I101" s="41"/>
+      <c r="H101" s="42"/>
+      <c r="I101" s="42"/>
     </row>
     <row r="102" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A102" t="s">
         <v>87</v>
       </c>
-      <c r="B102" s="36" t="s">
+      <c r="B102" s="37" t="s">
         <v>419</v>
       </c>
-      <c r="C102" s="36" t="s">
+      <c r="C102" s="37" t="s">
         <v>418</v>
       </c>
       <c r="D102" t="s">
@@ -12936,21 +13128,21 @@
       <c r="G102" t="s">
         <v>325</v>
       </c>
-      <c r="H102" s="41"/>
-      <c r="I102" s="41"/>
+      <c r="H102" s="42"/>
+      <c r="I102" s="42"/>
     </row>
     <row r="103" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B103" s="37"/>
-      <c r="C103" s="37"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="38"/>
     </row>
     <row r="104" spans="1:9" ht="15" thickTop="1">
       <c r="A104" t="s">
         <v>48</v>
       </c>
-      <c r="B104" s="36" t="s">
+      <c r="B104" s="37" t="s">
         <v>422</v>
       </c>
-      <c r="C104" s="36" t="s">
+      <c r="C104" s="37" t="s">
         <v>421</v>
       </c>
       <c r="D104" t="s">
@@ -12962,19 +13154,19 @@
       <c r="G104" t="s">
         <v>325</v>
       </c>
-      <c r="H104" s="42" t="s">
+      <c r="H104" s="43" t="s">
         <v>429</v>
       </c>
-      <c r="I104" s="43"/>
+      <c r="I104" s="44"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>54</v>
       </c>
-      <c r="B105" s="36" t="s">
+      <c r="B105" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="C105" s="36" t="s">
+      <c r="C105" s="37" t="s">
         <v>423</v>
       </c>
       <c r="D105" t="s">
@@ -12986,17 +13178,17 @@
       <c r="G105" t="s">
         <v>325</v>
       </c>
-      <c r="H105" s="44"/>
-      <c r="I105" s="45"/>
+      <c r="H105" s="45"/>
+      <c r="I105" s="46"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>60</v>
       </c>
-      <c r="B106" s="36" t="s">
+      <c r="B106" s="37" t="s">
         <v>426</v>
       </c>
-      <c r="C106" s="36" t="s">
+      <c r="C106" s="37" t="s">
         <v>425</v>
       </c>
       <c r="D106" t="s">
@@ -13008,17 +13200,17 @@
       <c r="G106" t="s">
         <v>325</v>
       </c>
-      <c r="H106" s="44"/>
-      <c r="I106" s="45"/>
+      <c r="H106" s="45"/>
+      <c r="I106" s="46"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>431</v>
       </c>
-      <c r="B107" s="36" t="s">
+      <c r="B107" s="37" t="s">
         <v>432</v>
       </c>
-      <c r="C107" s="36" t="s">
+      <c r="C107" s="37" t="s">
         <v>430</v>
       </c>
       <c r="D107" t="s">
@@ -13030,17 +13222,17 @@
       <c r="G107" t="s">
         <v>325</v>
       </c>
-      <c r="H107" s="44"/>
-      <c r="I107" s="45"/>
+      <c r="H107" s="45"/>
+      <c r="I107" s="46"/>
     </row>
     <row r="108" spans="1:9" ht="15" thickBot="1">
       <c r="A108" t="s">
         <v>138</v>
       </c>
-      <c r="B108" s="36" t="s">
+      <c r="B108" s="37" t="s">
         <v>428</v>
       </c>
-      <c r="C108" s="36" t="s">
+      <c r="C108" s="37" t="s">
         <v>427</v>
       </c>
       <c r="D108" t="s">
@@ -13052,21 +13244,21 @@
       <c r="G108" t="s">
         <v>325</v>
       </c>
-      <c r="H108" s="46"/>
-      <c r="I108" s="47"/>
+      <c r="H108" s="47"/>
+      <c r="I108" s="48"/>
     </row>
     <row r="109" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B109" s="37"/>
-      <c r="C109" s="37"/>
+      <c r="B109" s="38"/>
+      <c r="C109" s="38"/>
     </row>
     <row r="110" spans="1:9" ht="15" customHeight="1" thickTop="1">
       <c r="A110" t="s">
         <v>8</v>
       </c>
-      <c r="B110" s="36" t="s">
+      <c r="B110" s="37" t="s">
         <v>434</v>
       </c>
-      <c r="C110" s="36" t="s">
+      <c r="C110" s="37" t="s">
         <v>433</v>
       </c>
       <c r="D110" t="s">
@@ -13078,19 +13270,19 @@
       <c r="G110" t="s">
         <v>325</v>
       </c>
-      <c r="H110" s="48" t="s">
+      <c r="H110" s="49" t="s">
         <v>449</v>
       </c>
-      <c r="I110" s="49"/>
+      <c r="I110" s="50"/>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>9</v>
       </c>
-      <c r="B111" s="36" t="s">
+      <c r="B111" s="37" t="s">
         <v>436</v>
       </c>
-      <c r="C111" s="36" t="s">
+      <c r="C111" s="37" t="s">
         <v>435</v>
       </c>
       <c r="D111" t="s">
@@ -13102,17 +13294,17 @@
       <c r="G111" t="s">
         <v>325</v>
       </c>
-      <c r="H111" s="50"/>
-      <c r="I111" s="51"/>
+      <c r="H111" s="51"/>
+      <c r="I111" s="52"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>10</v>
       </c>
-      <c r="B112" s="36" t="s">
+      <c r="B112" s="37" t="s">
         <v>438</v>
       </c>
-      <c r="C112" s="36" t="s">
+      <c r="C112" s="37" t="s">
         <v>437</v>
       </c>
       <c r="D112" t="s">
@@ -13124,17 +13316,17 @@
       <c r="G112" t="s">
         <v>325</v>
       </c>
-      <c r="H112" s="50"/>
-      <c r="I112" s="51"/>
+      <c r="H112" s="51"/>
+      <c r="I112" s="52"/>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>31</v>
       </c>
-      <c r="B113" s="36" t="s">
+      <c r="B113" s="37" t="s">
         <v>440</v>
       </c>
-      <c r="C113" s="36" t="s">
+      <c r="C113" s="37" t="s">
         <v>439</v>
       </c>
       <c r="D113" t="s">
@@ -13146,17 +13338,17 @@
       <c r="G113" t="s">
         <v>325</v>
       </c>
-      <c r="H113" s="50"/>
-      <c r="I113" s="51"/>
+      <c r="H113" s="51"/>
+      <c r="I113" s="52"/>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>32</v>
       </c>
-      <c r="B114" s="36" t="s">
+      <c r="B114" s="37" t="s">
         <v>442</v>
       </c>
-      <c r="C114" s="36" t="s">
+      <c r="C114" s="37" t="s">
         <v>441</v>
       </c>
       <c r="D114" t="s">
@@ -13168,17 +13360,17 @@
       <c r="G114" t="s">
         <v>325</v>
       </c>
-      <c r="H114" s="50"/>
-      <c r="I114" s="51"/>
+      <c r="H114" s="51"/>
+      <c r="I114" s="52"/>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>33</v>
       </c>
-      <c r="B115" s="36" t="s">
+      <c r="B115" s="37" t="s">
         <v>443</v>
       </c>
-      <c r="C115" s="36" t="s">
+      <c r="C115" s="37" t="s">
         <v>394</v>
       </c>
       <c r="D115" t="s">
@@ -13190,17 +13382,17 @@
       <c r="G115" t="s">
         <v>325</v>
       </c>
-      <c r="H115" s="50"/>
-      <c r="I115" s="51"/>
+      <c r="H115" s="51"/>
+      <c r="I115" s="52"/>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>38</v>
       </c>
-      <c r="B116" s="36" t="s">
+      <c r="B116" s="37" t="s">
         <v>445</v>
       </c>
-      <c r="C116" s="36" t="s">
+      <c r="C116" s="37" t="s">
         <v>444</v>
       </c>
       <c r="D116" t="s">
@@ -13212,17 +13404,17 @@
       <c r="G116" t="s">
         <v>325</v>
       </c>
-      <c r="H116" s="50"/>
-      <c r="I116" s="51"/>
+      <c r="H116" s="51"/>
+      <c r="I116" s="52"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>39</v>
       </c>
-      <c r="B117" s="36" t="s">
+      <c r="B117" s="37" t="s">
         <v>446</v>
       </c>
-      <c r="C117" s="36" t="s">
+      <c r="C117" s="37" t="s">
         <v>448</v>
       </c>
       <c r="D117" t="s">
@@ -13234,17 +13426,17 @@
       <c r="G117" t="s">
         <v>325</v>
       </c>
-      <c r="H117" s="50"/>
-      <c r="I117" s="51"/>
+      <c r="H117" s="51"/>
+      <c r="I117" s="52"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>40</v>
       </c>
-      <c r="B118" s="36" t="s">
+      <c r="B118" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="C118" s="36" t="s">
+      <c r="C118" s="37" t="s">
         <v>398</v>
       </c>
       <c r="D118" t="s">
@@ -13256,17 +13448,17 @@
       <c r="G118" t="s">
         <v>325</v>
       </c>
-      <c r="H118" s="50"/>
-      <c r="I118" s="51"/>
+      <c r="H118" s="51"/>
+      <c r="I118" s="52"/>
     </row>
     <row r="119" spans="1:9" ht="15" thickBot="1">
       <c r="A119" t="s">
         <v>146</v>
       </c>
-      <c r="B119" s="36" t="s">
+      <c r="B119" s="37" t="s">
         <v>451</v>
       </c>
-      <c r="C119" s="36" t="s">
+      <c r="C119" s="37" t="s">
         <v>396</v>
       </c>
       <c r="D119" t="s">
@@ -13278,15 +13470,15 @@
       <c r="G119" t="s">
         <v>325</v>
       </c>
-      <c r="H119" s="52"/>
-      <c r="I119" s="53"/>
+      <c r="H119" s="53"/>
+      <c r="I119" s="54"/>
     </row>
     <row r="120" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B120" s="37"/>
-      <c r="C120" s="37"/>
+      <c r="B120" s="38"/>
+      <c r="C120" s="38"/>
     </row>
     <row r="121" spans="1:9" ht="15" customHeight="1" thickTop="1">
-      <c r="A121" s="40" t="s">
+      <c r="A121" s="41" t="s">
         <v>84</v>
       </c>
       <c r="B121">
@@ -13304,19 +13496,19 @@
       <c r="G121" t="s">
         <v>325</v>
       </c>
-      <c r="H121" s="42" t="s">
+      <c r="H121" s="43" t="s">
         <v>464</v>
       </c>
-      <c r="I121" s="43"/>
+      <c r="I121" s="44"/>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>64</v>
       </c>
-      <c r="B122" s="36" t="s">
+      <c r="B122" s="37" t="s">
         <v>453</v>
       </c>
-      <c r="C122" s="36" t="s">
+      <c r="C122" s="37" t="s">
         <v>452</v>
       </c>
       <c r="D122" t="s">
@@ -13328,17 +13520,17 @@
       <c r="G122" t="s">
         <v>325</v>
       </c>
-      <c r="H122" s="44"/>
-      <c r="I122" s="45"/>
+      <c r="H122" s="45"/>
+      <c r="I122" s="46"/>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>63</v>
       </c>
-      <c r="B123" s="36" t="s">
+      <c r="B123" s="37" t="s">
         <v>481</v>
       </c>
-      <c r="C123" s="36" t="s">
+      <c r="C123" s="37" t="s">
         <v>454</v>
       </c>
       <c r="D123" t="s">
@@ -13350,17 +13542,17 @@
       <c r="G123" t="s">
         <v>325</v>
       </c>
-      <c r="H123" s="44"/>
-      <c r="I123" s="45"/>
+      <c r="H123" s="45"/>
+      <c r="I123" s="46"/>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>59</v>
       </c>
-      <c r="B124" s="36" t="s">
+      <c r="B124" s="37" t="s">
         <v>455</v>
       </c>
-      <c r="C124" s="36" t="s">
+      <c r="C124" s="37" t="s">
         <v>456</v>
       </c>
       <c r="D124" t="s">
@@ -13372,17 +13564,17 @@
       <c r="G124" t="s">
         <v>325</v>
       </c>
-      <c r="H124" s="44"/>
-      <c r="I124" s="45"/>
+      <c r="H124" s="45"/>
+      <c r="I124" s="46"/>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>124</v>
       </c>
-      <c r="B125" s="36" t="s">
+      <c r="B125" s="37" t="s">
         <v>352</v>
       </c>
-      <c r="C125" s="36" t="s">
+      <c r="C125" s="37" t="s">
         <v>457</v>
       </c>
       <c r="D125" t="s">
@@ -13394,17 +13586,17 @@
       <c r="G125" t="s">
         <v>325</v>
       </c>
-      <c r="H125" s="44"/>
-      <c r="I125" s="45"/>
+      <c r="H125" s="45"/>
+      <c r="I125" s="46"/>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-      <c r="B126" s="36" t="s">
+      <c r="B126" s="37" t="s">
         <v>459</v>
       </c>
-      <c r="C126" s="36" t="s">
+      <c r="C126" s="37" t="s">
         <v>458</v>
       </c>
       <c r="D126" t="s">
@@ -13416,17 +13608,17 @@
       <c r="G126" t="s">
         <v>325</v>
       </c>
-      <c r="H126" s="44"/>
-      <c r="I126" s="45"/>
+      <c r="H126" s="45"/>
+      <c r="I126" s="46"/>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>53</v>
       </c>
-      <c r="B127" s="36" t="s">
+      <c r="B127" s="37" t="s">
         <v>461</v>
       </c>
-      <c r="C127" s="36" t="s">
+      <c r="C127" s="37" t="s">
         <v>460</v>
       </c>
       <c r="D127" t="s">
@@ -13438,17 +13630,17 @@
       <c r="G127" t="s">
         <v>325</v>
       </c>
-      <c r="H127" s="44"/>
-      <c r="I127" s="45"/>
+      <c r="H127" s="45"/>
+      <c r="I127" s="46"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>52</v>
       </c>
-      <c r="B128" s="36" t="s">
+      <c r="B128" s="37" t="s">
         <v>463</v>
       </c>
-      <c r="C128" s="36" t="s">
+      <c r="C128" s="37" t="s">
         <v>462</v>
       </c>
       <c r="D128" t="s">
@@ -13460,17 +13652,17 @@
       <c r="G128" t="s">
         <v>325</v>
       </c>
-      <c r="H128" s="44"/>
-      <c r="I128" s="45"/>
+      <c r="H128" s="45"/>
+      <c r="I128" s="46"/>
     </row>
     <row r="129" spans="1:9" ht="15" thickBot="1">
       <c r="A129" t="s">
         <v>126</v>
       </c>
-      <c r="B129" s="36" t="s">
+      <c r="B129" s="37" t="s">
         <v>365</v>
       </c>
-      <c r="C129" s="36" t="s">
+      <c r="C129" s="37" t="s">
         <v>482</v>
       </c>
       <c r="D129" t="s">
@@ -13482,21 +13674,21 @@
       <c r="G129" t="s">
         <v>325</v>
       </c>
-      <c r="H129" s="46"/>
-      <c r="I129" s="47"/>
+      <c r="H129" s="47"/>
+      <c r="I129" s="48"/>
     </row>
     <row r="130" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B130" s="37"/>
-      <c r="C130" s="37"/>
+      <c r="B130" s="38"/>
+      <c r="C130" s="38"/>
     </row>
     <row r="131" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A131" t="s">
         <v>86</v>
       </c>
-      <c r="B131" s="36" t="s">
+      <c r="B131" s="37" t="s">
         <v>466</v>
       </c>
-      <c r="C131" s="36" t="s">
+      <c r="C131" s="37" t="s">
         <v>465</v>
       </c>
       <c r="D131" t="s">
@@ -13508,19 +13700,19 @@
       <c r="G131" t="s">
         <v>325</v>
       </c>
-      <c r="H131" s="41" t="s">
+      <c r="H131" s="42" t="s">
         <v>480</v>
       </c>
-      <c r="I131" s="41"/>
+      <c r="I131" s="42"/>
     </row>
     <row r="132" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A132" t="s">
         <v>88</v>
       </c>
-      <c r="B132" s="36" t="s">
+      <c r="B132" s="37" t="s">
         <v>468</v>
       </c>
-      <c r="C132" s="36" t="s">
+      <c r="C132" s="37" t="s">
         <v>467</v>
       </c>
       <c r="D132" t="s">
@@ -13532,17 +13724,17 @@
       <c r="G132" t="s">
         <v>325</v>
       </c>
-      <c r="H132" s="41"/>
-      <c r="I132" s="41"/>
+      <c r="H132" s="42"/>
+      <c r="I132" s="42"/>
     </row>
     <row r="133" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A133" t="s">
         <v>89</v>
       </c>
-      <c r="B133" s="36" t="s">
+      <c r="B133" s="37" t="s">
         <v>470</v>
       </c>
-      <c r="C133" s="36" t="s">
+      <c r="C133" s="37" t="s">
         <v>469</v>
       </c>
       <c r="D133" t="s">
@@ -13554,17 +13746,17 @@
       <c r="G133" t="s">
         <v>325</v>
       </c>
-      <c r="H133" s="41"/>
-      <c r="I133" s="41"/>
+      <c r="H133" s="42"/>
+      <c r="I133" s="42"/>
     </row>
     <row r="134" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A134" t="s">
         <v>7</v>
       </c>
-      <c r="B134" s="36" t="s">
+      <c r="B134" s="37" t="s">
         <v>472</v>
       </c>
-      <c r="C134" s="36" t="s">
+      <c r="C134" s="37" t="s">
         <v>471</v>
       </c>
       <c r="D134" t="s">
@@ -13576,17 +13768,17 @@
       <c r="G134" t="s">
         <v>325</v>
       </c>
-      <c r="H134" s="41"/>
-      <c r="I134" s="41"/>
+      <c r="H134" s="42"/>
+      <c r="I134" s="42"/>
     </row>
     <row r="135" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A135" t="s">
         <v>197</v>
       </c>
-      <c r="B135" s="36" t="s">
+      <c r="B135" s="37" t="s">
         <v>476</v>
       </c>
-      <c r="C135" s="36" t="s">
+      <c r="C135" s="37" t="s">
         <v>473</v>
       </c>
       <c r="D135" t="s">
@@ -13598,17 +13790,17 @@
       <c r="G135" t="s">
         <v>325</v>
       </c>
-      <c r="H135" s="41"/>
-      <c r="I135" s="41"/>
+      <c r="H135" s="42"/>
+      <c r="I135" s="42"/>
     </row>
     <row r="136" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A136" t="s">
         <v>196</v>
       </c>
-      <c r="B136" s="36" t="s">
+      <c r="B136" s="37" t="s">
         <v>477</v>
       </c>
-      <c r="C136" s="36" t="s">
+      <c r="C136" s="37" t="s">
         <v>474</v>
       </c>
       <c r="D136" t="s">
@@ -13620,17 +13812,17 @@
       <c r="G136" t="s">
         <v>325</v>
       </c>
-      <c r="H136" s="41"/>
-      <c r="I136" s="41"/>
+      <c r="H136" s="42"/>
+      <c r="I136" s="42"/>
     </row>
     <row r="137" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A137" t="s">
         <v>195</v>
       </c>
-      <c r="B137" s="36" t="s">
+      <c r="B137" s="37" t="s">
         <v>478</v>
       </c>
-      <c r="C137" s="36" t="s">
+      <c r="C137" s="37" t="s">
         <v>475</v>
       </c>
       <c r="D137" t="s">
@@ -13642,17 +13834,17 @@
       <c r="G137" t="s">
         <v>325</v>
       </c>
-      <c r="H137" s="41"/>
-      <c r="I137" s="41"/>
+      <c r="H137" s="42"/>
+      <c r="I137" s="42"/>
     </row>
     <row r="138" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A138" t="s">
         <v>198</v>
       </c>
-      <c r="B138" s="36" t="s">
+      <c r="B138" s="37" t="s">
         <v>457</v>
       </c>
-      <c r="C138" s="36" t="s">
+      <c r="C138" s="37" t="s">
         <v>479</v>
       </c>
       <c r="D138" t="s">
@@ -13664,1731 +13856,2232 @@
       <c r="G138" t="s">
         <v>325</v>
       </c>
-      <c r="H138" s="41"/>
-      <c r="I138" s="41"/>
+      <c r="H138" s="42"/>
+      <c r="I138" s="42"/>
     </row>
     <row r="139" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B139" s="37"/>
-      <c r="C139" s="37"/>
+      <c r="B139" s="38"/>
+      <c r="C139" s="38"/>
     </row>
     <row r="140" spans="1:9" ht="15" customHeight="1" thickTop="1">
       <c r="A140" t="s">
         <v>102</v>
       </c>
-      <c r="B140" s="36" t="s">
+      <c r="B140" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="C140" s="36" t="s">
+      <c r="C140" s="37" t="s">
         <v>484</v>
       </c>
       <c r="D140" t="s">
         <v>325</v>
       </c>
-      <c r="H140" s="68" t="s">
+      <c r="E140" t="s">
+        <v>325</v>
+      </c>
+      <c r="G140" t="s">
+        <v>325</v>
+      </c>
+      <c r="H140" s="69" t="s">
         <v>497</v>
       </c>
-      <c r="I140" s="68"/>
+      <c r="I140" s="69"/>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>101</v>
       </c>
-      <c r="B141" s="36" t="s">
+      <c r="B141" s="37" t="s">
         <v>488</v>
       </c>
-      <c r="C141" s="36" t="s">
+      <c r="C141" s="37" t="s">
         <v>487</v>
       </c>
       <c r="D141" t="s">
         <v>325</v>
       </c>
-      <c r="H141" s="69"/>
-      <c r="I141" s="69"/>
+      <c r="E141" t="s">
+        <v>325</v>
+      </c>
+      <c r="G141" t="s">
+        <v>325</v>
+      </c>
+      <c r="H141" s="70"/>
+      <c r="I141" s="70"/>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>103</v>
       </c>
-      <c r="B142" s="36" t="s">
+      <c r="B142" s="37" t="s">
         <v>490</v>
       </c>
-      <c r="C142" s="36" t="s">
+      <c r="C142" s="37" t="s">
         <v>489</v>
       </c>
       <c r="D142" t="s">
         <v>325</v>
       </c>
-      <c r="H142" s="69"/>
-      <c r="I142" s="69"/>
+      <c r="E142" t="s">
+        <v>325</v>
+      </c>
+      <c r="G142" t="s">
+        <v>325</v>
+      </c>
+      <c r="H142" s="70"/>
+      <c r="I142" s="70"/>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>100</v>
       </c>
-      <c r="B143" s="36" t="s">
+      <c r="B143" s="37" t="s">
         <v>492</v>
       </c>
-      <c r="C143" s="36" t="s">
+      <c r="C143" s="37" t="s">
         <v>491</v>
       </c>
       <c r="D143" t="s">
         <v>325</v>
       </c>
-      <c r="H143" s="69"/>
-      <c r="I143" s="69"/>
+      <c r="E143" t="s">
+        <v>325</v>
+      </c>
+      <c r="G143" t="s">
+        <v>325</v>
+      </c>
+      <c r="H143" s="70"/>
+      <c r="I143" s="70"/>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="40" t="s">
+      <c r="A144" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="B144" s="36" t="s">
+      <c r="B144" s="37" t="s">
         <v>494</v>
       </c>
-      <c r="C144" s="36" t="s">
+      <c r="C144" s="37" t="s">
         <v>493</v>
       </c>
       <c r="D144" t="s">
         <v>325</v>
       </c>
-      <c r="H144" s="69"/>
-      <c r="I144" s="69"/>
+      <c r="E144" t="s">
+        <v>325</v>
+      </c>
+      <c r="G144" t="s">
+        <v>325</v>
+      </c>
+      <c r="H144" s="70"/>
+      <c r="I144" s="70"/>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>127</v>
       </c>
-      <c r="B145" s="36" t="s">
+      <c r="B145" s="37" t="s">
         <v>358</v>
       </c>
-      <c r="C145" s="36" t="s">
+      <c r="C145" s="37" t="s">
         <v>495</v>
       </c>
       <c r="D145" t="s">
         <v>325</v>
       </c>
-      <c r="H145" s="69"/>
-      <c r="I145" s="69"/>
+      <c r="E145" t="s">
+        <v>325</v>
+      </c>
+      <c r="G145" t="s">
+        <v>325</v>
+      </c>
+      <c r="H145" s="70"/>
+      <c r="I145" s="70"/>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>185</v>
       </c>
-      <c r="B146" s="36" t="s">
+      <c r="B146" s="37" t="s">
         <v>403</v>
       </c>
-      <c r="C146" s="36" t="s">
+      <c r="C146" s="37" t="s">
         <v>496</v>
       </c>
       <c r="D146" t="s">
         <v>325</v>
       </c>
-      <c r="H146" s="69"/>
-      <c r="I146" s="69"/>
+      <c r="E146" t="s">
+        <v>325</v>
+      </c>
+      <c r="G146" t="s">
+        <v>325</v>
+      </c>
+      <c r="H146" s="70"/>
+      <c r="I146" s="70"/>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>149</v>
       </c>
-      <c r="B147" s="36" t="s">
+      <c r="B147" s="37" t="s">
         <v>375</v>
       </c>
-      <c r="C147" s="36" t="s">
+      <c r="C147" s="37" t="s">
         <v>498</v>
       </c>
       <c r="D147" t="s">
         <v>325</v>
       </c>
-      <c r="H147" s="70"/>
-      <c r="I147" s="70"/>
+      <c r="E147" t="s">
+        <v>325</v>
+      </c>
+      <c r="G147" t="s">
+        <v>325</v>
+      </c>
+      <c r="H147" s="71"/>
+      <c r="I147" s="71"/>
     </row>
     <row r="148" spans="1:9" s="24" customFormat="1" ht="15" thickBot="1">
-      <c r="B148" s="37"/>
-      <c r="C148" s="37"/>
+      <c r="B148" s="38"/>
+      <c r="C148" s="38"/>
     </row>
     <row r="149" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A149" t="s">
         <v>28</v>
       </c>
-      <c r="B149" s="36" t="s">
+      <c r="B149" s="37" t="s">
         <v>500</v>
       </c>
-      <c r="C149" s="36" t="s">
+      <c r="C149" s="37" t="s">
         <v>499</v>
       </c>
       <c r="D149" t="s">
         <v>325</v>
       </c>
-      <c r="H149" s="71" t="s">
-        <v>518</v>
-      </c>
-      <c r="I149" s="71"/>
+      <c r="E149" t="s">
+        <v>325</v>
+      </c>
+      <c r="G149" t="s">
+        <v>325</v>
+      </c>
+      <c r="H149" s="72" t="s">
+        <v>519</v>
+      </c>
+      <c r="I149" s="72"/>
     </row>
     <row r="150" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A150" t="s">
         <v>501</v>
       </c>
-      <c r="B150" s="36" t="s">
+      <c r="B150" s="37" t="s">
         <v>487</v>
       </c>
-      <c r="C150" s="36" t="s">
+      <c r="C150" s="37" t="s">
         <v>502</v>
       </c>
       <c r="D150" t="s">
         <v>325</v>
       </c>
-      <c r="H150" s="71"/>
-      <c r="I150" s="71"/>
+      <c r="E150" t="s">
+        <v>325</v>
+      </c>
+      <c r="G150" t="s">
+        <v>325</v>
+      </c>
+      <c r="H150" s="72"/>
+      <c r="I150" s="72"/>
     </row>
     <row r="151" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A151" t="s">
         <v>200</v>
       </c>
-      <c r="B151" s="36" t="s">
+      <c r="B151" s="37" t="s">
         <v>473</v>
       </c>
-      <c r="C151" s="36" t="s">
+      <c r="C151" s="37" t="s">
         <v>503</v>
       </c>
       <c r="D151" t="s">
         <v>325</v>
       </c>
-      <c r="H151" s="71"/>
-      <c r="I151" s="71"/>
+      <c r="E151" t="s">
+        <v>325</v>
+      </c>
+      <c r="G151" t="s">
+        <v>325</v>
+      </c>
+      <c r="H151" s="72"/>
+      <c r="I151" s="72"/>
     </row>
     <row r="152" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A152" t="s">
         <v>199</v>
       </c>
-      <c r="B152" s="36" t="s">
+      <c r="B152" s="37" t="s">
         <v>482</v>
       </c>
-      <c r="C152" s="36" t="s">
-        <v>504</v>
+      <c r="C152" s="37" t="s">
+        <v>505</v>
       </c>
       <c r="D152" t="s">
         <v>325</v>
       </c>
-      <c r="H152" s="71"/>
-      <c r="I152" s="71"/>
+      <c r="E152" t="s">
+        <v>325</v>
+      </c>
+      <c r="G152" t="s">
+        <v>325</v>
+      </c>
+      <c r="H152" s="72"/>
+      <c r="I152" s="72"/>
     </row>
     <row r="153" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A153" t="s">
         <v>36</v>
       </c>
-      <c r="B153" s="36" t="s">
+      <c r="B153" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="C153" s="37" t="s">
         <v>506</v>
       </c>
-      <c r="C153" s="36" t="s">
-        <v>505</v>
-      </c>
       <c r="D153" t="s">
         <v>325</v>
       </c>
-      <c r="H153" s="71"/>
-      <c r="I153" s="71"/>
+      <c r="E153" t="s">
+        <v>325</v>
+      </c>
+      <c r="G153" t="s">
+        <v>325</v>
+      </c>
+      <c r="H153" s="72"/>
+      <c r="I153" s="72"/>
     </row>
     <row r="154" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A154" t="s">
         <v>96</v>
       </c>
-      <c r="B154" s="36" t="s">
+      <c r="B154" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="C154" s="37" t="s">
         <v>508</v>
       </c>
-      <c r="C154" s="36" t="s">
-        <v>507</v>
-      </c>
       <c r="D154" t="s">
         <v>325</v>
       </c>
-      <c r="H154" s="71"/>
-      <c r="I154" s="71"/>
+      <c r="E154" t="s">
+        <v>325</v>
+      </c>
+      <c r="G154" t="s">
+        <v>325</v>
+      </c>
+      <c r="H154" s="72"/>
+      <c r="I154" s="72"/>
     </row>
     <row r="155" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A155" t="s">
         <v>43</v>
       </c>
-      <c r="B155" s="36" t="s">
+      <c r="B155" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="C155" s="37" t="s">
         <v>510</v>
       </c>
-      <c r="C155" s="36" t="s">
-        <v>509</v>
-      </c>
       <c r="D155" t="s">
         <v>325</v>
       </c>
-      <c r="H155" s="71"/>
-      <c r="I155" s="71"/>
+      <c r="E155" t="s">
+        <v>325</v>
+      </c>
+      <c r="G155" t="s">
+        <v>325</v>
+      </c>
+      <c r="H155" s="72"/>
+      <c r="I155" s="72"/>
     </row>
     <row r="156" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A156" t="s">
         <v>105</v>
       </c>
-      <c r="B156" s="36" t="s">
+      <c r="B156" s="37" t="s">
         <v>408</v>
       </c>
-      <c r="C156" s="36" t="s">
-        <v>511</v>
+      <c r="C156" s="37" t="s">
+        <v>512</v>
       </c>
       <c r="D156" t="s">
         <v>325</v>
       </c>
-      <c r="H156" s="71"/>
-      <c r="I156" s="71"/>
+      <c r="E156" t="s">
+        <v>325</v>
+      </c>
+      <c r="G156" t="s">
+        <v>325</v>
+      </c>
+      <c r="H156" s="72"/>
+      <c r="I156" s="72"/>
     </row>
     <row r="157" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A157" t="s">
+        <v>515</v>
+      </c>
+      <c r="B157" s="37" t="s">
         <v>514</v>
       </c>
-      <c r="B157" s="36" t="s">
+      <c r="C157" s="37" t="s">
         <v>513</v>
       </c>
-      <c r="C157" s="36" t="s">
-        <v>512</v>
-      </c>
       <c r="D157" t="s">
         <v>325</v>
       </c>
-      <c r="H157" s="71"/>
-      <c r="I157" s="71"/>
+      <c r="E157" t="s">
+        <v>325</v>
+      </c>
+      <c r="G157" t="s">
+        <v>325</v>
+      </c>
+      <c r="H157" s="72"/>
+      <c r="I157" s="72"/>
     </row>
     <row r="158" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A158" t="s">
-        <v>515</v>
-      </c>
-      <c r="B158" s="36" t="s">
+        <v>516</v>
+      </c>
+      <c r="B158" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="C158" s="37" t="s">
         <v>517</v>
       </c>
-      <c r="C158" s="36" t="s">
-        <v>516</v>
-      </c>
       <c r="D158" t="s">
         <v>325</v>
       </c>
-      <c r="H158" s="71"/>
-      <c r="I158" s="71"/>
-    </row>
-    <row r="159" spans="1:9" s="24" customFormat="1" ht="15" thickTop="1">
-      <c r="B159" s="37"/>
-      <c r="C159" s="37"/>
-    </row>
-    <row r="160" spans="1:9">
-      <c r="B160" s="36"/>
-      <c r="C160" s="36"/>
-    </row>
-    <row r="161" spans="2:3">
-      <c r="B161" s="36"/>
-      <c r="C161" s="36"/>
-    </row>
-    <row r="162" spans="2:3">
-      <c r="B162" s="36"/>
-      <c r="C162" s="36"/>
-    </row>
-    <row r="163" spans="2:3">
-      <c r="B163" s="36"/>
-      <c r="C163" s="36"/>
-    </row>
-    <row r="164" spans="2:3">
-      <c r="B164" s="36"/>
-      <c r="C164" s="36"/>
-    </row>
-    <row r="165" spans="2:3">
-      <c r="B165" s="36"/>
-      <c r="C165" s="36"/>
-    </row>
-    <row r="166" spans="2:3">
-      <c r="B166" s="36"/>
-      <c r="C166" s="36"/>
-    </row>
-    <row r="167" spans="2:3">
-      <c r="B167" s="36"/>
-      <c r="C167" s="36"/>
-    </row>
-    <row r="168" spans="2:3">
-      <c r="B168" s="36"/>
-      <c r="C168" s="36"/>
-    </row>
-    <row r="169" spans="2:3">
-      <c r="B169" s="36"/>
-      <c r="C169" s="36"/>
-    </row>
-    <row r="170" spans="2:3">
-      <c r="B170" s="36"/>
-      <c r="C170" s="36"/>
-    </row>
-    <row r="171" spans="2:3">
-      <c r="B171" s="36"/>
-      <c r="C171" s="36"/>
-    </row>
-    <row r="172" spans="2:3">
-      <c r="B172" s="36"/>
-      <c r="C172" s="36"/>
-    </row>
-    <row r="173" spans="2:3">
-      <c r="B173" s="36"/>
-      <c r="C173" s="36"/>
-    </row>
-    <row r="174" spans="2:3">
-      <c r="B174" s="36"/>
-      <c r="C174" s="36"/>
-    </row>
-    <row r="175" spans="2:3">
-      <c r="B175" s="36"/>
-      <c r="C175" s="36"/>
-    </row>
-    <row r="176" spans="2:3">
-      <c r="B176" s="36"/>
-      <c r="C176" s="36"/>
-    </row>
-    <row r="177" spans="2:3">
-      <c r="B177" s="36"/>
-      <c r="C177" s="36"/>
-    </row>
-    <row r="178" spans="2:3">
-      <c r="B178" s="36"/>
-      <c r="C178" s="36"/>
-    </row>
-    <row r="179" spans="2:3">
-      <c r="B179" s="36"/>
-      <c r="C179" s="36"/>
-    </row>
-    <row r="180" spans="2:3">
-      <c r="B180" s="36"/>
-      <c r="C180" s="36"/>
-    </row>
-    <row r="181" spans="2:3">
-      <c r="B181" s="36"/>
-      <c r="C181" s="36"/>
-    </row>
-    <row r="182" spans="2:3">
-      <c r="B182" s="36"/>
-      <c r="C182" s="36"/>
-    </row>
-    <row r="183" spans="2:3">
-      <c r="B183" s="36"/>
-      <c r="C183" s="36"/>
-    </row>
-    <row r="184" spans="2:3">
-      <c r="B184" s="36"/>
-      <c r="C184" s="36"/>
-    </row>
-    <row r="185" spans="2:3">
-      <c r="B185" s="36"/>
-      <c r="C185" s="36"/>
-    </row>
-    <row r="186" spans="2:3">
-      <c r="B186" s="36"/>
-      <c r="C186" s="36"/>
-    </row>
-    <row r="187" spans="2:3">
-      <c r="B187" s="36"/>
-      <c r="C187" s="36"/>
-    </row>
-    <row r="188" spans="2:3">
-      <c r="B188" s="36"/>
-      <c r="C188" s="36"/>
-    </row>
-    <row r="189" spans="2:3">
-      <c r="B189" s="36"/>
-      <c r="C189" s="36"/>
-    </row>
-    <row r="190" spans="2:3">
-      <c r="B190" s="36"/>
-      <c r="C190" s="36"/>
-    </row>
-    <row r="191" spans="2:3">
-      <c r="B191" s="36"/>
-      <c r="C191" s="36"/>
-    </row>
-    <row r="192" spans="2:3">
-      <c r="B192" s="36"/>
-      <c r="C192" s="36"/>
+      <c r="E158" t="s">
+        <v>325</v>
+      </c>
+      <c r="G158" t="s">
+        <v>325</v>
+      </c>
+      <c r="H158" s="72"/>
+      <c r="I158" s="72"/>
+    </row>
+    <row r="159" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B159" s="38"/>
+      <c r="C159" s="38"/>
+    </row>
+    <row r="160" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A160" t="s">
+        <v>65</v>
+      </c>
+      <c r="B160" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="C160" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="D160" t="s">
+        <v>325</v>
+      </c>
+      <c r="E160" t="s">
+        <v>325</v>
+      </c>
+      <c r="G160" t="s">
+        <v>325</v>
+      </c>
+      <c r="H160" s="73" t="s">
+        <v>533</v>
+      </c>
+      <c r="I160" s="73"/>
+    </row>
+    <row r="161" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A161" t="s">
+        <v>66</v>
+      </c>
+      <c r="B161" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="C161" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="D161" t="s">
+        <v>325</v>
+      </c>
+      <c r="E161" t="s">
+        <v>325</v>
+      </c>
+      <c r="G161" t="s">
+        <v>325</v>
+      </c>
+      <c r="H161" s="73"/>
+      <c r="I161" s="73"/>
+    </row>
+    <row r="162" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A162" t="s">
+        <v>131</v>
+      </c>
+      <c r="B162" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="C162" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="D162" t="s">
+        <v>325</v>
+      </c>
+      <c r="E162" t="s">
+        <v>325</v>
+      </c>
+      <c r="G162" t="s">
+        <v>325</v>
+      </c>
+      <c r="H162" s="73"/>
+      <c r="I162" s="73"/>
+    </row>
+    <row r="163" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A163" t="s">
+        <v>132</v>
+      </c>
+      <c r="B163" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="C163" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="D163" t="s">
+        <v>325</v>
+      </c>
+      <c r="E163" t="s">
+        <v>325</v>
+      </c>
+      <c r="G163" t="s">
+        <v>325</v>
+      </c>
+      <c r="H163" s="73"/>
+      <c r="I163" s="73"/>
+    </row>
+    <row r="164" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A164" t="s">
+        <v>133</v>
+      </c>
+      <c r="B164" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="C164" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="D164" t="s">
+        <v>325</v>
+      </c>
+      <c r="E164" t="s">
+        <v>325</v>
+      </c>
+      <c r="G164" t="s">
+        <v>325</v>
+      </c>
+      <c r="H164" s="73"/>
+      <c r="I164" s="73"/>
+    </row>
+    <row r="165" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A165" t="s">
+        <v>136</v>
+      </c>
+      <c r="B165" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="C165" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="D165" t="s">
+        <v>325</v>
+      </c>
+      <c r="E165" t="s">
+        <v>325</v>
+      </c>
+      <c r="G165" t="s">
+        <v>325</v>
+      </c>
+      <c r="H165" s="73"/>
+      <c r="I165" s="73"/>
+    </row>
+    <row r="166" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A166" t="s">
+        <v>137</v>
+      </c>
+      <c r="B166" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="C166" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="D166" t="s">
+        <v>325</v>
+      </c>
+      <c r="E166" t="s">
+        <v>325</v>
+      </c>
+      <c r="G166" t="s">
+        <v>325</v>
+      </c>
+      <c r="H166" s="73"/>
+      <c r="I166" s="73"/>
+    </row>
+    <row r="167" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B167" s="38"/>
+      <c r="C167" s="38"/>
+    </row>
+    <row r="168" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A168" t="s">
+        <v>56</v>
+      </c>
+      <c r="B168" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="C168" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="D168" t="s">
+        <v>325</v>
+      </c>
+      <c r="E168" t="s">
+        <v>325</v>
+      </c>
+      <c r="H168" s="78" t="s">
+        <v>541</v>
+      </c>
+      <c r="I168" s="78"/>
+    </row>
+    <row r="169" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A169" t="s">
+        <v>57</v>
+      </c>
+      <c r="B169" s="37" t="s">
+        <v>538</v>
+      </c>
+      <c r="C169" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="D169" t="s">
+        <v>325</v>
+      </c>
+      <c r="E169" t="s">
+        <v>325</v>
+      </c>
+      <c r="H169" s="78"/>
+      <c r="I169" s="78"/>
+    </row>
+    <row r="170" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A170" t="s">
+        <v>58</v>
+      </c>
+      <c r="B170" s="37" t="s">
+        <v>539</v>
+      </c>
+      <c r="C170" s="37" t="s">
+        <v>540</v>
+      </c>
+      <c r="D170" t="s">
+        <v>325</v>
+      </c>
+      <c r="E170" t="s">
+        <v>325</v>
+      </c>
+      <c r="H170" s="78"/>
+      <c r="I170" s="78"/>
+    </row>
+    <row r="171" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B171" s="38"/>
+      <c r="C171" s="38"/>
+    </row>
+    <row r="172" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A172" t="s">
+        <v>76</v>
+      </c>
+      <c r="B172" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="C172" s="37" t="s">
+        <v>542</v>
+      </c>
+      <c r="D172" t="s">
+        <v>325</v>
+      </c>
+      <c r="E172" t="s">
+        <v>325</v>
+      </c>
+      <c r="H172" s="55" t="s">
+        <v>558</v>
+      </c>
+      <c r="I172" s="55"/>
+    </row>
+    <row r="173" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A173" t="s">
+        <v>77</v>
+      </c>
+      <c r="B173" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="C173" s="37" t="s">
+        <v>544</v>
+      </c>
+      <c r="D173" t="s">
+        <v>325</v>
+      </c>
+      <c r="E173" t="s">
+        <v>325</v>
+      </c>
+      <c r="H173" s="55"/>
+      <c r="I173" s="55"/>
+    </row>
+    <row r="174" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A174" t="s">
+        <v>112</v>
+      </c>
+      <c r="B174" s="37" t="s">
+        <v>547</v>
+      </c>
+      <c r="C174" s="37" t="s">
+        <v>546</v>
+      </c>
+      <c r="D174" t="s">
+        <v>325</v>
+      </c>
+      <c r="E174" t="s">
+        <v>325</v>
+      </c>
+      <c r="H174" s="55"/>
+      <c r="I174" s="55"/>
+    </row>
+    <row r="175" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A175" t="s">
+        <v>80</v>
+      </c>
+      <c r="B175" s="37" t="s">
+        <v>549</v>
+      </c>
+      <c r="C175" s="37" t="s">
+        <v>548</v>
+      </c>
+      <c r="D175" t="s">
+        <v>325</v>
+      </c>
+      <c r="E175" t="s">
+        <v>325</v>
+      </c>
+      <c r="H175" s="55"/>
+      <c r="I175" s="55"/>
+    </row>
+    <row r="176" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A176" t="s">
+        <v>11</v>
+      </c>
+      <c r="B176" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="C176" s="37" t="s">
+        <v>550</v>
+      </c>
+      <c r="D176" t="s">
+        <v>325</v>
+      </c>
+      <c r="E176" t="s">
+        <v>325</v>
+      </c>
+      <c r="H176" s="55"/>
+      <c r="I176" s="55"/>
+    </row>
+    <row r="177" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A177" t="s">
+        <v>18</v>
+      </c>
+      <c r="B177" s="37" t="s">
+        <v>553</v>
+      </c>
+      <c r="C177" s="37" t="s">
+        <v>552</v>
+      </c>
+      <c r="D177" t="s">
+        <v>325</v>
+      </c>
+      <c r="E177" t="s">
+        <v>325</v>
+      </c>
+      <c r="H177" s="55"/>
+      <c r="I177" s="55"/>
+    </row>
+    <row r="178" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A178" t="s">
+        <v>158</v>
+      </c>
+      <c r="B178" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="C178" s="37" t="s">
+        <v>554</v>
+      </c>
+      <c r="D178" t="s">
+        <v>325</v>
+      </c>
+      <c r="E178" t="s">
+        <v>325</v>
+      </c>
+      <c r="H178" s="55"/>
+      <c r="I178" s="55"/>
+    </row>
+    <row r="179" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A179" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="B179" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="C179" s="37" t="s">
+        <v>556</v>
+      </c>
+      <c r="D179" t="s">
+        <v>325</v>
+      </c>
+      <c r="E179" t="s">
+        <v>325</v>
+      </c>
+      <c r="H179" s="55"/>
+      <c r="I179" s="55"/>
+    </row>
+    <row r="180" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B180" s="38"/>
+      <c r="C180" s="38"/>
+    </row>
+    <row r="181" spans="1:9" ht="15" thickTop="1">
+      <c r="A181" t="s">
+        <v>176</v>
+      </c>
+      <c r="B181" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="C181" s="37" t="s">
+        <v>559</v>
+      </c>
+      <c r="D181" t="s">
+        <v>325</v>
+      </c>
+      <c r="E181" t="s">
+        <v>325</v>
+      </c>
+      <c r="H181" s="79" t="s">
+        <v>566</v>
+      </c>
+      <c r="I181" s="80"/>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" t="s">
+        <v>177</v>
+      </c>
+      <c r="B182" s="37" t="s">
+        <v>564</v>
+      </c>
+      <c r="C182" s="37" t="s">
+        <v>560</v>
+      </c>
+      <c r="D182" t="s">
+        <v>325</v>
+      </c>
+      <c r="E182" t="s">
+        <v>325</v>
+      </c>
+      <c r="H182" s="81"/>
+      <c r="I182" s="82"/>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" t="s">
+        <v>178</v>
+      </c>
+      <c r="B183" s="37" t="s">
+        <v>565</v>
+      </c>
+      <c r="C183" s="37" t="s">
+        <v>561</v>
+      </c>
+      <c r="D183" t="s">
+        <v>325</v>
+      </c>
+      <c r="E183" t="s">
+        <v>325</v>
+      </c>
+      <c r="H183" s="81"/>
+      <c r="I183" s="82"/>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" t="s">
+        <v>169</v>
+      </c>
+      <c r="B184" s="37" t="s">
+        <v>389</v>
+      </c>
+      <c r="C184" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="D184" t="s">
+        <v>325</v>
+      </c>
+      <c r="E184" t="s">
+        <v>325</v>
+      </c>
+      <c r="H184" s="81"/>
+      <c r="I184" s="82"/>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" t="s">
+        <v>168</v>
+      </c>
+      <c r="B185" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="C185" s="37" t="s">
+        <v>562</v>
+      </c>
+      <c r="D185" t="s">
+        <v>325</v>
+      </c>
+      <c r="E185" t="s">
+        <v>325</v>
+      </c>
+      <c r="H185" s="81"/>
+      <c r="I185" s="82"/>
+    </row>
+    <row r="186" spans="1:9" ht="15" thickBot="1">
+      <c r="A186" t="s">
+        <v>167</v>
+      </c>
+      <c r="B186" s="37" t="s">
+        <v>397</v>
+      </c>
+      <c r="C186" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="D186" t="s">
+        <v>325</v>
+      </c>
+      <c r="E186" t="s">
+        <v>325</v>
+      </c>
+      <c r="H186" s="83"/>
+      <c r="I186" s="84"/>
+    </row>
+    <row r="187" spans="1:9" s="24" customFormat="1" ht="15" thickTop="1">
+      <c r="B187" s="38"/>
+      <c r="C187" s="38"/>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="B188" s="37"/>
+      <c r="C188" s="37"/>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="B189" s="37"/>
+      <c r="C189" s="37"/>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="B190" s="37"/>
+      <c r="C190" s="37"/>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="B191" s="37"/>
+      <c r="C191" s="37"/>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="B192" s="37"/>
+      <c r="C192" s="37"/>
     </row>
     <row r="193" spans="2:3">
-      <c r="B193" s="36"/>
-      <c r="C193" s="36"/>
+      <c r="B193" s="37"/>
+      <c r="C193" s="37"/>
     </row>
     <row r="194" spans="2:3">
-      <c r="B194" s="36"/>
-      <c r="C194" s="36"/>
+      <c r="B194" s="37"/>
+      <c r="C194" s="37"/>
     </row>
     <row r="195" spans="2:3">
-      <c r="B195" s="36"/>
-      <c r="C195" s="36"/>
+      <c r="B195" s="37"/>
+      <c r="C195" s="37"/>
     </row>
     <row r="196" spans="2:3">
-      <c r="B196" s="36"/>
-      <c r="C196" s="36"/>
+      <c r="B196" s="37"/>
+      <c r="C196" s="37"/>
     </row>
     <row r="197" spans="2:3">
-      <c r="B197" s="36"/>
-      <c r="C197" s="36"/>
+      <c r="B197" s="37"/>
+      <c r="C197" s="37"/>
     </row>
     <row r="198" spans="2:3">
-      <c r="B198" s="36"/>
-      <c r="C198" s="36"/>
+      <c r="B198" s="37"/>
+      <c r="C198" s="37"/>
     </row>
     <row r="199" spans="2:3">
-      <c r="B199" s="36"/>
-      <c r="C199" s="36"/>
+      <c r="B199" s="37"/>
+      <c r="C199" s="37"/>
     </row>
     <row r="200" spans="2:3">
-      <c r="B200" s="36"/>
-      <c r="C200" s="36"/>
+      <c r="B200" s="37"/>
+      <c r="C200" s="37"/>
     </row>
     <row r="201" spans="2:3">
-      <c r="B201" s="36"/>
-      <c r="C201" s="36"/>
+      <c r="B201" s="37"/>
+      <c r="C201" s="37"/>
     </row>
     <row r="202" spans="2:3">
-      <c r="B202" s="36"/>
-      <c r="C202" s="36"/>
+      <c r="B202" s="37"/>
+      <c r="C202" s="37"/>
     </row>
     <row r="203" spans="2:3">
-      <c r="B203" s="36"/>
-      <c r="C203" s="36"/>
+      <c r="B203" s="37"/>
+      <c r="C203" s="37"/>
     </row>
     <row r="204" spans="2:3">
-      <c r="B204" s="36"/>
-      <c r="C204" s="36"/>
+      <c r="B204" s="37"/>
+      <c r="C204" s="37"/>
     </row>
     <row r="205" spans="2:3">
-      <c r="B205" s="36"/>
-      <c r="C205" s="36"/>
+      <c r="B205" s="37"/>
+      <c r="C205" s="37"/>
     </row>
     <row r="206" spans="2:3">
-      <c r="B206" s="36"/>
-      <c r="C206" s="36"/>
+      <c r="B206" s="37"/>
+      <c r="C206" s="37"/>
     </row>
     <row r="207" spans="2:3">
-      <c r="B207" s="36"/>
-      <c r="C207" s="36"/>
+      <c r="B207" s="37"/>
+      <c r="C207" s="37"/>
     </row>
     <row r="208" spans="2:3">
-      <c r="B208" s="36"/>
-      <c r="C208" s="36"/>
+      <c r="B208" s="37"/>
+      <c r="C208" s="37"/>
     </row>
     <row r="209" spans="2:3">
-      <c r="B209" s="36"/>
-      <c r="C209" s="36"/>
+      <c r="B209" s="37"/>
+      <c r="C209" s="37"/>
     </row>
     <row r="210" spans="2:3">
-      <c r="B210" s="36"/>
-      <c r="C210" s="36"/>
+      <c r="B210" s="37"/>
+      <c r="C210" s="37"/>
     </row>
     <row r="211" spans="2:3">
-      <c r="B211" s="36"/>
-      <c r="C211" s="36"/>
+      <c r="B211" s="37"/>
+      <c r="C211" s="37"/>
     </row>
     <row r="212" spans="2:3">
-      <c r="B212" s="36"/>
-      <c r="C212" s="36"/>
+      <c r="B212" s="37"/>
+      <c r="C212" s="37"/>
     </row>
     <row r="213" spans="2:3">
-      <c r="B213" s="36"/>
-      <c r="C213" s="36"/>
+      <c r="B213" s="37"/>
+      <c r="C213" s="37"/>
     </row>
     <row r="214" spans="2:3">
-      <c r="B214" s="36"/>
-      <c r="C214" s="36"/>
+      <c r="B214" s="37"/>
+      <c r="C214" s="37"/>
     </row>
     <row r="215" spans="2:3">
-      <c r="B215" s="36"/>
-      <c r="C215" s="36"/>
+      <c r="B215" s="37"/>
+      <c r="C215" s="37"/>
     </row>
     <row r="216" spans="2:3">
-      <c r="B216" s="36"/>
-      <c r="C216" s="36"/>
+      <c r="B216" s="37"/>
+      <c r="C216" s="37"/>
     </row>
     <row r="217" spans="2:3">
-      <c r="B217" s="36"/>
-      <c r="C217" s="36"/>
+      <c r="B217" s="37"/>
+      <c r="C217" s="37"/>
     </row>
     <row r="218" spans="2:3">
-      <c r="B218" s="36"/>
-      <c r="C218" s="36"/>
+      <c r="B218" s="37"/>
+      <c r="C218" s="37"/>
     </row>
     <row r="219" spans="2:3">
-      <c r="B219" s="36"/>
-      <c r="C219" s="36"/>
+      <c r="B219" s="37"/>
+      <c r="C219" s="37"/>
     </row>
     <row r="220" spans="2:3">
-      <c r="B220" s="36"/>
-      <c r="C220" s="36"/>
+      <c r="B220" s="37"/>
+      <c r="C220" s="37"/>
     </row>
     <row r="221" spans="2:3">
-      <c r="B221" s="36"/>
-      <c r="C221" s="36"/>
+      <c r="B221" s="37"/>
+      <c r="C221" s="37"/>
     </row>
     <row r="222" spans="2:3">
-      <c r="B222" s="36"/>
-      <c r="C222" s="36"/>
+      <c r="B222" s="37"/>
+      <c r="C222" s="37"/>
     </row>
     <row r="223" spans="2:3">
-      <c r="B223" s="36"/>
-      <c r="C223" s="36"/>
+      <c r="B223" s="37"/>
+      <c r="C223" s="37"/>
     </row>
     <row r="224" spans="2:3">
-      <c r="B224" s="36"/>
-      <c r="C224" s="36"/>
+      <c r="B224" s="37"/>
+      <c r="C224" s="37"/>
     </row>
     <row r="225" spans="2:3">
-      <c r="B225" s="36"/>
-      <c r="C225" s="36"/>
+      <c r="B225" s="37"/>
+      <c r="C225" s="37"/>
     </row>
     <row r="226" spans="2:3">
-      <c r="B226" s="36"/>
-      <c r="C226" s="36"/>
+      <c r="B226" s="37"/>
+      <c r="C226" s="37"/>
     </row>
     <row r="227" spans="2:3">
-      <c r="B227" s="36"/>
-      <c r="C227" s="36"/>
+      <c r="B227" s="37"/>
+      <c r="C227" s="37"/>
     </row>
     <row r="228" spans="2:3">
-      <c r="B228" s="36"/>
-      <c r="C228" s="36"/>
+      <c r="B228" s="37"/>
+      <c r="C228" s="37"/>
     </row>
     <row r="229" spans="2:3">
-      <c r="B229" s="36"/>
-      <c r="C229" s="36"/>
+      <c r="B229" s="37"/>
+      <c r="C229" s="37"/>
     </row>
     <row r="230" spans="2:3">
-      <c r="B230" s="36"/>
-      <c r="C230" s="36"/>
+      <c r="B230" s="37"/>
+      <c r="C230" s="37"/>
     </row>
     <row r="231" spans="2:3">
-      <c r="B231" s="36"/>
-      <c r="C231" s="36"/>
+      <c r="B231" s="37"/>
+      <c r="C231" s="37"/>
     </row>
     <row r="232" spans="2:3">
-      <c r="B232" s="36"/>
-      <c r="C232" s="36"/>
+      <c r="B232" s="37"/>
+      <c r="C232" s="37"/>
     </row>
     <row r="233" spans="2:3">
-      <c r="B233" s="36"/>
-      <c r="C233" s="36"/>
+      <c r="B233" s="37"/>
+      <c r="C233" s="37"/>
     </row>
     <row r="234" spans="2:3">
-      <c r="B234" s="36"/>
-      <c r="C234" s="36"/>
+      <c r="B234" s="37"/>
+      <c r="C234" s="37"/>
     </row>
     <row r="235" spans="2:3">
-      <c r="B235" s="36"/>
-      <c r="C235" s="36"/>
+      <c r="B235" s="37"/>
+      <c r="C235" s="37"/>
     </row>
     <row r="236" spans="2:3">
-      <c r="B236" s="36"/>
-      <c r="C236" s="36"/>
+      <c r="B236" s="37"/>
+      <c r="C236" s="37"/>
     </row>
     <row r="237" spans="2:3">
-      <c r="B237" s="36"/>
-      <c r="C237" s="36"/>
+      <c r="B237" s="37"/>
+      <c r="C237" s="37"/>
     </row>
     <row r="238" spans="2:3">
-      <c r="B238" s="36"/>
-      <c r="C238" s="36"/>
+      <c r="B238" s="37"/>
+      <c r="C238" s="37"/>
     </row>
     <row r="239" spans="2:3">
-      <c r="B239" s="36"/>
-      <c r="C239" s="36"/>
+      <c r="B239" s="37"/>
+      <c r="C239" s="37"/>
     </row>
     <row r="240" spans="2:3">
-      <c r="B240" s="36"/>
-      <c r="C240" s="36"/>
+      <c r="B240" s="37"/>
+      <c r="C240" s="37"/>
     </row>
     <row r="241" spans="2:3">
-      <c r="B241" s="36"/>
-      <c r="C241" s="36"/>
+      <c r="B241" s="37"/>
+      <c r="C241" s="37"/>
     </row>
     <row r="242" spans="2:3">
-      <c r="B242" s="36"/>
-      <c r="C242" s="36"/>
+      <c r="B242" s="37"/>
+      <c r="C242" s="37"/>
     </row>
     <row r="243" spans="2:3">
-      <c r="B243" s="36"/>
-      <c r="C243" s="36"/>
+      <c r="B243" s="37"/>
+      <c r="C243" s="37"/>
     </row>
     <row r="244" spans="2:3">
-      <c r="B244" s="36"/>
-      <c r="C244" s="36"/>
+      <c r="B244" s="37"/>
+      <c r="C244" s="37"/>
     </row>
     <row r="245" spans="2:3">
-      <c r="B245" s="36"/>
-      <c r="C245" s="36"/>
+      <c r="B245" s="37"/>
+      <c r="C245" s="37"/>
     </row>
     <row r="246" spans="2:3">
-      <c r="B246" s="36"/>
-      <c r="C246" s="36"/>
+      <c r="B246" s="37"/>
+      <c r="C246" s="37"/>
     </row>
     <row r="247" spans="2:3">
-      <c r="B247" s="36"/>
-      <c r="C247" s="36"/>
+      <c r="B247" s="37"/>
+      <c r="C247" s="37"/>
     </row>
     <row r="248" spans="2:3">
-      <c r="B248" s="36"/>
-      <c r="C248" s="36"/>
+      <c r="B248" s="37"/>
+      <c r="C248" s="37"/>
     </row>
     <row r="249" spans="2:3">
-      <c r="B249" s="36"/>
-      <c r="C249" s="36"/>
+      <c r="B249" s="37"/>
+      <c r="C249" s="37"/>
     </row>
     <row r="250" spans="2:3">
-      <c r="B250" s="36"/>
-      <c r="C250" s="36"/>
+      <c r="B250" s="37"/>
+      <c r="C250" s="37"/>
     </row>
     <row r="251" spans="2:3">
-      <c r="B251" s="36"/>
-      <c r="C251" s="36"/>
+      <c r="B251" s="37"/>
+      <c r="C251" s="37"/>
     </row>
     <row r="252" spans="2:3">
-      <c r="B252" s="36"/>
-      <c r="C252" s="36"/>
+      <c r="B252" s="37"/>
+      <c r="C252" s="37"/>
     </row>
     <row r="253" spans="2:3">
-      <c r="B253" s="36"/>
-      <c r="C253" s="36"/>
+      <c r="B253" s="37"/>
+      <c r="C253" s="37"/>
     </row>
     <row r="254" spans="2:3">
-      <c r="B254" s="36"/>
-      <c r="C254" s="36"/>
+      <c r="B254" s="37"/>
+      <c r="C254" s="37"/>
     </row>
     <row r="255" spans="2:3">
-      <c r="B255" s="36"/>
-      <c r="C255" s="36"/>
+      <c r="B255" s="37"/>
+      <c r="C255" s="37"/>
     </row>
     <row r="256" spans="2:3">
-      <c r="B256" s="36"/>
-      <c r="C256" s="36"/>
+      <c r="B256" s="37"/>
+      <c r="C256" s="37"/>
     </row>
     <row r="257" spans="2:3">
-      <c r="B257" s="36"/>
-      <c r="C257" s="36"/>
+      <c r="B257" s="37"/>
+      <c r="C257" s="37"/>
     </row>
     <row r="258" spans="2:3">
-      <c r="B258" s="36"/>
-      <c r="C258" s="36"/>
+      <c r="B258" s="37"/>
+      <c r="C258" s="37"/>
     </row>
     <row r="259" spans="2:3">
-      <c r="B259" s="36"/>
-      <c r="C259" s="36"/>
+      <c r="B259" s="37"/>
+      <c r="C259" s="37"/>
     </row>
     <row r="260" spans="2:3">
-      <c r="B260" s="36"/>
-      <c r="C260" s="36"/>
+      <c r="B260" s="37"/>
+      <c r="C260" s="37"/>
     </row>
     <row r="261" spans="2:3">
-      <c r="B261" s="36"/>
-      <c r="C261" s="36"/>
+      <c r="B261" s="37"/>
+      <c r="C261" s="37"/>
     </row>
     <row r="262" spans="2:3">
-      <c r="B262" s="36"/>
-      <c r="C262" s="36"/>
+      <c r="B262" s="37"/>
+      <c r="C262" s="37"/>
     </row>
     <row r="263" spans="2:3">
-      <c r="B263" s="36"/>
-      <c r="C263" s="36"/>
+      <c r="B263" s="37"/>
+      <c r="C263" s="37"/>
     </row>
     <row r="264" spans="2:3">
-      <c r="B264" s="36"/>
-      <c r="C264" s="36"/>
+      <c r="B264" s="37"/>
+      <c r="C264" s="37"/>
     </row>
     <row r="265" spans="2:3">
-      <c r="B265" s="36"/>
-      <c r="C265" s="36"/>
+      <c r="B265" s="37"/>
+      <c r="C265" s="37"/>
     </row>
     <row r="266" spans="2:3">
-      <c r="B266" s="36"/>
-      <c r="C266" s="36"/>
+      <c r="B266" s="37"/>
+      <c r="C266" s="37"/>
     </row>
     <row r="267" spans="2:3">
-      <c r="B267" s="36"/>
-      <c r="C267" s="36"/>
+      <c r="B267" s="37"/>
+      <c r="C267" s="37"/>
     </row>
     <row r="268" spans="2:3">
-      <c r="B268" s="36"/>
-      <c r="C268" s="36"/>
+      <c r="B268" s="37"/>
+      <c r="C268" s="37"/>
     </row>
     <row r="269" spans="2:3">
-      <c r="B269" s="36"/>
-      <c r="C269" s="36"/>
+      <c r="B269" s="37"/>
+      <c r="C269" s="37"/>
     </row>
     <row r="270" spans="2:3">
-      <c r="B270" s="36"/>
-      <c r="C270" s="36"/>
+      <c r="B270" s="37"/>
+      <c r="C270" s="37"/>
     </row>
     <row r="271" spans="2:3">
-      <c r="B271" s="36"/>
-      <c r="C271" s="36"/>
+      <c r="B271" s="37"/>
+      <c r="C271" s="37"/>
     </row>
     <row r="272" spans="2:3">
-      <c r="B272" s="36"/>
-      <c r="C272" s="36"/>
+      <c r="B272" s="37"/>
+      <c r="C272" s="37"/>
     </row>
     <row r="273" spans="2:3">
-      <c r="B273" s="36"/>
-      <c r="C273" s="36"/>
+      <c r="B273" s="37"/>
+      <c r="C273" s="37"/>
     </row>
     <row r="274" spans="2:3">
-      <c r="B274" s="36"/>
-      <c r="C274" s="36"/>
+      <c r="B274" s="37"/>
+      <c r="C274" s="37"/>
     </row>
     <row r="275" spans="2:3">
-      <c r="B275" s="36"/>
-      <c r="C275" s="36"/>
+      <c r="B275" s="37"/>
+      <c r="C275" s="37"/>
     </row>
     <row r="276" spans="2:3">
-      <c r="B276" s="36"/>
-      <c r="C276" s="36"/>
+      <c r="B276" s="37"/>
+      <c r="C276" s="37"/>
     </row>
     <row r="277" spans="2:3">
-      <c r="B277" s="36"/>
-      <c r="C277" s="36"/>
+      <c r="B277" s="37"/>
+      <c r="C277" s="37"/>
     </row>
     <row r="278" spans="2:3">
-      <c r="B278" s="36"/>
-      <c r="C278" s="36"/>
+      <c r="B278" s="37"/>
+      <c r="C278" s="37"/>
     </row>
     <row r="279" spans="2:3">
-      <c r="B279" s="36"/>
-      <c r="C279" s="36"/>
+      <c r="B279" s="37"/>
+      <c r="C279" s="37"/>
     </row>
     <row r="280" spans="2:3">
-      <c r="B280" s="36"/>
-      <c r="C280" s="36"/>
+      <c r="B280" s="37"/>
+      <c r="C280" s="37"/>
     </row>
     <row r="281" spans="2:3">
-      <c r="B281" s="36"/>
-      <c r="C281" s="36"/>
+      <c r="B281" s="37"/>
+      <c r="C281" s="37"/>
     </row>
     <row r="282" spans="2:3">
-      <c r="B282" s="36"/>
-      <c r="C282" s="36"/>
+      <c r="B282" s="37"/>
+      <c r="C282" s="37"/>
     </row>
     <row r="283" spans="2:3">
-      <c r="B283" s="36"/>
-      <c r="C283" s="36"/>
+      <c r="B283" s="37"/>
+      <c r="C283" s="37"/>
     </row>
     <row r="284" spans="2:3">
-      <c r="B284" s="36"/>
-      <c r="C284" s="36"/>
+      <c r="B284" s="37"/>
+      <c r="C284" s="37"/>
     </row>
     <row r="285" spans="2:3">
-      <c r="B285" s="36"/>
-      <c r="C285" s="36"/>
+      <c r="B285" s="37"/>
+      <c r="C285" s="37"/>
     </row>
     <row r="286" spans="2:3">
-      <c r="B286" s="36"/>
-      <c r="C286" s="36"/>
+      <c r="B286" s="37"/>
+      <c r="C286" s="37"/>
     </row>
     <row r="287" spans="2:3">
-      <c r="B287" s="36"/>
-      <c r="C287" s="36"/>
+      <c r="B287" s="37"/>
+      <c r="C287" s="37"/>
     </row>
     <row r="288" spans="2:3">
-      <c r="B288" s="36"/>
-      <c r="C288" s="36"/>
+      <c r="B288" s="37"/>
+      <c r="C288" s="37"/>
     </row>
     <row r="289" spans="2:3">
-      <c r="B289" s="36"/>
-      <c r="C289" s="36"/>
+      <c r="B289" s="37"/>
+      <c r="C289" s="37"/>
     </row>
     <row r="290" spans="2:3">
-      <c r="B290" s="36"/>
-      <c r="C290" s="36"/>
+      <c r="B290" s="37"/>
+      <c r="C290" s="37"/>
     </row>
     <row r="291" spans="2:3">
-      <c r="B291" s="36"/>
-      <c r="C291" s="36"/>
+      <c r="B291" s="37"/>
+      <c r="C291" s="37"/>
     </row>
     <row r="292" spans="2:3">
-      <c r="B292" s="36"/>
-      <c r="C292" s="36"/>
+      <c r="B292" s="37"/>
+      <c r="C292" s="37"/>
     </row>
     <row r="293" spans="2:3">
-      <c r="B293" s="36"/>
-      <c r="C293" s="36"/>
+      <c r="B293" s="37"/>
+      <c r="C293" s="37"/>
     </row>
     <row r="294" spans="2:3">
-      <c r="B294" s="36"/>
-      <c r="C294" s="36"/>
+      <c r="B294" s="37"/>
+      <c r="C294" s="37"/>
     </row>
     <row r="295" spans="2:3">
-      <c r="B295" s="36"/>
-      <c r="C295" s="36"/>
+      <c r="B295" s="37"/>
+      <c r="C295" s="37"/>
     </row>
     <row r="296" spans="2:3">
-      <c r="B296" s="36"/>
-      <c r="C296" s="36"/>
+      <c r="B296" s="37"/>
+      <c r="C296" s="37"/>
     </row>
     <row r="297" spans="2:3">
-      <c r="B297" s="36"/>
-      <c r="C297" s="36"/>
+      <c r="B297" s="37"/>
+      <c r="C297" s="37"/>
     </row>
     <row r="298" spans="2:3">
-      <c r="B298" s="36"/>
-      <c r="C298" s="36"/>
+      <c r="B298" s="37"/>
+      <c r="C298" s="37"/>
     </row>
     <row r="299" spans="2:3">
-      <c r="B299" s="36"/>
-      <c r="C299" s="36"/>
+      <c r="B299" s="37"/>
+      <c r="C299" s="37"/>
     </row>
     <row r="300" spans="2:3">
-      <c r="B300" s="36"/>
-      <c r="C300" s="36"/>
+      <c r="B300" s="37"/>
+      <c r="C300" s="37"/>
     </row>
     <row r="301" spans="2:3">
-      <c r="B301" s="36"/>
-      <c r="C301" s="36"/>
+      <c r="B301" s="37"/>
+      <c r="C301" s="37"/>
     </row>
     <row r="302" spans="2:3">
-      <c r="B302" s="36"/>
-      <c r="C302" s="36"/>
+      <c r="B302" s="37"/>
+      <c r="C302" s="37"/>
     </row>
     <row r="303" spans="2:3">
-      <c r="B303" s="36"/>
-      <c r="C303" s="36"/>
+      <c r="B303" s="37"/>
+      <c r="C303" s="37"/>
     </row>
     <row r="304" spans="2:3">
-      <c r="B304" s="36"/>
-      <c r="C304" s="36"/>
+      <c r="B304" s="37"/>
+      <c r="C304" s="37"/>
     </row>
     <row r="305" spans="2:3">
-      <c r="B305" s="36"/>
-      <c r="C305" s="36"/>
+      <c r="B305" s="37"/>
+      <c r="C305" s="37"/>
     </row>
     <row r="306" spans="2:3">
-      <c r="B306" s="36"/>
-      <c r="C306" s="36"/>
+      <c r="B306" s="37"/>
+      <c r="C306" s="37"/>
     </row>
     <row r="307" spans="2:3">
-      <c r="B307" s="36"/>
-      <c r="C307" s="36"/>
+      <c r="B307" s="37"/>
+      <c r="C307" s="37"/>
     </row>
     <row r="308" spans="2:3">
-      <c r="B308" s="36"/>
-      <c r="C308" s="36"/>
+      <c r="B308" s="37"/>
+      <c r="C308" s="37"/>
     </row>
     <row r="309" spans="2:3">
-      <c r="B309" s="36"/>
-      <c r="C309" s="36"/>
+      <c r="B309" s="37"/>
+      <c r="C309" s="37"/>
     </row>
     <row r="310" spans="2:3">
-      <c r="B310" s="36"/>
-      <c r="C310" s="36"/>
+      <c r="B310" s="37"/>
+      <c r="C310" s="37"/>
     </row>
     <row r="311" spans="2:3">
-      <c r="B311" s="36"/>
-      <c r="C311" s="36"/>
+      <c r="B311" s="37"/>
+      <c r="C311" s="37"/>
     </row>
     <row r="312" spans="2:3">
-      <c r="B312" s="36"/>
-      <c r="C312" s="36"/>
+      <c r="B312" s="37"/>
+      <c r="C312" s="37"/>
     </row>
     <row r="313" spans="2:3">
-      <c r="B313" s="36"/>
-      <c r="C313" s="36"/>
+      <c r="B313" s="37"/>
+      <c r="C313" s="37"/>
     </row>
     <row r="314" spans="2:3">
-      <c r="B314" s="36"/>
-      <c r="C314" s="36"/>
+      <c r="B314" s="37"/>
+      <c r="C314" s="37"/>
     </row>
     <row r="315" spans="2:3">
-      <c r="B315" s="36"/>
-      <c r="C315" s="36"/>
+      <c r="B315" s="37"/>
+      <c r="C315" s="37"/>
     </row>
     <row r="316" spans="2:3">
-      <c r="B316" s="36"/>
-      <c r="C316" s="36"/>
+      <c r="B316" s="37"/>
+      <c r="C316" s="37"/>
     </row>
     <row r="317" spans="2:3">
-      <c r="B317" s="36"/>
-      <c r="C317" s="36"/>
+      <c r="B317" s="37"/>
+      <c r="C317" s="37"/>
     </row>
     <row r="318" spans="2:3">
-      <c r="B318" s="36"/>
-      <c r="C318" s="36"/>
+      <c r="B318" s="37"/>
+      <c r="C318" s="37"/>
     </row>
     <row r="319" spans="2:3">
-      <c r="B319" s="36"/>
-      <c r="C319" s="36"/>
+      <c r="B319" s="37"/>
+      <c r="C319" s="37"/>
     </row>
     <row r="320" spans="2:3">
-      <c r="B320" s="36"/>
-      <c r="C320" s="36"/>
+      <c r="B320" s="37"/>
+      <c r="C320" s="37"/>
     </row>
     <row r="321" spans="2:3">
-      <c r="B321" s="36"/>
-      <c r="C321" s="36"/>
+      <c r="B321" s="37"/>
+      <c r="C321" s="37"/>
     </row>
     <row r="322" spans="2:3">
-      <c r="B322" s="36"/>
-      <c r="C322" s="36"/>
+      <c r="B322" s="37"/>
+      <c r="C322" s="37"/>
     </row>
     <row r="323" spans="2:3">
-      <c r="B323" s="36"/>
-      <c r="C323" s="36"/>
+      <c r="B323" s="37"/>
+      <c r="C323" s="37"/>
     </row>
     <row r="324" spans="2:3">
-      <c r="B324" s="36"/>
-      <c r="C324" s="36"/>
+      <c r="B324" s="37"/>
+      <c r="C324" s="37"/>
     </row>
     <row r="325" spans="2:3">
-      <c r="B325" s="36"/>
-      <c r="C325" s="36"/>
+      <c r="B325" s="37"/>
+      <c r="C325" s="37"/>
     </row>
     <row r="326" spans="2:3">
-      <c r="B326" s="36"/>
-      <c r="C326" s="36"/>
+      <c r="B326" s="37"/>
+      <c r="C326" s="37"/>
     </row>
     <row r="327" spans="2:3">
-      <c r="B327" s="36"/>
-      <c r="C327" s="36"/>
+      <c r="B327" s="37"/>
+      <c r="C327" s="37"/>
     </row>
     <row r="328" spans="2:3">
-      <c r="B328" s="36"/>
-      <c r="C328" s="36"/>
+      <c r="B328" s="37"/>
+      <c r="C328" s="37"/>
     </row>
     <row r="329" spans="2:3">
-      <c r="B329" s="36"/>
-      <c r="C329" s="36"/>
+      <c r="B329" s="37"/>
+      <c r="C329" s="37"/>
     </row>
     <row r="330" spans="2:3">
-      <c r="B330" s="36"/>
-      <c r="C330" s="36"/>
+      <c r="B330" s="37"/>
+      <c r="C330" s="37"/>
     </row>
     <row r="331" spans="2:3">
-      <c r="B331" s="36"/>
-      <c r="C331" s="36"/>
+      <c r="B331" s="37"/>
+      <c r="C331" s="37"/>
     </row>
     <row r="332" spans="2:3">
-      <c r="B332" s="36"/>
-      <c r="C332" s="36"/>
+      <c r="B332" s="37"/>
+      <c r="C332" s="37"/>
     </row>
     <row r="333" spans="2:3">
-      <c r="B333" s="36"/>
-      <c r="C333" s="36"/>
+      <c r="B333" s="37"/>
+      <c r="C333" s="37"/>
     </row>
     <row r="334" spans="2:3">
-      <c r="B334" s="36"/>
-      <c r="C334" s="36"/>
+      <c r="B334" s="37"/>
+      <c r="C334" s="37"/>
     </row>
     <row r="335" spans="2:3">
-      <c r="B335" s="36"/>
-      <c r="C335" s="36"/>
+      <c r="B335" s="37"/>
+      <c r="C335" s="37"/>
     </row>
     <row r="336" spans="2:3">
-      <c r="B336" s="36"/>
-      <c r="C336" s="36"/>
+      <c r="B336" s="37"/>
+      <c r="C336" s="37"/>
     </row>
     <row r="337" spans="2:3">
-      <c r="B337" s="36"/>
-      <c r="C337" s="36"/>
+      <c r="B337" s="37"/>
+      <c r="C337" s="37"/>
     </row>
     <row r="338" spans="2:3">
-      <c r="B338" s="36"/>
-      <c r="C338" s="36"/>
+      <c r="B338" s="37"/>
+      <c r="C338" s="37"/>
     </row>
     <row r="339" spans="2:3">
-      <c r="B339" s="36"/>
-      <c r="C339" s="36"/>
+      <c r="B339" s="37"/>
+      <c r="C339" s="37"/>
     </row>
     <row r="340" spans="2:3">
-      <c r="B340" s="36"/>
-      <c r="C340" s="36"/>
+      <c r="B340" s="37"/>
+      <c r="C340" s="37"/>
     </row>
     <row r="341" spans="2:3">
-      <c r="B341" s="36"/>
-      <c r="C341" s="36"/>
+      <c r="B341" s="37"/>
+      <c r="C341" s="37"/>
     </row>
     <row r="342" spans="2:3">
-      <c r="B342" s="36"/>
-      <c r="C342" s="36"/>
+      <c r="B342" s="37"/>
+      <c r="C342" s="37"/>
     </row>
     <row r="343" spans="2:3">
-      <c r="B343" s="36"/>
-      <c r="C343" s="36"/>
+      <c r="B343" s="37"/>
+      <c r="C343" s="37"/>
     </row>
     <row r="344" spans="2:3">
-      <c r="B344" s="36"/>
-      <c r="C344" s="36"/>
+      <c r="B344" s="37"/>
+      <c r="C344" s="37"/>
     </row>
     <row r="345" spans="2:3">
-      <c r="B345" s="36"/>
-      <c r="C345" s="36"/>
+      <c r="B345" s="37"/>
+      <c r="C345" s="37"/>
     </row>
     <row r="346" spans="2:3">
-      <c r="B346" s="36"/>
-      <c r="C346" s="36"/>
+      <c r="B346" s="37"/>
+      <c r="C346" s="37"/>
     </row>
     <row r="347" spans="2:3">
-      <c r="B347" s="36"/>
-      <c r="C347" s="36"/>
+      <c r="B347" s="37"/>
+      <c r="C347" s="37"/>
     </row>
     <row r="348" spans="2:3">
-      <c r="B348" s="36"/>
-      <c r="C348" s="36"/>
+      <c r="B348" s="37"/>
+      <c r="C348" s="37"/>
     </row>
     <row r="349" spans="2:3">
-      <c r="B349" s="36"/>
-      <c r="C349" s="36"/>
+      <c r="B349" s="37"/>
+      <c r="C349" s="37"/>
     </row>
     <row r="350" spans="2:3">
-      <c r="B350" s="36"/>
-      <c r="C350" s="36"/>
+      <c r="B350" s="37"/>
+      <c r="C350" s="37"/>
     </row>
     <row r="351" spans="2:3">
-      <c r="B351" s="36"/>
-      <c r="C351" s="36"/>
+      <c r="B351" s="37"/>
+      <c r="C351" s="37"/>
     </row>
     <row r="352" spans="2:3">
-      <c r="B352" s="36"/>
-      <c r="C352" s="36"/>
+      <c r="B352" s="37"/>
+      <c r="C352" s="37"/>
     </row>
     <row r="353" spans="2:3">
-      <c r="B353" s="36"/>
-      <c r="C353" s="36"/>
+      <c r="B353" s="37"/>
+      <c r="C353" s="37"/>
     </row>
     <row r="354" spans="2:3">
-      <c r="B354" s="36"/>
-      <c r="C354" s="36"/>
+      <c r="B354" s="37"/>
+      <c r="C354" s="37"/>
     </row>
     <row r="355" spans="2:3">
-      <c r="B355" s="36"/>
-      <c r="C355" s="36"/>
+      <c r="B355" s="37"/>
+      <c r="C355" s="37"/>
     </row>
     <row r="356" spans="2:3">
-      <c r="B356" s="36"/>
-      <c r="C356" s="36"/>
+      <c r="B356" s="37"/>
+      <c r="C356" s="37"/>
     </row>
     <row r="357" spans="2:3">
-      <c r="B357" s="36"/>
-      <c r="C357" s="36"/>
+      <c r="B357" s="37"/>
+      <c r="C357" s="37"/>
     </row>
     <row r="358" spans="2:3">
-      <c r="B358" s="36"/>
-      <c r="C358" s="36"/>
+      <c r="B358" s="37"/>
+      <c r="C358" s="37"/>
     </row>
     <row r="359" spans="2:3">
-      <c r="B359" s="36"/>
-      <c r="C359" s="36"/>
+      <c r="B359" s="37"/>
+      <c r="C359" s="37"/>
     </row>
     <row r="360" spans="2:3">
-      <c r="B360" s="36"/>
-      <c r="C360" s="36"/>
+      <c r="B360" s="37"/>
+      <c r="C360" s="37"/>
     </row>
     <row r="361" spans="2:3">
-      <c r="B361" s="36"/>
-      <c r="C361" s="36"/>
+      <c r="B361" s="37"/>
+      <c r="C361" s="37"/>
     </row>
     <row r="362" spans="2:3">
-      <c r="B362" s="36"/>
-      <c r="C362" s="36"/>
+      <c r="B362" s="37"/>
+      <c r="C362" s="37"/>
     </row>
     <row r="363" spans="2:3">
-      <c r="B363" s="36"/>
-      <c r="C363" s="36"/>
+      <c r="B363" s="37"/>
+      <c r="C363" s="37"/>
     </row>
     <row r="364" spans="2:3">
-      <c r="B364" s="36"/>
-      <c r="C364" s="36"/>
+      <c r="B364" s="37"/>
+      <c r="C364" s="37"/>
     </row>
     <row r="365" spans="2:3">
-      <c r="B365" s="36"/>
-      <c r="C365" s="36"/>
+      <c r="B365" s="37"/>
+      <c r="C365" s="37"/>
     </row>
     <row r="366" spans="2:3">
-      <c r="B366" s="36"/>
-      <c r="C366" s="36"/>
+      <c r="B366" s="37"/>
+      <c r="C366" s="37"/>
     </row>
     <row r="367" spans="2:3">
-      <c r="B367" s="36"/>
-      <c r="C367" s="36"/>
+      <c r="B367" s="37"/>
+      <c r="C367" s="37"/>
     </row>
     <row r="368" spans="2:3">
-      <c r="B368" s="36"/>
-      <c r="C368" s="36"/>
+      <c r="B368" s="37"/>
+      <c r="C368" s="37"/>
     </row>
     <row r="369" spans="2:3">
-      <c r="B369" s="36"/>
-      <c r="C369" s="36"/>
+      <c r="B369" s="37"/>
+      <c r="C369" s="37"/>
     </row>
     <row r="370" spans="2:3">
-      <c r="B370" s="36"/>
-      <c r="C370" s="36"/>
+      <c r="B370" s="37"/>
+      <c r="C370" s="37"/>
     </row>
     <row r="371" spans="2:3">
-      <c r="B371" s="36"/>
-      <c r="C371" s="36"/>
+      <c r="B371" s="37"/>
+      <c r="C371" s="37"/>
     </row>
     <row r="372" spans="2:3">
-      <c r="B372" s="36"/>
-      <c r="C372" s="36"/>
+      <c r="B372" s="37"/>
+      <c r="C372" s="37"/>
     </row>
     <row r="373" spans="2:3">
-      <c r="B373" s="36"/>
-      <c r="C373" s="36"/>
+      <c r="B373" s="37"/>
+      <c r="C373" s="37"/>
     </row>
     <row r="374" spans="2:3">
-      <c r="B374" s="36"/>
-      <c r="C374" s="36"/>
+      <c r="B374" s="37"/>
+      <c r="C374" s="37"/>
     </row>
     <row r="375" spans="2:3">
-      <c r="B375" s="36"/>
-      <c r="C375" s="36"/>
+      <c r="B375" s="37"/>
+      <c r="C375" s="37"/>
     </row>
     <row r="376" spans="2:3">
-      <c r="B376" s="36"/>
-      <c r="C376" s="36"/>
+      <c r="B376" s="37"/>
+      <c r="C376" s="37"/>
     </row>
     <row r="377" spans="2:3">
-      <c r="B377" s="36"/>
-      <c r="C377" s="36"/>
+      <c r="B377" s="37"/>
+      <c r="C377" s="37"/>
     </row>
     <row r="378" spans="2:3">
-      <c r="B378" s="36"/>
-      <c r="C378" s="36"/>
+      <c r="B378" s="37"/>
+      <c r="C378" s="37"/>
     </row>
     <row r="379" spans="2:3">
-      <c r="B379" s="36"/>
-      <c r="C379" s="36"/>
+      <c r="B379" s="37"/>
+      <c r="C379" s="37"/>
     </row>
     <row r="380" spans="2:3">
-      <c r="B380" s="36"/>
-      <c r="C380" s="36"/>
+      <c r="B380" s="37"/>
+      <c r="C380" s="37"/>
     </row>
     <row r="381" spans="2:3">
-      <c r="B381" s="36"/>
-      <c r="C381" s="36"/>
+      <c r="B381" s="37"/>
+      <c r="C381" s="37"/>
     </row>
     <row r="382" spans="2:3">
-      <c r="B382" s="36"/>
-      <c r="C382" s="36"/>
+      <c r="B382" s="37"/>
+      <c r="C382" s="37"/>
     </row>
     <row r="383" spans="2:3">
-      <c r="B383" s="36"/>
-      <c r="C383" s="36"/>
+      <c r="B383" s="37"/>
+      <c r="C383" s="37"/>
     </row>
     <row r="384" spans="2:3">
-      <c r="B384" s="36"/>
-      <c r="C384" s="36"/>
+      <c r="B384" s="37"/>
+      <c r="C384" s="37"/>
     </row>
     <row r="385" spans="2:3">
-      <c r="B385" s="36"/>
-      <c r="C385" s="36"/>
+      <c r="B385" s="37"/>
+      <c r="C385" s="37"/>
     </row>
     <row r="386" spans="2:3">
-      <c r="B386" s="36"/>
-      <c r="C386" s="36"/>
+      <c r="B386" s="37"/>
+      <c r="C386" s="37"/>
     </row>
     <row r="387" spans="2:3">
-      <c r="B387" s="36"/>
-      <c r="C387" s="36"/>
+      <c r="B387" s="37"/>
+      <c r="C387" s="37"/>
     </row>
     <row r="388" spans="2:3">
-      <c r="B388" s="36"/>
-      <c r="C388" s="36"/>
+      <c r="B388" s="37"/>
+      <c r="C388" s="37"/>
     </row>
     <row r="389" spans="2:3">
-      <c r="B389" s="36"/>
-      <c r="C389" s="36"/>
+      <c r="B389" s="37"/>
+      <c r="C389" s="37"/>
     </row>
     <row r="390" spans="2:3">
-      <c r="B390" s="36"/>
-      <c r="C390" s="36"/>
+      <c r="B390" s="37"/>
+      <c r="C390" s="37"/>
     </row>
     <row r="391" spans="2:3">
-      <c r="B391" s="36"/>
-      <c r="C391" s="36"/>
+      <c r="B391" s="37"/>
+      <c r="C391" s="37"/>
     </row>
     <row r="392" spans="2:3">
-      <c r="B392" s="36"/>
-      <c r="C392" s="36"/>
+      <c r="B392" s="37"/>
+      <c r="C392" s="37"/>
     </row>
     <row r="393" spans="2:3">
-      <c r="B393" s="36"/>
-      <c r="C393" s="36"/>
+      <c r="B393" s="37"/>
+      <c r="C393" s="37"/>
     </row>
     <row r="394" spans="2:3">
-      <c r="B394" s="36"/>
-      <c r="C394" s="36"/>
+      <c r="B394" s="37"/>
+      <c r="C394" s="37"/>
     </row>
     <row r="395" spans="2:3">
-      <c r="B395" s="36"/>
-      <c r="C395" s="36"/>
+      <c r="B395" s="37"/>
+      <c r="C395" s="37"/>
     </row>
     <row r="396" spans="2:3">
-      <c r="B396" s="36"/>
-      <c r="C396" s="36"/>
+      <c r="B396" s="37"/>
+      <c r="C396" s="37"/>
     </row>
     <row r="397" spans="2:3">
-      <c r="B397" s="36"/>
-      <c r="C397" s="36"/>
+      <c r="B397" s="37"/>
+      <c r="C397" s="37"/>
     </row>
     <row r="398" spans="2:3">
-      <c r="B398" s="36"/>
-      <c r="C398" s="36"/>
+      <c r="B398" s="37"/>
+      <c r="C398" s="37"/>
     </row>
     <row r="399" spans="2:3">
-      <c r="B399" s="36"/>
-      <c r="C399" s="36"/>
+      <c r="B399" s="37"/>
+      <c r="C399" s="37"/>
     </row>
     <row r="400" spans="2:3">
-      <c r="B400" s="36"/>
-      <c r="C400" s="36"/>
+      <c r="B400" s="37"/>
+      <c r="C400" s="37"/>
     </row>
     <row r="401" spans="2:3">
-      <c r="B401" s="36"/>
-      <c r="C401" s="36"/>
+      <c r="B401" s="37"/>
+      <c r="C401" s="37"/>
     </row>
     <row r="402" spans="2:3">
-      <c r="B402" s="36"/>
-      <c r="C402" s="36"/>
+      <c r="B402" s="37"/>
+      <c r="C402" s="37"/>
     </row>
     <row r="403" spans="2:3">
-      <c r="B403" s="36"/>
-      <c r="C403" s="36"/>
+      <c r="B403" s="37"/>
+      <c r="C403" s="37"/>
     </row>
     <row r="404" spans="2:3">
-      <c r="B404" s="36"/>
-      <c r="C404" s="36"/>
+      <c r="B404" s="37"/>
+      <c r="C404" s="37"/>
     </row>
     <row r="405" spans="2:3">
-      <c r="B405" s="36"/>
-      <c r="C405" s="36"/>
+      <c r="B405" s="37"/>
+      <c r="C405" s="37"/>
     </row>
     <row r="406" spans="2:3">
-      <c r="B406" s="36"/>
-      <c r="C406" s="36"/>
+      <c r="B406" s="37"/>
+      <c r="C406" s="37"/>
     </row>
     <row r="407" spans="2:3">
-      <c r="B407" s="36"/>
-      <c r="C407" s="36"/>
+      <c r="B407" s="37"/>
+      <c r="C407" s="37"/>
     </row>
     <row r="408" spans="2:3">
-      <c r="B408" s="36"/>
-      <c r="C408" s="36"/>
+      <c r="B408" s="37"/>
+      <c r="C408" s="37"/>
     </row>
     <row r="409" spans="2:3">
-      <c r="B409" s="36"/>
-      <c r="C409" s="36"/>
+      <c r="B409" s="37"/>
+      <c r="C409" s="37"/>
     </row>
     <row r="410" spans="2:3">
-      <c r="B410" s="36"/>
-      <c r="C410" s="36"/>
+      <c r="B410" s="37"/>
+      <c r="C410" s="37"/>
     </row>
     <row r="411" spans="2:3">
-      <c r="B411" s="36"/>
-      <c r="C411" s="36"/>
+      <c r="B411" s="37"/>
+      <c r="C411" s="37"/>
     </row>
     <row r="412" spans="2:3">
-      <c r="B412" s="36"/>
-      <c r="C412" s="36"/>
+      <c r="B412" s="37"/>
+      <c r="C412" s="37"/>
     </row>
     <row r="413" spans="2:3">
-      <c r="B413" s="36"/>
-      <c r="C413" s="36"/>
+      <c r="B413" s="37"/>
+      <c r="C413" s="37"/>
     </row>
     <row r="414" spans="2:3">
-      <c r="B414" s="36"/>
-      <c r="C414" s="36"/>
+      <c r="B414" s="37"/>
+      <c r="C414" s="37"/>
     </row>
     <row r="415" spans="2:3">
-      <c r="B415" s="36"/>
-      <c r="C415" s="36"/>
+      <c r="B415" s="37"/>
+      <c r="C415" s="37"/>
     </row>
     <row r="416" spans="2:3">
-      <c r="B416" s="36"/>
-      <c r="C416" s="36"/>
+      <c r="B416" s="37"/>
+      <c r="C416" s="37"/>
     </row>
     <row r="417" spans="2:3">
-      <c r="B417" s="36"/>
-      <c r="C417" s="36"/>
+      <c r="B417" s="37"/>
+      <c r="C417" s="37"/>
     </row>
     <row r="418" spans="2:3">
-      <c r="B418" s="36"/>
-      <c r="C418" s="36"/>
+      <c r="B418" s="37"/>
+      <c r="C418" s="37"/>
     </row>
     <row r="419" spans="2:3">
-      <c r="B419" s="36"/>
-      <c r="C419" s="36"/>
+      <c r="B419" s="37"/>
+      <c r="C419" s="37"/>
     </row>
     <row r="420" spans="2:3">
-      <c r="B420" s="36"/>
-      <c r="C420" s="36"/>
+      <c r="B420" s="37"/>
+      <c r="C420" s="37"/>
     </row>
     <row r="421" spans="2:3">
-      <c r="B421" s="36"/>
-      <c r="C421" s="36"/>
+      <c r="B421" s="37"/>
+      <c r="C421" s="37"/>
     </row>
     <row r="422" spans="2:3">
-      <c r="B422" s="36"/>
-      <c r="C422" s="36"/>
+      <c r="B422" s="37"/>
+      <c r="C422" s="37"/>
     </row>
     <row r="423" spans="2:3">
-      <c r="B423" s="36"/>
-      <c r="C423" s="36"/>
+      <c r="B423" s="37"/>
+      <c r="C423" s="37"/>
     </row>
     <row r="424" spans="2:3">
-      <c r="B424" s="36"/>
-      <c r="C424" s="36"/>
+      <c r="B424" s="37"/>
+      <c r="C424" s="37"/>
     </row>
     <row r="425" spans="2:3">
-      <c r="B425" s="36"/>
-      <c r="C425" s="36"/>
+      <c r="B425" s="37"/>
+      <c r="C425" s="37"/>
     </row>
     <row r="426" spans="2:3">
-      <c r="B426" s="36"/>
-      <c r="C426" s="36"/>
+      <c r="B426" s="37"/>
+      <c r="C426" s="37"/>
     </row>
     <row r="427" spans="2:3">
-      <c r="B427" s="36"/>
-      <c r="C427" s="36"/>
+      <c r="B427" s="37"/>
+      <c r="C427" s="37"/>
     </row>
     <row r="428" spans="2:3">
-      <c r="B428" s="36"/>
-      <c r="C428" s="36"/>
+      <c r="B428" s="37"/>
+      <c r="C428" s="37"/>
     </row>
     <row r="429" spans="2:3">
-      <c r="B429" s="36"/>
-      <c r="C429" s="36"/>
+      <c r="B429" s="37"/>
+      <c r="C429" s="37"/>
     </row>
     <row r="430" spans="2:3">
-      <c r="B430" s="36"/>
-      <c r="C430" s="36"/>
+      <c r="B430" s="37"/>
+      <c r="C430" s="37"/>
     </row>
     <row r="431" spans="2:3">
-      <c r="B431" s="36"/>
-      <c r="C431" s="36"/>
+      <c r="B431" s="37"/>
+      <c r="C431" s="37"/>
     </row>
     <row r="432" spans="2:3">
-      <c r="B432" s="36"/>
-      <c r="C432" s="36"/>
+      <c r="B432" s="37"/>
+      <c r="C432" s="37"/>
     </row>
     <row r="433" spans="2:3">
-      <c r="B433" s="36"/>
-      <c r="C433" s="36"/>
+      <c r="B433" s="37"/>
+      <c r="C433" s="37"/>
     </row>
     <row r="434" spans="2:3">
-      <c r="B434" s="36"/>
-      <c r="C434" s="36"/>
+      <c r="B434" s="37"/>
+      <c r="C434" s="37"/>
     </row>
     <row r="435" spans="2:3">
-      <c r="B435" s="36"/>
-      <c r="C435" s="36"/>
+      <c r="B435" s="37"/>
+      <c r="C435" s="37"/>
     </row>
     <row r="436" spans="2:3">
-      <c r="B436" s="36"/>
-      <c r="C436" s="36"/>
+      <c r="B436" s="37"/>
+      <c r="C436" s="37"/>
     </row>
     <row r="437" spans="2:3">
-      <c r="B437" s="36"/>
-      <c r="C437" s="36"/>
+      <c r="B437" s="37"/>
+      <c r="C437" s="37"/>
     </row>
     <row r="438" spans="2:3">
-      <c r="B438" s="36"/>
-      <c r="C438" s="36"/>
+      <c r="B438" s="37"/>
+      <c r="C438" s="37"/>
     </row>
     <row r="439" spans="2:3">
-      <c r="B439" s="36"/>
-      <c r="C439" s="36"/>
+      <c r="B439" s="37"/>
+      <c r="C439" s="37"/>
     </row>
     <row r="440" spans="2:3">
-      <c r="B440" s="36"/>
-      <c r="C440" s="36"/>
+      <c r="B440" s="37"/>
+      <c r="C440" s="37"/>
     </row>
     <row r="441" spans="2:3">
-      <c r="B441" s="36"/>
-      <c r="C441" s="36"/>
+      <c r="B441" s="37"/>
+      <c r="C441" s="37"/>
     </row>
     <row r="442" spans="2:3">
-      <c r="B442" s="36"/>
-      <c r="C442" s="36"/>
+      <c r="B442" s="37"/>
+      <c r="C442" s="37"/>
     </row>
     <row r="443" spans="2:3">
-      <c r="B443" s="36"/>
-      <c r="C443" s="36"/>
+      <c r="B443" s="37"/>
+      <c r="C443" s="37"/>
     </row>
     <row r="444" spans="2:3">
-      <c r="B444" s="36"/>
-      <c r="C444" s="36"/>
+      <c r="B444" s="37"/>
+      <c r="C444" s="37"/>
     </row>
     <row r="445" spans="2:3">
-      <c r="B445" s="36"/>
-      <c r="C445" s="36"/>
+      <c r="B445" s="37"/>
+      <c r="C445" s="37"/>
     </row>
     <row r="446" spans="2:3">
-      <c r="B446" s="36"/>
-      <c r="C446" s="36"/>
+      <c r="B446" s="37"/>
+      <c r="C446" s="37"/>
     </row>
     <row r="447" spans="2:3">
-      <c r="B447" s="36"/>
-      <c r="C447" s="36"/>
+      <c r="B447" s="37"/>
+      <c r="C447" s="37"/>
     </row>
     <row r="448" spans="2:3">
-      <c r="B448" s="36"/>
-      <c r="C448" s="36"/>
+      <c r="B448" s="37"/>
+      <c r="C448" s="37"/>
     </row>
     <row r="449" spans="2:3">
-      <c r="B449" s="36"/>
-      <c r="C449" s="36"/>
+      <c r="B449" s="37"/>
+      <c r="C449" s="37"/>
     </row>
     <row r="450" spans="2:3">
-      <c r="B450" s="36"/>
-      <c r="C450" s="36"/>
+      <c r="B450" s="37"/>
+      <c r="C450" s="37"/>
     </row>
     <row r="451" spans="2:3">
-      <c r="B451" s="36"/>
-      <c r="C451" s="36"/>
+      <c r="B451" s="37"/>
+      <c r="C451" s="37"/>
     </row>
     <row r="452" spans="2:3">
-      <c r="B452" s="36"/>
-      <c r="C452" s="36"/>
+      <c r="B452" s="37"/>
+      <c r="C452" s="37"/>
     </row>
     <row r="453" spans="2:3">
-      <c r="B453" s="36"/>
-      <c r="C453" s="36"/>
+      <c r="B453" s="37"/>
+      <c r="C453" s="37"/>
     </row>
     <row r="454" spans="2:3">
-      <c r="B454" s="36"/>
-      <c r="C454" s="36"/>
+      <c r="B454" s="37"/>
+      <c r="C454" s="37"/>
     </row>
     <row r="455" spans="2:3">
-      <c r="B455" s="36"/>
-      <c r="C455" s="36"/>
+      <c r="B455" s="37"/>
+      <c r="C455" s="37"/>
     </row>
     <row r="456" spans="2:3">
-      <c r="B456" s="36"/>
-      <c r="C456" s="36"/>
+      <c r="B456" s="37"/>
+      <c r="C456" s="37"/>
     </row>
     <row r="457" spans="2:3">
-      <c r="B457" s="36"/>
-      <c r="C457" s="36"/>
+      <c r="B457" s="37"/>
+      <c r="C457" s="37"/>
     </row>
     <row r="458" spans="2:3">
-      <c r="B458" s="36"/>
-      <c r="C458" s="36"/>
+      <c r="B458" s="37"/>
+      <c r="C458" s="37"/>
     </row>
     <row r="459" spans="2:3">
-      <c r="B459" s="36"/>
-      <c r="C459" s="36"/>
+      <c r="B459" s="37"/>
+      <c r="C459" s="37"/>
     </row>
     <row r="460" spans="2:3">
-      <c r="B460" s="36"/>
-      <c r="C460" s="36"/>
+      <c r="B460" s="37"/>
+      <c r="C460" s="37"/>
     </row>
     <row r="461" spans="2:3">
-      <c r="B461" s="36"/>
-      <c r="C461" s="36"/>
+      <c r="B461" s="37"/>
+      <c r="C461" s="37"/>
     </row>
     <row r="462" spans="2:3">
-      <c r="B462" s="36"/>
-      <c r="C462" s="36"/>
+      <c r="B462" s="37"/>
+      <c r="C462" s="37"/>
     </row>
     <row r="463" spans="2:3">
-      <c r="B463" s="36"/>
-      <c r="C463" s="36"/>
+      <c r="B463" s="37"/>
+      <c r="C463" s="37"/>
     </row>
     <row r="464" spans="2:3">
-      <c r="B464" s="36"/>
-      <c r="C464" s="36"/>
+      <c r="B464" s="37"/>
+      <c r="C464" s="37"/>
     </row>
     <row r="465" spans="2:3">
-      <c r="B465" s="36"/>
-      <c r="C465" s="36"/>
+      <c r="B465" s="37"/>
+      <c r="C465" s="37"/>
     </row>
     <row r="466" spans="2:3">
-      <c r="B466" s="36"/>
-      <c r="C466" s="36"/>
+      <c r="B466" s="37"/>
+      <c r="C466" s="37"/>
     </row>
     <row r="467" spans="2:3">
-      <c r="B467" s="36"/>
-      <c r="C467" s="36"/>
+      <c r="B467" s="37"/>
+      <c r="C467" s="37"/>
     </row>
     <row r="468" spans="2:3">
-      <c r="B468" s="36"/>
-      <c r="C468" s="36"/>
+      <c r="B468" s="37"/>
+      <c r="C468" s="37"/>
     </row>
     <row r="469" spans="2:3">
-      <c r="B469" s="36"/>
-      <c r="C469" s="36"/>
+      <c r="B469" s="37"/>
+      <c r="C469" s="37"/>
     </row>
     <row r="470" spans="2:3">
-      <c r="B470" s="36"/>
-      <c r="C470" s="36"/>
+      <c r="B470" s="37"/>
+      <c r="C470" s="37"/>
     </row>
     <row r="471" spans="2:3">
-      <c r="B471" s="36"/>
-      <c r="C471" s="36"/>
+      <c r="B471" s="37"/>
+      <c r="C471" s="37"/>
     </row>
     <row r="472" spans="2:3">
-      <c r="B472" s="36"/>
-      <c r="C472" s="36"/>
+      <c r="B472" s="37"/>
+      <c r="C472" s="37"/>
     </row>
     <row r="473" spans="2:3">
-      <c r="B473" s="36"/>
-      <c r="C473" s="36"/>
+      <c r="B473" s="37"/>
+      <c r="C473" s="37"/>
     </row>
     <row r="474" spans="2:3">
-      <c r="B474" s="36"/>
-      <c r="C474" s="36"/>
+      <c r="B474" s="37"/>
+      <c r="C474" s="37"/>
     </row>
     <row r="475" spans="2:3">
-      <c r="B475" s="36"/>
-      <c r="C475" s="36"/>
+      <c r="B475" s="37"/>
+      <c r="C475" s="37"/>
     </row>
     <row r="476" spans="2:3">
-      <c r="B476" s="36"/>
-      <c r="C476" s="36"/>
+      <c r="B476" s="37"/>
+      <c r="C476" s="37"/>
     </row>
     <row r="477" spans="2:3">
-      <c r="B477" s="36"/>
-      <c r="C477" s="36"/>
+      <c r="B477" s="37"/>
+      <c r="C477" s="37"/>
     </row>
     <row r="478" spans="2:3">
-      <c r="B478" s="36"/>
-      <c r="C478" s="36"/>
+      <c r="B478" s="37"/>
+      <c r="C478" s="37"/>
     </row>
     <row r="479" spans="2:3">
-      <c r="B479" s="36"/>
-      <c r="C479" s="36"/>
+      <c r="B479" s="37"/>
+      <c r="C479" s="37"/>
     </row>
     <row r="480" spans="2:3">
-      <c r="B480" s="36"/>
-      <c r="C480" s="36"/>
+      <c r="B480" s="37"/>
+      <c r="C480" s="37"/>
     </row>
     <row r="481" spans="2:3">
-      <c r="B481" s="36"/>
-      <c r="C481" s="36"/>
+      <c r="B481" s="37"/>
+      <c r="C481" s="37"/>
     </row>
     <row r="482" spans="2:3">
-      <c r="B482" s="36"/>
-      <c r="C482" s="36"/>
+      <c r="B482" s="37"/>
+      <c r="C482" s="37"/>
     </row>
     <row r="483" spans="2:3">
-      <c r="B483" s="36"/>
-      <c r="C483" s="36"/>
+      <c r="B483" s="37"/>
+      <c r="C483" s="37"/>
     </row>
     <row r="484" spans="2:3">
-      <c r="B484" s="36"/>
-      <c r="C484" s="36"/>
+      <c r="B484" s="37"/>
+      <c r="C484" s="37"/>
     </row>
     <row r="485" spans="2:3">
-      <c r="B485" s="36"/>
-      <c r="C485" s="36"/>
+      <c r="B485" s="37"/>
+      <c r="C485" s="37"/>
     </row>
     <row r="486" spans="2:3">
-      <c r="B486" s="36"/>
-      <c r="C486" s="36"/>
+      <c r="B486" s="37"/>
+      <c r="C486" s="37"/>
     </row>
     <row r="487" spans="2:3">
-      <c r="B487" s="36"/>
-      <c r="C487" s="36"/>
+      <c r="B487" s="37"/>
+      <c r="C487" s="37"/>
     </row>
     <row r="488" spans="2:3">
-      <c r="B488" s="36"/>
-      <c r="C488" s="36"/>
+      <c r="B488" s="37"/>
+      <c r="C488" s="37"/>
     </row>
     <row r="489" spans="2:3">
-      <c r="B489" s="36"/>
-      <c r="C489" s="36"/>
+      <c r="B489" s="37"/>
+      <c r="C489" s="37"/>
     </row>
     <row r="490" spans="2:3">
-      <c r="B490" s="36"/>
-      <c r="C490" s="36"/>
+      <c r="B490" s="37"/>
+      <c r="C490" s="37"/>
     </row>
     <row r="491" spans="2:3">
-      <c r="B491" s="36"/>
-      <c r="C491" s="36"/>
+      <c r="B491" s="37"/>
+      <c r="C491" s="37"/>
     </row>
     <row r="492" spans="2:3">
-      <c r="B492" s="36"/>
-      <c r="C492" s="36"/>
+      <c r="B492" s="37"/>
+      <c r="C492" s="37"/>
     </row>
     <row r="493" spans="2:3">
-      <c r="B493" s="36"/>
-      <c r="C493" s="36"/>
+      <c r="B493" s="37"/>
+      <c r="C493" s="37"/>
     </row>
     <row r="494" spans="2:3">
-      <c r="B494" s="36"/>
-      <c r="C494" s="36"/>
+      <c r="B494" s="37"/>
+      <c r="C494" s="37"/>
     </row>
     <row r="495" spans="2:3">
-      <c r="B495" s="36"/>
-      <c r="C495" s="36"/>
+      <c r="B495" s="37"/>
+      <c r="C495" s="37"/>
     </row>
     <row r="496" spans="2:3">
-      <c r="B496" s="36"/>
-      <c r="C496" s="36"/>
+      <c r="B496" s="37"/>
+      <c r="C496" s="37"/>
     </row>
     <row r="497" spans="2:3">
-      <c r="B497" s="36"/>
-      <c r="C497" s="36"/>
+      <c r="B497" s="37"/>
+      <c r="C497" s="37"/>
     </row>
     <row r="498" spans="2:3">
-      <c r="B498" s="36"/>
-      <c r="C498" s="36"/>
+      <c r="B498" s="37"/>
+      <c r="C498" s="37"/>
     </row>
     <row r="499" spans="2:3">
-      <c r="B499" s="36"/>
-      <c r="C499" s="36"/>
+      <c r="B499" s="37"/>
+      <c r="C499" s="37"/>
     </row>
     <row r="500" spans="2:3">
-      <c r="B500" s="36"/>
-      <c r="C500" s="36"/>
+      <c r="B500" s="37"/>
+      <c r="C500" s="37"/>
     </row>
     <row r="501" spans="2:3">
-      <c r="B501" s="36"/>
-      <c r="C501" s="36"/>
+      <c r="B501" s="37"/>
+      <c r="C501" s="37"/>
     </row>
     <row r="502" spans="2:3">
-      <c r="B502" s="36"/>
-      <c r="C502" s="36"/>
+      <c r="B502" s="37"/>
+      <c r="C502" s="37"/>
     </row>
     <row r="503" spans="2:3">
-      <c r="B503" s="36"/>
-      <c r="C503" s="36"/>
+      <c r="B503" s="37"/>
+      <c r="C503" s="37"/>
     </row>
     <row r="504" spans="2:3">
-      <c r="B504" s="36"/>
-      <c r="C504" s="36"/>
+      <c r="B504" s="37"/>
+      <c r="C504" s="37"/>
     </row>
     <row r="505" spans="2:3">
-      <c r="B505" s="36"/>
-      <c r="C505" s="36"/>
+      <c r="B505" s="37"/>
+      <c r="C505" s="37"/>
     </row>
     <row r="506" spans="2:3">
-      <c r="B506" s="36"/>
-      <c r="C506" s="36"/>
+      <c r="B506" s="37"/>
+      <c r="C506" s="37"/>
     </row>
     <row r="507" spans="2:3">
-      <c r="B507" s="36"/>
-      <c r="C507" s="36"/>
+      <c r="B507" s="37"/>
+      <c r="C507" s="37"/>
     </row>
     <row r="508" spans="2:3">
-      <c r="B508" s="36"/>
-      <c r="C508" s="36"/>
+      <c r="B508" s="37"/>
+      <c r="C508" s="37"/>
     </row>
     <row r="509" spans="2:3">
-      <c r="B509" s="36"/>
-      <c r="C509" s="36"/>
+      <c r="B509" s="37"/>
+      <c r="C509" s="37"/>
     </row>
     <row r="510" spans="2:3">
-      <c r="B510" s="36"/>
-      <c r="C510" s="36"/>
+      <c r="B510" s="37"/>
+      <c r="C510" s="37"/>
     </row>
     <row r="511" spans="2:3">
-      <c r="B511" s="36"/>
-      <c r="C511" s="36"/>
+      <c r="B511" s="37"/>
+      <c r="C511" s="37"/>
     </row>
     <row r="512" spans="2:3">
-      <c r="B512" s="36"/>
-      <c r="C512" s="36"/>
+      <c r="B512" s="37"/>
+      <c r="C512" s="37"/>
     </row>
     <row r="513" spans="3:3">
-      <c r="C513" s="36"/>
+      <c r="C513" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="20">
     <mergeCell ref="H149:I158"/>
+    <mergeCell ref="H160:I166"/>
+    <mergeCell ref="H168:I170"/>
+    <mergeCell ref="H172:I179"/>
+    <mergeCell ref="H181:I186"/>
     <mergeCell ref="H3:I13"/>
     <mergeCell ref="H15:I23"/>
     <mergeCell ref="H25:I31"/>

--- a/new_universe.xlsx
+++ b/new_universe.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-1080" yWindow="-84" windowWidth="17496" windowHeight="9768" tabRatio="435" activeTab="2"/>
+    <workbookView xWindow="-1080" yWindow="-84" windowWidth="17496" windowHeight="9768" tabRatio="435"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="8" r:id="rId1"/>
     <sheet name="BACKUP_OLD" sheetId="5" r:id="rId2"/>
     <sheet name="log" sheetId="3" r:id="rId3"/>
     <sheet name="old" sheetId="7" r:id="rId4"/>
-    <sheet name="empty" sheetId="9" r:id="rId5"/>
+    <sheet name="starts" sheetId="10" r:id="rId5"/>
+    <sheet name="dsa" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -2367,6 +2368,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="M18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+E</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="O18" authorId="0">
       <text>
         <r>
@@ -2421,7 +2448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0">
+    <comment ref="F19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2555,7 +2582,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0">
+    <comment ref="I20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2578,58 +2605,6 @@
           </rPr>
           <t xml:space="preserve">
 E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-S</t>
         </r>
       </text>
     </comment>
@@ -2711,6 +2686,32 @@
           </rPr>
           <t xml:space="preserve">
 E</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+S</t>
         </r>
       </text>
     </comment>
@@ -6149,7 +6150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="638">
   <si>
     <t>y\x</t>
   </si>
@@ -7875,6 +7876,219 @@
   </si>
   <si>
     <t>Zyarth's Dominion Cluster</t>
+  </si>
+  <si>
+    <t>11,16</t>
+  </si>
+  <si>
+    <t>3,15</t>
+  </si>
+  <si>
+    <t>Unknown Sector Nu</t>
+  </si>
+  <si>
+    <t>9,16</t>
+  </si>
+  <si>
+    <t>3,10</t>
+  </si>
+  <si>
+    <t>13,0</t>
+  </si>
+  <si>
+    <t>9,17</t>
+  </si>
+  <si>
+    <t>3,11</t>
+  </si>
+  <si>
+    <t>10,17</t>
+  </si>
+  <si>
+    <t>13,1</t>
+  </si>
+  <si>
+    <t>11,17</t>
+  </si>
+  <si>
+    <t>14,1</t>
+  </si>
+  <si>
+    <t>9,18</t>
+  </si>
+  <si>
+    <t>12,17</t>
+  </si>
+  <si>
+    <t>Ministry of Finance Cluster</t>
+  </si>
+  <si>
+    <t>12,18</t>
+  </si>
+  <si>
+    <t>20,6</t>
+  </si>
+  <si>
+    <t>21,6</t>
+  </si>
+  <si>
+    <t>12,19</t>
+  </si>
+  <si>
+    <t>11,19</t>
+  </si>
+  <si>
+    <t>21,5</t>
+  </si>
+  <si>
+    <t>Xenon Core Cluster</t>
+  </si>
+  <si>
+    <t>7,16</t>
+  </si>
+  <si>
+    <t>16,0</t>
+  </si>
+  <si>
+    <t>8,17</t>
+  </si>
+  <si>
+    <t>8,18</t>
+  </si>
+  <si>
+    <t>15,6</t>
+  </si>
+  <si>
+    <t>7,18</t>
+  </si>
+  <si>
+    <t>7,19</t>
+  </si>
+  <si>
+    <t>15,7</t>
+  </si>
+  <si>
+    <t>Omicron Lyrae Cluster</t>
+  </si>
+  <si>
+    <t>Starting sector</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Starting Ship</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Yaki</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Yaki M4</t>
+  </si>
+  <si>
+    <t>Lost Hunter</t>
+  </si>
+  <si>
+    <t>Jumpdrive Failure, some unknow sector</t>
+  </si>
+  <si>
+    <t>V Beta</t>
+  </si>
+  <si>
+    <t>6,14</t>
+  </si>
+  <si>
+    <t>12,7</t>
+  </si>
+  <si>
+    <t>5,15</t>
+  </si>
+  <si>
+    <t>2,0</t>
+  </si>
+  <si>
+    <t>5,16</t>
+  </si>
+  <si>
+    <t>6,15</t>
+  </si>
+  <si>
+    <t>3,13</t>
+  </si>
+  <si>
+    <t>V Delta</t>
+  </si>
+  <si>
+    <t>6,16</t>
+  </si>
+  <si>
+    <t>3,0</t>
+  </si>
+  <si>
+    <t>Menelaus' Frontier Cluster</t>
+  </si>
+  <si>
+    <t>3,14</t>
+  </si>
+  <si>
+    <t>6,2</t>
+  </si>
+  <si>
+    <t>4,14</t>
+  </si>
+  <si>
+    <t>11,10</t>
+  </si>
+  <si>
+    <t>6,3</t>
+  </si>
+  <si>
+    <t>Unknown Sector Epsilon</t>
+  </si>
+  <si>
+    <t>2,16</t>
+  </si>
+  <si>
+    <t>8,8</t>
+  </si>
+  <si>
+    <t>3,16</t>
+  </si>
+  <si>
+    <t>6,4</t>
+  </si>
+  <si>
+    <t>4,16</t>
+  </si>
+  <si>
+    <t>8,2</t>
+  </si>
+  <si>
+    <t>3,17</t>
+  </si>
+  <si>
+    <t>6,5</t>
+  </si>
+  <si>
+    <t>4,17</t>
+  </si>
+  <si>
+    <t>17,0</t>
+  </si>
+  <si>
+    <t>Family Rhonkar Cluster</t>
   </si>
 </sst>
 </file>
@@ -8222,7 +8436,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8339,7 +8553,82 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="11" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="2" xfId="10" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="2" xfId="12" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="2" xfId="12" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="4">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="2" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="2" xfId="12">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="3">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="4" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="12" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
@@ -8360,6 +8649,24 @@
     <xf numFmtId="49" fontId="1" fillId="12" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8378,97 +8685,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="3">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="4" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="12" borderId="2" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="11" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="11" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="2" xfId="10" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="2" xfId="12" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="2" xfId="12">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="2" xfId="12" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="7">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8782,11 +8999,11 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P15" sqref="O14:P15"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" thickTop="1" thickBottom="1"/>
@@ -9612,7 +9829,7 @@
       <c r="I15" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="J15" s="85" t="s">
+      <c r="J15" s="46" t="s">
         <v>56</v>
       </c>
       <c r="K15" s="17" t="s">
@@ -9653,25 +9870,25 @@
       <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="30" t="s">
         <v>130</v>
       </c>
       <c r="G16" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="I16" s="77" t="s">
+      <c r="I16" s="45" t="s">
         <v>534</v>
       </c>
-      <c r="J16" s="85" t="s">
+      <c r="J16" s="46" t="s">
         <v>57</v>
       </c>
       <c r="K16" s="17" t="s">
@@ -9680,10 +9897,10 @@
       <c r="L16" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="N16" s="76" t="s">
+      <c r="N16" s="44" t="s">
         <v>321</v>
       </c>
-      <c r="O16" s="76" t="s">
+      <c r="O16" s="44" t="s">
         <v>321</v>
       </c>
       <c r="P16" s="23" t="s">
@@ -9703,25 +9920,25 @@
       <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="28" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="I17" s="77" t="s">
+      <c r="I17" s="45" t="s">
         <v>535</v>
       </c>
-      <c r="J17" s="85" t="s">
+      <c r="J17" s="46" t="s">
         <v>58</v>
       </c>
       <c r="K17" s="17" t="s">
@@ -9754,40 +9971,42 @@
       <c r="U17" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="V17" s="75"/>
+      <c r="V17" s="43"/>
     </row>
     <row r="18" spans="1:22" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="J18" s="8" t="s">
+      <c r="I18" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="J18" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="M18" s="74"/>
+      <c r="M18" s="29" t="s">
+        <v>83</v>
+      </c>
       <c r="N18" s="26" t="s">
         <v>80</v>
       </c>
@@ -9812,38 +10031,38 @@
       <c r="U18" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="V18" s="75"/>
+      <c r="V18" s="43"/>
     </row>
     <row r="19" spans="1:22" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H19" s="2" t="s">
+      <c r="F19" s="31" t="s">
         <v>186</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>261</v>
       </c>
       <c r="I19" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>192</v>
+      <c r="N19" s="31" t="s">
+        <v>179</v>
       </c>
       <c r="O19" s="26" t="s">
         <v>18</v>
@@ -9874,29 +10093,26 @@
       <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="H20" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="M20" s="2" t="s">
+      <c r="L20" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="N20" s="31" t="s">
         <v>190</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="O20" s="25" t="s">
         <v>158</v>
@@ -9927,14 +10143,14 @@
       <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="J21" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="K21" s="20" t="s">
-        <v>486</v>
+      <c r="M21" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N21" s="31" t="s">
+        <v>191</v>
       </c>
       <c r="O21" s="25" t="s">
         <v>159</v>
@@ -9985,10 +10201,10 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
+      <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" thickTop="1" thickBottom="1"/>
@@ -10510,7 +10726,7 @@
       <c r="O8" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="P8" s="42" t="s">
         <v>153</v>
       </c>
       <c r="Q8" s="8" t="s">
@@ -11021,9 +11237,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I513"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A183" sqref="A183"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11038,7 +11254,7 @@
     <row r="1" spans="1:9">
       <c r="A1">
         <f>COUNTA(D3:D605)</f>
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="B1">
         <v>324</v>
@@ -11048,7 +11264,7 @@
       </c>
       <c r="D1" s="27">
         <f>A1/B1</f>
-        <v>0.5092592592592593</v>
+        <v>0.60802469135802473</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1">
@@ -11093,10 +11309,10 @@
       <c r="G3" t="s">
         <v>325</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="57" t="s">
         <v>329</v>
       </c>
-      <c r="I3" s="65"/>
+      <c r="I3" s="57"/>
     </row>
     <row r="4" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" t="s">
@@ -11117,8 +11333,8 @@
       <c r="G4" t="s">
         <v>325</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" t="s">
@@ -11139,8 +11355,8 @@
       <c r="G5" t="s">
         <v>325</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
     </row>
     <row r="6" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" t="s">
@@ -11161,8 +11377,8 @@
       <c r="G6" t="s">
         <v>325</v>
       </c>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
     </row>
     <row r="7" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" t="s">
@@ -11183,8 +11399,8 @@
       <c r="G7" t="s">
         <v>325</v>
       </c>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
     </row>
     <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" t="s">
@@ -11205,8 +11421,8 @@
       <c r="G8" t="s">
         <v>325</v>
       </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" t="s">
@@ -11227,8 +11443,8 @@
       <c r="G9" t="s">
         <v>325</v>
       </c>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
     </row>
     <row r="10" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" t="s">
@@ -11249,8 +11465,8 @@
       <c r="G10" t="s">
         <v>325</v>
       </c>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
     </row>
     <row r="11" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" t="s">
@@ -11271,8 +11487,8 @@
       <c r="G11" t="s">
         <v>325</v>
       </c>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" t="s">
@@ -11293,8 +11509,8 @@
       <c r="G12" t="s">
         <v>325</v>
       </c>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
     </row>
     <row r="13" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" t="s">
@@ -11315,8 +11531,8 @@
       <c r="G13" t="s">
         <v>325</v>
       </c>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
     </row>
     <row r="14" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B14" s="38"/>
@@ -11341,10 +11557,10 @@
       <c r="G15" t="s">
         <v>325</v>
       </c>
-      <c r="H15" s="55" t="s">
+      <c r="H15" s="50" t="s">
         <v>332</v>
       </c>
-      <c r="I15" s="55"/>
+      <c r="I15" s="50"/>
     </row>
     <row r="16" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" t="s">
@@ -11365,8 +11581,8 @@
       <c r="G16" t="s">
         <v>325</v>
       </c>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
     </row>
     <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" t="s">
@@ -11387,8 +11603,8 @@
       <c r="G17" t="s">
         <v>325</v>
       </c>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A18" t="s">
@@ -11409,8 +11625,8 @@
       <c r="G18" t="s">
         <v>325</v>
       </c>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
     </row>
     <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" t="s">
@@ -11431,8 +11647,8 @@
       <c r="G19" t="s">
         <v>325</v>
       </c>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
     </row>
     <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" t="s">
@@ -11453,8 +11669,8 @@
       <c r="G20" t="s">
         <v>325</v>
       </c>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
     </row>
     <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" t="s">
@@ -11475,8 +11691,8 @@
       <c r="G21" t="s">
         <v>325</v>
       </c>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" t="s">
@@ -11497,8 +11713,8 @@
       <c r="G22" t="s">
         <v>325</v>
       </c>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
     </row>
     <row r="23" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" t="s">
@@ -11519,8 +11735,8 @@
       <c r="G23" t="s">
         <v>325</v>
       </c>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
     </row>
     <row r="24" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B24" s="38"/>
@@ -11545,10 +11761,10 @@
       <c r="G25" t="s">
         <v>325</v>
       </c>
-      <c r="H25" s="42" t="s">
+      <c r="H25" s="58" t="s">
         <v>335</v>
       </c>
-      <c r="I25" s="42"/>
+      <c r="I25" s="58"/>
     </row>
     <row r="26" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" t="s">
@@ -11569,8 +11785,8 @@
       <c r="G26" t="s">
         <v>325</v>
       </c>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
     </row>
     <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" t="s">
@@ -11591,8 +11807,8 @@
       <c r="G27" t="s">
         <v>325</v>
       </c>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
     </row>
     <row r="28" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" t="s">
@@ -11613,8 +11829,8 @@
       <c r="G28" t="s">
         <v>325</v>
       </c>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
     </row>
     <row r="29" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" t="s">
@@ -11635,8 +11851,8 @@
       <c r="G29" t="s">
         <v>325</v>
       </c>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
     </row>
     <row r="30" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" t="s">
@@ -11657,8 +11873,8 @@
       <c r="G30" t="s">
         <v>325</v>
       </c>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
     </row>
     <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" t="s">
@@ -11679,8 +11895,8 @@
       <c r="G31" t="s">
         <v>325</v>
       </c>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
     </row>
     <row r="32" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B32" s="38"/>
@@ -11705,10 +11921,10 @@
       <c r="G33" t="s">
         <v>325</v>
       </c>
-      <c r="H33" s="66" t="s">
+      <c r="H33" s="59" t="s">
         <v>337</v>
       </c>
-      <c r="I33" s="66"/>
+      <c r="I33" s="59"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
@@ -11729,8 +11945,8 @@
       <c r="G34" t="s">
         <v>325</v>
       </c>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
@@ -11751,8 +11967,8 @@
       <c r="G35" t="s">
         <v>325</v>
       </c>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
@@ -11773,8 +11989,8 @@
       <c r="G36" t="s">
         <v>325</v>
       </c>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
@@ -11795,8 +12011,8 @@
       <c r="G37" t="s">
         <v>325</v>
       </c>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
@@ -11817,8 +12033,8 @@
       <c r="G38" t="s">
         <v>325</v>
       </c>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
@@ -11839,8 +12055,8 @@
       <c r="G39" t="s">
         <v>325</v>
       </c>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
@@ -11861,8 +12077,8 @@
       <c r="G40" t="s">
         <v>325</v>
       </c>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
@@ -11883,8 +12099,8 @@
       <c r="G41" t="s">
         <v>325</v>
       </c>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
@@ -11905,8 +12121,8 @@
       <c r="G42" t="s">
         <v>325</v>
       </c>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
     </row>
     <row r="43" spans="1:9" s="24" customFormat="1" ht="15" thickBot="1">
       <c r="B43" s="38"/>
@@ -11933,10 +12149,10 @@
       <c r="G44" t="s">
         <v>325</v>
       </c>
-      <c r="H44" s="42" t="s">
+      <c r="H44" s="58" t="s">
         <v>339</v>
       </c>
-      <c r="I44" s="42"/>
+      <c r="I44" s="58"/>
     </row>
     <row r="45" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" t="s">
@@ -11957,8 +12173,8 @@
       <c r="G45" t="s">
         <v>325</v>
       </c>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
     </row>
     <row r="46" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" t="s">
@@ -11979,8 +12195,8 @@
       <c r="G46" t="s">
         <v>325</v>
       </c>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
     </row>
     <row r="47" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" t="s">
@@ -12001,8 +12217,8 @@
       <c r="G47" t="s">
         <v>325</v>
       </c>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
     </row>
     <row r="48" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" t="s">
@@ -12023,8 +12239,8 @@
       <c r="G48" t="s">
         <v>325</v>
       </c>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
     </row>
     <row r="49" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" t="s">
@@ -12045,8 +12261,8 @@
       <c r="G49" t="s">
         <v>325</v>
       </c>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
     </row>
     <row r="50" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B50" s="38"/>
@@ -12071,10 +12287,10 @@
       <c r="G51" t="s">
         <v>325</v>
       </c>
-      <c r="H51" s="43" t="s">
+      <c r="H51" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="I51" s="44"/>
+      <c r="I51" s="69"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
@@ -12095,8 +12311,8 @@
       <c r="G52" t="s">
         <v>325</v>
       </c>
-      <c r="H52" s="45"/>
-      <c r="I52" s="46"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="71"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
@@ -12117,8 +12333,8 @@
       <c r="G53" t="s">
         <v>325</v>
       </c>
-      <c r="H53" s="45"/>
-      <c r="I53" s="46"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="71"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
@@ -12139,8 +12355,8 @@
       <c r="G54" t="s">
         <v>325</v>
       </c>
-      <c r="H54" s="45"/>
-      <c r="I54" s="46"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="71"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
@@ -12161,8 +12377,8 @@
       <c r="G55" t="s">
         <v>325</v>
       </c>
-      <c r="H55" s="45"/>
-      <c r="I55" s="46"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="71"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
@@ -12183,8 +12399,8 @@
       <c r="G56" t="s">
         <v>325</v>
       </c>
-      <c r="H56" s="45"/>
-      <c r="I56" s="46"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="71"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
@@ -12205,8 +12421,8 @@
       <c r="G57" t="s">
         <v>325</v>
       </c>
-      <c r="H57" s="45"/>
-      <c r="I57" s="46"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="71"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
@@ -12227,8 +12443,8 @@
       <c r="G58" t="s">
         <v>325</v>
       </c>
-      <c r="H58" s="45"/>
-      <c r="I58" s="46"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="71"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
@@ -12249,8 +12465,8 @@
       <c r="G59" t="s">
         <v>325</v>
       </c>
-      <c r="H59" s="45"/>
-      <c r="I59" s="46"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="71"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
@@ -12271,8 +12487,8 @@
       <c r="G60" t="s">
         <v>325</v>
       </c>
-      <c r="H60" s="45"/>
-      <c r="I60" s="46"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="71"/>
     </row>
     <row r="61" spans="1:9" ht="15" thickBot="1">
       <c r="A61" t="s">
@@ -12290,8 +12506,8 @@
       <c r="E61" t="s">
         <v>325</v>
       </c>
-      <c r="H61" s="47"/>
-      <c r="I61" s="48"/>
+      <c r="H61" s="72"/>
+      <c r="I61" s="73"/>
     </row>
     <row r="62" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B62" s="38"/>
@@ -12316,10 +12532,10 @@
       <c r="G63" t="s">
         <v>325</v>
       </c>
-      <c r="H63" s="55" t="s">
+      <c r="H63" s="50" t="s">
         <v>351</v>
       </c>
-      <c r="I63" s="55"/>
+      <c r="I63" s="50"/>
     </row>
     <row r="64" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" t="s">
@@ -12340,8 +12556,8 @@
       <c r="G64" t="s">
         <v>325</v>
       </c>
-      <c r="H64" s="55"/>
-      <c r="I64" s="55"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="50"/>
     </row>
     <row r="65" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" t="s">
@@ -12362,8 +12578,8 @@
       <c r="G65" t="s">
         <v>325</v>
       </c>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
     </row>
     <row r="66" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" t="s">
@@ -12384,8 +12600,8 @@
       <c r="G66" t="s">
         <v>325</v>
       </c>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="50"/>
     </row>
     <row r="67" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" t="s">
@@ -12406,8 +12622,8 @@
       <c r="G67" t="s">
         <v>325</v>
       </c>
-      <c r="H67" s="55"/>
-      <c r="I67" s="55"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
     </row>
     <row r="68" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B68" s="38"/>
@@ -12432,10 +12648,10 @@
       <c r="G69" t="s">
         <v>325</v>
       </c>
-      <c r="H69" s="56" t="s">
+      <c r="H69" s="65" t="s">
         <v>364</v>
       </c>
-      <c r="I69" s="56"/>
+      <c r="I69" s="65"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
@@ -12456,8 +12672,8 @@
       <c r="G70" t="s">
         <v>325</v>
       </c>
-      <c r="H70" s="57"/>
-      <c r="I70" s="57"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="66"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
@@ -12478,8 +12694,8 @@
       <c r="G71" t="s">
         <v>325</v>
       </c>
-      <c r="H71" s="57"/>
-      <c r="I71" s="57"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="66"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
@@ -12500,8 +12716,8 @@
       <c r="G72" t="s">
         <v>325</v>
       </c>
-      <c r="H72" s="57"/>
-      <c r="I72" s="57"/>
+      <c r="H72" s="66"/>
+      <c r="I72" s="66"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
@@ -12522,8 +12738,8 @@
       <c r="G73" t="s">
         <v>325</v>
       </c>
-      <c r="H73" s="57"/>
-      <c r="I73" s="57"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
@@ -12544,8 +12760,8 @@
       <c r="G74" t="s">
         <v>325</v>
       </c>
-      <c r="H74" s="57"/>
-      <c r="I74" s="57"/>
+      <c r="H74" s="66"/>
+      <c r="I74" s="66"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
@@ -12566,8 +12782,8 @@
       <c r="G75" t="s">
         <v>325</v>
       </c>
-      <c r="H75" s="57"/>
-      <c r="I75" s="57"/>
+      <c r="H75" s="66"/>
+      <c r="I75" s="66"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
@@ -12588,8 +12804,8 @@
       <c r="G76" t="s">
         <v>325</v>
       </c>
-      <c r="H76" s="57"/>
-      <c r="I76" s="57"/>
+      <c r="H76" s="66"/>
+      <c r="I76" s="66"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
@@ -12610,8 +12826,8 @@
       <c r="G77" t="s">
         <v>325</v>
       </c>
-      <c r="H77" s="57"/>
-      <c r="I77" s="57"/>
+      <c r="H77" s="66"/>
+      <c r="I77" s="66"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
@@ -12632,8 +12848,8 @@
       <c r="G78" t="s">
         <v>325</v>
       </c>
-      <c r="H78" s="58"/>
-      <c r="I78" s="58"/>
+      <c r="H78" s="67"/>
+      <c r="I78" s="67"/>
     </row>
     <row r="79" spans="1:9" s="24" customFormat="1" ht="15" thickBot="1">
       <c r="B79" s="38"/>
@@ -12658,10 +12874,10 @@
       <c r="G80" t="s">
         <v>325</v>
       </c>
-      <c r="H80" s="59" t="s">
+      <c r="H80" s="74" t="s">
         <v>407</v>
       </c>
-      <c r="I80" s="60"/>
+      <c r="I80" s="75"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
@@ -12682,8 +12898,8 @@
       <c r="G81" t="s">
         <v>325</v>
       </c>
-      <c r="H81" s="61"/>
-      <c r="I81" s="62"/>
+      <c r="H81" s="76"/>
+      <c r="I81" s="77"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
@@ -12704,8 +12920,8 @@
       <c r="G82" t="s">
         <v>325</v>
       </c>
-      <c r="H82" s="61"/>
-      <c r="I82" s="62"/>
+      <c r="H82" s="76"/>
+      <c r="I82" s="77"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
@@ -12726,8 +12942,8 @@
       <c r="G83" t="s">
         <v>325</v>
       </c>
-      <c r="H83" s="61"/>
-      <c r="I83" s="62"/>
+      <c r="H83" s="76"/>
+      <c r="I83" s="77"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
@@ -12748,8 +12964,8 @@
       <c r="G84" t="s">
         <v>325</v>
       </c>
-      <c r="H84" s="61"/>
-      <c r="I84" s="62"/>
+      <c r="H84" s="76"/>
+      <c r="I84" s="77"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
@@ -12770,8 +12986,8 @@
       <c r="G85" t="s">
         <v>325</v>
       </c>
-      <c r="H85" s="61"/>
-      <c r="I85" s="62"/>
+      <c r="H85" s="76"/>
+      <c r="I85" s="77"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
@@ -12792,8 +13008,8 @@
       <c r="G86" t="s">
         <v>325</v>
       </c>
-      <c r="H86" s="61"/>
-      <c r="I86" s="62"/>
+      <c r="H86" s="76"/>
+      <c r="I86" s="77"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
@@ -12814,8 +13030,8 @@
       <c r="G87" t="s">
         <v>325</v>
       </c>
-      <c r="H87" s="61"/>
-      <c r="I87" s="62"/>
+      <c r="H87" s="76"/>
+      <c r="I87" s="77"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
@@ -12836,8 +13052,8 @@
       <c r="G88" t="s">
         <v>325</v>
       </c>
-      <c r="H88" s="61"/>
-      <c r="I88" s="62"/>
+      <c r="H88" s="76"/>
+      <c r="I88" s="77"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
@@ -12858,8 +13074,8 @@
       <c r="G89" t="s">
         <v>325</v>
       </c>
-      <c r="H89" s="61"/>
-      <c r="I89" s="62"/>
+      <c r="H89" s="76"/>
+      <c r="I89" s="77"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
@@ -12880,8 +13096,8 @@
       <c r="G90" t="s">
         <v>325</v>
       </c>
-      <c r="H90" s="61"/>
-      <c r="I90" s="62"/>
+      <c r="H90" s="76"/>
+      <c r="I90" s="77"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
@@ -12902,8 +13118,8 @@
       <c r="G91" t="s">
         <v>325</v>
       </c>
-      <c r="H91" s="61"/>
-      <c r="I91" s="62"/>
+      <c r="H91" s="76"/>
+      <c r="I91" s="77"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
@@ -12924,8 +13140,8 @@
       <c r="G92" t="s">
         <v>325</v>
       </c>
-      <c r="H92" s="61"/>
-      <c r="I92" s="62"/>
+      <c r="H92" s="76"/>
+      <c r="I92" s="77"/>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
@@ -12946,8 +13162,8 @@
       <c r="G93" t="s">
         <v>325</v>
       </c>
-      <c r="H93" s="61"/>
-      <c r="I93" s="62"/>
+      <c r="H93" s="76"/>
+      <c r="I93" s="77"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
@@ -12968,8 +13184,8 @@
       <c r="G94" t="s">
         <v>325</v>
       </c>
-      <c r="H94" s="61"/>
-      <c r="I94" s="62"/>
+      <c r="H94" s="76"/>
+      <c r="I94" s="77"/>
     </row>
     <row r="95" spans="1:9" ht="15" thickBot="1">
       <c r="A95" t="s">
@@ -12990,8 +13206,8 @@
       <c r="G95" t="s">
         <v>325</v>
       </c>
-      <c r="H95" s="63"/>
-      <c r="I95" s="64"/>
+      <c r="H95" s="78"/>
+      <c r="I95" s="79"/>
     </row>
     <row r="96" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B96" s="38"/>
@@ -13016,10 +13232,10 @@
       <c r="G97" t="s">
         <v>325</v>
       </c>
-      <c r="H97" s="42" t="s">
+      <c r="H97" s="58" t="s">
         <v>420</v>
       </c>
-      <c r="I97" s="42"/>
+      <c r="I97" s="58"/>
     </row>
     <row r="98" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A98" t="s">
@@ -13040,8 +13256,8 @@
       <c r="G98" t="s">
         <v>325</v>
       </c>
-      <c r="H98" s="42"/>
-      <c r="I98" s="42"/>
+      <c r="H98" s="58"/>
+      <c r="I98" s="58"/>
     </row>
     <row r="99" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A99" t="s">
@@ -13062,8 +13278,8 @@
       <c r="G99" t="s">
         <v>325</v>
       </c>
-      <c r="H99" s="42"/>
-      <c r="I99" s="42"/>
+      <c r="H99" s="58"/>
+      <c r="I99" s="58"/>
     </row>
     <row r="100" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A100" t="s">
@@ -13084,8 +13300,8 @@
       <c r="G100" t="s">
         <v>325</v>
       </c>
-      <c r="H100" s="42"/>
-      <c r="I100" s="42"/>
+      <c r="H100" s="58"/>
+      <c r="I100" s="58"/>
     </row>
     <row r="101" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A101" t="s">
@@ -13106,8 +13322,8 @@
       <c r="G101" t="s">
         <v>325</v>
       </c>
-      <c r="H101" s="42"/>
-      <c r="I101" s="42"/>
+      <c r="H101" s="58"/>
+      <c r="I101" s="58"/>
     </row>
     <row r="102" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A102" t="s">
@@ -13128,8 +13344,8 @@
       <c r="G102" t="s">
         <v>325</v>
       </c>
-      <c r="H102" s="42"/>
-      <c r="I102" s="42"/>
+      <c r="H102" s="58"/>
+      <c r="I102" s="58"/>
     </row>
     <row r="103" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B103" s="38"/>
@@ -13154,10 +13370,10 @@
       <c r="G104" t="s">
         <v>325</v>
       </c>
-      <c r="H104" s="43" t="s">
+      <c r="H104" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="I104" s="44"/>
+      <c r="I104" s="69"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
@@ -13178,8 +13394,8 @@
       <c r="G105" t="s">
         <v>325</v>
       </c>
-      <c r="H105" s="45"/>
-      <c r="I105" s="46"/>
+      <c r="H105" s="70"/>
+      <c r="I105" s="71"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
@@ -13200,8 +13416,8 @@
       <c r="G106" t="s">
         <v>325</v>
       </c>
-      <c r="H106" s="45"/>
-      <c r="I106" s="46"/>
+      <c r="H106" s="70"/>
+      <c r="I106" s="71"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
@@ -13222,8 +13438,8 @@
       <c r="G107" t="s">
         <v>325</v>
       </c>
-      <c r="H107" s="45"/>
-      <c r="I107" s="46"/>
+      <c r="H107" s="70"/>
+      <c r="I107" s="71"/>
     </row>
     <row r="108" spans="1:9" ht="15" thickBot="1">
       <c r="A108" t="s">
@@ -13244,8 +13460,8 @@
       <c r="G108" t="s">
         <v>325</v>
       </c>
-      <c r="H108" s="47"/>
-      <c r="I108" s="48"/>
+      <c r="H108" s="72"/>
+      <c r="I108" s="73"/>
     </row>
     <row r="109" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B109" s="38"/>
@@ -13270,10 +13486,10 @@
       <c r="G110" t="s">
         <v>325</v>
       </c>
-      <c r="H110" s="49" t="s">
+      <c r="H110" s="80" t="s">
         <v>449</v>
       </c>
-      <c r="I110" s="50"/>
+      <c r="I110" s="81"/>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
@@ -13294,8 +13510,8 @@
       <c r="G111" t="s">
         <v>325</v>
       </c>
-      <c r="H111" s="51"/>
-      <c r="I111" s="52"/>
+      <c r="H111" s="82"/>
+      <c r="I111" s="83"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
@@ -13316,8 +13532,8 @@
       <c r="G112" t="s">
         <v>325</v>
       </c>
-      <c r="H112" s="51"/>
-      <c r="I112" s="52"/>
+      <c r="H112" s="82"/>
+      <c r="I112" s="83"/>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
@@ -13338,8 +13554,8 @@
       <c r="G113" t="s">
         <v>325</v>
       </c>
-      <c r="H113" s="51"/>
-      <c r="I113" s="52"/>
+      <c r="H113" s="82"/>
+      <c r="I113" s="83"/>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
@@ -13360,8 +13576,8 @@
       <c r="G114" t="s">
         <v>325</v>
       </c>
-      <c r="H114" s="51"/>
-      <c r="I114" s="52"/>
+      <c r="H114" s="82"/>
+      <c r="I114" s="83"/>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
@@ -13382,8 +13598,8 @@
       <c r="G115" t="s">
         <v>325</v>
       </c>
-      <c r="H115" s="51"/>
-      <c r="I115" s="52"/>
+      <c r="H115" s="82"/>
+      <c r="I115" s="83"/>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
@@ -13404,8 +13620,8 @@
       <c r="G116" t="s">
         <v>325</v>
       </c>
-      <c r="H116" s="51"/>
-      <c r="I116" s="52"/>
+      <c r="H116" s="82"/>
+      <c r="I116" s="83"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
@@ -13426,8 +13642,8 @@
       <c r="G117" t="s">
         <v>325</v>
       </c>
-      <c r="H117" s="51"/>
-      <c r="I117" s="52"/>
+      <c r="H117" s="82"/>
+      <c r="I117" s="83"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
@@ -13448,8 +13664,8 @@
       <c r="G118" t="s">
         <v>325</v>
       </c>
-      <c r="H118" s="51"/>
-      <c r="I118" s="52"/>
+      <c r="H118" s="82"/>
+      <c r="I118" s="83"/>
     </row>
     <row r="119" spans="1:9" ht="15" thickBot="1">
       <c r="A119" t="s">
@@ -13470,8 +13686,8 @@
       <c r="G119" t="s">
         <v>325</v>
       </c>
-      <c r="H119" s="53"/>
-      <c r="I119" s="54"/>
+      <c r="H119" s="84"/>
+      <c r="I119" s="85"/>
     </row>
     <row r="120" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B120" s="38"/>
@@ -13496,10 +13712,10 @@
       <c r="G121" t="s">
         <v>325</v>
       </c>
-      <c r="H121" s="43" t="s">
+      <c r="H121" s="68" t="s">
         <v>464</v>
       </c>
-      <c r="I121" s="44"/>
+      <c r="I121" s="69"/>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
@@ -13520,8 +13736,8 @@
       <c r="G122" t="s">
         <v>325</v>
       </c>
-      <c r="H122" s="45"/>
-      <c r="I122" s="46"/>
+      <c r="H122" s="70"/>
+      <c r="I122" s="71"/>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
@@ -13542,8 +13758,8 @@
       <c r="G123" t="s">
         <v>325</v>
       </c>
-      <c r="H123" s="45"/>
-      <c r="I123" s="46"/>
+      <c r="H123" s="70"/>
+      <c r="I123" s="71"/>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
@@ -13564,8 +13780,8 @@
       <c r="G124" t="s">
         <v>325</v>
       </c>
-      <c r="H124" s="45"/>
-      <c r="I124" s="46"/>
+      <c r="H124" s="70"/>
+      <c r="I124" s="71"/>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
@@ -13586,8 +13802,8 @@
       <c r="G125" t="s">
         <v>325</v>
       </c>
-      <c r="H125" s="45"/>
-      <c r="I125" s="46"/>
+      <c r="H125" s="70"/>
+      <c r="I125" s="71"/>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
@@ -13608,8 +13824,8 @@
       <c r="G126" t="s">
         <v>325</v>
       </c>
-      <c r="H126" s="45"/>
-      <c r="I126" s="46"/>
+      <c r="H126" s="70"/>
+      <c r="I126" s="71"/>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
@@ -13630,8 +13846,8 @@
       <c r="G127" t="s">
         <v>325</v>
       </c>
-      <c r="H127" s="45"/>
-      <c r="I127" s="46"/>
+      <c r="H127" s="70"/>
+      <c r="I127" s="71"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
@@ -13652,8 +13868,8 @@
       <c r="G128" t="s">
         <v>325</v>
       </c>
-      <c r="H128" s="45"/>
-      <c r="I128" s="46"/>
+      <c r="H128" s="70"/>
+      <c r="I128" s="71"/>
     </row>
     <row r="129" spans="1:9" ht="15" thickBot="1">
       <c r="A129" t="s">
@@ -13674,8 +13890,8 @@
       <c r="G129" t="s">
         <v>325</v>
       </c>
-      <c r="H129" s="47"/>
-      <c r="I129" s="48"/>
+      <c r="H129" s="72"/>
+      <c r="I129" s="73"/>
     </row>
     <row r="130" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B130" s="38"/>
@@ -13700,10 +13916,10 @@
       <c r="G131" t="s">
         <v>325</v>
       </c>
-      <c r="H131" s="42" t="s">
+      <c r="H131" s="58" t="s">
         <v>480</v>
       </c>
-      <c r="I131" s="42"/>
+      <c r="I131" s="58"/>
     </row>
     <row r="132" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A132" t="s">
@@ -13724,8 +13940,8 @@
       <c r="G132" t="s">
         <v>325</v>
       </c>
-      <c r="H132" s="42"/>
-      <c r="I132" s="42"/>
+      <c r="H132" s="58"/>
+      <c r="I132" s="58"/>
     </row>
     <row r="133" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A133" t="s">
@@ -13746,8 +13962,8 @@
       <c r="G133" t="s">
         <v>325</v>
       </c>
-      <c r="H133" s="42"/>
-      <c r="I133" s="42"/>
+      <c r="H133" s="58"/>
+      <c r="I133" s="58"/>
     </row>
     <row r="134" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A134" t="s">
@@ -13768,8 +13984,8 @@
       <c r="G134" t="s">
         <v>325</v>
       </c>
-      <c r="H134" s="42"/>
-      <c r="I134" s="42"/>
+      <c r="H134" s="58"/>
+      <c r="I134" s="58"/>
     </row>
     <row r="135" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A135" t="s">
@@ -13790,8 +14006,8 @@
       <c r="G135" t="s">
         <v>325</v>
       </c>
-      <c r="H135" s="42"/>
-      <c r="I135" s="42"/>
+      <c r="H135" s="58"/>
+      <c r="I135" s="58"/>
     </row>
     <row r="136" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A136" t="s">
@@ -13812,8 +14028,8 @@
       <c r="G136" t="s">
         <v>325</v>
       </c>
-      <c r="H136" s="42"/>
-      <c r="I136" s="42"/>
+      <c r="H136" s="58"/>
+      <c r="I136" s="58"/>
     </row>
     <row r="137" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A137" t="s">
@@ -13834,8 +14050,8 @@
       <c r="G137" t="s">
         <v>325</v>
       </c>
-      <c r="H137" s="42"/>
-      <c r="I137" s="42"/>
+      <c r="H137" s="58"/>
+      <c r="I137" s="58"/>
     </row>
     <row r="138" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A138" t="s">
@@ -13856,8 +14072,8 @@
       <c r="G138" t="s">
         <v>325</v>
       </c>
-      <c r="H138" s="42"/>
-      <c r="I138" s="42"/>
+      <c r="H138" s="58"/>
+      <c r="I138" s="58"/>
     </row>
     <row r="139" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B139" s="38"/>
@@ -13882,10 +14098,10 @@
       <c r="G140" t="s">
         <v>325</v>
       </c>
-      <c r="H140" s="69" t="s">
+      <c r="H140" s="62" t="s">
         <v>497</v>
       </c>
-      <c r="I140" s="69"/>
+      <c r="I140" s="62"/>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="s">
@@ -13906,8 +14122,8 @@
       <c r="G141" t="s">
         <v>325</v>
       </c>
-      <c r="H141" s="70"/>
-      <c r="I141" s="70"/>
+      <c r="H141" s="63"/>
+      <c r="I141" s="63"/>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="s">
@@ -13928,8 +14144,8 @@
       <c r="G142" t="s">
         <v>325</v>
       </c>
-      <c r="H142" s="70"/>
-      <c r="I142" s="70"/>
+      <c r="H142" s="63"/>
+      <c r="I142" s="63"/>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
@@ -13950,8 +14166,8 @@
       <c r="G143" t="s">
         <v>325</v>
       </c>
-      <c r="H143" s="70"/>
-      <c r="I143" s="70"/>
+      <c r="H143" s="63"/>
+      <c r="I143" s="63"/>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="41" t="s">
@@ -13972,8 +14188,8 @@
       <c r="G144" t="s">
         <v>325</v>
       </c>
-      <c r="H144" s="70"/>
-      <c r="I144" s="70"/>
+      <c r="H144" s="63"/>
+      <c r="I144" s="63"/>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
@@ -13994,8 +14210,8 @@
       <c r="G145" t="s">
         <v>325</v>
       </c>
-      <c r="H145" s="70"/>
-      <c r="I145" s="70"/>
+      <c r="H145" s="63"/>
+      <c r="I145" s="63"/>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="s">
@@ -14016,8 +14232,8 @@
       <c r="G146" t="s">
         <v>325</v>
       </c>
-      <c r="H146" s="70"/>
-      <c r="I146" s="70"/>
+      <c r="H146" s="63"/>
+      <c r="I146" s="63"/>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" t="s">
@@ -14038,8 +14254,8 @@
       <c r="G147" t="s">
         <v>325</v>
       </c>
-      <c r="H147" s="71"/>
-      <c r="I147" s="71"/>
+      <c r="H147" s="64"/>
+      <c r="I147" s="64"/>
     </row>
     <row r="148" spans="1:9" s="24" customFormat="1" ht="15" thickBot="1">
       <c r="B148" s="38"/>
@@ -14064,10 +14280,10 @@
       <c r="G149" t="s">
         <v>325</v>
       </c>
-      <c r="H149" s="72" t="s">
+      <c r="H149" s="47" t="s">
         <v>519</v>
       </c>
-      <c r="I149" s="72"/>
+      <c r="I149" s="47"/>
     </row>
     <row r="150" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A150" t="s">
@@ -14088,8 +14304,8 @@
       <c r="G150" t="s">
         <v>325</v>
       </c>
-      <c r="H150" s="72"/>
-      <c r="I150" s="72"/>
+      <c r="H150" s="47"/>
+      <c r="I150" s="47"/>
     </row>
     <row r="151" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A151" t="s">
@@ -14110,8 +14326,8 @@
       <c r="G151" t="s">
         <v>325</v>
       </c>
-      <c r="H151" s="72"/>
-      <c r="I151" s="72"/>
+      <c r="H151" s="47"/>
+      <c r="I151" s="47"/>
     </row>
     <row r="152" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A152" t="s">
@@ -14132,8 +14348,8 @@
       <c r="G152" t="s">
         <v>325</v>
       </c>
-      <c r="H152" s="72"/>
-      <c r="I152" s="72"/>
+      <c r="H152" s="47"/>
+      <c r="I152" s="47"/>
     </row>
     <row r="153" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A153" t="s">
@@ -14154,8 +14370,8 @@
       <c r="G153" t="s">
         <v>325</v>
       </c>
-      <c r="H153" s="72"/>
-      <c r="I153" s="72"/>
+      <c r="H153" s="47"/>
+      <c r="I153" s="47"/>
     </row>
     <row r="154" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A154" t="s">
@@ -14176,8 +14392,8 @@
       <c r="G154" t="s">
         <v>325</v>
       </c>
-      <c r="H154" s="72"/>
-      <c r="I154" s="72"/>
+      <c r="H154" s="47"/>
+      <c r="I154" s="47"/>
     </row>
     <row r="155" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A155" t="s">
@@ -14198,8 +14414,8 @@
       <c r="G155" t="s">
         <v>325</v>
       </c>
-      <c r="H155" s="72"/>
-      <c r="I155" s="72"/>
+      <c r="H155" s="47"/>
+      <c r="I155" s="47"/>
     </row>
     <row r="156" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A156" t="s">
@@ -14220,8 +14436,8 @@
       <c r="G156" t="s">
         <v>325</v>
       </c>
-      <c r="H156" s="72"/>
-      <c r="I156" s="72"/>
+      <c r="H156" s="47"/>
+      <c r="I156" s="47"/>
     </row>
     <row r="157" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A157" t="s">
@@ -14242,8 +14458,8 @@
       <c r="G157" t="s">
         <v>325</v>
       </c>
-      <c r="H157" s="72"/>
-      <c r="I157" s="72"/>
+      <c r="H157" s="47"/>
+      <c r="I157" s="47"/>
     </row>
     <row r="158" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A158" t="s">
@@ -14264,8 +14480,8 @@
       <c r="G158" t="s">
         <v>325</v>
       </c>
-      <c r="H158" s="72"/>
-      <c r="I158" s="72"/>
+      <c r="H158" s="47"/>
+      <c r="I158" s="47"/>
     </row>
     <row r="159" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B159" s="38"/>
@@ -14290,10 +14506,10 @@
       <c r="G160" t="s">
         <v>325</v>
       </c>
-      <c r="H160" s="73" t="s">
+      <c r="H160" s="48" t="s">
         <v>533</v>
       </c>
-      <c r="I160" s="73"/>
+      <c r="I160" s="48"/>
     </row>
     <row r="161" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A161" t="s">
@@ -14314,8 +14530,8 @@
       <c r="G161" t="s">
         <v>325</v>
       </c>
-      <c r="H161" s="73"/>
-      <c r="I161" s="73"/>
+      <c r="H161" s="48"/>
+      <c r="I161" s="48"/>
     </row>
     <row r="162" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A162" t="s">
@@ -14336,8 +14552,8 @@
       <c r="G162" t="s">
         <v>325</v>
       </c>
-      <c r="H162" s="73"/>
-      <c r="I162" s="73"/>
+      <c r="H162" s="48"/>
+      <c r="I162" s="48"/>
     </row>
     <row r="163" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A163" t="s">
@@ -14358,8 +14574,8 @@
       <c r="G163" t="s">
         <v>325</v>
       </c>
-      <c r="H163" s="73"/>
-      <c r="I163" s="73"/>
+      <c r="H163" s="48"/>
+      <c r="I163" s="48"/>
     </row>
     <row r="164" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A164" t="s">
@@ -14380,8 +14596,8 @@
       <c r="G164" t="s">
         <v>325</v>
       </c>
-      <c r="H164" s="73"/>
-      <c r="I164" s="73"/>
+      <c r="H164" s="48"/>
+      <c r="I164" s="48"/>
     </row>
     <row r="165" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A165" t="s">
@@ -14402,8 +14618,8 @@
       <c r="G165" t="s">
         <v>325</v>
       </c>
-      <c r="H165" s="73"/>
-      <c r="I165" s="73"/>
+      <c r="H165" s="48"/>
+      <c r="I165" s="48"/>
     </row>
     <row r="166" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A166" t="s">
@@ -14424,8 +14640,8 @@
       <c r="G166" t="s">
         <v>325</v>
       </c>
-      <c r="H166" s="73"/>
-      <c r="I166" s="73"/>
+      <c r="H166" s="48"/>
+      <c r="I166" s="48"/>
     </row>
     <row r="167" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B167" s="38"/>
@@ -14447,10 +14663,13 @@
       <c r="E168" t="s">
         <v>325</v>
       </c>
-      <c r="H168" s="78" t="s">
+      <c r="G168" t="s">
+        <v>325</v>
+      </c>
+      <c r="H168" s="49" t="s">
         <v>541</v>
       </c>
-      <c r="I168" s="78"/>
+      <c r="I168" s="49"/>
     </row>
     <row r="169" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A169" t="s">
@@ -14468,8 +14687,11 @@
       <c r="E169" t="s">
         <v>325</v>
       </c>
-      <c r="H169" s="78"/>
-      <c r="I169" s="78"/>
+      <c r="G169" t="s">
+        <v>325</v>
+      </c>
+      <c r="H169" s="49"/>
+      <c r="I169" s="49"/>
     </row>
     <row r="170" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A170" t="s">
@@ -14487,8 +14709,11 @@
       <c r="E170" t="s">
         <v>325</v>
       </c>
-      <c r="H170" s="78"/>
-      <c r="I170" s="78"/>
+      <c r="G170" t="s">
+        <v>325</v>
+      </c>
+      <c r="H170" s="49"/>
+      <c r="I170" s="49"/>
     </row>
     <row r="171" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B171" s="38"/>
@@ -14510,10 +14735,13 @@
       <c r="E172" t="s">
         <v>325</v>
       </c>
-      <c r="H172" s="55" t="s">
+      <c r="G172" t="s">
+        <v>325</v>
+      </c>
+      <c r="H172" s="50" t="s">
         <v>558</v>
       </c>
-      <c r="I172" s="55"/>
+      <c r="I172" s="50"/>
     </row>
     <row r="173" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A173" t="s">
@@ -14531,8 +14759,11 @@
       <c r="E173" t="s">
         <v>325</v>
       </c>
-      <c r="H173" s="55"/>
-      <c r="I173" s="55"/>
+      <c r="G173" t="s">
+        <v>325</v>
+      </c>
+      <c r="H173" s="50"/>
+      <c r="I173" s="50"/>
     </row>
     <row r="174" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A174" t="s">
@@ -14550,8 +14781,11 @@
       <c r="E174" t="s">
         <v>325</v>
       </c>
-      <c r="H174" s="55"/>
-      <c r="I174" s="55"/>
+      <c r="G174" t="s">
+        <v>325</v>
+      </c>
+      <c r="H174" s="50"/>
+      <c r="I174" s="50"/>
     </row>
     <row r="175" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A175" t="s">
@@ -14569,8 +14803,11 @@
       <c r="E175" t="s">
         <v>325</v>
       </c>
-      <c r="H175" s="55"/>
-      <c r="I175" s="55"/>
+      <c r="G175" t="s">
+        <v>325</v>
+      </c>
+      <c r="H175" s="50"/>
+      <c r="I175" s="50"/>
     </row>
     <row r="176" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A176" t="s">
@@ -14588,8 +14825,11 @@
       <c r="E176" t="s">
         <v>325</v>
       </c>
-      <c r="H176" s="55"/>
-      <c r="I176" s="55"/>
+      <c r="G176" t="s">
+        <v>325</v>
+      </c>
+      <c r="H176" s="50"/>
+      <c r="I176" s="50"/>
     </row>
     <row r="177" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A177" t="s">
@@ -14607,8 +14847,11 @@
       <c r="E177" t="s">
         <v>325</v>
       </c>
-      <c r="H177" s="55"/>
-      <c r="I177" s="55"/>
+      <c r="G177" t="s">
+        <v>325</v>
+      </c>
+      <c r="H177" s="50"/>
+      <c r="I177" s="50"/>
     </row>
     <row r="178" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A178" t="s">
@@ -14626,8 +14869,11 @@
       <c r="E178" t="s">
         <v>325</v>
       </c>
-      <c r="H178" s="55"/>
-      <c r="I178" s="55"/>
+      <c r="G178" t="s">
+        <v>325</v>
+      </c>
+      <c r="H178" s="50"/>
+      <c r="I178" s="50"/>
     </row>
     <row r="179" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A179" s="41" t="s">
@@ -14645,8 +14891,11 @@
       <c r="E179" t="s">
         <v>325</v>
       </c>
-      <c r="H179" s="55"/>
-      <c r="I179" s="55"/>
+      <c r="G179" t="s">
+        <v>325</v>
+      </c>
+      <c r="H179" s="50"/>
+      <c r="I179" s="50"/>
     </row>
     <row r="180" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B180" s="38"/>
@@ -14668,10 +14917,13 @@
       <c r="E181" t="s">
         <v>325</v>
       </c>
-      <c r="H181" s="79" t="s">
+      <c r="G181" t="s">
+        <v>325</v>
+      </c>
+      <c r="H181" s="51" t="s">
         <v>566</v>
       </c>
-      <c r="I181" s="80"/>
+      <c r="I181" s="52"/>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="s">
@@ -14689,8 +14941,11 @@
       <c r="E182" t="s">
         <v>325</v>
       </c>
-      <c r="H182" s="81"/>
-      <c r="I182" s="82"/>
+      <c r="G182" t="s">
+        <v>325</v>
+      </c>
+      <c r="H182" s="53"/>
+      <c r="I182" s="54"/>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="s">
@@ -14708,8 +14963,11 @@
       <c r="E183" t="s">
         <v>325</v>
       </c>
-      <c r="H183" s="81"/>
-      <c r="I183" s="82"/>
+      <c r="G183" t="s">
+        <v>325</v>
+      </c>
+      <c r="H183" s="53"/>
+      <c r="I183" s="54"/>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" t="s">
@@ -14727,8 +14985,11 @@
       <c r="E184" t="s">
         <v>325</v>
       </c>
-      <c r="H184" s="81"/>
-      <c r="I184" s="82"/>
+      <c r="G184" t="s">
+        <v>325</v>
+      </c>
+      <c r="H184" s="53"/>
+      <c r="I184" s="54"/>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" t="s">
@@ -14746,8 +15007,11 @@
       <c r="E185" t="s">
         <v>325</v>
       </c>
-      <c r="H185" s="81"/>
-      <c r="I185" s="82"/>
+      <c r="G185" t="s">
+        <v>325</v>
+      </c>
+      <c r="H185" s="53"/>
+      <c r="I185" s="54"/>
     </row>
     <row r="186" spans="1:9" ht="15" thickBot="1">
       <c r="A186" t="s">
@@ -14765,160 +15029,704 @@
       <c r="E186" t="s">
         <v>325</v>
       </c>
-      <c r="H186" s="83"/>
-      <c r="I186" s="84"/>
-    </row>
-    <row r="187" spans="1:9" s="24" customFormat="1" ht="15" thickTop="1">
+      <c r="G186" t="s">
+        <v>325</v>
+      </c>
+      <c r="H186" s="55"/>
+      <c r="I186" s="56"/>
+    </row>
+    <row r="187" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B187" s="38"/>
       <c r="C187" s="38"/>
     </row>
-    <row r="188" spans="1:9">
-      <c r="B188" s="37"/>
-      <c r="C188" s="37"/>
-    </row>
-    <row r="189" spans="1:9">
-      <c r="B189" s="37"/>
-      <c r="C189" s="37"/>
-    </row>
-    <row r="190" spans="1:9">
-      <c r="B190" s="37"/>
-      <c r="C190" s="37"/>
-    </row>
-    <row r="191" spans="1:9">
-      <c r="B191" s="37"/>
-      <c r="C191" s="37"/>
-    </row>
-    <row r="192" spans="1:9">
-      <c r="B192" s="37"/>
-      <c r="C192" s="37"/>
-    </row>
-    <row r="193" spans="2:3">
-      <c r="B193" s="37"/>
-      <c r="C193" s="37"/>
-    </row>
-    <row r="194" spans="2:3">
-      <c r="B194" s="37"/>
-      <c r="C194" s="37"/>
-    </row>
-    <row r="195" spans="2:3">
-      <c r="B195" s="37"/>
-      <c r="C195" s="37"/>
-    </row>
-    <row r="196" spans="2:3">
-      <c r="B196" s="37"/>
-      <c r="C196" s="37"/>
-    </row>
-    <row r="197" spans="2:3">
-      <c r="B197" s="37"/>
-      <c r="C197" s="37"/>
-    </row>
-    <row r="198" spans="2:3">
-      <c r="B198" s="37"/>
-      <c r="C198" s="37"/>
-    </row>
-    <row r="199" spans="2:3">
-      <c r="B199" s="37"/>
-      <c r="C199" s="37"/>
-    </row>
-    <row r="200" spans="2:3">
-      <c r="B200" s="37"/>
-      <c r="C200" s="37"/>
-    </row>
-    <row r="201" spans="2:3">
-      <c r="B201" s="37"/>
-      <c r="C201" s="37"/>
-    </row>
-    <row r="202" spans="2:3">
-      <c r="B202" s="37"/>
-      <c r="C202" s="37"/>
-    </row>
-    <row r="203" spans="2:3">
-      <c r="B203" s="37"/>
-      <c r="C203" s="37"/>
-    </row>
-    <row r="204" spans="2:3">
-      <c r="B204" s="37"/>
-      <c r="C204" s="37"/>
-    </row>
-    <row r="205" spans="2:3">
-      <c r="B205" s="37"/>
-      <c r="C205" s="37"/>
-    </row>
-    <row r="206" spans="2:3">
-      <c r="B206" s="37"/>
-      <c r="C206" s="37"/>
-    </row>
-    <row r="207" spans="2:3">
-      <c r="B207" s="37"/>
-      <c r="C207" s="37"/>
-    </row>
-    <row r="208" spans="2:3">
-      <c r="B208" s="37"/>
-      <c r="C208" s="37"/>
-    </row>
-    <row r="209" spans="2:3">
-      <c r="B209" s="37"/>
-      <c r="C209" s="37"/>
-    </row>
-    <row r="210" spans="2:3">
-      <c r="B210" s="37"/>
-      <c r="C210" s="37"/>
-    </row>
-    <row r="211" spans="2:3">
-      <c r="B211" s="37"/>
-      <c r="C211" s="37"/>
-    </row>
-    <row r="212" spans="2:3">
-      <c r="B212" s="37"/>
-      <c r="C212" s="37"/>
-    </row>
-    <row r="213" spans="2:3">
-      <c r="B213" s="37"/>
-      <c r="C213" s="37"/>
-    </row>
-    <row r="214" spans="2:3">
-      <c r="B214" s="37"/>
-      <c r="C214" s="37"/>
-    </row>
-    <row r="215" spans="2:3">
-      <c r="B215" s="37"/>
-      <c r="C215" s="37"/>
-    </row>
-    <row r="216" spans="2:3">
-      <c r="B216" s="37"/>
-      <c r="C216" s="37"/>
-    </row>
-    <row r="217" spans="2:3">
-      <c r="B217" s="37"/>
-      <c r="C217" s="37"/>
-    </row>
-    <row r="218" spans="2:3">
-      <c r="B218" s="37"/>
-      <c r="C218" s="37"/>
-    </row>
-    <row r="219" spans="2:3">
-      <c r="B219" s="37"/>
-      <c r="C219" s="37"/>
-    </row>
-    <row r="220" spans="2:3">
-      <c r="B220" s="37"/>
-      <c r="C220" s="37"/>
-    </row>
-    <row r="221" spans="2:3">
-      <c r="B221" s="37"/>
-      <c r="C221" s="37"/>
-    </row>
-    <row r="222" spans="2:3">
-      <c r="B222" s="37"/>
-      <c r="C222" s="37"/>
-    </row>
-    <row r="223" spans="2:3">
-      <c r="B223" s="37"/>
-      <c r="C223" s="37"/>
-    </row>
-    <row r="224" spans="2:3">
-      <c r="B224" s="37"/>
-      <c r="C224" s="37"/>
+    <row r="188" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A188" t="s">
+        <v>569</v>
+      </c>
+      <c r="B188" s="37" t="s">
+        <v>568</v>
+      </c>
+      <c r="C188" s="37" t="s">
+        <v>567</v>
+      </c>
+      <c r="D188" t="s">
+        <v>325</v>
+      </c>
+      <c r="E188" t="s">
+        <v>325</v>
+      </c>
+      <c r="G188" t="s">
+        <v>325</v>
+      </c>
+      <c r="H188" s="47" t="s">
+        <v>581</v>
+      </c>
+      <c r="I188" s="47"/>
+    </row>
+    <row r="189" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A189" t="s">
+        <v>67</v>
+      </c>
+      <c r="B189" s="37" t="s">
+        <v>571</v>
+      </c>
+      <c r="C189" s="37" t="s">
+        <v>570</v>
+      </c>
+      <c r="D189" t="s">
+        <v>325</v>
+      </c>
+      <c r="E189" t="s">
+        <v>325</v>
+      </c>
+      <c r="G189" t="s">
+        <v>325</v>
+      </c>
+      <c r="H189" s="47"/>
+      <c r="I189" s="47"/>
+    </row>
+    <row r="190" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A190" t="s">
+        <v>173</v>
+      </c>
+      <c r="B190" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="C190" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="D190" t="s">
+        <v>325</v>
+      </c>
+      <c r="E190" t="s">
+        <v>325</v>
+      </c>
+      <c r="G190" t="s">
+        <v>325</v>
+      </c>
+      <c r="H190" s="47"/>
+      <c r="I190" s="47"/>
+    </row>
+    <row r="191" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A191" t="s">
+        <v>68</v>
+      </c>
+      <c r="B191" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="C191" s="37" t="s">
+        <v>573</v>
+      </c>
+      <c r="D191" t="s">
+        <v>325</v>
+      </c>
+      <c r="E191" t="s">
+        <v>325</v>
+      </c>
+      <c r="G191" t="s">
+        <v>325</v>
+      </c>
+      <c r="H191" s="47"/>
+      <c r="I191" s="47"/>
+    </row>
+    <row r="192" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A192" t="s">
+        <v>172</v>
+      </c>
+      <c r="B192" s="37" t="s">
+        <v>576</v>
+      </c>
+      <c r="C192" s="37" t="s">
+        <v>575</v>
+      </c>
+      <c r="D192" t="s">
+        <v>325</v>
+      </c>
+      <c r="E192" t="s">
+        <v>325</v>
+      </c>
+      <c r="G192" t="s">
+        <v>325</v>
+      </c>
+      <c r="H192" s="47"/>
+      <c r="I192" s="47"/>
+    </row>
+    <row r="193" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A193" t="s">
+        <v>171</v>
+      </c>
+      <c r="B193" s="37" t="s">
+        <v>578</v>
+      </c>
+      <c r="C193" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="D193" t="s">
+        <v>325</v>
+      </c>
+      <c r="E193" t="s">
+        <v>325</v>
+      </c>
+      <c r="G193" t="s">
+        <v>325</v>
+      </c>
+      <c r="H193" s="47"/>
+      <c r="I193" s="47"/>
+    </row>
+    <row r="194" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A194" t="s">
+        <v>117</v>
+      </c>
+      <c r="B194" s="37" t="s">
+        <v>410</v>
+      </c>
+      <c r="C194" s="37" t="s">
+        <v>579</v>
+      </c>
+      <c r="D194" t="s">
+        <v>325</v>
+      </c>
+      <c r="E194" t="s">
+        <v>325</v>
+      </c>
+      <c r="G194" t="s">
+        <v>325</v>
+      </c>
+      <c r="H194" s="47"/>
+      <c r="I194" s="47"/>
+    </row>
+    <row r="195" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B195" s="38"/>
+      <c r="C195" s="38"/>
+    </row>
+    <row r="196" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A196" t="s">
+        <v>179</v>
+      </c>
+      <c r="B196" s="37" t="s">
+        <v>437</v>
+      </c>
+      <c r="C196" s="37" t="s">
+        <v>580</v>
+      </c>
+      <c r="D196" t="s">
+        <v>325</v>
+      </c>
+      <c r="E196" t="s">
+        <v>325</v>
+      </c>
+      <c r="G196" t="s">
+        <v>325</v>
+      </c>
+      <c r="H196" s="86" t="s">
+        <v>588</v>
+      </c>
+      <c r="I196" s="86"/>
+    </row>
+    <row r="197" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A197" t="s">
+        <v>190</v>
+      </c>
+      <c r="B197" s="37" t="s">
+        <v>583</v>
+      </c>
+      <c r="C197" s="37" t="s">
+        <v>582</v>
+      </c>
+      <c r="D197" t="s">
+        <v>325</v>
+      </c>
+      <c r="E197" t="s">
+        <v>325</v>
+      </c>
+      <c r="G197" t="s">
+        <v>325</v>
+      </c>
+      <c r="H197" s="86"/>
+      <c r="I197" s="86"/>
+    </row>
+    <row r="198" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A198" t="s">
+        <v>191</v>
+      </c>
+      <c r="B198" s="37" t="s">
+        <v>584</v>
+      </c>
+      <c r="C198" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="D198" t="s">
+        <v>325</v>
+      </c>
+      <c r="E198" t="s">
+        <v>325</v>
+      </c>
+      <c r="G198" t="s">
+        <v>325</v>
+      </c>
+      <c r="H198" s="86"/>
+      <c r="I198" s="86"/>
+    </row>
+    <row r="199" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A199" t="s">
+        <v>192</v>
+      </c>
+      <c r="B199" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="C199" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="D199" t="s">
+        <v>325</v>
+      </c>
+      <c r="E199" t="s">
+        <v>325</v>
+      </c>
+      <c r="G199" t="s">
+        <v>325</v>
+      </c>
+      <c r="H199" s="86"/>
+      <c r="I199" s="86"/>
+    </row>
+    <row r="200" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B200" s="38"/>
+      <c r="C200" s="38"/>
+    </row>
+    <row r="201" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A201" t="s">
+        <v>187</v>
+      </c>
+      <c r="B201" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="C201" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="D201" t="s">
+        <v>325</v>
+      </c>
+      <c r="E201" t="s">
+        <v>325</v>
+      </c>
+      <c r="G201" t="s">
+        <v>325</v>
+      </c>
+      <c r="H201" s="57" t="s">
+        <v>597</v>
+      </c>
+      <c r="I201" s="57"/>
+    </row>
+    <row r="202" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A202" t="s">
+        <v>150</v>
+      </c>
+      <c r="B202" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="C202" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="D202" t="s">
+        <v>325</v>
+      </c>
+      <c r="E202" t="s">
+        <v>325</v>
+      </c>
+      <c r="G202" t="s">
+        <v>325</v>
+      </c>
+      <c r="H202" s="57"/>
+      <c r="I202" s="57"/>
+    </row>
+    <row r="203" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A203" t="s">
+        <v>151</v>
+      </c>
+      <c r="B203" s="37" t="s">
+        <v>385</v>
+      </c>
+      <c r="C203" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="D203" t="s">
+        <v>325</v>
+      </c>
+      <c r="E203" t="s">
+        <v>325</v>
+      </c>
+      <c r="G203" t="s">
+        <v>325</v>
+      </c>
+      <c r="H203" s="57"/>
+      <c r="I203" s="57"/>
+    </row>
+    <row r="204" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A204" t="s">
+        <v>153</v>
+      </c>
+      <c r="B204" s="37" t="s">
+        <v>387</v>
+      </c>
+      <c r="C204" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="D204" t="s">
+        <v>325</v>
+      </c>
+      <c r="E204" t="s">
+        <v>325</v>
+      </c>
+      <c r="G204" t="s">
+        <v>325</v>
+      </c>
+      <c r="H204" s="57"/>
+      <c r="I204" s="57"/>
+    </row>
+    <row r="205" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A205" t="s">
+        <v>156</v>
+      </c>
+      <c r="B205" s="37" t="s">
+        <v>593</v>
+      </c>
+      <c r="C205" s="37" t="s">
+        <v>594</v>
+      </c>
+      <c r="D205" t="s">
+        <v>325</v>
+      </c>
+      <c r="E205" t="s">
+        <v>325</v>
+      </c>
+      <c r="G205" t="s">
+        <v>325</v>
+      </c>
+      <c r="H205" s="57"/>
+      <c r="I205" s="57"/>
+    </row>
+    <row r="206" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A206" t="s">
+        <v>157</v>
+      </c>
+      <c r="B206" s="37" t="s">
+        <v>596</v>
+      </c>
+      <c r="C206" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="D206" t="s">
+        <v>325</v>
+      </c>
+      <c r="E206" t="s">
+        <v>325</v>
+      </c>
+      <c r="G206" t="s">
+        <v>325</v>
+      </c>
+      <c r="H206" s="57"/>
+      <c r="I206" s="57"/>
+    </row>
+    <row r="207" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B207" s="38"/>
+      <c r="C207" s="38"/>
+    </row>
+    <row r="208" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A208" t="s">
+        <v>609</v>
+      </c>
+      <c r="B208" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="C208" s="37" t="s">
+        <v>610</v>
+      </c>
+      <c r="D208" t="s">
+        <v>325</v>
+      </c>
+      <c r="E208" t="s">
+        <v>325</v>
+      </c>
+      <c r="H208" s="50" t="s">
+        <v>620</v>
+      </c>
+      <c r="I208" s="50"/>
+    </row>
+    <row r="209" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A209" t="s">
+        <v>3</v>
+      </c>
+      <c r="B209" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="C209" s="37" t="s">
+        <v>612</v>
+      </c>
+      <c r="D209" t="s">
+        <v>325</v>
+      </c>
+      <c r="E209" t="s">
+        <v>325</v>
+      </c>
+      <c r="H209" s="50"/>
+      <c r="I209" s="50"/>
+    </row>
+    <row r="210" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A210" t="s">
+        <v>617</v>
+      </c>
+      <c r="B210" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="C210" s="37" t="s">
+        <v>615</v>
+      </c>
+      <c r="D210" t="s">
+        <v>325</v>
+      </c>
+      <c r="E210" t="s">
+        <v>325</v>
+      </c>
+      <c r="H210" s="50"/>
+      <c r="I210" s="50"/>
+    </row>
+    <row r="211" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A211" t="s">
+        <v>79</v>
+      </c>
+      <c r="B211" s="37" t="s">
+        <v>616</v>
+      </c>
+      <c r="C211" s="37" t="s">
+        <v>614</v>
+      </c>
+      <c r="D211" t="s">
+        <v>325</v>
+      </c>
+      <c r="E211" t="s">
+        <v>325</v>
+      </c>
+      <c r="H211" s="50"/>
+      <c r="I211" s="50"/>
+    </row>
+    <row r="212" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A212" t="s">
+        <v>4</v>
+      </c>
+      <c r="B212" s="37" t="s">
+        <v>619</v>
+      </c>
+      <c r="C212" s="37" t="s">
+        <v>618</v>
+      </c>
+      <c r="D212" t="s">
+        <v>325</v>
+      </c>
+      <c r="E212" t="s">
+        <v>325</v>
+      </c>
+      <c r="H212" s="50"/>
+      <c r="I212" s="50"/>
+    </row>
+    <row r="213" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B213" s="38"/>
+      <c r="C213" s="38"/>
+    </row>
+    <row r="214" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A214" t="s">
+        <v>118</v>
+      </c>
+      <c r="B214" s="37" t="s">
+        <v>412</v>
+      </c>
+      <c r="C214" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="D214" t="s">
+        <v>325</v>
+      </c>
+      <c r="E214" t="s">
+        <v>325</v>
+      </c>
+      <c r="H214" s="58" t="s">
+        <v>637</v>
+      </c>
+      <c r="I214" s="58"/>
+    </row>
+    <row r="215" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A215" t="s">
+        <v>21</v>
+      </c>
+      <c r="B215" s="37" t="s">
+        <v>622</v>
+      </c>
+      <c r="C215" s="37" t="s">
+        <v>621</v>
+      </c>
+      <c r="D215" t="s">
+        <v>325</v>
+      </c>
+      <c r="E215" t="s">
+        <v>325</v>
+      </c>
+      <c r="H215" s="58"/>
+      <c r="I215" s="58"/>
+    </row>
+    <row r="216" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A216" t="s">
+        <v>130</v>
+      </c>
+      <c r="B216" s="37" t="s">
+        <v>371</v>
+      </c>
+      <c r="C216" s="37" t="s">
+        <v>623</v>
+      </c>
+      <c r="D216" t="s">
+        <v>325</v>
+      </c>
+      <c r="E216" t="s">
+        <v>325</v>
+      </c>
+      <c r="H216" s="58"/>
+      <c r="I216" s="58"/>
+    </row>
+    <row r="217" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A217" t="s">
+        <v>119</v>
+      </c>
+      <c r="B217" s="37" t="s">
+        <v>624</v>
+      </c>
+      <c r="C217" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="D217" t="s">
+        <v>325</v>
+      </c>
+      <c r="E217" t="s">
+        <v>325</v>
+      </c>
+      <c r="H217" s="58"/>
+      <c r="I217" s="58"/>
+    </row>
+    <row r="218" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A218" t="s">
+        <v>29</v>
+      </c>
+      <c r="B218" s="37" t="s">
+        <v>625</v>
+      </c>
+      <c r="C218" s="37" t="s">
+        <v>568</v>
+      </c>
+      <c r="D218" t="s">
+        <v>325</v>
+      </c>
+      <c r="E218" t="s">
+        <v>325</v>
+      </c>
+      <c r="H218" s="58"/>
+      <c r="I218" s="58"/>
+    </row>
+    <row r="219" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A219" t="s">
+        <v>626</v>
+      </c>
+      <c r="B219" s="37" t="s">
+        <v>628</v>
+      </c>
+      <c r="C219" s="37" t="s">
+        <v>627</v>
+      </c>
+      <c r="D219" t="s">
+        <v>325</v>
+      </c>
+      <c r="E219" t="s">
+        <v>325</v>
+      </c>
+      <c r="H219" s="58"/>
+      <c r="I219" s="58"/>
+    </row>
+    <row r="220" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A220" t="s">
+        <v>37</v>
+      </c>
+      <c r="B220" s="37" t="s">
+        <v>630</v>
+      </c>
+      <c r="C220" s="37" t="s">
+        <v>629</v>
+      </c>
+      <c r="D220" t="s">
+        <v>325</v>
+      </c>
+      <c r="E220" t="s">
+        <v>325</v>
+      </c>
+      <c r="H220" s="58"/>
+      <c r="I220" s="58"/>
+    </row>
+    <row r="221" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A221" t="s">
+        <v>85</v>
+      </c>
+      <c r="B221" s="37" t="s">
+        <v>632</v>
+      </c>
+      <c r="C221" s="37" t="s">
+        <v>631</v>
+      </c>
+      <c r="D221" t="s">
+        <v>325</v>
+      </c>
+      <c r="E221" t="s">
+        <v>325</v>
+      </c>
+      <c r="H221" s="58"/>
+      <c r="I221" s="58"/>
+    </row>
+    <row r="222" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A222" t="s">
+        <v>44</v>
+      </c>
+      <c r="B222" s="37" t="s">
+        <v>634</v>
+      </c>
+      <c r="C222" s="37" t="s">
+        <v>633</v>
+      </c>
+      <c r="D222" t="s">
+        <v>325</v>
+      </c>
+      <c r="E222" t="s">
+        <v>325</v>
+      </c>
+      <c r="H222" s="58"/>
+      <c r="I222" s="58"/>
+    </row>
+    <row r="223" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A223" t="s">
+        <v>186</v>
+      </c>
+      <c r="B223" s="37" t="s">
+        <v>636</v>
+      </c>
+      <c r="C223" s="37" t="s">
+        <v>635</v>
+      </c>
+      <c r="D223" t="s">
+        <v>325</v>
+      </c>
+      <c r="E223" t="s">
+        <v>325</v>
+      </c>
+      <c r="H223" s="58"/>
+      <c r="I223" s="58"/>
+    </row>
+    <row r="224" spans="1:9" s="24" customFormat="1" ht="15" thickTop="1">
+      <c r="B224" s="38"/>
+      <c r="C224" s="38"/>
     </row>
     <row r="225" spans="2:3">
       <c r="B225" s="37"/>
@@ -16076,12 +16884,12 @@
       <c r="C513" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="H149:I158"/>
-    <mergeCell ref="H160:I166"/>
-    <mergeCell ref="H168:I170"/>
-    <mergeCell ref="H172:I179"/>
-    <mergeCell ref="H181:I186"/>
+  <mergeCells count="25">
+    <mergeCell ref="H188:I194"/>
+    <mergeCell ref="H196:I199"/>
+    <mergeCell ref="H201:I206"/>
+    <mergeCell ref="H208:I212"/>
+    <mergeCell ref="H214:I223"/>
     <mergeCell ref="H3:I13"/>
     <mergeCell ref="H15:I23"/>
     <mergeCell ref="H25:I31"/>
@@ -16097,6 +16905,11 @@
     <mergeCell ref="H97:I102"/>
     <mergeCell ref="H104:I108"/>
     <mergeCell ref="H110:I119"/>
+    <mergeCell ref="H149:I158"/>
+    <mergeCell ref="H160:I166"/>
+    <mergeCell ref="H168:I170"/>
+    <mergeCell ref="H172:I179"/>
+    <mergeCell ref="H181:I186"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16431,6 +17244,70 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D2" t="s">
+        <v>606</v>
+      </c>
+      <c r="E2" t="s">
+        <v>607</v>
+      </c>
+      <c r="F2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:Z38"/>
   <sheetViews>

--- a/new_universe.xlsx
+++ b/new_universe.xlsx
@@ -24,59 +24,7 @@
     <author>IVAN VUK</author>
   </authors>
   <commentList>
-    <comment ref="W2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-S</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,6 +51,58 @@
         </r>
       </text>
     </comment>
+    <comment ref="W2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+E</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+S</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="S3" authorId="0">
       <text>
         <r>
@@ -182,6 +182,59 @@
         </r>
       </text>
     </comment>
+    <comment ref="C4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+Entry to solar system EAST and SOUTH
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+Entry to solar system</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="N4" authorId="0">
       <text>
         <r>
@@ -366,29 +419,30 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-S</t>
+    <comment ref="B5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+Entry to solar system
+</t>
         </r>
       </text>
     </comment>
@@ -658,7 +712,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0">
+    <comment ref="F6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -685,6 +739,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="G6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+S</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="J6" authorId="0">
       <text>
         <r>
@@ -840,6 +920,32 @@
           <t xml:space="preserve">
 E
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+Install pirate base here!</t>
         </r>
       </text>
     </comment>
@@ -6150,7 +6256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="649">
   <si>
     <t>y\x</t>
   </si>
@@ -7878,6 +7984,9 @@
     <t>Zyarth's Dominion Cluster</t>
   </si>
   <si>
+    <t>Rhea</t>
+  </si>
+  <si>
     <t>11,16</t>
   </si>
   <si>
@@ -8089,6 +8198,36 @@
   </si>
   <si>
     <t>Family Rhonkar Cluster</t>
+  </si>
+  <si>
+    <t>18,14</t>
+  </si>
+  <si>
+    <t>4,11</t>
+  </si>
+  <si>
+    <t>0,12</t>
+  </si>
+  <si>
+    <t>1,12</t>
+  </si>
+  <si>
+    <t>17,15</t>
+  </si>
+  <si>
+    <t>3,12</t>
+  </si>
+  <si>
+    <t>13,7</t>
+  </si>
+  <si>
+    <t>4,12</t>
+  </si>
+  <si>
+    <t>9,10</t>
+  </si>
+  <si>
+    <t>4,13</t>
   </si>
 </sst>
 </file>
@@ -8436,7 +8575,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8556,6 +8695,9 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="11" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="11" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8571,34 +8713,13 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="4">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="12" borderId="2" xfId="5">
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="7">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="2" xfId="12">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="3">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="1">
@@ -8685,7 +8806,28 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="7">
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="2" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="2" xfId="12">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9003,7 +9145,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" thickTop="1" thickBottom="1"/>
@@ -9095,14 +9237,11 @@
       <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>228</v>
+      <c r="B2" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="R2" s="21" t="s">
         <v>293</v>
@@ -9121,26 +9260,11 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>217</v>
+      </c>
       <c r="C3" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="R3" s="33" t="s">
         <v>142</v>
@@ -9159,17 +9283,29 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
+      <c r="B4" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="F4" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="M4" s="33" t="s">
         <v>134</v>
@@ -9206,20 +9342,26 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
+      <c r="B5" s="17" t="s">
+        <v>252</v>
+      </c>
       <c r="C5" s="28" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>175</v>
       </c>
+      <c r="E5" s="4" t="s">
+        <v>224</v>
+      </c>
       <c r="F5" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>166</v>
@@ -9271,14 +9413,17 @@
       <c r="D6" s="28" t="s">
         <v>71</v>
       </c>
+      <c r="E6" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="F6" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="I6" s="28" t="s">
         <v>165</v>
@@ -9330,9 +9475,6 @@
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>483</v>
-      </c>
       <c r="C7" s="28" t="s">
         <v>73</v>
       </c>
@@ -9343,10 +9485,10 @@
         <v>75</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>252</v>
+        <v>567</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="H7" s="30" t="s">
         <v>26</v>
@@ -9392,8 +9534,8 @@
       <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>316</v>
+      <c r="C8" s="23" t="s">
+        <v>483</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>114</v>
@@ -9448,6 +9590,9 @@
       <c r="A9" s="6">
         <v>7</v>
       </c>
+      <c r="C9" s="23" t="s">
+        <v>316</v>
+      </c>
       <c r="D9" s="26" t="s">
         <v>115</v>
       </c>
@@ -9504,6 +9649,12 @@
       <c r="D10" s="26" t="s">
         <v>116</v>
       </c>
+      <c r="E10" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>251</v>
+      </c>
       <c r="G10" s="25" t="s">
         <v>160</v>
       </c>
@@ -9548,17 +9699,17 @@
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>310</v>
-      </c>
       <c r="E11" s="17" t="s">
-        <v>251</v>
+        <v>308</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>309</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>161</v>
@@ -9610,17 +9761,11 @@
       <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>309</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>274</v>
@@ -9672,16 +9817,17 @@
       <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="30" t="s">
         <v>123</v>
       </c>
       <c r="G13" s="19" t="s">
@@ -9737,19 +9883,19 @@
       <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="30" t="s">
         <v>121</v>
       </c>
       <c r="G14" s="39" t="s">
@@ -9805,19 +9951,19 @@
       <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="26" t="s">
         <v>206</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="30" t="s">
         <v>128</v>
       </c>
       <c r="G15" s="39" t="s">
@@ -9829,7 +9975,7 @@
       <c r="I15" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="J15" s="46" t="s">
+      <c r="J15" s="47" t="s">
         <v>56</v>
       </c>
       <c r="K15" s="17" t="s">
@@ -9885,10 +10031,10 @@
       <c r="H16" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="I16" s="45" t="s">
+      <c r="I16" s="46" t="s">
         <v>534</v>
       </c>
-      <c r="J16" s="46" t="s">
+      <c r="J16" s="47" t="s">
         <v>57</v>
       </c>
       <c r="K16" s="17" t="s">
@@ -9897,10 +10043,10 @@
       <c r="L16" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="N16" s="44" t="s">
+      <c r="N16" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="O16" s="44" t="s">
+      <c r="O16" s="45" t="s">
         <v>321</v>
       </c>
       <c r="P16" s="23" t="s">
@@ -9935,10 +10081,10 @@
       <c r="H17" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="I17" s="45" t="s">
+      <c r="I17" s="46" t="s">
         <v>535</v>
       </c>
-      <c r="J17" s="46" t="s">
+      <c r="J17" s="47" t="s">
         <v>58</v>
       </c>
       <c r="K17" s="17" t="s">
@@ -9971,7 +10117,7 @@
       <c r="U17" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="V17" s="43"/>
+      <c r="V17" s="44"/>
     </row>
     <row r="18" spans="1:22" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="A18" s="6">
@@ -10031,7 +10177,7 @@
       <c r="U18" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="V18" s="43"/>
+      <c r="V18" s="44"/>
     </row>
     <row r="19" spans="1:22" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="A19" s="6">
@@ -10175,7 +10321,7 @@
       </c>
       <c r="C23" s="6">
         <f>COUNTA(B2:Y21)</f>
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="42" customHeight="1" thickTop="1" thickBot="1">
@@ -10184,7 +10330,7 @@
       </c>
       <c r="C24" s="6">
         <f>COUNTBLANK(B2:Y21)</f>
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" ht="42" customHeight="1"/>
@@ -10201,10 +10347,10 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" thickTop="1" thickBottom="1"/>
@@ -11238,8 +11384,8 @@
   <dimension ref="A1:I513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B223" sqref="B223"/>
+      <pane ySplit="2" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E239" sqref="E239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11254,7 +11400,7 @@
     <row r="1" spans="1:9">
       <c r="A1">
         <f>COUNTA(D3:D605)</f>
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="B1">
         <v>324</v>
@@ -11264,7 +11410,7 @@
       </c>
       <c r="D1" s="27">
         <f>A1/B1</f>
-        <v>0.60802469135802473</v>
+        <v>0.64814814814814814</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1">
@@ -11309,10 +11455,10 @@
       <c r="G3" t="s">
         <v>325</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="50" t="s">
         <v>329</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="50"/>
     </row>
     <row r="4" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" t="s">
@@ -11333,8 +11479,8 @@
       <c r="G4" t="s">
         <v>325</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" t="s">
@@ -11355,8 +11501,8 @@
       <c r="G5" t="s">
         <v>325</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
     </row>
     <row r="6" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" t="s">
@@ -11377,8 +11523,8 @@
       <c r="G6" t="s">
         <v>325</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" t="s">
@@ -11399,8 +11545,8 @@
       <c r="G7" t="s">
         <v>325</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
     </row>
     <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" t="s">
@@ -11421,8 +11567,8 @@
       <c r="G8" t="s">
         <v>325</v>
       </c>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" t="s">
@@ -11443,8 +11589,8 @@
       <c r="G9" t="s">
         <v>325</v>
       </c>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
     </row>
     <row r="10" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" t="s">
@@ -11465,8 +11611,8 @@
       <c r="G10" t="s">
         <v>325</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
     </row>
     <row r="11" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" t="s">
@@ -11487,8 +11633,8 @@
       <c r="G11" t="s">
         <v>325</v>
       </c>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" t="s">
@@ -11509,8 +11655,8 @@
       <c r="G12" t="s">
         <v>325</v>
       </c>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
     </row>
     <row r="13" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" t="s">
@@ -11531,8 +11677,8 @@
       <c r="G13" t="s">
         <v>325</v>
       </c>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
     </row>
     <row r="14" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B14" s="38"/>
@@ -11557,10 +11703,10 @@
       <c r="G15" t="s">
         <v>325</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="51" t="s">
         <v>332</v>
       </c>
-      <c r="I15" s="50"/>
+      <c r="I15" s="51"/>
     </row>
     <row r="16" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" t="s">
@@ -11581,8 +11727,8 @@
       <c r="G16" t="s">
         <v>325</v>
       </c>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
     </row>
     <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" t="s">
@@ -11603,8 +11749,8 @@
       <c r="G17" t="s">
         <v>325</v>
       </c>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
     </row>
     <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A18" t="s">
@@ -11625,8 +11771,8 @@
       <c r="G18" t="s">
         <v>325</v>
       </c>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
     </row>
     <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" t="s">
@@ -11647,8 +11793,8 @@
       <c r="G19" t="s">
         <v>325</v>
       </c>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
     </row>
     <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" t="s">
@@ -11669,8 +11815,8 @@
       <c r="G20" t="s">
         <v>325</v>
       </c>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
     </row>
     <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" t="s">
@@ -11691,8 +11837,8 @@
       <c r="G21" t="s">
         <v>325</v>
       </c>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" t="s">
@@ -11713,8 +11859,8 @@
       <c r="G22" t="s">
         <v>325</v>
       </c>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
     </row>
     <row r="23" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" t="s">
@@ -11735,8 +11881,8 @@
       <c r="G23" t="s">
         <v>325</v>
       </c>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
     </row>
     <row r="24" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B24" s="38"/>
@@ -11761,10 +11907,10 @@
       <c r="G25" t="s">
         <v>325</v>
       </c>
-      <c r="H25" s="58" t="s">
+      <c r="H25" s="52" t="s">
         <v>335</v>
       </c>
-      <c r="I25" s="58"/>
+      <c r="I25" s="52"/>
     </row>
     <row r="26" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" t="s">
@@ -11785,8 +11931,8 @@
       <c r="G26" t="s">
         <v>325</v>
       </c>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
     </row>
     <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" t="s">
@@ -11807,8 +11953,8 @@
       <c r="G27" t="s">
         <v>325</v>
       </c>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
     </row>
     <row r="28" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" t="s">
@@ -11829,8 +11975,8 @@
       <c r="G28" t="s">
         <v>325</v>
       </c>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
     </row>
     <row r="29" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" t="s">
@@ -11851,8 +11997,8 @@
       <c r="G29" t="s">
         <v>325</v>
       </c>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
     </row>
     <row r="30" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" t="s">
@@ -11873,8 +12019,8 @@
       <c r="G30" t="s">
         <v>325</v>
       </c>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
     </row>
     <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" t="s">
@@ -11895,8 +12041,8 @@
       <c r="G31" t="s">
         <v>325</v>
       </c>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
     </row>
     <row r="32" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B32" s="38"/>
@@ -11921,10 +12067,10 @@
       <c r="G33" t="s">
         <v>325</v>
       </c>
-      <c r="H33" s="59" t="s">
+      <c r="H33" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="I33" s="59"/>
+      <c r="I33" s="53"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
@@ -11945,8 +12091,8 @@
       <c r="G34" t="s">
         <v>325</v>
       </c>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
@@ -11967,8 +12113,8 @@
       <c r="G35" t="s">
         <v>325</v>
       </c>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
@@ -11989,8 +12135,8 @@
       <c r="G36" t="s">
         <v>325</v>
       </c>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
@@ -12011,8 +12157,8 @@
       <c r="G37" t="s">
         <v>325</v>
       </c>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
@@ -12033,8 +12179,8 @@
       <c r="G38" t="s">
         <v>325</v>
       </c>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
@@ -12055,8 +12201,8 @@
       <c r="G39" t="s">
         <v>325</v>
       </c>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
@@ -12077,8 +12223,8 @@
       <c r="G40" t="s">
         <v>325</v>
       </c>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
@@ -12099,8 +12245,8 @@
       <c r="G41" t="s">
         <v>325</v>
       </c>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
@@ -12121,8 +12267,8 @@
       <c r="G42" t="s">
         <v>325</v>
       </c>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
     </row>
     <row r="43" spans="1:9" s="24" customFormat="1" ht="15" thickBot="1">
       <c r="B43" s="38"/>
@@ -12149,10 +12295,10 @@
       <c r="G44" t="s">
         <v>325</v>
       </c>
-      <c r="H44" s="58" t="s">
+      <c r="H44" s="52" t="s">
         <v>339</v>
       </c>
-      <c r="I44" s="58"/>
+      <c r="I44" s="52"/>
     </row>
     <row r="45" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" t="s">
@@ -12173,8 +12319,8 @@
       <c r="G45" t="s">
         <v>325</v>
       </c>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
     </row>
     <row r="46" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" t="s">
@@ -12195,8 +12341,8 @@
       <c r="G46" t="s">
         <v>325</v>
       </c>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
     </row>
     <row r="47" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" t="s">
@@ -12217,8 +12363,8 @@
       <c r="G47" t="s">
         <v>325</v>
       </c>
-      <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
     </row>
     <row r="48" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" t="s">
@@ -12239,8 +12385,8 @@
       <c r="G48" t="s">
         <v>325</v>
       </c>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
     </row>
     <row r="49" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" t="s">
@@ -12261,8 +12407,8 @@
       <c r="G49" t="s">
         <v>325</v>
       </c>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
     </row>
     <row r="50" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B50" s="38"/>
@@ -12287,10 +12433,10 @@
       <c r="G51" t="s">
         <v>325</v>
       </c>
-      <c r="H51" s="68" t="s">
+      <c r="H51" s="62" t="s">
         <v>340</v>
       </c>
-      <c r="I51" s="69"/>
+      <c r="I51" s="63"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
@@ -12311,8 +12457,8 @@
       <c r="G52" t="s">
         <v>325</v>
       </c>
-      <c r="H52" s="70"/>
-      <c r="I52" s="71"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="65"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
@@ -12333,8 +12479,8 @@
       <c r="G53" t="s">
         <v>325</v>
       </c>
-      <c r="H53" s="70"/>
-      <c r="I53" s="71"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="65"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
@@ -12355,8 +12501,8 @@
       <c r="G54" t="s">
         <v>325</v>
       </c>
-      <c r="H54" s="70"/>
-      <c r="I54" s="71"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="65"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
@@ -12377,8 +12523,8 @@
       <c r="G55" t="s">
         <v>325</v>
       </c>
-      <c r="H55" s="70"/>
-      <c r="I55" s="71"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="65"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
@@ -12399,8 +12545,8 @@
       <c r="G56" t="s">
         <v>325</v>
       </c>
-      <c r="H56" s="70"/>
-      <c r="I56" s="71"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="65"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
@@ -12421,8 +12567,8 @@
       <c r="G57" t="s">
         <v>325</v>
       </c>
-      <c r="H57" s="70"/>
-      <c r="I57" s="71"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="65"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
@@ -12443,8 +12589,8 @@
       <c r="G58" t="s">
         <v>325</v>
       </c>
-      <c r="H58" s="70"/>
-      <c r="I58" s="71"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="65"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
@@ -12465,8 +12611,8 @@
       <c r="G59" t="s">
         <v>325</v>
       </c>
-      <c r="H59" s="70"/>
-      <c r="I59" s="71"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="65"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
@@ -12487,8 +12633,8 @@
       <c r="G60" t="s">
         <v>325</v>
       </c>
-      <c r="H60" s="70"/>
-      <c r="I60" s="71"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="65"/>
     </row>
     <row r="61" spans="1:9" ht="15" thickBot="1">
       <c r="A61" t="s">
@@ -12506,8 +12652,8 @@
       <c r="E61" t="s">
         <v>325</v>
       </c>
-      <c r="H61" s="72"/>
-      <c r="I61" s="73"/>
+      <c r="H61" s="66"/>
+      <c r="I61" s="67"/>
     </row>
     <row r="62" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B62" s="38"/>
@@ -12532,10 +12678,10 @@
       <c r="G63" t="s">
         <v>325</v>
       </c>
-      <c r="H63" s="50" t="s">
+      <c r="H63" s="51" t="s">
         <v>351</v>
       </c>
-      <c r="I63" s="50"/>
+      <c r="I63" s="51"/>
     </row>
     <row r="64" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" t="s">
@@ -12556,8 +12702,8 @@
       <c r="G64" t="s">
         <v>325</v>
       </c>
-      <c r="H64" s="50"/>
-      <c r="I64" s="50"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
     </row>
     <row r="65" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" t="s">
@@ -12578,8 +12724,8 @@
       <c r="G65" t="s">
         <v>325</v>
       </c>
-      <c r="H65" s="50"/>
-      <c r="I65" s="50"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
     </row>
     <row r="66" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" t="s">
@@ -12600,8 +12746,8 @@
       <c r="G66" t="s">
         <v>325</v>
       </c>
-      <c r="H66" s="50"/>
-      <c r="I66" s="50"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
     </row>
     <row r="67" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" t="s">
@@ -12622,8 +12768,8 @@
       <c r="G67" t="s">
         <v>325</v>
       </c>
-      <c r="H67" s="50"/>
-      <c r="I67" s="50"/>
+      <c r="H67" s="51"/>
+      <c r="I67" s="51"/>
     </row>
     <row r="68" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B68" s="38"/>
@@ -12648,10 +12794,10 @@
       <c r="G69" t="s">
         <v>325</v>
       </c>
-      <c r="H69" s="65" t="s">
+      <c r="H69" s="59" t="s">
         <v>364</v>
       </c>
-      <c r="I69" s="65"/>
+      <c r="I69" s="59"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
@@ -12672,8 +12818,8 @@
       <c r="G70" t="s">
         <v>325</v>
       </c>
-      <c r="H70" s="66"/>
-      <c r="I70" s="66"/>
+      <c r="H70" s="60"/>
+      <c r="I70" s="60"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
@@ -12694,8 +12840,8 @@
       <c r="G71" t="s">
         <v>325</v>
       </c>
-      <c r="H71" s="66"/>
-      <c r="I71" s="66"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
@@ -12716,8 +12862,8 @@
       <c r="G72" t="s">
         <v>325</v>
       </c>
-      <c r="H72" s="66"/>
-      <c r="I72" s="66"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="60"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
@@ -12738,8 +12884,8 @@
       <c r="G73" t="s">
         <v>325</v>
       </c>
-      <c r="H73" s="66"/>
-      <c r="I73" s="66"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
@@ -12760,8 +12906,8 @@
       <c r="G74" t="s">
         <v>325</v>
       </c>
-      <c r="H74" s="66"/>
-      <c r="I74" s="66"/>
+      <c r="H74" s="60"/>
+      <c r="I74" s="60"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
@@ -12782,8 +12928,8 @@
       <c r="G75" t="s">
         <v>325</v>
       </c>
-      <c r="H75" s="66"/>
-      <c r="I75" s="66"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
@@ -12804,8 +12950,8 @@
       <c r="G76" t="s">
         <v>325</v>
       </c>
-      <c r="H76" s="66"/>
-      <c r="I76" s="66"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="60"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
@@ -12826,8 +12972,8 @@
       <c r="G77" t="s">
         <v>325</v>
       </c>
-      <c r="H77" s="66"/>
-      <c r="I77" s="66"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
@@ -12848,8 +12994,8 @@
       <c r="G78" t="s">
         <v>325</v>
       </c>
-      <c r="H78" s="67"/>
-      <c r="I78" s="67"/>
+      <c r="H78" s="61"/>
+      <c r="I78" s="61"/>
     </row>
     <row r="79" spans="1:9" s="24" customFormat="1" ht="15" thickBot="1">
       <c r="B79" s="38"/>
@@ -12874,10 +13020,10 @@
       <c r="G80" t="s">
         <v>325</v>
       </c>
-      <c r="H80" s="74" t="s">
+      <c r="H80" s="68" t="s">
         <v>407</v>
       </c>
-      <c r="I80" s="75"/>
+      <c r="I80" s="69"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
@@ -12898,8 +13044,8 @@
       <c r="G81" t="s">
         <v>325</v>
       </c>
-      <c r="H81" s="76"/>
-      <c r="I81" s="77"/>
+      <c r="H81" s="70"/>
+      <c r="I81" s="71"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
@@ -12920,8 +13066,8 @@
       <c r="G82" t="s">
         <v>325</v>
       </c>
-      <c r="H82" s="76"/>
-      <c r="I82" s="77"/>
+      <c r="H82" s="70"/>
+      <c r="I82" s="71"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
@@ -12942,8 +13088,8 @@
       <c r="G83" t="s">
         <v>325</v>
       </c>
-      <c r="H83" s="76"/>
-      <c r="I83" s="77"/>
+      <c r="H83" s="70"/>
+      <c r="I83" s="71"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
@@ -12964,8 +13110,8 @@
       <c r="G84" t="s">
         <v>325</v>
       </c>
-      <c r="H84" s="76"/>
-      <c r="I84" s="77"/>
+      <c r="H84" s="70"/>
+      <c r="I84" s="71"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
@@ -12986,8 +13132,8 @@
       <c r="G85" t="s">
         <v>325</v>
       </c>
-      <c r="H85" s="76"/>
-      <c r="I85" s="77"/>
+      <c r="H85" s="70"/>
+      <c r="I85" s="71"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
@@ -13008,8 +13154,8 @@
       <c r="G86" t="s">
         <v>325</v>
       </c>
-      <c r="H86" s="76"/>
-      <c r="I86" s="77"/>
+      <c r="H86" s="70"/>
+      <c r="I86" s="71"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
@@ -13030,8 +13176,8 @@
       <c r="G87" t="s">
         <v>325</v>
       </c>
-      <c r="H87" s="76"/>
-      <c r="I87" s="77"/>
+      <c r="H87" s="70"/>
+      <c r="I87" s="71"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
@@ -13052,8 +13198,8 @@
       <c r="G88" t="s">
         <v>325</v>
       </c>
-      <c r="H88" s="76"/>
-      <c r="I88" s="77"/>
+      <c r="H88" s="70"/>
+      <c r="I88" s="71"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
@@ -13074,8 +13220,8 @@
       <c r="G89" t="s">
         <v>325</v>
       </c>
-      <c r="H89" s="76"/>
-      <c r="I89" s="77"/>
+      <c r="H89" s="70"/>
+      <c r="I89" s="71"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
@@ -13096,8 +13242,8 @@
       <c r="G90" t="s">
         <v>325</v>
       </c>
-      <c r="H90" s="76"/>
-      <c r="I90" s="77"/>
+      <c r="H90" s="70"/>
+      <c r="I90" s="71"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
@@ -13118,8 +13264,8 @@
       <c r="G91" t="s">
         <v>325</v>
       </c>
-      <c r="H91" s="76"/>
-      <c r="I91" s="77"/>
+      <c r="H91" s="70"/>
+      <c r="I91" s="71"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
@@ -13140,8 +13286,8 @@
       <c r="G92" t="s">
         <v>325</v>
       </c>
-      <c r="H92" s="76"/>
-      <c r="I92" s="77"/>
+      <c r="H92" s="70"/>
+      <c r="I92" s="71"/>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
@@ -13162,8 +13308,8 @@
       <c r="G93" t="s">
         <v>325</v>
       </c>
-      <c r="H93" s="76"/>
-      <c r="I93" s="77"/>
+      <c r="H93" s="70"/>
+      <c r="I93" s="71"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
@@ -13184,8 +13330,8 @@
       <c r="G94" t="s">
         <v>325</v>
       </c>
-      <c r="H94" s="76"/>
-      <c r="I94" s="77"/>
+      <c r="H94" s="70"/>
+      <c r="I94" s="71"/>
     </row>
     <row r="95" spans="1:9" ht="15" thickBot="1">
       <c r="A95" t="s">
@@ -13206,8 +13352,8 @@
       <c r="G95" t="s">
         <v>325</v>
       </c>
-      <c r="H95" s="78"/>
-      <c r="I95" s="79"/>
+      <c r="H95" s="72"/>
+      <c r="I95" s="73"/>
     </row>
     <row r="96" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B96" s="38"/>
@@ -13232,10 +13378,10 @@
       <c r="G97" t="s">
         <v>325</v>
       </c>
-      <c r="H97" s="58" t="s">
+      <c r="H97" s="52" t="s">
         <v>420</v>
       </c>
-      <c r="I97" s="58"/>
+      <c r="I97" s="52"/>
     </row>
     <row r="98" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A98" t="s">
@@ -13256,8 +13402,8 @@
       <c r="G98" t="s">
         <v>325</v>
       </c>
-      <c r="H98" s="58"/>
-      <c r="I98" s="58"/>
+      <c r="H98" s="52"/>
+      <c r="I98" s="52"/>
     </row>
     <row r="99" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A99" t="s">
@@ -13278,8 +13424,8 @@
       <c r="G99" t="s">
         <v>325</v>
       </c>
-      <c r="H99" s="58"/>
-      <c r="I99" s="58"/>
+      <c r="H99" s="52"/>
+      <c r="I99" s="52"/>
     </row>
     <row r="100" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A100" t="s">
@@ -13300,8 +13446,8 @@
       <c r="G100" t="s">
         <v>325</v>
       </c>
-      <c r="H100" s="58"/>
-      <c r="I100" s="58"/>
+      <c r="H100" s="52"/>
+      <c r="I100" s="52"/>
     </row>
     <row r="101" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A101" t="s">
@@ -13322,8 +13468,8 @@
       <c r="G101" t="s">
         <v>325</v>
       </c>
-      <c r="H101" s="58"/>
-      <c r="I101" s="58"/>
+      <c r="H101" s="52"/>
+      <c r="I101" s="52"/>
     </row>
     <row r="102" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A102" t="s">
@@ -13344,8 +13490,8 @@
       <c r="G102" t="s">
         <v>325</v>
       </c>
-      <c r="H102" s="58"/>
-      <c r="I102" s="58"/>
+      <c r="H102" s="52"/>
+      <c r="I102" s="52"/>
     </row>
     <row r="103" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B103" s="38"/>
@@ -13370,10 +13516,10 @@
       <c r="G104" t="s">
         <v>325</v>
       </c>
-      <c r="H104" s="68" t="s">
+      <c r="H104" s="62" t="s">
         <v>429</v>
       </c>
-      <c r="I104" s="69"/>
+      <c r="I104" s="63"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
@@ -13394,8 +13540,8 @@
       <c r="G105" t="s">
         <v>325</v>
       </c>
-      <c r="H105" s="70"/>
-      <c r="I105" s="71"/>
+      <c r="H105" s="64"/>
+      <c r="I105" s="65"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
@@ -13416,8 +13562,8 @@
       <c r="G106" t="s">
         <v>325</v>
       </c>
-      <c r="H106" s="70"/>
-      <c r="I106" s="71"/>
+      <c r="H106" s="64"/>
+      <c r="I106" s="65"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
@@ -13438,8 +13584,8 @@
       <c r="G107" t="s">
         <v>325</v>
       </c>
-      <c r="H107" s="70"/>
-      <c r="I107" s="71"/>
+      <c r="H107" s="64"/>
+      <c r="I107" s="65"/>
     </row>
     <row r="108" spans="1:9" ht="15" thickBot="1">
       <c r="A108" t="s">
@@ -13460,8 +13606,8 @@
       <c r="G108" t="s">
         <v>325</v>
       </c>
-      <c r="H108" s="72"/>
-      <c r="I108" s="73"/>
+      <c r="H108" s="66"/>
+      <c r="I108" s="67"/>
     </row>
     <row r="109" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B109" s="38"/>
@@ -13486,10 +13632,10 @@
       <c r="G110" t="s">
         <v>325</v>
       </c>
-      <c r="H110" s="80" t="s">
+      <c r="H110" s="74" t="s">
         <v>449</v>
       </c>
-      <c r="I110" s="81"/>
+      <c r="I110" s="75"/>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
@@ -13510,8 +13656,8 @@
       <c r="G111" t="s">
         <v>325</v>
       </c>
-      <c r="H111" s="82"/>
-      <c r="I111" s="83"/>
+      <c r="H111" s="76"/>
+      <c r="I111" s="77"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
@@ -13532,8 +13678,8 @@
       <c r="G112" t="s">
         <v>325</v>
       </c>
-      <c r="H112" s="82"/>
-      <c r="I112" s="83"/>
+      <c r="H112" s="76"/>
+      <c r="I112" s="77"/>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
@@ -13554,8 +13700,8 @@
       <c r="G113" t="s">
         <v>325</v>
       </c>
-      <c r="H113" s="82"/>
-      <c r="I113" s="83"/>
+      <c r="H113" s="76"/>
+      <c r="I113" s="77"/>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
@@ -13576,8 +13722,8 @@
       <c r="G114" t="s">
         <v>325</v>
       </c>
-      <c r="H114" s="82"/>
-      <c r="I114" s="83"/>
+      <c r="H114" s="76"/>
+      <c r="I114" s="77"/>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
@@ -13598,8 +13744,8 @@
       <c r="G115" t="s">
         <v>325</v>
       </c>
-      <c r="H115" s="82"/>
-      <c r="I115" s="83"/>
+      <c r="H115" s="76"/>
+      <c r="I115" s="77"/>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
@@ -13620,8 +13766,8 @@
       <c r="G116" t="s">
         <v>325</v>
       </c>
-      <c r="H116" s="82"/>
-      <c r="I116" s="83"/>
+      <c r="H116" s="76"/>
+      <c r="I116" s="77"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
@@ -13642,8 +13788,8 @@
       <c r="G117" t="s">
         <v>325</v>
       </c>
-      <c r="H117" s="82"/>
-      <c r="I117" s="83"/>
+      <c r="H117" s="76"/>
+      <c r="I117" s="77"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
@@ -13664,8 +13810,8 @@
       <c r="G118" t="s">
         <v>325</v>
       </c>
-      <c r="H118" s="82"/>
-      <c r="I118" s="83"/>
+      <c r="H118" s="76"/>
+      <c r="I118" s="77"/>
     </row>
     <row r="119" spans="1:9" ht="15" thickBot="1">
       <c r="A119" t="s">
@@ -13686,8 +13832,8 @@
       <c r="G119" t="s">
         <v>325</v>
       </c>
-      <c r="H119" s="84"/>
-      <c r="I119" s="85"/>
+      <c r="H119" s="78"/>
+      <c r="I119" s="79"/>
     </row>
     <row r="120" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B120" s="38"/>
@@ -13712,10 +13858,10 @@
       <c r="G121" t="s">
         <v>325</v>
       </c>
-      <c r="H121" s="68" t="s">
+      <c r="H121" s="62" t="s">
         <v>464</v>
       </c>
-      <c r="I121" s="69"/>
+      <c r="I121" s="63"/>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
@@ -13736,8 +13882,8 @@
       <c r="G122" t="s">
         <v>325</v>
       </c>
-      <c r="H122" s="70"/>
-      <c r="I122" s="71"/>
+      <c r="H122" s="64"/>
+      <c r="I122" s="65"/>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
@@ -13758,8 +13904,8 @@
       <c r="G123" t="s">
         <v>325</v>
       </c>
-      <c r="H123" s="70"/>
-      <c r="I123" s="71"/>
+      <c r="H123" s="64"/>
+      <c r="I123" s="65"/>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
@@ -13780,8 +13926,8 @@
       <c r="G124" t="s">
         <v>325</v>
       </c>
-      <c r="H124" s="70"/>
-      <c r="I124" s="71"/>
+      <c r="H124" s="64"/>
+      <c r="I124" s="65"/>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
@@ -13802,8 +13948,8 @@
       <c r="G125" t="s">
         <v>325</v>
       </c>
-      <c r="H125" s="70"/>
-      <c r="I125" s="71"/>
+      <c r="H125" s="64"/>
+      <c r="I125" s="65"/>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
@@ -13824,8 +13970,8 @@
       <c r="G126" t="s">
         <v>325</v>
       </c>
-      <c r="H126" s="70"/>
-      <c r="I126" s="71"/>
+      <c r="H126" s="64"/>
+      <c r="I126" s="65"/>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
@@ -13846,8 +13992,8 @@
       <c r="G127" t="s">
         <v>325</v>
       </c>
-      <c r="H127" s="70"/>
-      <c r="I127" s="71"/>
+      <c r="H127" s="64"/>
+      <c r="I127" s="65"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
@@ -13868,8 +14014,8 @@
       <c r="G128" t="s">
         <v>325</v>
       </c>
-      <c r="H128" s="70"/>
-      <c r="I128" s="71"/>
+      <c r="H128" s="64"/>
+      <c r="I128" s="65"/>
     </row>
     <row r="129" spans="1:9" ht="15" thickBot="1">
       <c r="A129" t="s">
@@ -13890,8 +14036,8 @@
       <c r="G129" t="s">
         <v>325</v>
       </c>
-      <c r="H129" s="72"/>
-      <c r="I129" s="73"/>
+      <c r="H129" s="66"/>
+      <c r="I129" s="67"/>
     </row>
     <row r="130" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B130" s="38"/>
@@ -13916,10 +14062,10 @@
       <c r="G131" t="s">
         <v>325</v>
       </c>
-      <c r="H131" s="58" t="s">
+      <c r="H131" s="52" t="s">
         <v>480</v>
       </c>
-      <c r="I131" s="58"/>
+      <c r="I131" s="52"/>
     </row>
     <row r="132" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A132" t="s">
@@ -13940,8 +14086,8 @@
       <c r="G132" t="s">
         <v>325</v>
       </c>
-      <c r="H132" s="58"/>
-      <c r="I132" s="58"/>
+      <c r="H132" s="52"/>
+      <c r="I132" s="52"/>
     </row>
     <row r="133" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A133" t="s">
@@ -13962,8 +14108,8 @@
       <c r="G133" t="s">
         <v>325</v>
       </c>
-      <c r="H133" s="58"/>
-      <c r="I133" s="58"/>
+      <c r="H133" s="52"/>
+      <c r="I133" s="52"/>
     </row>
     <row r="134" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A134" t="s">
@@ -13984,8 +14130,8 @@
       <c r="G134" t="s">
         <v>325</v>
       </c>
-      <c r="H134" s="58"/>
-      <c r="I134" s="58"/>
+      <c r="H134" s="52"/>
+      <c r="I134" s="52"/>
     </row>
     <row r="135" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A135" t="s">
@@ -14006,8 +14152,8 @@
       <c r="G135" t="s">
         <v>325</v>
       </c>
-      <c r="H135" s="58"/>
-      <c r="I135" s="58"/>
+      <c r="H135" s="52"/>
+      <c r="I135" s="52"/>
     </row>
     <row r="136" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A136" t="s">
@@ -14028,8 +14174,8 @@
       <c r="G136" t="s">
         <v>325</v>
       </c>
-      <c r="H136" s="58"/>
-      <c r="I136" s="58"/>
+      <c r="H136" s="52"/>
+      <c r="I136" s="52"/>
     </row>
     <row r="137" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A137" t="s">
@@ -14050,8 +14196,8 @@
       <c r="G137" t="s">
         <v>325</v>
       </c>
-      <c r="H137" s="58"/>
-      <c r="I137" s="58"/>
+      <c r="H137" s="52"/>
+      <c r="I137" s="52"/>
     </row>
     <row r="138" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A138" t="s">
@@ -14072,8 +14218,8 @@
       <c r="G138" t="s">
         <v>325</v>
       </c>
-      <c r="H138" s="58"/>
-      <c r="I138" s="58"/>
+      <c r="H138" s="52"/>
+      <c r="I138" s="52"/>
     </row>
     <row r="139" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B139" s="38"/>
@@ -14098,10 +14244,10 @@
       <c r="G140" t="s">
         <v>325</v>
       </c>
-      <c r="H140" s="62" t="s">
+      <c r="H140" s="56" t="s">
         <v>497</v>
       </c>
-      <c r="I140" s="62"/>
+      <c r="I140" s="56"/>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="s">
@@ -14122,8 +14268,8 @@
       <c r="G141" t="s">
         <v>325</v>
       </c>
-      <c r="H141" s="63"/>
-      <c r="I141" s="63"/>
+      <c r="H141" s="57"/>
+      <c r="I141" s="57"/>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="s">
@@ -14144,8 +14290,8 @@
       <c r="G142" t="s">
         <v>325</v>
       </c>
-      <c r="H142" s="63"/>
-      <c r="I142" s="63"/>
+      <c r="H142" s="57"/>
+      <c r="I142" s="57"/>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
@@ -14166,8 +14312,8 @@
       <c r="G143" t="s">
         <v>325</v>
       </c>
-      <c r="H143" s="63"/>
-      <c r="I143" s="63"/>
+      <c r="H143" s="57"/>
+      <c r="I143" s="57"/>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="41" t="s">
@@ -14188,8 +14334,8 @@
       <c r="G144" t="s">
         <v>325</v>
       </c>
-      <c r="H144" s="63"/>
-      <c r="I144" s="63"/>
+      <c r="H144" s="57"/>
+      <c r="I144" s="57"/>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
@@ -14210,8 +14356,8 @@
       <c r="G145" t="s">
         <v>325</v>
       </c>
-      <c r="H145" s="63"/>
-      <c r="I145" s="63"/>
+      <c r="H145" s="57"/>
+      <c r="I145" s="57"/>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="s">
@@ -14232,8 +14378,8 @@
       <c r="G146" t="s">
         <v>325</v>
       </c>
-      <c r="H146" s="63"/>
-      <c r="I146" s="63"/>
+      <c r="H146" s="57"/>
+      <c r="I146" s="57"/>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" t="s">
@@ -14254,8 +14400,8 @@
       <c r="G147" t="s">
         <v>325</v>
       </c>
-      <c r="H147" s="64"/>
-      <c r="I147" s="64"/>
+      <c r="H147" s="58"/>
+      <c r="I147" s="58"/>
     </row>
     <row r="148" spans="1:9" s="24" customFormat="1" ht="15" thickBot="1">
       <c r="B148" s="38"/>
@@ -14280,10 +14426,10 @@
       <c r="G149" t="s">
         <v>325</v>
       </c>
-      <c r="H149" s="47" t="s">
+      <c r="H149" s="48" t="s">
         <v>519</v>
       </c>
-      <c r="I149" s="47"/>
+      <c r="I149" s="48"/>
     </row>
     <row r="150" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A150" t="s">
@@ -14304,8 +14450,8 @@
       <c r="G150" t="s">
         <v>325</v>
       </c>
-      <c r="H150" s="47"/>
-      <c r="I150" s="47"/>
+      <c r="H150" s="48"/>
+      <c r="I150" s="48"/>
     </row>
     <row r="151" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A151" t="s">
@@ -14326,8 +14472,8 @@
       <c r="G151" t="s">
         <v>325</v>
       </c>
-      <c r="H151" s="47"/>
-      <c r="I151" s="47"/>
+      <c r="H151" s="48"/>
+      <c r="I151" s="48"/>
     </row>
     <row r="152" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A152" t="s">
@@ -14348,8 +14494,8 @@
       <c r="G152" t="s">
         <v>325</v>
       </c>
-      <c r="H152" s="47"/>
-      <c r="I152" s="47"/>
+      <c r="H152" s="48"/>
+      <c r="I152" s="48"/>
     </row>
     <row r="153" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A153" t="s">
@@ -14370,8 +14516,8 @@
       <c r="G153" t="s">
         <v>325</v>
       </c>
-      <c r="H153" s="47"/>
-      <c r="I153" s="47"/>
+      <c r="H153" s="48"/>
+      <c r="I153" s="48"/>
     </row>
     <row r="154" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A154" t="s">
@@ -14392,8 +14538,8 @@
       <c r="G154" t="s">
         <v>325</v>
       </c>
-      <c r="H154" s="47"/>
-      <c r="I154" s="47"/>
+      <c r="H154" s="48"/>
+      <c r="I154" s="48"/>
     </row>
     <row r="155" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A155" t="s">
@@ -14414,8 +14560,8 @@
       <c r="G155" t="s">
         <v>325</v>
       </c>
-      <c r="H155" s="47"/>
-      <c r="I155" s="47"/>
+      <c r="H155" s="48"/>
+      <c r="I155" s="48"/>
     </row>
     <row r="156" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A156" t="s">
@@ -14436,8 +14582,8 @@
       <c r="G156" t="s">
         <v>325</v>
       </c>
-      <c r="H156" s="47"/>
-      <c r="I156" s="47"/>
+      <c r="H156" s="48"/>
+      <c r="I156" s="48"/>
     </row>
     <row r="157" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A157" t="s">
@@ -14458,8 +14604,8 @@
       <c r="G157" t="s">
         <v>325</v>
       </c>
-      <c r="H157" s="47"/>
-      <c r="I157" s="47"/>
+      <c r="H157" s="48"/>
+      <c r="I157" s="48"/>
     </row>
     <row r="158" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A158" t="s">
@@ -14480,8 +14626,8 @@
       <c r="G158" t="s">
         <v>325</v>
       </c>
-      <c r="H158" s="47"/>
-      <c r="I158" s="47"/>
+      <c r="H158" s="48"/>
+      <c r="I158" s="48"/>
     </row>
     <row r="159" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B159" s="38"/>
@@ -14506,10 +14652,10 @@
       <c r="G160" t="s">
         <v>325</v>
       </c>
-      <c r="H160" s="48" t="s">
+      <c r="H160" s="80" t="s">
         <v>533</v>
       </c>
-      <c r="I160" s="48"/>
+      <c r="I160" s="80"/>
     </row>
     <row r="161" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A161" t="s">
@@ -14530,8 +14676,8 @@
       <c r="G161" t="s">
         <v>325</v>
       </c>
-      <c r="H161" s="48"/>
-      <c r="I161" s="48"/>
+      <c r="H161" s="80"/>
+      <c r="I161" s="80"/>
     </row>
     <row r="162" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A162" t="s">
@@ -14552,8 +14698,8 @@
       <c r="G162" t="s">
         <v>325</v>
       </c>
-      <c r="H162" s="48"/>
-      <c r="I162" s="48"/>
+      <c r="H162" s="80"/>
+      <c r="I162" s="80"/>
     </row>
     <row r="163" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A163" t="s">
@@ -14574,8 +14720,8 @@
       <c r="G163" t="s">
         <v>325</v>
       </c>
-      <c r="H163" s="48"/>
-      <c r="I163" s="48"/>
+      <c r="H163" s="80"/>
+      <c r="I163" s="80"/>
     </row>
     <row r="164" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A164" t="s">
@@ -14596,8 +14742,8 @@
       <c r="G164" t="s">
         <v>325</v>
       </c>
-      <c r="H164" s="48"/>
-      <c r="I164" s="48"/>
+      <c r="H164" s="80"/>
+      <c r="I164" s="80"/>
     </row>
     <row r="165" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A165" t="s">
@@ -14618,8 +14764,8 @@
       <c r="G165" t="s">
         <v>325</v>
       </c>
-      <c r="H165" s="48"/>
-      <c r="I165" s="48"/>
+      <c r="H165" s="80"/>
+      <c r="I165" s="80"/>
     </row>
     <row r="166" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A166" t="s">
@@ -14640,8 +14786,8 @@
       <c r="G166" t="s">
         <v>325</v>
       </c>
-      <c r="H166" s="48"/>
-      <c r="I166" s="48"/>
+      <c r="H166" s="80"/>
+      <c r="I166" s="80"/>
     </row>
     <row r="167" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B167" s="38"/>
@@ -14666,10 +14812,10 @@
       <c r="G168" t="s">
         <v>325</v>
       </c>
-      <c r="H168" s="49" t="s">
+      <c r="H168" s="81" t="s">
         <v>541</v>
       </c>
-      <c r="I168" s="49"/>
+      <c r="I168" s="81"/>
     </row>
     <row r="169" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A169" t="s">
@@ -14690,8 +14836,8 @@
       <c r="G169" t="s">
         <v>325</v>
       </c>
-      <c r="H169" s="49"/>
-      <c r="I169" s="49"/>
+      <c r="H169" s="81"/>
+      <c r="I169" s="81"/>
     </row>
     <row r="170" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A170" t="s">
@@ -14712,8 +14858,8 @@
       <c r="G170" t="s">
         <v>325</v>
       </c>
-      <c r="H170" s="49"/>
-      <c r="I170" s="49"/>
+      <c r="H170" s="81"/>
+      <c r="I170" s="81"/>
     </row>
     <row r="171" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B171" s="38"/>
@@ -14738,10 +14884,10 @@
       <c r="G172" t="s">
         <v>325</v>
       </c>
-      <c r="H172" s="50" t="s">
+      <c r="H172" s="51" t="s">
         <v>558</v>
       </c>
-      <c r="I172" s="50"/>
+      <c r="I172" s="51"/>
     </row>
     <row r="173" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A173" t="s">
@@ -14762,8 +14908,8 @@
       <c r="G173" t="s">
         <v>325</v>
       </c>
-      <c r="H173" s="50"/>
-      <c r="I173" s="50"/>
+      <c r="H173" s="51"/>
+      <c r="I173" s="51"/>
     </row>
     <row r="174" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A174" t="s">
@@ -14784,8 +14930,8 @@
       <c r="G174" t="s">
         <v>325</v>
       </c>
-      <c r="H174" s="50"/>
-      <c r="I174" s="50"/>
+      <c r="H174" s="51"/>
+      <c r="I174" s="51"/>
     </row>
     <row r="175" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A175" t="s">
@@ -14806,8 +14952,8 @@
       <c r="G175" t="s">
         <v>325</v>
       </c>
-      <c r="H175" s="50"/>
-      <c r="I175" s="50"/>
+      <c r="H175" s="51"/>
+      <c r="I175" s="51"/>
     </row>
     <row r="176" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A176" t="s">
@@ -14828,8 +14974,8 @@
       <c r="G176" t="s">
         <v>325</v>
       </c>
-      <c r="H176" s="50"/>
-      <c r="I176" s="50"/>
+      <c r="H176" s="51"/>
+      <c r="I176" s="51"/>
     </row>
     <row r="177" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A177" t="s">
@@ -14850,8 +14996,8 @@
       <c r="G177" t="s">
         <v>325</v>
       </c>
-      <c r="H177" s="50"/>
-      <c r="I177" s="50"/>
+      <c r="H177" s="51"/>
+      <c r="I177" s="51"/>
     </row>
     <row r="178" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A178" t="s">
@@ -14872,8 +15018,8 @@
       <c r="G178" t="s">
         <v>325</v>
       </c>
-      <c r="H178" s="50"/>
-      <c r="I178" s="50"/>
+      <c r="H178" s="51"/>
+      <c r="I178" s="51"/>
     </row>
     <row r="179" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A179" s="41" t="s">
@@ -14894,8 +15040,8 @@
       <c r="G179" t="s">
         <v>325</v>
       </c>
-      <c r="H179" s="50"/>
-      <c r="I179" s="50"/>
+      <c r="H179" s="51"/>
+      <c r="I179" s="51"/>
     </row>
     <row r="180" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B180" s="38"/>
@@ -14920,10 +15066,10 @@
       <c r="G181" t="s">
         <v>325</v>
       </c>
-      <c r="H181" s="51" t="s">
+      <c r="H181" s="82" t="s">
         <v>566</v>
       </c>
-      <c r="I181" s="52"/>
+      <c r="I181" s="83"/>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="s">
@@ -14944,8 +15090,8 @@
       <c r="G182" t="s">
         <v>325</v>
       </c>
-      <c r="H182" s="53"/>
-      <c r="I182" s="54"/>
+      <c r="H182" s="84"/>
+      <c r="I182" s="85"/>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="s">
@@ -14966,8 +15112,8 @@
       <c r="G183" t="s">
         <v>325</v>
       </c>
-      <c r="H183" s="53"/>
-      <c r="I183" s="54"/>
+      <c r="H183" s="84"/>
+      <c r="I183" s="85"/>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" t="s">
@@ -14988,8 +15134,8 @@
       <c r="G184" t="s">
         <v>325</v>
       </c>
-      <c r="H184" s="53"/>
-      <c r="I184" s="54"/>
+      <c r="H184" s="84"/>
+      <c r="I184" s="85"/>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" t="s">
@@ -15010,8 +15156,8 @@
       <c r="G185" t="s">
         <v>325</v>
       </c>
-      <c r="H185" s="53"/>
-      <c r="I185" s="54"/>
+      <c r="H185" s="84"/>
+      <c r="I185" s="85"/>
     </row>
     <row r="186" spans="1:9" ht="15" thickBot="1">
       <c r="A186" t="s">
@@ -15032,8 +15178,8 @@
       <c r="G186" t="s">
         <v>325</v>
       </c>
-      <c r="H186" s="55"/>
-      <c r="I186" s="56"/>
+      <c r="H186" s="86"/>
+      <c r="I186" s="87"/>
     </row>
     <row r="187" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B187" s="38"/>
@@ -15041,14 +15187,14 @@
     </row>
     <row r="188" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A188" t="s">
+        <v>570</v>
+      </c>
+      <c r="B188" s="37" t="s">
         <v>569</v>
       </c>
-      <c r="B188" s="37" t="s">
+      <c r="C188" s="37" t="s">
         <v>568</v>
       </c>
-      <c r="C188" s="37" t="s">
-        <v>567</v>
-      </c>
       <c r="D188" t="s">
         <v>325</v>
       </c>
@@ -15058,21 +15204,21 @@
       <c r="G188" t="s">
         <v>325</v>
       </c>
-      <c r="H188" s="47" t="s">
-        <v>581</v>
-      </c>
-      <c r="I188" s="47"/>
+      <c r="H188" s="48" t="s">
+        <v>582</v>
+      </c>
+      <c r="I188" s="48"/>
     </row>
     <row r="189" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A189" t="s">
         <v>67</v>
       </c>
       <c r="B189" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="C189" s="37" t="s">
         <v>571</v>
       </c>
-      <c r="C189" s="37" t="s">
-        <v>570</v>
-      </c>
       <c r="D189" t="s">
         <v>325</v>
       </c>
@@ -15082,15 +15228,15 @@
       <c r="G189" t="s">
         <v>325</v>
       </c>
-      <c r="H189" s="47"/>
-      <c r="I189" s="47"/>
+      <c r="H189" s="48"/>
+      <c r="I189" s="48"/>
     </row>
     <row r="190" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A190" t="s">
         <v>173</v>
       </c>
       <c r="B190" s="37" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C190" s="37" t="s">
         <v>451</v>
@@ -15104,19 +15250,19 @@
       <c r="G190" t="s">
         <v>325</v>
       </c>
-      <c r="H190" s="47"/>
-      <c r="I190" s="47"/>
+      <c r="H190" s="48"/>
+      <c r="I190" s="48"/>
     </row>
     <row r="191" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A191" t="s">
         <v>68</v>
       </c>
       <c r="B191" s="37" t="s">
+        <v>575</v>
+      </c>
+      <c r="C191" s="37" t="s">
         <v>574</v>
       </c>
-      <c r="C191" s="37" t="s">
-        <v>573</v>
-      </c>
       <c r="D191" t="s">
         <v>325</v>
       </c>
@@ -15126,19 +15272,19 @@
       <c r="G191" t="s">
         <v>325</v>
       </c>
-      <c r="H191" s="47"/>
-      <c r="I191" s="47"/>
+      <c r="H191" s="48"/>
+      <c r="I191" s="48"/>
     </row>
     <row r="192" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A192" t="s">
         <v>172</v>
       </c>
       <c r="B192" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="C192" s="37" t="s">
         <v>576</v>
       </c>
-      <c r="C192" s="37" t="s">
-        <v>575</v>
-      </c>
       <c r="D192" t="s">
         <v>325</v>
       </c>
@@ -15148,19 +15294,19 @@
       <c r="G192" t="s">
         <v>325</v>
       </c>
-      <c r="H192" s="47"/>
-      <c r="I192" s="47"/>
+      <c r="H192" s="48"/>
+      <c r="I192" s="48"/>
     </row>
     <row r="193" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A193" t="s">
         <v>171</v>
       </c>
       <c r="B193" s="37" t="s">
+        <v>579</v>
+      </c>
+      <c r="C193" s="37" t="s">
         <v>578</v>
       </c>
-      <c r="C193" s="37" t="s">
-        <v>577</v>
-      </c>
       <c r="D193" t="s">
         <v>325</v>
       </c>
@@ -15170,8 +15316,8 @@
       <c r="G193" t="s">
         <v>325</v>
       </c>
-      <c r="H193" s="47"/>
-      <c r="I193" s="47"/>
+      <c r="H193" s="48"/>
+      <c r="I193" s="48"/>
     </row>
     <row r="194" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A194" t="s">
@@ -15181,7 +15327,7 @@
         <v>410</v>
       </c>
       <c r="C194" s="37" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D194" t="s">
         <v>325</v>
@@ -15192,8 +15338,8 @@
       <c r="G194" t="s">
         <v>325</v>
       </c>
-      <c r="H194" s="47"/>
-      <c r="I194" s="47"/>
+      <c r="H194" s="48"/>
+      <c r="I194" s="48"/>
     </row>
     <row r="195" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B195" s="38"/>
@@ -15207,7 +15353,7 @@
         <v>437</v>
       </c>
       <c r="C196" s="37" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D196" t="s">
         <v>325</v>
@@ -15218,21 +15364,21 @@
       <c r="G196" t="s">
         <v>325</v>
       </c>
-      <c r="H196" s="86" t="s">
-        <v>588</v>
-      </c>
-      <c r="I196" s="86"/>
+      <c r="H196" s="49" t="s">
+        <v>589</v>
+      </c>
+      <c r="I196" s="49"/>
     </row>
     <row r="197" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A197" t="s">
         <v>190</v>
       </c>
       <c r="B197" s="37" t="s">
+        <v>584</v>
+      </c>
+      <c r="C197" s="37" t="s">
         <v>583</v>
       </c>
-      <c r="C197" s="37" t="s">
-        <v>582</v>
-      </c>
       <c r="D197" t="s">
         <v>325</v>
       </c>
@@ -15242,18 +15388,18 @@
       <c r="G197" t="s">
         <v>325</v>
       </c>
-      <c r="H197" s="86"/>
-      <c r="I197" s="86"/>
+      <c r="H197" s="49"/>
+      <c r="I197" s="49"/>
     </row>
     <row r="198" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A198" t="s">
         <v>191</v>
       </c>
       <c r="B198" s="37" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C198" s="37" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D198" t="s">
         <v>325</v>
@@ -15264,19 +15410,19 @@
       <c r="G198" t="s">
         <v>325</v>
       </c>
-      <c r="H198" s="86"/>
-      <c r="I198" s="86"/>
+      <c r="H198" s="49"/>
+      <c r="I198" s="49"/>
     </row>
     <row r="199" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A199" t="s">
         <v>192</v>
       </c>
       <c r="B199" s="37" t="s">
+        <v>588</v>
+      </c>
+      <c r="C199" s="37" t="s">
         <v>587</v>
       </c>
-      <c r="C199" s="37" t="s">
-        <v>586</v>
-      </c>
       <c r="D199" t="s">
         <v>325</v>
       </c>
@@ -15286,8 +15432,8 @@
       <c r="G199" t="s">
         <v>325</v>
       </c>
-      <c r="H199" s="86"/>
-      <c r="I199" s="86"/>
+      <c r="H199" s="49"/>
+      <c r="I199" s="49"/>
     </row>
     <row r="200" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B200" s="38"/>
@@ -15298,11 +15444,11 @@
         <v>187</v>
       </c>
       <c r="B201" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="C201" s="37" t="s">
         <v>590</v>
       </c>
-      <c r="C201" s="37" t="s">
-        <v>589</v>
-      </c>
       <c r="D201" t="s">
         <v>325</v>
       </c>
@@ -15312,10 +15458,10 @@
       <c r="G201" t="s">
         <v>325</v>
       </c>
-      <c r="H201" s="57" t="s">
-        <v>597</v>
-      </c>
-      <c r="I201" s="57"/>
+      <c r="H201" s="50" t="s">
+        <v>598</v>
+      </c>
+      <c r="I201" s="50"/>
     </row>
     <row r="202" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A202" t="s">
@@ -15336,8 +15482,8 @@
       <c r="G202" t="s">
         <v>325</v>
       </c>
-      <c r="H202" s="57"/>
-      <c r="I202" s="57"/>
+      <c r="H202" s="50"/>
+      <c r="I202" s="50"/>
     </row>
     <row r="203" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A203" t="s">
@@ -15347,7 +15493,7 @@
         <v>385</v>
       </c>
       <c r="C203" s="37" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D203" t="s">
         <v>325</v>
@@ -15358,8 +15504,8 @@
       <c r="G203" t="s">
         <v>325</v>
       </c>
-      <c r="H203" s="57"/>
-      <c r="I203" s="57"/>
+      <c r="H203" s="50"/>
+      <c r="I203" s="50"/>
     </row>
     <row r="204" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A204" t="s">
@@ -15369,7 +15515,7 @@
         <v>387</v>
       </c>
       <c r="C204" s="37" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D204" t="s">
         <v>325</v>
@@ -15380,18 +15526,18 @@
       <c r="G204" t="s">
         <v>325</v>
       </c>
-      <c r="H204" s="57"/>
-      <c r="I204" s="57"/>
+      <c r="H204" s="50"/>
+      <c r="I204" s="50"/>
     </row>
     <row r="205" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A205" t="s">
         <v>156</v>
       </c>
       <c r="B205" s="37" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C205" s="37" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D205" t="s">
         <v>325</v>
@@ -15402,19 +15548,19 @@
       <c r="G205" t="s">
         <v>325</v>
       </c>
-      <c r="H205" s="57"/>
-      <c r="I205" s="57"/>
+      <c r="H205" s="50"/>
+      <c r="I205" s="50"/>
     </row>
     <row r="206" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A206" t="s">
         <v>157</v>
       </c>
       <c r="B206" s="37" t="s">
+        <v>597</v>
+      </c>
+      <c r="C206" s="37" t="s">
         <v>596</v>
       </c>
-      <c r="C206" s="37" t="s">
-        <v>595</v>
-      </c>
       <c r="D206" t="s">
         <v>325</v>
       </c>
@@ -15424,8 +15570,8 @@
       <c r="G206" t="s">
         <v>325</v>
       </c>
-      <c r="H206" s="57"/>
-      <c r="I206" s="57"/>
+      <c r="H206" s="50"/>
+      <c r="I206" s="50"/>
     </row>
     <row r="207" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B207" s="38"/>
@@ -15433,53 +15579,59 @@
     </row>
     <row r="208" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A208" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B208" s="37" t="s">
+        <v>612</v>
+      </c>
+      <c r="C208" s="37" t="s">
         <v>611</v>
       </c>
-      <c r="C208" s="37" t="s">
-        <v>610</v>
-      </c>
       <c r="D208" t="s">
         <v>325</v>
       </c>
       <c r="E208" t="s">
         <v>325</v>
       </c>
-      <c r="H208" s="50" t="s">
-        <v>620</v>
-      </c>
-      <c r="I208" s="50"/>
+      <c r="G208" t="s">
+        <v>325</v>
+      </c>
+      <c r="H208" s="51" t="s">
+        <v>621</v>
+      </c>
+      <c r="I208" s="51"/>
     </row>
     <row r="209" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A209" t="s">
         <v>3</v>
       </c>
       <c r="B209" s="37" t="s">
+        <v>614</v>
+      </c>
+      <c r="C209" s="37" t="s">
         <v>613</v>
       </c>
-      <c r="C209" s="37" t="s">
-        <v>612</v>
-      </c>
       <c r="D209" t="s">
         <v>325</v>
       </c>
       <c r="E209" t="s">
         <v>325</v>
       </c>
-      <c r="H209" s="50"/>
-      <c r="I209" s="50"/>
+      <c r="G209" t="s">
+        <v>325</v>
+      </c>
+      <c r="H209" s="51"/>
+      <c r="I209" s="51"/>
     </row>
     <row r="210" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A210" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B210" s="37" t="s">
         <v>414</v>
       </c>
       <c r="C210" s="37" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D210" t="s">
         <v>325</v>
@@ -15487,18 +15639,21 @@
       <c r="E210" t="s">
         <v>325</v>
       </c>
-      <c r="H210" s="50"/>
-      <c r="I210" s="50"/>
+      <c r="G210" t="s">
+        <v>325</v>
+      </c>
+      <c r="H210" s="51"/>
+      <c r="I210" s="51"/>
     </row>
     <row r="211" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A211" t="s">
         <v>79</v>
       </c>
       <c r="B211" s="37" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C211" s="37" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D211" t="s">
         <v>325</v>
@@ -15506,27 +15661,33 @@
       <c r="E211" t="s">
         <v>325</v>
       </c>
-      <c r="H211" s="50"/>
-      <c r="I211" s="50"/>
+      <c r="G211" t="s">
+        <v>325</v>
+      </c>
+      <c r="H211" s="51"/>
+      <c r="I211" s="51"/>
     </row>
     <row r="212" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A212" t="s">
         <v>4</v>
       </c>
       <c r="B212" s="37" t="s">
+        <v>620</v>
+      </c>
+      <c r="C212" s="37" t="s">
         <v>619</v>
       </c>
-      <c r="C212" s="37" t="s">
-        <v>618</v>
-      </c>
       <c r="D212" t="s">
         <v>325</v>
       </c>
       <c r="E212" t="s">
         <v>325</v>
       </c>
-      <c r="H212" s="50"/>
-      <c r="I212" s="50"/>
+      <c r="G212" t="s">
+        <v>325</v>
+      </c>
+      <c r="H212" s="51"/>
+      <c r="I212" s="51"/>
     </row>
     <row r="213" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B213" s="38"/>
@@ -15548,29 +15709,35 @@
       <c r="E214" t="s">
         <v>325</v>
       </c>
-      <c r="H214" s="58" t="s">
-        <v>637</v>
-      </c>
-      <c r="I214" s="58"/>
+      <c r="G214" t="s">
+        <v>325</v>
+      </c>
+      <c r="H214" s="52" t="s">
+        <v>638</v>
+      </c>
+      <c r="I214" s="52"/>
     </row>
     <row r="215" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A215" t="s">
         <v>21</v>
       </c>
       <c r="B215" s="37" t="s">
+        <v>623</v>
+      </c>
+      <c r="C215" s="37" t="s">
         <v>622</v>
       </c>
-      <c r="C215" s="37" t="s">
-        <v>621</v>
-      </c>
       <c r="D215" t="s">
         <v>325</v>
       </c>
       <c r="E215" t="s">
         <v>325</v>
       </c>
-      <c r="H215" s="58"/>
-      <c r="I215" s="58"/>
+      <c r="G215" t="s">
+        <v>325</v>
+      </c>
+      <c r="H215" s="52"/>
+      <c r="I215" s="52"/>
     </row>
     <row r="216" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A216" t="s">
@@ -15580,7 +15747,7 @@
         <v>371</v>
       </c>
       <c r="C216" s="37" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D216" t="s">
         <v>325</v>
@@ -15588,15 +15755,18 @@
       <c r="E216" t="s">
         <v>325</v>
       </c>
-      <c r="H216" s="58"/>
-      <c r="I216" s="58"/>
+      <c r="G216" t="s">
+        <v>325</v>
+      </c>
+      <c r="H216" s="52"/>
+      <c r="I216" s="52"/>
     </row>
     <row r="217" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A217" t="s">
         <v>119</v>
       </c>
       <c r="B217" s="37" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C217" s="37" t="s">
         <v>350</v>
@@ -15607,18 +15777,21 @@
       <c r="E217" t="s">
         <v>325</v>
       </c>
-      <c r="H217" s="58"/>
-      <c r="I217" s="58"/>
+      <c r="G217" t="s">
+        <v>325</v>
+      </c>
+      <c r="H217" s="52"/>
+      <c r="I217" s="52"/>
     </row>
     <row r="218" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A218" t="s">
         <v>29</v>
       </c>
       <c r="B218" s="37" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C218" s="37" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D218" t="s">
         <v>325</v>
@@ -15626,169 +15799,356 @@
       <c r="E218" t="s">
         <v>325</v>
       </c>
-      <c r="H218" s="58"/>
-      <c r="I218" s="58"/>
+      <c r="G218" t="s">
+        <v>325</v>
+      </c>
+      <c r="H218" s="52"/>
+      <c r="I218" s="52"/>
     </row>
     <row r="219" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A219" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B219" s="37" t="s">
+        <v>629</v>
+      </c>
+      <c r="C219" s="37" t="s">
         <v>628</v>
       </c>
-      <c r="C219" s="37" t="s">
-        <v>627</v>
-      </c>
       <c r="D219" t="s">
         <v>325</v>
       </c>
       <c r="E219" t="s">
         <v>325</v>
       </c>
-      <c r="H219" s="58"/>
-      <c r="I219" s="58"/>
+      <c r="G219" t="s">
+        <v>325</v>
+      </c>
+      <c r="H219" s="52"/>
+      <c r="I219" s="52"/>
     </row>
     <row r="220" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A220" t="s">
         <v>37</v>
       </c>
       <c r="B220" s="37" t="s">
+        <v>631</v>
+      </c>
+      <c r="C220" s="37" t="s">
         <v>630</v>
       </c>
-      <c r="C220" s="37" t="s">
-        <v>629</v>
-      </c>
       <c r="D220" t="s">
         <v>325</v>
       </c>
       <c r="E220" t="s">
         <v>325</v>
       </c>
-      <c r="H220" s="58"/>
-      <c r="I220" s="58"/>
+      <c r="G220" t="s">
+        <v>325</v>
+      </c>
+      <c r="H220" s="52"/>
+      <c r="I220" s="52"/>
     </row>
     <row r="221" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A221" t="s">
         <v>85</v>
       </c>
       <c r="B221" s="37" t="s">
+        <v>633</v>
+      </c>
+      <c r="C221" s="37" t="s">
         <v>632</v>
       </c>
-      <c r="C221" s="37" t="s">
-        <v>631</v>
-      </c>
       <c r="D221" t="s">
         <v>325</v>
       </c>
       <c r="E221" t="s">
         <v>325</v>
       </c>
-      <c r="H221" s="58"/>
-      <c r="I221" s="58"/>
+      <c r="G221" t="s">
+        <v>325</v>
+      </c>
+      <c r="H221" s="52"/>
+      <c r="I221" s="52"/>
     </row>
     <row r="222" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A222" t="s">
         <v>44</v>
       </c>
       <c r="B222" s="37" t="s">
+        <v>635</v>
+      </c>
+      <c r="C222" s="37" t="s">
         <v>634</v>
       </c>
-      <c r="C222" s="37" t="s">
-        <v>633</v>
-      </c>
       <c r="D222" t="s">
         <v>325</v>
       </c>
       <c r="E222" t="s">
         <v>325</v>
       </c>
-      <c r="H222" s="58"/>
-      <c r="I222" s="58"/>
+      <c r="G222" t="s">
+        <v>325</v>
+      </c>
+      <c r="H222" s="52"/>
+      <c r="I222" s="52"/>
     </row>
     <row r="223" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A223" t="s">
         <v>186</v>
       </c>
       <c r="B223" s="37" t="s">
+        <v>637</v>
+      </c>
+      <c r="C223" s="37" t="s">
         <v>636</v>
       </c>
-      <c r="C223" s="37" t="s">
-        <v>635</v>
-      </c>
       <c r="D223" t="s">
         <v>325</v>
       </c>
       <c r="E223" t="s">
         <v>325</v>
       </c>
-      <c r="H223" s="58"/>
-      <c r="I223" s="58"/>
+      <c r="G223" t="s">
+        <v>325</v>
+      </c>
+      <c r="H223" s="52"/>
+      <c r="I223" s="52"/>
     </row>
     <row r="224" spans="1:9" s="24" customFormat="1" ht="15" thickTop="1">
       <c r="B224" s="38"/>
       <c r="C224" s="38"/>
     </row>
-    <row r="225" spans="2:3">
-      <c r="B225" s="37"/>
-      <c r="C225" s="37"/>
-    </row>
-    <row r="226" spans="2:3">
-      <c r="B226" s="37"/>
-      <c r="C226" s="37"/>
-    </row>
-    <row r="227" spans="2:3">
-      <c r="B227" s="37"/>
-      <c r="C227" s="37"/>
-    </row>
-    <row r="228" spans="2:3">
-      <c r="B228" s="37"/>
-      <c r="C228" s="37"/>
-    </row>
-    <row r="229" spans="2:3">
-      <c r="B229" s="37"/>
-      <c r="C229" s="37"/>
-    </row>
-    <row r="230" spans="2:3">
-      <c r="B230" s="37"/>
-      <c r="C230" s="37"/>
-    </row>
-    <row r="231" spans="2:3">
-      <c r="B231" s="37"/>
-      <c r="C231" s="37"/>
-    </row>
-    <row r="232" spans="2:3">
-      <c r="B232" s="37"/>
-      <c r="C232" s="37"/>
-    </row>
-    <row r="233" spans="2:3">
-      <c r="B233" s="37"/>
-      <c r="C233" s="37"/>
-    </row>
-    <row r="234" spans="2:3">
-      <c r="B234" s="37"/>
-      <c r="C234" s="37"/>
-    </row>
-    <row r="235" spans="2:3">
-      <c r="B235" s="37"/>
-      <c r="C235" s="37"/>
-    </row>
-    <row r="236" spans="2:3">
-      <c r="B236" s="37"/>
-      <c r="C236" s="37"/>
-    </row>
-    <row r="237" spans="2:3">
-      <c r="B237" s="37"/>
-      <c r="C237" s="37"/>
-    </row>
-    <row r="238" spans="2:3">
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>202</v>
+      </c>
+      <c r="B225" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="C225" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="D225" t="s">
+        <v>325</v>
+      </c>
+      <c r="E225" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>203</v>
+      </c>
+      <c r="B226" s="37" t="s">
+        <v>639</v>
+      </c>
+      <c r="C226" s="37" t="s">
+        <v>411</v>
+      </c>
+      <c r="D226" t="s">
+        <v>325</v>
+      </c>
+      <c r="E226" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>129</v>
+      </c>
+      <c r="B227" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="C227" s="37" t="s">
+        <v>575</v>
+      </c>
+      <c r="D227" t="s">
+        <v>325</v>
+      </c>
+      <c r="E227" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>123</v>
+      </c>
+      <c r="B228" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="C228" s="37" t="s">
+        <v>640</v>
+      </c>
+      <c r="D228" t="s">
+        <v>325</v>
+      </c>
+      <c r="E228" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>207</v>
+      </c>
+      <c r="B229" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="C229" s="37" t="s">
+        <v>641</v>
+      </c>
+      <c r="D229" t="s">
+        <v>325</v>
+      </c>
+      <c r="E229" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>204</v>
+      </c>
+      <c r="B230" s="37" t="s">
+        <v>643</v>
+      </c>
+      <c r="C230" s="37" t="s">
+        <v>642</v>
+      </c>
+      <c r="D230" t="s">
+        <v>325</v>
+      </c>
+      <c r="E230" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>205</v>
+      </c>
+      <c r="B231" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="C231" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="D231" t="s">
+        <v>325</v>
+      </c>
+      <c r="E231" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>152</v>
+      </c>
+      <c r="B232" s="37" t="s">
+        <v>645</v>
+      </c>
+      <c r="C232" s="37" t="s">
+        <v>644</v>
+      </c>
+      <c r="D232" t="s">
+        <v>325</v>
+      </c>
+      <c r="E232" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>121</v>
+      </c>
+      <c r="B233" s="37" t="s">
+        <v>647</v>
+      </c>
+      <c r="C233" s="37" t="s">
+        <v>646</v>
+      </c>
+      <c r="D233" t="s">
+        <v>325</v>
+      </c>
+      <c r="E233" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>208</v>
+      </c>
+      <c r="B234" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="C234" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="D234" t="s">
+        <v>325</v>
+      </c>
+      <c r="E234" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>122</v>
+      </c>
+      <c r="B235" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="C235" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="D235" t="s">
+        <v>325</v>
+      </c>
+      <c r="E235" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>206</v>
+      </c>
+      <c r="B236" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="C236" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="D236" t="s">
+        <v>325</v>
+      </c>
+      <c r="E236" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>128</v>
+      </c>
+      <c r="B237" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="C237" s="37" t="s">
+        <v>648</v>
+      </c>
+      <c r="D237" t="s">
+        <v>325</v>
+      </c>
+      <c r="E237" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
       <c r="B238" s="37"/>
       <c r="C238" s="37"/>
     </row>
-    <row r="239" spans="2:3">
+    <row r="239" spans="1:5">
       <c r="B239" s="37"/>
       <c r="C239" s="37"/>
     </row>
-    <row r="240" spans="2:3">
+    <row r="240" spans="1:5">
       <c r="B240" s="37"/>
       <c r="C240" s="37"/>
     </row>
@@ -16885,11 +17245,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="H188:I194"/>
-    <mergeCell ref="H196:I199"/>
-    <mergeCell ref="H201:I206"/>
-    <mergeCell ref="H208:I212"/>
-    <mergeCell ref="H214:I223"/>
+    <mergeCell ref="H149:I158"/>
+    <mergeCell ref="H160:I166"/>
+    <mergeCell ref="H168:I170"/>
+    <mergeCell ref="H172:I179"/>
+    <mergeCell ref="H181:I186"/>
     <mergeCell ref="H3:I13"/>
     <mergeCell ref="H15:I23"/>
     <mergeCell ref="H25:I31"/>
@@ -16905,11 +17265,11 @@
     <mergeCell ref="H97:I102"/>
     <mergeCell ref="H104:I108"/>
     <mergeCell ref="H110:I119"/>
-    <mergeCell ref="H149:I158"/>
-    <mergeCell ref="H160:I166"/>
-    <mergeCell ref="H168:I170"/>
-    <mergeCell ref="H172:I179"/>
-    <mergeCell ref="H181:I186"/>
+    <mergeCell ref="H188:I194"/>
+    <mergeCell ref="H196:I199"/>
+    <mergeCell ref="H201:I206"/>
+    <mergeCell ref="H208:I212"/>
+    <mergeCell ref="H214:I223"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17262,42 +17622,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F1" t="s">
         <v>603</v>
-      </c>
-      <c r="F1" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>

--- a/new_universe.xlsx
+++ b/new_universe.xlsx
@@ -24,7 +24,348 @@
     <author>IVAN VUK</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0">
+    <comment ref="W2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+E</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+S
+E</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+E</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+E</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+S</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+E</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+old map Avarice
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+S
+E</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+E</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+E</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+E</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+E</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+Entry to solar system</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,33 +392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0">
+    <comment ref="H5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,349 +415,6 @@
           </rPr>
           <t xml:space="preserve">
 S</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-S
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-Entry to solar system EAST and SOUTH
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-Entry to solar system</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-old map Avarice
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-S
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-Entry to solar system
-</t>
         </r>
       </text>
     </comment>
@@ -712,59 +684,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-S
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-S</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="J6" authorId="0">
       <text>
         <r>
@@ -945,7 +864,35 @@
             <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
-Install pirate base here!</t>
+Entry to solar system
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+Entry to solar system EAST and SOUTH
+</t>
         </r>
       </text>
     </comment>
@@ -2657,6 +2604,33 @@
           </rPr>
           <t xml:space="preserve">
 E
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>IVAN VUK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+S
 </t>
         </r>
       </text>
@@ -7984,9 +7958,6 @@
     <t>Zyarth's Dominion Cluster</t>
   </si>
   <si>
-    <t>Rhea</t>
-  </si>
-  <si>
     <t>11,16</t>
   </si>
   <si>
@@ -8228,6 +8199,9 @@
   </si>
   <si>
     <t>4,13</t>
+  </si>
+  <si>
+    <t>Queen's Harbour Cluster</t>
   </si>
 </sst>
 </file>
@@ -8575,7 +8549,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8828,6 +8802,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="2" xfId="5" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9145,7 +9122,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" thickTop="1" thickBottom="1"/>
@@ -9237,11 +9214,11 @@
       <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>218</v>
+      <c r="B2" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>267</v>
       </c>
       <c r="R2" s="21" t="s">
         <v>293</v>
@@ -9249,10 +9226,10 @@
       <c r="S2" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="25" t="s">
         <v>239</v>
       </c>
     </row>
@@ -9260,11 +9237,11 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>214</v>
+      <c r="B3" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>266</v>
       </c>
       <c r="R3" s="33" t="s">
         <v>142</v>
@@ -9272,10 +9249,10 @@
       <c r="S3" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="W3" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="88" t="s">
         <v>241</v>
       </c>
     </row>
@@ -9283,29 +9260,26 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>215</v>
+      <c r="B4" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>269</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>231</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="M4" s="33" t="s">
         <v>134</v>
@@ -9328,13 +9302,13 @@
       <c r="T4" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="U4" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="W4" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X4" s="28" t="s">
         <v>242</v>
       </c>
     </row>
@@ -9342,8 +9316,8 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>252</v>
+      <c r="B5" s="23" t="s">
+        <v>316</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>14</v>
@@ -9352,16 +9326,16 @@
         <v>175</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>166</v>
@@ -9393,13 +9367,13 @@
       <c r="T5" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="U5" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="W5" s="8" t="s">
+      <c r="W5" s="25" t="s">
         <v>244</v>
       </c>
     </row>
@@ -9414,16 +9388,16 @@
         <v>71</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="I6" s="28" t="s">
         <v>165</v>
@@ -9464,10 +9438,10 @@
       <c r="U6" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="V6" s="5" t="s">
+      <c r="V6" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="W6" s="10" t="s">
+      <c r="W6" s="39" t="s">
         <v>245</v>
       </c>
     </row>
@@ -9485,10 +9459,10 @@
         <v>75</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>567</v>
+        <v>252</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="H7" s="30" t="s">
         <v>26</v>
@@ -9534,9 +9508,6 @@
       <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>483</v>
-      </c>
       <c r="D8" s="26" t="s">
         <v>114</v>
       </c>
@@ -9590,9 +9561,6 @@
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>316</v>
-      </c>
       <c r="D9" s="26" t="s">
         <v>115</v>
       </c>
@@ -10052,6 +10020,9 @@
       <c r="P16" s="23" t="s">
         <v>318</v>
       </c>
+      <c r="Q16" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="R16" s="25" t="s">
         <v>103</v>
       </c>
@@ -10213,11 +10184,11 @@
       <c r="O19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="P19" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q19" s="18" t="s">
-        <v>267</v>
+      <c r="P19" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="R19" s="39" t="s">
         <v>28</v>
@@ -10263,11 +10234,11 @@
       <c r="O20" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="P20" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q20" s="18" t="s">
-        <v>266</v>
+      <c r="P20" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="R20" s="39" t="s">
         <v>36</v>
@@ -10301,8 +10272,11 @@
       <c r="O21" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="Q21" s="18" t="s">
-        <v>269</v>
+      <c r="P21" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="R21" s="39" t="s">
         <v>43</v>
@@ -10321,7 +10295,7 @@
       </c>
       <c r="C23" s="6">
         <f>COUNTA(B2:Y21)</f>
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="42" customHeight="1" thickTop="1" thickBot="1">
@@ -10330,7 +10304,7 @@
       </c>
       <c r="C24" s="6">
         <f>COUNTBLANK(B2:Y21)</f>
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" ht="42" customHeight="1"/>
@@ -11384,8 +11358,8 @@
   <dimension ref="A1:I513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E239" sqref="E239"/>
+      <pane ySplit="2" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A238" sqref="A238:XFD238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15187,13 +15161,13 @@
     </row>
     <row r="188" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A188" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B188" s="37" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C188" s="37" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D188" t="s">
         <v>325</v>
@@ -15205,7 +15179,7 @@
         <v>325</v>
       </c>
       <c r="H188" s="48" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I188" s="48"/>
     </row>
@@ -15214,10 +15188,10 @@
         <v>67</v>
       </c>
       <c r="B189" s="37" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C189" s="37" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D189" t="s">
         <v>325</v>
@@ -15236,7 +15210,7 @@
         <v>173</v>
       </c>
       <c r="B190" s="37" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C190" s="37" t="s">
         <v>451</v>
@@ -15258,10 +15232,10 @@
         <v>68</v>
       </c>
       <c r="B191" s="37" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C191" s="37" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D191" t="s">
         <v>325</v>
@@ -15280,10 +15254,10 @@
         <v>172</v>
       </c>
       <c r="B192" s="37" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C192" s="37" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D192" t="s">
         <v>325</v>
@@ -15302,10 +15276,10 @@
         <v>171</v>
       </c>
       <c r="B193" s="37" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C193" s="37" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D193" t="s">
         <v>325</v>
@@ -15327,7 +15301,7 @@
         <v>410</v>
       </c>
       <c r="C194" s="37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D194" t="s">
         <v>325</v>
@@ -15353,7 +15327,7 @@
         <v>437</v>
       </c>
       <c r="C196" s="37" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D196" t="s">
         <v>325</v>
@@ -15365,7 +15339,7 @@
         <v>325</v>
       </c>
       <c r="H196" s="49" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I196" s="49"/>
     </row>
@@ -15374,10 +15348,10 @@
         <v>190</v>
       </c>
       <c r="B197" s="37" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C197" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D197" t="s">
         <v>325</v>
@@ -15396,10 +15370,10 @@
         <v>191</v>
       </c>
       <c r="B198" s="37" t="s">
+        <v>584</v>
+      </c>
+      <c r="C198" s="37" t="s">
         <v>585</v>
-      </c>
-      <c r="C198" s="37" t="s">
-        <v>586</v>
       </c>
       <c r="D198" t="s">
         <v>325</v>
@@ -15418,10 +15392,10 @@
         <v>192</v>
       </c>
       <c r="B199" s="37" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C199" s="37" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D199" t="s">
         <v>325</v>
@@ -15444,10 +15418,10 @@
         <v>187</v>
       </c>
       <c r="B201" s="37" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C201" s="37" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D201" t="s">
         <v>325</v>
@@ -15459,7 +15433,7 @@
         <v>325</v>
       </c>
       <c r="H201" s="50" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I201" s="50"/>
     </row>
@@ -15493,7 +15467,7 @@
         <v>385</v>
       </c>
       <c r="C203" s="37" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D203" t="s">
         <v>325</v>
@@ -15515,7 +15489,7 @@
         <v>387</v>
       </c>
       <c r="C204" s="37" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D204" t="s">
         <v>325</v>
@@ -15534,10 +15508,10 @@
         <v>156</v>
       </c>
       <c r="B205" s="37" t="s">
+        <v>593</v>
+      </c>
+      <c r="C205" s="37" t="s">
         <v>594</v>
-      </c>
-      <c r="C205" s="37" t="s">
-        <v>595</v>
       </c>
       <c r="D205" t="s">
         <v>325</v>
@@ -15556,10 +15530,10 @@
         <v>157</v>
       </c>
       <c r="B206" s="37" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C206" s="37" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D206" t="s">
         <v>325</v>
@@ -15579,14 +15553,14 @@
     </row>
     <row r="208" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A208" t="s">
+        <v>609</v>
+      </c>
+      <c r="B208" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="C208" s="37" t="s">
         <v>610</v>
       </c>
-      <c r="B208" s="37" t="s">
-        <v>612</v>
-      </c>
-      <c r="C208" s="37" t="s">
-        <v>611</v>
-      </c>
       <c r="D208" t="s">
         <v>325</v>
       </c>
@@ -15597,7 +15571,7 @@
         <v>325</v>
       </c>
       <c r="H208" s="51" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I208" s="51"/>
     </row>
@@ -15606,10 +15580,10 @@
         <v>3</v>
       </c>
       <c r="B209" s="37" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C209" s="37" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D209" t="s">
         <v>325</v>
@@ -15625,13 +15599,13 @@
     </row>
     <row r="210" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A210" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B210" s="37" t="s">
         <v>414</v>
       </c>
       <c r="C210" s="37" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D210" t="s">
         <v>325</v>
@@ -15650,10 +15624,10 @@
         <v>79</v>
       </c>
       <c r="B211" s="37" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C211" s="37" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D211" t="s">
         <v>325</v>
@@ -15672,10 +15646,10 @@
         <v>4</v>
       </c>
       <c r="B212" s="37" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C212" s="37" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D212" t="s">
         <v>325</v>
@@ -15713,7 +15687,7 @@
         <v>325</v>
       </c>
       <c r="H214" s="52" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I214" s="52"/>
     </row>
@@ -15722,10 +15696,10 @@
         <v>21</v>
       </c>
       <c r="B215" s="37" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C215" s="37" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D215" t="s">
         <v>325</v>
@@ -15747,7 +15721,7 @@
         <v>371</v>
       </c>
       <c r="C216" s="37" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D216" t="s">
         <v>325</v>
@@ -15766,7 +15740,7 @@
         <v>119</v>
       </c>
       <c r="B217" s="37" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C217" s="37" t="s">
         <v>350</v>
@@ -15788,10 +15762,10 @@
         <v>29</v>
       </c>
       <c r="B218" s="37" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C218" s="37" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D218" t="s">
         <v>325</v>
@@ -15807,13 +15781,13 @@
     </row>
     <row r="219" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A219" t="s">
+        <v>626</v>
+      </c>
+      <c r="B219" s="37" t="s">
+        <v>628</v>
+      </c>
+      <c r="C219" s="37" t="s">
         <v>627</v>
-      </c>
-      <c r="B219" s="37" t="s">
-        <v>629</v>
-      </c>
-      <c r="C219" s="37" t="s">
-        <v>628</v>
       </c>
       <c r="D219" t="s">
         <v>325</v>
@@ -15832,10 +15806,10 @@
         <v>37</v>
       </c>
       <c r="B220" s="37" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C220" s="37" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D220" t="s">
         <v>325</v>
@@ -15854,10 +15828,10 @@
         <v>85</v>
       </c>
       <c r="B221" s="37" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C221" s="37" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D221" t="s">
         <v>325</v>
@@ -15876,10 +15850,10 @@
         <v>44</v>
       </c>
       <c r="B222" s="37" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C222" s="37" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D222" t="s">
         <v>325</v>
@@ -15898,10 +15872,10 @@
         <v>186</v>
       </c>
       <c r="B223" s="37" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C223" s="37" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D223" t="s">
         <v>325</v>
@@ -15915,11 +15889,11 @@
       <c r="H223" s="52"/>
       <c r="I223" s="52"/>
     </row>
-    <row r="224" spans="1:9" s="24" customFormat="1" ht="15" thickTop="1">
+    <row r="224" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B224" s="38"/>
       <c r="C224" s="38"/>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A225" t="s">
         <v>202</v>
       </c>
@@ -15935,13 +15909,17 @@
       <c r="E225" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="226" spans="1:5">
+      <c r="H225" s="51" t="s">
+        <v>648</v>
+      </c>
+      <c r="I225" s="51"/>
+    </row>
+    <row r="226" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A226" t="s">
         <v>203</v>
       </c>
       <c r="B226" s="37" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C226" s="37" t="s">
         <v>411</v>
@@ -15952,8 +15930,10 @@
       <c r="E226" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="227" spans="1:5">
+      <c r="H226" s="51"/>
+      <c r="I226" s="51"/>
+    </row>
+    <row r="227" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A227" t="s">
         <v>129</v>
       </c>
@@ -15961,7 +15941,7 @@
         <v>367</v>
       </c>
       <c r="C227" s="37" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D227" t="s">
         <v>325</v>
@@ -15969,8 +15949,10 @@
       <c r="E227" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="228" spans="1:5">
+      <c r="H227" s="51"/>
+      <c r="I227" s="51"/>
+    </row>
+    <row r="228" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A228" t="s">
         <v>123</v>
       </c>
@@ -15978,7 +15960,7 @@
         <v>345</v>
       </c>
       <c r="C228" s="37" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D228" t="s">
         <v>325</v>
@@ -15986,8 +15968,10 @@
       <c r="E228" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="229" spans="1:5">
+      <c r="H228" s="51"/>
+      <c r="I228" s="51"/>
+    </row>
+    <row r="229" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A229" t="s">
         <v>207</v>
       </c>
@@ -15995,7 +15979,7 @@
         <v>493</v>
       </c>
       <c r="C229" s="37" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D229" t="s">
         <v>325</v>
@@ -16003,16 +15987,18 @@
       <c r="E229" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="230" spans="1:5">
+      <c r="H229" s="51"/>
+      <c r="I229" s="51"/>
+    </row>
+    <row r="230" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A230" t="s">
         <v>204</v>
       </c>
       <c r="B230" s="37" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C230" s="37" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D230" t="s">
         <v>325</v>
@@ -16020,8 +16006,10 @@
       <c r="E230" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="231" spans="1:5">
+      <c r="H230" s="51"/>
+      <c r="I230" s="51"/>
+    </row>
+    <row r="231" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A231" t="s">
         <v>205</v>
       </c>
@@ -16037,16 +16025,18 @@
       <c r="E231" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="232" spans="1:5">
+      <c r="H231" s="51"/>
+      <c r="I231" s="51"/>
+    </row>
+    <row r="232" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A232" t="s">
         <v>152</v>
       </c>
       <c r="B232" s="37" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C232" s="37" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D232" t="s">
         <v>325</v>
@@ -16054,16 +16044,18 @@
       <c r="E232" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="233" spans="1:5">
+      <c r="H232" s="51"/>
+      <c r="I232" s="51"/>
+    </row>
+    <row r="233" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A233" t="s">
         <v>121</v>
       </c>
       <c r="B233" s="37" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C233" s="37" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D233" t="s">
         <v>325</v>
@@ -16071,8 +16063,10 @@
       <c r="E233" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="234" spans="1:5">
+      <c r="H233" s="51"/>
+      <c r="I233" s="51"/>
+    </row>
+    <row r="234" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A234" t="s">
         <v>208</v>
       </c>
@@ -16088,8 +16082,10 @@
       <c r="E234" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="235" spans="1:5">
+      <c r="H234" s="51"/>
+      <c r="I234" s="51"/>
+    </row>
+    <row r="235" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A235" t="s">
         <v>122</v>
       </c>
@@ -16105,8 +16101,10 @@
       <c r="E235" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="236" spans="1:5">
+      <c r="H235" s="51"/>
+      <c r="I235" s="51"/>
+    </row>
+    <row r="236" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A236" t="s">
         <v>206</v>
       </c>
@@ -16122,8 +16120,10 @@
       <c r="E236" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="237" spans="1:5">
+      <c r="H236" s="51"/>
+      <c r="I236" s="51"/>
+    </row>
+    <row r="237" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A237" t="s">
         <v>128</v>
       </c>
@@ -16131,7 +16131,7 @@
         <v>369</v>
       </c>
       <c r="C237" s="37" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D237" t="s">
         <v>325</v>
@@ -16139,16 +16139,18 @@
       <c r="E237" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="238" spans="1:5">
-      <c r="B238" s="37"/>
-      <c r="C238" s="37"/>
-    </row>
-    <row r="239" spans="1:5">
+      <c r="H237" s="51"/>
+      <c r="I237" s="51"/>
+    </row>
+    <row r="238" spans="1:9" s="24" customFormat="1" ht="15" thickTop="1">
+      <c r="B238" s="38"/>
+      <c r="C238" s="38"/>
+    </row>
+    <row r="239" spans="1:9">
       <c r="B239" s="37"/>
       <c r="C239" s="37"/>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:9">
       <c r="B240" s="37"/>
       <c r="C240" s="37"/>
     </row>
@@ -17244,7 +17246,8 @@
       <c r="C513" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="H225:I237"/>
     <mergeCell ref="H149:I158"/>
     <mergeCell ref="H160:I166"/>
     <mergeCell ref="H168:I170"/>
@@ -17284,8 +17287,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" thickTop="1" thickBottom="1"/>
@@ -17622,42 +17625,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B1" t="s">
         <v>599</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>600</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>601</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F1" t="s">
         <v>602</v>
-      </c>
-      <c r="E1" t="s">
-        <v>604</v>
-      </c>
-      <c r="F1" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C2" t="s">
         <v>605</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>606</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>607</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>608</v>
-      </c>
-      <c r="F2" t="s">
-        <v>609</v>
       </c>
     </row>
   </sheetData>

--- a/new_universe.xlsx
+++ b/new_universe.xlsx
@@ -10,9 +10,8 @@
     <sheet name="new" sheetId="8" r:id="rId1"/>
     <sheet name="BACKUP_OLD" sheetId="5" r:id="rId2"/>
     <sheet name="log" sheetId="3" r:id="rId3"/>
-    <sheet name="old" sheetId="7" r:id="rId4"/>
-    <sheet name="starts" sheetId="10" r:id="rId5"/>
-    <sheet name="dsa" sheetId="9" r:id="rId6"/>
+    <sheet name="starts" sheetId="10" r:id="rId4"/>
+    <sheet name="dsa" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -5932,305 +5931,8 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>IVAN VUK</author>
-  </authors>
-  <commentList>
-    <comment ref="W2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>IVAN VUK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-E
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="698">
   <si>
     <t>y\x</t>
   </si>
@@ -7190,9 +6892,6 @@
   </si>
   <si>
     <t>Starkiller's Clan</t>
-  </si>
-  <si>
-    <t>Minefield</t>
   </si>
   <si>
     <t xml:space="preserve">Unknown Sector </t>
@@ -8202,6 +7901,156 @@
   </si>
   <si>
     <t>Queen's Harbour Cluster</t>
+  </si>
+  <si>
+    <t>8,1</t>
+  </si>
+  <si>
+    <t>9,1</t>
+  </si>
+  <si>
+    <t>10,1</t>
+  </si>
+  <si>
+    <t>11,1</t>
+  </si>
+  <si>
+    <t>11,2</t>
+  </si>
+  <si>
+    <t>3,3</t>
+  </si>
+  <si>
+    <t>7,1</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>8,0</t>
+  </si>
+  <si>
+    <t>4,3</t>
+  </si>
+  <si>
+    <t>13,2</t>
+  </si>
+  <si>
+    <t>13,3</t>
+  </si>
+  <si>
+    <t>12,3</t>
+  </si>
+  <si>
+    <t>4,4</t>
+  </si>
+  <si>
+    <t>12,1</t>
+  </si>
+  <si>
+    <t>12,2</t>
+  </si>
+  <si>
+    <t>11,3</t>
+  </si>
+  <si>
+    <t>7,4</t>
+  </si>
+  <si>
+    <t>8,4</t>
+  </si>
+  <si>
+    <t>1,10</t>
+  </si>
+  <si>
+    <t>2,10</t>
+  </si>
+  <si>
+    <t>7,5</t>
+  </si>
+  <si>
+    <t>8,5</t>
+  </si>
+  <si>
+    <t>10,0</t>
+  </si>
+  <si>
+    <t>Solar System</t>
+  </si>
+  <si>
+    <t>Terran Cluster Alpha</t>
+  </si>
+  <si>
+    <t>Terran Cluster Beta</t>
+  </si>
+  <si>
+    <t>14,17</t>
+  </si>
+  <si>
+    <t>15,17</t>
+  </si>
+  <si>
+    <t>14,18</t>
+  </si>
+  <si>
+    <t>15,18</t>
+  </si>
+  <si>
+    <t>14,19</t>
+  </si>
+  <si>
+    <t>15,19</t>
+  </si>
+  <si>
+    <t>15,1</t>
+  </si>
+  <si>
+    <t>15,2</t>
+  </si>
+  <si>
+    <t>11,0</t>
+  </si>
+  <si>
+    <t>10,2</t>
+  </si>
+  <si>
+    <t>Terran Cluster Delta</t>
+  </si>
+  <si>
+    <t>Terran D (Purple Nebula)</t>
+  </si>
+  <si>
+    <t>Terran C (The Twins)</t>
+  </si>
+  <si>
+    <t>Terran B (Evaporated Skies)</t>
+  </si>
+  <si>
+    <t>Terran A (Flaming Dawn)</t>
+  </si>
+  <si>
+    <t>Uranus 2 (Dual Eclipse)</t>
+  </si>
+  <si>
+    <t>Jupiter 3 (Accretion disc)</t>
+  </si>
+  <si>
+    <t>Saturn 3 (City in Space)</t>
+  </si>
+  <si>
+    <t>Saturn 2 (Three Moons)</t>
+  </si>
+  <si>
+    <t>Jupiter 2 (Thor's Might)</t>
+  </si>
+  <si>
+    <t>Titan (Tyrianis Prime)</t>
+  </si>
+  <si>
+    <t>Uranus 3 (Aliance Edge)</t>
+  </si>
+  <si>
+    <t>Starkiller's Hideout</t>
   </si>
 </sst>
 </file>
@@ -8303,7 +8152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8382,8 +8231,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -8501,6 +8356,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
@@ -8549,7 +8415,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8684,16 +8550,63 @@
     <xf numFmtId="49" fontId="8" fillId="10" borderId="2" xfId="12" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="2" xfId="5" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="3">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="2" xfId="6">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="4">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="7">
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="2" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="2" xfId="12">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="1">
@@ -8780,31 +8693,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="12" borderId="2" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="2" xfId="12">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="2" xfId="5" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="7">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9119,10 +9008,10 @@
   <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" thickTop="1" thickBottom="1"/>
@@ -9252,7 +9141,7 @@
       <c r="W3" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="X3" s="88" t="s">
+      <c r="X3" s="49" t="s">
         <v>241</v>
       </c>
     </row>
@@ -9260,11 +9149,14 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>483</v>
+      <c r="B4" s="36" t="s">
+        <v>319</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>269</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>230</v>
@@ -9316,8 +9208,8 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>316</v>
+      <c r="B5" s="36" t="s">
+        <v>697</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>14</v>
@@ -9381,14 +9273,17 @@
       <c r="A6" s="6">
         <v>4</v>
       </c>
+      <c r="B6" s="45" t="s">
+        <v>320</v>
+      </c>
       <c r="C6" s="29" t="s">
         <v>106</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>231</v>
+      <c r="E6" s="45" t="s">
+        <v>320</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>223</v>
@@ -9701,7 +9596,7 @@
         <v>72</v>
       </c>
       <c r="N11" s="28" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O11" s="28" t="s">
         <v>87</v>
@@ -9735,6 +9630,9 @@
       <c r="D12" s="4" t="s">
         <v>235</v>
       </c>
+      <c r="E12" s="23" t="s">
+        <v>316</v>
+      </c>
       <c r="F12" s="19" t="s">
         <v>274</v>
       </c>
@@ -9761,6 +9659,9 @@
       </c>
       <c r="N12" s="21" t="s">
         <v>296</v>
+      </c>
+      <c r="O12" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="P12" s="17" t="s">
         <v>256</v>
@@ -9890,9 +9791,6 @@
       <c r="N14" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="P14" s="36" t="s">
-        <v>319</v>
-      </c>
       <c r="Q14" s="17" t="s">
         <v>312</v>
       </c>
@@ -9958,9 +9856,6 @@
       <c r="N15" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="P15" s="36" t="s">
-        <v>320</v>
-      </c>
       <c r="Q15" s="17" t="s">
         <v>311</v>
       </c>
@@ -10000,7 +9895,7 @@
         <v>148</v>
       </c>
       <c r="I16" s="46" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J16" s="47" t="s">
         <v>57</v>
@@ -10011,16 +9906,7 @@
       <c r="L16" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="N16" s="45" t="s">
-        <v>321</v>
-      </c>
-      <c r="O16" s="45" t="s">
-        <v>321</v>
-      </c>
-      <c r="P16" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q16" s="4" t="s">
+      <c r="M16" s="4" t="s">
         <v>227</v>
       </c>
       <c r="R16" s="25" t="s">
@@ -10028,6 +9914,9 @@
       </c>
       <c r="S16" s="25" t="s">
         <v>100</v>
+      </c>
+      <c r="T16" s="23" t="s">
+        <v>482</v>
       </c>
       <c r="U16" s="30" t="s">
         <v>198</v>
@@ -10053,7 +9942,7 @@
         <v>120</v>
       </c>
       <c r="I17" s="46" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J17" s="47" t="s">
         <v>58</v>
@@ -10194,7 +10083,7 @@
         <v>28</v>
       </c>
       <c r="S19" s="39" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="T19" s="39" t="s">
         <v>200</v>
@@ -10226,7 +10115,7 @@
         <v>284</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N20" s="31" t="s">
         <v>190</v>
@@ -10291,7 +10180,7 @@
     <row r="22" spans="1:22" s="15" customFormat="1" ht="42" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="23" spans="1:22" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="B23" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C23" s="6">
         <f>COUNTA(B2:Y21)</f>
@@ -10300,7 +10189,7 @@
     </row>
     <row r="24" spans="1:22" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="B24" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C24" s="6">
         <f>COUNTBLANK(B2:Y21)</f>
@@ -10324,7 +10213,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" thickTop="1" thickBottom="1"/>
@@ -11358,8 +11247,8 @@
   <dimension ref="A1:I513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A238" sqref="A238:XFD238"/>
+      <pane ySplit="2" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C256" sqref="C256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11374,40 +11263,40 @@
     <row r="1" spans="1:9">
       <c r="A1">
         <f>COUNTA(D3:D605)</f>
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="B1">
         <v>324</v>
       </c>
       <c r="C1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D1" s="27">
         <f>A1/B1</f>
-        <v>0.64814814814814814</v>
+        <v>0.72530864197530864</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1">
       <c r="A2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" t="s">
         <v>322</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>323</v>
       </c>
-      <c r="C2" t="s">
-        <v>324</v>
-      </c>
       <c r="D2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2" t="s">
         <v>326</v>
-      </c>
-      <c r="E2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F2" t="s">
-        <v>330</v>
-      </c>
-      <c r="G2" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
@@ -11421,18 +11310,18 @@
         <v>7.7</v>
       </c>
       <c r="D3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G3" t="s">
-        <v>325</v>
-      </c>
-      <c r="H3" s="50" t="s">
-        <v>329</v>
-      </c>
-      <c r="I3" s="50"/>
+        <v>324</v>
+      </c>
+      <c r="H3" s="68" t="s">
+        <v>328</v>
+      </c>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" t="s">
@@ -11445,16 +11334,16 @@
         <v>6.7</v>
       </c>
       <c r="D4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G4" t="s">
-        <v>325</v>
-      </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+        <v>324</v>
+      </c>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" t="s">
@@ -11467,16 +11356,16 @@
         <v>6.6</v>
       </c>
       <c r="D5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G5" t="s">
-        <v>325</v>
-      </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+        <v>324</v>
+      </c>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
     </row>
     <row r="6" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" t="s">
@@ -11489,16 +11378,16 @@
         <v>7.6</v>
       </c>
       <c r="D6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G6" t="s">
-        <v>325</v>
-      </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
+        <v>324</v>
+      </c>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
     </row>
     <row r="7" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" t="s">
@@ -11511,16 +11400,16 @@
         <v>8.6</v>
       </c>
       <c r="D7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
+        <v>324</v>
+      </c>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
     </row>
     <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" t="s">
@@ -11533,16 +11422,16 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="D8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
+        <v>324</v>
+      </c>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" t="s">
@@ -11555,16 +11444,16 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="D9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G9" t="s">
-        <v>325</v>
-      </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
+        <v>324</v>
+      </c>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
     </row>
     <row r="10" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" t="s">
@@ -11577,16 +11466,16 @@
         <v>7.8</v>
       </c>
       <c r="D10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G10" t="s">
-        <v>325</v>
-      </c>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
+        <v>324</v>
+      </c>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
     </row>
     <row r="11" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" t="s">
@@ -11599,16 +11488,16 @@
         <v>6.8</v>
       </c>
       <c r="D11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G11" t="s">
-        <v>325</v>
-      </c>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
+        <v>324</v>
+      </c>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" t="s">
@@ -11621,16 +11510,16 @@
         <v>5.8</v>
       </c>
       <c r="D12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G12" t="s">
-        <v>325</v>
-      </c>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
+        <v>324</v>
+      </c>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
     </row>
     <row r="13" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" t="s">
@@ -11643,16 +11532,16 @@
         <v>5.9</v>
       </c>
       <c r="D13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G13" t="s">
-        <v>325</v>
-      </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
+        <v>324</v>
+      </c>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
     </row>
     <row r="14" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B14" s="38"/>
@@ -11669,18 +11558,18 @@
         <v>5.6</v>
       </c>
       <c r="D15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G15" t="s">
-        <v>325</v>
-      </c>
-      <c r="H15" s="51" t="s">
-        <v>332</v>
-      </c>
-      <c r="I15" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="H15" s="57" t="s">
+        <v>331</v>
+      </c>
+      <c r="I15" s="57"/>
     </row>
     <row r="16" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" t="s">
@@ -11693,16 +11582,16 @@
         <v>5.7</v>
       </c>
       <c r="D16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G16" t="s">
-        <v>325</v>
-      </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
     </row>
     <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" t="s">
@@ -11715,16 +11604,16 @@
         <v>4.7</v>
       </c>
       <c r="D17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G17" t="s">
-        <v>325</v>
-      </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
     </row>
     <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A18" t="s">
@@ -11737,16 +11626,16 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="D18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G18" t="s">
-        <v>325</v>
-      </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
     </row>
     <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" t="s">
@@ -11759,20 +11648,20 @@
         <v>3.7</v>
       </c>
       <c r="D19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G19" t="s">
-        <v>325</v>
-      </c>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
     </row>
     <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B20" s="37">
         <v>18.100000000000001</v>
@@ -11781,16 +11670,16 @@
         <v>3.6</v>
       </c>
       <c r="D20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G20" t="s">
-        <v>325</v>
-      </c>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
     </row>
     <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" t="s">
@@ -11803,16 +11692,16 @@
         <v>2.6</v>
       </c>
       <c r="D21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G21" t="s">
-        <v>325</v>
-      </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" t="s">
@@ -11825,16 +11714,16 @@
         <v>2.7</v>
       </c>
       <c r="D22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G22" t="s">
-        <v>325</v>
-      </c>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
     </row>
     <row r="23" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" t="s">
@@ -11847,16 +11736,16 @@
         <v>2.8</v>
       </c>
       <c r="D23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G23" t="s">
-        <v>325</v>
-      </c>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
     </row>
     <row r="24" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B24" s="38"/>
@@ -11873,18 +11762,18 @@
         <v>3.5</v>
       </c>
       <c r="D25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G25" t="s">
-        <v>325</v>
-      </c>
-      <c r="H25" s="52" t="s">
-        <v>335</v>
-      </c>
-      <c r="I25" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H25" s="69" t="s">
+        <v>334</v>
+      </c>
+      <c r="I25" s="69"/>
     </row>
     <row r="26" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" t="s">
@@ -11897,16 +11786,16 @@
         <v>2.5</v>
       </c>
       <c r="D26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G26" t="s">
-        <v>325</v>
-      </c>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
     </row>
     <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" t="s">
@@ -11919,16 +11808,16 @@
         <v>1.5</v>
       </c>
       <c r="D27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G27" t="s">
-        <v>325</v>
-      </c>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
     </row>
     <row r="28" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" t="s">
@@ -11941,16 +11830,16 @@
         <v>2.4</v>
       </c>
       <c r="D28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G28" t="s">
-        <v>325</v>
-      </c>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
     </row>
     <row r="29" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" t="s">
@@ -11963,16 +11852,16 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G29" t="s">
-        <v>325</v>
-      </c>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
     </row>
     <row r="30" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" t="s">
@@ -11985,20 +11874,20 @@
         <v>1.3</v>
       </c>
       <c r="D30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G30" t="s">
-        <v>325</v>
-      </c>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
     </row>
     <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B31" s="37">
         <v>10.9</v>
@@ -12007,16 +11896,16 @@
         <v>1.4</v>
       </c>
       <c r="D31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G31" t="s">
-        <v>325</v>
-      </c>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
     </row>
     <row r="32" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B32" s="38"/>
@@ -12033,18 +11922,18 @@
         <v>9.6</v>
       </c>
       <c r="D33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G33" t="s">
-        <v>325</v>
-      </c>
-      <c r="H33" s="53" t="s">
-        <v>337</v>
-      </c>
-      <c r="I33" s="53"/>
+        <v>324</v>
+      </c>
+      <c r="H33" s="70" t="s">
+        <v>336</v>
+      </c>
+      <c r="I33" s="70"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
@@ -12057,16 +11946,16 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="D34" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E34" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G34" t="s">
-        <v>325</v>
-      </c>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
+        <v>324</v>
+      </c>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
@@ -12079,20 +11968,20 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="D35" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E35" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G35" t="s">
-        <v>325</v>
-      </c>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
+        <v>324</v>
+      </c>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B36" s="37">
         <v>5.6</v>
@@ -12101,16 +11990,16 @@
         <v>10.7</v>
       </c>
       <c r="D36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G36" t="s">
-        <v>325</v>
-      </c>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
+        <v>324</v>
+      </c>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
@@ -12123,16 +12012,16 @@
         <v>11.7</v>
       </c>
       <c r="D37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G37" t="s">
-        <v>325</v>
-      </c>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
+        <v>324</v>
+      </c>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
@@ -12145,16 +12034,16 @@
         <v>10.6</v>
       </c>
       <c r="D38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G38" t="s">
-        <v>325</v>
-      </c>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
+        <v>324</v>
+      </c>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
@@ -12167,20 +12056,20 @@
         <v>11.6</v>
       </c>
       <c r="D39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G39" t="s">
-        <v>325</v>
-      </c>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
+        <v>324</v>
+      </c>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B40" s="37">
         <v>3.3</v>
@@ -12189,16 +12078,16 @@
         <v>6.5</v>
       </c>
       <c r="D40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G40" t="s">
-        <v>325</v>
-      </c>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
+        <v>324</v>
+      </c>
+      <c r="H40" s="71"/>
+      <c r="I40" s="71"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
@@ -12211,16 +12100,16 @@
         <v>7.5</v>
       </c>
       <c r="D41" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E41" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G41" t="s">
-        <v>325</v>
-      </c>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
+        <v>324</v>
+      </c>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
@@ -12233,16 +12122,16 @@
         <v>8.5</v>
       </c>
       <c r="D42" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E42" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G42" t="s">
-        <v>325</v>
-      </c>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
+        <v>324</v>
+      </c>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
     </row>
     <row r="43" spans="1:9" s="24" customFormat="1" ht="15" thickBot="1">
       <c r="B43" s="38"/>
@@ -12261,18 +12150,18 @@
         <v>9.4</v>
       </c>
       <c r="D44" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E44" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G44" t="s">
-        <v>325</v>
-      </c>
-      <c r="H44" s="52" t="s">
-        <v>339</v>
-      </c>
-      <c r="I44" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H44" s="69" t="s">
+        <v>338</v>
+      </c>
+      <c r="I44" s="69"/>
     </row>
     <row r="45" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" t="s">
@@ -12285,16 +12174,16 @@
         <v>9.5</v>
       </c>
       <c r="D45" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E45" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G45" t="s">
-        <v>325</v>
-      </c>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
     </row>
     <row r="46" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" t="s">
@@ -12307,16 +12196,16 @@
         <v>8.4</v>
       </c>
       <c r="D46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G46" t="s">
-        <v>325</v>
-      </c>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
     </row>
     <row r="47" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" t="s">
@@ -12329,16 +12218,16 @@
         <v>7.4</v>
       </c>
       <c r="D47" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E47" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G47" t="s">
-        <v>325</v>
-      </c>
-      <c r="H47" s="52"/>
-      <c r="I47" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
     </row>
     <row r="48" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" t="s">
@@ -12351,16 +12240,16 @@
         <v>7.3</v>
       </c>
       <c r="D48" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E48" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G48" t="s">
-        <v>325</v>
-      </c>
-      <c r="H48" s="52"/>
-      <c r="I48" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
     </row>
     <row r="49" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" t="s">
@@ -12373,16 +12262,16 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D49" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E49" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G49" t="s">
-        <v>325</v>
-      </c>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
     </row>
     <row r="50" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B50" s="38"/>
@@ -12399,18 +12288,18 @@
         <v>10.5</v>
       </c>
       <c r="D51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G51" t="s">
-        <v>325</v>
-      </c>
-      <c r="H51" s="62" t="s">
-        <v>340</v>
-      </c>
-      <c r="I51" s="63"/>
+        <v>324</v>
+      </c>
+      <c r="H51" s="79" t="s">
+        <v>339</v>
+      </c>
+      <c r="I51" s="80"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
@@ -12423,16 +12312,16 @@
         <v>10.4</v>
       </c>
       <c r="D52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G52" t="s">
-        <v>325</v>
-      </c>
-      <c r="H52" s="64"/>
-      <c r="I52" s="65"/>
+        <v>324</v>
+      </c>
+      <c r="H52" s="81"/>
+      <c r="I52" s="82"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
@@ -12445,16 +12334,16 @@
         <v>11.4</v>
       </c>
       <c r="D53" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E53" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G53" t="s">
-        <v>325</v>
-      </c>
-      <c r="H53" s="64"/>
-      <c r="I53" s="65"/>
+        <v>324</v>
+      </c>
+      <c r="H53" s="81"/>
+      <c r="I53" s="82"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
@@ -12467,16 +12356,16 @@
         <v>12.4</v>
       </c>
       <c r="D54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G54" t="s">
-        <v>325</v>
-      </c>
-      <c r="H54" s="64"/>
-      <c r="I54" s="65"/>
+        <v>324</v>
+      </c>
+      <c r="H54" s="81"/>
+      <c r="I54" s="82"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
@@ -12489,16 +12378,16 @@
         <v>11.3</v>
       </c>
       <c r="D55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G55" t="s">
-        <v>325</v>
-      </c>
-      <c r="H55" s="64"/>
-      <c r="I55" s="65"/>
+        <v>324</v>
+      </c>
+      <c r="H55" s="81"/>
+      <c r="I55" s="82"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
@@ -12511,16 +12400,16 @@
         <v>12.3</v>
       </c>
       <c r="D56" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E56" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G56" t="s">
-        <v>325</v>
-      </c>
-      <c r="H56" s="64"/>
-      <c r="I56" s="65"/>
+        <v>324</v>
+      </c>
+      <c r="H56" s="81"/>
+      <c r="I56" s="82"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
@@ -12533,16 +12422,16 @@
         <v>13.3</v>
       </c>
       <c r="D57" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E57" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G57" t="s">
-        <v>325</v>
-      </c>
-      <c r="H57" s="64"/>
-      <c r="I57" s="65"/>
+        <v>324</v>
+      </c>
+      <c r="H57" s="81"/>
+      <c r="I57" s="82"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
@@ -12555,16 +12444,16 @@
         <v>11.2</v>
       </c>
       <c r="D58" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E58" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G58" t="s">
-        <v>325</v>
-      </c>
-      <c r="H58" s="64"/>
-      <c r="I58" s="65"/>
+        <v>324</v>
+      </c>
+      <c r="H58" s="81"/>
+      <c r="I58" s="82"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
@@ -12577,16 +12466,16 @@
         <v>12.2</v>
       </c>
       <c r="D59" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E59" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G59" t="s">
-        <v>325</v>
-      </c>
-      <c r="H59" s="64"/>
-      <c r="I59" s="65"/>
+        <v>324</v>
+      </c>
+      <c r="H59" s="81"/>
+      <c r="I59" s="82"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
@@ -12599,35 +12488,35 @@
         <v>13.2</v>
       </c>
       <c r="D60" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E60" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G60" t="s">
-        <v>325</v>
-      </c>
-      <c r="H60" s="64"/>
-      <c r="I60" s="65"/>
+        <v>324</v>
+      </c>
+      <c r="H60" s="81"/>
+      <c r="I60" s="82"/>
     </row>
     <row r="61" spans="1:9" ht="15" thickBot="1">
       <c r="A61" t="s">
+        <v>373</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="C61" s="37" t="s">
         <v>374</v>
       </c>
-      <c r="B61" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="C61" s="37" t="s">
-        <v>375</v>
-      </c>
       <c r="D61" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E61" t="s">
-        <v>325</v>
-      </c>
-      <c r="H61" s="66"/>
-      <c r="I61" s="67"/>
+        <v>324</v>
+      </c>
+      <c r="H61" s="83"/>
+      <c r="I61" s="84"/>
     </row>
     <row r="62" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B62" s="38"/>
@@ -12638,112 +12527,112 @@
         <v>1</v>
       </c>
       <c r="B63" s="37" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C63" s="37">
         <v>8.9</v>
       </c>
       <c r="D63" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E63" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G63" t="s">
-        <v>325</v>
-      </c>
-      <c r="H63" s="51" t="s">
-        <v>351</v>
-      </c>
-      <c r="I63" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="H63" s="57" t="s">
+        <v>350</v>
+      </c>
+      <c r="I63" s="57"/>
     </row>
     <row r="64" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" t="s">
         <v>2</v>
       </c>
       <c r="B64" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="C64" s="37" t="s">
         <v>343</v>
       </c>
-      <c r="C64" s="37" t="s">
-        <v>344</v>
-      </c>
       <c r="D64" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E64" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G64" t="s">
-        <v>325</v>
-      </c>
-      <c r="H64" s="51"/>
-      <c r="I64" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
     </row>
     <row r="65" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" t="s">
         <v>78</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D65" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E65" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G65" t="s">
-        <v>325</v>
-      </c>
-      <c r="H65" s="51"/>
-      <c r="I65" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
     </row>
     <row r="66" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" t="s">
         <v>81</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C66" s="37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D66" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E66" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G66" t="s">
-        <v>325</v>
-      </c>
-      <c r="H66" s="51"/>
-      <c r="I66" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
     </row>
     <row r="67" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" t="s">
         <v>82</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D67" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E67" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G67" t="s">
-        <v>325</v>
-      </c>
-      <c r="H67" s="51"/>
-      <c r="I67" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
     </row>
     <row r="68" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B68" s="38"/>
@@ -12754,222 +12643,222 @@
         <v>90</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D69" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E69" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G69" t="s">
-        <v>325</v>
-      </c>
-      <c r="H69" s="59" t="s">
-        <v>364</v>
-      </c>
-      <c r="I69" s="59"/>
+        <v>324</v>
+      </c>
+      <c r="H69" s="76" t="s">
+        <v>363</v>
+      </c>
+      <c r="I69" s="76"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>92</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C70" s="37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D70" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E70" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G70" t="s">
-        <v>325</v>
-      </c>
-      <c r="H70" s="60"/>
-      <c r="I70" s="60"/>
+        <v>324</v>
+      </c>
+      <c r="H70" s="77"/>
+      <c r="I70" s="77"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>91</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C71" s="37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D71" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E71" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G71" t="s">
-        <v>325</v>
-      </c>
-      <c r="H71" s="60"/>
-      <c r="I71" s="60"/>
+        <v>324</v>
+      </c>
+      <c r="H71" s="77"/>
+      <c r="I71" s="77"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>93</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D72" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E72" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G72" t="s">
-        <v>325</v>
-      </c>
-      <c r="H72" s="60"/>
-      <c r="I72" s="60"/>
+        <v>324</v>
+      </c>
+      <c r="H72" s="77"/>
+      <c r="I72" s="77"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>107</v>
       </c>
       <c r="B73" s="37" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D73" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E73" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G73" t="s">
-        <v>325</v>
-      </c>
-      <c r="H73" s="60"/>
-      <c r="I73" s="60"/>
+        <v>324</v>
+      </c>
+      <c r="H73" s="77"/>
+      <c r="I73" s="77"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>109</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D74" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E74" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G74" t="s">
-        <v>325</v>
-      </c>
-      <c r="H74" s="60"/>
-      <c r="I74" s="60"/>
+        <v>324</v>
+      </c>
+      <c r="H74" s="77"/>
+      <c r="I74" s="77"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>237</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D75" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E75" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G75" t="s">
-        <v>325</v>
-      </c>
-      <c r="H75" s="60"/>
-      <c r="I75" s="60"/>
+        <v>324</v>
+      </c>
+      <c r="H75" s="77"/>
+      <c r="I75" s="77"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>55</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D76" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E76" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G76" t="s">
-        <v>325</v>
-      </c>
-      <c r="H76" s="60"/>
-      <c r="I76" s="60"/>
+        <v>324</v>
+      </c>
+      <c r="H76" s="77"/>
+      <c r="I76" s="77"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>170</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D77" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E77" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G77" t="s">
-        <v>325</v>
-      </c>
-      <c r="H77" s="60"/>
-      <c r="I77" s="60"/>
+        <v>324</v>
+      </c>
+      <c r="H77" s="77"/>
+      <c r="I77" s="77"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>94</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D78" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E78" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G78" t="s">
-        <v>325</v>
-      </c>
-      <c r="H78" s="61"/>
-      <c r="I78" s="61"/>
+        <v>324</v>
+      </c>
+      <c r="H78" s="78"/>
+      <c r="I78" s="78"/>
     </row>
     <row r="79" spans="1:9" s="24" customFormat="1" ht="15" thickBot="1">
       <c r="B79" s="38"/>
@@ -12980,354 +12869,354 @@
         <v>5</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D80" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E80" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G80" t="s">
-        <v>325</v>
-      </c>
-      <c r="H80" s="68" t="s">
-        <v>407</v>
-      </c>
-      <c r="I80" s="69"/>
+        <v>324</v>
+      </c>
+      <c r="H80" s="85" t="s">
+        <v>406</v>
+      </c>
+      <c r="I80" s="86"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>6</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D81" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E81" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G81" t="s">
-        <v>325</v>
-      </c>
-      <c r="H81" s="70"/>
-      <c r="I81" s="71"/>
+        <v>324</v>
+      </c>
+      <c r="H81" s="87"/>
+      <c r="I81" s="88"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>12</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D82" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E82" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G82" t="s">
-        <v>325</v>
-      </c>
-      <c r="H82" s="70"/>
-      <c r="I82" s="71"/>
+        <v>324</v>
+      </c>
+      <c r="H82" s="87"/>
+      <c r="I82" s="88"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>13</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D83" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E83" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G83" t="s">
-        <v>325</v>
-      </c>
-      <c r="H83" s="70"/>
-      <c r="I83" s="71"/>
+        <v>324</v>
+      </c>
+      <c r="H83" s="87"/>
+      <c r="I83" s="88"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>19</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D84" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E84" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G84" t="s">
-        <v>325</v>
-      </c>
-      <c r="H84" s="70"/>
-      <c r="I84" s="71"/>
+        <v>324</v>
+      </c>
+      <c r="H84" s="87"/>
+      <c r="I84" s="88"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>20</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D85" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E85" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G85" t="s">
-        <v>325</v>
-      </c>
-      <c r="H85" s="70"/>
-      <c r="I85" s="71"/>
+        <v>324</v>
+      </c>
+      <c r="H85" s="87"/>
+      <c r="I85" s="88"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>264</v>
       </c>
       <c r="B86" s="37" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D86" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E86" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G86" t="s">
-        <v>325</v>
-      </c>
-      <c r="H86" s="70"/>
-      <c r="I86" s="71"/>
+        <v>324</v>
+      </c>
+      <c r="H86" s="87"/>
+      <c r="I86" s="88"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>154</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D87" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E87" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G87" t="s">
-        <v>325</v>
-      </c>
-      <c r="H87" s="70"/>
-      <c r="I87" s="71"/>
+        <v>324</v>
+      </c>
+      <c r="H87" s="87"/>
+      <c r="I87" s="88"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
+        <v>389</v>
+      </c>
+      <c r="B88" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="C88" s="37" t="s">
         <v>390</v>
       </c>
-      <c r="B88" s="37" t="s">
-        <v>392</v>
-      </c>
-      <c r="C88" s="37" t="s">
-        <v>391</v>
-      </c>
       <c r="D88" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E88" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G88" t="s">
-        <v>325</v>
-      </c>
-      <c r="H88" s="70"/>
-      <c r="I88" s="71"/>
+        <v>324</v>
+      </c>
+      <c r="H88" s="87"/>
+      <c r="I88" s="88"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>180</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D89" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E89" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G89" t="s">
-        <v>325</v>
-      </c>
-      <c r="H89" s="70"/>
-      <c r="I89" s="71"/>
+        <v>324</v>
+      </c>
+      <c r="H89" s="87"/>
+      <c r="I89" s="88"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>193</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D90" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E90" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G90" t="s">
-        <v>325</v>
-      </c>
-      <c r="H90" s="70"/>
-      <c r="I90" s="71"/>
+        <v>324</v>
+      </c>
+      <c r="H90" s="87"/>
+      <c r="I90" s="88"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>194</v>
       </c>
       <c r="B91" s="37" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D91" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E91" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G91" t="s">
-        <v>325</v>
-      </c>
-      <c r="H91" s="70"/>
-      <c r="I91" s="71"/>
+        <v>324</v>
+      </c>
+      <c r="H91" s="87"/>
+      <c r="I91" s="88"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>95</v>
       </c>
       <c r="B92" s="37" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D92" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E92" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G92" t="s">
-        <v>325</v>
-      </c>
-      <c r="H92" s="70"/>
-      <c r="I92" s="71"/>
+        <v>324</v>
+      </c>
+      <c r="H92" s="87"/>
+      <c r="I92" s="88"/>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>142</v>
       </c>
       <c r="B93" s="37" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D93" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E93" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G93" t="s">
-        <v>325</v>
-      </c>
-      <c r="H93" s="70"/>
-      <c r="I93" s="71"/>
+        <v>324</v>
+      </c>
+      <c r="H93" s="87"/>
+      <c r="I93" s="88"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>143</v>
       </c>
       <c r="B94" s="37" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D94" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E94" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G94" t="s">
-        <v>325</v>
-      </c>
-      <c r="H94" s="70"/>
-      <c r="I94" s="71"/>
+        <v>324</v>
+      </c>
+      <c r="H94" s="87"/>
+      <c r="I94" s="88"/>
     </row>
     <row r="95" spans="1:9" ht="15" thickBot="1">
       <c r="A95" t="s">
         <v>34</v>
       </c>
       <c r="B95" s="37" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D95" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E95" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G95" t="s">
-        <v>325</v>
-      </c>
-      <c r="H95" s="72"/>
-      <c r="I95" s="73"/>
+        <v>324</v>
+      </c>
+      <c r="H95" s="89"/>
+      <c r="I95" s="90"/>
     </row>
     <row r="96" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B96" s="38"/>
@@ -13338,134 +13227,134 @@
         <v>69</v>
       </c>
       <c r="B97" s="37" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D97" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E97" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G97" t="s">
-        <v>325</v>
-      </c>
-      <c r="H97" s="52" t="s">
-        <v>420</v>
-      </c>
-      <c r="I97" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H97" s="69" t="s">
+        <v>419</v>
+      </c>
+      <c r="I97" s="69"/>
     </row>
     <row r="98" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A98" t="s">
         <v>70</v>
       </c>
       <c r="B98" s="37" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D98" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E98" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G98" t="s">
-        <v>325</v>
-      </c>
-      <c r="H98" s="52"/>
-      <c r="I98" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H98" s="69"/>
+      <c r="I98" s="69"/>
     </row>
     <row r="99" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A99" t="s">
         <v>72</v>
       </c>
       <c r="B99" s="37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D99" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E99" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G99" t="s">
-        <v>325</v>
-      </c>
-      <c r="H99" s="52"/>
-      <c r="I99" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H99" s="69"/>
+      <c r="I99" s="69"/>
     </row>
     <row r="100" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A100" t="s">
         <v>22</v>
       </c>
       <c r="B100" s="37" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D100" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E100" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G100" t="s">
-        <v>325</v>
-      </c>
-      <c r="H100" s="52"/>
-      <c r="I100" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H100" s="69"/>
+      <c r="I100" s="69"/>
     </row>
     <row r="101" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A101" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B101" s="37" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D101" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E101" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G101" t="s">
-        <v>325</v>
-      </c>
-      <c r="H101" s="52"/>
-      <c r="I101" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H101" s="69"/>
+      <c r="I101" s="69"/>
     </row>
     <row r="102" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A102" t="s">
         <v>87</v>
       </c>
       <c r="B102" s="37" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D102" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E102" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G102" t="s">
-        <v>325</v>
-      </c>
-      <c r="H102" s="52"/>
-      <c r="I102" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H102" s="69"/>
+      <c r="I102" s="69"/>
     </row>
     <row r="103" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B103" s="38"/>
@@ -13476,112 +13365,112 @@
         <v>48</v>
       </c>
       <c r="B104" s="37" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D104" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E104" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G104" t="s">
-        <v>325</v>
-      </c>
-      <c r="H104" s="62" t="s">
-        <v>429</v>
-      </c>
-      <c r="I104" s="63"/>
+        <v>324</v>
+      </c>
+      <c r="H104" s="79" t="s">
+        <v>428</v>
+      </c>
+      <c r="I104" s="80"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>54</v>
       </c>
       <c r="B105" s="37" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D105" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E105" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G105" t="s">
-        <v>325</v>
-      </c>
-      <c r="H105" s="64"/>
-      <c r="I105" s="65"/>
+        <v>324</v>
+      </c>
+      <c r="H105" s="81"/>
+      <c r="I105" s="82"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>60</v>
       </c>
       <c r="B106" s="37" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D106" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E106" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G106" t="s">
-        <v>325</v>
-      </c>
-      <c r="H106" s="64"/>
-      <c r="I106" s="65"/>
+        <v>324</v>
+      </c>
+      <c r="H106" s="81"/>
+      <c r="I106" s="82"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
+        <v>430</v>
+      </c>
+      <c r="B107" s="37" t="s">
         <v>431</v>
       </c>
-      <c r="B107" s="37" t="s">
-        <v>432</v>
-      </c>
       <c r="C107" s="37" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D107" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E107" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G107" t="s">
-        <v>325</v>
-      </c>
-      <c r="H107" s="64"/>
-      <c r="I107" s="65"/>
+        <v>324</v>
+      </c>
+      <c r="H107" s="81"/>
+      <c r="I107" s="82"/>
     </row>
     <row r="108" spans="1:9" ht="15" thickBot="1">
       <c r="A108" t="s">
         <v>138</v>
       </c>
       <c r="B108" s="37" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D108" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E108" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G108" t="s">
-        <v>325</v>
-      </c>
-      <c r="H108" s="66"/>
-      <c r="I108" s="67"/>
+        <v>324</v>
+      </c>
+      <c r="H108" s="83"/>
+      <c r="I108" s="84"/>
     </row>
     <row r="109" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B109" s="38"/>
@@ -13592,222 +13481,222 @@
         <v>8</v>
       </c>
       <c r="B110" s="37" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C110" s="37" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D110" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E110" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G110" t="s">
-        <v>325</v>
-      </c>
-      <c r="H110" s="74" t="s">
-        <v>449</v>
-      </c>
-      <c r="I110" s="75"/>
+        <v>324</v>
+      </c>
+      <c r="H110" s="91" t="s">
+        <v>448</v>
+      </c>
+      <c r="I110" s="92"/>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>9</v>
       </c>
       <c r="B111" s="37" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D111" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E111" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G111" t="s">
-        <v>325</v>
-      </c>
-      <c r="H111" s="76"/>
-      <c r="I111" s="77"/>
+        <v>324</v>
+      </c>
+      <c r="H111" s="93"/>
+      <c r="I111" s="94"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>10</v>
       </c>
       <c r="B112" s="37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C112" s="37" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D112" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E112" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G112" t="s">
-        <v>325</v>
-      </c>
-      <c r="H112" s="76"/>
-      <c r="I112" s="77"/>
+        <v>324</v>
+      </c>
+      <c r="H112" s="93"/>
+      <c r="I112" s="94"/>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>31</v>
       </c>
       <c r="B113" s="37" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D113" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E113" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G113" t="s">
-        <v>325</v>
-      </c>
-      <c r="H113" s="76"/>
-      <c r="I113" s="77"/>
+        <v>324</v>
+      </c>
+      <c r="H113" s="93"/>
+      <c r="I113" s="94"/>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>32</v>
       </c>
       <c r="B114" s="37" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C114" s="37" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D114" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E114" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G114" t="s">
-        <v>325</v>
-      </c>
-      <c r="H114" s="76"/>
-      <c r="I114" s="77"/>
+        <v>324</v>
+      </c>
+      <c r="H114" s="93"/>
+      <c r="I114" s="94"/>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>33</v>
       </c>
       <c r="B115" s="37" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D115" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E115" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G115" t="s">
-        <v>325</v>
-      </c>
-      <c r="H115" s="76"/>
-      <c r="I115" s="77"/>
+        <v>324</v>
+      </c>
+      <c r="H115" s="93"/>
+      <c r="I115" s="94"/>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>38</v>
       </c>
       <c r="B116" s="37" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C116" s="37" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D116" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E116" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G116" t="s">
-        <v>325</v>
-      </c>
-      <c r="H116" s="76"/>
-      <c r="I116" s="77"/>
+        <v>324</v>
+      </c>
+      <c r="H116" s="93"/>
+      <c r="I116" s="94"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>39</v>
       </c>
       <c r="B117" s="37" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C117" s="37" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D117" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E117" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G117" t="s">
-        <v>325</v>
-      </c>
-      <c r="H117" s="76"/>
-      <c r="I117" s="77"/>
+        <v>324</v>
+      </c>
+      <c r="H117" s="93"/>
+      <c r="I117" s="94"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>40</v>
       </c>
       <c r="B118" s="37" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C118" s="37" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D118" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E118" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G118" t="s">
-        <v>325</v>
-      </c>
-      <c r="H118" s="76"/>
-      <c r="I118" s="77"/>
+        <v>324</v>
+      </c>
+      <c r="H118" s="93"/>
+      <c r="I118" s="94"/>
     </row>
     <row r="119" spans="1:9" ht="15" thickBot="1">
       <c r="A119" t="s">
         <v>146</v>
       </c>
       <c r="B119" s="37" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C119" s="37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D119" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E119" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G119" t="s">
-        <v>325</v>
-      </c>
-      <c r="H119" s="78"/>
-      <c r="I119" s="79"/>
+        <v>324</v>
+      </c>
+      <c r="H119" s="95"/>
+      <c r="I119" s="96"/>
     </row>
     <row r="120" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B120" s="38"/>
@@ -13824,194 +13713,194 @@
         <v>17.899999999999999</v>
       </c>
       <c r="D121" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E121" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G121" t="s">
-        <v>325</v>
-      </c>
-      <c r="H121" s="62" t="s">
-        <v>464</v>
-      </c>
-      <c r="I121" s="63"/>
+        <v>324</v>
+      </c>
+      <c r="H121" s="79" t="s">
+        <v>463</v>
+      </c>
+      <c r="I121" s="80"/>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>64</v>
       </c>
       <c r="B122" s="37" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C122" s="37" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D122" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E122" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G122" t="s">
-        <v>325</v>
-      </c>
-      <c r="H122" s="64"/>
-      <c r="I122" s="65"/>
+        <v>324</v>
+      </c>
+      <c r="H122" s="81"/>
+      <c r="I122" s="82"/>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>63</v>
       </c>
       <c r="B123" s="37" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C123" s="37" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D123" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E123" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G123" t="s">
-        <v>325</v>
-      </c>
-      <c r="H123" s="64"/>
-      <c r="I123" s="65"/>
+        <v>324</v>
+      </c>
+      <c r="H123" s="81"/>
+      <c r="I123" s="82"/>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>59</v>
       </c>
       <c r="B124" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="C124" s="37" t="s">
         <v>455</v>
       </c>
-      <c r="C124" s="37" t="s">
-        <v>456</v>
-      </c>
       <c r="D124" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E124" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G124" t="s">
-        <v>325</v>
-      </c>
-      <c r="H124" s="64"/>
-      <c r="I124" s="65"/>
+        <v>324</v>
+      </c>
+      <c r="H124" s="81"/>
+      <c r="I124" s="82"/>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>124</v>
       </c>
       <c r="B125" s="37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C125" s="37" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D125" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E125" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G125" t="s">
-        <v>325</v>
-      </c>
-      <c r="H125" s="64"/>
-      <c r="I125" s="65"/>
+        <v>324</v>
+      </c>
+      <c r="H125" s="81"/>
+      <c r="I125" s="82"/>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>125</v>
       </c>
       <c r="B126" s="37" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C126" s="37" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D126" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E126" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G126" t="s">
-        <v>325</v>
-      </c>
-      <c r="H126" s="64"/>
-      <c r="I126" s="65"/>
+        <v>324</v>
+      </c>
+      <c r="H126" s="81"/>
+      <c r="I126" s="82"/>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>53</v>
       </c>
       <c r="B127" s="37" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C127" s="37" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D127" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E127" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G127" t="s">
-        <v>325</v>
-      </c>
-      <c r="H127" s="64"/>
-      <c r="I127" s="65"/>
+        <v>324</v>
+      </c>
+      <c r="H127" s="81"/>
+      <c r="I127" s="82"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>52</v>
       </c>
       <c r="B128" s="37" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C128" s="37" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D128" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E128" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G128" t="s">
-        <v>325</v>
-      </c>
-      <c r="H128" s="64"/>
-      <c r="I128" s="65"/>
+        <v>324</v>
+      </c>
+      <c r="H128" s="81"/>
+      <c r="I128" s="82"/>
     </row>
     <row r="129" spans="1:9" ht="15" thickBot="1">
       <c r="A129" t="s">
         <v>126</v>
       </c>
       <c r="B129" s="37" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C129" s="37" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D129" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E129" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G129" t="s">
-        <v>325</v>
-      </c>
-      <c r="H129" s="66"/>
-      <c r="I129" s="67"/>
+        <v>324</v>
+      </c>
+      <c r="H129" s="83"/>
+      <c r="I129" s="84"/>
     </row>
     <row r="130" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B130" s="38"/>
@@ -14022,178 +13911,178 @@
         <v>86</v>
       </c>
       <c r="B131" s="37" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C131" s="37" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D131" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E131" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G131" t="s">
-        <v>325</v>
-      </c>
-      <c r="H131" s="52" t="s">
-        <v>480</v>
-      </c>
-      <c r="I131" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H131" s="69" t="s">
+        <v>479</v>
+      </c>
+      <c r="I131" s="69"/>
     </row>
     <row r="132" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A132" t="s">
         <v>88</v>
       </c>
       <c r="B132" s="37" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C132" s="37" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D132" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E132" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G132" t="s">
-        <v>325</v>
-      </c>
-      <c r="H132" s="52"/>
-      <c r="I132" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H132" s="69"/>
+      <c r="I132" s="69"/>
     </row>
     <row r="133" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A133" t="s">
         <v>89</v>
       </c>
       <c r="B133" s="37" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C133" s="37" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D133" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E133" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G133" t="s">
-        <v>325</v>
-      </c>
-      <c r="H133" s="52"/>
-      <c r="I133" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H133" s="69"/>
+      <c r="I133" s="69"/>
     </row>
     <row r="134" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A134" t="s">
         <v>7</v>
       </c>
       <c r="B134" s="37" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C134" s="37" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D134" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E134" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G134" t="s">
-        <v>325</v>
-      </c>
-      <c r="H134" s="52"/>
-      <c r="I134" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H134" s="69"/>
+      <c r="I134" s="69"/>
     </row>
     <row r="135" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A135" t="s">
         <v>197</v>
       </c>
       <c r="B135" s="37" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C135" s="37" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D135" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E135" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G135" t="s">
-        <v>325</v>
-      </c>
-      <c r="H135" s="52"/>
-      <c r="I135" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H135" s="69"/>
+      <c r="I135" s="69"/>
     </row>
     <row r="136" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A136" t="s">
         <v>196</v>
       </c>
       <c r="B136" s="37" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C136" s="37" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D136" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E136" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G136" t="s">
-        <v>325</v>
-      </c>
-      <c r="H136" s="52"/>
-      <c r="I136" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H136" s="69"/>
+      <c r="I136" s="69"/>
     </row>
     <row r="137" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A137" t="s">
         <v>195</v>
       </c>
       <c r="B137" s="37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C137" s="37" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D137" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E137" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G137" t="s">
-        <v>325</v>
-      </c>
-      <c r="H137" s="52"/>
-      <c r="I137" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H137" s="69"/>
+      <c r="I137" s="69"/>
     </row>
     <row r="138" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A138" t="s">
         <v>198</v>
       </c>
       <c r="B138" s="37" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C138" s="37" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D138" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E138" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G138" t="s">
-        <v>325</v>
-      </c>
-      <c r="H138" s="52"/>
-      <c r="I138" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H138" s="69"/>
+      <c r="I138" s="69"/>
     </row>
     <row r="139" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B139" s="38"/>
@@ -14204,178 +14093,178 @@
         <v>102</v>
       </c>
       <c r="B140" s="37" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C140" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D140" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E140" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G140" t="s">
-        <v>325</v>
-      </c>
-      <c r="H140" s="56" t="s">
-        <v>497</v>
-      </c>
-      <c r="I140" s="56"/>
+        <v>324</v>
+      </c>
+      <c r="H140" s="73" t="s">
+        <v>496</v>
+      </c>
+      <c r="I140" s="73"/>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>101</v>
       </c>
       <c r="B141" s="37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C141" s="37" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D141" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E141" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G141" t="s">
-        <v>325</v>
-      </c>
-      <c r="H141" s="57"/>
-      <c r="I141" s="57"/>
+        <v>324</v>
+      </c>
+      <c r="H141" s="74"/>
+      <c r="I141" s="74"/>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>103</v>
       </c>
       <c r="B142" s="37" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C142" s="37" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D142" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E142" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G142" t="s">
-        <v>325</v>
-      </c>
-      <c r="H142" s="57"/>
-      <c r="I142" s="57"/>
+        <v>324</v>
+      </c>
+      <c r="H142" s="74"/>
+      <c r="I142" s="74"/>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>100</v>
       </c>
       <c r="B143" s="37" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C143" s="37" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D143" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E143" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G143" t="s">
-        <v>325</v>
-      </c>
-      <c r="H143" s="57"/>
-      <c r="I143" s="57"/>
+        <v>324</v>
+      </c>
+      <c r="H143" s="74"/>
+      <c r="I143" s="74"/>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="41" t="s">
         <v>104</v>
       </c>
       <c r="B144" s="37" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C144" s="37" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D144" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E144" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G144" t="s">
-        <v>325</v>
-      </c>
-      <c r="H144" s="57"/>
-      <c r="I144" s="57"/>
+        <v>324</v>
+      </c>
+      <c r="H144" s="74"/>
+      <c r="I144" s="74"/>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>127</v>
       </c>
       <c r="B145" s="37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C145" s="37" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D145" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E145" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G145" t="s">
-        <v>325</v>
-      </c>
-      <c r="H145" s="57"/>
-      <c r="I145" s="57"/>
+        <v>324</v>
+      </c>
+      <c r="H145" s="74"/>
+      <c r="I145" s="74"/>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>185</v>
       </c>
       <c r="B146" s="37" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C146" s="37" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D146" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E146" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G146" t="s">
-        <v>325</v>
-      </c>
-      <c r="H146" s="57"/>
-      <c r="I146" s="57"/>
+        <v>324</v>
+      </c>
+      <c r="H146" s="74"/>
+      <c r="I146" s="74"/>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>149</v>
       </c>
       <c r="B147" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C147" s="37" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D147" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E147" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G147" t="s">
-        <v>325</v>
-      </c>
-      <c r="H147" s="58"/>
-      <c r="I147" s="58"/>
+        <v>324</v>
+      </c>
+      <c r="H147" s="75"/>
+      <c r="I147" s="75"/>
     </row>
     <row r="148" spans="1:9" s="24" customFormat="1" ht="15" thickBot="1">
       <c r="B148" s="38"/>
@@ -14386,222 +14275,222 @@
         <v>28</v>
       </c>
       <c r="B149" s="37" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C149" s="37" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D149" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E149" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G149" t="s">
-        <v>325</v>
-      </c>
-      <c r="H149" s="48" t="s">
-        <v>519</v>
-      </c>
-      <c r="I149" s="48"/>
+        <v>324</v>
+      </c>
+      <c r="H149" s="59" t="s">
+        <v>518</v>
+      </c>
+      <c r="I149" s="59"/>
     </row>
     <row r="150" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A150" t="s">
+        <v>500</v>
+      </c>
+      <c r="B150" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="C150" s="37" t="s">
         <v>501</v>
       </c>
-      <c r="B150" s="37" t="s">
-        <v>487</v>
-      </c>
-      <c r="C150" s="37" t="s">
-        <v>502</v>
-      </c>
       <c r="D150" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E150" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G150" t="s">
-        <v>325</v>
-      </c>
-      <c r="H150" s="48"/>
-      <c r="I150" s="48"/>
+        <v>324</v>
+      </c>
+      <c r="H150" s="59"/>
+      <c r="I150" s="59"/>
     </row>
     <row r="151" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A151" t="s">
         <v>200</v>
       </c>
       <c r="B151" s="37" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C151" s="37" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D151" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E151" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G151" t="s">
-        <v>325</v>
-      </c>
-      <c r="H151" s="48"/>
-      <c r="I151" s="48"/>
+        <v>324</v>
+      </c>
+      <c r="H151" s="59"/>
+      <c r="I151" s="59"/>
     </row>
     <row r="152" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A152" t="s">
         <v>199</v>
       </c>
       <c r="B152" s="37" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C152" s="37" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D152" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E152" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G152" t="s">
-        <v>325</v>
-      </c>
-      <c r="H152" s="48"/>
-      <c r="I152" s="48"/>
+        <v>324</v>
+      </c>
+      <c r="H152" s="59"/>
+      <c r="I152" s="59"/>
     </row>
     <row r="153" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A153" t="s">
         <v>36</v>
       </c>
       <c r="B153" s="37" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C153" s="37" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D153" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E153" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G153" t="s">
-        <v>325</v>
-      </c>
-      <c r="H153" s="48"/>
-      <c r="I153" s="48"/>
+        <v>324</v>
+      </c>
+      <c r="H153" s="59"/>
+      <c r="I153" s="59"/>
     </row>
     <row r="154" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A154" t="s">
         <v>96</v>
       </c>
       <c r="B154" s="37" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C154" s="37" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D154" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E154" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G154" t="s">
-        <v>325</v>
-      </c>
-      <c r="H154" s="48"/>
-      <c r="I154" s="48"/>
+        <v>324</v>
+      </c>
+      <c r="H154" s="59"/>
+      <c r="I154" s="59"/>
     </row>
     <row r="155" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A155" t="s">
         <v>43</v>
       </c>
       <c r="B155" s="37" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C155" s="37" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D155" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E155" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G155" t="s">
-        <v>325</v>
-      </c>
-      <c r="H155" s="48"/>
-      <c r="I155" s="48"/>
+        <v>324</v>
+      </c>
+      <c r="H155" s="59"/>
+      <c r="I155" s="59"/>
     </row>
     <row r="156" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A156" t="s">
         <v>105</v>
       </c>
       <c r="B156" s="37" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C156" s="37" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D156" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E156" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G156" t="s">
-        <v>325</v>
-      </c>
-      <c r="H156" s="48"/>
-      <c r="I156" s="48"/>
+        <v>324</v>
+      </c>
+      <c r="H156" s="59"/>
+      <c r="I156" s="59"/>
     </row>
     <row r="157" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A157" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B157" s="37" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C157" s="37" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D157" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E157" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G157" t="s">
-        <v>325</v>
-      </c>
-      <c r="H157" s="48"/>
-      <c r="I157" s="48"/>
+        <v>324</v>
+      </c>
+      <c r="H157" s="59"/>
+      <c r="I157" s="59"/>
     </row>
     <row r="158" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A158" t="s">
+        <v>515</v>
+      </c>
+      <c r="B158" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="C158" s="37" t="s">
         <v>516</v>
       </c>
-      <c r="B158" s="37" t="s">
-        <v>518</v>
-      </c>
-      <c r="C158" s="37" t="s">
-        <v>517</v>
-      </c>
       <c r="D158" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E158" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G158" t="s">
-        <v>325</v>
-      </c>
-      <c r="H158" s="48"/>
-      <c r="I158" s="48"/>
+        <v>324</v>
+      </c>
+      <c r="H158" s="59"/>
+      <c r="I158" s="59"/>
     </row>
     <row r="159" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B159" s="38"/>
@@ -14612,156 +14501,156 @@
         <v>65</v>
       </c>
       <c r="B160" s="37" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C160" s="37" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D160" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E160" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G160" t="s">
-        <v>325</v>
-      </c>
-      <c r="H160" s="80" t="s">
-        <v>533</v>
-      </c>
-      <c r="I160" s="80"/>
+        <v>324</v>
+      </c>
+      <c r="H160" s="60" t="s">
+        <v>532</v>
+      </c>
+      <c r="I160" s="60"/>
     </row>
     <row r="161" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A161" t="s">
         <v>66</v>
       </c>
       <c r="B161" s="37" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C161" s="37" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D161" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E161" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G161" t="s">
-        <v>325</v>
-      </c>
-      <c r="H161" s="80"/>
-      <c r="I161" s="80"/>
+        <v>324</v>
+      </c>
+      <c r="H161" s="60"/>
+      <c r="I161" s="60"/>
     </row>
     <row r="162" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A162" t="s">
         <v>131</v>
       </c>
       <c r="B162" s="37" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C162" s="37" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D162" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E162" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G162" t="s">
-        <v>325</v>
-      </c>
-      <c r="H162" s="80"/>
-      <c r="I162" s="80"/>
+        <v>324</v>
+      </c>
+      <c r="H162" s="60"/>
+      <c r="I162" s="60"/>
     </row>
     <row r="163" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A163" t="s">
         <v>132</v>
       </c>
       <c r="B163" s="37" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C163" s="37" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D163" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E163" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G163" t="s">
-        <v>325</v>
-      </c>
-      <c r="H163" s="80"/>
-      <c r="I163" s="80"/>
+        <v>324</v>
+      </c>
+      <c r="H163" s="60"/>
+      <c r="I163" s="60"/>
     </row>
     <row r="164" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A164" t="s">
         <v>133</v>
       </c>
       <c r="B164" s="37" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C164" s="37" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D164" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G164" t="s">
-        <v>325</v>
-      </c>
-      <c r="H164" s="80"/>
-      <c r="I164" s="80"/>
+        <v>324</v>
+      </c>
+      <c r="H164" s="60"/>
+      <c r="I164" s="60"/>
     </row>
     <row r="165" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A165" t="s">
         <v>136</v>
       </c>
       <c r="B165" s="37" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C165" s="37" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D165" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G165" t="s">
-        <v>325</v>
-      </c>
-      <c r="H165" s="80"/>
-      <c r="I165" s="80"/>
+        <v>324</v>
+      </c>
+      <c r="H165" s="60"/>
+      <c r="I165" s="60"/>
     </row>
     <row r="166" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A166" t="s">
         <v>137</v>
       </c>
       <c r="B166" s="37" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C166" s="37" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D166" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G166" t="s">
-        <v>325</v>
-      </c>
-      <c r="H166" s="80"/>
-      <c r="I166" s="80"/>
+        <v>324</v>
+      </c>
+      <c r="H166" s="60"/>
+      <c r="I166" s="60"/>
     </row>
     <row r="167" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B167" s="38"/>
@@ -14772,68 +14661,68 @@
         <v>56</v>
       </c>
       <c r="B168" s="37" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C168" s="37" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D168" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G168" t="s">
-        <v>325</v>
-      </c>
-      <c r="H168" s="81" t="s">
-        <v>541</v>
-      </c>
-      <c r="I168" s="81"/>
+        <v>324</v>
+      </c>
+      <c r="H168" s="61" t="s">
+        <v>540</v>
+      </c>
+      <c r="I168" s="61"/>
     </row>
     <row r="169" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A169" t="s">
         <v>57</v>
       </c>
       <c r="B169" s="37" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C169" s="37" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D169" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G169" t="s">
-        <v>325</v>
-      </c>
-      <c r="H169" s="81"/>
-      <c r="I169" s="81"/>
+        <v>324</v>
+      </c>
+      <c r="H169" s="61"/>
+      <c r="I169" s="61"/>
     </row>
     <row r="170" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A170" t="s">
         <v>58</v>
       </c>
       <c r="B170" s="37" t="s">
+        <v>538</v>
+      </c>
+      <c r="C170" s="37" t="s">
         <v>539</v>
       </c>
-      <c r="C170" s="37" t="s">
-        <v>540</v>
-      </c>
       <c r="D170" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G170" t="s">
-        <v>325</v>
-      </c>
-      <c r="H170" s="81"/>
-      <c r="I170" s="81"/>
+        <v>324</v>
+      </c>
+      <c r="H170" s="61"/>
+      <c r="I170" s="61"/>
     </row>
     <row r="171" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B171" s="38"/>
@@ -14844,178 +14733,178 @@
         <v>76</v>
       </c>
       <c r="B172" s="37" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C172" s="37" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D172" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E172" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G172" t="s">
-        <v>325</v>
-      </c>
-      <c r="H172" s="51" t="s">
-        <v>558</v>
-      </c>
-      <c r="I172" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="H172" s="57" t="s">
+        <v>557</v>
+      </c>
+      <c r="I172" s="57"/>
     </row>
     <row r="173" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A173" t="s">
         <v>77</v>
       </c>
       <c r="B173" s="37" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C173" s="37" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D173" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E173" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G173" t="s">
-        <v>325</v>
-      </c>
-      <c r="H173" s="51"/>
-      <c r="I173" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="H173" s="57"/>
+      <c r="I173" s="57"/>
     </row>
     <row r="174" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A174" t="s">
         <v>112</v>
       </c>
       <c r="B174" s="37" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C174" s="37" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D174" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E174" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G174" t="s">
-        <v>325</v>
-      </c>
-      <c r="H174" s="51"/>
-      <c r="I174" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="H174" s="57"/>
+      <c r="I174" s="57"/>
     </row>
     <row r="175" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A175" t="s">
         <v>80</v>
       </c>
       <c r="B175" s="37" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C175" s="37" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D175" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E175" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G175" t="s">
-        <v>325</v>
-      </c>
-      <c r="H175" s="51"/>
-      <c r="I175" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="H175" s="57"/>
+      <c r="I175" s="57"/>
     </row>
     <row r="176" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A176" t="s">
         <v>11</v>
       </c>
       <c r="B176" s="37" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C176" s="37" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D176" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E176" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G176" t="s">
-        <v>325</v>
-      </c>
-      <c r="H176" s="51"/>
-      <c r="I176" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="H176" s="57"/>
+      <c r="I176" s="57"/>
     </row>
     <row r="177" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A177" t="s">
         <v>18</v>
       </c>
       <c r="B177" s="37" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C177" s="37" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D177" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E177" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G177" t="s">
-        <v>325</v>
-      </c>
-      <c r="H177" s="51"/>
-      <c r="I177" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="H177" s="57"/>
+      <c r="I177" s="57"/>
     </row>
     <row r="178" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A178" t="s">
         <v>158</v>
       </c>
       <c r="B178" s="37" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C178" s="37" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D178" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E178" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G178" t="s">
-        <v>325</v>
-      </c>
-      <c r="H178" s="51"/>
-      <c r="I178" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="H178" s="57"/>
+      <c r="I178" s="57"/>
     </row>
     <row r="179" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A179" s="41" t="s">
         <v>159</v>
       </c>
       <c r="B179" s="37" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C179" s="37" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D179" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E179" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G179" t="s">
-        <v>325</v>
-      </c>
-      <c r="H179" s="51"/>
-      <c r="I179" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="H179" s="57"/>
+      <c r="I179" s="57"/>
     </row>
     <row r="180" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B180" s="38"/>
@@ -15026,134 +14915,134 @@
         <v>176</v>
       </c>
       <c r="B181" s="37" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C181" s="37" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D181" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E181" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G181" t="s">
-        <v>325</v>
-      </c>
-      <c r="H181" s="82" t="s">
-        <v>566</v>
-      </c>
-      <c r="I181" s="83"/>
+        <v>324</v>
+      </c>
+      <c r="H181" s="62" t="s">
+        <v>565</v>
+      </c>
+      <c r="I181" s="63"/>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="s">
         <v>177</v>
       </c>
       <c r="B182" s="37" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C182" s="37" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D182" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E182" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G182" t="s">
-        <v>325</v>
-      </c>
-      <c r="H182" s="84"/>
-      <c r="I182" s="85"/>
+        <v>324</v>
+      </c>
+      <c r="H182" s="64"/>
+      <c r="I182" s="65"/>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="s">
         <v>178</v>
       </c>
       <c r="B183" s="37" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C183" s="37" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D183" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E183" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G183" t="s">
-        <v>325</v>
-      </c>
-      <c r="H183" s="84"/>
-      <c r="I183" s="85"/>
+        <v>324</v>
+      </c>
+      <c r="H183" s="64"/>
+      <c r="I183" s="65"/>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" t="s">
         <v>169</v>
       </c>
       <c r="B184" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C184" s="37" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D184" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E184" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G184" t="s">
-        <v>325</v>
-      </c>
-      <c r="H184" s="84"/>
-      <c r="I184" s="85"/>
+        <v>324</v>
+      </c>
+      <c r="H184" s="64"/>
+      <c r="I184" s="65"/>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" t="s">
         <v>168</v>
       </c>
       <c r="B185" s="37" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C185" s="37" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D185" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E185" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G185" t="s">
-        <v>325</v>
-      </c>
-      <c r="H185" s="84"/>
-      <c r="I185" s="85"/>
+        <v>324</v>
+      </c>
+      <c r="H185" s="64"/>
+      <c r="I185" s="65"/>
     </row>
     <row r="186" spans="1:9" ht="15" thickBot="1">
       <c r="A186" t="s">
         <v>167</v>
       </c>
       <c r="B186" s="37" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C186" s="37" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D186" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E186" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G186" t="s">
-        <v>325</v>
-      </c>
-      <c r="H186" s="86"/>
-      <c r="I186" s="87"/>
+        <v>324</v>
+      </c>
+      <c r="H186" s="66"/>
+      <c r="I186" s="67"/>
     </row>
     <row r="187" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B187" s="38"/>
@@ -15161,159 +15050,159 @@
     </row>
     <row r="188" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A188" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B188" s="37" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C188" s="37" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D188" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E188" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G188" t="s">
-        <v>325</v>
-      </c>
-      <c r="H188" s="48" t="s">
-        <v>581</v>
-      </c>
-      <c r="I188" s="48"/>
+        <v>324</v>
+      </c>
+      <c r="H188" s="59" t="s">
+        <v>580</v>
+      </c>
+      <c r="I188" s="59"/>
     </row>
     <row r="189" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A189" t="s">
         <v>67</v>
       </c>
       <c r="B189" s="37" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C189" s="37" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D189" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E189" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G189" t="s">
-        <v>325</v>
-      </c>
-      <c r="H189" s="48"/>
-      <c r="I189" s="48"/>
+        <v>324</v>
+      </c>
+      <c r="H189" s="59"/>
+      <c r="I189" s="59"/>
     </row>
     <row r="190" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A190" t="s">
         <v>173</v>
       </c>
       <c r="B190" s="37" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C190" s="37" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D190" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E190" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G190" t="s">
-        <v>325</v>
-      </c>
-      <c r="H190" s="48"/>
-      <c r="I190" s="48"/>
+        <v>324</v>
+      </c>
+      <c r="H190" s="59"/>
+      <c r="I190" s="59"/>
     </row>
     <row r="191" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A191" t="s">
         <v>68</v>
       </c>
       <c r="B191" s="37" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C191" s="37" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D191" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E191" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G191" t="s">
-        <v>325</v>
-      </c>
-      <c r="H191" s="48"/>
-      <c r="I191" s="48"/>
+        <v>324</v>
+      </c>
+      <c r="H191" s="59"/>
+      <c r="I191" s="59"/>
     </row>
     <row r="192" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A192" t="s">
         <v>172</v>
       </c>
       <c r="B192" s="37" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C192" s="37" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D192" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E192" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G192" t="s">
-        <v>325</v>
-      </c>
-      <c r="H192" s="48"/>
-      <c r="I192" s="48"/>
+        <v>324</v>
+      </c>
+      <c r="H192" s="59"/>
+      <c r="I192" s="59"/>
     </row>
     <row r="193" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A193" t="s">
         <v>171</v>
       </c>
       <c r="B193" s="37" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C193" s="37" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D193" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E193" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G193" t="s">
-        <v>325</v>
-      </c>
-      <c r="H193" s="48"/>
-      <c r="I193" s="48"/>
+        <v>324</v>
+      </c>
+      <c r="H193" s="59"/>
+      <c r="I193" s="59"/>
     </row>
     <row r="194" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A194" t="s">
         <v>117</v>
       </c>
       <c r="B194" s="37" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C194" s="37" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D194" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E194" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G194" t="s">
-        <v>325</v>
-      </c>
-      <c r="H194" s="48"/>
-      <c r="I194" s="48"/>
+        <v>324</v>
+      </c>
+      <c r="H194" s="59"/>
+      <c r="I194" s="59"/>
     </row>
     <row r="195" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B195" s="38"/>
@@ -15324,90 +15213,90 @@
         <v>179</v>
       </c>
       <c r="B196" s="37" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C196" s="37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D196" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E196" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G196" t="s">
-        <v>325</v>
-      </c>
-      <c r="H196" s="49" t="s">
-        <v>588</v>
-      </c>
-      <c r="I196" s="49"/>
+        <v>324</v>
+      </c>
+      <c r="H196" s="97" t="s">
+        <v>587</v>
+      </c>
+      <c r="I196" s="97"/>
     </row>
     <row r="197" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A197" t="s">
         <v>190</v>
       </c>
       <c r="B197" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C197" s="37" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D197" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E197" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G197" t="s">
-        <v>325</v>
-      </c>
-      <c r="H197" s="49"/>
-      <c r="I197" s="49"/>
+        <v>324</v>
+      </c>
+      <c r="H197" s="97"/>
+      <c r="I197" s="97"/>
     </row>
     <row r="198" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A198" t="s">
         <v>191</v>
       </c>
       <c r="B198" s="37" t="s">
+        <v>583</v>
+      </c>
+      <c r="C198" s="37" t="s">
         <v>584</v>
       </c>
-      <c r="C198" s="37" t="s">
-        <v>585</v>
-      </c>
       <c r="D198" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E198" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G198" t="s">
-        <v>325</v>
-      </c>
-      <c r="H198" s="49"/>
-      <c r="I198" s="49"/>
+        <v>324</v>
+      </c>
+      <c r="H198" s="97"/>
+      <c r="I198" s="97"/>
     </row>
     <row r="199" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A199" t="s">
         <v>192</v>
       </c>
       <c r="B199" s="37" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C199" s="37" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D199" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E199" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G199" t="s">
-        <v>325</v>
-      </c>
-      <c r="H199" s="49"/>
-      <c r="I199" s="49"/>
+        <v>324</v>
+      </c>
+      <c r="H199" s="97"/>
+      <c r="I199" s="97"/>
     </row>
     <row r="200" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B200" s="38"/>
@@ -15418,134 +15307,134 @@
         <v>187</v>
       </c>
       <c r="B201" s="37" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C201" s="37" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D201" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E201" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G201" t="s">
-        <v>325</v>
-      </c>
-      <c r="H201" s="50" t="s">
-        <v>597</v>
-      </c>
-      <c r="I201" s="50"/>
+        <v>324</v>
+      </c>
+      <c r="H201" s="68" t="s">
+        <v>596</v>
+      </c>
+      <c r="I201" s="68"/>
     </row>
     <row r="202" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A202" t="s">
         <v>150</v>
       </c>
       <c r="B202" s="37" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C202" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D202" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E202" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G202" t="s">
-        <v>325</v>
-      </c>
-      <c r="H202" s="50"/>
-      <c r="I202" s="50"/>
+        <v>324</v>
+      </c>
+      <c r="H202" s="68"/>
+      <c r="I202" s="68"/>
     </row>
     <row r="203" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A203" t="s">
         <v>151</v>
       </c>
       <c r="B203" s="37" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C203" s="37" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D203" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E203" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G203" t="s">
-        <v>325</v>
-      </c>
-      <c r="H203" s="50"/>
-      <c r="I203" s="50"/>
+        <v>324</v>
+      </c>
+      <c r="H203" s="68"/>
+      <c r="I203" s="68"/>
     </row>
     <row r="204" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A204" t="s">
         <v>153</v>
       </c>
       <c r="B204" s="37" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C204" s="37" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D204" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E204" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G204" t="s">
-        <v>325</v>
-      </c>
-      <c r="H204" s="50"/>
-      <c r="I204" s="50"/>
+        <v>324</v>
+      </c>
+      <c r="H204" s="68"/>
+      <c r="I204" s="68"/>
     </row>
     <row r="205" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A205" t="s">
         <v>156</v>
       </c>
       <c r="B205" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="C205" s="37" t="s">
         <v>593</v>
       </c>
-      <c r="C205" s="37" t="s">
-        <v>594</v>
-      </c>
       <c r="D205" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E205" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G205" t="s">
-        <v>325</v>
-      </c>
-      <c r="H205" s="50"/>
-      <c r="I205" s="50"/>
+        <v>324</v>
+      </c>
+      <c r="H205" s="68"/>
+      <c r="I205" s="68"/>
     </row>
     <row r="206" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A206" t="s">
         <v>157</v>
       </c>
       <c r="B206" s="37" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C206" s="37" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D206" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E206" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G206" t="s">
-        <v>325</v>
-      </c>
-      <c r="H206" s="50"/>
-      <c r="I206" s="50"/>
+        <v>324</v>
+      </c>
+      <c r="H206" s="68"/>
+      <c r="I206" s="68"/>
     </row>
     <row r="207" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B207" s="38"/>
@@ -15553,115 +15442,115 @@
     </row>
     <row r="208" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A208" t="s">
+        <v>608</v>
+      </c>
+      <c r="B208" s="37" t="s">
+        <v>610</v>
+      </c>
+      <c r="C208" s="37" t="s">
         <v>609</v>
       </c>
-      <c r="B208" s="37" t="s">
-        <v>611</v>
-      </c>
-      <c r="C208" s="37" t="s">
-        <v>610</v>
-      </c>
       <c r="D208" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E208" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G208" t="s">
-        <v>325</v>
-      </c>
-      <c r="H208" s="51" t="s">
-        <v>620</v>
-      </c>
-      <c r="I208" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="H208" s="57" t="s">
+        <v>619</v>
+      </c>
+      <c r="I208" s="57"/>
     </row>
     <row r="209" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A209" t="s">
         <v>3</v>
       </c>
       <c r="B209" s="37" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C209" s="37" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D209" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E209" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G209" t="s">
-        <v>325</v>
-      </c>
-      <c r="H209" s="51"/>
-      <c r="I209" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="H209" s="57"/>
+      <c r="I209" s="57"/>
     </row>
     <row r="210" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A210" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B210" s="37" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C210" s="37" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D210" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E210" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G210" t="s">
-        <v>325</v>
-      </c>
-      <c r="H210" s="51"/>
-      <c r="I210" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="H210" s="57"/>
+      <c r="I210" s="57"/>
     </row>
     <row r="211" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A211" t="s">
         <v>79</v>
       </c>
       <c r="B211" s="37" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C211" s="37" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D211" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E211" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G211" t="s">
-        <v>325</v>
-      </c>
-      <c r="H211" s="51"/>
-      <c r="I211" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="H211" s="57"/>
+      <c r="I211" s="57"/>
     </row>
     <row r="212" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A212" t="s">
         <v>4</v>
       </c>
       <c r="B212" s="37" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C212" s="37" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D212" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E212" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G212" t="s">
-        <v>325</v>
-      </c>
-      <c r="H212" s="51"/>
-      <c r="I212" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="H212" s="57"/>
+      <c r="I212" s="57"/>
     </row>
     <row r="213" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B213" s="38"/>
@@ -15672,222 +15561,222 @@
         <v>118</v>
       </c>
       <c r="B214" s="37" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C214" s="37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D214" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E214" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G214" t="s">
-        <v>325</v>
-      </c>
-      <c r="H214" s="52" t="s">
-        <v>637</v>
-      </c>
-      <c r="I214" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H214" s="69" t="s">
+        <v>636</v>
+      </c>
+      <c r="I214" s="69"/>
     </row>
     <row r="215" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A215" t="s">
         <v>21</v>
       </c>
       <c r="B215" s="37" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C215" s="37" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D215" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E215" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G215" t="s">
-        <v>325</v>
-      </c>
-      <c r="H215" s="52"/>
-      <c r="I215" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H215" s="69"/>
+      <c r="I215" s="69"/>
     </row>
     <row r="216" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A216" t="s">
         <v>130</v>
       </c>
       <c r="B216" s="37" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C216" s="37" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D216" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E216" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G216" t="s">
-        <v>325</v>
-      </c>
-      <c r="H216" s="52"/>
-      <c r="I216" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H216" s="69"/>
+      <c r="I216" s="69"/>
     </row>
     <row r="217" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A217" t="s">
         <v>119</v>
       </c>
       <c r="B217" s="37" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C217" s="37" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D217" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E217" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G217" t="s">
-        <v>325</v>
-      </c>
-      <c r="H217" s="52"/>
-      <c r="I217" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H217" s="69"/>
+      <c r="I217" s="69"/>
     </row>
     <row r="218" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A218" t="s">
         <v>29</v>
       </c>
       <c r="B218" s="37" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C218" s="37" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D218" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E218" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G218" t="s">
-        <v>325</v>
-      </c>
-      <c r="H218" s="52"/>
-      <c r="I218" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H218" s="69"/>
+      <c r="I218" s="69"/>
     </row>
     <row r="219" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A219" t="s">
+        <v>625</v>
+      </c>
+      <c r="B219" s="37" t="s">
+        <v>627</v>
+      </c>
+      <c r="C219" s="37" t="s">
         <v>626</v>
       </c>
-      <c r="B219" s="37" t="s">
-        <v>628</v>
-      </c>
-      <c r="C219" s="37" t="s">
-        <v>627</v>
-      </c>
       <c r="D219" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E219" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G219" t="s">
-        <v>325</v>
-      </c>
-      <c r="H219" s="52"/>
-      <c r="I219" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H219" s="69"/>
+      <c r="I219" s="69"/>
     </row>
     <row r="220" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A220" t="s">
         <v>37</v>
       </c>
       <c r="B220" s="37" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C220" s="37" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D220" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E220" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G220" t="s">
-        <v>325</v>
-      </c>
-      <c r="H220" s="52"/>
-      <c r="I220" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H220" s="69"/>
+      <c r="I220" s="69"/>
     </row>
     <row r="221" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A221" t="s">
         <v>85</v>
       </c>
       <c r="B221" s="37" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C221" s="37" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D221" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E221" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G221" t="s">
-        <v>325</v>
-      </c>
-      <c r="H221" s="52"/>
-      <c r="I221" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H221" s="69"/>
+      <c r="I221" s="69"/>
     </row>
     <row r="222" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A222" t="s">
         <v>44</v>
       </c>
       <c r="B222" s="37" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C222" s="37" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D222" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E222" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G222" t="s">
-        <v>325</v>
-      </c>
-      <c r="H222" s="52"/>
-      <c r="I222" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H222" s="69"/>
+      <c r="I222" s="69"/>
     </row>
     <row r="223" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A223" t="s">
         <v>186</v>
       </c>
       <c r="B223" s="37" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C223" s="37" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D223" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E223" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G223" t="s">
-        <v>325</v>
-      </c>
-      <c r="H223" s="52"/>
-      <c r="I223" s="52"/>
+        <v>324</v>
+      </c>
+      <c r="H223" s="69"/>
+      <c r="I223" s="69"/>
     </row>
     <row r="224" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B224" s="38"/>
@@ -15898,387 +15787,809 @@
         <v>202</v>
       </c>
       <c r="B225" s="37" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C225" s="37" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D225" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E225" t="s">
-        <v>325</v>
-      </c>
-      <c r="H225" s="51" t="s">
-        <v>648</v>
-      </c>
-      <c r="I225" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="G225" t="s">
+        <v>324</v>
+      </c>
+      <c r="H225" s="57" t="s">
+        <v>647</v>
+      </c>
+      <c r="I225" s="57"/>
     </row>
     <row r="226" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A226" t="s">
         <v>203</v>
       </c>
       <c r="B226" s="37" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C226" s="37" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D226" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E226" t="s">
-        <v>325</v>
-      </c>
-      <c r="H226" s="51"/>
-      <c r="I226" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="G226" t="s">
+        <v>324</v>
+      </c>
+      <c r="H226" s="57"/>
+      <c r="I226" s="57"/>
     </row>
     <row r="227" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A227" t="s">
         <v>129</v>
       </c>
       <c r="B227" s="37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C227" s="37" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D227" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E227" t="s">
-        <v>325</v>
-      </c>
-      <c r="H227" s="51"/>
-      <c r="I227" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="G227" t="s">
+        <v>324</v>
+      </c>
+      <c r="H227" s="57"/>
+      <c r="I227" s="57"/>
     </row>
     <row r="228" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A228" t="s">
         <v>123</v>
       </c>
       <c r="B228" s="37" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C228" s="37" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D228" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E228" t="s">
-        <v>325</v>
-      </c>
-      <c r="H228" s="51"/>
-      <c r="I228" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="G228" t="s">
+        <v>324</v>
+      </c>
+      <c r="H228" s="57"/>
+      <c r="I228" s="57"/>
     </row>
     <row r="229" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A229" t="s">
         <v>207</v>
       </c>
       <c r="B229" s="37" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C229" s="37" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D229" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E229" t="s">
-        <v>325</v>
-      </c>
-      <c r="H229" s="51"/>
-      <c r="I229" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="G229" t="s">
+        <v>324</v>
+      </c>
+      <c r="H229" s="57"/>
+      <c r="I229" s="57"/>
     </row>
     <row r="230" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A230" t="s">
         <v>204</v>
       </c>
       <c r="B230" s="37" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C230" s="37" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D230" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E230" t="s">
-        <v>325</v>
-      </c>
-      <c r="H230" s="51"/>
-      <c r="I230" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="G230" t="s">
+        <v>324</v>
+      </c>
+      <c r="H230" s="57"/>
+      <c r="I230" s="57"/>
     </row>
     <row r="231" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A231" t="s">
         <v>205</v>
       </c>
       <c r="B231" s="37" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C231" s="37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D231" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E231" t="s">
-        <v>325</v>
-      </c>
-      <c r="H231" s="51"/>
-      <c r="I231" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="G231" t="s">
+        <v>324</v>
+      </c>
+      <c r="H231" s="57"/>
+      <c r="I231" s="57"/>
     </row>
     <row r="232" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A232" t="s">
         <v>152</v>
       </c>
       <c r="B232" s="37" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C232" s="37" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D232" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E232" t="s">
-        <v>325</v>
-      </c>
-      <c r="H232" s="51"/>
-      <c r="I232" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="G232" t="s">
+        <v>324</v>
+      </c>
+      <c r="H232" s="57"/>
+      <c r="I232" s="57"/>
     </row>
     <row r="233" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A233" t="s">
         <v>121</v>
       </c>
       <c r="B233" s="37" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C233" s="37" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D233" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E233" t="s">
-        <v>325</v>
-      </c>
-      <c r="H233" s="51"/>
-      <c r="I233" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="G233" t="s">
+        <v>324</v>
+      </c>
+      <c r="H233" s="57"/>
+      <c r="I233" s="57"/>
     </row>
     <row r="234" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A234" t="s">
         <v>208</v>
       </c>
       <c r="B234" s="37" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C234" s="37" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D234" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E234" t="s">
-        <v>325</v>
-      </c>
-      <c r="H234" s="51"/>
-      <c r="I234" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="G234" t="s">
+        <v>324</v>
+      </c>
+      <c r="H234" s="57"/>
+      <c r="I234" s="57"/>
     </row>
     <row r="235" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A235" t="s">
         <v>122</v>
       </c>
       <c r="B235" s="37" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C235" s="37" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D235" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E235" t="s">
-        <v>325</v>
-      </c>
-      <c r="H235" s="51"/>
-      <c r="I235" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="G235" t="s">
+        <v>324</v>
+      </c>
+      <c r="H235" s="57"/>
+      <c r="I235" s="57"/>
     </row>
     <row r="236" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A236" t="s">
         <v>206</v>
       </c>
       <c r="B236" s="37" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C236" s="37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D236" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E236" t="s">
-        <v>325</v>
-      </c>
-      <c r="H236" s="51"/>
-      <c r="I236" s="51"/>
+        <v>324</v>
+      </c>
+      <c r="G236" t="s">
+        <v>324</v>
+      </c>
+      <c r="H236" s="57"/>
+      <c r="I236" s="57"/>
     </row>
     <row r="237" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A237" t="s">
         <v>128</v>
       </c>
       <c r="B237" s="37" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C237" s="37" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D237" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E237" t="s">
-        <v>325</v>
-      </c>
-      <c r="H237" s="51"/>
-      <c r="I237" s="51"/>
-    </row>
-    <row r="238" spans="1:9" s="24" customFormat="1" ht="15" thickTop="1">
+        <v>324</v>
+      </c>
+      <c r="G237" t="s">
+        <v>324</v>
+      </c>
+      <c r="H237" s="57"/>
+      <c r="I237" s="57"/>
+    </row>
+    <row r="238" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B238" s="38"/>
       <c r="C238" s="38"/>
     </row>
-    <row r="239" spans="1:9">
-      <c r="B239" s="37"/>
-      <c r="C239" s="37"/>
+    <row r="239" spans="1:9" ht="15" thickTop="1">
+      <c r="A239" t="s">
+        <v>231</v>
+      </c>
+      <c r="B239" s="37" t="s">
+        <v>656</v>
+      </c>
+      <c r="C239" s="37" t="s">
+        <v>655</v>
+      </c>
+      <c r="D239" t="s">
+        <v>324</v>
+      </c>
+      <c r="E239" t="s">
+        <v>324</v>
+      </c>
+      <c r="H239" s="51" t="s">
+        <v>672</v>
+      </c>
+      <c r="I239" s="52"/>
     </row>
     <row r="240" spans="1:9">
-      <c r="B240" s="37"/>
-      <c r="C240" s="37"/>
-    </row>
-    <row r="241" spans="2:3">
-      <c r="B241" s="37"/>
-      <c r="C241" s="37"/>
-    </row>
-    <row r="242" spans="2:3">
-      <c r="B242" s="37"/>
-      <c r="C242" s="37"/>
-    </row>
-    <row r="243" spans="2:3">
-      <c r="B243" s="37"/>
-      <c r="C243" s="37"/>
-    </row>
-    <row r="244" spans="2:3">
-      <c r="B244" s="37"/>
-      <c r="C244" s="37"/>
-    </row>
-    <row r="245" spans="2:3">
-      <c r="B245" s="37"/>
-      <c r="C245" s="37"/>
-    </row>
-    <row r="246" spans="2:3">
-      <c r="B246" s="37"/>
-      <c r="C246" s="37"/>
-    </row>
-    <row r="247" spans="2:3">
-      <c r="B247" s="37"/>
-      <c r="C247" s="37"/>
-    </row>
-    <row r="248" spans="2:3">
-      <c r="B248" s="37"/>
-      <c r="C248" s="37"/>
-    </row>
-    <row r="249" spans="2:3">
-      <c r="B249" s="37"/>
-      <c r="C249" s="37"/>
-    </row>
-    <row r="250" spans="2:3">
-      <c r="B250" s="37"/>
-      <c r="C250" s="37"/>
-    </row>
-    <row r="251" spans="2:3">
-      <c r="B251" s="37"/>
-      <c r="C251" s="37"/>
-    </row>
-    <row r="252" spans="2:3">
-      <c r="B252" s="37"/>
-      <c r="C252" s="37"/>
-    </row>
-    <row r="253" spans="2:3">
-      <c r="B253" s="37"/>
-      <c r="C253" s="37"/>
-    </row>
-    <row r="254" spans="2:3">
-      <c r="B254" s="37"/>
-      <c r="C254" s="37"/>
-    </row>
-    <row r="255" spans="2:3">
-      <c r="B255" s="37"/>
-      <c r="C255" s="37"/>
-    </row>
-    <row r="256" spans="2:3">
-      <c r="B256" s="37"/>
-      <c r="C256" s="37"/>
-    </row>
-    <row r="257" spans="2:3">
-      <c r="B257" s="37"/>
-      <c r="C257" s="37"/>
-    </row>
-    <row r="258" spans="2:3">
-      <c r="B258" s="37"/>
-      <c r="C258" s="37"/>
-    </row>
-    <row r="259" spans="2:3">
-      <c r="B259" s="37"/>
-      <c r="C259" s="37"/>
-    </row>
-    <row r="260" spans="2:3">
-      <c r="B260" s="37"/>
-      <c r="C260" s="37"/>
-    </row>
-    <row r="261" spans="2:3">
-      <c r="B261" s="37"/>
-      <c r="C261" s="37"/>
-    </row>
-    <row r="262" spans="2:3">
-      <c r="B262" s="37"/>
-      <c r="C262" s="37"/>
-    </row>
-    <row r="263" spans="2:3">
-      <c r="B263" s="37"/>
-      <c r="C263" s="37"/>
-    </row>
-    <row r="264" spans="2:3">
-      <c r="B264" s="37"/>
-      <c r="C264" s="37"/>
-    </row>
-    <row r="265" spans="2:3">
-      <c r="B265" s="37"/>
-      <c r="C265" s="37"/>
-    </row>
-    <row r="266" spans="2:3">
-      <c r="B266" s="37"/>
-      <c r="C266" s="37"/>
-    </row>
-    <row r="267" spans="2:3">
-      <c r="B267" s="37"/>
-      <c r="C267" s="37"/>
-    </row>
-    <row r="268" spans="2:3">
+      <c r="A240" t="s">
+        <v>230</v>
+      </c>
+      <c r="B240" s="37" t="s">
+        <v>648</v>
+      </c>
+      <c r="C240" s="37" t="s">
+        <v>552</v>
+      </c>
+      <c r="D240" t="s">
+        <v>324</v>
+      </c>
+      <c r="E240" t="s">
+        <v>324</v>
+      </c>
+      <c r="H240" s="53"/>
+      <c r="I240" s="54"/>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" t="s">
+        <v>229</v>
+      </c>
+      <c r="B241" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="C241" s="37" t="s">
+        <v>385</v>
+      </c>
+      <c r="D241" t="s">
+        <v>324</v>
+      </c>
+      <c r="E241" t="s">
+        <v>324</v>
+      </c>
+      <c r="H241" s="53"/>
+      <c r="I241" s="54"/>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242" t="s">
+        <v>225</v>
+      </c>
+      <c r="B242" s="37" t="s">
+        <v>650</v>
+      </c>
+      <c r="C242" s="37" t="s">
+        <v>387</v>
+      </c>
+      <c r="D242" t="s">
+        <v>324</v>
+      </c>
+      <c r="E242" t="s">
+        <v>324</v>
+      </c>
+      <c r="H242" s="53"/>
+      <c r="I242" s="54"/>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" t="s">
+        <v>216</v>
+      </c>
+      <c r="B243" s="37" t="s">
+        <v>652</v>
+      </c>
+      <c r="C243" s="37" t="s">
+        <v>621</v>
+      </c>
+      <c r="D243" t="s">
+        <v>324</v>
+      </c>
+      <c r="E243" t="s">
+        <v>324</v>
+      </c>
+      <c r="H243" s="53"/>
+      <c r="I243" s="54"/>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244" t="s">
+        <v>224</v>
+      </c>
+      <c r="B244" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="C244" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="D244" t="s">
+        <v>324</v>
+      </c>
+      <c r="E244" t="s">
+        <v>324</v>
+      </c>
+      <c r="H244" s="53"/>
+      <c r="I244" s="54"/>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245" t="s">
+        <v>232</v>
+      </c>
+      <c r="B245" s="37" t="s">
+        <v>654</v>
+      </c>
+      <c r="C245" s="37" t="s">
+        <v>653</v>
+      </c>
+      <c r="D245" t="s">
+        <v>324</v>
+      </c>
+      <c r="E245" t="s">
+        <v>324</v>
+      </c>
+      <c r="H245" s="53"/>
+      <c r="I245" s="54"/>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246" t="s">
+        <v>218</v>
+      </c>
+      <c r="B246" s="37" t="s">
+        <v>658</v>
+      </c>
+      <c r="C246" s="37" t="s">
+        <v>657</v>
+      </c>
+      <c r="D246" t="s">
+        <v>324</v>
+      </c>
+      <c r="E246" t="s">
+        <v>324</v>
+      </c>
+      <c r="H246" s="53"/>
+      <c r="I246" s="54"/>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247" t="s">
+        <v>213</v>
+      </c>
+      <c r="B247" s="37" t="s">
+        <v>659</v>
+      </c>
+      <c r="C247" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="D247" t="s">
+        <v>324</v>
+      </c>
+      <c r="E247" t="s">
+        <v>324</v>
+      </c>
+      <c r="H247" s="53"/>
+      <c r="I247" s="54"/>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" t="s">
+        <v>214</v>
+      </c>
+      <c r="B248" s="37" t="s">
+        <v>660</v>
+      </c>
+      <c r="C248" s="37" t="s">
+        <v>624</v>
+      </c>
+      <c r="D248" t="s">
+        <v>324</v>
+      </c>
+      <c r="E248" t="s">
+        <v>324</v>
+      </c>
+      <c r="H248" s="53"/>
+      <c r="I248" s="54"/>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" t="s">
+        <v>223</v>
+      </c>
+      <c r="B249" s="37" t="s">
+        <v>662</v>
+      </c>
+      <c r="C249" s="37" t="s">
+        <v>661</v>
+      </c>
+      <c r="D249" t="s">
+        <v>324</v>
+      </c>
+      <c r="E249" t="s">
+        <v>324</v>
+      </c>
+      <c r="H249" s="53"/>
+      <c r="I249" s="54"/>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250" t="s">
+        <v>217</v>
+      </c>
+      <c r="B250" s="37" t="s">
+        <v>663</v>
+      </c>
+      <c r="C250" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="D250" t="s">
+        <v>324</v>
+      </c>
+      <c r="E250" t="s">
+        <v>324</v>
+      </c>
+      <c r="H250" s="53"/>
+      <c r="I250" s="54"/>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" t="s">
+        <v>215</v>
+      </c>
+      <c r="B251" s="37" t="s">
+        <v>664</v>
+      </c>
+      <c r="C251" s="37" t="s">
+        <v>629</v>
+      </c>
+      <c r="D251" t="s">
+        <v>324</v>
+      </c>
+      <c r="E251" t="s">
+        <v>324</v>
+      </c>
+      <c r="H251" s="53"/>
+      <c r="I251" s="54"/>
+    </row>
+    <row r="252" spans="1:9" ht="15" thickBot="1">
+      <c r="A252" t="s">
+        <v>212</v>
+      </c>
+      <c r="B252" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="C252" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="D252" t="s">
+        <v>324</v>
+      </c>
+      <c r="E252" t="s">
+        <v>324</v>
+      </c>
+      <c r="H252" s="55"/>
+      <c r="I252" s="56"/>
+    </row>
+    <row r="253" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B253" s="38"/>
+      <c r="C253" s="38"/>
+    </row>
+    <row r="254" spans="1:9" ht="15" thickTop="1">
+      <c r="A254" t="s">
+        <v>689</v>
+      </c>
+      <c r="B254" s="37" t="s">
+        <v>665</v>
+      </c>
+      <c r="C254" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="D254" t="s">
+        <v>324</v>
+      </c>
+      <c r="E254" t="s">
+        <v>324</v>
+      </c>
+      <c r="H254" s="51" t="s">
+        <v>673</v>
+      </c>
+      <c r="I254" s="52"/>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" t="s">
+        <v>688</v>
+      </c>
+      <c r="B255" s="37" t="s">
+        <v>666</v>
+      </c>
+      <c r="C255" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="D255" t="s">
+        <v>324</v>
+      </c>
+      <c r="E255" t="s">
+        <v>324</v>
+      </c>
+      <c r="H255" s="53"/>
+      <c r="I255" s="54"/>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" t="s">
+        <v>686</v>
+      </c>
+      <c r="B256" s="37" t="s">
+        <v>669</v>
+      </c>
+      <c r="C256" s="37" t="s">
+        <v>667</v>
+      </c>
+      <c r="D256" t="s">
+        <v>324</v>
+      </c>
+      <c r="E256" t="s">
+        <v>324</v>
+      </c>
+      <c r="H256" s="53"/>
+      <c r="I256" s="54"/>
+    </row>
+    <row r="257" spans="1:9" ht="15" thickBot="1">
+      <c r="A257" t="s">
+        <v>687</v>
+      </c>
+      <c r="B257" s="37" t="s">
+        <v>670</v>
+      </c>
+      <c r="C257" s="37" t="s">
+        <v>668</v>
+      </c>
+      <c r="D257" t="s">
+        <v>324</v>
+      </c>
+      <c r="E257" t="s">
+        <v>324</v>
+      </c>
+      <c r="H257" s="55"/>
+      <c r="I257" s="56"/>
+    </row>
+    <row r="258" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B258" s="38"/>
+      <c r="C258" s="38"/>
+    </row>
+    <row r="259" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A259" t="s">
+        <v>690</v>
+      </c>
+      <c r="B259" s="37" t="s">
+        <v>671</v>
+      </c>
+      <c r="C259" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="D259" t="s">
+        <v>324</v>
+      </c>
+      <c r="E259" t="s">
+        <v>324</v>
+      </c>
+      <c r="H259" s="58" t="s">
+        <v>674</v>
+      </c>
+      <c r="I259" s="58"/>
+    </row>
+    <row r="260" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B260" s="38"/>
+      <c r="C260" s="38"/>
+    </row>
+    <row r="261" spans="1:9" ht="15" thickTop="1">
+      <c r="A261" t="s">
+        <v>693</v>
+      </c>
+      <c r="B261" s="37" t="s">
+        <v>681</v>
+      </c>
+      <c r="C261" s="37" t="s">
+        <v>675</v>
+      </c>
+      <c r="D261" t="s">
+        <v>324</v>
+      </c>
+      <c r="E261" s="48" t="s">
+        <v>324</v>
+      </c>
+      <c r="H261" s="51" t="s">
+        <v>685</v>
+      </c>
+      <c r="I261" s="52"/>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262" s="50" t="s">
+        <v>692</v>
+      </c>
+      <c r="B262" s="37" t="s">
+        <v>400</v>
+      </c>
+      <c r="C262" s="37" t="s">
+        <v>676</v>
+      </c>
+      <c r="D262" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="E262" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="H262" s="53"/>
+      <c r="I262" s="54"/>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263" t="s">
+        <v>694</v>
+      </c>
+      <c r="B263" s="37" t="s">
+        <v>682</v>
+      </c>
+      <c r="C263" s="37" t="s">
+        <v>677</v>
+      </c>
+      <c r="D263" t="s">
+        <v>324</v>
+      </c>
+      <c r="E263" s="48" t="s">
+        <v>324</v>
+      </c>
+      <c r="H263" s="53"/>
+      <c r="I263" s="54"/>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264" t="s">
+        <v>691</v>
+      </c>
+      <c r="B264" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="C264" s="37" t="s">
+        <v>678</v>
+      </c>
+      <c r="D264" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="E264" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="H264" s="53"/>
+      <c r="I264" s="54"/>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="A265" t="s">
+        <v>695</v>
+      </c>
+      <c r="B265" s="37" t="s">
+        <v>683</v>
+      </c>
+      <c r="C265" s="37" t="s">
+        <v>679</v>
+      </c>
+      <c r="D265" t="s">
+        <v>324</v>
+      </c>
+      <c r="E265" s="48" t="s">
+        <v>324</v>
+      </c>
+      <c r="H265" s="53"/>
+      <c r="I265" s="54"/>
+    </row>
+    <row r="266" spans="1:9" ht="15" thickBot="1">
+      <c r="A266" t="s">
+        <v>696</v>
+      </c>
+      <c r="B266" s="37" t="s">
+        <v>684</v>
+      </c>
+      <c r="C266" s="37" t="s">
+        <v>680</v>
+      </c>
+      <c r="D266" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="E266" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="H266" s="55"/>
+      <c r="I266" s="56"/>
+    </row>
+    <row r="267" spans="1:9" s="24" customFormat="1" ht="15" thickTop="1">
+      <c r="B267" s="38"/>
+      <c r="C267" s="38"/>
+    </row>
+    <row r="268" spans="1:9">
       <c r="B268" s="37"/>
       <c r="C268" s="37"/>
     </row>
-    <row r="269" spans="2:3">
+    <row r="269" spans="1:9">
       <c r="B269" s="37"/>
       <c r="C269" s="37"/>
     </row>
-    <row r="270" spans="2:3">
+    <row r="270" spans="1:9">
       <c r="B270" s="37"/>
       <c r="C270" s="37"/>
     </row>
-    <row r="271" spans="2:3">
+    <row r="271" spans="1:9">
       <c r="B271" s="37"/>
       <c r="C271" s="37"/>
     </row>
-    <row r="272" spans="2:3">
+    <row r="272" spans="1:9">
       <c r="B272" s="37"/>
       <c r="C272" s="37"/>
     </row>
@@ -17246,13 +17557,12 @@
       <c r="C513" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="H225:I237"/>
-    <mergeCell ref="H149:I158"/>
-    <mergeCell ref="H160:I166"/>
-    <mergeCell ref="H168:I170"/>
-    <mergeCell ref="H172:I179"/>
-    <mergeCell ref="H181:I186"/>
+  <mergeCells count="30">
+    <mergeCell ref="H188:I194"/>
+    <mergeCell ref="H196:I199"/>
+    <mergeCell ref="H201:I206"/>
+    <mergeCell ref="H208:I212"/>
+    <mergeCell ref="H214:I223"/>
     <mergeCell ref="H3:I13"/>
     <mergeCell ref="H15:I23"/>
     <mergeCell ref="H25:I31"/>
@@ -17268,11 +17578,16 @@
     <mergeCell ref="H97:I102"/>
     <mergeCell ref="H104:I108"/>
     <mergeCell ref="H110:I119"/>
-    <mergeCell ref="H188:I194"/>
-    <mergeCell ref="H196:I199"/>
-    <mergeCell ref="H201:I206"/>
-    <mergeCell ref="H208:I212"/>
-    <mergeCell ref="H214:I223"/>
+    <mergeCell ref="H149:I158"/>
+    <mergeCell ref="H160:I166"/>
+    <mergeCell ref="H168:I170"/>
+    <mergeCell ref="H172:I179"/>
+    <mergeCell ref="H181:I186"/>
+    <mergeCell ref="H261:I266"/>
+    <mergeCell ref="H225:I237"/>
+    <mergeCell ref="H239:I252"/>
+    <mergeCell ref="H254:I257"/>
+    <mergeCell ref="H259:I259"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17283,329 +17598,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:Y35"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:X6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="42" customHeight="1" thickTop="1" thickBottom="1"/>
-  <cols>
-    <col min="1" max="1" width="4.109375" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" ht="14.4" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6">
-        <v>6</v>
-      </c>
-      <c r="I1" s="6">
-        <v>7</v>
-      </c>
-      <c r="J1" s="6">
-        <v>8</v>
-      </c>
-      <c r="K1" s="6">
-        <v>9</v>
-      </c>
-      <c r="L1" s="6">
-        <v>10</v>
-      </c>
-      <c r="M1" s="6">
-        <v>11</v>
-      </c>
-      <c r="N1" s="6">
-        <v>12</v>
-      </c>
-      <c r="O1" s="6">
-        <v>13</v>
-      </c>
-      <c r="P1" s="6">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="6">
-        <v>15</v>
-      </c>
-      <c r="R1" s="6">
-        <v>16</v>
-      </c>
-      <c r="S1" s="6">
-        <v>17</v>
-      </c>
-      <c r="T1" s="6">
-        <v>18</v>
-      </c>
-      <c r="U1" s="6">
-        <v>19</v>
-      </c>
-      <c r="V1" s="6">
-        <v>20</v>
-      </c>
-      <c r="W1" s="6">
-        <v>21</v>
-      </c>
-      <c r="X1" s="6">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="6">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="W5" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="V6" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="W6" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A10" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A11" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A12" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A14" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A16" s="6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A17" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A18" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A19" s="6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A20" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A21" s="6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A22" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B24" s="8"/>
-      <c r="C24" s="13">
-        <f>COUNTCCOLOR(B2:Y22,B24)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B25" s="9"/>
-      <c r="C25" s="13">
-        <f>COUNTCCOLOR(B2:Y22,B25)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B26" s="10"/>
-      <c r="C26" s="13">
-        <f>COUNTCCOLOR(B2:Y22,B26)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B27" s="5"/>
-      <c r="C27" s="13">
-        <f>COUNTCCOLOR(B2:Y22,B27)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B28" s="1"/>
-      <c r="C28" s="13">
-        <f>COUNTCCOLOR(B2:Y22,B28)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B29" s="4"/>
-      <c r="C29" s="13">
-        <f>COUNTCCOLOR(B2:Y22,B29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B30" s="2"/>
-      <c r="C30" s="13">
-        <f>COUNTCCOLOR(B2:Y22,B30)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B31" s="11"/>
-      <c r="C31" s="13">
-        <f>COUNTCCOLOR(B2:Y22,B31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B32" s="12"/>
-      <c r="C32" s="13">
-        <f>COUNTCCOLOR(B2:Y22,B32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B33" s="7"/>
-      <c r="C33" s="13">
-        <f>COUNTCCOLOR(B2:Y22,B33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B34" s="3"/>
-      <c r="C34" s="13">
-        <f>COUNTCCOLOR(B2:Y22,B34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="42" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C35" s="14">
-        <f>SUM(C24:C34)</f>
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -17625,42 +17617,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B1" t="s">
         <v>598</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>599</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>600</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>602</v>
+      </c>
+      <c r="F1" t="s">
         <v>601</v>
-      </c>
-      <c r="E1" t="s">
-        <v>603</v>
-      </c>
-      <c r="F1" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C2" t="s">
         <v>604</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>605</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>606</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>607</v>
-      </c>
-      <c r="F2" t="s">
-        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -17669,7 +17661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:Z38"/>

--- a/new_universe.xlsx
+++ b/new_universe.xlsx
@@ -8555,58 +8555,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="4">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="7">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="3">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="2" xfId="6">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="12" borderId="2" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="2" xfId="12">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="1">
@@ -8693,7 +8651,49 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="7">
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="2" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="2" xfId="12">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="2" xfId="6">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9008,10 +9008,10 @@
   <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" thickTop="1" thickBottom="1"/>
@@ -11318,10 +11318,10 @@
       <c r="G3" t="s">
         <v>324</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="53" t="s">
         <v>328</v>
       </c>
-      <c r="I3" s="68"/>
+      <c r="I3" s="53"/>
     </row>
     <row r="4" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" t="s">
@@ -11342,8 +11342,8 @@
       <c r="G4" t="s">
         <v>324</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" t="s">
@@ -11364,8 +11364,8 @@
       <c r="G5" t="s">
         <v>324</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
     </row>
     <row r="6" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" t="s">
@@ -11386,8 +11386,8 @@
       <c r="G6" t="s">
         <v>324</v>
       </c>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
     </row>
     <row r="7" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" t="s">
@@ -11408,8 +11408,8 @@
       <c r="G7" t="s">
         <v>324</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
     </row>
     <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" t="s">
@@ -11430,8 +11430,8 @@
       <c r="G8" t="s">
         <v>324</v>
       </c>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" t="s">
@@ -11452,8 +11452,8 @@
       <c r="G9" t="s">
         <v>324</v>
       </c>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
     </row>
     <row r="10" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" t="s">
@@ -11474,8 +11474,8 @@
       <c r="G10" t="s">
         <v>324</v>
       </c>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
     </row>
     <row r="11" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" t="s">
@@ -11496,8 +11496,8 @@
       <c r="G11" t="s">
         <v>324</v>
       </c>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" t="s">
@@ -11518,8 +11518,8 @@
       <c r="G12" t="s">
         <v>324</v>
       </c>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
     </row>
     <row r="13" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" t="s">
@@ -11540,8 +11540,8 @@
       <c r="G13" t="s">
         <v>324</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
     </row>
     <row r="14" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B14" s="38"/>
@@ -11566,10 +11566,10 @@
       <c r="G15" t="s">
         <v>324</v>
       </c>
-      <c r="H15" s="57" t="s">
+      <c r="H15" s="54" t="s">
         <v>331</v>
       </c>
-      <c r="I15" s="57"/>
+      <c r="I15" s="54"/>
     </row>
     <row r="16" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" t="s">
@@ -11590,8 +11590,8 @@
       <c r="G16" t="s">
         <v>324</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
     </row>
     <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" t="s">
@@ -11612,8 +11612,8 @@
       <c r="G17" t="s">
         <v>324</v>
       </c>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
     </row>
     <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A18" t="s">
@@ -11634,8 +11634,8 @@
       <c r="G18" t="s">
         <v>324</v>
       </c>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
     </row>
     <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" t="s">
@@ -11656,8 +11656,8 @@
       <c r="G19" t="s">
         <v>324</v>
       </c>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
     </row>
     <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" t="s">
@@ -11678,8 +11678,8 @@
       <c r="G20" t="s">
         <v>324</v>
       </c>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
     </row>
     <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" t="s">
@@ -11700,8 +11700,8 @@
       <c r="G21" t="s">
         <v>324</v>
       </c>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" t="s">
@@ -11722,8 +11722,8 @@
       <c r="G22" t="s">
         <v>324</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
     </row>
     <row r="23" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" t="s">
@@ -11744,8 +11744,8 @@
       <c r="G23" t="s">
         <v>324</v>
       </c>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
     </row>
     <row r="24" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B24" s="38"/>
@@ -11770,10 +11770,10 @@
       <c r="G25" t="s">
         <v>324</v>
       </c>
-      <c r="H25" s="69" t="s">
+      <c r="H25" s="55" t="s">
         <v>334</v>
       </c>
-      <c r="I25" s="69"/>
+      <c r="I25" s="55"/>
     </row>
     <row r="26" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" t="s">
@@ -11794,8 +11794,8 @@
       <c r="G26" t="s">
         <v>324</v>
       </c>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
     </row>
     <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" t="s">
@@ -11816,8 +11816,8 @@
       <c r="G27" t="s">
         <v>324</v>
       </c>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
     </row>
     <row r="28" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" t="s">
@@ -11838,8 +11838,8 @@
       <c r="G28" t="s">
         <v>324</v>
       </c>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
     </row>
     <row r="29" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" t="s">
@@ -11860,8 +11860,8 @@
       <c r="G29" t="s">
         <v>324</v>
       </c>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
     </row>
     <row r="30" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" t="s">
@@ -11882,8 +11882,8 @@
       <c r="G30" t="s">
         <v>324</v>
       </c>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
     </row>
     <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" t="s">
@@ -11904,8 +11904,8 @@
       <c r="G31" t="s">
         <v>324</v>
       </c>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
     </row>
     <row r="32" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B32" s="38"/>
@@ -11930,10 +11930,10 @@
       <c r="G33" t="s">
         <v>324</v>
       </c>
-      <c r="H33" s="70" t="s">
+      <c r="H33" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="I33" s="70"/>
+      <c r="I33" s="56"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
@@ -11954,8 +11954,8 @@
       <c r="G34" t="s">
         <v>324</v>
       </c>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
@@ -11976,8 +11976,8 @@
       <c r="G35" t="s">
         <v>324</v>
       </c>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
@@ -11998,8 +11998,8 @@
       <c r="G36" t="s">
         <v>324</v>
       </c>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
@@ -12020,8 +12020,8 @@
       <c r="G37" t="s">
         <v>324</v>
       </c>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
@@ -12042,8 +12042,8 @@
       <c r="G38" t="s">
         <v>324</v>
       </c>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
@@ -12064,8 +12064,8 @@
       <c r="G39" t="s">
         <v>324</v>
       </c>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
@@ -12086,8 +12086,8 @@
       <c r="G40" t="s">
         <v>324</v>
       </c>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
@@ -12108,8 +12108,8 @@
       <c r="G41" t="s">
         <v>324</v>
       </c>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
@@ -12130,8 +12130,8 @@
       <c r="G42" t="s">
         <v>324</v>
       </c>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
     </row>
     <row r="43" spans="1:9" s="24" customFormat="1" ht="15" thickBot="1">
       <c r="B43" s="38"/>
@@ -12158,10 +12158,10 @@
       <c r="G44" t="s">
         <v>324</v>
       </c>
-      <c r="H44" s="69" t="s">
+      <c r="H44" s="55" t="s">
         <v>338</v>
       </c>
-      <c r="I44" s="69"/>
+      <c r="I44" s="55"/>
     </row>
     <row r="45" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" t="s">
@@ -12182,8 +12182,8 @@
       <c r="G45" t="s">
         <v>324</v>
       </c>
-      <c r="H45" s="69"/>
-      <c r="I45" s="69"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
     </row>
     <row r="46" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" t="s">
@@ -12204,8 +12204,8 @@
       <c r="G46" t="s">
         <v>324</v>
       </c>
-      <c r="H46" s="69"/>
-      <c r="I46" s="69"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
     </row>
     <row r="47" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" t="s">
@@ -12226,8 +12226,8 @@
       <c r="G47" t="s">
         <v>324</v>
       </c>
-      <c r="H47" s="69"/>
-      <c r="I47" s="69"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
     </row>
     <row r="48" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" t="s">
@@ -12248,8 +12248,8 @@
       <c r="G48" t="s">
         <v>324</v>
       </c>
-      <c r="H48" s="69"/>
-      <c r="I48" s="69"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
     </row>
     <row r="49" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" t="s">
@@ -12270,8 +12270,8 @@
       <c r="G49" t="s">
         <v>324</v>
       </c>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
     </row>
     <row r="50" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B50" s="38"/>
@@ -12296,10 +12296,10 @@
       <c r="G51" t="s">
         <v>324</v>
       </c>
-      <c r="H51" s="79" t="s">
+      <c r="H51" s="65" t="s">
         <v>339</v>
       </c>
-      <c r="I51" s="80"/>
+      <c r="I51" s="66"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
@@ -12320,8 +12320,8 @@
       <c r="G52" t="s">
         <v>324</v>
       </c>
-      <c r="H52" s="81"/>
-      <c r="I52" s="82"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="68"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
@@ -12342,8 +12342,8 @@
       <c r="G53" t="s">
         <v>324</v>
       </c>
-      <c r="H53" s="81"/>
-      <c r="I53" s="82"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="68"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
@@ -12364,8 +12364,8 @@
       <c r="G54" t="s">
         <v>324</v>
       </c>
-      <c r="H54" s="81"/>
-      <c r="I54" s="82"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="68"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
@@ -12386,8 +12386,8 @@
       <c r="G55" t="s">
         <v>324</v>
       </c>
-      <c r="H55" s="81"/>
-      <c r="I55" s="82"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="68"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
@@ -12408,8 +12408,8 @@
       <c r="G56" t="s">
         <v>324</v>
       </c>
-      <c r="H56" s="81"/>
-      <c r="I56" s="82"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="68"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
@@ -12430,8 +12430,8 @@
       <c r="G57" t="s">
         <v>324</v>
       </c>
-      <c r="H57" s="81"/>
-      <c r="I57" s="82"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="68"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
@@ -12452,8 +12452,8 @@
       <c r="G58" t="s">
         <v>324</v>
       </c>
-      <c r="H58" s="81"/>
-      <c r="I58" s="82"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="68"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
@@ -12474,8 +12474,8 @@
       <c r="G59" t="s">
         <v>324</v>
       </c>
-      <c r="H59" s="81"/>
-      <c r="I59" s="82"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="68"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
@@ -12496,8 +12496,8 @@
       <c r="G60" t="s">
         <v>324</v>
       </c>
-      <c r="H60" s="81"/>
-      <c r="I60" s="82"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="68"/>
     </row>
     <row r="61" spans="1:9" ht="15" thickBot="1">
       <c r="A61" t="s">
@@ -12515,8 +12515,8 @@
       <c r="E61" t="s">
         <v>324</v>
       </c>
-      <c r="H61" s="83"/>
-      <c r="I61" s="84"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="70"/>
     </row>
     <row r="62" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B62" s="38"/>
@@ -12541,10 +12541,10 @@
       <c r="G63" t="s">
         <v>324</v>
       </c>
-      <c r="H63" s="57" t="s">
+      <c r="H63" s="54" t="s">
         <v>350</v>
       </c>
-      <c r="I63" s="57"/>
+      <c r="I63" s="54"/>
     </row>
     <row r="64" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" t="s">
@@ -12565,8 +12565,8 @@
       <c r="G64" t="s">
         <v>324</v>
       </c>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
     </row>
     <row r="65" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" t="s">
@@ -12587,8 +12587,8 @@
       <c r="G65" t="s">
         <v>324</v>
       </c>
-      <c r="H65" s="57"/>
-      <c r="I65" s="57"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
     </row>
     <row r="66" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" t="s">
@@ -12609,8 +12609,8 @@
       <c r="G66" t="s">
         <v>324</v>
       </c>
-      <c r="H66" s="57"/>
-      <c r="I66" s="57"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
     </row>
     <row r="67" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" t="s">
@@ -12631,8 +12631,8 @@
       <c r="G67" t="s">
         <v>324</v>
       </c>
-      <c r="H67" s="57"/>
-      <c r="I67" s="57"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
     </row>
     <row r="68" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B68" s="38"/>
@@ -12657,10 +12657,10 @@
       <c r="G69" t="s">
         <v>324</v>
       </c>
-      <c r="H69" s="76" t="s">
+      <c r="H69" s="62" t="s">
         <v>363</v>
       </c>
-      <c r="I69" s="76"/>
+      <c r="I69" s="62"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
@@ -12681,8 +12681,8 @@
       <c r="G70" t="s">
         <v>324</v>
       </c>
-      <c r="H70" s="77"/>
-      <c r="I70" s="77"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
@@ -12703,8 +12703,8 @@
       <c r="G71" t="s">
         <v>324</v>
       </c>
-      <c r="H71" s="77"/>
-      <c r="I71" s="77"/>
+      <c r="H71" s="63"/>
+      <c r="I71" s="63"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
@@ -12725,8 +12725,8 @@
       <c r="G72" t="s">
         <v>324</v>
       </c>
-      <c r="H72" s="77"/>
-      <c r="I72" s="77"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
@@ -12747,8 +12747,8 @@
       <c r="G73" t="s">
         <v>324</v>
       </c>
-      <c r="H73" s="77"/>
-      <c r="I73" s="77"/>
+      <c r="H73" s="63"/>
+      <c r="I73" s="63"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
@@ -12769,8 +12769,8 @@
       <c r="G74" t="s">
         <v>324</v>
       </c>
-      <c r="H74" s="77"/>
-      <c r="I74" s="77"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
@@ -12791,8 +12791,8 @@
       <c r="G75" t="s">
         <v>324</v>
       </c>
-      <c r="H75" s="77"/>
-      <c r="I75" s="77"/>
+      <c r="H75" s="63"/>
+      <c r="I75" s="63"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
@@ -12813,8 +12813,8 @@
       <c r="G76" t="s">
         <v>324</v>
       </c>
-      <c r="H76" s="77"/>
-      <c r="I76" s="77"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="63"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
@@ -12835,8 +12835,8 @@
       <c r="G77" t="s">
         <v>324</v>
       </c>
-      <c r="H77" s="77"/>
-      <c r="I77" s="77"/>
+      <c r="H77" s="63"/>
+      <c r="I77" s="63"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
@@ -12857,8 +12857,8 @@
       <c r="G78" t="s">
         <v>324</v>
       </c>
-      <c r="H78" s="78"/>
-      <c r="I78" s="78"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="64"/>
     </row>
     <row r="79" spans="1:9" s="24" customFormat="1" ht="15" thickBot="1">
       <c r="B79" s="38"/>
@@ -12883,10 +12883,10 @@
       <c r="G80" t="s">
         <v>324</v>
       </c>
-      <c r="H80" s="85" t="s">
+      <c r="H80" s="71" t="s">
         <v>406</v>
       </c>
-      <c r="I80" s="86"/>
+      <c r="I80" s="72"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
@@ -12907,8 +12907,8 @@
       <c r="G81" t="s">
         <v>324</v>
       </c>
-      <c r="H81" s="87"/>
-      <c r="I81" s="88"/>
+      <c r="H81" s="73"/>
+      <c r="I81" s="74"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
@@ -12929,8 +12929,8 @@
       <c r="G82" t="s">
         <v>324</v>
       </c>
-      <c r="H82" s="87"/>
-      <c r="I82" s="88"/>
+      <c r="H82" s="73"/>
+      <c r="I82" s="74"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
@@ -12951,8 +12951,8 @@
       <c r="G83" t="s">
         <v>324</v>
       </c>
-      <c r="H83" s="87"/>
-      <c r="I83" s="88"/>
+      <c r="H83" s="73"/>
+      <c r="I83" s="74"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
@@ -12973,8 +12973,8 @@
       <c r="G84" t="s">
         <v>324</v>
       </c>
-      <c r="H84" s="87"/>
-      <c r="I84" s="88"/>
+      <c r="H84" s="73"/>
+      <c r="I84" s="74"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
@@ -12995,8 +12995,8 @@
       <c r="G85" t="s">
         <v>324</v>
       </c>
-      <c r="H85" s="87"/>
-      <c r="I85" s="88"/>
+      <c r="H85" s="73"/>
+      <c r="I85" s="74"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
@@ -13017,8 +13017,8 @@
       <c r="G86" t="s">
         <v>324</v>
       </c>
-      <c r="H86" s="87"/>
-      <c r="I86" s="88"/>
+      <c r="H86" s="73"/>
+      <c r="I86" s="74"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
@@ -13039,8 +13039,8 @@
       <c r="G87" t="s">
         <v>324</v>
       </c>
-      <c r="H87" s="87"/>
-      <c r="I87" s="88"/>
+      <c r="H87" s="73"/>
+      <c r="I87" s="74"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
@@ -13061,8 +13061,8 @@
       <c r="G88" t="s">
         <v>324</v>
       </c>
-      <c r="H88" s="87"/>
-      <c r="I88" s="88"/>
+      <c r="H88" s="73"/>
+      <c r="I88" s="74"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
@@ -13083,8 +13083,8 @@
       <c r="G89" t="s">
         <v>324</v>
       </c>
-      <c r="H89" s="87"/>
-      <c r="I89" s="88"/>
+      <c r="H89" s="73"/>
+      <c r="I89" s="74"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
@@ -13105,8 +13105,8 @@
       <c r="G90" t="s">
         <v>324</v>
       </c>
-      <c r="H90" s="87"/>
-      <c r="I90" s="88"/>
+      <c r="H90" s="73"/>
+      <c r="I90" s="74"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
@@ -13127,8 +13127,8 @@
       <c r="G91" t="s">
         <v>324</v>
       </c>
-      <c r="H91" s="87"/>
-      <c r="I91" s="88"/>
+      <c r="H91" s="73"/>
+      <c r="I91" s="74"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
@@ -13149,8 +13149,8 @@
       <c r="G92" t="s">
         <v>324</v>
       </c>
-      <c r="H92" s="87"/>
-      <c r="I92" s="88"/>
+      <c r="H92" s="73"/>
+      <c r="I92" s="74"/>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
@@ -13171,8 +13171,8 @@
       <c r="G93" t="s">
         <v>324</v>
       </c>
-      <c r="H93" s="87"/>
-      <c r="I93" s="88"/>
+      <c r="H93" s="73"/>
+      <c r="I93" s="74"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
@@ -13193,8 +13193,8 @@
       <c r="G94" t="s">
         <v>324</v>
       </c>
-      <c r="H94" s="87"/>
-      <c r="I94" s="88"/>
+      <c r="H94" s="73"/>
+      <c r="I94" s="74"/>
     </row>
     <row r="95" spans="1:9" ht="15" thickBot="1">
       <c r="A95" t="s">
@@ -13215,8 +13215,8 @@
       <c r="G95" t="s">
         <v>324</v>
       </c>
-      <c r="H95" s="89"/>
-      <c r="I95" s="90"/>
+      <c r="H95" s="75"/>
+      <c r="I95" s="76"/>
     </row>
     <row r="96" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B96" s="38"/>
@@ -13241,10 +13241,10 @@
       <c r="G97" t="s">
         <v>324</v>
       </c>
-      <c r="H97" s="69" t="s">
+      <c r="H97" s="55" t="s">
         <v>419</v>
       </c>
-      <c r="I97" s="69"/>
+      <c r="I97" s="55"/>
     </row>
     <row r="98" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A98" t="s">
@@ -13265,8 +13265,8 @@
       <c r="G98" t="s">
         <v>324</v>
       </c>
-      <c r="H98" s="69"/>
-      <c r="I98" s="69"/>
+      <c r="H98" s="55"/>
+      <c r="I98" s="55"/>
     </row>
     <row r="99" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A99" t="s">
@@ -13287,8 +13287,8 @@
       <c r="G99" t="s">
         <v>324</v>
       </c>
-      <c r="H99" s="69"/>
-      <c r="I99" s="69"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="55"/>
     </row>
     <row r="100" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A100" t="s">
@@ -13309,8 +13309,8 @@
       <c r="G100" t="s">
         <v>324</v>
       </c>
-      <c r="H100" s="69"/>
-      <c r="I100" s="69"/>
+      <c r="H100" s="55"/>
+      <c r="I100" s="55"/>
     </row>
     <row r="101" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A101" t="s">
@@ -13331,8 +13331,8 @@
       <c r="G101" t="s">
         <v>324</v>
       </c>
-      <c r="H101" s="69"/>
-      <c r="I101" s="69"/>
+      <c r="H101" s="55"/>
+      <c r="I101" s="55"/>
     </row>
     <row r="102" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A102" t="s">
@@ -13353,8 +13353,8 @@
       <c r="G102" t="s">
         <v>324</v>
       </c>
-      <c r="H102" s="69"/>
-      <c r="I102" s="69"/>
+      <c r="H102" s="55"/>
+      <c r="I102" s="55"/>
     </row>
     <row r="103" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B103" s="38"/>
@@ -13379,10 +13379,10 @@
       <c r="G104" t="s">
         <v>324</v>
       </c>
-      <c r="H104" s="79" t="s">
+      <c r="H104" s="65" t="s">
         <v>428</v>
       </c>
-      <c r="I104" s="80"/>
+      <c r="I104" s="66"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
@@ -13403,8 +13403,8 @@
       <c r="G105" t="s">
         <v>324</v>
       </c>
-      <c r="H105" s="81"/>
-      <c r="I105" s="82"/>
+      <c r="H105" s="67"/>
+      <c r="I105" s="68"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
@@ -13425,8 +13425,8 @@
       <c r="G106" t="s">
         <v>324</v>
       </c>
-      <c r="H106" s="81"/>
-      <c r="I106" s="82"/>
+      <c r="H106" s="67"/>
+      <c r="I106" s="68"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
@@ -13447,8 +13447,8 @@
       <c r="G107" t="s">
         <v>324</v>
       </c>
-      <c r="H107" s="81"/>
-      <c r="I107" s="82"/>
+      <c r="H107" s="67"/>
+      <c r="I107" s="68"/>
     </row>
     <row r="108" spans="1:9" ht="15" thickBot="1">
       <c r="A108" t="s">
@@ -13469,8 +13469,8 @@
       <c r="G108" t="s">
         <v>324</v>
       </c>
-      <c r="H108" s="83"/>
-      <c r="I108" s="84"/>
+      <c r="H108" s="69"/>
+      <c r="I108" s="70"/>
     </row>
     <row r="109" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B109" s="38"/>
@@ -13495,10 +13495,10 @@
       <c r="G110" t="s">
         <v>324</v>
       </c>
-      <c r="H110" s="91" t="s">
+      <c r="H110" s="77" t="s">
         <v>448</v>
       </c>
-      <c r="I110" s="92"/>
+      <c r="I110" s="78"/>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
@@ -13519,8 +13519,8 @@
       <c r="G111" t="s">
         <v>324</v>
       </c>
-      <c r="H111" s="93"/>
-      <c r="I111" s="94"/>
+      <c r="H111" s="79"/>
+      <c r="I111" s="80"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
@@ -13541,8 +13541,8 @@
       <c r="G112" t="s">
         <v>324</v>
       </c>
-      <c r="H112" s="93"/>
-      <c r="I112" s="94"/>
+      <c r="H112" s="79"/>
+      <c r="I112" s="80"/>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
@@ -13563,8 +13563,8 @@
       <c r="G113" t="s">
         <v>324</v>
       </c>
-      <c r="H113" s="93"/>
-      <c r="I113" s="94"/>
+      <c r="H113" s="79"/>
+      <c r="I113" s="80"/>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
@@ -13585,8 +13585,8 @@
       <c r="G114" t="s">
         <v>324</v>
       </c>
-      <c r="H114" s="93"/>
-      <c r="I114" s="94"/>
+      <c r="H114" s="79"/>
+      <c r="I114" s="80"/>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
@@ -13607,8 +13607,8 @@
       <c r="G115" t="s">
         <v>324</v>
       </c>
-      <c r="H115" s="93"/>
-      <c r="I115" s="94"/>
+      <c r="H115" s="79"/>
+      <c r="I115" s="80"/>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
@@ -13629,8 +13629,8 @@
       <c r="G116" t="s">
         <v>324</v>
       </c>
-      <c r="H116" s="93"/>
-      <c r="I116" s="94"/>
+      <c r="H116" s="79"/>
+      <c r="I116" s="80"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
@@ -13651,8 +13651,8 @@
       <c r="G117" t="s">
         <v>324</v>
       </c>
-      <c r="H117" s="93"/>
-      <c r="I117" s="94"/>
+      <c r="H117" s="79"/>
+      <c r="I117" s="80"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
@@ -13673,8 +13673,8 @@
       <c r="G118" t="s">
         <v>324</v>
       </c>
-      <c r="H118" s="93"/>
-      <c r="I118" s="94"/>
+      <c r="H118" s="79"/>
+      <c r="I118" s="80"/>
     </row>
     <row r="119" spans="1:9" ht="15" thickBot="1">
       <c r="A119" t="s">
@@ -13695,8 +13695,8 @@
       <c r="G119" t="s">
         <v>324</v>
       </c>
-      <c r="H119" s="95"/>
-      <c r="I119" s="96"/>
+      <c r="H119" s="81"/>
+      <c r="I119" s="82"/>
     </row>
     <row r="120" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B120" s="38"/>
@@ -13721,10 +13721,10 @@
       <c r="G121" t="s">
         <v>324</v>
       </c>
-      <c r="H121" s="79" t="s">
+      <c r="H121" s="65" t="s">
         <v>463</v>
       </c>
-      <c r="I121" s="80"/>
+      <c r="I121" s="66"/>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
@@ -13745,8 +13745,8 @@
       <c r="G122" t="s">
         <v>324</v>
       </c>
-      <c r="H122" s="81"/>
-      <c r="I122" s="82"/>
+      <c r="H122" s="67"/>
+      <c r="I122" s="68"/>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
@@ -13767,8 +13767,8 @@
       <c r="G123" t="s">
         <v>324</v>
       </c>
-      <c r="H123" s="81"/>
-      <c r="I123" s="82"/>
+      <c r="H123" s="67"/>
+      <c r="I123" s="68"/>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
@@ -13789,8 +13789,8 @@
       <c r="G124" t="s">
         <v>324</v>
       </c>
-      <c r="H124" s="81"/>
-      <c r="I124" s="82"/>
+      <c r="H124" s="67"/>
+      <c r="I124" s="68"/>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
@@ -13811,8 +13811,8 @@
       <c r="G125" t="s">
         <v>324</v>
       </c>
-      <c r="H125" s="81"/>
-      <c r="I125" s="82"/>
+      <c r="H125" s="67"/>
+      <c r="I125" s="68"/>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
@@ -13833,8 +13833,8 @@
       <c r="G126" t="s">
         <v>324</v>
       </c>
-      <c r="H126" s="81"/>
-      <c r="I126" s="82"/>
+      <c r="H126" s="67"/>
+      <c r="I126" s="68"/>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
@@ -13855,8 +13855,8 @@
       <c r="G127" t="s">
         <v>324</v>
       </c>
-      <c r="H127" s="81"/>
-      <c r="I127" s="82"/>
+      <c r="H127" s="67"/>
+      <c r="I127" s="68"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
@@ -13877,8 +13877,8 @@
       <c r="G128" t="s">
         <v>324</v>
       </c>
-      <c r="H128" s="81"/>
-      <c r="I128" s="82"/>
+      <c r="H128" s="67"/>
+      <c r="I128" s="68"/>
     </row>
     <row r="129" spans="1:9" ht="15" thickBot="1">
       <c r="A129" t="s">
@@ -13899,8 +13899,8 @@
       <c r="G129" t="s">
         <v>324</v>
       </c>
-      <c r="H129" s="83"/>
-      <c r="I129" s="84"/>
+      <c r="H129" s="69"/>
+      <c r="I129" s="70"/>
     </row>
     <row r="130" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B130" s="38"/>
@@ -13925,10 +13925,10 @@
       <c r="G131" t="s">
         <v>324</v>
       </c>
-      <c r="H131" s="69" t="s">
+      <c r="H131" s="55" t="s">
         <v>479</v>
       </c>
-      <c r="I131" s="69"/>
+      <c r="I131" s="55"/>
     </row>
     <row r="132" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A132" t="s">
@@ -13949,8 +13949,8 @@
       <c r="G132" t="s">
         <v>324</v>
       </c>
-      <c r="H132" s="69"/>
-      <c r="I132" s="69"/>
+      <c r="H132" s="55"/>
+      <c r="I132" s="55"/>
     </row>
     <row r="133" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A133" t="s">
@@ -13971,8 +13971,8 @@
       <c r="G133" t="s">
         <v>324</v>
       </c>
-      <c r="H133" s="69"/>
-      <c r="I133" s="69"/>
+      <c r="H133" s="55"/>
+      <c r="I133" s="55"/>
     </row>
     <row r="134" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A134" t="s">
@@ -13993,8 +13993,8 @@
       <c r="G134" t="s">
         <v>324</v>
       </c>
-      <c r="H134" s="69"/>
-      <c r="I134" s="69"/>
+      <c r="H134" s="55"/>
+      <c r="I134" s="55"/>
     </row>
     <row r="135" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A135" t="s">
@@ -14015,8 +14015,8 @@
       <c r="G135" t="s">
         <v>324</v>
       </c>
-      <c r="H135" s="69"/>
-      <c r="I135" s="69"/>
+      <c r="H135" s="55"/>
+      <c r="I135" s="55"/>
     </row>
     <row r="136" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A136" t="s">
@@ -14037,8 +14037,8 @@
       <c r="G136" t="s">
         <v>324</v>
       </c>
-      <c r="H136" s="69"/>
-      <c r="I136" s="69"/>
+      <c r="H136" s="55"/>
+      <c r="I136" s="55"/>
     </row>
     <row r="137" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A137" t="s">
@@ -14059,8 +14059,8 @@
       <c r="G137" t="s">
         <v>324</v>
       </c>
-      <c r="H137" s="69"/>
-      <c r="I137" s="69"/>
+      <c r="H137" s="55"/>
+      <c r="I137" s="55"/>
     </row>
     <row r="138" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A138" t="s">
@@ -14081,8 +14081,8 @@
       <c r="G138" t="s">
         <v>324</v>
       </c>
-      <c r="H138" s="69"/>
-      <c r="I138" s="69"/>
+      <c r="H138" s="55"/>
+      <c r="I138" s="55"/>
     </row>
     <row r="139" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B139" s="38"/>
@@ -14107,10 +14107,10 @@
       <c r="G140" t="s">
         <v>324</v>
       </c>
-      <c r="H140" s="73" t="s">
+      <c r="H140" s="59" t="s">
         <v>496</v>
       </c>
-      <c r="I140" s="73"/>
+      <c r="I140" s="59"/>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="s">
@@ -14131,8 +14131,8 @@
       <c r="G141" t="s">
         <v>324</v>
       </c>
-      <c r="H141" s="74"/>
-      <c r="I141" s="74"/>
+      <c r="H141" s="60"/>
+      <c r="I141" s="60"/>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="s">
@@ -14153,8 +14153,8 @@
       <c r="G142" t="s">
         <v>324</v>
       </c>
-      <c r="H142" s="74"/>
-      <c r="I142" s="74"/>
+      <c r="H142" s="60"/>
+      <c r="I142" s="60"/>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
@@ -14175,8 +14175,8 @@
       <c r="G143" t="s">
         <v>324</v>
       </c>
-      <c r="H143" s="74"/>
-      <c r="I143" s="74"/>
+      <c r="H143" s="60"/>
+      <c r="I143" s="60"/>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="41" t="s">
@@ -14197,8 +14197,8 @@
       <c r="G144" t="s">
         <v>324</v>
       </c>
-      <c r="H144" s="74"/>
-      <c r="I144" s="74"/>
+      <c r="H144" s="60"/>
+      <c r="I144" s="60"/>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
@@ -14219,8 +14219,8 @@
       <c r="G145" t="s">
         <v>324</v>
       </c>
-      <c r="H145" s="74"/>
-      <c r="I145" s="74"/>
+      <c r="H145" s="60"/>
+      <c r="I145" s="60"/>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="s">
@@ -14241,8 +14241,8 @@
       <c r="G146" t="s">
         <v>324</v>
       </c>
-      <c r="H146" s="74"/>
-      <c r="I146" s="74"/>
+      <c r="H146" s="60"/>
+      <c r="I146" s="60"/>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" t="s">
@@ -14263,8 +14263,8 @@
       <c r="G147" t="s">
         <v>324</v>
       </c>
-      <c r="H147" s="75"/>
-      <c r="I147" s="75"/>
+      <c r="H147" s="61"/>
+      <c r="I147" s="61"/>
     </row>
     <row r="148" spans="1:9" s="24" customFormat="1" ht="15" thickBot="1">
       <c r="B148" s="38"/>
@@ -14289,10 +14289,10 @@
       <c r="G149" t="s">
         <v>324</v>
       </c>
-      <c r="H149" s="59" t="s">
+      <c r="H149" s="51" t="s">
         <v>518</v>
       </c>
-      <c r="I149" s="59"/>
+      <c r="I149" s="51"/>
     </row>
     <row r="150" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A150" t="s">
@@ -14313,8 +14313,8 @@
       <c r="G150" t="s">
         <v>324</v>
       </c>
-      <c r="H150" s="59"/>
-      <c r="I150" s="59"/>
+      <c r="H150" s="51"/>
+      <c r="I150" s="51"/>
     </row>
     <row r="151" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A151" t="s">
@@ -14335,8 +14335,8 @@
       <c r="G151" t="s">
         <v>324</v>
       </c>
-      <c r="H151" s="59"/>
-      <c r="I151" s="59"/>
+      <c r="H151" s="51"/>
+      <c r="I151" s="51"/>
     </row>
     <row r="152" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A152" t="s">
@@ -14357,8 +14357,8 @@
       <c r="G152" t="s">
         <v>324</v>
       </c>
-      <c r="H152" s="59"/>
-      <c r="I152" s="59"/>
+      <c r="H152" s="51"/>
+      <c r="I152" s="51"/>
     </row>
     <row r="153" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A153" t="s">
@@ -14379,8 +14379,8 @@
       <c r="G153" t="s">
         <v>324</v>
       </c>
-      <c r="H153" s="59"/>
-      <c r="I153" s="59"/>
+      <c r="H153" s="51"/>
+      <c r="I153" s="51"/>
     </row>
     <row r="154" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A154" t="s">
@@ -14401,8 +14401,8 @@
       <c r="G154" t="s">
         <v>324</v>
       </c>
-      <c r="H154" s="59"/>
-      <c r="I154" s="59"/>
+      <c r="H154" s="51"/>
+      <c r="I154" s="51"/>
     </row>
     <row r="155" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A155" t="s">
@@ -14423,8 +14423,8 @@
       <c r="G155" t="s">
         <v>324</v>
       </c>
-      <c r="H155" s="59"/>
-      <c r="I155" s="59"/>
+      <c r="H155" s="51"/>
+      <c r="I155" s="51"/>
     </row>
     <row r="156" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A156" t="s">
@@ -14445,8 +14445,8 @@
       <c r="G156" t="s">
         <v>324</v>
       </c>
-      <c r="H156" s="59"/>
-      <c r="I156" s="59"/>
+      <c r="H156" s="51"/>
+      <c r="I156" s="51"/>
     </row>
     <row r="157" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A157" t="s">
@@ -14467,8 +14467,8 @@
       <c r="G157" t="s">
         <v>324</v>
       </c>
-      <c r="H157" s="59"/>
-      <c r="I157" s="59"/>
+      <c r="H157" s="51"/>
+      <c r="I157" s="51"/>
     </row>
     <row r="158" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A158" t="s">
@@ -14489,8 +14489,8 @@
       <c r="G158" t="s">
         <v>324</v>
       </c>
-      <c r="H158" s="59"/>
-      <c r="I158" s="59"/>
+      <c r="H158" s="51"/>
+      <c r="I158" s="51"/>
     </row>
     <row r="159" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B159" s="38"/>
@@ -14515,10 +14515,10 @@
       <c r="G160" t="s">
         <v>324</v>
       </c>
-      <c r="H160" s="60" t="s">
+      <c r="H160" s="83" t="s">
         <v>532</v>
       </c>
-      <c r="I160" s="60"/>
+      <c r="I160" s="83"/>
     </row>
     <row r="161" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A161" t="s">
@@ -14539,8 +14539,8 @@
       <c r="G161" t="s">
         <v>324</v>
       </c>
-      <c r="H161" s="60"/>
-      <c r="I161" s="60"/>
+      <c r="H161" s="83"/>
+      <c r="I161" s="83"/>
     </row>
     <row r="162" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A162" t="s">
@@ -14561,8 +14561,8 @@
       <c r="G162" t="s">
         <v>324</v>
       </c>
-      <c r="H162" s="60"/>
-      <c r="I162" s="60"/>
+      <c r="H162" s="83"/>
+      <c r="I162" s="83"/>
     </row>
     <row r="163" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A163" t="s">
@@ -14583,8 +14583,8 @@
       <c r="G163" t="s">
         <v>324</v>
       </c>
-      <c r="H163" s="60"/>
-      <c r="I163" s="60"/>
+      <c r="H163" s="83"/>
+      <c r="I163" s="83"/>
     </row>
     <row r="164" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A164" t="s">
@@ -14605,8 +14605,8 @@
       <c r="G164" t="s">
         <v>324</v>
       </c>
-      <c r="H164" s="60"/>
-      <c r="I164" s="60"/>
+      <c r="H164" s="83"/>
+      <c r="I164" s="83"/>
     </row>
     <row r="165" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A165" t="s">
@@ -14627,8 +14627,8 @@
       <c r="G165" t="s">
         <v>324</v>
       </c>
-      <c r="H165" s="60"/>
-      <c r="I165" s="60"/>
+      <c r="H165" s="83"/>
+      <c r="I165" s="83"/>
     </row>
     <row r="166" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A166" t="s">
@@ -14649,8 +14649,8 @@
       <c r="G166" t="s">
         <v>324</v>
       </c>
-      <c r="H166" s="60"/>
-      <c r="I166" s="60"/>
+      <c r="H166" s="83"/>
+      <c r="I166" s="83"/>
     </row>
     <row r="167" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B167" s="38"/>
@@ -14675,10 +14675,10 @@
       <c r="G168" t="s">
         <v>324</v>
       </c>
-      <c r="H168" s="61" t="s">
+      <c r="H168" s="84" t="s">
         <v>540</v>
       </c>
-      <c r="I168" s="61"/>
+      <c r="I168" s="84"/>
     </row>
     <row r="169" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A169" t="s">
@@ -14699,8 +14699,8 @@
       <c r="G169" t="s">
         <v>324</v>
       </c>
-      <c r="H169" s="61"/>
-      <c r="I169" s="61"/>
+      <c r="H169" s="84"/>
+      <c r="I169" s="84"/>
     </row>
     <row r="170" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A170" t="s">
@@ -14721,8 +14721,8 @@
       <c r="G170" t="s">
         <v>324</v>
       </c>
-      <c r="H170" s="61"/>
-      <c r="I170" s="61"/>
+      <c r="H170" s="84"/>
+      <c r="I170" s="84"/>
     </row>
     <row r="171" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B171" s="38"/>
@@ -14747,10 +14747,10 @@
       <c r="G172" t="s">
         <v>324</v>
       </c>
-      <c r="H172" s="57" t="s">
+      <c r="H172" s="54" t="s">
         <v>557</v>
       </c>
-      <c r="I172" s="57"/>
+      <c r="I172" s="54"/>
     </row>
     <row r="173" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A173" t="s">
@@ -14771,8 +14771,8 @@
       <c r="G173" t="s">
         <v>324</v>
       </c>
-      <c r="H173" s="57"/>
-      <c r="I173" s="57"/>
+      <c r="H173" s="54"/>
+      <c r="I173" s="54"/>
     </row>
     <row r="174" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A174" t="s">
@@ -14793,8 +14793,8 @@
       <c r="G174" t="s">
         <v>324</v>
       </c>
-      <c r="H174" s="57"/>
-      <c r="I174" s="57"/>
+      <c r="H174" s="54"/>
+      <c r="I174" s="54"/>
     </row>
     <row r="175" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A175" t="s">
@@ -14815,8 +14815,8 @@
       <c r="G175" t="s">
         <v>324</v>
       </c>
-      <c r="H175" s="57"/>
-      <c r="I175" s="57"/>
+      <c r="H175" s="54"/>
+      <c r="I175" s="54"/>
     </row>
     <row r="176" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A176" t="s">
@@ -14837,8 +14837,8 @@
       <c r="G176" t="s">
         <v>324</v>
       </c>
-      <c r="H176" s="57"/>
-      <c r="I176" s="57"/>
+      <c r="H176" s="54"/>
+      <c r="I176" s="54"/>
     </row>
     <row r="177" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A177" t="s">
@@ -14859,8 +14859,8 @@
       <c r="G177" t="s">
         <v>324</v>
       </c>
-      <c r="H177" s="57"/>
-      <c r="I177" s="57"/>
+      <c r="H177" s="54"/>
+      <c r="I177" s="54"/>
     </row>
     <row r="178" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A178" t="s">
@@ -14881,8 +14881,8 @@
       <c r="G178" t="s">
         <v>324</v>
       </c>
-      <c r="H178" s="57"/>
-      <c r="I178" s="57"/>
+      <c r="H178" s="54"/>
+      <c r="I178" s="54"/>
     </row>
     <row r="179" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A179" s="41" t="s">
@@ -14903,8 +14903,8 @@
       <c r="G179" t="s">
         <v>324</v>
       </c>
-      <c r="H179" s="57"/>
-      <c r="I179" s="57"/>
+      <c r="H179" s="54"/>
+      <c r="I179" s="54"/>
     </row>
     <row r="180" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B180" s="38"/>
@@ -14929,10 +14929,10 @@
       <c r="G181" t="s">
         <v>324</v>
       </c>
-      <c r="H181" s="62" t="s">
+      <c r="H181" s="85" t="s">
         <v>565</v>
       </c>
-      <c r="I181" s="63"/>
+      <c r="I181" s="86"/>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="s">
@@ -14953,8 +14953,8 @@
       <c r="G182" t="s">
         <v>324</v>
       </c>
-      <c r="H182" s="64"/>
-      <c r="I182" s="65"/>
+      <c r="H182" s="87"/>
+      <c r="I182" s="88"/>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="s">
@@ -14975,8 +14975,8 @@
       <c r="G183" t="s">
         <v>324</v>
       </c>
-      <c r="H183" s="64"/>
-      <c r="I183" s="65"/>
+      <c r="H183" s="87"/>
+      <c r="I183" s="88"/>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" t="s">
@@ -14997,8 +14997,8 @@
       <c r="G184" t="s">
         <v>324</v>
       </c>
-      <c r="H184" s="64"/>
-      <c r="I184" s="65"/>
+      <c r="H184" s="87"/>
+      <c r="I184" s="88"/>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" t="s">
@@ -15019,8 +15019,8 @@
       <c r="G185" t="s">
         <v>324</v>
       </c>
-      <c r="H185" s="64"/>
-      <c r="I185" s="65"/>
+      <c r="H185" s="87"/>
+      <c r="I185" s="88"/>
     </row>
     <row r="186" spans="1:9" ht="15" thickBot="1">
       <c r="A186" t="s">
@@ -15041,8 +15041,8 @@
       <c r="G186" t="s">
         <v>324</v>
       </c>
-      <c r="H186" s="66"/>
-      <c r="I186" s="67"/>
+      <c r="H186" s="89"/>
+      <c r="I186" s="90"/>
     </row>
     <row r="187" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B187" s="38"/>
@@ -15067,10 +15067,10 @@
       <c r="G188" t="s">
         <v>324</v>
       </c>
-      <c r="H188" s="59" t="s">
+      <c r="H188" s="51" t="s">
         <v>580</v>
       </c>
-      <c r="I188" s="59"/>
+      <c r="I188" s="51"/>
     </row>
     <row r="189" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A189" t="s">
@@ -15091,8 +15091,8 @@
       <c r="G189" t="s">
         <v>324</v>
       </c>
-      <c r="H189" s="59"/>
-      <c r="I189" s="59"/>
+      <c r="H189" s="51"/>
+      <c r="I189" s="51"/>
     </row>
     <row r="190" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A190" t="s">
@@ -15113,8 +15113,8 @@
       <c r="G190" t="s">
         <v>324</v>
       </c>
-      <c r="H190" s="59"/>
-      <c r="I190" s="59"/>
+      <c r="H190" s="51"/>
+      <c r="I190" s="51"/>
     </row>
     <row r="191" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A191" t="s">
@@ -15135,8 +15135,8 @@
       <c r="G191" t="s">
         <v>324</v>
       </c>
-      <c r="H191" s="59"/>
-      <c r="I191" s="59"/>
+      <c r="H191" s="51"/>
+      <c r="I191" s="51"/>
     </row>
     <row r="192" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A192" t="s">
@@ -15157,8 +15157,8 @@
       <c r="G192" t="s">
         <v>324</v>
       </c>
-      <c r="H192" s="59"/>
-      <c r="I192" s="59"/>
+      <c r="H192" s="51"/>
+      <c r="I192" s="51"/>
     </row>
     <row r="193" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A193" t="s">
@@ -15179,8 +15179,8 @@
       <c r="G193" t="s">
         <v>324</v>
       </c>
-      <c r="H193" s="59"/>
-      <c r="I193" s="59"/>
+      <c r="H193" s="51"/>
+      <c r="I193" s="51"/>
     </row>
     <row r="194" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A194" t="s">
@@ -15201,8 +15201,8 @@
       <c r="G194" t="s">
         <v>324</v>
       </c>
-      <c r="H194" s="59"/>
-      <c r="I194" s="59"/>
+      <c r="H194" s="51"/>
+      <c r="I194" s="51"/>
     </row>
     <row r="195" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B195" s="38"/>
@@ -15227,10 +15227,10 @@
       <c r="G196" t="s">
         <v>324</v>
       </c>
-      <c r="H196" s="97" t="s">
+      <c r="H196" s="52" t="s">
         <v>587</v>
       </c>
-      <c r="I196" s="97"/>
+      <c r="I196" s="52"/>
     </row>
     <row r="197" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A197" t="s">
@@ -15251,8 +15251,8 @@
       <c r="G197" t="s">
         <v>324</v>
       </c>
-      <c r="H197" s="97"/>
-      <c r="I197" s="97"/>
+      <c r="H197" s="52"/>
+      <c r="I197" s="52"/>
     </row>
     <row r="198" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A198" t="s">
@@ -15273,8 +15273,8 @@
       <c r="G198" t="s">
         <v>324</v>
       </c>
-      <c r="H198" s="97"/>
-      <c r="I198" s="97"/>
+      <c r="H198" s="52"/>
+      <c r="I198" s="52"/>
     </row>
     <row r="199" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A199" t="s">
@@ -15295,8 +15295,8 @@
       <c r="G199" t="s">
         <v>324</v>
       </c>
-      <c r="H199" s="97"/>
-      <c r="I199" s="97"/>
+      <c r="H199" s="52"/>
+      <c r="I199" s="52"/>
     </row>
     <row r="200" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B200" s="38"/>
@@ -15321,10 +15321,10 @@
       <c r="G201" t="s">
         <v>324</v>
       </c>
-      <c r="H201" s="68" t="s">
+      <c r="H201" s="53" t="s">
         <v>596</v>
       </c>
-      <c r="I201" s="68"/>
+      <c r="I201" s="53"/>
     </row>
     <row r="202" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A202" t="s">
@@ -15345,8 +15345,8 @@
       <c r="G202" t="s">
         <v>324</v>
       </c>
-      <c r="H202" s="68"/>
-      <c r="I202" s="68"/>
+      <c r="H202" s="53"/>
+      <c r="I202" s="53"/>
     </row>
     <row r="203" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A203" t="s">
@@ -15367,8 +15367,8 @@
       <c r="G203" t="s">
         <v>324</v>
       </c>
-      <c r="H203" s="68"/>
-      <c r="I203" s="68"/>
+      <c r="H203" s="53"/>
+      <c r="I203" s="53"/>
     </row>
     <row r="204" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A204" t="s">
@@ -15389,8 +15389,8 @@
       <c r="G204" t="s">
         <v>324</v>
       </c>
-      <c r="H204" s="68"/>
-      <c r="I204" s="68"/>
+      <c r="H204" s="53"/>
+      <c r="I204" s="53"/>
     </row>
     <row r="205" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A205" t="s">
@@ -15411,8 +15411,8 @@
       <c r="G205" t="s">
         <v>324</v>
       </c>
-      <c r="H205" s="68"/>
-      <c r="I205" s="68"/>
+      <c r="H205" s="53"/>
+      <c r="I205" s="53"/>
     </row>
     <row r="206" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A206" t="s">
@@ -15433,8 +15433,8 @@
       <c r="G206" t="s">
         <v>324</v>
       </c>
-      <c r="H206" s="68"/>
-      <c r="I206" s="68"/>
+      <c r="H206" s="53"/>
+      <c r="I206" s="53"/>
     </row>
     <row r="207" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B207" s="38"/>
@@ -15459,10 +15459,10 @@
       <c r="G208" t="s">
         <v>324</v>
       </c>
-      <c r="H208" s="57" t="s">
+      <c r="H208" s="54" t="s">
         <v>619</v>
       </c>
-      <c r="I208" s="57"/>
+      <c r="I208" s="54"/>
     </row>
     <row r="209" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A209" t="s">
@@ -15483,8 +15483,8 @@
       <c r="G209" t="s">
         <v>324</v>
       </c>
-      <c r="H209" s="57"/>
-      <c r="I209" s="57"/>
+      <c r="H209" s="54"/>
+      <c r="I209" s="54"/>
     </row>
     <row r="210" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A210" t="s">
@@ -15505,8 +15505,8 @@
       <c r="G210" t="s">
         <v>324</v>
       </c>
-      <c r="H210" s="57"/>
-      <c r="I210" s="57"/>
+      <c r="H210" s="54"/>
+      <c r="I210" s="54"/>
     </row>
     <row r="211" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A211" t="s">
@@ -15527,8 +15527,8 @@
       <c r="G211" t="s">
         <v>324</v>
       </c>
-      <c r="H211" s="57"/>
-      <c r="I211" s="57"/>
+      <c r="H211" s="54"/>
+      <c r="I211" s="54"/>
     </row>
     <row r="212" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A212" t="s">
@@ -15549,8 +15549,8 @@
       <c r="G212" t="s">
         <v>324</v>
       </c>
-      <c r="H212" s="57"/>
-      <c r="I212" s="57"/>
+      <c r="H212" s="54"/>
+      <c r="I212" s="54"/>
     </row>
     <row r="213" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B213" s="38"/>
@@ -15575,10 +15575,10 @@
       <c r="G214" t="s">
         <v>324</v>
       </c>
-      <c r="H214" s="69" t="s">
+      <c r="H214" s="55" t="s">
         <v>636</v>
       </c>
-      <c r="I214" s="69"/>
+      <c r="I214" s="55"/>
     </row>
     <row r="215" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A215" t="s">
@@ -15599,8 +15599,8 @@
       <c r="G215" t="s">
         <v>324</v>
       </c>
-      <c r="H215" s="69"/>
-      <c r="I215" s="69"/>
+      <c r="H215" s="55"/>
+      <c r="I215" s="55"/>
     </row>
     <row r="216" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A216" t="s">
@@ -15621,8 +15621,8 @@
       <c r="G216" t="s">
         <v>324</v>
       </c>
-      <c r="H216" s="69"/>
-      <c r="I216" s="69"/>
+      <c r="H216" s="55"/>
+      <c r="I216" s="55"/>
     </row>
     <row r="217" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A217" t="s">
@@ -15643,8 +15643,8 @@
       <c r="G217" t="s">
         <v>324</v>
       </c>
-      <c r="H217" s="69"/>
-      <c r="I217" s="69"/>
+      <c r="H217" s="55"/>
+      <c r="I217" s="55"/>
     </row>
     <row r="218" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A218" t="s">
@@ -15665,8 +15665,8 @@
       <c r="G218" t="s">
         <v>324</v>
       </c>
-      <c r="H218" s="69"/>
-      <c r="I218" s="69"/>
+      <c r="H218" s="55"/>
+      <c r="I218" s="55"/>
     </row>
     <row r="219" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A219" t="s">
@@ -15687,8 +15687,8 @@
       <c r="G219" t="s">
         <v>324</v>
       </c>
-      <c r="H219" s="69"/>
-      <c r="I219" s="69"/>
+      <c r="H219" s="55"/>
+      <c r="I219" s="55"/>
     </row>
     <row r="220" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A220" t="s">
@@ -15709,8 +15709,8 @@
       <c r="G220" t="s">
         <v>324</v>
       </c>
-      <c r="H220" s="69"/>
-      <c r="I220" s="69"/>
+      <c r="H220" s="55"/>
+      <c r="I220" s="55"/>
     </row>
     <row r="221" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A221" t="s">
@@ -15731,8 +15731,8 @@
       <c r="G221" t="s">
         <v>324</v>
       </c>
-      <c r="H221" s="69"/>
-      <c r="I221" s="69"/>
+      <c r="H221" s="55"/>
+      <c r="I221" s="55"/>
     </row>
     <row r="222" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A222" t="s">
@@ -15753,8 +15753,8 @@
       <c r="G222" t="s">
         <v>324</v>
       </c>
-      <c r="H222" s="69"/>
-      <c r="I222" s="69"/>
+      <c r="H222" s="55"/>
+      <c r="I222" s="55"/>
     </row>
     <row r="223" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A223" t="s">
@@ -15775,8 +15775,8 @@
       <c r="G223" t="s">
         <v>324</v>
       </c>
-      <c r="H223" s="69"/>
-      <c r="I223" s="69"/>
+      <c r="H223" s="55"/>
+      <c r="I223" s="55"/>
     </row>
     <row r="224" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B224" s="38"/>
@@ -15801,10 +15801,10 @@
       <c r="G225" t="s">
         <v>324</v>
       </c>
-      <c r="H225" s="57" t="s">
+      <c r="H225" s="54" t="s">
         <v>647</v>
       </c>
-      <c r="I225" s="57"/>
+      <c r="I225" s="54"/>
     </row>
     <row r="226" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A226" t="s">
@@ -15825,8 +15825,8 @@
       <c r="G226" t="s">
         <v>324</v>
       </c>
-      <c r="H226" s="57"/>
-      <c r="I226" s="57"/>
+      <c r="H226" s="54"/>
+      <c r="I226" s="54"/>
     </row>
     <row r="227" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A227" t="s">
@@ -15847,8 +15847,8 @@
       <c r="G227" t="s">
         <v>324</v>
       </c>
-      <c r="H227" s="57"/>
-      <c r="I227" s="57"/>
+      <c r="H227" s="54"/>
+      <c r="I227" s="54"/>
     </row>
     <row r="228" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A228" t="s">
@@ -15869,8 +15869,8 @@
       <c r="G228" t="s">
         <v>324</v>
       </c>
-      <c r="H228" s="57"/>
-      <c r="I228" s="57"/>
+      <c r="H228" s="54"/>
+      <c r="I228" s="54"/>
     </row>
     <row r="229" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A229" t="s">
@@ -15891,8 +15891,8 @@
       <c r="G229" t="s">
         <v>324</v>
       </c>
-      <c r="H229" s="57"/>
-      <c r="I229" s="57"/>
+      <c r="H229" s="54"/>
+      <c r="I229" s="54"/>
     </row>
     <row r="230" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A230" t="s">
@@ -15913,8 +15913,8 @@
       <c r="G230" t="s">
         <v>324</v>
       </c>
-      <c r="H230" s="57"/>
-      <c r="I230" s="57"/>
+      <c r="H230" s="54"/>
+      <c r="I230" s="54"/>
     </row>
     <row r="231" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A231" t="s">
@@ -15935,8 +15935,8 @@
       <c r="G231" t="s">
         <v>324</v>
       </c>
-      <c r="H231" s="57"/>
-      <c r="I231" s="57"/>
+      <c r="H231" s="54"/>
+      <c r="I231" s="54"/>
     </row>
     <row r="232" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A232" t="s">
@@ -15957,8 +15957,8 @@
       <c r="G232" t="s">
         <v>324</v>
       </c>
-      <c r="H232" s="57"/>
-      <c r="I232" s="57"/>
+      <c r="H232" s="54"/>
+      <c r="I232" s="54"/>
     </row>
     <row r="233" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A233" t="s">
@@ -15979,8 +15979,8 @@
       <c r="G233" t="s">
         <v>324</v>
       </c>
-      <c r="H233" s="57"/>
-      <c r="I233" s="57"/>
+      <c r="H233" s="54"/>
+      <c r="I233" s="54"/>
     </row>
     <row r="234" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A234" t="s">
@@ -16001,8 +16001,8 @@
       <c r="G234" t="s">
         <v>324</v>
       </c>
-      <c r="H234" s="57"/>
-      <c r="I234" s="57"/>
+      <c r="H234" s="54"/>
+      <c r="I234" s="54"/>
     </row>
     <row r="235" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A235" t="s">
@@ -16023,8 +16023,8 @@
       <c r="G235" t="s">
         <v>324</v>
       </c>
-      <c r="H235" s="57"/>
-      <c r="I235" s="57"/>
+      <c r="H235" s="54"/>
+      <c r="I235" s="54"/>
     </row>
     <row r="236" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A236" t="s">
@@ -16045,8 +16045,8 @@
       <c r="G236" t="s">
         <v>324</v>
       </c>
-      <c r="H236" s="57"/>
-      <c r="I236" s="57"/>
+      <c r="H236" s="54"/>
+      <c r="I236" s="54"/>
     </row>
     <row r="237" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A237" t="s">
@@ -16067,8 +16067,8 @@
       <c r="G237" t="s">
         <v>324</v>
       </c>
-      <c r="H237" s="57"/>
-      <c r="I237" s="57"/>
+      <c r="H237" s="54"/>
+      <c r="I237" s="54"/>
     </row>
     <row r="238" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B238" s="38"/>
@@ -16090,10 +16090,10 @@
       <c r="E239" t="s">
         <v>324</v>
       </c>
-      <c r="H239" s="51" t="s">
+      <c r="H239" s="91" t="s">
         <v>672</v>
       </c>
-      <c r="I239" s="52"/>
+      <c r="I239" s="92"/>
     </row>
     <row r="240" spans="1:9">
       <c r="A240" t="s">
@@ -16111,8 +16111,8 @@
       <c r="E240" t="s">
         <v>324</v>
       </c>
-      <c r="H240" s="53"/>
-      <c r="I240" s="54"/>
+      <c r="H240" s="93"/>
+      <c r="I240" s="94"/>
     </row>
     <row r="241" spans="1:9">
       <c r="A241" t="s">
@@ -16130,8 +16130,8 @@
       <c r="E241" t="s">
         <v>324</v>
       </c>
-      <c r="H241" s="53"/>
-      <c r="I241" s="54"/>
+      <c r="H241" s="93"/>
+      <c r="I241" s="94"/>
     </row>
     <row r="242" spans="1:9">
       <c r="A242" t="s">
@@ -16149,8 +16149,8 @@
       <c r="E242" t="s">
         <v>324</v>
       </c>
-      <c r="H242" s="53"/>
-      <c r="I242" s="54"/>
+      <c r="H242" s="93"/>
+      <c r="I242" s="94"/>
     </row>
     <row r="243" spans="1:9">
       <c r="A243" t="s">
@@ -16168,8 +16168,8 @@
       <c r="E243" t="s">
         <v>324</v>
       </c>
-      <c r="H243" s="53"/>
-      <c r="I243" s="54"/>
+      <c r="H243" s="93"/>
+      <c r="I243" s="94"/>
     </row>
     <row r="244" spans="1:9">
       <c r="A244" t="s">
@@ -16187,8 +16187,8 @@
       <c r="E244" t="s">
         <v>324</v>
       </c>
-      <c r="H244" s="53"/>
-      <c r="I244" s="54"/>
+      <c r="H244" s="93"/>
+      <c r="I244" s="94"/>
     </row>
     <row r="245" spans="1:9">
       <c r="A245" t="s">
@@ -16206,8 +16206,8 @@
       <c r="E245" t="s">
         <v>324</v>
       </c>
-      <c r="H245" s="53"/>
-      <c r="I245" s="54"/>
+      <c r="H245" s="93"/>
+      <c r="I245" s="94"/>
     </row>
     <row r="246" spans="1:9">
       <c r="A246" t="s">
@@ -16225,8 +16225,8 @@
       <c r="E246" t="s">
         <v>324</v>
       </c>
-      <c r="H246" s="53"/>
-      <c r="I246" s="54"/>
+      <c r="H246" s="93"/>
+      <c r="I246" s="94"/>
     </row>
     <row r="247" spans="1:9">
       <c r="A247" t="s">
@@ -16244,8 +16244,8 @@
       <c r="E247" t="s">
         <v>324</v>
       </c>
-      <c r="H247" s="53"/>
-      <c r="I247" s="54"/>
+      <c r="H247" s="93"/>
+      <c r="I247" s="94"/>
     </row>
     <row r="248" spans="1:9">
       <c r="A248" t="s">
@@ -16263,8 +16263,8 @@
       <c r="E248" t="s">
         <v>324</v>
       </c>
-      <c r="H248" s="53"/>
-      <c r="I248" s="54"/>
+      <c r="H248" s="93"/>
+      <c r="I248" s="94"/>
     </row>
     <row r="249" spans="1:9">
       <c r="A249" t="s">
@@ -16282,8 +16282,8 @@
       <c r="E249" t="s">
         <v>324</v>
       </c>
-      <c r="H249" s="53"/>
-      <c r="I249" s="54"/>
+      <c r="H249" s="93"/>
+      <c r="I249" s="94"/>
     </row>
     <row r="250" spans="1:9">
       <c r="A250" t="s">
@@ -16301,8 +16301,8 @@
       <c r="E250" t="s">
         <v>324</v>
       </c>
-      <c r="H250" s="53"/>
-      <c r="I250" s="54"/>
+      <c r="H250" s="93"/>
+      <c r="I250" s="94"/>
     </row>
     <row r="251" spans="1:9">
       <c r="A251" t="s">
@@ -16320,8 +16320,8 @@
       <c r="E251" t="s">
         <v>324</v>
       </c>
-      <c r="H251" s="53"/>
-      <c r="I251" s="54"/>
+      <c r="H251" s="93"/>
+      <c r="I251" s="94"/>
     </row>
     <row r="252" spans="1:9" ht="15" thickBot="1">
       <c r="A252" t="s">
@@ -16339,8 +16339,8 @@
       <c r="E252" t="s">
         <v>324</v>
       </c>
-      <c r="H252" s="55"/>
-      <c r="I252" s="56"/>
+      <c r="H252" s="95"/>
+      <c r="I252" s="96"/>
     </row>
     <row r="253" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B253" s="38"/>
@@ -16362,10 +16362,10 @@
       <c r="E254" t="s">
         <v>324</v>
       </c>
-      <c r="H254" s="51" t="s">
+      <c r="H254" s="91" t="s">
         <v>673</v>
       </c>
-      <c r="I254" s="52"/>
+      <c r="I254" s="92"/>
     </row>
     <row r="255" spans="1:9">
       <c r="A255" t="s">
@@ -16383,8 +16383,8 @@
       <c r="E255" t="s">
         <v>324</v>
       </c>
-      <c r="H255" s="53"/>
-      <c r="I255" s="54"/>
+      <c r="H255" s="93"/>
+      <c r="I255" s="94"/>
     </row>
     <row r="256" spans="1:9">
       <c r="A256" t="s">
@@ -16402,8 +16402,8 @@
       <c r="E256" t="s">
         <v>324</v>
       </c>
-      <c r="H256" s="53"/>
-      <c r="I256" s="54"/>
+      <c r="H256" s="93"/>
+      <c r="I256" s="94"/>
     </row>
     <row r="257" spans="1:9" ht="15" thickBot="1">
       <c r="A257" t="s">
@@ -16421,8 +16421,8 @@
       <c r="E257" t="s">
         <v>324</v>
       </c>
-      <c r="H257" s="55"/>
-      <c r="I257" s="56"/>
+      <c r="H257" s="95"/>
+      <c r="I257" s="96"/>
     </row>
     <row r="258" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B258" s="38"/>
@@ -16444,10 +16444,10 @@
       <c r="E259" t="s">
         <v>324</v>
       </c>
-      <c r="H259" s="58" t="s">
+      <c r="H259" s="97" t="s">
         <v>674</v>
       </c>
-      <c r="I259" s="58"/>
+      <c r="I259" s="97"/>
     </row>
     <row r="260" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B260" s="38"/>
@@ -16469,10 +16469,10 @@
       <c r="E261" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="H261" s="51" t="s">
+      <c r="H261" s="91" t="s">
         <v>685</v>
       </c>
-      <c r="I261" s="52"/>
+      <c r="I261" s="92"/>
     </row>
     <row r="262" spans="1:9">
       <c r="A262" s="50" t="s">
@@ -16490,8 +16490,8 @@
       <c r="E262" s="50" t="s">
         <v>324</v>
       </c>
-      <c r="H262" s="53"/>
-      <c r="I262" s="54"/>
+      <c r="H262" s="93"/>
+      <c r="I262" s="94"/>
     </row>
     <row r="263" spans="1:9">
       <c r="A263" t="s">
@@ -16509,8 +16509,8 @@
       <c r="E263" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="H263" s="53"/>
-      <c r="I263" s="54"/>
+      <c r="H263" s="93"/>
+      <c r="I263" s="94"/>
     </row>
     <row r="264" spans="1:9">
       <c r="A264" t="s">
@@ -16528,8 +16528,8 @@
       <c r="E264" s="50" t="s">
         <v>324</v>
       </c>
-      <c r="H264" s="53"/>
-      <c r="I264" s="54"/>
+      <c r="H264" s="93"/>
+      <c r="I264" s="94"/>
     </row>
     <row r="265" spans="1:9">
       <c r="A265" t="s">
@@ -16547,8 +16547,8 @@
       <c r="E265" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="H265" s="53"/>
-      <c r="I265" s="54"/>
+      <c r="H265" s="93"/>
+      <c r="I265" s="94"/>
     </row>
     <row r="266" spans="1:9" ht="15" thickBot="1">
       <c r="A266" t="s">
@@ -16566,8 +16566,8 @@
       <c r="E266" s="50" t="s">
         <v>324</v>
       </c>
-      <c r="H266" s="55"/>
-      <c r="I266" s="56"/>
+      <c r="H266" s="95"/>
+      <c r="I266" s="96"/>
     </row>
     <row r="267" spans="1:9" s="24" customFormat="1" ht="15" thickTop="1">
       <c r="B267" s="38"/>
@@ -17558,11 +17558,16 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="H188:I194"/>
-    <mergeCell ref="H196:I199"/>
-    <mergeCell ref="H201:I206"/>
-    <mergeCell ref="H208:I212"/>
-    <mergeCell ref="H214:I223"/>
+    <mergeCell ref="H261:I266"/>
+    <mergeCell ref="H225:I237"/>
+    <mergeCell ref="H239:I252"/>
+    <mergeCell ref="H254:I257"/>
+    <mergeCell ref="H259:I259"/>
+    <mergeCell ref="H149:I158"/>
+    <mergeCell ref="H160:I166"/>
+    <mergeCell ref="H168:I170"/>
+    <mergeCell ref="H172:I179"/>
+    <mergeCell ref="H181:I186"/>
     <mergeCell ref="H3:I13"/>
     <mergeCell ref="H15:I23"/>
     <mergeCell ref="H25:I31"/>
@@ -17578,16 +17583,11 @@
     <mergeCell ref="H97:I102"/>
     <mergeCell ref="H104:I108"/>
     <mergeCell ref="H110:I119"/>
-    <mergeCell ref="H149:I158"/>
-    <mergeCell ref="H160:I166"/>
-    <mergeCell ref="H168:I170"/>
-    <mergeCell ref="H172:I179"/>
-    <mergeCell ref="H181:I186"/>
-    <mergeCell ref="H261:I266"/>
-    <mergeCell ref="H225:I237"/>
-    <mergeCell ref="H239:I252"/>
-    <mergeCell ref="H254:I257"/>
-    <mergeCell ref="H259:I259"/>
+    <mergeCell ref="H188:I194"/>
+    <mergeCell ref="H196:I199"/>
+    <mergeCell ref="H201:I206"/>
+    <mergeCell ref="H208:I212"/>
+    <mergeCell ref="H214:I223"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/new_universe.xlsx
+++ b/new_universe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-1080" yWindow="-84" windowWidth="17496" windowHeight="9768" tabRatio="435"/>
+    <workbookView xWindow="-1080" yWindow="-84" windowWidth="12408" windowHeight="9696" tabRatio="435"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="8" r:id="rId1"/>
@@ -6810,9 +6810,6 @@
     <t>Imperial Frontier</t>
   </si>
   <si>
-    <t>Three Moons</t>
-  </si>
-  <si>
     <t>Duke's Retreat</t>
   </si>
   <si>
@@ -6874,9 +6871,6 @@
   </si>
   <si>
     <t>Odin's Moon</t>
-  </si>
-  <si>
-    <t>Third Giant</t>
   </si>
   <si>
     <t>Atlantia</t>
@@ -8066,6 +8060,12 @@
   </si>
   <si>
     <t>Rhonkar's Dispute</t>
+  </si>
+  <si>
+    <t>The Giant</t>
+  </si>
+  <si>
+    <t>Fire of Redemption</t>
   </si>
 </sst>
 </file>
@@ -8450,7 +8450,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8580,9 +8580,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="2" xfId="5" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="2" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8597,6 +8594,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="7" borderId="2" xfId="6" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="2" xfId="1" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="12" borderId="2" xfId="5" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="2" xfId="4" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="7" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
@@ -8738,15 +8744,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="7">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="2" xfId="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="12" borderId="2" xfId="5" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="2" xfId="4" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9061,10 +9058,10 @@
   <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" thickTop="1" thickBottom="1"/>
@@ -9156,17 +9153,17 @@
       <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>267</v>
       </c>
-      <c r="R2" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="S2" s="21" t="s">
+      <c r="R2" s="54" t="s">
         <v>292</v>
+      </c>
+      <c r="S2" s="54" t="s">
+        <v>702</v>
       </c>
       <c r="V2" s="31" t="s">
         <v>238</v>
@@ -9179,10 +9176,10 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="48" t="s">
         <v>266</v>
       </c>
       <c r="R3" s="33" t="s">
@@ -9194,7 +9191,7 @@
       <c r="W3" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="X3" s="47" t="s">
+      <c r="X3" s="33" t="s">
         <v>241</v>
       </c>
     </row>
@@ -9202,28 +9199,28 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="50" t="s">
-        <v>319</v>
-      </c>
-      <c r="C4" s="49" t="s">
+      <c r="B4" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="52" t="s">
         <v>224</v>
       </c>
       <c r="M4" s="33" t="s">
@@ -9261,8 +9258,8 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>696</v>
+      <c r="B5" s="49" t="s">
+        <v>694</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>14</v>
@@ -9270,16 +9267,16 @@
       <c r="D5" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="52" t="s">
         <v>214</v>
       </c>
       <c r="I5" s="28" t="s">
@@ -9326,8 +9323,8 @@
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>701</v>
+      <c r="B6" s="50" t="s">
+        <v>699</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>106</v>
@@ -9335,16 +9332,16 @@
       <c r="D6" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="101" t="s">
-        <v>702</v>
-      </c>
-      <c r="F6" s="53" t="s">
+      <c r="E6" s="53" t="s">
+        <v>700</v>
+      </c>
+      <c r="F6" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="52" t="s">
         <v>215</v>
       </c>
       <c r="I6" s="28" t="s">
@@ -9371,10 +9368,10 @@
       <c r="P6" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="Q6" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="55" t="s">
         <v>288</v>
       </c>
       <c r="S6" s="29" t="s">
@@ -9383,7 +9380,7 @@
       <c r="T6" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="U6" s="21" t="s">
+      <c r="U6" s="54" t="s">
         <v>291</v>
       </c>
       <c r="V6" s="33" t="s">
@@ -9406,10 +9403,10 @@
       <c r="E7" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="52" t="s">
         <v>212</v>
       </c>
       <c r="H7" s="30" t="s">
@@ -9427,8 +9424,8 @@
       <c r="L7" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="M7" s="102" t="s">
-        <v>299</v>
+      <c r="M7" s="54" t="s">
+        <v>298</v>
       </c>
       <c r="N7" s="29" t="s">
         <v>145</v>
@@ -9439,7 +9436,7 @@
       <c r="P7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="21" t="s">
+      <c r="R7" s="54" t="s">
         <v>289</v>
       </c>
       <c r="S7" s="33" t="s">
@@ -9448,7 +9445,7 @@
       <c r="T7" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="U7" s="21" t="s">
+      <c r="U7" s="54" t="s">
         <v>290</v>
       </c>
     </row>
@@ -9486,7 +9483,7 @@
       <c r="M8" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="103" t="s">
+      <c r="N8" s="55" t="s">
         <v>286</v>
       </c>
       <c r="O8" s="38" t="s">
@@ -9539,11 +9536,11 @@
       <c r="M9" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="103" t="s">
+      <c r="N9" s="55" t="s">
         <v>287</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S9" s="25" t="s">
         <v>31</v>
@@ -9566,7 +9563,7 @@
         <v>116</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>251</v>
@@ -9599,7 +9596,7 @@
         <v>250</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S10" s="25" t="s">
         <v>38</v>
@@ -9615,17 +9612,17 @@
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="52" t="s">
         <v>234</v>
       </c>
       <c r="E11" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>308</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>309</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>161</v>
@@ -9639,17 +9636,17 @@
       <c r="J11" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="31" t="s">
         <v>189</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M11" s="28" t="s">
         <v>72</v>
       </c>
       <c r="N11" s="28" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="O11" s="28" t="s">
         <v>87</v>
@@ -9677,14 +9674,14 @@
       <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="52" t="s">
         <v>235</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>274</v>
@@ -9701,20 +9698,20 @@
       <c r="J12" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="31" t="s">
         <v>188</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P12" s="17" t="s">
         <v>256</v>
@@ -9768,16 +9765,16 @@
         <v>170</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P13" s="17" t="s">
         <v>257</v>
@@ -9798,10 +9795,10 @@
         <v>88</v>
       </c>
       <c r="V13" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="W13" s="22" t="s">
         <v>301</v>
-      </c>
-      <c r="W13" s="22" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="42" customHeight="1" thickTop="1" thickBot="1">
@@ -9848,7 +9845,7 @@
         <v>178</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R14" s="33" t="s">
         <v>53</v>
@@ -9866,7 +9863,7 @@
         <v>7</v>
       </c>
       <c r="W14" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="42" customHeight="1" thickTop="1" thickBot="1">
@@ -9901,7 +9898,7 @@
         <v>56</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L15" s="28" t="s">
         <v>169</v>
@@ -9913,7 +9910,7 @@
         <v>167</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="R15" s="25" t="s">
         <v>102</v>
@@ -9951,25 +9948,25 @@
         <v>148</v>
       </c>
       <c r="I16" s="44" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J16" s="45" t="s">
         <v>57</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>314</v>
+        <v>701</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="M16" s="53" t="s">
+        <v>315</v>
+      </c>
+      <c r="M16" s="52" t="s">
         <v>227</v>
       </c>
       <c r="P16" s="18" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q16" s="18" t="s">
         <v>698</v>
-      </c>
-      <c r="Q16" s="18" t="s">
-        <v>700</v>
       </c>
       <c r="R16" s="25" t="s">
         <v>103</v>
@@ -9978,7 +9975,7 @@
         <v>100</v>
       </c>
       <c r="T16" s="23" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="U16" s="30" t="s">
         <v>198</v>
@@ -10004,13 +10001,13 @@
         <v>120</v>
       </c>
       <c r="I17" s="44" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="J17" s="45" t="s">
         <v>58</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L17" s="19" t="s">
         <v>279</v>
@@ -10025,7 +10022,7 @@
         <v>112</v>
       </c>
       <c r="P17" s="18" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="Q17" s="18" t="s">
         <v>263</v>
@@ -10034,7 +10031,7 @@
         <v>104</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T17" s="33" t="s">
         <v>65</v>
@@ -10138,17 +10135,17 @@
       <c r="O19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="P19" s="53" t="s">
+      <c r="P19" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="Q19" s="53" t="s">
+      <c r="Q19" s="52" t="s">
         <v>220</v>
       </c>
       <c r="R19" s="38" t="s">
         <v>28</v>
       </c>
       <c r="S19" s="38" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="T19" s="38" t="s">
         <v>200</v>
@@ -10180,7 +10177,7 @@
         <v>284</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="N20" s="31" t="s">
         <v>190</v>
@@ -10188,10 +10185,10 @@
       <c r="O20" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="P20" s="53" t="s">
+      <c r="P20" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="Q20" s="53" t="s">
+      <c r="Q20" s="52" t="s">
         <v>222</v>
       </c>
       <c r="R20" s="38" t="s">
@@ -10217,7 +10214,7 @@
       <c r="I21" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="31" t="s">
         <v>192</v>
       </c>
       <c r="N21" s="31" t="s">
@@ -10226,10 +10223,10 @@
       <c r="O21" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="P21" s="53" t="s">
+      <c r="P21" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="Q21" s="53" t="s">
+      <c r="Q21" s="52" t="s">
         <v>226</v>
       </c>
       <c r="R21" s="38" t="s">
@@ -10245,7 +10242,7 @@
     <row r="22" spans="1:22" s="15" customFormat="1" ht="42" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="23" spans="1:22" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="B23" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C23" s="6">
         <f>COUNTA(B2:Y21)</f>
@@ -10254,7 +10251,7 @@
     </row>
     <row r="24" spans="1:22" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="B24" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C24" s="6">
         <f>COUNTBLANK(B2:Y21)</f>
@@ -10275,10 +10272,10 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" thickTop="1" thickBottom="1"/>
@@ -11313,7 +11310,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A256" sqref="A256"/>
+      <selection pane="bottomLeft" activeCell="C256" sqref="C256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11334,7 +11331,7 @@
         <v>324</v>
       </c>
       <c r="C1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D1" s="27">
         <f>A1/B1</f>
@@ -11343,25 +11340,25 @@
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1">
       <c r="A2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" t="s">
         <v>320</v>
       </c>
-      <c r="B2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>322</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>324</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>326</v>
       </c>
-      <c r="F2" t="s">
-        <v>328</v>
-      </c>
       <c r="G2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
@@ -11375,18 +11372,18 @@
         <v>7.7</v>
       </c>
       <c r="D3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G3" t="s">
-        <v>323</v>
-      </c>
-      <c r="H3" s="71" t="s">
-        <v>327</v>
-      </c>
-      <c r="I3" s="71"/>
+        <v>321</v>
+      </c>
+      <c r="H3" s="73" t="s">
+        <v>325</v>
+      </c>
+      <c r="I3" s="73"/>
     </row>
     <row r="4" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" t="s">
@@ -11399,16 +11396,16 @@
         <v>6.7</v>
       </c>
       <c r="D4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G4" t="s">
-        <v>323</v>
-      </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
+        <v>321</v>
+      </c>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" t="s">
@@ -11421,16 +11418,16 @@
         <v>6.6</v>
       </c>
       <c r="D5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G5" t="s">
-        <v>323</v>
-      </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
+        <v>321</v>
+      </c>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
     </row>
     <row r="6" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" t="s">
@@ -11443,16 +11440,16 @@
         <v>7.6</v>
       </c>
       <c r="D6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G6" t="s">
-        <v>323</v>
-      </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
+        <v>321</v>
+      </c>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
     </row>
     <row r="7" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" t="s">
@@ -11465,16 +11462,16 @@
         <v>8.6</v>
       </c>
       <c r="D7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
+        <v>321</v>
+      </c>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
     </row>
     <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" t="s">
@@ -11487,16 +11484,16 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="D8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G8" t="s">
-        <v>323</v>
-      </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
+        <v>321</v>
+      </c>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" t="s">
@@ -11509,16 +11506,16 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="D9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G9" t="s">
-        <v>323</v>
-      </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
+        <v>321</v>
+      </c>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
     </row>
     <row r="10" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" t="s">
@@ -11531,16 +11528,16 @@
         <v>7.8</v>
       </c>
       <c r="D10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G10" t="s">
-        <v>323</v>
-      </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
+        <v>321</v>
+      </c>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
     </row>
     <row r="11" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" t="s">
@@ -11553,16 +11550,16 @@
         <v>6.8</v>
       </c>
       <c r="D11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G11" t="s">
-        <v>323</v>
-      </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
+        <v>321</v>
+      </c>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" t="s">
@@ -11575,16 +11572,16 @@
         <v>5.8</v>
       </c>
       <c r="D12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G12" t="s">
-        <v>323</v>
-      </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
+        <v>321</v>
+      </c>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
     </row>
     <row r="13" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" t="s">
@@ -11597,16 +11594,16 @@
         <v>5.9</v>
       </c>
       <c r="D13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G13" t="s">
-        <v>323</v>
-      </c>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
+        <v>321</v>
+      </c>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
     </row>
     <row r="14" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B14" s="37"/>
@@ -11623,18 +11620,18 @@
         <v>5.6</v>
       </c>
       <c r="D15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G15" t="s">
-        <v>323</v>
-      </c>
-      <c r="H15" s="60" t="s">
-        <v>330</v>
-      </c>
-      <c r="I15" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H15" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="I15" s="62"/>
     </row>
     <row r="16" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" t="s">
@@ -11647,16 +11644,16 @@
         <v>5.7</v>
       </c>
       <c r="D16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G16" t="s">
-        <v>323</v>
-      </c>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
     </row>
     <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" t="s">
@@ -11669,16 +11666,16 @@
         <v>4.7</v>
       </c>
       <c r="D17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G17" t="s">
-        <v>323</v>
-      </c>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
     </row>
     <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A18" t="s">
@@ -11691,16 +11688,16 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="D18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G18" t="s">
-        <v>323</v>
-      </c>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
     </row>
     <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" t="s">
@@ -11713,20 +11710,20 @@
         <v>3.7</v>
       </c>
       <c r="D19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G19" t="s">
-        <v>323</v>
-      </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
     </row>
     <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B20" s="36">
         <v>18.100000000000001</v>
@@ -11735,16 +11732,16 @@
         <v>3.6</v>
       </c>
       <c r="D20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G20" t="s">
-        <v>323</v>
-      </c>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
     </row>
     <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" t="s">
@@ -11757,16 +11754,16 @@
         <v>2.6</v>
       </c>
       <c r="D21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G21" t="s">
-        <v>323</v>
-      </c>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" t="s">
@@ -11779,16 +11776,16 @@
         <v>2.7</v>
       </c>
       <c r="D22" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E22" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G22" t="s">
-        <v>323</v>
-      </c>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
     </row>
     <row r="23" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" t="s">
@@ -11801,16 +11798,16 @@
         <v>2.8</v>
       </c>
       <c r="D23" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E23" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G23" t="s">
-        <v>323</v>
-      </c>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
     </row>
     <row r="24" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B24" s="37"/>
@@ -11827,18 +11824,18 @@
         <v>3.5</v>
       </c>
       <c r="D25" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E25" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G25" t="s">
-        <v>323</v>
-      </c>
-      <c r="H25" s="72" t="s">
-        <v>333</v>
-      </c>
-      <c r="I25" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H25" s="74" t="s">
+        <v>331</v>
+      </c>
+      <c r="I25" s="74"/>
     </row>
     <row r="26" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" t="s">
@@ -11851,16 +11848,16 @@
         <v>2.5</v>
       </c>
       <c r="D26" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E26" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G26" t="s">
-        <v>323</v>
-      </c>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
     </row>
     <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" t="s">
@@ -11873,16 +11870,16 @@
         <v>1.5</v>
       </c>
       <c r="D27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G27" t="s">
-        <v>323</v>
-      </c>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
     </row>
     <row r="28" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" t="s">
@@ -11895,16 +11892,16 @@
         <v>2.4</v>
       </c>
       <c r="D28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G28" t="s">
-        <v>323</v>
-      </c>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
     </row>
     <row r="29" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" t="s">
@@ -11917,16 +11914,16 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D29" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E29" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G29" t="s">
-        <v>323</v>
-      </c>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
     </row>
     <row r="30" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" t="s">
@@ -11939,20 +11936,20 @@
         <v>1.3</v>
       </c>
       <c r="D30" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E30" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G30" t="s">
-        <v>323</v>
-      </c>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
     </row>
     <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B31" s="36">
         <v>10.9</v>
@@ -11961,16 +11958,16 @@
         <v>1.4</v>
       </c>
       <c r="D31" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E31" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G31" t="s">
-        <v>323</v>
-      </c>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
     </row>
     <row r="32" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B32" s="37"/>
@@ -11987,18 +11984,18 @@
         <v>9.6</v>
       </c>
       <c r="D33" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E33" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G33" t="s">
-        <v>323</v>
-      </c>
-      <c r="H33" s="73" t="s">
-        <v>335</v>
-      </c>
-      <c r="I33" s="73"/>
+        <v>321</v>
+      </c>
+      <c r="H33" s="75" t="s">
+        <v>333</v>
+      </c>
+      <c r="I33" s="75"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
@@ -12011,16 +12008,16 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="D34" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E34" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G34" t="s">
-        <v>323</v>
-      </c>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
+        <v>321</v>
+      </c>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
@@ -12033,20 +12030,20 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="D35" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E35" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G35" t="s">
-        <v>323</v>
-      </c>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
+        <v>321</v>
+      </c>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B36" s="36">
         <v>5.6</v>
@@ -12055,16 +12052,16 @@
         <v>10.7</v>
       </c>
       <c r="D36" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E36" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G36" t="s">
-        <v>323</v>
-      </c>
-      <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
+        <v>321</v>
+      </c>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
@@ -12077,16 +12074,16 @@
         <v>11.7</v>
       </c>
       <c r="D37" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E37" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G37" t="s">
-        <v>323</v>
-      </c>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
+        <v>321</v>
+      </c>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
@@ -12099,16 +12096,16 @@
         <v>10.6</v>
       </c>
       <c r="D38" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E38" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G38" t="s">
-        <v>323</v>
-      </c>
-      <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
+        <v>321</v>
+      </c>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
@@ -12121,20 +12118,20 @@
         <v>11.6</v>
       </c>
       <c r="D39" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E39" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G39" t="s">
-        <v>323</v>
-      </c>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
+        <v>321</v>
+      </c>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B40" s="36">
         <v>3.3</v>
@@ -12143,16 +12140,16 @@
         <v>6.5</v>
       </c>
       <c r="D40" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E40" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G40" t="s">
-        <v>323</v>
-      </c>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
+        <v>321</v>
+      </c>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
@@ -12165,16 +12162,16 @@
         <v>7.5</v>
       </c>
       <c r="D41" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E41" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G41" t="s">
-        <v>323</v>
-      </c>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
+        <v>321</v>
+      </c>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
@@ -12187,16 +12184,16 @@
         <v>8.5</v>
       </c>
       <c r="D42" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E42" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G42" t="s">
-        <v>323</v>
-      </c>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
+        <v>321</v>
+      </c>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
     </row>
     <row r="43" spans="1:9" s="24" customFormat="1" ht="15" thickBot="1">
       <c r="B43" s="37"/>
@@ -12215,18 +12212,18 @@
         <v>9.4</v>
       </c>
       <c r="D44" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E44" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G44" t="s">
-        <v>323</v>
-      </c>
-      <c r="H44" s="72" t="s">
-        <v>337</v>
-      </c>
-      <c r="I44" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H44" s="74" t="s">
+        <v>335</v>
+      </c>
+      <c r="I44" s="74"/>
     </row>
     <row r="45" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" t="s">
@@ -12239,16 +12236,16 @@
         <v>9.5</v>
       </c>
       <c r="D45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G45" t="s">
-        <v>323</v>
-      </c>
-      <c r="H45" s="72"/>
-      <c r="I45" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H45" s="74"/>
+      <c r="I45" s="74"/>
     </row>
     <row r="46" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" t="s">
@@ -12261,16 +12258,16 @@
         <v>8.4</v>
       </c>
       <c r="D46" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E46" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G46" t="s">
-        <v>323</v>
-      </c>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
     </row>
     <row r="47" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" t="s">
@@ -12283,16 +12280,16 @@
         <v>7.4</v>
       </c>
       <c r="D47" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E47" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G47" t="s">
-        <v>323</v>
-      </c>
-      <c r="H47" s="72"/>
-      <c r="I47" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
     </row>
     <row r="48" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" t="s">
@@ -12305,16 +12302,16 @@
         <v>7.3</v>
       </c>
       <c r="D48" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E48" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G48" t="s">
-        <v>323</v>
-      </c>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
     </row>
     <row r="49" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" t="s">
@@ -12327,16 +12324,16 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D49" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E49" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G49" t="s">
-        <v>323</v>
-      </c>
-      <c r="H49" s="72"/>
-      <c r="I49" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H49" s="74"/>
+      <c r="I49" s="74"/>
     </row>
     <row r="50" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B50" s="37"/>
@@ -12353,18 +12350,18 @@
         <v>10.5</v>
       </c>
       <c r="D51" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E51" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G51" t="s">
-        <v>323</v>
-      </c>
-      <c r="H51" s="82" t="s">
-        <v>338</v>
-      </c>
-      <c r="I51" s="83"/>
+        <v>321</v>
+      </c>
+      <c r="H51" s="84" t="s">
+        <v>336</v>
+      </c>
+      <c r="I51" s="85"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
@@ -12377,16 +12374,16 @@
         <v>10.4</v>
       </c>
       <c r="D52" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E52" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G52" t="s">
-        <v>323</v>
-      </c>
-      <c r="H52" s="84"/>
-      <c r="I52" s="85"/>
+        <v>321</v>
+      </c>
+      <c r="H52" s="86"/>
+      <c r="I52" s="87"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
@@ -12399,16 +12396,16 @@
         <v>11.4</v>
       </c>
       <c r="D53" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E53" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G53" t="s">
-        <v>323</v>
-      </c>
-      <c r="H53" s="84"/>
-      <c r="I53" s="85"/>
+        <v>321</v>
+      </c>
+      <c r="H53" s="86"/>
+      <c r="I53" s="87"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
@@ -12421,16 +12418,16 @@
         <v>12.4</v>
       </c>
       <c r="D54" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E54" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G54" t="s">
-        <v>323</v>
-      </c>
-      <c r="H54" s="84"/>
-      <c r="I54" s="85"/>
+        <v>321</v>
+      </c>
+      <c r="H54" s="86"/>
+      <c r="I54" s="87"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
@@ -12443,16 +12440,16 @@
         <v>11.3</v>
       </c>
       <c r="D55" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E55" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G55" t="s">
-        <v>323</v>
-      </c>
-      <c r="H55" s="84"/>
-      <c r="I55" s="85"/>
+        <v>321</v>
+      </c>
+      <c r="H55" s="86"/>
+      <c r="I55" s="87"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
@@ -12465,16 +12462,16 @@
         <v>12.3</v>
       </c>
       <c r="D56" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E56" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G56" t="s">
-        <v>323</v>
-      </c>
-      <c r="H56" s="84"/>
-      <c r="I56" s="85"/>
+        <v>321</v>
+      </c>
+      <c r="H56" s="86"/>
+      <c r="I56" s="87"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
@@ -12487,16 +12484,16 @@
         <v>13.3</v>
       </c>
       <c r="D57" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E57" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G57" t="s">
-        <v>323</v>
-      </c>
-      <c r="H57" s="84"/>
-      <c r="I57" s="85"/>
+        <v>321</v>
+      </c>
+      <c r="H57" s="86"/>
+      <c r="I57" s="87"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
@@ -12509,16 +12506,16 @@
         <v>11.2</v>
       </c>
       <c r="D58" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E58" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G58" t="s">
-        <v>323</v>
-      </c>
-      <c r="H58" s="84"/>
-      <c r="I58" s="85"/>
+        <v>321</v>
+      </c>
+      <c r="H58" s="86"/>
+      <c r="I58" s="87"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
@@ -12531,16 +12528,16 @@
         <v>12.2</v>
       </c>
       <c r="D59" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E59" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G59" t="s">
-        <v>323</v>
-      </c>
-      <c r="H59" s="84"/>
-      <c r="I59" s="85"/>
+        <v>321</v>
+      </c>
+      <c r="H59" s="86"/>
+      <c r="I59" s="87"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
@@ -12553,35 +12550,35 @@
         <v>13.2</v>
       </c>
       <c r="D60" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E60" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G60" t="s">
-        <v>323</v>
-      </c>
-      <c r="H60" s="84"/>
-      <c r="I60" s="85"/>
+        <v>321</v>
+      </c>
+      <c r="H60" s="86"/>
+      <c r="I60" s="87"/>
     </row>
     <row r="61" spans="1:9" ht="15" thickBot="1">
       <c r="A61" t="s">
+        <v>370</v>
+      </c>
+      <c r="B61" s="36" t="s">
         <v>372</v>
       </c>
-      <c r="B61" s="36" t="s">
-        <v>374</v>
-      </c>
       <c r="C61" s="36" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D61" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E61" t="s">
-        <v>323</v>
-      </c>
-      <c r="H61" s="86"/>
-      <c r="I61" s="87"/>
+        <v>321</v>
+      </c>
+      <c r="H61" s="88"/>
+      <c r="I61" s="89"/>
     </row>
     <row r="62" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B62" s="37"/>
@@ -12592,112 +12589,112 @@
         <v>1</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C63" s="36">
         <v>8.9</v>
       </c>
       <c r="D63" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E63" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G63" t="s">
-        <v>323</v>
-      </c>
-      <c r="H63" s="60" t="s">
-        <v>349</v>
-      </c>
-      <c r="I63" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H63" s="62" t="s">
+        <v>347</v>
+      </c>
+      <c r="I63" s="62"/>
     </row>
     <row r="64" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" t="s">
         <v>2</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C64" s="36" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D64" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E64" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G64" t="s">
-        <v>323</v>
-      </c>
-      <c r="H64" s="60"/>
-      <c r="I64" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H64" s="62"/>
+      <c r="I64" s="62"/>
     </row>
     <row r="65" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" t="s">
         <v>78</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C65" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D65" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E65" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G65" t="s">
-        <v>323</v>
-      </c>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H65" s="62"/>
+      <c r="I65" s="62"/>
     </row>
     <row r="66" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" t="s">
         <v>81</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C66" s="36" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D66" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E66" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G66" t="s">
-        <v>323</v>
-      </c>
-      <c r="H66" s="60"/>
-      <c r="I66" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
     </row>
     <row r="67" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" t="s">
         <v>82</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C67" s="36" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D67" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E67" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G67" t="s">
-        <v>323</v>
-      </c>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H67" s="62"/>
+      <c r="I67" s="62"/>
     </row>
     <row r="68" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B68" s="37"/>
@@ -12708,222 +12705,222 @@
         <v>90</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C69" s="36" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D69" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E69" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G69" t="s">
-        <v>323</v>
-      </c>
-      <c r="H69" s="79" t="s">
-        <v>362</v>
-      </c>
-      <c r="I69" s="79"/>
+        <v>321</v>
+      </c>
+      <c r="H69" s="81" t="s">
+        <v>360</v>
+      </c>
+      <c r="I69" s="81"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>92</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C70" s="36" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D70" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E70" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G70" t="s">
-        <v>323</v>
-      </c>
-      <c r="H70" s="80"/>
-      <c r="I70" s="80"/>
+        <v>321</v>
+      </c>
+      <c r="H70" s="82"/>
+      <c r="I70" s="82"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>91</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C71" s="36" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D71" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E71" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G71" t="s">
-        <v>323</v>
-      </c>
-      <c r="H71" s="80"/>
-      <c r="I71" s="80"/>
+        <v>321</v>
+      </c>
+      <c r="H71" s="82"/>
+      <c r="I71" s="82"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>93</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C72" s="36" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D72" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E72" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G72" t="s">
-        <v>323</v>
-      </c>
-      <c r="H72" s="80"/>
-      <c r="I72" s="80"/>
+        <v>321</v>
+      </c>
+      <c r="H72" s="82"/>
+      <c r="I72" s="82"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>107</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C73" s="36" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D73" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E73" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G73" t="s">
-        <v>323</v>
-      </c>
-      <c r="H73" s="80"/>
-      <c r="I73" s="80"/>
+        <v>321</v>
+      </c>
+      <c r="H73" s="82"/>
+      <c r="I73" s="82"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>109</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C74" s="36" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D74" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E74" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G74" t="s">
-        <v>323</v>
-      </c>
-      <c r="H74" s="80"/>
-      <c r="I74" s="80"/>
+        <v>321</v>
+      </c>
+      <c r="H74" s="82"/>
+      <c r="I74" s="82"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>237</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C75" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D75" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E75" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G75" t="s">
-        <v>323</v>
-      </c>
-      <c r="H75" s="80"/>
-      <c r="I75" s="80"/>
+        <v>321</v>
+      </c>
+      <c r="H75" s="82"/>
+      <c r="I75" s="82"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>55</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C76" s="36" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D76" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E76" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G76" t="s">
-        <v>323</v>
-      </c>
-      <c r="H76" s="80"/>
-      <c r="I76" s="80"/>
+        <v>321</v>
+      </c>
+      <c r="H76" s="82"/>
+      <c r="I76" s="82"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>170</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C77" s="36" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D77" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E77" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G77" t="s">
-        <v>323</v>
-      </c>
-      <c r="H77" s="80"/>
-      <c r="I77" s="80"/>
+        <v>321</v>
+      </c>
+      <c r="H77" s="82"/>
+      <c r="I77" s="82"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>94</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C78" s="36" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D78" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E78" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G78" t="s">
-        <v>323</v>
-      </c>
-      <c r="H78" s="81"/>
-      <c r="I78" s="81"/>
+        <v>321</v>
+      </c>
+      <c r="H78" s="83"/>
+      <c r="I78" s="83"/>
     </row>
     <row r="79" spans="1:9" s="24" customFormat="1" ht="15" thickBot="1">
       <c r="B79" s="37"/>
@@ -12934,354 +12931,354 @@
         <v>5</v>
       </c>
       <c r="B80" s="36" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C80" s="36" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D80" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E80" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G80" t="s">
-        <v>323</v>
-      </c>
-      <c r="H80" s="88" t="s">
-        <v>405</v>
-      </c>
-      <c r="I80" s="89"/>
+        <v>321</v>
+      </c>
+      <c r="H80" s="90" t="s">
+        <v>403</v>
+      </c>
+      <c r="I80" s="91"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>6</v>
       </c>
       <c r="B81" s="36" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C81" s="36" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D81" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E81" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G81" t="s">
-        <v>323</v>
-      </c>
-      <c r="H81" s="90"/>
-      <c r="I81" s="91"/>
+        <v>321</v>
+      </c>
+      <c r="H81" s="92"/>
+      <c r="I81" s="93"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>12</v>
       </c>
       <c r="B82" s="36" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C82" s="36" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D82" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E82" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G82" t="s">
-        <v>323</v>
-      </c>
-      <c r="H82" s="90"/>
-      <c r="I82" s="91"/>
+        <v>321</v>
+      </c>
+      <c r="H82" s="92"/>
+      <c r="I82" s="93"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>13</v>
       </c>
       <c r="B83" s="36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C83" s="36" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D83" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E83" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G83" t="s">
-        <v>323</v>
-      </c>
-      <c r="H83" s="90"/>
-      <c r="I83" s="91"/>
+        <v>321</v>
+      </c>
+      <c r="H83" s="92"/>
+      <c r="I83" s="93"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>19</v>
       </c>
       <c r="B84" s="36" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C84" s="36" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D84" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E84" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G84" t="s">
-        <v>323</v>
-      </c>
-      <c r="H84" s="90"/>
-      <c r="I84" s="91"/>
+        <v>321</v>
+      </c>
+      <c r="H84" s="92"/>
+      <c r="I84" s="93"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>20</v>
       </c>
       <c r="B85" s="36" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C85" s="36" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D85" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E85" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G85" t="s">
-        <v>323</v>
-      </c>
-      <c r="H85" s="90"/>
-      <c r="I85" s="91"/>
+        <v>321</v>
+      </c>
+      <c r="H85" s="92"/>
+      <c r="I85" s="93"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>264</v>
       </c>
       <c r="B86" s="36" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C86" s="36" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D86" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E86" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G86" t="s">
-        <v>323</v>
-      </c>
-      <c r="H86" s="90"/>
-      <c r="I86" s="91"/>
+        <v>321</v>
+      </c>
+      <c r="H86" s="92"/>
+      <c r="I86" s="93"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>154</v>
       </c>
       <c r="B87" s="36" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C87" s="36" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D87" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E87" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G87" t="s">
-        <v>323</v>
-      </c>
-      <c r="H87" s="90"/>
-      <c r="I87" s="91"/>
+        <v>321</v>
+      </c>
+      <c r="H87" s="92"/>
+      <c r="I87" s="93"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
+        <v>386</v>
+      </c>
+      <c r="B88" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="B88" s="36" t="s">
-        <v>390</v>
-      </c>
       <c r="C88" s="36" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D88" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E88" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G88" t="s">
-        <v>323</v>
-      </c>
-      <c r="H88" s="90"/>
-      <c r="I88" s="91"/>
+        <v>321</v>
+      </c>
+      <c r="H88" s="92"/>
+      <c r="I88" s="93"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>180</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C89" s="36" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D89" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E89" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G89" t="s">
-        <v>323</v>
-      </c>
-      <c r="H89" s="90"/>
-      <c r="I89" s="91"/>
+        <v>321</v>
+      </c>
+      <c r="H89" s="92"/>
+      <c r="I89" s="93"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>193</v>
       </c>
       <c r="B90" s="36" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C90" s="36" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D90" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E90" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G90" t="s">
-        <v>323</v>
-      </c>
-      <c r="H90" s="90"/>
-      <c r="I90" s="91"/>
+        <v>321</v>
+      </c>
+      <c r="H90" s="92"/>
+      <c r="I90" s="93"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>194</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C91" s="36" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D91" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E91" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G91" t="s">
-        <v>323</v>
-      </c>
-      <c r="H91" s="90"/>
-      <c r="I91" s="91"/>
+        <v>321</v>
+      </c>
+      <c r="H91" s="92"/>
+      <c r="I91" s="93"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>95</v>
       </c>
       <c r="B92" s="36" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C92" s="36" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D92" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E92" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G92" t="s">
-        <v>323</v>
-      </c>
-      <c r="H92" s="90"/>
-      <c r="I92" s="91"/>
+        <v>321</v>
+      </c>
+      <c r="H92" s="92"/>
+      <c r="I92" s="93"/>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>142</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C93" s="36" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D93" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E93" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G93" t="s">
-        <v>323</v>
-      </c>
-      <c r="H93" s="90"/>
-      <c r="I93" s="91"/>
+        <v>321</v>
+      </c>
+      <c r="H93" s="92"/>
+      <c r="I93" s="93"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>143</v>
       </c>
       <c r="B94" s="36" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C94" s="36" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D94" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E94" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G94" t="s">
-        <v>323</v>
-      </c>
-      <c r="H94" s="90"/>
-      <c r="I94" s="91"/>
+        <v>321</v>
+      </c>
+      <c r="H94" s="92"/>
+      <c r="I94" s="93"/>
     </row>
     <row r="95" spans="1:9" ht="15" thickBot="1">
       <c r="A95" t="s">
         <v>34</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C95" s="36" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D95" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E95" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G95" t="s">
-        <v>323</v>
-      </c>
-      <c r="H95" s="92"/>
-      <c r="I95" s="93"/>
+        <v>321</v>
+      </c>
+      <c r="H95" s="94"/>
+      <c r="I95" s="95"/>
     </row>
     <row r="96" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B96" s="37"/>
@@ -13292,134 +13289,134 @@
         <v>69</v>
       </c>
       <c r="B97" s="36" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C97" s="36" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D97" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E97" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G97" t="s">
-        <v>323</v>
-      </c>
-      <c r="H97" s="72" t="s">
-        <v>418</v>
-      </c>
-      <c r="I97" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H97" s="74" t="s">
+        <v>416</v>
+      </c>
+      <c r="I97" s="74"/>
     </row>
     <row r="98" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A98" t="s">
         <v>70</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C98" s="36" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D98" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E98" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G98" t="s">
-        <v>323</v>
-      </c>
-      <c r="H98" s="72"/>
-      <c r="I98" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H98" s="74"/>
+      <c r="I98" s="74"/>
     </row>
     <row r="99" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A99" t="s">
         <v>72</v>
       </c>
       <c r="B99" s="36" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C99" s="36" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D99" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E99" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G99" t="s">
-        <v>323</v>
-      </c>
-      <c r="H99" s="72"/>
-      <c r="I99" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H99" s="74"/>
+      <c r="I99" s="74"/>
     </row>
     <row r="100" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A100" t="s">
         <v>22</v>
       </c>
       <c r="B100" s="36" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C100" s="36" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D100" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E100" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G100" t="s">
-        <v>323</v>
-      </c>
-      <c r="H100" s="72"/>
-      <c r="I100" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H100" s="74"/>
+      <c r="I100" s="74"/>
     </row>
     <row r="101" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A101" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B101" s="36" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C101" s="36" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D101" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E101" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G101" t="s">
-        <v>323</v>
-      </c>
-      <c r="H101" s="72"/>
-      <c r="I101" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H101" s="74"/>
+      <c r="I101" s="74"/>
     </row>
     <row r="102" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A102" t="s">
         <v>87</v>
       </c>
       <c r="B102" s="36" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C102" s="36" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D102" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E102" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G102" t="s">
-        <v>323</v>
-      </c>
-      <c r="H102" s="72"/>
-      <c r="I102" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H102" s="74"/>
+      <c r="I102" s="74"/>
     </row>
     <row r="103" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B103" s="37"/>
@@ -13430,112 +13427,112 @@
         <v>48</v>
       </c>
       <c r="B104" s="36" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C104" s="36" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D104" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E104" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G104" t="s">
-        <v>323</v>
-      </c>
-      <c r="H104" s="82" t="s">
-        <v>427</v>
-      </c>
-      <c r="I104" s="83"/>
+        <v>321</v>
+      </c>
+      <c r="H104" s="84" t="s">
+        <v>425</v>
+      </c>
+      <c r="I104" s="85"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>54</v>
       </c>
       <c r="B105" s="36" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C105" s="36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D105" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E105" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G105" t="s">
-        <v>323</v>
-      </c>
-      <c r="H105" s="84"/>
-      <c r="I105" s="85"/>
+        <v>321</v>
+      </c>
+      <c r="H105" s="86"/>
+      <c r="I105" s="87"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>60</v>
       </c>
       <c r="B106" s="36" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C106" s="36" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D106" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E106" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G106" t="s">
-        <v>323</v>
-      </c>
-      <c r="H106" s="84"/>
-      <c r="I106" s="85"/>
+        <v>321</v>
+      </c>
+      <c r="H106" s="86"/>
+      <c r="I106" s="87"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B107" s="36" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C107" s="36" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D107" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E107" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G107" t="s">
-        <v>323</v>
-      </c>
-      <c r="H107" s="84"/>
-      <c r="I107" s="85"/>
+        <v>321</v>
+      </c>
+      <c r="H107" s="86"/>
+      <c r="I107" s="87"/>
     </row>
     <row r="108" spans="1:9" ht="15" thickBot="1">
       <c r="A108" t="s">
         <v>138</v>
       </c>
       <c r="B108" s="36" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C108" s="36" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D108" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E108" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G108" t="s">
-        <v>323</v>
-      </c>
-      <c r="H108" s="86"/>
-      <c r="I108" s="87"/>
+        <v>321</v>
+      </c>
+      <c r="H108" s="88"/>
+      <c r="I108" s="89"/>
     </row>
     <row r="109" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B109" s="37"/>
@@ -13546,222 +13543,222 @@
         <v>8</v>
       </c>
       <c r="B110" s="36" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C110" s="36" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D110" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E110" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G110" t="s">
-        <v>323</v>
-      </c>
-      <c r="H110" s="94" t="s">
-        <v>447</v>
-      </c>
-      <c r="I110" s="95"/>
+        <v>321</v>
+      </c>
+      <c r="H110" s="96" t="s">
+        <v>445</v>
+      </c>
+      <c r="I110" s="97"/>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>9</v>
       </c>
       <c r="B111" s="36" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C111" s="36" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D111" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E111" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G111" t="s">
-        <v>323</v>
-      </c>
-      <c r="H111" s="96"/>
-      <c r="I111" s="97"/>
+        <v>321</v>
+      </c>
+      <c r="H111" s="98"/>
+      <c r="I111" s="99"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>10</v>
       </c>
       <c r="B112" s="36" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C112" s="36" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D112" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E112" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G112" t="s">
-        <v>323</v>
-      </c>
-      <c r="H112" s="96"/>
-      <c r="I112" s="97"/>
+        <v>321</v>
+      </c>
+      <c r="H112" s="98"/>
+      <c r="I112" s="99"/>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>31</v>
       </c>
       <c r="B113" s="36" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C113" s="36" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D113" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E113" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G113" t="s">
-        <v>323</v>
-      </c>
-      <c r="H113" s="96"/>
-      <c r="I113" s="97"/>
+        <v>321</v>
+      </c>
+      <c r="H113" s="98"/>
+      <c r="I113" s="99"/>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>32</v>
       </c>
       <c r="B114" s="36" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C114" s="36" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D114" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E114" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G114" t="s">
-        <v>323</v>
-      </c>
-      <c r="H114" s="96"/>
-      <c r="I114" s="97"/>
+        <v>321</v>
+      </c>
+      <c r="H114" s="98"/>
+      <c r="I114" s="99"/>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>33</v>
       </c>
       <c r="B115" s="36" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C115" s="36" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D115" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E115" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G115" t="s">
-        <v>323</v>
-      </c>
-      <c r="H115" s="96"/>
-      <c r="I115" s="97"/>
+        <v>321</v>
+      </c>
+      <c r="H115" s="98"/>
+      <c r="I115" s="99"/>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>38</v>
       </c>
       <c r="B116" s="36" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C116" s="36" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D116" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E116" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G116" t="s">
-        <v>323</v>
-      </c>
-      <c r="H116" s="96"/>
-      <c r="I116" s="97"/>
+        <v>321</v>
+      </c>
+      <c r="H116" s="98"/>
+      <c r="I116" s="99"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>39</v>
       </c>
       <c r="B117" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="C117" s="36" t="s">
         <v>444</v>
       </c>
-      <c r="C117" s="36" t="s">
-        <v>446</v>
-      </c>
       <c r="D117" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E117" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G117" t="s">
-        <v>323</v>
-      </c>
-      <c r="H117" s="96"/>
-      <c r="I117" s="97"/>
+        <v>321</v>
+      </c>
+      <c r="H117" s="98"/>
+      <c r="I117" s="99"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>40</v>
       </c>
       <c r="B118" s="36" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C118" s="36" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D118" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E118" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G118" t="s">
-        <v>323</v>
-      </c>
-      <c r="H118" s="96"/>
-      <c r="I118" s="97"/>
+        <v>321</v>
+      </c>
+      <c r="H118" s="98"/>
+      <c r="I118" s="99"/>
     </row>
     <row r="119" spans="1:9" ht="15" thickBot="1">
       <c r="A119" t="s">
         <v>146</v>
       </c>
       <c r="B119" s="36" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C119" s="36" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D119" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E119" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G119" t="s">
-        <v>323</v>
-      </c>
-      <c r="H119" s="98"/>
-      <c r="I119" s="99"/>
+        <v>321</v>
+      </c>
+      <c r="H119" s="100"/>
+      <c r="I119" s="101"/>
     </row>
     <row r="120" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B120" s="37"/>
@@ -13778,194 +13775,194 @@
         <v>17.899999999999999</v>
       </c>
       <c r="D121" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E121" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G121" t="s">
-        <v>323</v>
-      </c>
-      <c r="H121" s="82" t="s">
-        <v>462</v>
-      </c>
-      <c r="I121" s="83"/>
+        <v>321</v>
+      </c>
+      <c r="H121" s="84" t="s">
+        <v>460</v>
+      </c>
+      <c r="I121" s="85"/>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>64</v>
       </c>
       <c r="B122" s="36" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C122" s="36" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D122" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E122" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G122" t="s">
-        <v>323</v>
-      </c>
-      <c r="H122" s="84"/>
-      <c r="I122" s="85"/>
+        <v>321</v>
+      </c>
+      <c r="H122" s="86"/>
+      <c r="I122" s="87"/>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>63</v>
       </c>
       <c r="B123" s="36" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C123" s="36" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D123" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E123" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G123" t="s">
-        <v>323</v>
-      </c>
-      <c r="H123" s="84"/>
-      <c r="I123" s="85"/>
+        <v>321</v>
+      </c>
+      <c r="H123" s="86"/>
+      <c r="I123" s="87"/>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>59</v>
       </c>
       <c r="B124" s="36" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C124" s="36" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D124" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E124" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G124" t="s">
-        <v>323</v>
-      </c>
-      <c r="H124" s="84"/>
-      <c r="I124" s="85"/>
+        <v>321</v>
+      </c>
+      <c r="H124" s="86"/>
+      <c r="I124" s="87"/>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>124</v>
       </c>
       <c r="B125" s="36" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C125" s="36" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D125" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E125" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G125" t="s">
-        <v>323</v>
-      </c>
-      <c r="H125" s="84"/>
-      <c r="I125" s="85"/>
+        <v>321</v>
+      </c>
+      <c r="H125" s="86"/>
+      <c r="I125" s="87"/>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>125</v>
       </c>
       <c r="B126" s="36" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C126" s="36" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D126" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E126" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G126" t="s">
-        <v>323</v>
-      </c>
-      <c r="H126" s="84"/>
-      <c r="I126" s="85"/>
+        <v>321</v>
+      </c>
+      <c r="H126" s="86"/>
+      <c r="I126" s="87"/>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>53</v>
       </c>
       <c r="B127" s="36" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C127" s="36" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D127" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E127" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G127" t="s">
-        <v>323</v>
-      </c>
-      <c r="H127" s="84"/>
-      <c r="I127" s="85"/>
+        <v>321</v>
+      </c>
+      <c r="H127" s="86"/>
+      <c r="I127" s="87"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>52</v>
       </c>
       <c r="B128" s="36" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C128" s="36" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D128" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E128" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G128" t="s">
-        <v>323</v>
-      </c>
-      <c r="H128" s="84"/>
-      <c r="I128" s="85"/>
+        <v>321</v>
+      </c>
+      <c r="H128" s="86"/>
+      <c r="I128" s="87"/>
     </row>
     <row r="129" spans="1:9" ht="15" thickBot="1">
       <c r="A129" t="s">
         <v>126</v>
       </c>
       <c r="B129" s="36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C129" s="36" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D129" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E129" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G129" t="s">
-        <v>323</v>
-      </c>
-      <c r="H129" s="86"/>
-      <c r="I129" s="87"/>
+        <v>321</v>
+      </c>
+      <c r="H129" s="88"/>
+      <c r="I129" s="89"/>
     </row>
     <row r="130" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B130" s="37"/>
@@ -13976,178 +13973,178 @@
         <v>86</v>
       </c>
       <c r="B131" s="36" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C131" s="36" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D131" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E131" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G131" t="s">
-        <v>323</v>
-      </c>
-      <c r="H131" s="72" t="s">
-        <v>478</v>
-      </c>
-      <c r="I131" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H131" s="74" t="s">
+        <v>476</v>
+      </c>
+      <c r="I131" s="74"/>
     </row>
     <row r="132" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A132" t="s">
         <v>88</v>
       </c>
       <c r="B132" s="36" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C132" s="36" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D132" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E132" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G132" t="s">
-        <v>323</v>
-      </c>
-      <c r="H132" s="72"/>
-      <c r="I132" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H132" s="74"/>
+      <c r="I132" s="74"/>
     </row>
     <row r="133" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A133" t="s">
         <v>89</v>
       </c>
       <c r="B133" s="36" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C133" s="36" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D133" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E133" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G133" t="s">
-        <v>323</v>
-      </c>
-      <c r="H133" s="72"/>
-      <c r="I133" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H133" s="74"/>
+      <c r="I133" s="74"/>
     </row>
     <row r="134" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A134" t="s">
         <v>7</v>
       </c>
       <c r="B134" s="36" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C134" s="36" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D134" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E134" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G134" t="s">
-        <v>323</v>
-      </c>
-      <c r="H134" s="72"/>
-      <c r="I134" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H134" s="74"/>
+      <c r="I134" s="74"/>
     </row>
     <row r="135" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A135" t="s">
         <v>197</v>
       </c>
       <c r="B135" s="36" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C135" s="36" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D135" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E135" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G135" t="s">
-        <v>323</v>
-      </c>
-      <c r="H135" s="72"/>
-      <c r="I135" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H135" s="74"/>
+      <c r="I135" s="74"/>
     </row>
     <row r="136" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A136" t="s">
         <v>196</v>
       </c>
       <c r="B136" s="36" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C136" s="36" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D136" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E136" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G136" t="s">
-        <v>323</v>
-      </c>
-      <c r="H136" s="72"/>
-      <c r="I136" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H136" s="74"/>
+      <c r="I136" s="74"/>
     </row>
     <row r="137" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A137" t="s">
         <v>195</v>
       </c>
       <c r="B137" s="36" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C137" s="36" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D137" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E137" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G137" t="s">
-        <v>323</v>
-      </c>
-      <c r="H137" s="72"/>
-      <c r="I137" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H137" s="74"/>
+      <c r="I137" s="74"/>
     </row>
     <row r="138" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A138" t="s">
         <v>198</v>
       </c>
       <c r="B138" s="36" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C138" s="36" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D138" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E138" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G138" t="s">
-        <v>323</v>
-      </c>
-      <c r="H138" s="72"/>
-      <c r="I138" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H138" s="74"/>
+      <c r="I138" s="74"/>
     </row>
     <row r="139" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B139" s="37"/>
@@ -14158,178 +14155,178 @@
         <v>102</v>
       </c>
       <c r="B140" s="36" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C140" s="36" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D140" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E140" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G140" t="s">
-        <v>323</v>
-      </c>
-      <c r="H140" s="76" t="s">
-        <v>495</v>
-      </c>
-      <c r="I140" s="76"/>
+        <v>321</v>
+      </c>
+      <c r="H140" s="78" t="s">
+        <v>493</v>
+      </c>
+      <c r="I140" s="78"/>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>101</v>
       </c>
       <c r="B141" s="36" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C141" s="36" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D141" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E141" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G141" t="s">
-        <v>323</v>
-      </c>
-      <c r="H141" s="77"/>
-      <c r="I141" s="77"/>
+        <v>321</v>
+      </c>
+      <c r="H141" s="79"/>
+      <c r="I141" s="79"/>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>103</v>
       </c>
       <c r="B142" s="36" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C142" s="36" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D142" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E142" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G142" t="s">
-        <v>323</v>
-      </c>
-      <c r="H142" s="77"/>
-      <c r="I142" s="77"/>
+        <v>321</v>
+      </c>
+      <c r="H142" s="79"/>
+      <c r="I142" s="79"/>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>100</v>
       </c>
       <c r="B143" s="36" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C143" s="36" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D143" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E143" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G143" t="s">
-        <v>323</v>
-      </c>
-      <c r="H143" s="77"/>
-      <c r="I143" s="77"/>
+        <v>321</v>
+      </c>
+      <c r="H143" s="79"/>
+      <c r="I143" s="79"/>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="40" t="s">
         <v>104</v>
       </c>
       <c r="B144" s="36" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C144" s="36" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D144" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E144" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G144" t="s">
-        <v>323</v>
-      </c>
-      <c r="H144" s="77"/>
-      <c r="I144" s="77"/>
+        <v>321</v>
+      </c>
+      <c r="H144" s="79"/>
+      <c r="I144" s="79"/>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>127</v>
       </c>
       <c r="B145" s="36" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C145" s="36" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D145" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E145" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G145" t="s">
-        <v>323</v>
-      </c>
-      <c r="H145" s="77"/>
-      <c r="I145" s="77"/>
+        <v>321</v>
+      </c>
+      <c r="H145" s="79"/>
+      <c r="I145" s="79"/>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>185</v>
       </c>
       <c r="B146" s="36" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C146" s="36" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D146" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E146" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G146" t="s">
-        <v>323</v>
-      </c>
-      <c r="H146" s="77"/>
-      <c r="I146" s="77"/>
+        <v>321</v>
+      </c>
+      <c r="H146" s="79"/>
+      <c r="I146" s="79"/>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>149</v>
       </c>
       <c r="B147" s="36" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C147" s="36" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D147" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E147" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G147" t="s">
-        <v>323</v>
-      </c>
-      <c r="H147" s="78"/>
-      <c r="I147" s="78"/>
+        <v>321</v>
+      </c>
+      <c r="H147" s="80"/>
+      <c r="I147" s="80"/>
     </row>
     <row r="148" spans="1:9" s="24" customFormat="1" ht="15" thickBot="1">
       <c r="B148" s="37"/>
@@ -14340,222 +14337,222 @@
         <v>28</v>
       </c>
       <c r="B149" s="36" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C149" s="36" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D149" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E149" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G149" t="s">
-        <v>323</v>
-      </c>
-      <c r="H149" s="62" t="s">
-        <v>517</v>
-      </c>
-      <c r="I149" s="62"/>
+        <v>321</v>
+      </c>
+      <c r="H149" s="64" t="s">
+        <v>515</v>
+      </c>
+      <c r="I149" s="64"/>
     </row>
     <row r="150" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A150" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B150" s="36" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C150" s="36" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D150" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E150" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G150" t="s">
-        <v>323</v>
-      </c>
-      <c r="H150" s="62"/>
-      <c r="I150" s="62"/>
+        <v>321</v>
+      </c>
+      <c r="H150" s="64"/>
+      <c r="I150" s="64"/>
     </row>
     <row r="151" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A151" t="s">
         <v>200</v>
       </c>
       <c r="B151" s="36" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C151" s="36" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D151" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E151" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G151" t="s">
-        <v>323</v>
-      </c>
-      <c r="H151" s="62"/>
-      <c r="I151" s="62"/>
+        <v>321</v>
+      </c>
+      <c r="H151" s="64"/>
+      <c r="I151" s="64"/>
     </row>
     <row r="152" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A152" t="s">
         <v>199</v>
       </c>
       <c r="B152" s="36" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C152" s="36" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D152" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E152" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G152" t="s">
-        <v>323</v>
-      </c>
-      <c r="H152" s="62"/>
-      <c r="I152" s="62"/>
+        <v>321</v>
+      </c>
+      <c r="H152" s="64"/>
+      <c r="I152" s="64"/>
     </row>
     <row r="153" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A153" t="s">
         <v>36</v>
       </c>
       <c r="B153" s="36" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C153" s="36" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D153" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E153" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G153" t="s">
-        <v>323</v>
-      </c>
-      <c r="H153" s="62"/>
-      <c r="I153" s="62"/>
+        <v>321</v>
+      </c>
+      <c r="H153" s="64"/>
+      <c r="I153" s="64"/>
     </row>
     <row r="154" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A154" t="s">
         <v>96</v>
       </c>
       <c r="B154" s="36" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C154" s="36" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D154" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E154" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G154" t="s">
-        <v>323</v>
-      </c>
-      <c r="H154" s="62"/>
-      <c r="I154" s="62"/>
+        <v>321</v>
+      </c>
+      <c r="H154" s="64"/>
+      <c r="I154" s="64"/>
     </row>
     <row r="155" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A155" t="s">
         <v>43</v>
       </c>
       <c r="B155" s="36" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C155" s="36" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D155" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E155" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G155" t="s">
-        <v>323</v>
-      </c>
-      <c r="H155" s="62"/>
-      <c r="I155" s="62"/>
+        <v>321</v>
+      </c>
+      <c r="H155" s="64"/>
+      <c r="I155" s="64"/>
     </row>
     <row r="156" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A156" t="s">
         <v>105</v>
       </c>
       <c r="B156" s="36" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C156" s="36" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D156" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E156" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G156" t="s">
-        <v>323</v>
-      </c>
-      <c r="H156" s="62"/>
-      <c r="I156" s="62"/>
+        <v>321</v>
+      </c>
+      <c r="H156" s="64"/>
+      <c r="I156" s="64"/>
     </row>
     <row r="157" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A157" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B157" s="36" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C157" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D157" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E157" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G157" t="s">
-        <v>323</v>
-      </c>
-      <c r="H157" s="62"/>
-      <c r="I157" s="62"/>
+        <v>321</v>
+      </c>
+      <c r="H157" s="64"/>
+      <c r="I157" s="64"/>
     </row>
     <row r="158" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A158" t="s">
+        <v>512</v>
+      </c>
+      <c r="B158" s="36" t="s">
         <v>514</v>
       </c>
-      <c r="B158" s="36" t="s">
-        <v>516</v>
-      </c>
       <c r="C158" s="36" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D158" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E158" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G158" t="s">
-        <v>323</v>
-      </c>
-      <c r="H158" s="62"/>
-      <c r="I158" s="62"/>
+        <v>321</v>
+      </c>
+      <c r="H158" s="64"/>
+      <c r="I158" s="64"/>
     </row>
     <row r="159" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B159" s="37"/>
@@ -14566,156 +14563,156 @@
         <v>65</v>
       </c>
       <c r="B160" s="36" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C160" s="36" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D160" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E160" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G160" t="s">
-        <v>323</v>
-      </c>
-      <c r="H160" s="63" t="s">
-        <v>531</v>
-      </c>
-      <c r="I160" s="63"/>
+        <v>321</v>
+      </c>
+      <c r="H160" s="65" t="s">
+        <v>529</v>
+      </c>
+      <c r="I160" s="65"/>
     </row>
     <row r="161" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A161" t="s">
         <v>66</v>
       </c>
       <c r="B161" s="36" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C161" s="36" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D161" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E161" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G161" t="s">
-        <v>323</v>
-      </c>
-      <c r="H161" s="63"/>
-      <c r="I161" s="63"/>
+        <v>321</v>
+      </c>
+      <c r="H161" s="65"/>
+      <c r="I161" s="65"/>
     </row>
     <row r="162" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A162" t="s">
         <v>131</v>
       </c>
       <c r="B162" s="36" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C162" s="36" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D162" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E162" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G162" t="s">
-        <v>323</v>
-      </c>
-      <c r="H162" s="63"/>
-      <c r="I162" s="63"/>
+        <v>321</v>
+      </c>
+      <c r="H162" s="65"/>
+      <c r="I162" s="65"/>
     </row>
     <row r="163" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A163" t="s">
         <v>132</v>
       </c>
       <c r="B163" s="36" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C163" s="36" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D163" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G163" t="s">
-        <v>323</v>
-      </c>
-      <c r="H163" s="63"/>
-      <c r="I163" s="63"/>
+        <v>321</v>
+      </c>
+      <c r="H163" s="65"/>
+      <c r="I163" s="65"/>
     </row>
     <row r="164" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A164" t="s">
         <v>133</v>
       </c>
       <c r="B164" s="36" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C164" s="36" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D164" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G164" t="s">
-        <v>323</v>
-      </c>
-      <c r="H164" s="63"/>
-      <c r="I164" s="63"/>
+        <v>321</v>
+      </c>
+      <c r="H164" s="65"/>
+      <c r="I164" s="65"/>
     </row>
     <row r="165" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A165" t="s">
         <v>136</v>
       </c>
       <c r="B165" s="36" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C165" s="36" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D165" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G165" t="s">
-        <v>323</v>
-      </c>
-      <c r="H165" s="63"/>
-      <c r="I165" s="63"/>
+        <v>321</v>
+      </c>
+      <c r="H165" s="65"/>
+      <c r="I165" s="65"/>
     </row>
     <row r="166" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A166" t="s">
         <v>137</v>
       </c>
       <c r="B166" s="36" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C166" s="36" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D166" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G166" t="s">
-        <v>323</v>
-      </c>
-      <c r="H166" s="63"/>
-      <c r="I166" s="63"/>
+        <v>321</v>
+      </c>
+      <c r="H166" s="65"/>
+      <c r="I166" s="65"/>
     </row>
     <row r="167" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B167" s="37"/>
@@ -14726,68 +14723,68 @@
         <v>56</v>
       </c>
       <c r="B168" s="36" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C168" s="36" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D168" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G168" t="s">
-        <v>323</v>
-      </c>
-      <c r="H168" s="64" t="s">
-        <v>539</v>
-      </c>
-      <c r="I168" s="64"/>
+        <v>321</v>
+      </c>
+      <c r="H168" s="66" t="s">
+        <v>537</v>
+      </c>
+      <c r="I168" s="66"/>
     </row>
     <row r="169" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A169" t="s">
         <v>57</v>
       </c>
       <c r="B169" s="36" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C169" s="36" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D169" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G169" t="s">
-        <v>323</v>
-      </c>
-      <c r="H169" s="64"/>
-      <c r="I169" s="64"/>
+        <v>321</v>
+      </c>
+      <c r="H169" s="66"/>
+      <c r="I169" s="66"/>
     </row>
     <row r="170" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A170" t="s">
         <v>58</v>
       </c>
       <c r="B170" s="36" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C170" s="36" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D170" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E170" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G170" t="s">
-        <v>323</v>
-      </c>
-      <c r="H170" s="64"/>
-      <c r="I170" s="64"/>
+        <v>321</v>
+      </c>
+      <c r="H170" s="66"/>
+      <c r="I170" s="66"/>
     </row>
     <row r="171" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B171" s="37"/>
@@ -14798,178 +14795,178 @@
         <v>76</v>
       </c>
       <c r="B172" s="36" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C172" s="36" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D172" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E172" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G172" t="s">
-        <v>323</v>
-      </c>
-      <c r="H172" s="60" t="s">
-        <v>556</v>
-      </c>
-      <c r="I172" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H172" s="62" t="s">
+        <v>554</v>
+      </c>
+      <c r="I172" s="62"/>
     </row>
     <row r="173" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A173" t="s">
         <v>77</v>
       </c>
       <c r="B173" s="36" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C173" s="36" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D173" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E173" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G173" t="s">
-        <v>323</v>
-      </c>
-      <c r="H173" s="60"/>
-      <c r="I173" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H173" s="62"/>
+      <c r="I173" s="62"/>
     </row>
     <row r="174" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A174" t="s">
         <v>112</v>
       </c>
       <c r="B174" s="36" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C174" s="36" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D174" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E174" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G174" t="s">
-        <v>323</v>
-      </c>
-      <c r="H174" s="60"/>
-      <c r="I174" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H174" s="62"/>
+      <c r="I174" s="62"/>
     </row>
     <row r="175" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A175" t="s">
         <v>80</v>
       </c>
       <c r="B175" s="36" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C175" s="36" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D175" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E175" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G175" t="s">
-        <v>323</v>
-      </c>
-      <c r="H175" s="60"/>
-      <c r="I175" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H175" s="62"/>
+      <c r="I175" s="62"/>
     </row>
     <row r="176" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A176" t="s">
         <v>11</v>
       </c>
       <c r="B176" s="36" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C176" s="36" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D176" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E176" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G176" t="s">
-        <v>323</v>
-      </c>
-      <c r="H176" s="60"/>
-      <c r="I176" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H176" s="62"/>
+      <c r="I176" s="62"/>
     </row>
     <row r="177" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A177" t="s">
         <v>18</v>
       </c>
       <c r="B177" s="36" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C177" s="36" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D177" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E177" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G177" t="s">
-        <v>323</v>
-      </c>
-      <c r="H177" s="60"/>
-      <c r="I177" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H177" s="62"/>
+      <c r="I177" s="62"/>
     </row>
     <row r="178" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A178" t="s">
         <v>158</v>
       </c>
       <c r="B178" s="36" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C178" s="36" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D178" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E178" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G178" t="s">
-        <v>323</v>
-      </c>
-      <c r="H178" s="60"/>
-      <c r="I178" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H178" s="62"/>
+      <c r="I178" s="62"/>
     </row>
     <row r="179" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A179" s="40" t="s">
         <v>159</v>
       </c>
       <c r="B179" s="36" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C179" s="36" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D179" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E179" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G179" t="s">
-        <v>323</v>
-      </c>
-      <c r="H179" s="60"/>
-      <c r="I179" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H179" s="62"/>
+      <c r="I179" s="62"/>
     </row>
     <row r="180" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B180" s="37"/>
@@ -14980,134 +14977,134 @@
         <v>176</v>
       </c>
       <c r="B181" s="36" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C181" s="36" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D181" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E181" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G181" t="s">
-        <v>323</v>
-      </c>
-      <c r="H181" s="65" t="s">
-        <v>564</v>
-      </c>
-      <c r="I181" s="66"/>
+        <v>321</v>
+      </c>
+      <c r="H181" s="67" t="s">
+        <v>562</v>
+      </c>
+      <c r="I181" s="68"/>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="s">
         <v>177</v>
       </c>
       <c r="B182" s="36" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C182" s="36" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D182" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E182" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G182" t="s">
-        <v>323</v>
-      </c>
-      <c r="H182" s="67"/>
-      <c r="I182" s="68"/>
+        <v>321</v>
+      </c>
+      <c r="H182" s="69"/>
+      <c r="I182" s="70"/>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="s">
         <v>178</v>
       </c>
       <c r="B183" s="36" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C183" s="36" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D183" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E183" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G183" t="s">
-        <v>323</v>
-      </c>
-      <c r="H183" s="67"/>
-      <c r="I183" s="68"/>
+        <v>321</v>
+      </c>
+      <c r="H183" s="69"/>
+      <c r="I183" s="70"/>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" t="s">
         <v>169</v>
       </c>
       <c r="B184" s="36" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C184" s="36" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D184" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E184" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G184" t="s">
-        <v>323</v>
-      </c>
-      <c r="H184" s="67"/>
-      <c r="I184" s="68"/>
+        <v>321</v>
+      </c>
+      <c r="H184" s="69"/>
+      <c r="I184" s="70"/>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" t="s">
         <v>168</v>
       </c>
       <c r="B185" s="36" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C185" s="36" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D185" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E185" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G185" t="s">
-        <v>323</v>
-      </c>
-      <c r="H185" s="67"/>
-      <c r="I185" s="68"/>
+        <v>321</v>
+      </c>
+      <c r="H185" s="69"/>
+      <c r="I185" s="70"/>
     </row>
     <row r="186" spans="1:9" ht="15" thickBot="1">
       <c r="A186" t="s">
         <v>167</v>
       </c>
       <c r="B186" s="36" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C186" s="36" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D186" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E186" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G186" t="s">
-        <v>323</v>
-      </c>
-      <c r="H186" s="69"/>
-      <c r="I186" s="70"/>
+        <v>321</v>
+      </c>
+      <c r="H186" s="71"/>
+      <c r="I186" s="72"/>
     </row>
     <row r="187" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B187" s="37"/>
@@ -15115,159 +15112,159 @@
     </row>
     <row r="188" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A188" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B188" s="36" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C188" s="36" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D188" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E188" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G188" t="s">
-        <v>323</v>
-      </c>
-      <c r="H188" s="62" t="s">
-        <v>579</v>
-      </c>
-      <c r="I188" s="62"/>
+        <v>321</v>
+      </c>
+      <c r="H188" s="64" t="s">
+        <v>577</v>
+      </c>
+      <c r="I188" s="64"/>
     </row>
     <row r="189" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A189" t="s">
         <v>67</v>
       </c>
       <c r="B189" s="36" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C189" s="36" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D189" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E189" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G189" t="s">
-        <v>323</v>
-      </c>
-      <c r="H189" s="62"/>
-      <c r="I189" s="62"/>
+        <v>321</v>
+      </c>
+      <c r="H189" s="64"/>
+      <c r="I189" s="64"/>
     </row>
     <row r="190" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A190" t="s">
         <v>173</v>
       </c>
       <c r="B190" s="36" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C190" s="36" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D190" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E190" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G190" t="s">
-        <v>323</v>
-      </c>
-      <c r="H190" s="62"/>
-      <c r="I190" s="62"/>
+        <v>321</v>
+      </c>
+      <c r="H190" s="64"/>
+      <c r="I190" s="64"/>
     </row>
     <row r="191" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A191" t="s">
         <v>68</v>
       </c>
       <c r="B191" s="36" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C191" s="36" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D191" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E191" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G191" t="s">
-        <v>323</v>
-      </c>
-      <c r="H191" s="62"/>
-      <c r="I191" s="62"/>
+        <v>321</v>
+      </c>
+      <c r="H191" s="64"/>
+      <c r="I191" s="64"/>
     </row>
     <row r="192" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A192" t="s">
         <v>172</v>
       </c>
       <c r="B192" s="36" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C192" s="36" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D192" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E192" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G192" t="s">
-        <v>323</v>
-      </c>
-      <c r="H192" s="62"/>
-      <c r="I192" s="62"/>
+        <v>321</v>
+      </c>
+      <c r="H192" s="64"/>
+      <c r="I192" s="64"/>
     </row>
     <row r="193" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A193" t="s">
         <v>171</v>
       </c>
       <c r="B193" s="36" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C193" s="36" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D193" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E193" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G193" t="s">
-        <v>323</v>
-      </c>
-      <c r="H193" s="62"/>
-      <c r="I193" s="62"/>
+        <v>321</v>
+      </c>
+      <c r="H193" s="64"/>
+      <c r="I193" s="64"/>
     </row>
     <row r="194" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A194" t="s">
         <v>117</v>
       </c>
       <c r="B194" s="36" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C194" s="36" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D194" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E194" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G194" t="s">
-        <v>323</v>
-      </c>
-      <c r="H194" s="62"/>
-      <c r="I194" s="62"/>
+        <v>321</v>
+      </c>
+      <c r="H194" s="64"/>
+      <c r="I194" s="64"/>
     </row>
     <row r="195" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B195" s="37"/>
@@ -15278,90 +15275,90 @@
         <v>179</v>
       </c>
       <c r="B196" s="36" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C196" s="36" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D196" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E196" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G196" t="s">
-        <v>323</v>
-      </c>
-      <c r="H196" s="100" t="s">
-        <v>586</v>
-      </c>
-      <c r="I196" s="100"/>
+        <v>321</v>
+      </c>
+      <c r="H196" s="102" t="s">
+        <v>584</v>
+      </c>
+      <c r="I196" s="102"/>
     </row>
     <row r="197" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A197" t="s">
         <v>190</v>
       </c>
       <c r="B197" s="36" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C197" s="36" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D197" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E197" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G197" t="s">
-        <v>323</v>
-      </c>
-      <c r="H197" s="100"/>
-      <c r="I197" s="100"/>
+        <v>321</v>
+      </c>
+      <c r="H197" s="102"/>
+      <c r="I197" s="102"/>
     </row>
     <row r="198" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A198" t="s">
         <v>191</v>
       </c>
       <c r="B198" s="36" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C198" s="36" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D198" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E198" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G198" t="s">
-        <v>323</v>
-      </c>
-      <c r="H198" s="100"/>
-      <c r="I198" s="100"/>
+        <v>321</v>
+      </c>
+      <c r="H198" s="102"/>
+      <c r="I198" s="102"/>
     </row>
     <row r="199" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A199" t="s">
         <v>192</v>
       </c>
       <c r="B199" s="36" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C199" s="36" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D199" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E199" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G199" t="s">
-        <v>323</v>
-      </c>
-      <c r="H199" s="100"/>
-      <c r="I199" s="100"/>
+        <v>321</v>
+      </c>
+      <c r="H199" s="102"/>
+      <c r="I199" s="102"/>
     </row>
     <row r="200" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B200" s="37"/>
@@ -15372,134 +15369,134 @@
         <v>187</v>
       </c>
       <c r="B201" s="36" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C201" s="36" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D201" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E201" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G201" t="s">
-        <v>323</v>
-      </c>
-      <c r="H201" s="71" t="s">
-        <v>595</v>
-      </c>
-      <c r="I201" s="71"/>
+        <v>321</v>
+      </c>
+      <c r="H201" s="73" t="s">
+        <v>593</v>
+      </c>
+      <c r="I201" s="73"/>
     </row>
     <row r="202" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A202" t="s">
         <v>150</v>
       </c>
       <c r="B202" s="36" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C202" s="36" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D202" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E202" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G202" t="s">
-        <v>323</v>
-      </c>
-      <c r="H202" s="71"/>
-      <c r="I202" s="71"/>
+        <v>321</v>
+      </c>
+      <c r="H202" s="73"/>
+      <c r="I202" s="73"/>
     </row>
     <row r="203" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A203" t="s">
         <v>151</v>
       </c>
       <c r="B203" s="36" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C203" s="36" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D203" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E203" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G203" t="s">
-        <v>323</v>
-      </c>
-      <c r="H203" s="71"/>
-      <c r="I203" s="71"/>
+        <v>321</v>
+      </c>
+      <c r="H203" s="73"/>
+      <c r="I203" s="73"/>
     </row>
     <row r="204" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A204" t="s">
         <v>153</v>
       </c>
       <c r="B204" s="36" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C204" s="36" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D204" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E204" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G204" t="s">
-        <v>323</v>
-      </c>
-      <c r="H204" s="71"/>
-      <c r="I204" s="71"/>
+        <v>321</v>
+      </c>
+      <c r="H204" s="73"/>
+      <c r="I204" s="73"/>
     </row>
     <row r="205" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A205" t="s">
         <v>156</v>
       </c>
       <c r="B205" s="36" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C205" s="36" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D205" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E205" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G205" t="s">
-        <v>323</v>
-      </c>
-      <c r="H205" s="71"/>
-      <c r="I205" s="71"/>
+        <v>321</v>
+      </c>
+      <c r="H205" s="73"/>
+      <c r="I205" s="73"/>
     </row>
     <row r="206" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A206" t="s">
         <v>157</v>
       </c>
       <c r="B206" s="36" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C206" s="36" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D206" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E206" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G206" t="s">
-        <v>323</v>
-      </c>
-      <c r="H206" s="71"/>
-      <c r="I206" s="71"/>
+        <v>321</v>
+      </c>
+      <c r="H206" s="73"/>
+      <c r="I206" s="73"/>
     </row>
     <row r="207" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B207" s="37"/>
@@ -15507,115 +15504,115 @@
     </row>
     <row r="208" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A208" t="s">
+        <v>605</v>
+      </c>
+      <c r="B208" s="36" t="s">
         <v>607</v>
       </c>
-      <c r="B208" s="36" t="s">
-        <v>609</v>
-      </c>
       <c r="C208" s="36" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D208" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E208" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G208" t="s">
-        <v>323</v>
-      </c>
-      <c r="H208" s="60" t="s">
-        <v>618</v>
-      </c>
-      <c r="I208" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H208" s="62" t="s">
+        <v>616</v>
+      </c>
+      <c r="I208" s="62"/>
     </row>
     <row r="209" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A209" t="s">
         <v>3</v>
       </c>
       <c r="B209" s="36" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C209" s="36" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D209" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E209" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G209" t="s">
-        <v>323</v>
-      </c>
-      <c r="H209" s="60"/>
-      <c r="I209" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H209" s="62"/>
+      <c r="I209" s="62"/>
     </row>
     <row r="210" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A210" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B210" s="36" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C210" s="36" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D210" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E210" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G210" t="s">
-        <v>323</v>
-      </c>
-      <c r="H210" s="60"/>
-      <c r="I210" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H210" s="62"/>
+      <c r="I210" s="62"/>
     </row>
     <row r="211" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A211" t="s">
         <v>79</v>
       </c>
       <c r="B211" s="36" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C211" s="36" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D211" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E211" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G211" t="s">
-        <v>323</v>
-      </c>
-      <c r="H211" s="60"/>
-      <c r="I211" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H211" s="62"/>
+      <c r="I211" s="62"/>
     </row>
     <row r="212" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A212" t="s">
         <v>4</v>
       </c>
       <c r="B212" s="36" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C212" s="36" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D212" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E212" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G212" t="s">
-        <v>323</v>
-      </c>
-      <c r="H212" s="60"/>
-      <c r="I212" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H212" s="62"/>
+      <c r="I212" s="62"/>
     </row>
     <row r="213" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B213" s="37"/>
@@ -15626,222 +15623,222 @@
         <v>118</v>
       </c>
       <c r="B214" s="36" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C214" s="36" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D214" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E214" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G214" t="s">
-        <v>323</v>
-      </c>
-      <c r="H214" s="72" t="s">
-        <v>635</v>
-      </c>
-      <c r="I214" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H214" s="74" t="s">
+        <v>633</v>
+      </c>
+      <c r="I214" s="74"/>
     </row>
     <row r="215" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A215" t="s">
         <v>21</v>
       </c>
       <c r="B215" s="36" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C215" s="36" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D215" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E215" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G215" t="s">
-        <v>323</v>
-      </c>
-      <c r="H215" s="72"/>
-      <c r="I215" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H215" s="74"/>
+      <c r="I215" s="74"/>
     </row>
     <row r="216" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A216" t="s">
         <v>130</v>
       </c>
       <c r="B216" s="36" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C216" s="36" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D216" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E216" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G216" t="s">
-        <v>323</v>
-      </c>
-      <c r="H216" s="72"/>
-      <c r="I216" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H216" s="74"/>
+      <c r="I216" s="74"/>
     </row>
     <row r="217" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A217" t="s">
         <v>119</v>
       </c>
       <c r="B217" s="36" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C217" s="36" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D217" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E217" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G217" t="s">
-        <v>323</v>
-      </c>
-      <c r="H217" s="72"/>
-      <c r="I217" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H217" s="74"/>
+      <c r="I217" s="74"/>
     </row>
     <row r="218" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A218" t="s">
         <v>29</v>
       </c>
       <c r="B218" s="36" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C218" s="36" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D218" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E218" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G218" t="s">
-        <v>323</v>
-      </c>
-      <c r="H218" s="72"/>
-      <c r="I218" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H218" s="74"/>
+      <c r="I218" s="74"/>
     </row>
     <row r="219" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A219" t="s">
+        <v>622</v>
+      </c>
+      <c r="B219" s="36" t="s">
         <v>624</v>
       </c>
-      <c r="B219" s="36" t="s">
-        <v>626</v>
-      </c>
       <c r="C219" s="36" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D219" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E219" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G219" t="s">
-        <v>323</v>
-      </c>
-      <c r="H219" s="72"/>
-      <c r="I219" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H219" s="74"/>
+      <c r="I219" s="74"/>
     </row>
     <row r="220" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A220" t="s">
         <v>37</v>
       </c>
       <c r="B220" s="36" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C220" s="36" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D220" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E220" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G220" t="s">
-        <v>323</v>
-      </c>
-      <c r="H220" s="72"/>
-      <c r="I220" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H220" s="74"/>
+      <c r="I220" s="74"/>
     </row>
     <row r="221" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A221" t="s">
         <v>85</v>
       </c>
       <c r="B221" s="36" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C221" s="36" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D221" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E221" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G221" t="s">
-        <v>323</v>
-      </c>
-      <c r="H221" s="72"/>
-      <c r="I221" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H221" s="74"/>
+      <c r="I221" s="74"/>
     </row>
     <row r="222" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A222" t="s">
         <v>44</v>
       </c>
       <c r="B222" s="36" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C222" s="36" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D222" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E222" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G222" t="s">
-        <v>323</v>
-      </c>
-      <c r="H222" s="72"/>
-      <c r="I222" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H222" s="74"/>
+      <c r="I222" s="74"/>
     </row>
     <row r="223" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A223" t="s">
         <v>186</v>
       </c>
       <c r="B223" s="36" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C223" s="36" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D223" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E223" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G223" t="s">
-        <v>323</v>
-      </c>
-      <c r="H223" s="72"/>
-      <c r="I223" s="72"/>
+        <v>321</v>
+      </c>
+      <c r="H223" s="74"/>
+      <c r="I223" s="74"/>
     </row>
     <row r="224" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B224" s="37"/>
@@ -15852,288 +15849,288 @@
         <v>202</v>
       </c>
       <c r="B225" s="36" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C225" s="36" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D225" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E225" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G225" t="s">
-        <v>323</v>
-      </c>
-      <c r="H225" s="60" t="s">
-        <v>646</v>
-      </c>
-      <c r="I225" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H225" s="62" t="s">
+        <v>644</v>
+      </c>
+      <c r="I225" s="62"/>
     </row>
     <row r="226" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A226" t="s">
         <v>203</v>
       </c>
       <c r="B226" s="36" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C226" s="36" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D226" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E226" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G226" t="s">
-        <v>323</v>
-      </c>
-      <c r="H226" s="60"/>
-      <c r="I226" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H226" s="62"/>
+      <c r="I226" s="62"/>
     </row>
     <row r="227" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A227" t="s">
         <v>129</v>
       </c>
       <c r="B227" s="36" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C227" s="36" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D227" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E227" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G227" t="s">
-        <v>323</v>
-      </c>
-      <c r="H227" s="60"/>
-      <c r="I227" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H227" s="62"/>
+      <c r="I227" s="62"/>
     </row>
     <row r="228" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A228" t="s">
         <v>123</v>
       </c>
       <c r="B228" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C228" s="36" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D228" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E228" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G228" t="s">
-        <v>323</v>
-      </c>
-      <c r="H228" s="60"/>
-      <c r="I228" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H228" s="62"/>
+      <c r="I228" s="62"/>
     </row>
     <row r="229" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A229" t="s">
         <v>207</v>
       </c>
       <c r="B229" s="36" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C229" s="36" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D229" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E229" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G229" t="s">
-        <v>323</v>
-      </c>
-      <c r="H229" s="60"/>
-      <c r="I229" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H229" s="62"/>
+      <c r="I229" s="62"/>
     </row>
     <row r="230" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A230" t="s">
         <v>204</v>
       </c>
       <c r="B230" s="36" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C230" s="36" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D230" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E230" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G230" t="s">
-        <v>323</v>
-      </c>
-      <c r="H230" s="60"/>
-      <c r="I230" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H230" s="62"/>
+      <c r="I230" s="62"/>
     </row>
     <row r="231" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A231" t="s">
         <v>205</v>
       </c>
       <c r="B231" s="36" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C231" s="36" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D231" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E231" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G231" t="s">
-        <v>323</v>
-      </c>
-      <c r="H231" s="60"/>
-      <c r="I231" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H231" s="62"/>
+      <c r="I231" s="62"/>
     </row>
     <row r="232" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A232" t="s">
         <v>152</v>
       </c>
       <c r="B232" s="36" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C232" s="36" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D232" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E232" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G232" t="s">
-        <v>323</v>
-      </c>
-      <c r="H232" s="60"/>
-      <c r="I232" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H232" s="62"/>
+      <c r="I232" s="62"/>
     </row>
     <row r="233" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A233" t="s">
         <v>121</v>
       </c>
       <c r="B233" s="36" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C233" s="36" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D233" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E233" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G233" t="s">
-        <v>323</v>
-      </c>
-      <c r="H233" s="60"/>
-      <c r="I233" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H233" s="62"/>
+      <c r="I233" s="62"/>
     </row>
     <row r="234" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A234" t="s">
         <v>208</v>
       </c>
       <c r="B234" s="36" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C234" s="36" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D234" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E234" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G234" t="s">
-        <v>323</v>
-      </c>
-      <c r="H234" s="60"/>
-      <c r="I234" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H234" s="62"/>
+      <c r="I234" s="62"/>
     </row>
     <row r="235" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A235" t="s">
         <v>122</v>
       </c>
       <c r="B235" s="36" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C235" s="36" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D235" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E235" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G235" t="s">
-        <v>323</v>
-      </c>
-      <c r="H235" s="60"/>
-      <c r="I235" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H235" s="62"/>
+      <c r="I235" s="62"/>
     </row>
     <row r="236" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A236" t="s">
         <v>206</v>
       </c>
       <c r="B236" s="36" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C236" s="36" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D236" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E236" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G236" t="s">
-        <v>323</v>
-      </c>
-      <c r="H236" s="60"/>
-      <c r="I236" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H236" s="62"/>
+      <c r="I236" s="62"/>
     </row>
     <row r="237" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A237" t="s">
         <v>128</v>
       </c>
       <c r="B237" s="36" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C237" s="36" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D237" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E237" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G237" t="s">
-        <v>323</v>
-      </c>
-      <c r="H237" s="60"/>
-      <c r="I237" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="H237" s="62"/>
+      <c r="I237" s="62"/>
     </row>
     <row r="238" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B238" s="37"/>
@@ -16144,268 +16141,268 @@
         <v>231</v>
       </c>
       <c r="B239" s="36" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C239" s="36" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D239" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E239" t="s">
-        <v>323</v>
-      </c>
-      <c r="H239" s="54" t="s">
-        <v>671</v>
-      </c>
-      <c r="I239" s="55"/>
+        <v>321</v>
+      </c>
+      <c r="H239" s="56" t="s">
+        <v>669</v>
+      </c>
+      <c r="I239" s="57"/>
     </row>
     <row r="240" spans="1:9">
       <c r="A240" t="s">
         <v>230</v>
       </c>
       <c r="B240" s="36" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C240" s="36" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D240" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E240" t="s">
-        <v>323</v>
-      </c>
-      <c r="H240" s="56"/>
-      <c r="I240" s="57"/>
+        <v>321</v>
+      </c>
+      <c r="H240" s="58"/>
+      <c r="I240" s="59"/>
     </row>
     <row r="241" spans="1:9">
       <c r="A241" t="s">
         <v>229</v>
       </c>
       <c r="B241" s="36" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C241" s="36" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D241" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E241" t="s">
-        <v>323</v>
-      </c>
-      <c r="H241" s="56"/>
-      <c r="I241" s="57"/>
+        <v>321</v>
+      </c>
+      <c r="H241" s="58"/>
+      <c r="I241" s="59"/>
     </row>
     <row r="242" spans="1:9">
       <c r="A242" t="s">
         <v>225</v>
       </c>
       <c r="B242" s="36" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C242" s="36" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D242" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E242" t="s">
-        <v>323</v>
-      </c>
-      <c r="H242" s="56"/>
-      <c r="I242" s="57"/>
+        <v>321</v>
+      </c>
+      <c r="H242" s="58"/>
+      <c r="I242" s="59"/>
     </row>
     <row r="243" spans="1:9">
       <c r="A243" t="s">
         <v>216</v>
       </c>
       <c r="B243" s="36" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C243" s="36" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D243" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E243" t="s">
-        <v>323</v>
-      </c>
-      <c r="H243" s="56"/>
-      <c r="I243" s="57"/>
+        <v>321</v>
+      </c>
+      <c r="H243" s="58"/>
+      <c r="I243" s="59"/>
     </row>
     <row r="244" spans="1:9">
       <c r="A244" t="s">
         <v>224</v>
       </c>
       <c r="B244" s="36" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C244" s="36" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D244" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E244" t="s">
-        <v>323</v>
-      </c>
-      <c r="H244" s="56"/>
-      <c r="I244" s="57"/>
+        <v>321</v>
+      </c>
+      <c r="H244" s="58"/>
+      <c r="I244" s="59"/>
     </row>
     <row r="245" spans="1:9">
       <c r="A245" t="s">
         <v>232</v>
       </c>
       <c r="B245" s="36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C245" s="36" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D245" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E245" t="s">
-        <v>323</v>
-      </c>
-      <c r="H245" s="56"/>
-      <c r="I245" s="57"/>
+        <v>321</v>
+      </c>
+      <c r="H245" s="58"/>
+      <c r="I245" s="59"/>
     </row>
     <row r="246" spans="1:9">
       <c r="A246" t="s">
         <v>218</v>
       </c>
       <c r="B246" s="36" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C246" s="36" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D246" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E246" t="s">
-        <v>323</v>
-      </c>
-      <c r="H246" s="56"/>
-      <c r="I246" s="57"/>
+        <v>321</v>
+      </c>
+      <c r="H246" s="58"/>
+      <c r="I246" s="59"/>
     </row>
     <row r="247" spans="1:9">
       <c r="A247" t="s">
         <v>213</v>
       </c>
       <c r="B247" s="36" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C247" s="36" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D247" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E247" t="s">
-        <v>323</v>
-      </c>
-      <c r="H247" s="56"/>
-      <c r="I247" s="57"/>
+        <v>321</v>
+      </c>
+      <c r="H247" s="58"/>
+      <c r="I247" s="59"/>
     </row>
     <row r="248" spans="1:9">
       <c r="A248" t="s">
         <v>214</v>
       </c>
       <c r="B248" s="36" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C248" s="36" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D248" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E248" t="s">
-        <v>323</v>
-      </c>
-      <c r="H248" s="56"/>
-      <c r="I248" s="57"/>
+        <v>321</v>
+      </c>
+      <c r="H248" s="58"/>
+      <c r="I248" s="59"/>
     </row>
     <row r="249" spans="1:9">
       <c r="A249" t="s">
         <v>223</v>
       </c>
       <c r="B249" s="36" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C249" s="36" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D249" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E249" t="s">
-        <v>323</v>
-      </c>
-      <c r="H249" s="56"/>
-      <c r="I249" s="57"/>
+        <v>321</v>
+      </c>
+      <c r="H249" s="58"/>
+      <c r="I249" s="59"/>
     </row>
     <row r="250" spans="1:9">
       <c r="A250" t="s">
         <v>217</v>
       </c>
       <c r="B250" s="36" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C250" s="36" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D250" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E250" t="s">
-        <v>323</v>
-      </c>
-      <c r="H250" s="56"/>
-      <c r="I250" s="57"/>
+        <v>321</v>
+      </c>
+      <c r="H250" s="58"/>
+      <c r="I250" s="59"/>
     </row>
     <row r="251" spans="1:9">
       <c r="A251" t="s">
         <v>215</v>
       </c>
       <c r="B251" s="36" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C251" s="36" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D251" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E251" t="s">
-        <v>323</v>
-      </c>
-      <c r="H251" s="56"/>
-      <c r="I251" s="57"/>
+        <v>321</v>
+      </c>
+      <c r="H251" s="58"/>
+      <c r="I251" s="59"/>
     </row>
     <row r="252" spans="1:9" ht="15" thickBot="1">
       <c r="A252" t="s">
         <v>212</v>
       </c>
       <c r="B252" s="36" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C252" s="36" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D252" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E252" t="s">
-        <v>323</v>
-      </c>
-      <c r="H252" s="58"/>
-      <c r="I252" s="59"/>
+        <v>321</v>
+      </c>
+      <c r="H252" s="60"/>
+      <c r="I252" s="61"/>
     </row>
     <row r="253" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B253" s="37"/>
@@ -16413,81 +16410,81 @@
     </row>
     <row r="254" spans="1:9" ht="15" thickTop="1">
       <c r="A254" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B254" s="36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C254" s="36" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D254" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E254" t="s">
-        <v>323</v>
-      </c>
-      <c r="H254" s="54" t="s">
-        <v>672</v>
-      </c>
-      <c r="I254" s="55"/>
+        <v>321</v>
+      </c>
+      <c r="H254" s="56" t="s">
+        <v>670</v>
+      </c>
+      <c r="I254" s="57"/>
     </row>
     <row r="255" spans="1:9">
       <c r="A255" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B255" s="36" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C255" s="36" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D255" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E255" t="s">
-        <v>323</v>
-      </c>
-      <c r="H255" s="56"/>
-      <c r="I255" s="57"/>
+        <v>321</v>
+      </c>
+      <c r="H255" s="58"/>
+      <c r="I255" s="59"/>
     </row>
     <row r="256" spans="1:9">
       <c r="A256" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B256" s="36" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C256" s="36" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D256" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E256" t="s">
-        <v>323</v>
-      </c>
-      <c r="H256" s="56"/>
-      <c r="I256" s="57"/>
+        <v>321</v>
+      </c>
+      <c r="H256" s="58"/>
+      <c r="I256" s="59"/>
     </row>
     <row r="257" spans="1:9" ht="15" thickBot="1">
       <c r="A257" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B257" s="36" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C257" s="36" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D257" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E257" t="s">
-        <v>323</v>
-      </c>
-      <c r="H257" s="58"/>
-      <c r="I257" s="59"/>
+        <v>321</v>
+      </c>
+      <c r="H257" s="60"/>
+      <c r="I257" s="61"/>
     </row>
     <row r="258" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B258" s="37"/>
@@ -16495,24 +16492,24 @@
     </row>
     <row r="259" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A259" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B259" s="36" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C259" s="36" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D259" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E259" t="s">
-        <v>323</v>
-      </c>
-      <c r="H259" s="61" t="s">
-        <v>673</v>
-      </c>
-      <c r="I259" s="61"/>
+        <v>321</v>
+      </c>
+      <c r="H259" s="63" t="s">
+        <v>671</v>
+      </c>
+      <c r="I259" s="63"/>
     </row>
     <row r="260" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B260" s="37"/>
@@ -16520,119 +16517,119 @@
     </row>
     <row r="261" spans="1:9" ht="15" thickTop="1">
       <c r="A261" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B261" s="36" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C261" s="36" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D261" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E261" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="H261" s="54" t="s">
-        <v>684</v>
-      </c>
-      <c r="I261" s="55"/>
+        <v>321</v>
+      </c>
+      <c r="H261" s="56" t="s">
+        <v>682</v>
+      </c>
+      <c r="I261" s="57"/>
     </row>
     <row r="262" spans="1:9">
-      <c r="A262" s="48" t="s">
-        <v>691</v>
+      <c r="A262" s="47" t="s">
+        <v>689</v>
       </c>
       <c r="B262" s="36" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C262" s="36" t="s">
-        <v>675</v>
-      </c>
-      <c r="D262" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="E262" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="H262" s="56"/>
-      <c r="I262" s="57"/>
+        <v>673</v>
+      </c>
+      <c r="D262" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="E262" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="H262" s="58"/>
+      <c r="I262" s="59"/>
     </row>
     <row r="263" spans="1:9">
       <c r="A263" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B263" s="36" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C263" s="36" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D263" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E263" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="H263" s="56"/>
-      <c r="I263" s="57"/>
+        <v>321</v>
+      </c>
+      <c r="H263" s="58"/>
+      <c r="I263" s="59"/>
     </row>
     <row r="264" spans="1:9">
       <c r="A264" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B264" s="36" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C264" s="36" t="s">
-        <v>677</v>
-      </c>
-      <c r="D264" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="E264" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="H264" s="56"/>
-      <c r="I264" s="57"/>
+        <v>675</v>
+      </c>
+      <c r="D264" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="E264" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="H264" s="58"/>
+      <c r="I264" s="59"/>
     </row>
     <row r="265" spans="1:9">
       <c r="A265" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B265" s="36" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C265" s="36" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D265" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E265" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="H265" s="56"/>
-      <c r="I265" s="57"/>
+        <v>321</v>
+      </c>
+      <c r="H265" s="58"/>
+      <c r="I265" s="59"/>
     </row>
     <row r="266" spans="1:9" ht="15" thickBot="1">
       <c r="A266" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B266" s="36" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C266" s="36" t="s">
-        <v>679</v>
-      </c>
-      <c r="D266" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="E266" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="H266" s="58"/>
-      <c r="I266" s="59"/>
+        <v>677</v>
+      </c>
+      <c r="D266" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="E266" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="H266" s="60"/>
+      <c r="I266" s="61"/>
     </row>
     <row r="267" spans="1:9" s="24" customFormat="1" ht="15" thickTop="1">
       <c r="B267" s="37"/>
@@ -17682,42 +17679,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C1" t="s">
         <v>596</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>597</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F1" t="s">
         <v>598</v>
-      </c>
-      <c r="D1" t="s">
-        <v>599</v>
-      </c>
-      <c r="E1" t="s">
-        <v>601</v>
-      </c>
-      <c r="F1" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D2" t="s">
         <v>602</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>603</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>604</v>
-      </c>
-      <c r="E2" t="s">
-        <v>605</v>
-      </c>
-      <c r="F2" t="s">
-        <v>606</v>
       </c>
     </row>
   </sheetData>

--- a/new_universe.xlsx
+++ b/new_universe.xlsx
@@ -8605,58 +8605,16 @@
     <xf numFmtId="49" fontId="11" fillId="5" borderId="2" xfId="4" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="4">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="7">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="3">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="2" xfId="6">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="12" borderId="2" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="2" xfId="12">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="1">
@@ -8743,7 +8701,49 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="7">
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="2" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="2" xfId="12">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="2" xfId="6">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9058,7 +9058,7 @@
   <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
@@ -11380,10 +11380,10 @@
       <c r="G3" t="s">
         <v>321</v>
       </c>
-      <c r="H3" s="73" t="s">
+      <c r="H3" s="58" t="s">
         <v>325</v>
       </c>
-      <c r="I3" s="73"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" t="s">
@@ -11404,8 +11404,8 @@
       <c r="G4" t="s">
         <v>321</v>
       </c>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" t="s">
@@ -11426,8 +11426,8 @@
       <c r="G5" t="s">
         <v>321</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
     </row>
     <row r="6" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" t="s">
@@ -11448,8 +11448,8 @@
       <c r="G6" t="s">
         <v>321</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
     </row>
     <row r="7" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" t="s">
@@ -11470,8 +11470,8 @@
       <c r="G7" t="s">
         <v>321</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
     </row>
     <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" t="s">
@@ -11492,8 +11492,8 @@
       <c r="G8" t="s">
         <v>321</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" t="s">
@@ -11514,8 +11514,8 @@
       <c r="G9" t="s">
         <v>321</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
     </row>
     <row r="10" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" t="s">
@@ -11536,8 +11536,8 @@
       <c r="G10" t="s">
         <v>321</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
     </row>
     <row r="11" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" t="s">
@@ -11558,8 +11558,8 @@
       <c r="G11" t="s">
         <v>321</v>
       </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" t="s">
@@ -11580,8 +11580,8 @@
       <c r="G12" t="s">
         <v>321</v>
       </c>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
     </row>
     <row r="13" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" t="s">
@@ -11602,8 +11602,8 @@
       <c r="G13" t="s">
         <v>321</v>
       </c>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
     </row>
     <row r="14" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B14" s="37"/>
@@ -11628,10 +11628,10 @@
       <c r="G15" t="s">
         <v>321</v>
       </c>
-      <c r="H15" s="62" t="s">
+      <c r="H15" s="59" t="s">
         <v>328</v>
       </c>
-      <c r="I15" s="62"/>
+      <c r="I15" s="59"/>
     </row>
     <row r="16" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" t="s">
@@ -11652,8 +11652,8 @@
       <c r="G16" t="s">
         <v>321</v>
       </c>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
     </row>
     <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" t="s">
@@ -11674,8 +11674,8 @@
       <c r="G17" t="s">
         <v>321</v>
       </c>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
     </row>
     <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A18" t="s">
@@ -11696,8 +11696,8 @@
       <c r="G18" t="s">
         <v>321</v>
       </c>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
     </row>
     <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" t="s">
@@ -11718,8 +11718,8 @@
       <c r="G19" t="s">
         <v>321</v>
       </c>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
     </row>
     <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" t="s">
@@ -11740,8 +11740,8 @@
       <c r="G20" t="s">
         <v>321</v>
       </c>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
     </row>
     <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" t="s">
@@ -11762,8 +11762,8 @@
       <c r="G21" t="s">
         <v>321</v>
       </c>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" t="s">
@@ -11784,8 +11784,8 @@
       <c r="G22" t="s">
         <v>321</v>
       </c>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
     </row>
     <row r="23" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" t="s">
@@ -11806,8 +11806,8 @@
       <c r="G23" t="s">
         <v>321</v>
       </c>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B24" s="37"/>
@@ -11832,10 +11832,10 @@
       <c r="G25" t="s">
         <v>321</v>
       </c>
-      <c r="H25" s="74" t="s">
+      <c r="H25" s="60" t="s">
         <v>331</v>
       </c>
-      <c r="I25" s="74"/>
+      <c r="I25" s="60"/>
     </row>
     <row r="26" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" t="s">
@@ -11856,8 +11856,8 @@
       <c r="G26" t="s">
         <v>321</v>
       </c>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
     </row>
     <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" t="s">
@@ -11878,8 +11878,8 @@
       <c r="G27" t="s">
         <v>321</v>
       </c>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
     </row>
     <row r="28" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" t="s">
@@ -11900,8 +11900,8 @@
       <c r="G28" t="s">
         <v>321</v>
       </c>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
     </row>
     <row r="29" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" t="s">
@@ -11922,8 +11922,8 @@
       <c r="G29" t="s">
         <v>321</v>
       </c>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
     </row>
     <row r="30" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" t="s">
@@ -11944,8 +11944,8 @@
       <c r="G30" t="s">
         <v>321</v>
       </c>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
     </row>
     <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" t="s">
@@ -11966,8 +11966,8 @@
       <c r="G31" t="s">
         <v>321</v>
       </c>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
     </row>
     <row r="32" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B32" s="37"/>
@@ -11992,10 +11992,10 @@
       <c r="G33" t="s">
         <v>321</v>
       </c>
-      <c r="H33" s="75" t="s">
+      <c r="H33" s="61" t="s">
         <v>333</v>
       </c>
-      <c r="I33" s="75"/>
+      <c r="I33" s="61"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
@@ -12016,8 +12016,8 @@
       <c r="G34" t="s">
         <v>321</v>
       </c>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
@@ -12038,8 +12038,8 @@
       <c r="G35" t="s">
         <v>321</v>
       </c>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
@@ -12060,8 +12060,8 @@
       <c r="G36" t="s">
         <v>321</v>
       </c>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
@@ -12082,8 +12082,8 @@
       <c r="G37" t="s">
         <v>321</v>
       </c>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
@@ -12104,8 +12104,8 @@
       <c r="G38" t="s">
         <v>321</v>
       </c>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
@@ -12126,8 +12126,8 @@
       <c r="G39" t="s">
         <v>321</v>
       </c>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
@@ -12148,8 +12148,8 @@
       <c r="G40" t="s">
         <v>321</v>
       </c>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
@@ -12170,8 +12170,8 @@
       <c r="G41" t="s">
         <v>321</v>
       </c>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
@@ -12192,8 +12192,8 @@
       <c r="G42" t="s">
         <v>321</v>
       </c>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
     </row>
     <row r="43" spans="1:9" s="24" customFormat="1" ht="15" thickBot="1">
       <c r="B43" s="37"/>
@@ -12220,10 +12220,10 @@
       <c r="G44" t="s">
         <v>321</v>
       </c>
-      <c r="H44" s="74" t="s">
+      <c r="H44" s="60" t="s">
         <v>335</v>
       </c>
-      <c r="I44" s="74"/>
+      <c r="I44" s="60"/>
     </row>
     <row r="45" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A45" t="s">
@@ -12244,8 +12244,8 @@
       <c r="G45" t="s">
         <v>321</v>
       </c>
-      <c r="H45" s="74"/>
-      <c r="I45" s="74"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
     </row>
     <row r="46" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A46" t="s">
@@ -12266,8 +12266,8 @@
       <c r="G46" t="s">
         <v>321</v>
       </c>
-      <c r="H46" s="74"/>
-      <c r="I46" s="74"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
     </row>
     <row r="47" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A47" t="s">
@@ -12288,8 +12288,8 @@
       <c r="G47" t="s">
         <v>321</v>
       </c>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
     </row>
     <row r="48" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A48" t="s">
@@ -12310,8 +12310,8 @@
       <c r="G48" t="s">
         <v>321</v>
       </c>
-      <c r="H48" s="74"/>
-      <c r="I48" s="74"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
     </row>
     <row r="49" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A49" t="s">
@@ -12332,8 +12332,8 @@
       <c r="G49" t="s">
         <v>321</v>
       </c>
-      <c r="H49" s="74"/>
-      <c r="I49" s="74"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
     </row>
     <row r="50" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B50" s="37"/>
@@ -12358,10 +12358,10 @@
       <c r="G51" t="s">
         <v>321</v>
       </c>
-      <c r="H51" s="84" t="s">
+      <c r="H51" s="70" t="s">
         <v>336</v>
       </c>
-      <c r="I51" s="85"/>
+      <c r="I51" s="71"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
@@ -12382,8 +12382,8 @@
       <c r="G52" t="s">
         <v>321</v>
       </c>
-      <c r="H52" s="86"/>
-      <c r="I52" s="87"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="73"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
@@ -12404,8 +12404,8 @@
       <c r="G53" t="s">
         <v>321</v>
       </c>
-      <c r="H53" s="86"/>
-      <c r="I53" s="87"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="73"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
@@ -12426,8 +12426,8 @@
       <c r="G54" t="s">
         <v>321</v>
       </c>
-      <c r="H54" s="86"/>
-      <c r="I54" s="87"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="73"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
@@ -12448,8 +12448,8 @@
       <c r="G55" t="s">
         <v>321</v>
       </c>
-      <c r="H55" s="86"/>
-      <c r="I55" s="87"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="73"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
@@ -12470,8 +12470,8 @@
       <c r="G56" t="s">
         <v>321</v>
       </c>
-      <c r="H56" s="86"/>
-      <c r="I56" s="87"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="73"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
@@ -12492,8 +12492,8 @@
       <c r="G57" t="s">
         <v>321</v>
       </c>
-      <c r="H57" s="86"/>
-      <c r="I57" s="87"/>
+      <c r="H57" s="72"/>
+      <c r="I57" s="73"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
@@ -12514,8 +12514,8 @@
       <c r="G58" t="s">
         <v>321</v>
       </c>
-      <c r="H58" s="86"/>
-      <c r="I58" s="87"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="73"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
@@ -12536,8 +12536,8 @@
       <c r="G59" t="s">
         <v>321</v>
       </c>
-      <c r="H59" s="86"/>
-      <c r="I59" s="87"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="73"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
@@ -12558,8 +12558,8 @@
       <c r="G60" t="s">
         <v>321</v>
       </c>
-      <c r="H60" s="86"/>
-      <c r="I60" s="87"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="73"/>
     </row>
     <row r="61" spans="1:9" ht="15" thickBot="1">
       <c r="A61" t="s">
@@ -12577,8 +12577,8 @@
       <c r="E61" t="s">
         <v>321</v>
       </c>
-      <c r="H61" s="88"/>
-      <c r="I61" s="89"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="75"/>
     </row>
     <row r="62" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B62" s="37"/>
@@ -12603,10 +12603,10 @@
       <c r="G63" t="s">
         <v>321</v>
       </c>
-      <c r="H63" s="62" t="s">
+      <c r="H63" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="I63" s="62"/>
+      <c r="I63" s="59"/>
     </row>
     <row r="64" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A64" t="s">
@@ -12627,8 +12627,8 @@
       <c r="G64" t="s">
         <v>321</v>
       </c>
-      <c r="H64" s="62"/>
-      <c r="I64" s="62"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="59"/>
     </row>
     <row r="65" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A65" t="s">
@@ -12649,8 +12649,8 @@
       <c r="G65" t="s">
         <v>321</v>
       </c>
-      <c r="H65" s="62"/>
-      <c r="I65" s="62"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="59"/>
     </row>
     <row r="66" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A66" t="s">
@@ -12671,8 +12671,8 @@
       <c r="G66" t="s">
         <v>321</v>
       </c>
-      <c r="H66" s="62"/>
-      <c r="I66" s="62"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
     </row>
     <row r="67" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A67" t="s">
@@ -12693,8 +12693,8 @@
       <c r="G67" t="s">
         <v>321</v>
       </c>
-      <c r="H67" s="62"/>
-      <c r="I67" s="62"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="59"/>
     </row>
     <row r="68" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B68" s="37"/>
@@ -12719,10 +12719,10 @@
       <c r="G69" t="s">
         <v>321</v>
       </c>
-      <c r="H69" s="81" t="s">
+      <c r="H69" s="67" t="s">
         <v>360</v>
       </c>
-      <c r="I69" s="81"/>
+      <c r="I69" s="67"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
@@ -12743,8 +12743,8 @@
       <c r="G70" t="s">
         <v>321</v>
       </c>
-      <c r="H70" s="82"/>
-      <c r="I70" s="82"/>
+      <c r="H70" s="68"/>
+      <c r="I70" s="68"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
@@ -12765,8 +12765,8 @@
       <c r="G71" t="s">
         <v>321</v>
       </c>
-      <c r="H71" s="82"/>
-      <c r="I71" s="82"/>
+      <c r="H71" s="68"/>
+      <c r="I71" s="68"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
@@ -12787,8 +12787,8 @@
       <c r="G72" t="s">
         <v>321</v>
       </c>
-      <c r="H72" s="82"/>
-      <c r="I72" s="82"/>
+      <c r="H72" s="68"/>
+      <c r="I72" s="68"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
@@ -12809,8 +12809,8 @@
       <c r="G73" t="s">
         <v>321</v>
       </c>
-      <c r="H73" s="82"/>
-      <c r="I73" s="82"/>
+      <c r="H73" s="68"/>
+      <c r="I73" s="68"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
@@ -12831,8 +12831,8 @@
       <c r="G74" t="s">
         <v>321</v>
       </c>
-      <c r="H74" s="82"/>
-      <c r="I74" s="82"/>
+      <c r="H74" s="68"/>
+      <c r="I74" s="68"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
@@ -12853,8 +12853,8 @@
       <c r="G75" t="s">
         <v>321</v>
       </c>
-      <c r="H75" s="82"/>
-      <c r="I75" s="82"/>
+      <c r="H75" s="68"/>
+      <c r="I75" s="68"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
@@ -12875,8 +12875,8 @@
       <c r="G76" t="s">
         <v>321</v>
       </c>
-      <c r="H76" s="82"/>
-      <c r="I76" s="82"/>
+      <c r="H76" s="68"/>
+      <c r="I76" s="68"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
@@ -12897,8 +12897,8 @@
       <c r="G77" t="s">
         <v>321</v>
       </c>
-      <c r="H77" s="82"/>
-      <c r="I77" s="82"/>
+      <c r="H77" s="68"/>
+      <c r="I77" s="68"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
@@ -12919,8 +12919,8 @@
       <c r="G78" t="s">
         <v>321</v>
       </c>
-      <c r="H78" s="83"/>
-      <c r="I78" s="83"/>
+      <c r="H78" s="69"/>
+      <c r="I78" s="69"/>
     </row>
     <row r="79" spans="1:9" s="24" customFormat="1" ht="15" thickBot="1">
       <c r="B79" s="37"/>
@@ -12945,10 +12945,10 @@
       <c r="G80" t="s">
         <v>321</v>
       </c>
-      <c r="H80" s="90" t="s">
+      <c r="H80" s="76" t="s">
         <v>403</v>
       </c>
-      <c r="I80" s="91"/>
+      <c r="I80" s="77"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
@@ -12969,8 +12969,8 @@
       <c r="G81" t="s">
         <v>321</v>
       </c>
-      <c r="H81" s="92"/>
-      <c r="I81" s="93"/>
+      <c r="H81" s="78"/>
+      <c r="I81" s="79"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
@@ -12991,8 +12991,8 @@
       <c r="G82" t="s">
         <v>321</v>
       </c>
-      <c r="H82" s="92"/>
-      <c r="I82" s="93"/>
+      <c r="H82" s="78"/>
+      <c r="I82" s="79"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
@@ -13013,8 +13013,8 @@
       <c r="G83" t="s">
         <v>321</v>
       </c>
-      <c r="H83" s="92"/>
-      <c r="I83" s="93"/>
+      <c r="H83" s="78"/>
+      <c r="I83" s="79"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
@@ -13035,8 +13035,8 @@
       <c r="G84" t="s">
         <v>321</v>
       </c>
-      <c r="H84" s="92"/>
-      <c r="I84" s="93"/>
+      <c r="H84" s="78"/>
+      <c r="I84" s="79"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
@@ -13057,8 +13057,8 @@
       <c r="G85" t="s">
         <v>321</v>
       </c>
-      <c r="H85" s="92"/>
-      <c r="I85" s="93"/>
+      <c r="H85" s="78"/>
+      <c r="I85" s="79"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
@@ -13079,8 +13079,8 @@
       <c r="G86" t="s">
         <v>321</v>
       </c>
-      <c r="H86" s="92"/>
-      <c r="I86" s="93"/>
+      <c r="H86" s="78"/>
+      <c r="I86" s="79"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
@@ -13101,8 +13101,8 @@
       <c r="G87" t="s">
         <v>321</v>
       </c>
-      <c r="H87" s="92"/>
-      <c r="I87" s="93"/>
+      <c r="H87" s="78"/>
+      <c r="I87" s="79"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
@@ -13123,8 +13123,8 @@
       <c r="G88" t="s">
         <v>321</v>
       </c>
-      <c r="H88" s="92"/>
-      <c r="I88" s="93"/>
+      <c r="H88" s="78"/>
+      <c r="I88" s="79"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
@@ -13145,8 +13145,8 @@
       <c r="G89" t="s">
         <v>321</v>
       </c>
-      <c r="H89" s="92"/>
-      <c r="I89" s="93"/>
+      <c r="H89" s="78"/>
+      <c r="I89" s="79"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
@@ -13167,8 +13167,8 @@
       <c r="G90" t="s">
         <v>321</v>
       </c>
-      <c r="H90" s="92"/>
-      <c r="I90" s="93"/>
+      <c r="H90" s="78"/>
+      <c r="I90" s="79"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
@@ -13189,8 +13189,8 @@
       <c r="G91" t="s">
         <v>321</v>
       </c>
-      <c r="H91" s="92"/>
-      <c r="I91" s="93"/>
+      <c r="H91" s="78"/>
+      <c r="I91" s="79"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
@@ -13211,8 +13211,8 @@
       <c r="G92" t="s">
         <v>321</v>
       </c>
-      <c r="H92" s="92"/>
-      <c r="I92" s="93"/>
+      <c r="H92" s="78"/>
+      <c r="I92" s="79"/>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
@@ -13233,8 +13233,8 @@
       <c r="G93" t="s">
         <v>321</v>
       </c>
-      <c r="H93" s="92"/>
-      <c r="I93" s="93"/>
+      <c r="H93" s="78"/>
+      <c r="I93" s="79"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
@@ -13255,8 +13255,8 @@
       <c r="G94" t="s">
         <v>321</v>
       </c>
-      <c r="H94" s="92"/>
-      <c r="I94" s="93"/>
+      <c r="H94" s="78"/>
+      <c r="I94" s="79"/>
     </row>
     <row r="95" spans="1:9" ht="15" thickBot="1">
       <c r="A95" t="s">
@@ -13277,8 +13277,8 @@
       <c r="G95" t="s">
         <v>321</v>
       </c>
-      <c r="H95" s="94"/>
-      <c r="I95" s="95"/>
+      <c r="H95" s="80"/>
+      <c r="I95" s="81"/>
     </row>
     <row r="96" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B96" s="37"/>
@@ -13303,10 +13303,10 @@
       <c r="G97" t="s">
         <v>321</v>
       </c>
-      <c r="H97" s="74" t="s">
+      <c r="H97" s="60" t="s">
         <v>416</v>
       </c>
-      <c r="I97" s="74"/>
+      <c r="I97" s="60"/>
     </row>
     <row r="98" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A98" t="s">
@@ -13327,8 +13327,8 @@
       <c r="G98" t="s">
         <v>321</v>
       </c>
-      <c r="H98" s="74"/>
-      <c r="I98" s="74"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="60"/>
     </row>
     <row r="99" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A99" t="s">
@@ -13349,8 +13349,8 @@
       <c r="G99" t="s">
         <v>321</v>
       </c>
-      <c r="H99" s="74"/>
-      <c r="I99" s="74"/>
+      <c r="H99" s="60"/>
+      <c r="I99" s="60"/>
     </row>
     <row r="100" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A100" t="s">
@@ -13371,8 +13371,8 @@
       <c r="G100" t="s">
         <v>321</v>
       </c>
-      <c r="H100" s="74"/>
-      <c r="I100" s="74"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="60"/>
     </row>
     <row r="101" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A101" t="s">
@@ -13393,8 +13393,8 @@
       <c r="G101" t="s">
         <v>321</v>
       </c>
-      <c r="H101" s="74"/>
-      <c r="I101" s="74"/>
+      <c r="H101" s="60"/>
+      <c r="I101" s="60"/>
     </row>
     <row r="102" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A102" t="s">
@@ -13415,8 +13415,8 @@
       <c r="G102" t="s">
         <v>321</v>
       </c>
-      <c r="H102" s="74"/>
-      <c r="I102" s="74"/>
+      <c r="H102" s="60"/>
+      <c r="I102" s="60"/>
     </row>
     <row r="103" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B103" s="37"/>
@@ -13441,10 +13441,10 @@
       <c r="G104" t="s">
         <v>321</v>
       </c>
-      <c r="H104" s="84" t="s">
+      <c r="H104" s="70" t="s">
         <v>425</v>
       </c>
-      <c r="I104" s="85"/>
+      <c r="I104" s="71"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
@@ -13465,8 +13465,8 @@
       <c r="G105" t="s">
         <v>321</v>
       </c>
-      <c r="H105" s="86"/>
-      <c r="I105" s="87"/>
+      <c r="H105" s="72"/>
+      <c r="I105" s="73"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
@@ -13487,8 +13487,8 @@
       <c r="G106" t="s">
         <v>321</v>
       </c>
-      <c r="H106" s="86"/>
-      <c r="I106" s="87"/>
+      <c r="H106" s="72"/>
+      <c r="I106" s="73"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
@@ -13509,8 +13509,8 @@
       <c r="G107" t="s">
         <v>321</v>
       </c>
-      <c r="H107" s="86"/>
-      <c r="I107" s="87"/>
+      <c r="H107" s="72"/>
+      <c r="I107" s="73"/>
     </row>
     <row r="108" spans="1:9" ht="15" thickBot="1">
       <c r="A108" t="s">
@@ -13531,8 +13531,8 @@
       <c r="G108" t="s">
         <v>321</v>
       </c>
-      <c r="H108" s="88"/>
-      <c r="I108" s="89"/>
+      <c r="H108" s="74"/>
+      <c r="I108" s="75"/>
     </row>
     <row r="109" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B109" s="37"/>
@@ -13557,10 +13557,10 @@
       <c r="G110" t="s">
         <v>321</v>
       </c>
-      <c r="H110" s="96" t="s">
+      <c r="H110" s="82" t="s">
         <v>445</v>
       </c>
-      <c r="I110" s="97"/>
+      <c r="I110" s="83"/>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
@@ -13581,8 +13581,8 @@
       <c r="G111" t="s">
         <v>321</v>
       </c>
-      <c r="H111" s="98"/>
-      <c r="I111" s="99"/>
+      <c r="H111" s="84"/>
+      <c r="I111" s="85"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
@@ -13603,8 +13603,8 @@
       <c r="G112" t="s">
         <v>321</v>
       </c>
-      <c r="H112" s="98"/>
-      <c r="I112" s="99"/>
+      <c r="H112" s="84"/>
+      <c r="I112" s="85"/>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
@@ -13625,8 +13625,8 @@
       <c r="G113" t="s">
         <v>321</v>
       </c>
-      <c r="H113" s="98"/>
-      <c r="I113" s="99"/>
+      <c r="H113" s="84"/>
+      <c r="I113" s="85"/>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
@@ -13647,8 +13647,8 @@
       <c r="G114" t="s">
         <v>321</v>
       </c>
-      <c r="H114" s="98"/>
-      <c r="I114" s="99"/>
+      <c r="H114" s="84"/>
+      <c r="I114" s="85"/>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
@@ -13669,8 +13669,8 @@
       <c r="G115" t="s">
         <v>321</v>
       </c>
-      <c r="H115" s="98"/>
-      <c r="I115" s="99"/>
+      <c r="H115" s="84"/>
+      <c r="I115" s="85"/>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
@@ -13691,8 +13691,8 @@
       <c r="G116" t="s">
         <v>321</v>
       </c>
-      <c r="H116" s="98"/>
-      <c r="I116" s="99"/>
+      <c r="H116" s="84"/>
+      <c r="I116" s="85"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
@@ -13713,8 +13713,8 @@
       <c r="G117" t="s">
         <v>321</v>
       </c>
-      <c r="H117" s="98"/>
-      <c r="I117" s="99"/>
+      <c r="H117" s="84"/>
+      <c r="I117" s="85"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
@@ -13735,8 +13735,8 @@
       <c r="G118" t="s">
         <v>321</v>
       </c>
-      <c r="H118" s="98"/>
-      <c r="I118" s="99"/>
+      <c r="H118" s="84"/>
+      <c r="I118" s="85"/>
     </row>
     <row r="119" spans="1:9" ht="15" thickBot="1">
       <c r="A119" t="s">
@@ -13757,8 +13757,8 @@
       <c r="G119" t="s">
         <v>321</v>
       </c>
-      <c r="H119" s="100"/>
-      <c r="I119" s="101"/>
+      <c r="H119" s="86"/>
+      <c r="I119" s="87"/>
     </row>
     <row r="120" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B120" s="37"/>
@@ -13783,10 +13783,10 @@
       <c r="G121" t="s">
         <v>321</v>
       </c>
-      <c r="H121" s="84" t="s">
+      <c r="H121" s="70" t="s">
         <v>460</v>
       </c>
-      <c r="I121" s="85"/>
+      <c r="I121" s="71"/>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
@@ -13807,8 +13807,8 @@
       <c r="G122" t="s">
         <v>321</v>
       </c>
-      <c r="H122" s="86"/>
-      <c r="I122" s="87"/>
+      <c r="H122" s="72"/>
+      <c r="I122" s="73"/>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
@@ -13829,8 +13829,8 @@
       <c r="G123" t="s">
         <v>321</v>
       </c>
-      <c r="H123" s="86"/>
-      <c r="I123" s="87"/>
+      <c r="H123" s="72"/>
+      <c r="I123" s="73"/>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
@@ -13851,8 +13851,8 @@
       <c r="G124" t="s">
         <v>321</v>
       </c>
-      <c r="H124" s="86"/>
-      <c r="I124" s="87"/>
+      <c r="H124" s="72"/>
+      <c r="I124" s="73"/>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
@@ -13873,8 +13873,8 @@
       <c r="G125" t="s">
         <v>321</v>
       </c>
-      <c r="H125" s="86"/>
-      <c r="I125" s="87"/>
+      <c r="H125" s="72"/>
+      <c r="I125" s="73"/>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
@@ -13895,8 +13895,8 @@
       <c r="G126" t="s">
         <v>321</v>
       </c>
-      <c r="H126" s="86"/>
-      <c r="I126" s="87"/>
+      <c r="H126" s="72"/>
+      <c r="I126" s="73"/>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
@@ -13917,8 +13917,8 @@
       <c r="G127" t="s">
         <v>321</v>
       </c>
-      <c r="H127" s="86"/>
-      <c r="I127" s="87"/>
+      <c r="H127" s="72"/>
+      <c r="I127" s="73"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
@@ -13939,8 +13939,8 @@
       <c r="G128" t="s">
         <v>321</v>
       </c>
-      <c r="H128" s="86"/>
-      <c r="I128" s="87"/>
+      <c r="H128" s="72"/>
+      <c r="I128" s="73"/>
     </row>
     <row r="129" spans="1:9" ht="15" thickBot="1">
       <c r="A129" t="s">
@@ -13961,8 +13961,8 @@
       <c r="G129" t="s">
         <v>321</v>
       </c>
-      <c r="H129" s="88"/>
-      <c r="I129" s="89"/>
+      <c r="H129" s="74"/>
+      <c r="I129" s="75"/>
     </row>
     <row r="130" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B130" s="37"/>
@@ -13987,10 +13987,10 @@
       <c r="G131" t="s">
         <v>321</v>
       </c>
-      <c r="H131" s="74" t="s">
+      <c r="H131" s="60" t="s">
         <v>476</v>
       </c>
-      <c r="I131" s="74"/>
+      <c r="I131" s="60"/>
     </row>
     <row r="132" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A132" t="s">
@@ -14011,8 +14011,8 @@
       <c r="G132" t="s">
         <v>321</v>
       </c>
-      <c r="H132" s="74"/>
-      <c r="I132" s="74"/>
+      <c r="H132" s="60"/>
+      <c r="I132" s="60"/>
     </row>
     <row r="133" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A133" t="s">
@@ -14033,8 +14033,8 @@
       <c r="G133" t="s">
         <v>321</v>
       </c>
-      <c r="H133" s="74"/>
-      <c r="I133" s="74"/>
+      <c r="H133" s="60"/>
+      <c r="I133" s="60"/>
     </row>
     <row r="134" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A134" t="s">
@@ -14055,8 +14055,8 @@
       <c r="G134" t="s">
         <v>321</v>
       </c>
-      <c r="H134" s="74"/>
-      <c r="I134" s="74"/>
+      <c r="H134" s="60"/>
+      <c r="I134" s="60"/>
     </row>
     <row r="135" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A135" t="s">
@@ -14077,8 +14077,8 @@
       <c r="G135" t="s">
         <v>321</v>
       </c>
-      <c r="H135" s="74"/>
-      <c r="I135" s="74"/>
+      <c r="H135" s="60"/>
+      <c r="I135" s="60"/>
     </row>
     <row r="136" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A136" t="s">
@@ -14099,8 +14099,8 @@
       <c r="G136" t="s">
         <v>321</v>
       </c>
-      <c r="H136" s="74"/>
-      <c r="I136" s="74"/>
+      <c r="H136" s="60"/>
+      <c r="I136" s="60"/>
     </row>
     <row r="137" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A137" t="s">
@@ -14121,8 +14121,8 @@
       <c r="G137" t="s">
         <v>321</v>
       </c>
-      <c r="H137" s="74"/>
-      <c r="I137" s="74"/>
+      <c r="H137" s="60"/>
+      <c r="I137" s="60"/>
     </row>
     <row r="138" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A138" t="s">
@@ -14143,8 +14143,8 @@
       <c r="G138" t="s">
         <v>321</v>
       </c>
-      <c r="H138" s="74"/>
-      <c r="I138" s="74"/>
+      <c r="H138" s="60"/>
+      <c r="I138" s="60"/>
     </row>
     <row r="139" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B139" s="37"/>
@@ -14169,10 +14169,10 @@
       <c r="G140" t="s">
         <v>321</v>
       </c>
-      <c r="H140" s="78" t="s">
+      <c r="H140" s="64" t="s">
         <v>493</v>
       </c>
-      <c r="I140" s="78"/>
+      <c r="I140" s="64"/>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="s">
@@ -14193,8 +14193,8 @@
       <c r="G141" t="s">
         <v>321</v>
       </c>
-      <c r="H141" s="79"/>
-      <c r="I141" s="79"/>
+      <c r="H141" s="65"/>
+      <c r="I141" s="65"/>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="s">
@@ -14215,8 +14215,8 @@
       <c r="G142" t="s">
         <v>321</v>
       </c>
-      <c r="H142" s="79"/>
-      <c r="I142" s="79"/>
+      <c r="H142" s="65"/>
+      <c r="I142" s="65"/>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
@@ -14237,8 +14237,8 @@
       <c r="G143" t="s">
         <v>321</v>
       </c>
-      <c r="H143" s="79"/>
-      <c r="I143" s="79"/>
+      <c r="H143" s="65"/>
+      <c r="I143" s="65"/>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="40" t="s">
@@ -14259,8 +14259,8 @@
       <c r="G144" t="s">
         <v>321</v>
       </c>
-      <c r="H144" s="79"/>
-      <c r="I144" s="79"/>
+      <c r="H144" s="65"/>
+      <c r="I144" s="65"/>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
@@ -14281,8 +14281,8 @@
       <c r="G145" t="s">
         <v>321</v>
       </c>
-      <c r="H145" s="79"/>
-      <c r="I145" s="79"/>
+      <c r="H145" s="65"/>
+      <c r="I145" s="65"/>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="s">
@@ -14303,8 +14303,8 @@
       <c r="G146" t="s">
         <v>321</v>
       </c>
-      <c r="H146" s="79"/>
-      <c r="I146" s="79"/>
+      <c r="H146" s="65"/>
+      <c r="I146" s="65"/>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" t="s">
@@ -14325,8 +14325,8 @@
       <c r="G147" t="s">
         <v>321</v>
       </c>
-      <c r="H147" s="80"/>
-      <c r="I147" s="80"/>
+      <c r="H147" s="66"/>
+      <c r="I147" s="66"/>
     </row>
     <row r="148" spans="1:9" s="24" customFormat="1" ht="15" thickBot="1">
       <c r="B148" s="37"/>
@@ -14351,10 +14351,10 @@
       <c r="G149" t="s">
         <v>321</v>
       </c>
-      <c r="H149" s="64" t="s">
+      <c r="H149" s="56" t="s">
         <v>515</v>
       </c>
-      <c r="I149" s="64"/>
+      <c r="I149" s="56"/>
     </row>
     <row r="150" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A150" t="s">
@@ -14375,8 +14375,8 @@
       <c r="G150" t="s">
         <v>321</v>
       </c>
-      <c r="H150" s="64"/>
-      <c r="I150" s="64"/>
+      <c r="H150" s="56"/>
+      <c r="I150" s="56"/>
     </row>
     <row r="151" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A151" t="s">
@@ -14397,8 +14397,8 @@
       <c r="G151" t="s">
         <v>321</v>
       </c>
-      <c r="H151" s="64"/>
-      <c r="I151" s="64"/>
+      <c r="H151" s="56"/>
+      <c r="I151" s="56"/>
     </row>
     <row r="152" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A152" t="s">
@@ -14419,8 +14419,8 @@
       <c r="G152" t="s">
         <v>321</v>
       </c>
-      <c r="H152" s="64"/>
-      <c r="I152" s="64"/>
+      <c r="H152" s="56"/>
+      <c r="I152" s="56"/>
     </row>
     <row r="153" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A153" t="s">
@@ -14441,8 +14441,8 @@
       <c r="G153" t="s">
         <v>321</v>
       </c>
-      <c r="H153" s="64"/>
-      <c r="I153" s="64"/>
+      <c r="H153" s="56"/>
+      <c r="I153" s="56"/>
     </row>
     <row r="154" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A154" t="s">
@@ -14463,8 +14463,8 @@
       <c r="G154" t="s">
         <v>321</v>
       </c>
-      <c r="H154" s="64"/>
-      <c r="I154" s="64"/>
+      <c r="H154" s="56"/>
+      <c r="I154" s="56"/>
     </row>
     <row r="155" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A155" t="s">
@@ -14485,8 +14485,8 @@
       <c r="G155" t="s">
         <v>321</v>
       </c>
-      <c r="H155" s="64"/>
-      <c r="I155" s="64"/>
+      <c r="H155" s="56"/>
+      <c r="I155" s="56"/>
     </row>
     <row r="156" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A156" t="s">
@@ -14507,8 +14507,8 @@
       <c r="G156" t="s">
         <v>321</v>
       </c>
-      <c r="H156" s="64"/>
-      <c r="I156" s="64"/>
+      <c r="H156" s="56"/>
+      <c r="I156" s="56"/>
     </row>
     <row r="157" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A157" t="s">
@@ -14529,8 +14529,8 @@
       <c r="G157" t="s">
         <v>321</v>
       </c>
-      <c r="H157" s="64"/>
-      <c r="I157" s="64"/>
+      <c r="H157" s="56"/>
+      <c r="I157" s="56"/>
     </row>
     <row r="158" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A158" t="s">
@@ -14551,8 +14551,8 @@
       <c r="G158" t="s">
         <v>321</v>
       </c>
-      <c r="H158" s="64"/>
-      <c r="I158" s="64"/>
+      <c r="H158" s="56"/>
+      <c r="I158" s="56"/>
     </row>
     <row r="159" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B159" s="37"/>
@@ -14577,10 +14577,10 @@
       <c r="G160" t="s">
         <v>321</v>
       </c>
-      <c r="H160" s="65" t="s">
+      <c r="H160" s="88" t="s">
         <v>529</v>
       </c>
-      <c r="I160" s="65"/>
+      <c r="I160" s="88"/>
     </row>
     <row r="161" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A161" t="s">
@@ -14601,8 +14601,8 @@
       <c r="G161" t="s">
         <v>321</v>
       </c>
-      <c r="H161" s="65"/>
-      <c r="I161" s="65"/>
+      <c r="H161" s="88"/>
+      <c r="I161" s="88"/>
     </row>
     <row r="162" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A162" t="s">
@@ -14623,8 +14623,8 @@
       <c r="G162" t="s">
         <v>321</v>
       </c>
-      <c r="H162" s="65"/>
-      <c r="I162" s="65"/>
+      <c r="H162" s="88"/>
+      <c r="I162" s="88"/>
     </row>
     <row r="163" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A163" t="s">
@@ -14645,8 +14645,8 @@
       <c r="G163" t="s">
         <v>321</v>
       </c>
-      <c r="H163" s="65"/>
-      <c r="I163" s="65"/>
+      <c r="H163" s="88"/>
+      <c r="I163" s="88"/>
     </row>
     <row r="164" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A164" t="s">
@@ -14667,8 +14667,8 @@
       <c r="G164" t="s">
         <v>321</v>
       </c>
-      <c r="H164" s="65"/>
-      <c r="I164" s="65"/>
+      <c r="H164" s="88"/>
+      <c r="I164" s="88"/>
     </row>
     <row r="165" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A165" t="s">
@@ -14689,8 +14689,8 @@
       <c r="G165" t="s">
         <v>321</v>
       </c>
-      <c r="H165" s="65"/>
-      <c r="I165" s="65"/>
+      <c r="H165" s="88"/>
+      <c r="I165" s="88"/>
     </row>
     <row r="166" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A166" t="s">
@@ -14711,8 +14711,8 @@
       <c r="G166" t="s">
         <v>321</v>
       </c>
-      <c r="H166" s="65"/>
-      <c r="I166" s="65"/>
+      <c r="H166" s="88"/>
+      <c r="I166" s="88"/>
     </row>
     <row r="167" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B167" s="37"/>
@@ -14737,10 +14737,10 @@
       <c r="G168" t="s">
         <v>321</v>
       </c>
-      <c r="H168" s="66" t="s">
+      <c r="H168" s="89" t="s">
         <v>537</v>
       </c>
-      <c r="I168" s="66"/>
+      <c r="I168" s="89"/>
     </row>
     <row r="169" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A169" t="s">
@@ -14761,8 +14761,8 @@
       <c r="G169" t="s">
         <v>321</v>
       </c>
-      <c r="H169" s="66"/>
-      <c r="I169" s="66"/>
+      <c r="H169" s="89"/>
+      <c r="I169" s="89"/>
     </row>
     <row r="170" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A170" t="s">
@@ -14783,8 +14783,8 @@
       <c r="G170" t="s">
         <v>321</v>
       </c>
-      <c r="H170" s="66"/>
-      <c r="I170" s="66"/>
+      <c r="H170" s="89"/>
+      <c r="I170" s="89"/>
     </row>
     <row r="171" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B171" s="37"/>
@@ -14809,10 +14809,10 @@
       <c r="G172" t="s">
         <v>321</v>
       </c>
-      <c r="H172" s="62" t="s">
+      <c r="H172" s="59" t="s">
         <v>554</v>
       </c>
-      <c r="I172" s="62"/>
+      <c r="I172" s="59"/>
     </row>
     <row r="173" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A173" t="s">
@@ -14833,8 +14833,8 @@
       <c r="G173" t="s">
         <v>321</v>
       </c>
-      <c r="H173" s="62"/>
-      <c r="I173" s="62"/>
+      <c r="H173" s="59"/>
+      <c r="I173" s="59"/>
     </row>
     <row r="174" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A174" t="s">
@@ -14855,8 +14855,8 @@
       <c r="G174" t="s">
         <v>321</v>
       </c>
-      <c r="H174" s="62"/>
-      <c r="I174" s="62"/>
+      <c r="H174" s="59"/>
+      <c r="I174" s="59"/>
     </row>
     <row r="175" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A175" t="s">
@@ -14877,8 +14877,8 @@
       <c r="G175" t="s">
         <v>321</v>
       </c>
-      <c r="H175" s="62"/>
-      <c r="I175" s="62"/>
+      <c r="H175" s="59"/>
+      <c r="I175" s="59"/>
     </row>
     <row r="176" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A176" t="s">
@@ -14899,8 +14899,8 @@
       <c r="G176" t="s">
         <v>321</v>
       </c>
-      <c r="H176" s="62"/>
-      <c r="I176" s="62"/>
+      <c r="H176" s="59"/>
+      <c r="I176" s="59"/>
     </row>
     <row r="177" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A177" t="s">
@@ -14921,8 +14921,8 @@
       <c r="G177" t="s">
         <v>321</v>
       </c>
-      <c r="H177" s="62"/>
-      <c r="I177" s="62"/>
+      <c r="H177" s="59"/>
+      <c r="I177" s="59"/>
     </row>
     <row r="178" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A178" t="s">
@@ -14943,8 +14943,8 @@
       <c r="G178" t="s">
         <v>321</v>
       </c>
-      <c r="H178" s="62"/>
-      <c r="I178" s="62"/>
+      <c r="H178" s="59"/>
+      <c r="I178" s="59"/>
     </row>
     <row r="179" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A179" s="40" t="s">
@@ -14965,8 +14965,8 @@
       <c r="G179" t="s">
         <v>321</v>
       </c>
-      <c r="H179" s="62"/>
-      <c r="I179" s="62"/>
+      <c r="H179" s="59"/>
+      <c r="I179" s="59"/>
     </row>
     <row r="180" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B180" s="37"/>
@@ -14991,10 +14991,10 @@
       <c r="G181" t="s">
         <v>321</v>
       </c>
-      <c r="H181" s="67" t="s">
+      <c r="H181" s="90" t="s">
         <v>562</v>
       </c>
-      <c r="I181" s="68"/>
+      <c r="I181" s="91"/>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="s">
@@ -15015,8 +15015,8 @@
       <c r="G182" t="s">
         <v>321</v>
       </c>
-      <c r="H182" s="69"/>
-      <c r="I182" s="70"/>
+      <c r="H182" s="92"/>
+      <c r="I182" s="93"/>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="s">
@@ -15037,8 +15037,8 @@
       <c r="G183" t="s">
         <v>321</v>
       </c>
-      <c r="H183" s="69"/>
-      <c r="I183" s="70"/>
+      <c r="H183" s="92"/>
+      <c r="I183" s="93"/>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" t="s">
@@ -15059,8 +15059,8 @@
       <c r="G184" t="s">
         <v>321</v>
       </c>
-      <c r="H184" s="69"/>
-      <c r="I184" s="70"/>
+      <c r="H184" s="92"/>
+      <c r="I184" s="93"/>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" t="s">
@@ -15081,8 +15081,8 @@
       <c r="G185" t="s">
         <v>321</v>
       </c>
-      <c r="H185" s="69"/>
-      <c r="I185" s="70"/>
+      <c r="H185" s="92"/>
+      <c r="I185" s="93"/>
     </row>
     <row r="186" spans="1:9" ht="15" thickBot="1">
       <c r="A186" t="s">
@@ -15103,8 +15103,8 @@
       <c r="G186" t="s">
         <v>321</v>
       </c>
-      <c r="H186" s="71"/>
-      <c r="I186" s="72"/>
+      <c r="H186" s="94"/>
+      <c r="I186" s="95"/>
     </row>
     <row r="187" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B187" s="37"/>
@@ -15129,10 +15129,10 @@
       <c r="G188" t="s">
         <v>321</v>
       </c>
-      <c r="H188" s="64" t="s">
+      <c r="H188" s="56" t="s">
         <v>577</v>
       </c>
-      <c r="I188" s="64"/>
+      <c r="I188" s="56"/>
     </row>
     <row r="189" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A189" t="s">
@@ -15153,8 +15153,8 @@
       <c r="G189" t="s">
         <v>321</v>
       </c>
-      <c r="H189" s="64"/>
-      <c r="I189" s="64"/>
+      <c r="H189" s="56"/>
+      <c r="I189" s="56"/>
     </row>
     <row r="190" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A190" t="s">
@@ -15175,8 +15175,8 @@
       <c r="G190" t="s">
         <v>321</v>
       </c>
-      <c r="H190" s="64"/>
-      <c r="I190" s="64"/>
+      <c r="H190" s="56"/>
+      <c r="I190" s="56"/>
     </row>
     <row r="191" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A191" t="s">
@@ -15197,8 +15197,8 @@
       <c r="G191" t="s">
         <v>321</v>
       </c>
-      <c r="H191" s="64"/>
-      <c r="I191" s="64"/>
+      <c r="H191" s="56"/>
+      <c r="I191" s="56"/>
     </row>
     <row r="192" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A192" t="s">
@@ -15219,8 +15219,8 @@
       <c r="G192" t="s">
         <v>321</v>
       </c>
-      <c r="H192" s="64"/>
-      <c r="I192" s="64"/>
+      <c r="H192" s="56"/>
+      <c r="I192" s="56"/>
     </row>
     <row r="193" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A193" t="s">
@@ -15241,8 +15241,8 @@
       <c r="G193" t="s">
         <v>321</v>
       </c>
-      <c r="H193" s="64"/>
-      <c r="I193" s="64"/>
+      <c r="H193" s="56"/>
+      <c r="I193" s="56"/>
     </row>
     <row r="194" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A194" t="s">
@@ -15263,8 +15263,8 @@
       <c r="G194" t="s">
         <v>321</v>
       </c>
-      <c r="H194" s="64"/>
-      <c r="I194" s="64"/>
+      <c r="H194" s="56"/>
+      <c r="I194" s="56"/>
     </row>
     <row r="195" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B195" s="37"/>
@@ -15289,10 +15289,10 @@
       <c r="G196" t="s">
         <v>321</v>
       </c>
-      <c r="H196" s="102" t="s">
+      <c r="H196" s="57" t="s">
         <v>584</v>
       </c>
-      <c r="I196" s="102"/>
+      <c r="I196" s="57"/>
     </row>
     <row r="197" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A197" t="s">
@@ -15313,8 +15313,8 @@
       <c r="G197" t="s">
         <v>321</v>
       </c>
-      <c r="H197" s="102"/>
-      <c r="I197" s="102"/>
+      <c r="H197" s="57"/>
+      <c r="I197" s="57"/>
     </row>
     <row r="198" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A198" t="s">
@@ -15335,8 +15335,8 @@
       <c r="G198" t="s">
         <v>321</v>
       </c>
-      <c r="H198" s="102"/>
-      <c r="I198" s="102"/>
+      <c r="H198" s="57"/>
+      <c r="I198" s="57"/>
     </row>
     <row r="199" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A199" t="s">
@@ -15357,8 +15357,8 @@
       <c r="G199" t="s">
         <v>321</v>
       </c>
-      <c r="H199" s="102"/>
-      <c r="I199" s="102"/>
+      <c r="H199" s="57"/>
+      <c r="I199" s="57"/>
     </row>
     <row r="200" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B200" s="37"/>
@@ -15383,10 +15383,10 @@
       <c r="G201" t="s">
         <v>321</v>
       </c>
-      <c r="H201" s="73" t="s">
+      <c r="H201" s="58" t="s">
         <v>593</v>
       </c>
-      <c r="I201" s="73"/>
+      <c r="I201" s="58"/>
     </row>
     <row r="202" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A202" t="s">
@@ -15407,8 +15407,8 @@
       <c r="G202" t="s">
         <v>321</v>
       </c>
-      <c r="H202" s="73"/>
-      <c r="I202" s="73"/>
+      <c r="H202" s="58"/>
+      <c r="I202" s="58"/>
     </row>
     <row r="203" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A203" t="s">
@@ -15429,8 +15429,8 @@
       <c r="G203" t="s">
         <v>321</v>
       </c>
-      <c r="H203" s="73"/>
-      <c r="I203" s="73"/>
+      <c r="H203" s="58"/>
+      <c r="I203" s="58"/>
     </row>
     <row r="204" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A204" t="s">
@@ -15451,8 +15451,8 @@
       <c r="G204" t="s">
         <v>321</v>
       </c>
-      <c r="H204" s="73"/>
-      <c r="I204" s="73"/>
+      <c r="H204" s="58"/>
+      <c r="I204" s="58"/>
     </row>
     <row r="205" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A205" t="s">
@@ -15473,8 +15473,8 @@
       <c r="G205" t="s">
         <v>321</v>
       </c>
-      <c r="H205" s="73"/>
-      <c r="I205" s="73"/>
+      <c r="H205" s="58"/>
+      <c r="I205" s="58"/>
     </row>
     <row r="206" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A206" t="s">
@@ -15495,8 +15495,8 @@
       <c r="G206" t="s">
         <v>321</v>
       </c>
-      <c r="H206" s="73"/>
-      <c r="I206" s="73"/>
+      <c r="H206" s="58"/>
+      <c r="I206" s="58"/>
     </row>
     <row r="207" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B207" s="37"/>
@@ -15521,10 +15521,10 @@
       <c r="G208" t="s">
         <v>321</v>
       </c>
-      <c r="H208" s="62" t="s">
+      <c r="H208" s="59" t="s">
         <v>616</v>
       </c>
-      <c r="I208" s="62"/>
+      <c r="I208" s="59"/>
     </row>
     <row r="209" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A209" t="s">
@@ -15545,8 +15545,8 @@
       <c r="G209" t="s">
         <v>321</v>
       </c>
-      <c r="H209" s="62"/>
-      <c r="I209" s="62"/>
+      <c r="H209" s="59"/>
+      <c r="I209" s="59"/>
     </row>
     <row r="210" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A210" t="s">
@@ -15567,8 +15567,8 @@
       <c r="G210" t="s">
         <v>321</v>
       </c>
-      <c r="H210" s="62"/>
-      <c r="I210" s="62"/>
+      <c r="H210" s="59"/>
+      <c r="I210" s="59"/>
     </row>
     <row r="211" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A211" t="s">
@@ -15589,8 +15589,8 @@
       <c r="G211" t="s">
         <v>321</v>
       </c>
-      <c r="H211" s="62"/>
-      <c r="I211" s="62"/>
+      <c r="H211" s="59"/>
+      <c r="I211" s="59"/>
     </row>
     <row r="212" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A212" t="s">
@@ -15611,8 +15611,8 @@
       <c r="G212" t="s">
         <v>321</v>
       </c>
-      <c r="H212" s="62"/>
-      <c r="I212" s="62"/>
+      <c r="H212" s="59"/>
+      <c r="I212" s="59"/>
     </row>
     <row r="213" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B213" s="37"/>
@@ -15637,10 +15637,10 @@
       <c r="G214" t="s">
         <v>321</v>
       </c>
-      <c r="H214" s="74" t="s">
+      <c r="H214" s="60" t="s">
         <v>633</v>
       </c>
-      <c r="I214" s="74"/>
+      <c r="I214" s="60"/>
     </row>
     <row r="215" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A215" t="s">
@@ -15661,8 +15661,8 @@
       <c r="G215" t="s">
         <v>321</v>
       </c>
-      <c r="H215" s="74"/>
-      <c r="I215" s="74"/>
+      <c r="H215" s="60"/>
+      <c r="I215" s="60"/>
     </row>
     <row r="216" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A216" t="s">
@@ -15683,8 +15683,8 @@
       <c r="G216" t="s">
         <v>321</v>
       </c>
-      <c r="H216" s="74"/>
-      <c r="I216" s="74"/>
+      <c r="H216" s="60"/>
+      <c r="I216" s="60"/>
     </row>
     <row r="217" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A217" t="s">
@@ -15705,8 +15705,8 @@
       <c r="G217" t="s">
         <v>321</v>
       </c>
-      <c r="H217" s="74"/>
-      <c r="I217" s="74"/>
+      <c r="H217" s="60"/>
+      <c r="I217" s="60"/>
     </row>
     <row r="218" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A218" t="s">
@@ -15727,8 +15727,8 @@
       <c r="G218" t="s">
         <v>321</v>
       </c>
-      <c r="H218" s="74"/>
-      <c r="I218" s="74"/>
+      <c r="H218" s="60"/>
+      <c r="I218" s="60"/>
     </row>
     <row r="219" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A219" t="s">
@@ -15749,8 +15749,8 @@
       <c r="G219" t="s">
         <v>321</v>
       </c>
-      <c r="H219" s="74"/>
-      <c r="I219" s="74"/>
+      <c r="H219" s="60"/>
+      <c r="I219" s="60"/>
     </row>
     <row r="220" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A220" t="s">
@@ -15771,8 +15771,8 @@
       <c r="G220" t="s">
         <v>321</v>
       </c>
-      <c r="H220" s="74"/>
-      <c r="I220" s="74"/>
+      <c r="H220" s="60"/>
+      <c r="I220" s="60"/>
     </row>
     <row r="221" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A221" t="s">
@@ -15793,8 +15793,8 @@
       <c r="G221" t="s">
         <v>321</v>
       </c>
-      <c r="H221" s="74"/>
-      <c r="I221" s="74"/>
+      <c r="H221" s="60"/>
+      <c r="I221" s="60"/>
     </row>
     <row r="222" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A222" t="s">
@@ -15815,8 +15815,8 @@
       <c r="G222" t="s">
         <v>321</v>
       </c>
-      <c r="H222" s="74"/>
-      <c r="I222" s="74"/>
+      <c r="H222" s="60"/>
+      <c r="I222" s="60"/>
     </row>
     <row r="223" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A223" t="s">
@@ -15837,8 +15837,8 @@
       <c r="G223" t="s">
         <v>321</v>
       </c>
-      <c r="H223" s="74"/>
-      <c r="I223" s="74"/>
+      <c r="H223" s="60"/>
+      <c r="I223" s="60"/>
     </row>
     <row r="224" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B224" s="37"/>
@@ -15863,10 +15863,10 @@
       <c r="G225" t="s">
         <v>321</v>
       </c>
-      <c r="H225" s="62" t="s">
+      <c r="H225" s="59" t="s">
         <v>644</v>
       </c>
-      <c r="I225" s="62"/>
+      <c r="I225" s="59"/>
     </row>
     <row r="226" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A226" t="s">
@@ -15887,8 +15887,8 @@
       <c r="G226" t="s">
         <v>321</v>
       </c>
-      <c r="H226" s="62"/>
-      <c r="I226" s="62"/>
+      <c r="H226" s="59"/>
+      <c r="I226" s="59"/>
     </row>
     <row r="227" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A227" t="s">
@@ -15909,8 +15909,8 @@
       <c r="G227" t="s">
         <v>321</v>
       </c>
-      <c r="H227" s="62"/>
-      <c r="I227" s="62"/>
+      <c r="H227" s="59"/>
+      <c r="I227" s="59"/>
     </row>
     <row r="228" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A228" t="s">
@@ -15931,8 +15931,8 @@
       <c r="G228" t="s">
         <v>321</v>
       </c>
-      <c r="H228" s="62"/>
-      <c r="I228" s="62"/>
+      <c r="H228" s="59"/>
+      <c r="I228" s="59"/>
     </row>
     <row r="229" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A229" t="s">
@@ -15953,8 +15953,8 @@
       <c r="G229" t="s">
         <v>321</v>
       </c>
-      <c r="H229" s="62"/>
-      <c r="I229" s="62"/>
+      <c r="H229" s="59"/>
+      <c r="I229" s="59"/>
     </row>
     <row r="230" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A230" t="s">
@@ -15975,8 +15975,8 @@
       <c r="G230" t="s">
         <v>321</v>
       </c>
-      <c r="H230" s="62"/>
-      <c r="I230" s="62"/>
+      <c r="H230" s="59"/>
+      <c r="I230" s="59"/>
     </row>
     <row r="231" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A231" t="s">
@@ -15997,8 +15997,8 @@
       <c r="G231" t="s">
         <v>321</v>
       </c>
-      <c r="H231" s="62"/>
-      <c r="I231" s="62"/>
+      <c r="H231" s="59"/>
+      <c r="I231" s="59"/>
     </row>
     <row r="232" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A232" t="s">
@@ -16019,8 +16019,8 @@
       <c r="G232" t="s">
         <v>321</v>
       </c>
-      <c r="H232" s="62"/>
-      <c r="I232" s="62"/>
+      <c r="H232" s="59"/>
+      <c r="I232" s="59"/>
     </row>
     <row r="233" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A233" t="s">
@@ -16041,8 +16041,8 @@
       <c r="G233" t="s">
         <v>321</v>
       </c>
-      <c r="H233" s="62"/>
-      <c r="I233" s="62"/>
+      <c r="H233" s="59"/>
+      <c r="I233" s="59"/>
     </row>
     <row r="234" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A234" t="s">
@@ -16063,8 +16063,8 @@
       <c r="G234" t="s">
         <v>321</v>
       </c>
-      <c r="H234" s="62"/>
-      <c r="I234" s="62"/>
+      <c r="H234" s="59"/>
+      <c r="I234" s="59"/>
     </row>
     <row r="235" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A235" t="s">
@@ -16085,8 +16085,8 @@
       <c r="G235" t="s">
         <v>321</v>
       </c>
-      <c r="H235" s="62"/>
-      <c r="I235" s="62"/>
+      <c r="H235" s="59"/>
+      <c r="I235" s="59"/>
     </row>
     <row r="236" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A236" t="s">
@@ -16107,8 +16107,8 @@
       <c r="G236" t="s">
         <v>321</v>
       </c>
-      <c r="H236" s="62"/>
-      <c r="I236" s="62"/>
+      <c r="H236" s="59"/>
+      <c r="I236" s="59"/>
     </row>
     <row r="237" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A237" t="s">
@@ -16129,8 +16129,8 @@
       <c r="G237" t="s">
         <v>321</v>
       </c>
-      <c r="H237" s="62"/>
-      <c r="I237" s="62"/>
+      <c r="H237" s="59"/>
+      <c r="I237" s="59"/>
     </row>
     <row r="238" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B238" s="37"/>
@@ -16152,10 +16152,10 @@
       <c r="E239" t="s">
         <v>321</v>
       </c>
-      <c r="H239" s="56" t="s">
+      <c r="H239" s="96" t="s">
         <v>669</v>
       </c>
-      <c r="I239" s="57"/>
+      <c r="I239" s="97"/>
     </row>
     <row r="240" spans="1:9">
       <c r="A240" t="s">
@@ -16173,8 +16173,8 @@
       <c r="E240" t="s">
         <v>321</v>
       </c>
-      <c r="H240" s="58"/>
-      <c r="I240" s="59"/>
+      <c r="H240" s="98"/>
+      <c r="I240" s="99"/>
     </row>
     <row r="241" spans="1:9">
       <c r="A241" t="s">
@@ -16192,8 +16192,8 @@
       <c r="E241" t="s">
         <v>321</v>
       </c>
-      <c r="H241" s="58"/>
-      <c r="I241" s="59"/>
+      <c r="H241" s="98"/>
+      <c r="I241" s="99"/>
     </row>
     <row r="242" spans="1:9">
       <c r="A242" t="s">
@@ -16211,8 +16211,8 @@
       <c r="E242" t="s">
         <v>321</v>
       </c>
-      <c r="H242" s="58"/>
-      <c r="I242" s="59"/>
+      <c r="H242" s="98"/>
+      <c r="I242" s="99"/>
     </row>
     <row r="243" spans="1:9">
       <c r="A243" t="s">
@@ -16230,8 +16230,8 @@
       <c r="E243" t="s">
         <v>321</v>
       </c>
-      <c r="H243" s="58"/>
-      <c r="I243" s="59"/>
+      <c r="H243" s="98"/>
+      <c r="I243" s="99"/>
     </row>
     <row r="244" spans="1:9">
       <c r="A244" t="s">
@@ -16249,8 +16249,8 @@
       <c r="E244" t="s">
         <v>321</v>
       </c>
-      <c r="H244" s="58"/>
-      <c r="I244" s="59"/>
+      <c r="H244" s="98"/>
+      <c r="I244" s="99"/>
     </row>
     <row r="245" spans="1:9">
       <c r="A245" t="s">
@@ -16268,8 +16268,8 @@
       <c r="E245" t="s">
         <v>321</v>
       </c>
-      <c r="H245" s="58"/>
-      <c r="I245" s="59"/>
+      <c r="H245" s="98"/>
+      <c r="I245" s="99"/>
     </row>
     <row r="246" spans="1:9">
       <c r="A246" t="s">
@@ -16287,8 +16287,8 @@
       <c r="E246" t="s">
         <v>321</v>
       </c>
-      <c r="H246" s="58"/>
-      <c r="I246" s="59"/>
+      <c r="H246" s="98"/>
+      <c r="I246" s="99"/>
     </row>
     <row r="247" spans="1:9">
       <c r="A247" t="s">
@@ -16306,8 +16306,8 @@
       <c r="E247" t="s">
         <v>321</v>
       </c>
-      <c r="H247" s="58"/>
-      <c r="I247" s="59"/>
+      <c r="H247" s="98"/>
+      <c r="I247" s="99"/>
     </row>
     <row r="248" spans="1:9">
       <c r="A248" t="s">
@@ -16325,8 +16325,8 @@
       <c r="E248" t="s">
         <v>321</v>
       </c>
-      <c r="H248" s="58"/>
-      <c r="I248" s="59"/>
+      <c r="H248" s="98"/>
+      <c r="I248" s="99"/>
     </row>
     <row r="249" spans="1:9">
       <c r="A249" t="s">
@@ -16344,8 +16344,8 @@
       <c r="E249" t="s">
         <v>321</v>
       </c>
-      <c r="H249" s="58"/>
-      <c r="I249" s="59"/>
+      <c r="H249" s="98"/>
+      <c r="I249" s="99"/>
     </row>
     <row r="250" spans="1:9">
       <c r="A250" t="s">
@@ -16363,8 +16363,8 @@
       <c r="E250" t="s">
         <v>321</v>
       </c>
-      <c r="H250" s="58"/>
-      <c r="I250" s="59"/>
+      <c r="H250" s="98"/>
+      <c r="I250" s="99"/>
     </row>
     <row r="251" spans="1:9">
       <c r="A251" t="s">
@@ -16382,8 +16382,8 @@
       <c r="E251" t="s">
         <v>321</v>
       </c>
-      <c r="H251" s="58"/>
-      <c r="I251" s="59"/>
+      <c r="H251" s="98"/>
+      <c r="I251" s="99"/>
     </row>
     <row r="252" spans="1:9" ht="15" thickBot="1">
       <c r="A252" t="s">
@@ -16401,8 +16401,8 @@
       <c r="E252" t="s">
         <v>321</v>
       </c>
-      <c r="H252" s="60"/>
-      <c r="I252" s="61"/>
+      <c r="H252" s="100"/>
+      <c r="I252" s="101"/>
     </row>
     <row r="253" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B253" s="37"/>
@@ -16424,10 +16424,10 @@
       <c r="E254" t="s">
         <v>321</v>
       </c>
-      <c r="H254" s="56" t="s">
+      <c r="H254" s="96" t="s">
         <v>670</v>
       </c>
-      <c r="I254" s="57"/>
+      <c r="I254" s="97"/>
     </row>
     <row r="255" spans="1:9">
       <c r="A255" t="s">
@@ -16445,8 +16445,8 @@
       <c r="E255" t="s">
         <v>321</v>
       </c>
-      <c r="H255" s="58"/>
-      <c r="I255" s="59"/>
+      <c r="H255" s="98"/>
+      <c r="I255" s="99"/>
     </row>
     <row r="256" spans="1:9">
       <c r="A256" t="s">
@@ -16464,8 +16464,8 @@
       <c r="E256" t="s">
         <v>321</v>
       </c>
-      <c r="H256" s="58"/>
-      <c r="I256" s="59"/>
+      <c r="H256" s="98"/>
+      <c r="I256" s="99"/>
     </row>
     <row r="257" spans="1:9" ht="15" thickBot="1">
       <c r="A257" t="s">
@@ -16483,8 +16483,8 @@
       <c r="E257" t="s">
         <v>321</v>
       </c>
-      <c r="H257" s="60"/>
-      <c r="I257" s="61"/>
+      <c r="H257" s="100"/>
+      <c r="I257" s="101"/>
     </row>
     <row r="258" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B258" s="37"/>
@@ -16506,10 +16506,10 @@
       <c r="E259" t="s">
         <v>321</v>
       </c>
-      <c r="H259" s="63" t="s">
+      <c r="H259" s="102" t="s">
         <v>671</v>
       </c>
-      <c r="I259" s="63"/>
+      <c r="I259" s="102"/>
     </row>
     <row r="260" spans="1:9" s="24" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="B260" s="37"/>
@@ -16531,10 +16531,10 @@
       <c r="E261" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="H261" s="56" t="s">
+      <c r="H261" s="96" t="s">
         <v>682</v>
       </c>
-      <c r="I261" s="57"/>
+      <c r="I261" s="97"/>
     </row>
     <row r="262" spans="1:9">
       <c r="A262" s="47" t="s">
@@ -16552,8 +16552,8 @@
       <c r="E262" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="H262" s="58"/>
-      <c r="I262" s="59"/>
+      <c r="H262" s="98"/>
+      <c r="I262" s="99"/>
     </row>
     <row r="263" spans="1:9">
       <c r="A263" t="s">
@@ -16571,8 +16571,8 @@
       <c r="E263" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="H263" s="58"/>
-      <c r="I263" s="59"/>
+      <c r="H263" s="98"/>
+      <c r="I263" s="99"/>
     </row>
     <row r="264" spans="1:9">
       <c r="A264" t="s">
@@ -16590,8 +16590,8 @@
       <c r="E264" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="H264" s="58"/>
-      <c r="I264" s="59"/>
+      <c r="H264" s="98"/>
+      <c r="I264" s="99"/>
     </row>
     <row r="265" spans="1:9">
       <c r="A265" t="s">
@@ -16609,8 +16609,8 @@
       <c r="E265" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="H265" s="58"/>
-      <c r="I265" s="59"/>
+      <c r="H265" s="98"/>
+      <c r="I265" s="99"/>
     </row>
     <row r="266" spans="1:9" ht="15" thickBot="1">
       <c r="A266" t="s">
@@ -16628,8 +16628,8 @@
       <c r="E266" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="H266" s="60"/>
-      <c r="I266" s="61"/>
+      <c r="H266" s="100"/>
+      <c r="I266" s="101"/>
     </row>
     <row r="267" spans="1:9" s="24" customFormat="1" ht="15" thickTop="1">
       <c r="B267" s="37"/>
@@ -17620,11 +17620,16 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="H188:I194"/>
-    <mergeCell ref="H196:I199"/>
-    <mergeCell ref="H201:I206"/>
-    <mergeCell ref="H208:I212"/>
-    <mergeCell ref="H214:I223"/>
+    <mergeCell ref="H261:I266"/>
+    <mergeCell ref="H225:I237"/>
+    <mergeCell ref="H239:I252"/>
+    <mergeCell ref="H254:I257"/>
+    <mergeCell ref="H259:I259"/>
+    <mergeCell ref="H149:I158"/>
+    <mergeCell ref="H160:I166"/>
+    <mergeCell ref="H168:I170"/>
+    <mergeCell ref="H172:I179"/>
+    <mergeCell ref="H181:I186"/>
     <mergeCell ref="H3:I13"/>
     <mergeCell ref="H15:I23"/>
     <mergeCell ref="H25:I31"/>
@@ -17640,16 +17645,11 @@
     <mergeCell ref="H97:I102"/>
     <mergeCell ref="H104:I108"/>
     <mergeCell ref="H110:I119"/>
-    <mergeCell ref="H149:I158"/>
-    <mergeCell ref="H160:I166"/>
-    <mergeCell ref="H168:I170"/>
-    <mergeCell ref="H172:I179"/>
-    <mergeCell ref="H181:I186"/>
-    <mergeCell ref="H261:I266"/>
-    <mergeCell ref="H225:I237"/>
-    <mergeCell ref="H239:I252"/>
-    <mergeCell ref="H254:I257"/>
-    <mergeCell ref="H259:I259"/>
+    <mergeCell ref="H188:I194"/>
+    <mergeCell ref="H196:I199"/>
+    <mergeCell ref="H201:I206"/>
+    <mergeCell ref="H208:I212"/>
+    <mergeCell ref="H214:I223"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
